--- a/Projects/CCRU/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU/Data/FT PoS 2018.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Alcomarket" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$165</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
@@ -33,6 +33,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1876,6 +1877,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1936,12 +1943,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2022,12 +2023,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -2086,7 +2094,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2112,11 +2120,14 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2125,171 +2136,175 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2297,15 +2312,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2313,131 +2328,131 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2453,23 +2468,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2477,79 +2492,79 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="11" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="10" fillId="11" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="11" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="10" fillId="11" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2561,27 +2576,28 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="SAPBEXstdItem" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2657,25 +2673,20 @@
   </sheetPr>
   <dimension ref="A1:AQ165"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D153" activeCellId="0" sqref="D153"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F55" activeCellId="0" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.5627530364373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.1093117408907"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="35" min="16" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.3603238866397"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.2591093117409"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="21.0607287449393"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="81.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,7 +3587,7 @@
       </c>
       <c r="AQ10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="n">
         <v>10</v>
       </c>
@@ -3611,8 +3622,8 @@
       <c r="N11" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="27" t="n">
-        <v>5449000008046</v>
+      <c r="O11" s="31" t="n">
+        <v>5449000000729</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -4011,7 +4022,7 @@
       </c>
       <c r="AQ15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="39.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="n">
         <v>15</v>
       </c>
@@ -4046,8 +4057,8 @@
       <c r="N16" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="O16" s="27" t="n">
-        <v>5449000020987</v>
+      <c r="O16" s="31" t="n">
+        <v>5449000000712</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
@@ -4118,7 +4129,7 @@
       <c r="G17" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="32" t="s">
         <v>87</v>
       </c>
       <c r="I17" s="16" t="s">
@@ -4133,7 +4144,7 @@
       <c r="N17" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="O17" s="32" t="n">
+      <c r="O17" s="33" t="n">
         <v>5449000213693</v>
       </c>
       <c r="P17" s="16"/>
@@ -4540,7 +4551,7 @@
       <c r="B22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="34" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -4550,48 +4561,48 @@
         <v>96</v>
       </c>
       <c r="F22" s="24"/>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="33" t="s">
+      <c r="J22" s="34"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AE22" s="33" t="s">
+      <c r="AE22" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="37"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="38"/>
+      <c r="AL22" s="38"/>
       <c r="AM22" s="20" t="n">
         <v>2</v>
       </c>
@@ -4959,7 +4970,7 @@
       <c r="B27" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="34" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -4969,42 +4980,42 @@
         <v>96</v>
       </c>
       <c r="F27" s="24"/>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="33" t="s">
+      <c r="J27" s="34"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AE27" s="33" t="s">
+      <c r="AE27" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AF27" s="35"/>
+      <c r="AF27" s="36"/>
       <c r="AG27" s="20"/>
       <c r="AH27" s="20"/>
       <c r="AI27" s="20"/>
@@ -5291,7 +5302,7 @@
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="34" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -5301,42 +5312,42 @@
         <v>96</v>
       </c>
       <c r="F31" s="24"/>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="H31" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="33" t="s">
+      <c r="J31" s="34"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AE31" s="33" t="s">
+      <c r="AE31" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AF31" s="35"/>
+      <c r="AF31" s="36"/>
       <c r="AG31" s="20"/>
       <c r="AH31" s="20"/>
       <c r="AI31" s="20"/>
@@ -5349,7 +5360,7 @@
       <c r="AN31" s="30" t="n">
         <v>30</v>
       </c>
-      <c r="AO31" s="37" t="s">
+      <c r="AO31" s="38" t="s">
         <v>119</v>
       </c>
       <c r="AP31" s="23"/>
@@ -5710,7 +5721,7 @@
       <c r="B36" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="34" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="24" t="s">
@@ -5720,42 +5731,42 @@
         <v>96</v>
       </c>
       <c r="F36" s="24"/>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="I36" s="33" t="s">
+      <c r="I36" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="J36" s="33"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="33" t="s">
+      <c r="J36" s="34"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AE36" s="33" t="s">
+      <c r="AE36" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AF36" s="35"/>
+      <c r="AF36" s="36"/>
       <c r="AG36" s="20"/>
       <c r="AH36" s="20"/>
       <c r="AI36" s="20"/>
@@ -5768,7 +5779,7 @@
       <c r="AN36" s="21" t="n">
         <v>35</v>
       </c>
-      <c r="AO36" s="34" t="s">
+      <c r="AO36" s="35" t="s">
         <v>130</v>
       </c>
       <c r="AP36" s="23"/>
@@ -5791,7 +5802,7 @@
         <v>96</v>
       </c>
       <c r="F37" s="15"/>
-      <c r="G37" s="38" t="s">
+      <c r="G37" s="39" t="s">
         <v>131</v>
       </c>
       <c r="H37" s="26" t="s">
@@ -5806,10 +5817,10 @@
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
-      <c r="N37" s="38" t="s">
+      <c r="N37" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="O37" s="32" t="n">
+      <c r="O37" s="33" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P37" s="16"/>
@@ -5878,7 +5889,7 @@
         <v>96</v>
       </c>
       <c r="F38" s="15"/>
-      <c r="G38" s="38" t="s">
+      <c r="G38" s="39" t="s">
         <v>133</v>
       </c>
       <c r="H38" s="26" t="s">
@@ -5893,7 +5904,7 @@
       </c>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
-      <c r="N38" s="38" t="s">
+      <c r="N38" s="39" t="s">
         <v>133</v>
       </c>
       <c r="O38" s="27" t="n">
@@ -5965,7 +5976,7 @@
         <v>96</v>
       </c>
       <c r="F39" s="15"/>
-      <c r="G39" s="38" t="s">
+      <c r="G39" s="39" t="s">
         <v>135</v>
       </c>
       <c r="H39" s="26" t="s">
@@ -5980,7 +5991,7 @@
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
-      <c r="N39" s="38" t="s">
+      <c r="N39" s="39" t="s">
         <v>135</v>
       </c>
       <c r="O39" s="27" t="n">
@@ -6052,7 +6063,7 @@
         <v>96</v>
       </c>
       <c r="F40" s="15"/>
-      <c r="G40" s="38" t="s">
+      <c r="G40" s="39" t="s">
         <v>137</v>
       </c>
       <c r="H40" s="26" t="s">
@@ -6067,7 +6078,7 @@
       </c>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
-      <c r="N40" s="38" t="s">
+      <c r="N40" s="39" t="s">
         <v>137</v>
       </c>
       <c r="O40" s="27" t="n">
@@ -6139,7 +6150,7 @@
         <v>96</v>
       </c>
       <c r="F41" s="15"/>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="39" t="s">
         <v>139</v>
       </c>
       <c r="H41" s="26" t="s">
@@ -6154,7 +6165,7 @@
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
-      <c r="N41" s="38" t="s">
+      <c r="N41" s="39" t="s">
         <v>139</v>
       </c>
       <c r="O41" s="27" t="n">
@@ -6226,7 +6237,7 @@
         <v>96</v>
       </c>
       <c r="F42" s="15"/>
-      <c r="G42" s="38" t="s">
+      <c r="G42" s="39" t="s">
         <v>141</v>
       </c>
       <c r="H42" s="26" t="s">
@@ -6241,7 +6252,7 @@
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="38" t="s">
+      <c r="N42" s="39" t="s">
         <v>141</v>
       </c>
       <c r="O42" s="27" t="n">
@@ -6313,7 +6324,7 @@
         <v>96</v>
       </c>
       <c r="F43" s="15"/>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="39" t="s">
         <v>143</v>
       </c>
       <c r="H43" s="26" t="s">
@@ -6328,10 +6339,10 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="38" t="s">
+      <c r="N43" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="O43" s="32" t="n">
+      <c r="O43" s="33" t="n">
         <v>4607042430619</v>
       </c>
       <c r="P43" s="16"/>
@@ -6400,7 +6411,7 @@
         <v>96</v>
       </c>
       <c r="F44" s="15"/>
-      <c r="G44" s="38" t="s">
+      <c r="G44" s="39" t="s">
         <v>145</v>
       </c>
       <c r="H44" s="26" t="s">
@@ -6415,7 +6426,7 @@
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
-      <c r="N44" s="38" t="s">
+      <c r="N44" s="39" t="s">
         <v>145</v>
       </c>
       <c r="O44" s="27" t="n">
@@ -6487,7 +6498,7 @@
         <v>96</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="39" t="s">
         <v>147</v>
       </c>
       <c r="H45" s="26" t="s">
@@ -6502,10 +6513,10 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="38" t="s">
+      <c r="N45" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="O45" s="32" t="n">
+      <c r="O45" s="33" t="n">
         <v>4607174577794</v>
       </c>
       <c r="P45" s="16"/>
@@ -6574,7 +6585,7 @@
         <v>96</v>
       </c>
       <c r="F46" s="15"/>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="39" t="s">
         <v>149</v>
       </c>
       <c r="H46" s="26" t="s">
@@ -6589,7 +6600,7 @@
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
-      <c r="N46" s="38" t="s">
+      <c r="N46" s="39" t="s">
         <v>149</v>
       </c>
       <c r="O46" s="27" t="n">
@@ -6661,7 +6672,7 @@
         <v>96</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="38" t="s">
+      <c r="G47" s="39" t="s">
         <v>151</v>
       </c>
       <c r="H47" s="26" t="s">
@@ -6676,10 +6687,10 @@
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
-      <c r="N47" s="38" t="s">
+      <c r="N47" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="O47" s="32" t="n">
+      <c r="O47" s="33" t="n">
         <v>4607042431388</v>
       </c>
       <c r="P47" s="16"/>
@@ -6748,7 +6759,7 @@
         <v>96</v>
       </c>
       <c r="F48" s="15"/>
-      <c r="G48" s="38" t="s">
+      <c r="G48" s="39" t="s">
         <v>153</v>
       </c>
       <c r="H48" s="26" t="s">
@@ -6763,7 +6774,7 @@
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
-      <c r="N48" s="38" t="s">
+      <c r="N48" s="39" t="s">
         <v>153</v>
       </c>
       <c r="O48" s="27" t="n">
@@ -6835,7 +6846,7 @@
         <v>96</v>
       </c>
       <c r="F49" s="15"/>
-      <c r="G49" s="38" t="s">
+      <c r="G49" s="39" t="s">
         <v>155</v>
       </c>
       <c r="H49" s="26" t="s">
@@ -6850,10 +6861,10 @@
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
-      <c r="N49" s="38" t="s">
+      <c r="N49" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="O49" s="32" t="n">
+      <c r="O49" s="33" t="n">
         <v>4607174579729</v>
       </c>
       <c r="P49" s="16"/>
@@ -6922,7 +6933,7 @@
         <v>96</v>
       </c>
       <c r="F50" s="15"/>
-      <c r="G50" s="38" t="s">
+      <c r="G50" s="39" t="s">
         <v>157</v>
       </c>
       <c r="H50" s="26" t="s">
@@ -6937,7 +6948,7 @@
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
-      <c r="N50" s="38" t="s">
+      <c r="N50" s="39" t="s">
         <v>157</v>
       </c>
       <c r="O50" s="27" t="n">
@@ -6986,7 +6997,7 @@
       <c r="AN50" s="21" t="n">
         <v>49</v>
       </c>
-      <c r="AO50" s="39"/>
+      <c r="AO50" s="40"/>
       <c r="AP50" s="20" t="s">
         <v>128</v>
       </c>
@@ -7009,7 +7020,7 @@
         <v>96</v>
       </c>
       <c r="F51" s="15"/>
-      <c r="G51" s="38" t="s">
+      <c r="G51" s="39" t="s">
         <v>159</v>
       </c>
       <c r="H51" s="26" t="s">
@@ -7024,7 +7035,7 @@
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
-      <c r="N51" s="38" t="s">
+      <c r="N51" s="39" t="s">
         <v>159</v>
       </c>
       <c r="O51" s="27" t="n">
@@ -7096,10 +7107,10 @@
         <v>162</v>
       </c>
       <c r="F52" s="15"/>
-      <c r="G52" s="38" t="s">
+      <c r="G52" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="H52" s="40" t="s">
+      <c r="H52" s="41" t="s">
         <v>164</v>
       </c>
       <c r="I52" s="16" t="s">
@@ -7144,7 +7155,7 @@
       <c r="AN52" s="21" t="n">
         <v>51</v>
       </c>
-      <c r="AO52" s="34" t="s">
+      <c r="AO52" s="35" t="s">
         <v>165</v>
       </c>
       <c r="AP52" s="23"/>
@@ -7167,25 +7178,25 @@
         <v>162</v>
       </c>
       <c r="F53" s="15"/>
-      <c r="G53" s="41" t="s">
+      <c r="G53" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="H53" s="41" t="s">
+      <c r="H53" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="I53" s="42" t="s">
+      <c r="I53" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42" t="n">
+      <c r="J53" s="43"/>
+      <c r="K53" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="41" t="s">
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="O53" s="44" t="n">
+      <c r="O53" s="45" t="n">
         <v>5449000214744</v>
       </c>
       <c r="P53" s="19"/>
@@ -7216,7 +7227,7 @@
       <c r="AE53" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF53" s="45" t="n">
+      <c r="AF53" s="46" t="n">
         <v>0.00455</v>
       </c>
       <c r="AG53" s="12"/>
@@ -7232,7 +7243,7 @@
         <v>52</v>
       </c>
       <c r="AO53" s="20"/>
-      <c r="AP53" s="46" t="s">
+      <c r="AP53" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ53" s="12"/>
@@ -7254,10 +7265,10 @@
         <v>162</v>
       </c>
       <c r="F54" s="15"/>
-      <c r="G54" s="47" t="s">
+      <c r="G54" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="H54" s="31" t="s">
+      <c r="H54" s="32" t="s">
         <v>169</v>
       </c>
       <c r="I54" s="16" t="s">
@@ -7269,10 +7280,10 @@
       </c>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
-      <c r="N54" s="47" t="s">
+      <c r="N54" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="O54" s="48" t="n">
+      <c r="O54" s="49" t="n">
         <v>5449000241467</v>
       </c>
       <c r="P54" s="16"/>
@@ -7303,7 +7314,7 @@
       <c r="AE54" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF54" s="45" t="n">
+      <c r="AF54" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG54" s="12"/>
@@ -7319,12 +7330,12 @@
         <v>53</v>
       </c>
       <c r="AO54" s="20"/>
-      <c r="AP54" s="46" t="s">
+      <c r="AP54" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ54" s="12"/>
     </row>
-    <row r="55" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="39.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="24" t="n">
         <v>54</v>
       </c>
@@ -7359,8 +7370,8 @@
       <c r="N55" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="O55" s="27" t="n">
-        <v>4607042431692</v>
+      <c r="O55" s="31" t="n">
+        <v>5449000134912</v>
       </c>
       <c r="P55" s="16"/>
       <c r="Q55" s="16"/>
@@ -7390,7 +7401,7 @@
       <c r="AE55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF55" s="45" t="n">
+      <c r="AF55" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG55" s="12"/>
@@ -7406,7 +7417,7 @@
         <v>54</v>
       </c>
       <c r="AO55" s="20"/>
-      <c r="AP55" s="46" t="s">
+      <c r="AP55" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ55" s="12"/>
@@ -7477,7 +7488,7 @@
       <c r="AE56" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF56" s="45" t="n">
+      <c r="AF56" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG56" s="12"/>
@@ -7493,12 +7504,12 @@
         <v>55</v>
       </c>
       <c r="AO56" s="20"/>
-      <c r="AP56" s="46" t="s">
+      <c r="AP56" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ56" s="12"/>
     </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="24" t="n">
         <v>56</v>
       </c>
@@ -7533,8 +7544,8 @@
       <c r="N57" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="O57" s="27" t="n">
-        <v>4607042431685</v>
+      <c r="O57" s="31" t="n">
+        <v>5060517884710</v>
       </c>
       <c r="P57" s="16"/>
       <c r="Q57" s="16"/>
@@ -7564,7 +7575,7 @@
       <c r="AE57" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF57" s="45" t="n">
+      <c r="AF57" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG57" s="12"/>
@@ -7580,7 +7591,7 @@
         <v>56</v>
       </c>
       <c r="AO57" s="20"/>
-      <c r="AP57" s="46" t="s">
+      <c r="AP57" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ57" s="12"/>
@@ -7651,7 +7662,7 @@
       <c r="AE58" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF58" s="45" t="n">
+      <c r="AF58" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG58" s="12"/>
@@ -7667,7 +7678,7 @@
         <v>57</v>
       </c>
       <c r="AO58" s="20"/>
-      <c r="AP58" s="46" t="s">
+      <c r="AP58" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ58" s="12"/>
@@ -7689,7 +7700,7 @@
         <v>162</v>
       </c>
       <c r="F59" s="15"/>
-      <c r="G59" s="49" t="s">
+      <c r="G59" s="50" t="s">
         <v>178</v>
       </c>
       <c r="H59" s="26" t="s">
@@ -7704,7 +7715,7 @@
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
-      <c r="N59" s="49" t="s">
+      <c r="N59" s="50" t="s">
         <v>178</v>
       </c>
       <c r="O59" s="27" t="n">
@@ -7738,7 +7749,7 @@
       <c r="AE59" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF59" s="45" t="n">
+      <c r="AF59" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG59" s="12"/>
@@ -7754,7 +7765,7 @@
         <v>58</v>
       </c>
       <c r="AO59" s="20"/>
-      <c r="AP59" s="46" t="s">
+      <c r="AP59" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ59" s="12"/>
@@ -7776,7 +7787,7 @@
         <v>162</v>
       </c>
       <c r="F60" s="15"/>
-      <c r="G60" s="50" t="s">
+      <c r="G60" s="51" t="s">
         <v>180</v>
       </c>
       <c r="H60" s="26" t="s">
@@ -7791,7 +7802,7 @@
       </c>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
-      <c r="N60" s="50" t="s">
+      <c r="N60" s="51" t="s">
         <v>180</v>
       </c>
       <c r="O60" s="27" t="n">
@@ -7825,7 +7836,7 @@
       <c r="AE60" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF60" s="45" t="n">
+      <c r="AF60" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG60" s="12"/>
@@ -7841,7 +7852,7 @@
         <v>59</v>
       </c>
       <c r="AO60" s="20"/>
-      <c r="AP60" s="46" t="s">
+      <c r="AP60" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ60" s="12"/>
@@ -7863,7 +7874,7 @@
         <v>162</v>
       </c>
       <c r="F61" s="15"/>
-      <c r="G61" s="50" t="s">
+      <c r="G61" s="51" t="s">
         <v>182</v>
       </c>
       <c r="H61" s="26" t="s">
@@ -7878,7 +7889,7 @@
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
-      <c r="N61" s="50" t="s">
+      <c r="N61" s="51" t="s">
         <v>182</v>
       </c>
       <c r="O61" s="27" t="n">
@@ -7912,7 +7923,7 @@
       <c r="AE61" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF61" s="45" t="n">
+      <c r="AF61" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG61" s="7"/>
@@ -7928,7 +7939,7 @@
         <v>60</v>
       </c>
       <c r="AO61" s="22"/>
-      <c r="AP61" s="46" t="s">
+      <c r="AP61" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ61" s="13"/>
@@ -7950,7 +7961,7 @@
         <v>162</v>
       </c>
       <c r="F62" s="15"/>
-      <c r="G62" s="49" t="s">
+      <c r="G62" s="50" t="s">
         <v>184</v>
       </c>
       <c r="H62" s="26" t="s">
@@ -7965,7 +7976,7 @@
       </c>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
-      <c r="N62" s="49" t="s">
+      <c r="N62" s="50" t="s">
         <v>184</v>
       </c>
       <c r="O62" s="27" t="n">
@@ -7999,7 +8010,7 @@
       <c r="AE62" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF62" s="45" t="n">
+      <c r="AF62" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG62" s="12"/>
@@ -8015,7 +8026,7 @@
         <v>61</v>
       </c>
       <c r="AO62" s="20"/>
-      <c r="AP62" s="46" t="s">
+      <c r="AP62" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ62" s="12"/>
@@ -8037,7 +8048,7 @@
         <v>162</v>
       </c>
       <c r="F63" s="15"/>
-      <c r="G63" s="49" t="s">
+      <c r="G63" s="50" t="s">
         <v>186</v>
       </c>
       <c r="H63" s="26" t="s">
@@ -8052,7 +8063,7 @@
       </c>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
-      <c r="N63" s="49" t="s">
+      <c r="N63" s="50" t="s">
         <v>186</v>
       </c>
       <c r="O63" s="27" t="n">
@@ -8086,7 +8097,7 @@
       <c r="AE63" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF63" s="45" t="n">
+      <c r="AF63" s="46" t="n">
         <v>0.004545</v>
       </c>
       <c r="AG63" s="12"/>
@@ -8102,7 +8113,7 @@
         <v>62</v>
       </c>
       <c r="AO63" s="20"/>
-      <c r="AP63" s="46" t="s">
+      <c r="AP63" s="47" t="s">
         <v>163</v>
       </c>
       <c r="AQ63" s="12"/>
@@ -8124,10 +8135,10 @@
         <v>188</v>
       </c>
       <c r="F64" s="15"/>
-      <c r="G64" s="38" t="s">
+      <c r="G64" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="H64" s="40" t="s">
+      <c r="H64" s="41" t="s">
         <v>190</v>
       </c>
       <c r="I64" s="16" t="s">
@@ -8172,7 +8183,7 @@
       <c r="AN64" s="21" t="n">
         <v>63</v>
       </c>
-      <c r="AO64" s="34" t="s">
+      <c r="AO64" s="35" t="s">
         <v>191</v>
       </c>
       <c r="AP64" s="23"/>
@@ -8213,7 +8224,7 @@
       <c r="N65" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="O65" s="51" t="n">
+      <c r="O65" s="52" t="n">
         <v>5449000131805</v>
       </c>
       <c r="P65" s="16"/>
@@ -8244,7 +8255,7 @@
       <c r="AE65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF65" s="52" t="n">
+      <c r="AF65" s="53" t="n">
         <v>0.003575</v>
       </c>
       <c r="AG65" s="12"/>
@@ -8260,7 +8271,7 @@
         <v>64</v>
       </c>
       <c r="AO65" s="20"/>
-      <c r="AP65" s="46" t="s">
+      <c r="AP65" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ65" s="12"/>
@@ -8300,7 +8311,7 @@
       <c r="N66" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="O66" s="53" t="n">
+      <c r="O66" s="54" t="n">
         <v>5449000044839</v>
       </c>
       <c r="P66" s="16"/>
@@ -8331,7 +8342,7 @@
       <c r="AE66" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF66" s="52" t="n">
+      <c r="AF66" s="53" t="n">
         <v>0.003575</v>
       </c>
       <c r="AG66" s="12"/>
@@ -8347,7 +8358,7 @@
         <v>65</v>
       </c>
       <c r="AO66" s="20"/>
-      <c r="AP66" s="46" t="s">
+      <c r="AP66" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ66" s="12"/>
@@ -8387,7 +8398,7 @@
       <c r="N67" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="O67" s="53" t="n">
+      <c r="O67" s="54" t="n">
         <v>54490130</v>
       </c>
       <c r="P67" s="16"/>
@@ -8418,7 +8429,7 @@
       <c r="AE67" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF67" s="52" t="n">
+      <c r="AF67" s="53" t="n">
         <v>0.003575</v>
       </c>
       <c r="AG67" s="12"/>
@@ -8434,7 +8445,7 @@
         <v>66</v>
       </c>
       <c r="AO67" s="20"/>
-      <c r="AP67" s="46" t="s">
+      <c r="AP67" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ67" s="12"/>
@@ -8474,7 +8485,7 @@
       <c r="N68" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="O68" s="53" t="n">
+      <c r="O68" s="54" t="n">
         <v>5449000044808</v>
       </c>
       <c r="P68" s="16"/>
@@ -8505,7 +8516,7 @@
       <c r="AE68" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF68" s="52" t="n">
+      <c r="AF68" s="53" t="n">
         <v>0.003575</v>
       </c>
       <c r="AG68" s="12"/>
@@ -8521,7 +8532,7 @@
         <v>67</v>
       </c>
       <c r="AO68" s="20"/>
-      <c r="AP68" s="46" t="s">
+      <c r="AP68" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ68" s="12"/>
@@ -8561,7 +8572,7 @@
       <c r="N69" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="O69" s="53" t="n">
+      <c r="O69" s="54" t="n">
         <v>5449000026583</v>
       </c>
       <c r="P69" s="16"/>
@@ -8592,7 +8603,7 @@
       <c r="AE69" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF69" s="52" t="n">
+      <c r="AF69" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG69" s="12"/>
@@ -8608,7 +8619,7 @@
         <v>68</v>
       </c>
       <c r="AO69" s="20"/>
-      <c r="AP69" s="46" t="s">
+      <c r="AP69" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ69" s="12"/>
@@ -8648,7 +8659,7 @@
       <c r="N70" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="O70" s="53" t="n">
+      <c r="O70" s="54" t="n">
         <v>5449000148056</v>
       </c>
       <c r="P70" s="16"/>
@@ -8679,7 +8690,7 @@
       <c r="AE70" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF70" s="52" t="n">
+      <c r="AF70" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG70" s="12"/>
@@ -8695,7 +8706,7 @@
         <v>69</v>
       </c>
       <c r="AO70" s="20"/>
-      <c r="AP70" s="46" t="s">
+      <c r="AP70" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ70" s="12"/>
@@ -8735,7 +8746,7 @@
       <c r="N71" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="O71" s="53" t="n">
+      <c r="O71" s="54" t="n">
         <v>5449000233509</v>
       </c>
       <c r="P71" s="16"/>
@@ -8766,7 +8777,7 @@
       <c r="AE71" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF71" s="52" t="n">
+      <c r="AF71" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG71" s="12"/>
@@ -8782,7 +8793,7 @@
         <v>70</v>
       </c>
       <c r="AO71" s="20"/>
-      <c r="AP71" s="46" t="s">
+      <c r="AP71" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ71" s="12"/>
@@ -8804,7 +8815,7 @@
         <v>188</v>
       </c>
       <c r="F72" s="15"/>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="39" t="s">
         <v>206</v>
       </c>
       <c r="H72" s="26" t="s">
@@ -8819,10 +8830,10 @@
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
-      <c r="N72" s="38" t="s">
+      <c r="N72" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="O72" s="51" t="n">
+      <c r="O72" s="52" t="n">
         <v>4607174579736</v>
       </c>
       <c r="P72" s="16"/>
@@ -8853,7 +8864,7 @@
       <c r="AE72" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF72" s="52" t="n">
+      <c r="AF72" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG72" s="12"/>
@@ -8869,7 +8880,7 @@
         <v>71</v>
       </c>
       <c r="AO72" s="20"/>
-      <c r="AP72" s="46" t="s">
+      <c r="AP72" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ72" s="12"/>
@@ -8891,7 +8902,7 @@
         <v>188</v>
       </c>
       <c r="F73" s="15"/>
-      <c r="G73" s="38" t="s">
+      <c r="G73" s="39" t="s">
         <v>208</v>
       </c>
       <c r="H73" s="26" t="s">
@@ -8906,10 +8917,10 @@
       </c>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
-      <c r="N73" s="38" t="s">
+      <c r="N73" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="O73" s="53" t="n">
+      <c r="O73" s="54" t="n">
         <v>4607042438967</v>
       </c>
       <c r="P73" s="16"/>
@@ -8940,7 +8951,7 @@
       <c r="AE73" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF73" s="52" t="n">
+      <c r="AF73" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG73" s="12"/>
@@ -8956,7 +8967,7 @@
         <v>72</v>
       </c>
       <c r="AO73" s="20"/>
-      <c r="AP73" s="46" t="s">
+      <c r="AP73" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ73" s="12"/>
@@ -8978,7 +8989,7 @@
         <v>188</v>
       </c>
       <c r="F74" s="15"/>
-      <c r="G74" s="38" t="s">
+      <c r="G74" s="39" t="s">
         <v>210</v>
       </c>
       <c r="H74" s="26" t="s">
@@ -8993,10 +9004,10 @@
       </c>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
-      <c r="N74" s="38" t="s">
+      <c r="N74" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="O74" s="53" t="n">
+      <c r="O74" s="54" t="n">
         <v>4607042439216</v>
       </c>
       <c r="P74" s="16"/>
@@ -9027,7 +9038,7 @@
       <c r="AE74" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF74" s="52" t="n">
+      <c r="AF74" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG74" s="12"/>
@@ -9043,7 +9054,7 @@
         <v>73</v>
       </c>
       <c r="AO74" s="20"/>
-      <c r="AP74" s="46" t="s">
+      <c r="AP74" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ74" s="12"/>
@@ -9065,7 +9076,7 @@
         <v>188</v>
       </c>
       <c r="F75" s="15"/>
-      <c r="G75" s="38" t="s">
+      <c r="G75" s="39" t="s">
         <v>212</v>
       </c>
       <c r="H75" s="26" t="s">
@@ -9080,10 +9091,10 @@
       </c>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
-      <c r="N75" s="38" t="s">
+      <c r="N75" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="O75" s="51" t="n">
+      <c r="O75" s="52" t="n">
         <v>4607042439223</v>
       </c>
       <c r="P75" s="16"/>
@@ -9114,7 +9125,7 @@
       <c r="AE75" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF75" s="52" t="n">
+      <c r="AF75" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG75" s="12"/>
@@ -9130,7 +9141,7 @@
         <v>74</v>
       </c>
       <c r="AO75" s="20"/>
-      <c r="AP75" s="46" t="s">
+      <c r="AP75" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ75" s="12"/>
@@ -9152,7 +9163,7 @@
         <v>188</v>
       </c>
       <c r="F76" s="15"/>
-      <c r="G76" s="38" t="s">
+      <c r="G76" s="39" t="s">
         <v>214</v>
       </c>
       <c r="H76" s="26" t="s">
@@ -9167,10 +9178,10 @@
       </c>
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
-      <c r="N76" s="38" t="s">
+      <c r="N76" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="O76" s="51" t="n">
+      <c r="O76" s="52" t="n">
         <v>4607042439155</v>
       </c>
       <c r="P76" s="16"/>
@@ -9201,7 +9212,7 @@
       <c r="AE76" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF76" s="52" t="n">
+      <c r="AF76" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG76" s="12"/>
@@ -9217,7 +9228,7 @@
         <v>75</v>
       </c>
       <c r="AO76" s="20"/>
-      <c r="AP76" s="46" t="s">
+      <c r="AP76" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ76" s="12"/>
@@ -9239,7 +9250,7 @@
         <v>188</v>
       </c>
       <c r="F77" s="15"/>
-      <c r="G77" s="38" t="s">
+      <c r="G77" s="39" t="s">
         <v>216</v>
       </c>
       <c r="H77" s="26" t="s">
@@ -9254,10 +9265,10 @@
       </c>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
-      <c r="N77" s="54" t="s">
+      <c r="N77" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="O77" s="53" t="n">
+      <c r="O77" s="54" t="n">
         <v>4607174574908</v>
       </c>
       <c r="P77" s="16"/>
@@ -9288,7 +9299,7 @@
       <c r="AE77" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF77" s="52" t="n">
+      <c r="AF77" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG77" s="12"/>
@@ -9304,7 +9315,7 @@
         <v>76</v>
       </c>
       <c r="AO77" s="20"/>
-      <c r="AP77" s="46" t="s">
+      <c r="AP77" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ77" s="12"/>
@@ -9326,7 +9337,7 @@
         <v>188</v>
       </c>
       <c r="F78" s="15"/>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="39" t="s">
         <v>218</v>
       </c>
       <c r="H78" s="26" t="s">
@@ -9341,10 +9352,10 @@
       </c>
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
-      <c r="N78" s="54" t="s">
+      <c r="N78" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="O78" s="55" t="n">
+      <c r="O78" s="56" t="n">
         <v>4607174577947</v>
       </c>
       <c r="P78" s="16"/>
@@ -9375,7 +9386,7 @@
       <c r="AE78" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AF78" s="52" t="n">
+      <c r="AF78" s="53" t="n">
         <v>0.00357</v>
       </c>
       <c r="AG78" s="12"/>
@@ -9391,7 +9402,7 @@
         <v>77</v>
       </c>
       <c r="AO78" s="20"/>
-      <c r="AP78" s="46" t="s">
+      <c r="AP78" s="47" t="s">
         <v>189</v>
       </c>
       <c r="AQ78" s="12"/>
@@ -9400,19 +9411,19 @@
       <c r="A79" s="24" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="B79" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="56" t="s">
+      <c r="D79" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E79" s="56" t="s">
+      <c r="E79" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="F79" s="56"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="17" t="s">
         <v>221</v>
       </c>
@@ -9423,7 +9434,7 @@
         <v>223</v>
       </c>
       <c r="J79" s="17"/>
-      <c r="K79" s="57" t="n">
+      <c r="K79" s="58" t="n">
         <v>0.5</v>
       </c>
       <c r="L79" s="17"/>
@@ -9431,11 +9442,11 @@
       <c r="N79" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O79" s="58" t="s">
+      <c r="O79" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="P79" s="58"/>
-      <c r="Q79" s="58"/>
+      <c r="P79" s="59"/>
+      <c r="Q79" s="59"/>
       <c r="R79" s="12"/>
       <c r="S79" s="12" t="s">
         <v>226</v>
@@ -9458,7 +9469,7 @@
       <c r="AE79" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF79" s="59" t="n">
+      <c r="AF79" s="60" t="n">
         <v>0.04</v>
       </c>
       <c r="AG79" s="17"/>
@@ -9474,26 +9485,26 @@
         <v>78</v>
       </c>
       <c r="AO79" s="12"/>
-      <c r="AP79" s="60"/>
+      <c r="AP79" s="61"/>
       <c r="AQ79" s="12"/>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="14" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="56" t="s">
+      <c r="B80" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D80" s="56" t="s">
+      <c r="D80" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E80" s="56" t="s">
+      <c r="E80" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="F80" s="56"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="17" t="s">
         <v>230</v>
       </c>
@@ -9504,7 +9515,7 @@
         <v>223</v>
       </c>
       <c r="J80" s="17"/>
-      <c r="K80" s="57" t="n">
+      <c r="K80" s="58" t="n">
         <v>0.15</v>
       </c>
       <c r="L80" s="17"/>
@@ -9512,11 +9523,11 @@
       <c r="N80" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O80" s="58" t="s">
+      <c r="O80" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="P80" s="58"/>
-      <c r="Q80" s="58"/>
+      <c r="P80" s="59"/>
+      <c r="Q80" s="59"/>
       <c r="R80" s="12"/>
       <c r="S80" s="12" t="s">
         <v>226</v>
@@ -9539,7 +9550,7 @@
       <c r="AE80" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF80" s="61" t="n">
+      <c r="AF80" s="62" t="n">
         <v>0.025</v>
       </c>
       <c r="AG80" s="17"/>
@@ -9555,26 +9566,26 @@
         <v>79</v>
       </c>
       <c r="AO80" s="12"/>
-      <c r="AP80" s="60"/>
+      <c r="AP80" s="61"/>
       <c r="AQ80" s="12"/>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="24" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="56" t="s">
+      <c r="B81" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D81" s="56" t="s">
+      <c r="D81" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E81" s="56" t="s">
+      <c r="E81" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="F81" s="56"/>
+      <c r="F81" s="57"/>
       <c r="G81" s="17" t="s">
         <v>234</v>
       </c>
@@ -9585,7 +9596,7 @@
         <v>223</v>
       </c>
       <c r="J81" s="17"/>
-      <c r="K81" s="57" t="n">
+      <c r="K81" s="58" t="n">
         <v>0.4</v>
       </c>
       <c r="L81" s="17"/>
@@ -9593,11 +9604,11 @@
       <c r="N81" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O81" s="58" t="s">
+      <c r="O81" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="P81" s="58"/>
-      <c r="Q81" s="58"/>
+      <c r="P81" s="59"/>
+      <c r="Q81" s="59"/>
       <c r="R81" s="12"/>
       <c r="S81" s="12" t="s">
         <v>226</v>
@@ -9620,7 +9631,7 @@
       <c r="AE81" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF81" s="61" t="n">
+      <c r="AF81" s="62" t="n">
         <v>0.04</v>
       </c>
       <c r="AG81" s="17"/>
@@ -9636,26 +9647,26 @@
         <v>80</v>
       </c>
       <c r="AO81" s="12"/>
-      <c r="AP81" s="60"/>
+      <c r="AP81" s="61"/>
       <c r="AQ81" s="12"/>
     </row>
     <row r="82" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="14" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="56" t="s">
+      <c r="B82" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D82" s="56" t="s">
+      <c r="D82" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E82" s="56" t="s">
+      <c r="E82" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="F82" s="56"/>
+      <c r="F82" s="57"/>
       <c r="G82" s="17" t="s">
         <v>238</v>
       </c>
@@ -9666,7 +9677,7 @@
         <v>223</v>
       </c>
       <c r="J82" s="17"/>
-      <c r="K82" s="57" t="n">
+      <c r="K82" s="58" t="n">
         <v>0.45</v>
       </c>
       <c r="L82" s="17"/>
@@ -9674,12 +9685,12 @@
       <c r="N82" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O82" s="62" t="s">
+      <c r="O82" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="P82" s="62"/>
-      <c r="Q82" s="62"/>
-      <c r="R82" s="63"/>
+      <c r="P82" s="63"/>
+      <c r="Q82" s="63"/>
+      <c r="R82" s="64"/>
       <c r="S82" s="12" t="s">
         <v>226</v>
       </c>
@@ -9701,7 +9712,7 @@
       <c r="AE82" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF82" s="61" t="n">
+      <c r="AF82" s="62" t="n">
         <v>0.025</v>
       </c>
       <c r="AG82" s="17"/>
@@ -9717,26 +9728,26 @@
         <v>81</v>
       </c>
       <c r="AO82" s="12"/>
-      <c r="AP82" s="60"/>
+      <c r="AP82" s="61"/>
       <c r="AQ82" s="12"/>
     </row>
     <row r="83" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="24" t="n">
         <v>82</v>
       </c>
-      <c r="B83" s="56" t="s">
+      <c r="B83" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D83" s="56" t="s">
+      <c r="D83" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="56" t="s">
+      <c r="E83" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="F83" s="56"/>
+      <c r="F83" s="57"/>
       <c r="G83" s="17" t="s">
         <v>242</v>
       </c>
@@ -9747,7 +9758,7 @@
         <v>223</v>
       </c>
       <c r="J83" s="17"/>
-      <c r="K83" s="57" t="n">
+      <c r="K83" s="58" t="n">
         <v>0.35</v>
       </c>
       <c r="L83" s="17"/>
@@ -9755,11 +9766,11 @@
       <c r="N83" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O83" s="62" t="s">
+      <c r="O83" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="P83" s="62"/>
-      <c r="Q83" s="62"/>
+      <c r="P83" s="63"/>
+      <c r="Q83" s="63"/>
       <c r="R83" s="12"/>
       <c r="S83" s="12" t="s">
         <v>226</v>
@@ -9782,7 +9793,7 @@
       <c r="AE83" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF83" s="61" t="n">
+      <c r="AF83" s="62" t="n">
         <v>0.02</v>
       </c>
       <c r="AG83" s="17"/>
@@ -9805,19 +9816,19 @@
       <c r="A84" s="14" t="n">
         <v>83</v>
       </c>
-      <c r="B84" s="56" t="s">
+      <c r="B84" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D84" s="56" t="s">
+      <c r="D84" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E84" s="56" t="s">
+      <c r="E84" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F84" s="56"/>
+      <c r="F84" s="57"/>
       <c r="G84" s="12" t="s">
         <v>246</v>
       </c>
@@ -9834,9 +9845,9 @@
       <c r="L84" s="17"/>
       <c r="M84" s="17"/>
       <c r="N84" s="12"/>
-      <c r="O84" s="58"/>
-      <c r="P84" s="58"/>
-      <c r="Q84" s="58"/>
+      <c r="O84" s="59"/>
+      <c r="P84" s="59"/>
+      <c r="Q84" s="59"/>
       <c r="R84" s="12" t="s">
         <v>249</v>
       </c>
@@ -9859,7 +9870,7 @@
       <c r="AE84" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF84" s="61" t="n">
+      <c r="AF84" s="62" t="n">
         <v>0.024</v>
       </c>
       <c r="AG84" s="17"/>
@@ -9874,7 +9885,7 @@
       <c r="AN84" s="21" t="n">
         <v>83</v>
       </c>
-      <c r="AO84" s="64" t="s">
+      <c r="AO84" s="65" t="s">
         <v>251</v>
       </c>
       <c r="AP84" s="12"/>
@@ -9884,19 +9895,19 @@
       <c r="A85" s="24" t="n">
         <v>84</v>
       </c>
-      <c r="B85" s="56" t="s">
+      <c r="B85" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D85" s="56" t="s">
+      <c r="D85" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E85" s="56" t="s">
+      <c r="E85" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F85" s="56"/>
+      <c r="F85" s="57"/>
       <c r="G85" s="12" t="s">
         <v>252</v>
       </c>
@@ -9915,11 +9926,11 @@
       <c r="N85" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O85" s="58" t="s">
+      <c r="O85" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="P85" s="58"/>
-      <c r="Q85" s="58"/>
+      <c r="P85" s="59"/>
+      <c r="Q85" s="59"/>
       <c r="R85" s="12" t="s">
         <v>55</v>
       </c>
@@ -9944,7 +9955,7 @@
       <c r="AE85" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF85" s="61" t="n">
+      <c r="AF85" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG85" s="17"/>
@@ -9969,23 +9980,23 @@
       <c r="A86" s="14" t="n">
         <v>85</v>
       </c>
-      <c r="B86" s="56" t="s">
+      <c r="B86" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D86" s="65" t="s">
+      <c r="D86" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E86" s="65" t="s">
+      <c r="E86" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="F86" s="65"/>
+      <c r="F86" s="66"/>
       <c r="G86" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="H86" s="34" t="s">
+      <c r="H86" s="35" t="s">
         <v>255</v>
       </c>
       <c r="I86" s="17" t="s">
@@ -9998,9 +10009,9 @@
       <c r="L86" s="17"/>
       <c r="M86" s="17"/>
       <c r="N86" s="12"/>
-      <c r="O86" s="58"/>
-      <c r="P86" s="58"/>
-      <c r="Q86" s="58"/>
+      <c r="O86" s="59"/>
+      <c r="P86" s="59"/>
+      <c r="Q86" s="59"/>
       <c r="R86" s="12" t="s">
         <v>55</v>
       </c>
@@ -10023,7 +10034,7 @@
       <c r="AE86" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF86" s="61" t="n">
+      <c r="AF86" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG86" s="17"/>
@@ -10038,7 +10049,7 @@
       <c r="AN86" s="21" t="n">
         <v>85</v>
       </c>
-      <c r="AO86" s="64" t="s">
+      <c r="AO86" s="65" t="s">
         <v>257</v>
       </c>
       <c r="AP86" s="12" t="s">
@@ -10050,42 +10061,42 @@
       <c r="A87" s="24" t="n">
         <v>86</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D87" s="65" t="s">
+      <c r="D87" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E87" s="56" t="s">
+      <c r="E87" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F87" s="56"/>
+      <c r="F87" s="57"/>
       <c r="G87" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="H87" s="33" t="s">
+      <c r="H87" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="I87" s="66" t="s">
+      <c r="I87" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="J87" s="66"/>
-      <c r="K87" s="67"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="68"/>
       <c r="L87" s="17"/>
       <c r="M87" s="17"/>
-      <c r="N87" s="68" t="s">
+      <c r="N87" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="O87" s="69" t="n">
+      <c r="O87" s="70" t="n">
         <v>5449000054227</v>
       </c>
-      <c r="P87" s="70" t="s">
+      <c r="P87" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="Q87" s="70"/>
+      <c r="Q87" s="71"/>
       <c r="R87" s="12" t="s">
         <v>55</v>
       </c>
@@ -10110,7 +10121,7 @@
       <c r="AE87" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF87" s="61" t="n">
+      <c r="AF87" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG87" s="17"/>
@@ -10137,42 +10148,42 @@
       <c r="A88" s="14" t="n">
         <v>87</v>
       </c>
-      <c r="B88" s="56" t="s">
+      <c r="B88" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D88" s="65" t="s">
+      <c r="D88" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E88" s="56" t="s">
+      <c r="E88" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F88" s="56"/>
+      <c r="F88" s="57"/>
       <c r="G88" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="H88" s="33" t="s">
+      <c r="H88" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="I88" s="66" t="s">
+      <c r="I88" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="J88" s="66"/>
-      <c r="K88" s="67"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="68"/>
       <c r="L88" s="17"/>
       <c r="M88" s="17"/>
-      <c r="N88" s="68" t="s">
+      <c r="N88" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="O88" s="69" t="n">
+      <c r="O88" s="70" t="n">
         <v>5449000000439</v>
       </c>
-      <c r="P88" s="70" t="s">
+      <c r="P88" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="Q88" s="70"/>
+      <c r="Q88" s="71"/>
       <c r="R88" s="12" t="s">
         <v>55</v>
       </c>
@@ -10197,7 +10208,7 @@
       <c r="AE88" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF88" s="61" t="n">
+      <c r="AF88" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG88" s="17"/>
@@ -10224,19 +10235,19 @@
       <c r="A89" s="24" t="n">
         <v>88</v>
       </c>
-      <c r="B89" s="56" t="s">
+      <c r="B89" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D89" s="56" t="s">
+      <c r="D89" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E89" s="56" t="s">
+      <c r="E89" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F89" s="56"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="12" t="s">
         <v>265</v>
       </c>
@@ -10253,16 +10264,16 @@
       <c r="L89" s="17"/>
       <c r="M89" s="17"/>
       <c r="N89" s="12"/>
-      <c r="O89" s="58"/>
-      <c r="P89" s="58"/>
-      <c r="Q89" s="58"/>
+      <c r="O89" s="59"/>
+      <c r="P89" s="59"/>
+      <c r="Q89" s="59"/>
       <c r="R89" s="12" t="s">
         <v>249</v>
       </c>
       <c r="S89" s="12"/>
       <c r="T89" s="12"/>
       <c r="U89" s="12"/>
-      <c r="V89" s="71"/>
+      <c r="V89" s="72"/>
       <c r="W89" s="12"/>
       <c r="X89" s="12" t="s">
         <v>267</v>
@@ -10278,7 +10289,7 @@
       <c r="AE89" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF89" s="61" t="n">
+      <c r="AF89" s="62" t="n">
         <v>0.024</v>
       </c>
       <c r="AG89" s="17"/>
@@ -10293,7 +10304,7 @@
       <c r="AN89" s="30" t="n">
         <v>88</v>
       </c>
-      <c r="AO89" s="64" t="s">
+      <c r="AO89" s="65" t="s">
         <v>268</v>
       </c>
       <c r="AP89" s="12"/>
@@ -10303,23 +10314,23 @@
       <c r="A90" s="14" t="n">
         <v>89</v>
       </c>
-      <c r="B90" s="56" t="s">
+      <c r="B90" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D90" s="56" t="s">
+      <c r="D90" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E90" s="56" t="s">
+      <c r="E90" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F90" s="56"/>
+      <c r="F90" s="57"/>
       <c r="G90" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="H90" s="72" t="s">
+      <c r="H90" s="73" t="s">
         <v>270</v>
       </c>
       <c r="I90" s="17" t="s">
@@ -10334,11 +10345,11 @@
       <c r="N90" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O90" s="58" t="s">
+      <c r="O90" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="P90" s="58"/>
-      <c r="Q90" s="58"/>
+      <c r="P90" s="59"/>
+      <c r="Q90" s="59"/>
       <c r="R90" s="12" t="s">
         <v>55</v>
       </c>
@@ -10347,7 +10358,7 @@
       </c>
       <c r="T90" s="12"/>
       <c r="U90" s="12"/>
-      <c r="V90" s="71"/>
+      <c r="V90" s="72"/>
       <c r="W90" s="12"/>
       <c r="X90" s="12" t="s">
         <v>267</v>
@@ -10363,7 +10374,7 @@
       <c r="AE90" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF90" s="61" t="n">
+      <c r="AF90" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG90" s="17"/>
@@ -10388,40 +10399,40 @@
       <c r="A91" s="24" t="n">
         <v>90</v>
       </c>
-      <c r="B91" s="56" t="s">
+      <c r="B91" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D91" s="56" t="s">
+      <c r="D91" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="56" t="s">
+      <c r="E91" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F91" s="56"/>
+      <c r="F91" s="57"/>
       <c r="G91" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="H91" s="33" t="s">
+      <c r="H91" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="I91" s="66" t="s">
+      <c r="I91" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="J91" s="66"/>
-      <c r="K91" s="67"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="68"/>
       <c r="L91" s="17"/>
       <c r="M91" s="17"/>
-      <c r="N91" s="68" t="s">
+      <c r="N91" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="O91" s="69" t="n">
+      <c r="O91" s="70" t="n">
         <v>5449000005489</v>
       </c>
-      <c r="P91" s="58"/>
-      <c r="Q91" s="58"/>
+      <c r="P91" s="59"/>
+      <c r="Q91" s="59"/>
       <c r="R91" s="12" t="s">
         <v>55</v>
       </c>
@@ -10446,7 +10457,7 @@
       <c r="AE91" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF91" s="61" t="n">
+      <c r="AF91" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG91" s="17"/>
@@ -10473,19 +10484,19 @@
       <c r="A92" s="14" t="n">
         <v>91</v>
       </c>
-      <c r="B92" s="56" t="s">
+      <c r="B92" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D92" s="56" t="s">
+      <c r="D92" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E92" s="56" t="s">
+      <c r="E92" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F92" s="56"/>
+      <c r="F92" s="57"/>
       <c r="G92" s="12" t="s">
         <v>274</v>
       </c>
@@ -10502,16 +10513,16 @@
       <c r="L92" s="17"/>
       <c r="M92" s="17"/>
       <c r="N92" s="12"/>
-      <c r="O92" s="58"/>
-      <c r="P92" s="58"/>
-      <c r="Q92" s="58"/>
+      <c r="O92" s="59"/>
+      <c r="P92" s="59"/>
+      <c r="Q92" s="59"/>
       <c r="R92" s="12" t="s">
         <v>249</v>
       </c>
       <c r="S92" s="12"/>
       <c r="T92" s="12"/>
       <c r="U92" s="12"/>
-      <c r="V92" s="71"/>
+      <c r="V92" s="72"/>
       <c r="W92" s="12"/>
       <c r="X92" s="12" t="s">
         <v>276</v>
@@ -10527,7 +10538,7 @@
       <c r="AE92" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF92" s="61" t="n">
+      <c r="AF92" s="62" t="n">
         <v>0.024</v>
       </c>
       <c r="AG92" s="17"/>
@@ -10542,7 +10553,7 @@
       <c r="AN92" s="21" t="n">
         <v>91</v>
       </c>
-      <c r="AO92" s="64" t="s">
+      <c r="AO92" s="65" t="s">
         <v>277</v>
       </c>
       <c r="AP92" s="12"/>
@@ -10552,23 +10563,23 @@
       <c r="A93" s="24" t="n">
         <v>92</v>
       </c>
-      <c r="B93" s="56" t="s">
+      <c r="B93" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D93" s="56" t="s">
+      <c r="D93" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="56" t="s">
+      <c r="E93" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F93" s="56"/>
+      <c r="F93" s="57"/>
       <c r="G93" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="H93" s="72" t="s">
+      <c r="H93" s="73" t="s">
         <v>279</v>
       </c>
       <c r="I93" s="17" t="s">
@@ -10583,11 +10594,11 @@
       <c r="N93" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O93" s="58" t="s">
+      <c r="O93" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="P93" s="58"/>
-      <c r="Q93" s="58"/>
+      <c r="P93" s="59"/>
+      <c r="Q93" s="59"/>
       <c r="R93" s="12" t="s">
         <v>55</v>
       </c>
@@ -10596,7 +10607,7 @@
       </c>
       <c r="T93" s="12"/>
       <c r="U93" s="12"/>
-      <c r="V93" s="71"/>
+      <c r="V93" s="72"/>
       <c r="W93" s="12"/>
       <c r="X93" s="12" t="s">
         <v>276</v>
@@ -10612,7 +10623,7 @@
       <c r="AE93" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF93" s="61" t="n">
+      <c r="AF93" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG93" s="17"/>
@@ -10637,23 +10648,23 @@
       <c r="A94" s="14" t="n">
         <v>93</v>
       </c>
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="65" t="s">
+      <c r="D94" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E94" s="65" t="s">
+      <c r="E94" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="F94" s="65"/>
+      <c r="F94" s="66"/>
       <c r="G94" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="H94" s="34" t="s">
+      <c r="H94" s="35" t="s">
         <v>281</v>
       </c>
       <c r="I94" s="17" t="s">
@@ -10666,16 +10677,16 @@
       <c r="L94" s="17"/>
       <c r="M94" s="17"/>
       <c r="N94" s="12"/>
-      <c r="O94" s="58"/>
-      <c r="P94" s="58"/>
-      <c r="Q94" s="58"/>
+      <c r="O94" s="59"/>
+      <c r="P94" s="59"/>
+      <c r="Q94" s="59"/>
       <c r="R94" s="12" t="s">
         <v>55</v>
       </c>
       <c r="S94" s="12"/>
       <c r="T94" s="12"/>
       <c r="U94" s="12"/>
-      <c r="V94" s="71"/>
+      <c r="V94" s="72"/>
       <c r="W94" s="12"/>
       <c r="X94" s="12" t="s">
         <v>276</v>
@@ -10691,7 +10702,7 @@
       <c r="AE94" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF94" s="61" t="n">
+      <c r="AF94" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG94" s="17"/>
@@ -10706,7 +10717,7 @@
       <c r="AN94" s="21" t="n">
         <v>93</v>
       </c>
-      <c r="AO94" s="64" t="s">
+      <c r="AO94" s="65" t="s">
         <v>282</v>
       </c>
       <c r="AP94" s="12" t="s">
@@ -10718,40 +10729,40 @@
       <c r="A95" s="24" t="n">
         <v>94</v>
       </c>
-      <c r="B95" s="56" t="s">
+      <c r="B95" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D95" s="56" t="s">
+      <c r="D95" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E95" s="56" t="s">
+      <c r="E95" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F95" s="56"/>
+      <c r="F95" s="57"/>
       <c r="G95" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="H95" s="33" t="s">
+      <c r="H95" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="I95" s="66" t="s">
+      <c r="I95" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="J95" s="66"/>
-      <c r="K95" s="67"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="68"/>
       <c r="L95" s="17"/>
       <c r="M95" s="17"/>
-      <c r="N95" s="63" t="s">
+      <c r="N95" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="O95" s="73" t="n">
+      <c r="O95" s="74" t="n">
         <v>4607042434877</v>
       </c>
-      <c r="P95" s="70"/>
-      <c r="Q95" s="70"/>
+      <c r="P95" s="71"/>
+      <c r="Q95" s="71"/>
       <c r="R95" s="12" t="s">
         <v>55</v>
       </c>
@@ -10760,7 +10771,7 @@
       </c>
       <c r="T95" s="12"/>
       <c r="U95" s="12"/>
-      <c r="V95" s="71"/>
+      <c r="V95" s="72"/>
       <c r="W95" s="12"/>
       <c r="X95" s="12" t="s">
         <v>276</v>
@@ -10776,7 +10787,7 @@
       <c r="AE95" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF95" s="61" t="n">
+      <c r="AF95" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG95" s="17"/>
@@ -10803,40 +10814,40 @@
       <c r="A96" s="14" t="n">
         <v>95</v>
       </c>
-      <c r="B96" s="56" t="s">
+      <c r="B96" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D96" s="56" t="s">
+      <c r="D96" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E96" s="56" t="s">
+      <c r="E96" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F96" s="56"/>
+      <c r="F96" s="57"/>
       <c r="G96" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="H96" s="33" t="s">
+      <c r="H96" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="I96" s="66" t="s">
+      <c r="I96" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="J96" s="66"/>
-      <c r="K96" s="67"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="68"/>
       <c r="L96" s="17"/>
       <c r="M96" s="17"/>
-      <c r="N96" s="63" t="s">
+      <c r="N96" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="O96" s="70" t="n">
+      <c r="O96" s="71" t="n">
         <v>4607042434891</v>
       </c>
-      <c r="P96" s="70"/>
-      <c r="Q96" s="70"/>
+      <c r="P96" s="71"/>
+      <c r="Q96" s="71"/>
       <c r="R96" s="12" t="s">
         <v>55</v>
       </c>
@@ -10845,7 +10856,7 @@
       </c>
       <c r="T96" s="12"/>
       <c r="U96" s="12"/>
-      <c r="V96" s="71"/>
+      <c r="V96" s="72"/>
       <c r="W96" s="12"/>
       <c r="X96" s="12" t="s">
         <v>276</v>
@@ -10861,7 +10872,7 @@
       <c r="AE96" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF96" s="61" t="n">
+      <c r="AF96" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG96" s="17"/>
@@ -10888,19 +10899,19 @@
       <c r="A97" s="24" t="n">
         <v>96</v>
       </c>
-      <c r="B97" s="56" t="s">
+      <c r="B97" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D97" s="56" t="s">
+      <c r="D97" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E97" s="56" t="s">
+      <c r="E97" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F97" s="56"/>
+      <c r="F97" s="57"/>
       <c r="G97" s="12" t="s">
         <v>289</v>
       </c>
@@ -10917,16 +10928,16 @@
       <c r="L97" s="17"/>
       <c r="M97" s="17"/>
       <c r="N97" s="12"/>
-      <c r="O97" s="58"/>
-      <c r="P97" s="58"/>
-      <c r="Q97" s="58"/>
+      <c r="O97" s="59"/>
+      <c r="P97" s="59"/>
+      <c r="Q97" s="59"/>
       <c r="R97" s="12" t="s">
         <v>249</v>
       </c>
       <c r="S97" s="12"/>
       <c r="T97" s="12"/>
       <c r="U97" s="12"/>
-      <c r="V97" s="71"/>
+      <c r="V97" s="72"/>
       <c r="W97" s="12"/>
       <c r="X97" s="12" t="s">
         <v>291</v>
@@ -10942,7 +10953,7 @@
       <c r="AE97" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF97" s="61" t="n">
+      <c r="AF97" s="62" t="n">
         <v>0.024</v>
       </c>
       <c r="AG97" s="17"/>
@@ -10957,7 +10968,7 @@
       <c r="AN97" s="30" t="n">
         <v>96</v>
       </c>
-      <c r="AO97" s="64" t="s">
+      <c r="AO97" s="65" t="s">
         <v>292</v>
       </c>
       <c r="AP97" s="12"/>
@@ -10967,23 +10978,23 @@
       <c r="A98" s="14" t="n">
         <v>97</v>
       </c>
-      <c r="B98" s="56" t="s">
+      <c r="B98" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D98" s="56" t="s">
+      <c r="D98" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E98" s="56" t="s">
+      <c r="E98" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F98" s="56"/>
+      <c r="F98" s="57"/>
       <c r="G98" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="H98" s="72" t="s">
+      <c r="H98" s="73" t="s">
         <v>294</v>
       </c>
       <c r="I98" s="17" t="s">
@@ -10998,11 +11009,11 @@
       <c r="N98" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O98" s="62" t="s">
+      <c r="O98" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="P98" s="62"/>
-      <c r="Q98" s="58"/>
+      <c r="P98" s="63"/>
+      <c r="Q98" s="59"/>
       <c r="R98" s="12" t="s">
         <v>55</v>
       </c>
@@ -11011,7 +11022,7 @@
       </c>
       <c r="T98" s="12"/>
       <c r="U98" s="12"/>
-      <c r="V98" s="71"/>
+      <c r="V98" s="72"/>
       <c r="W98" s="12"/>
       <c r="X98" s="12" t="s">
         <v>291</v>
@@ -11027,7 +11038,7 @@
       <c r="AE98" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF98" s="61" t="n">
+      <c r="AF98" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG98" s="17"/>
@@ -11043,7 +11054,7 @@
         <v>97</v>
       </c>
       <c r="AO98" s="12"/>
-      <c r="AP98" s="74" t="s">
+      <c r="AP98" s="75" t="s">
         <v>289</v>
       </c>
       <c r="AQ98" s="12"/>
@@ -11052,23 +11063,23 @@
       <c r="A99" s="24" t="n">
         <v>98</v>
       </c>
-      <c r="B99" s="56" t="s">
+      <c r="B99" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D99" s="65" t="s">
+      <c r="D99" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E99" s="65" t="s">
+      <c r="E99" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="F99" s="65"/>
+      <c r="F99" s="66"/>
       <c r="G99" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="H99" s="34" t="s">
+      <c r="H99" s="35" t="s">
         <v>296</v>
       </c>
       <c r="I99" s="17" t="s">
@@ -11081,16 +11092,16 @@
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>
       <c r="N99" s="12"/>
-      <c r="O99" s="58"/>
-      <c r="P99" s="58"/>
-      <c r="Q99" s="58"/>
+      <c r="O99" s="59"/>
+      <c r="P99" s="59"/>
+      <c r="Q99" s="59"/>
       <c r="R99" s="12" t="s">
         <v>55</v>
       </c>
       <c r="S99" s="12"/>
       <c r="T99" s="12"/>
       <c r="U99" s="12"/>
-      <c r="V99" s="71"/>
+      <c r="V99" s="72"/>
       <c r="W99" s="12"/>
       <c r="X99" s="12" t="s">
         <v>291</v>
@@ -11106,7 +11117,7 @@
       <c r="AE99" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF99" s="61" t="n">
+      <c r="AF99" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG99" s="17"/>
@@ -11121,7 +11132,7 @@
       <c r="AN99" s="30" t="n">
         <v>98</v>
       </c>
-      <c r="AO99" s="64" t="s">
+      <c r="AO99" s="65" t="s">
         <v>297</v>
       </c>
       <c r="AP99" s="12" t="s">
@@ -11133,40 +11144,40 @@
       <c r="A100" s="14" t="n">
         <v>99</v>
       </c>
-      <c r="B100" s="56" t="s">
+      <c r="B100" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D100" s="65" t="s">
+      <c r="D100" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E100" s="56" t="s">
+      <c r="E100" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F100" s="56"/>
+      <c r="F100" s="57"/>
       <c r="G100" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="H100" s="33" t="s">
+      <c r="H100" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="I100" s="66" t="s">
+      <c r="I100" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="J100" s="66"/>
-      <c r="K100" s="67"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="68"/>
       <c r="L100" s="17"/>
       <c r="M100" s="17"/>
       <c r="N100" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="O100" s="69" t="n">
+      <c r="O100" s="70" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="P100" s="70"/>
-      <c r="Q100" s="70"/>
+      <c r="P100" s="71"/>
+      <c r="Q100" s="71"/>
       <c r="R100" s="12" t="s">
         <v>55</v>
       </c>
@@ -11175,7 +11186,7 @@
       </c>
       <c r="T100" s="12"/>
       <c r="U100" s="12"/>
-      <c r="V100" s="71"/>
+      <c r="V100" s="72"/>
       <c r="W100" s="12"/>
       <c r="X100" s="12" t="s">
         <v>291</v>
@@ -11191,7 +11202,7 @@
       <c r="AE100" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF100" s="61" t="n">
+      <c r="AF100" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG100" s="17"/>
@@ -11218,40 +11229,40 @@
       <c r="A101" s="24" t="n">
         <v>100</v>
       </c>
-      <c r="B101" s="56" t="s">
+      <c r="B101" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D101" s="65" t="s">
+      <c r="D101" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E101" s="56" t="s">
+      <c r="E101" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F101" s="56"/>
+      <c r="F101" s="57"/>
       <c r="G101" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="H101" s="33" t="s">
+      <c r="H101" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="I101" s="66" t="s">
+      <c r="I101" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="J101" s="66"/>
-      <c r="K101" s="67"/>
+      <c r="J101" s="67"/>
+      <c r="K101" s="68"/>
       <c r="L101" s="17"/>
       <c r="M101" s="17"/>
       <c r="N101" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="O101" s="69" t="n">
+      <c r="O101" s="70" t="n">
         <v>5449000189318</v>
       </c>
-      <c r="P101" s="70"/>
-      <c r="Q101" s="70"/>
+      <c r="P101" s="71"/>
+      <c r="Q101" s="71"/>
       <c r="R101" s="12" t="s">
         <v>55</v>
       </c>
@@ -11260,7 +11271,7 @@
       </c>
       <c r="T101" s="12"/>
       <c r="U101" s="12"/>
-      <c r="V101" s="71"/>
+      <c r="V101" s="72"/>
       <c r="W101" s="12"/>
       <c r="X101" s="12" t="s">
         <v>291</v>
@@ -11276,7 +11287,7 @@
       <c r="AE101" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF101" s="61" t="n">
+      <c r="AF101" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG101" s="17"/>
@@ -11303,19 +11314,19 @@
       <c r="A102" s="14" t="n">
         <v>101</v>
       </c>
-      <c r="B102" s="56" t="s">
+      <c r="B102" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D102" s="56" t="s">
+      <c r="D102" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E102" s="56" t="s">
+      <c r="E102" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F102" s="56"/>
+      <c r="F102" s="57"/>
       <c r="G102" s="17" t="s">
         <v>305</v>
       </c>
@@ -11332,9 +11343,9 @@
       <c r="L102" s="17"/>
       <c r="M102" s="17"/>
       <c r="N102" s="17"/>
-      <c r="O102" s="62"/>
-      <c r="P102" s="62"/>
-      <c r="Q102" s="62"/>
+      <c r="O102" s="63"/>
+      <c r="P102" s="63"/>
+      <c r="Q102" s="63"/>
       <c r="R102" s="17" t="s">
         <v>55</v>
       </c>
@@ -11346,7 +11357,7 @@
       <c r="X102" s="17"/>
       <c r="Y102" s="17"/>
       <c r="Z102" s="17"/>
-      <c r="AA102" s="40"/>
+      <c r="AA102" s="41"/>
       <c r="AB102" s="17"/>
       <c r="AC102" s="17"/>
       <c r="AD102" s="17" t="s">
@@ -11355,7 +11366,7 @@
       <c r="AE102" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF102" s="61" t="n">
+      <c r="AF102" s="62" t="n">
         <v>0.03</v>
       </c>
       <c r="AG102" s="17"/>
@@ -11370,10 +11381,10 @@
       <c r="AN102" s="21" t="n">
         <v>101</v>
       </c>
-      <c r="AO102" s="64" t="s">
+      <c r="AO102" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="AP102" s="75" t="s">
+      <c r="AP102" s="76" t="s">
         <v>308</v>
       </c>
       <c r="AQ102" s="12"/>
@@ -11382,19 +11393,19 @@
       <c r="A103" s="24" t="n">
         <v>102</v>
       </c>
-      <c r="B103" s="56" t="s">
+      <c r="B103" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D103" s="56" t="s">
+      <c r="D103" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E103" s="56" t="s">
+      <c r="E103" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F103" s="56"/>
+      <c r="F103" s="57"/>
       <c r="G103" s="17" t="s">
         <v>309</v>
       </c>
@@ -11414,8 +11425,8 @@
       <c r="O103" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="P103" s="62"/>
-      <c r="Q103" s="62"/>
+      <c r="P103" s="63"/>
+      <c r="Q103" s="63"/>
       <c r="R103" s="17" t="s">
         <v>55</v>
       </c>
@@ -11440,7 +11451,7 @@
       <c r="AE103" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF103" s="61" t="n">
+      <c r="AF103" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG103" s="17"/>
@@ -11465,19 +11476,19 @@
       <c r="A104" s="14" t="n">
         <v>103</v>
       </c>
-      <c r="B104" s="56" t="s">
+      <c r="B104" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D104" s="56" t="s">
+      <c r="D104" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E104" s="56" t="s">
+      <c r="E104" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F104" s="56"/>
+      <c r="F104" s="57"/>
       <c r="G104" s="17" t="s">
         <v>314</v>
       </c>
@@ -11497,15 +11508,15 @@
       <c r="O104" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="P104" s="62"/>
-      <c r="Q104" s="62"/>
+      <c r="P104" s="63"/>
+      <c r="Q104" s="63"/>
       <c r="R104" s="17" t="s">
         <v>55</v>
       </c>
       <c r="S104" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="T104" s="76"/>
+      <c r="T104" s="77"/>
       <c r="U104" s="17"/>
       <c r="V104" s="17"/>
       <c r="W104" s="17"/>
@@ -11523,7 +11534,7 @@
       <c r="AE104" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF104" s="61" t="n">
+      <c r="AF104" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG104" s="17"/>
@@ -11548,19 +11559,19 @@
       <c r="A105" s="24" t="n">
         <v>104</v>
       </c>
-      <c r="B105" s="56" t="s">
+      <c r="B105" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="56" t="s">
+      <c r="D105" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E105" s="56" t="s">
+      <c r="E105" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F105" s="56"/>
+      <c r="F105" s="57"/>
       <c r="G105" s="17" t="s">
         <v>317</v>
       </c>
@@ -11580,15 +11591,15 @@
       <c r="O105" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="P105" s="62"/>
-      <c r="Q105" s="62"/>
+      <c r="P105" s="63"/>
+      <c r="Q105" s="63"/>
       <c r="R105" s="17" t="s">
         <v>55</v>
       </c>
       <c r="S105" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="T105" s="76"/>
+      <c r="T105" s="77"/>
       <c r="U105" s="17"/>
       <c r="V105" s="17"/>
       <c r="W105" s="17"/>
@@ -11606,7 +11617,7 @@
       <c r="AE105" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF105" s="61" t="n">
+      <c r="AF105" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG105" s="17"/>
@@ -11631,19 +11642,19 @@
       <c r="A106" s="14" t="n">
         <v>105</v>
       </c>
-      <c r="B106" s="56" t="s">
+      <c r="B106" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D106" s="56" t="s">
+      <c r="D106" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E106" s="77" t="s">
+      <c r="E106" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="F106" s="77"/>
+      <c r="F106" s="78"/>
       <c r="G106" s="17" t="s">
         <v>320</v>
       </c>
@@ -11660,9 +11671,9 @@
       <c r="L106" s="17"/>
       <c r="M106" s="17"/>
       <c r="N106" s="17"/>
-      <c r="O106" s="62"/>
-      <c r="P106" s="62"/>
-      <c r="Q106" s="62"/>
+      <c r="O106" s="63"/>
+      <c r="P106" s="63"/>
+      <c r="Q106" s="63"/>
       <c r="R106" s="12" t="s">
         <v>55</v>
       </c>
@@ -11676,7 +11687,7 @@
       </c>
       <c r="Y106" s="17"/>
       <c r="Z106" s="17"/>
-      <c r="AA106" s="40"/>
+      <c r="AA106" s="41"/>
       <c r="AB106" s="17"/>
       <c r="AC106" s="17"/>
       <c r="AD106" s="17" t="s">
@@ -11685,7 +11696,7 @@
       <c r="AE106" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF106" s="61" t="n">
+      <c r="AF106" s="62" t="n">
         <v>0.024</v>
       </c>
       <c r="AG106" s="17"/>
@@ -11700,10 +11711,10 @@
       <c r="AN106" s="21" t="n">
         <v>105</v>
       </c>
-      <c r="AO106" s="64" t="s">
+      <c r="AO106" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="AP106" s="78" t="s">
+      <c r="AP106" s="79" t="s">
         <v>323</v>
       </c>
       <c r="AQ106" s="12"/>
@@ -11712,19 +11723,19 @@
       <c r="A107" s="24" t="n">
         <v>106</v>
       </c>
-      <c r="B107" s="56" t="s">
+      <c r="B107" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D107" s="56" t="s">
+      <c r="D107" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E107" s="56" t="s">
+      <c r="E107" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F107" s="56"/>
+      <c r="F107" s="57"/>
       <c r="G107" s="17" t="s">
         <v>324</v>
       </c>
@@ -11738,9 +11749,9 @@
       <c r="K107" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="L107" s="76"/>
-      <c r="M107" s="76"/>
-      <c r="N107" s="56" t="s">
+      <c r="L107" s="77"/>
+      <c r="M107" s="77"/>
+      <c r="N107" s="57" t="s">
         <v>326</v>
       </c>
       <c r="O107" s="12" t="s">
@@ -11797,19 +11808,19 @@
       <c r="A108" s="14" t="n">
         <v>107</v>
       </c>
-      <c r="B108" s="56" t="s">
+      <c r="B108" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D108" s="56" t="s">
+      <c r="D108" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E108" s="56" t="s">
+      <c r="E108" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="F108" s="56"/>
+      <c r="F108" s="57"/>
       <c r="G108" s="17" t="s">
         <v>330</v>
       </c>
@@ -11823,9 +11834,9 @@
       <c r="L108" s="17"/>
       <c r="M108" s="17"/>
       <c r="N108" s="12"/>
-      <c r="O108" s="58"/>
-      <c r="P108" s="58"/>
-      <c r="Q108" s="58"/>
+      <c r="O108" s="59"/>
+      <c r="P108" s="59"/>
+      <c r="Q108" s="59"/>
       <c r="R108" s="4" t="s">
         <v>333</v>
       </c>
@@ -11846,13 +11857,13 @@
       <c r="AE108" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF108" s="61" t="n">
+      <c r="AF108" s="62" t="n">
         <v>0.1</v>
       </c>
       <c r="AG108" s="17"/>
       <c r="AH108" s="17"/>
       <c r="AI108" s="17"/>
-      <c r="AJ108" s="79" t="s">
+      <c r="AJ108" s="80" t="s">
         <v>334</v>
       </c>
       <c r="AK108" s="17"/>
@@ -11863,7 +11874,7 @@
       <c r="AN108" s="21" t="n">
         <v>107</v>
       </c>
-      <c r="AO108" s="64" t="s">
+      <c r="AO108" s="65" t="s">
         <v>335</v>
       </c>
       <c r="AP108" s="12"/>
@@ -11873,44 +11884,44 @@
       <c r="A109" s="24" t="n">
         <v>108</v>
       </c>
-      <c r="B109" s="56" t="s">
+      <c r="B109" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D109" s="56" t="s">
+      <c r="D109" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E109" s="56" t="s">
+      <c r="E109" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="F109" s="56"/>
+      <c r="F109" s="57"/>
       <c r="G109" s="17" t="s">
         <v>336</v>
       </c>
       <c r="H109" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="I109" s="80" t="s">
+      <c r="I109" s="81" t="s">
         <v>338</v>
       </c>
-      <c r="J109" s="80"/>
+      <c r="J109" s="81"/>
       <c r="K109" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="L109" s="34" t="n">
+      <c r="L109" s="35" t="n">
         <v>30</v>
       </c>
       <c r="M109" s="17"/>
-      <c r="N109" s="56" t="s">
+      <c r="N109" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="O109" s="62" t="s">
+      <c r="O109" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="P109" s="62"/>
-      <c r="Q109" s="62"/>
+      <c r="P109" s="63"/>
+      <c r="Q109" s="63"/>
       <c r="R109" s="12"/>
       <c r="S109" s="17" t="s">
         <v>328</v>
@@ -11933,7 +11944,7 @@
       <c r="AE109" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF109" s="61" t="n">
+      <c r="AF109" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG109" s="17"/>
@@ -11941,7 +11952,7 @@
       <c r="AI109" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="AJ109" s="34" t="s">
+      <c r="AJ109" s="35" t="s">
         <v>341</v>
       </c>
       <c r="AK109" s="17"/>
@@ -11962,19 +11973,19 @@
       <c r="A110" s="14" t="n">
         <v>109</v>
       </c>
-      <c r="B110" s="56" t="s">
+      <c r="B110" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C110" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D110" s="56" t="s">
+      <c r="D110" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E110" s="56" t="s">
+      <c r="E110" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="F110" s="56"/>
+      <c r="F110" s="57"/>
       <c r="G110" s="17" t="s">
         <v>342</v>
       </c>
@@ -11993,11 +12004,11 @@
       <c r="N110" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="O110" s="58" t="s">
+      <c r="O110" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="P110" s="58"/>
-      <c r="Q110" s="58"/>
+      <c r="P110" s="59"/>
+      <c r="Q110" s="59"/>
       <c r="R110" s="12"/>
       <c r="S110" s="4" t="s">
         <v>328</v>
@@ -12020,7 +12031,7 @@
       <c r="AE110" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF110" s="61" t="n">
+      <c r="AF110" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG110" s="17"/>
@@ -12045,55 +12056,55 @@
       <c r="A111" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="B111" s="56" t="s">
+      <c r="B111" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D111" s="56" t="s">
+      <c r="D111" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E111" s="56" t="s">
+      <c r="E111" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F111" s="56"/>
+      <c r="F111" s="57"/>
       <c r="G111" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="H111" s="40" t="s">
+      <c r="H111" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="I111" s="81" t="s">
+      <c r="I111" s="82" t="s">
         <v>348</v>
       </c>
-      <c r="J111" s="81"/>
-      <c r="K111" s="40" t="n">
+      <c r="J111" s="82"/>
+      <c r="K111" s="41" t="n">
         <v>1</v>
       </c>
       <c r="L111" s="17"/>
       <c r="M111" s="17"/>
       <c r="N111" s="12"/>
-      <c r="O111" s="82" t="s">
+      <c r="O111" s="83" t="s">
         <v>349</v>
       </c>
-      <c r="P111" s="58"/>
-      <c r="Q111" s="58"/>
+      <c r="P111" s="59"/>
+      <c r="Q111" s="59"/>
       <c r="R111" s="12"/>
       <c r="S111" s="7" t="s">
         <v>350</v>
       </c>
       <c r="T111" s="12"/>
       <c r="U111" s="12"/>
-      <c r="V111" s="83"/>
+      <c r="V111" s="84"/>
       <c r="W111" s="12"/>
-      <c r="X111" s="79" t="s">
+      <c r="X111" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="Y111" s="82" t="s">
+      <c r="Y111" s="83" t="s">
         <v>349</v>
       </c>
-      <c r="Z111" s="83"/>
+      <c r="Z111" s="84"/>
       <c r="AA111" s="17"/>
       <c r="AB111" s="12"/>
       <c r="AC111" s="12"/>
@@ -12103,7 +12114,7 @@
       <c r="AE111" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF111" s="61" t="n">
+      <c r="AF111" s="62" t="n">
         <v>0.025</v>
       </c>
       <c r="AG111" s="17"/>
@@ -12111,7 +12122,7 @@
       <c r="AI111" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="AJ111" s="84" t="s">
+      <c r="AJ111" s="85" t="s">
         <v>352</v>
       </c>
       <c r="AK111" s="17"/>
@@ -12123,7 +12134,7 @@
         <v>110</v>
       </c>
       <c r="AO111" s="12"/>
-      <c r="AP111" s="78" t="s">
+      <c r="AP111" s="79" t="s">
         <v>353</v>
       </c>
       <c r="AQ111" s="12"/>
@@ -12132,19 +12143,19 @@
       <c r="A112" s="14" t="n">
         <v>111</v>
       </c>
-      <c r="B112" s="56" t="s">
+      <c r="B112" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D112" s="56" t="s">
+      <c r="D112" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E112" s="56" t="s">
+      <c r="E112" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F112" s="56"/>
+      <c r="F112" s="57"/>
       <c r="G112" s="17" t="s">
         <v>354</v>
       </c>
@@ -12156,20 +12167,20 @@
       </c>
       <c r="J112" s="13"/>
       <c r="K112" s="17"/>
-      <c r="L112" s="40" t="n">
+      <c r="L112" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="M112" s="40" t="n">
+      <c r="M112" s="41" t="n">
         <v>23</v>
       </c>
-      <c r="N112" s="56" t="s">
+      <c r="N112" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="O112" s="58" t="s">
+      <c r="O112" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="P112" s="58"/>
-      <c r="Q112" s="58"/>
+      <c r="P112" s="59"/>
+      <c r="Q112" s="59"/>
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
       <c r="T112" s="12"/>
@@ -12190,7 +12201,7 @@
       <c r="AE112" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF112" s="61" t="n">
+      <c r="AF112" s="62" t="n">
         <v>0.025</v>
       </c>
       <c r="AG112" s="17"/>
@@ -12198,7 +12209,7 @@
       <c r="AI112" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="AJ112" s="84" t="s">
+      <c r="AJ112" s="85" t="s">
         <v>357</v>
       </c>
       <c r="AK112" s="17"/>
@@ -12210,7 +12221,7 @@
         <v>111</v>
       </c>
       <c r="AO112" s="12"/>
-      <c r="AP112" s="78" t="s">
+      <c r="AP112" s="79" t="s">
         <v>353</v>
       </c>
       <c r="AQ112" s="12"/>
@@ -12219,36 +12230,36 @@
       <c r="A113" s="24" t="n">
         <v>112</v>
       </c>
-      <c r="B113" s="56" t="s">
+      <c r="B113" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D113" s="56" t="s">
+      <c r="D113" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E113" s="56" t="s">
+      <c r="E113" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F113" s="56"/>
-      <c r="G113" s="85" t="s">
+      <c r="F113" s="57"/>
+      <c r="G113" s="86" t="s">
         <v>358</v>
       </c>
-      <c r="H113" s="85" t="s">
+      <c r="H113" s="86" t="s">
         <v>359</v>
       </c>
-      <c r="I113" s="86" t="s">
+      <c r="I113" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="J113" s="86"/>
+      <c r="J113" s="87"/>
       <c r="K113" s="17"/>
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>
       <c r="N113" s="12"/>
-      <c r="O113" s="87"/>
-      <c r="P113" s="58"/>
-      <c r="Q113" s="58"/>
+      <c r="O113" s="88"/>
+      <c r="P113" s="59"/>
+      <c r="Q113" s="59"/>
       <c r="R113" s="17" t="s">
         <v>249</v>
       </c>
@@ -12271,7 +12282,7 @@
       <c r="AE113" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF113" s="61" t="n">
+      <c r="AF113" s="62" t="n">
         <v>0.025</v>
       </c>
       <c r="AG113" s="17"/>
@@ -12279,7 +12290,7 @@
       <c r="AI113" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="AJ113" s="84" t="s">
+      <c r="AJ113" s="85" t="s">
         <v>357</v>
       </c>
       <c r="AK113" s="17"/>
@@ -12290,10 +12301,10 @@
       <c r="AN113" s="30" t="n">
         <v>112</v>
       </c>
-      <c r="AO113" s="88" t="s">
+      <c r="AO113" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="AP113" s="78" t="s">
+      <c r="AP113" s="79" t="s">
         <v>353</v>
       </c>
       <c r="AQ113" s="12"/>
@@ -12302,38 +12313,38 @@
       <c r="A114" s="14" t="n">
         <v>113</v>
       </c>
-      <c r="B114" s="56" t="s">
+      <c r="B114" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D114" s="56" t="s">
+      <c r="D114" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E114" s="56" t="s">
+      <c r="E114" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F114" s="56"/>
+      <c r="F114" s="57"/>
       <c r="G114" s="17" t="s">
         <v>362</v>
       </c>
       <c r="H114" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="I114" s="89" t="s">
+      <c r="I114" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="J114" s="89"/>
+      <c r="J114" s="90"/>
       <c r="K114" s="17" t="n">
         <v>16</v>
       </c>
       <c r="L114" s="17"/>
       <c r="M114" s="17"/>
       <c r="N114" s="12"/>
-      <c r="O114" s="87"/>
-      <c r="P114" s="58"/>
-      <c r="Q114" s="58"/>
+      <c r="O114" s="88"/>
+      <c r="P114" s="59"/>
+      <c r="Q114" s="59"/>
       <c r="R114" s="17" t="s">
         <v>249</v>
       </c>
@@ -12353,10 +12364,10 @@
       <c r="AD114" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AE114" s="85" t="s">
+      <c r="AE114" s="86" t="s">
         <v>365</v>
       </c>
-      <c r="AF114" s="61" t="n">
+      <c r="AF114" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG114" s="17" t="n">
@@ -12368,7 +12379,7 @@
       <c r="AI114" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="AJ114" s="84" t="s">
+      <c r="AJ114" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK114" s="17"/>
@@ -12379,10 +12390,10 @@
       <c r="AN114" s="21" t="n">
         <v>113</v>
       </c>
-      <c r="AO114" s="64" t="s">
+      <c r="AO114" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="AP114" s="90" t="s">
+      <c r="AP114" s="91" t="s">
         <v>358</v>
       </c>
       <c r="AQ114" s="12"/>
@@ -12391,29 +12402,29 @@
       <c r="A115" s="24" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="56" t="s">
+      <c r="B115" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D115" s="56" t="s">
+      <c r="D115" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E115" s="56" t="s">
+      <c r="E115" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F115" s="56"/>
+      <c r="F115" s="57"/>
       <c r="G115" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="H115" s="33" t="s">
+      <c r="H115" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="I115" s="40" t="s">
+      <c r="I115" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J115" s="40"/>
+      <c r="J115" s="41"/>
       <c r="K115" s="17" t="n">
         <v>1</v>
       </c>
@@ -12422,11 +12433,11 @@
       <c r="N115" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="O115" s="58" t="n">
+      <c r="O115" s="59" t="n">
         <v>90494406</v>
       </c>
-      <c r="P115" s="58"/>
-      <c r="Q115" s="58"/>
+      <c r="P115" s="59"/>
+      <c r="Q115" s="59"/>
       <c r="R115" s="17" t="s">
         <v>55</v>
       </c>
@@ -12451,25 +12462,25 @@
       <c r="AE115" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF115" s="61" t="n">
+      <c r="AF115" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG115" s="17"/>
       <c r="AH115" s="17"/>
       <c r="AI115" s="17"/>
-      <c r="AJ115" s="84" t="s">
+      <c r="AJ115" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK115" s="17"/>
       <c r="AL115" s="17"/>
-      <c r="AM115" s="91" t="n">
+      <c r="AM115" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN115" s="30" t="n">
         <v>114</v>
       </c>
       <c r="AO115" s="12"/>
-      <c r="AP115" s="90" t="s">
+      <c r="AP115" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ115" s="12"/>
@@ -12478,29 +12489,29 @@
       <c r="A116" s="14" t="n">
         <v>115</v>
       </c>
-      <c r="B116" s="56" t="s">
+      <c r="B116" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D116" s="56" t="s">
+      <c r="D116" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E116" s="56" t="s">
+      <c r="E116" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F116" s="56"/>
+      <c r="F116" s="57"/>
       <c r="G116" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="H116" s="33" t="s">
+      <c r="H116" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="I116" s="40" t="s">
+      <c r="I116" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J116" s="40"/>
+      <c r="J116" s="41"/>
       <c r="K116" s="17" t="n">
         <v>1</v>
       </c>
@@ -12509,11 +12520,11 @@
       <c r="N116" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="O116" s="58" t="n">
+      <c r="O116" s="59" t="n">
         <v>40822426</v>
       </c>
-      <c r="P116" s="58"/>
-      <c r="Q116" s="58"/>
+      <c r="P116" s="59"/>
+      <c r="Q116" s="59"/>
       <c r="R116" s="17" t="s">
         <v>55</v>
       </c>
@@ -12538,25 +12549,25 @@
       <c r="AE116" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF116" s="61" t="n">
+      <c r="AF116" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG116" s="17"/>
       <c r="AH116" s="17"/>
       <c r="AI116" s="17"/>
-      <c r="AJ116" s="84" t="s">
+      <c r="AJ116" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK116" s="17"/>
       <c r="AL116" s="17"/>
-      <c r="AM116" s="91" t="n">
+      <c r="AM116" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN116" s="21" t="n">
         <v>115</v>
       </c>
       <c r="AO116" s="12"/>
-      <c r="AP116" s="90" t="s">
+      <c r="AP116" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ116" s="12"/>
@@ -12565,29 +12576,29 @@
       <c r="A117" s="24" t="n">
         <v>116</v>
       </c>
-      <c r="B117" s="56" t="s">
+      <c r="B117" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D117" s="56" t="s">
+      <c r="D117" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E117" s="56" t="s">
+      <c r="E117" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F117" s="56"/>
+      <c r="F117" s="57"/>
       <c r="G117" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="H117" s="33" t="s">
+      <c r="H117" s="34" t="s">
         <v>374</v>
       </c>
-      <c r="I117" s="40" t="s">
+      <c r="I117" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J117" s="40"/>
+      <c r="J117" s="41"/>
       <c r="K117" s="17" t="n">
         <v>1</v>
       </c>
@@ -12596,11 +12607,11 @@
       <c r="N117" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="O117" s="58" t="n">
+      <c r="O117" s="59" t="n">
         <v>5449000131768</v>
       </c>
-      <c r="P117" s="58"/>
-      <c r="Q117" s="58"/>
+      <c r="P117" s="59"/>
+      <c r="Q117" s="59"/>
       <c r="R117" s="17" t="s">
         <v>55</v>
       </c>
@@ -12625,25 +12636,25 @@
       <c r="AE117" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF117" s="61" t="n">
+      <c r="AF117" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG117" s="17"/>
       <c r="AH117" s="17"/>
       <c r="AI117" s="17"/>
-      <c r="AJ117" s="84" t="s">
+      <c r="AJ117" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK117" s="17"/>
       <c r="AL117" s="17"/>
-      <c r="AM117" s="91" t="n">
+      <c r="AM117" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN117" s="30" t="n">
         <v>116</v>
       </c>
       <c r="AO117" s="12"/>
-      <c r="AP117" s="90" t="s">
+      <c r="AP117" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ117" s="12"/>
@@ -12652,29 +12663,29 @@
       <c r="A118" s="14" t="n">
         <v>117</v>
       </c>
-      <c r="B118" s="56" t="s">
+      <c r="B118" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D118" s="56" t="s">
+      <c r="D118" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E118" s="56" t="s">
+      <c r="E118" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F118" s="56"/>
+      <c r="F118" s="57"/>
       <c r="G118" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="H118" s="33" t="s">
+      <c r="H118" s="34" t="s">
         <v>376</v>
       </c>
-      <c r="I118" s="40" t="s">
+      <c r="I118" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J118" s="40"/>
+      <c r="J118" s="41"/>
       <c r="K118" s="17" t="n">
         <v>1</v>
       </c>
@@ -12683,11 +12694,11 @@
       <c r="N118" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="O118" s="58" t="n">
+      <c r="O118" s="59" t="n">
         <v>5449000008046</v>
       </c>
-      <c r="P118" s="58"/>
-      <c r="Q118" s="58"/>
+      <c r="P118" s="59"/>
+      <c r="Q118" s="59"/>
       <c r="R118" s="17" t="s">
         <v>55</v>
       </c>
@@ -12712,25 +12723,25 @@
       <c r="AE118" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF118" s="61" t="n">
+      <c r="AF118" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG118" s="17"/>
       <c r="AH118" s="17"/>
       <c r="AI118" s="17"/>
-      <c r="AJ118" s="84" t="s">
+      <c r="AJ118" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK118" s="17"/>
       <c r="AL118" s="17"/>
-      <c r="AM118" s="91" t="n">
+      <c r="AM118" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN118" s="21" t="n">
         <v>117</v>
       </c>
       <c r="AO118" s="12"/>
-      <c r="AP118" s="90" t="s">
+      <c r="AP118" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ118" s="12"/>
@@ -12739,29 +12750,29 @@
       <c r="A119" s="24" t="n">
         <v>118</v>
       </c>
-      <c r="B119" s="56" t="s">
+      <c r="B119" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D119" s="56" t="s">
+      <c r="D119" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E119" s="56" t="s">
+      <c r="E119" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F119" s="56"/>
+      <c r="F119" s="57"/>
       <c r="G119" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="H119" s="33" t="s">
+      <c r="H119" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="I119" s="40" t="s">
+      <c r="I119" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J119" s="40"/>
+      <c r="J119" s="41"/>
       <c r="K119" s="17" t="n">
         <v>1</v>
       </c>
@@ -12770,11 +12781,11 @@
       <c r="N119" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="O119" s="58" t="n">
+      <c r="O119" s="59" t="n">
         <v>5449000000996</v>
       </c>
-      <c r="P119" s="58"/>
-      <c r="Q119" s="58"/>
+      <c r="P119" s="59"/>
+      <c r="Q119" s="59"/>
       <c r="R119" s="17" t="s">
         <v>55</v>
       </c>
@@ -12799,25 +12810,25 @@
       <c r="AE119" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF119" s="61" t="n">
+      <c r="AF119" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG119" s="17"/>
       <c r="AH119" s="17"/>
       <c r="AI119" s="17"/>
-      <c r="AJ119" s="84" t="s">
+      <c r="AJ119" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK119" s="17"/>
       <c r="AL119" s="17"/>
-      <c r="AM119" s="91" t="n">
+      <c r="AM119" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN119" s="30" t="n">
         <v>118</v>
       </c>
       <c r="AO119" s="12"/>
-      <c r="AP119" s="90" t="s">
+      <c r="AP119" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ119" s="12"/>
@@ -12826,29 +12837,29 @@
       <c r="A120" s="14" t="n">
         <v>119</v>
       </c>
-      <c r="B120" s="56" t="s">
+      <c r="B120" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D120" s="56" t="s">
+      <c r="D120" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E120" s="56" t="s">
+      <c r="E120" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F120" s="56"/>
+      <c r="F120" s="57"/>
       <c r="G120" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="H120" s="33" t="s">
+      <c r="H120" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="I120" s="40" t="s">
+      <c r="I120" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J120" s="40"/>
+      <c r="J120" s="41"/>
       <c r="K120" s="17" t="n">
         <v>1</v>
       </c>
@@ -12857,11 +12868,11 @@
       <c r="N120" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="O120" s="58" t="n">
+      <c r="O120" s="59" t="n">
         <v>54491472</v>
       </c>
-      <c r="P120" s="58"/>
-      <c r="Q120" s="58"/>
+      <c r="P120" s="59"/>
+      <c r="Q120" s="59"/>
       <c r="R120" s="17" t="s">
         <v>55</v>
       </c>
@@ -12886,25 +12897,25 @@
       <c r="AE120" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF120" s="61" t="n">
+      <c r="AF120" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG120" s="17"/>
       <c r="AH120" s="17"/>
       <c r="AI120" s="17"/>
-      <c r="AJ120" s="84" t="s">
+      <c r="AJ120" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK120" s="17"/>
       <c r="AL120" s="17"/>
-      <c r="AM120" s="91" t="n">
+      <c r="AM120" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN120" s="21" t="n">
         <v>119</v>
       </c>
       <c r="AO120" s="12"/>
-      <c r="AP120" s="90" t="s">
+      <c r="AP120" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ120" s="12"/>
@@ -12913,29 +12924,29 @@
       <c r="A121" s="24" t="n">
         <v>120</v>
       </c>
-      <c r="B121" s="56" t="s">
+      <c r="B121" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C121" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D121" s="56" t="s">
+      <c r="D121" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E121" s="56" t="s">
+      <c r="E121" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F121" s="56"/>
+      <c r="F121" s="57"/>
       <c r="G121" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="H121" s="33" t="s">
+      <c r="H121" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="I121" s="40" t="s">
+      <c r="I121" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J121" s="40"/>
+      <c r="J121" s="41"/>
       <c r="K121" s="17" t="n">
         <v>1</v>
       </c>
@@ -12944,11 +12955,11 @@
       <c r="N121" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O121" s="58" t="n">
+      <c r="O121" s="59" t="n">
         <v>5449000054227</v>
       </c>
-      <c r="P121" s="58"/>
-      <c r="Q121" s="58"/>
+      <c r="P121" s="59"/>
+      <c r="Q121" s="59"/>
       <c r="R121" s="17" t="s">
         <v>55</v>
       </c>
@@ -12973,25 +12984,25 @@
       <c r="AE121" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF121" s="61" t="n">
+      <c r="AF121" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG121" s="17"/>
       <c r="AH121" s="17"/>
       <c r="AI121" s="17"/>
-      <c r="AJ121" s="84" t="s">
+      <c r="AJ121" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK121" s="17"/>
       <c r="AL121" s="17"/>
-      <c r="AM121" s="91" t="n">
+      <c r="AM121" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN121" s="30" t="n">
         <v>120</v>
       </c>
       <c r="AO121" s="12"/>
-      <c r="AP121" s="90" t="s">
+      <c r="AP121" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ121" s="12"/>
@@ -13000,29 +13011,29 @@
       <c r="A122" s="14" t="n">
         <v>121</v>
       </c>
-      <c r="B122" s="56" t="s">
+      <c r="B122" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D122" s="56" t="s">
+      <c r="D122" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E122" s="56" t="s">
+      <c r="E122" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F122" s="56"/>
+      <c r="F122" s="57"/>
       <c r="G122" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="H122" s="33" t="s">
+      <c r="H122" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="I122" s="40" t="s">
+      <c r="I122" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J122" s="40"/>
+      <c r="J122" s="41"/>
       <c r="K122" s="17" t="n">
         <v>1</v>
       </c>
@@ -13031,11 +13042,11 @@
       <c r="N122" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="O122" s="58" t="n">
+      <c r="O122" s="59" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="P122" s="58"/>
-      <c r="Q122" s="58"/>
+      <c r="P122" s="59"/>
+      <c r="Q122" s="59"/>
       <c r="R122" s="17" t="s">
         <v>55</v>
       </c>
@@ -13060,25 +13071,25 @@
       <c r="AE122" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF122" s="61" t="n">
+      <c r="AF122" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG122" s="17"/>
       <c r="AH122" s="17"/>
       <c r="AI122" s="17"/>
-      <c r="AJ122" s="84" t="s">
+      <c r="AJ122" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK122" s="17"/>
       <c r="AL122" s="17"/>
-      <c r="AM122" s="91" t="n">
+      <c r="AM122" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN122" s="21" t="n">
         <v>121</v>
       </c>
       <c r="AO122" s="12"/>
-      <c r="AP122" s="90" t="s">
+      <c r="AP122" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ122" s="12"/>
@@ -13087,29 +13098,29 @@
       <c r="A123" s="24" t="n">
         <v>122</v>
       </c>
-      <c r="B123" s="56" t="s">
+      <c r="B123" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C123" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D123" s="56" t="s">
+      <c r="D123" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E123" s="56" t="s">
+      <c r="E123" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F123" s="56"/>
+      <c r="F123" s="57"/>
       <c r="G123" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="H123" s="33" t="s">
+      <c r="H123" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="I123" s="40" t="s">
+      <c r="I123" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J123" s="40"/>
+      <c r="J123" s="41"/>
       <c r="K123" s="17" t="n">
         <v>1</v>
       </c>
@@ -13118,11 +13129,11 @@
       <c r="N123" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="O123" s="58" t="n">
+      <c r="O123" s="59" t="n">
         <v>5449000133328</v>
       </c>
-      <c r="P123" s="58"/>
-      <c r="Q123" s="58"/>
+      <c r="P123" s="59"/>
+      <c r="Q123" s="59"/>
       <c r="R123" s="17" t="s">
         <v>55</v>
       </c>
@@ -13147,25 +13158,25 @@
       <c r="AE123" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF123" s="61" t="n">
+      <c r="AF123" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG123" s="17"/>
       <c r="AH123" s="17"/>
       <c r="AI123" s="17"/>
-      <c r="AJ123" s="84" t="s">
+      <c r="AJ123" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK123" s="17"/>
       <c r="AL123" s="17"/>
-      <c r="AM123" s="91" t="n">
+      <c r="AM123" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN123" s="30" t="n">
         <v>122</v>
       </c>
       <c r="AO123" s="12"/>
-      <c r="AP123" s="90" t="s">
+      <c r="AP123" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ123" s="12"/>
@@ -13174,29 +13185,29 @@
       <c r="A124" s="14" t="n">
         <v>123</v>
       </c>
-      <c r="B124" s="56" t="s">
+      <c r="B124" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C124" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D124" s="56" t="s">
+      <c r="D124" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E124" s="56" t="s">
+      <c r="E124" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F124" s="56"/>
+      <c r="F124" s="57"/>
       <c r="G124" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="H124" s="33" t="s">
+      <c r="H124" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="I124" s="40" t="s">
+      <c r="I124" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J124" s="40"/>
+      <c r="J124" s="41"/>
       <c r="K124" s="17" t="n">
         <v>1</v>
       </c>
@@ -13205,11 +13216,11 @@
       <c r="N124" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O124" s="58" t="n">
+      <c r="O124" s="59" t="n">
         <v>40822938</v>
       </c>
-      <c r="P124" s="58"/>
-      <c r="Q124" s="58"/>
+      <c r="P124" s="59"/>
+      <c r="Q124" s="59"/>
       <c r="R124" s="17" t="s">
         <v>55</v>
       </c>
@@ -13234,25 +13245,25 @@
       <c r="AE124" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF124" s="61" t="n">
+      <c r="AF124" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG124" s="17"/>
       <c r="AH124" s="17"/>
       <c r="AI124" s="17"/>
-      <c r="AJ124" s="84" t="s">
+      <c r="AJ124" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK124" s="17"/>
       <c r="AL124" s="17"/>
-      <c r="AM124" s="91" t="n">
+      <c r="AM124" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN124" s="21" t="n">
         <v>123</v>
       </c>
       <c r="AO124" s="12"/>
-      <c r="AP124" s="90" t="s">
+      <c r="AP124" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ124" s="12"/>
@@ -13261,29 +13272,29 @@
       <c r="A125" s="24" t="n">
         <v>124</v>
       </c>
-      <c r="B125" s="56" t="s">
+      <c r="B125" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D125" s="56" t="s">
+      <c r="D125" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E125" s="56" t="s">
+      <c r="E125" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F125" s="56"/>
+      <c r="F125" s="57"/>
       <c r="G125" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="H125" s="33" t="s">
+      <c r="H125" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="I125" s="40" t="s">
+      <c r="I125" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J125" s="40"/>
+      <c r="J125" s="41"/>
       <c r="K125" s="17" t="n">
         <v>1</v>
       </c>
@@ -13292,11 +13303,11 @@
       <c r="N125" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="O125" s="58" t="n">
+      <c r="O125" s="59" t="n">
         <v>5449000006271</v>
       </c>
-      <c r="P125" s="58"/>
-      <c r="Q125" s="58"/>
+      <c r="P125" s="59"/>
+      <c r="Q125" s="59"/>
       <c r="R125" s="17" t="s">
         <v>55</v>
       </c>
@@ -13321,25 +13332,25 @@
       <c r="AE125" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF125" s="61" t="n">
+      <c r="AF125" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG125" s="17"/>
       <c r="AH125" s="17"/>
       <c r="AI125" s="17"/>
-      <c r="AJ125" s="84" t="s">
+      <c r="AJ125" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK125" s="17"/>
       <c r="AL125" s="17"/>
-      <c r="AM125" s="91" t="n">
+      <c r="AM125" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN125" s="30" t="n">
         <v>124</v>
       </c>
       <c r="AO125" s="12"/>
-      <c r="AP125" s="90" t="s">
+      <c r="AP125" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ125" s="12"/>
@@ -13348,29 +13359,29 @@
       <c r="A126" s="14" t="n">
         <v>125</v>
       </c>
-      <c r="B126" s="56" t="s">
+      <c r="B126" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C126" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D126" s="56" t="s">
+      <c r="D126" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E126" s="56" t="s">
+      <c r="E126" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F126" s="56"/>
+      <c r="F126" s="57"/>
       <c r="G126" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="H126" s="33" t="s">
+      <c r="H126" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="I126" s="40" t="s">
+      <c r="I126" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J126" s="40"/>
+      <c r="J126" s="41"/>
       <c r="K126" s="17" t="n">
         <v>1</v>
       </c>
@@ -13379,11 +13390,11 @@
       <c r="N126" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="O126" s="58" t="s">
+      <c r="O126" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="P126" s="58"/>
-      <c r="Q126" s="58"/>
+      <c r="P126" s="59"/>
+      <c r="Q126" s="59"/>
       <c r="R126" s="17" t="s">
         <v>55</v>
       </c>
@@ -13408,25 +13419,25 @@
       <c r="AE126" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF126" s="61" t="n">
+      <c r="AF126" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG126" s="17"/>
       <c r="AH126" s="17"/>
       <c r="AI126" s="17"/>
-      <c r="AJ126" s="84" t="s">
+      <c r="AJ126" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK126" s="17"/>
       <c r="AL126" s="17"/>
-      <c r="AM126" s="91" t="n">
+      <c r="AM126" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN126" s="21" t="n">
         <v>125</v>
       </c>
       <c r="AO126" s="12"/>
-      <c r="AP126" s="90" t="s">
+      <c r="AP126" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ126" s="12"/>
@@ -13435,29 +13446,29 @@
       <c r="A127" s="24" t="n">
         <v>126</v>
       </c>
-      <c r="B127" s="56" t="s">
+      <c r="B127" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C127" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D127" s="56" t="s">
+      <c r="D127" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E127" s="56" t="s">
+      <c r="E127" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F127" s="56"/>
+      <c r="F127" s="57"/>
       <c r="G127" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="H127" s="33" t="s">
+      <c r="H127" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="I127" s="40" t="s">
+      <c r="I127" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J127" s="40"/>
+      <c r="J127" s="41"/>
       <c r="K127" s="17" t="n">
         <v>1</v>
       </c>
@@ -13466,11 +13477,11 @@
       <c r="N127" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="O127" s="58" t="s">
+      <c r="O127" s="59" t="s">
         <v>398</v>
       </c>
-      <c r="P127" s="58"/>
-      <c r="Q127" s="58"/>
+      <c r="P127" s="59"/>
+      <c r="Q127" s="59"/>
       <c r="R127" s="17" t="s">
         <v>55</v>
       </c>
@@ -13495,25 +13506,25 @@
       <c r="AE127" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF127" s="61" t="n">
+      <c r="AF127" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG127" s="17"/>
       <c r="AH127" s="17"/>
       <c r="AI127" s="17"/>
-      <c r="AJ127" s="84" t="s">
+      <c r="AJ127" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK127" s="17"/>
       <c r="AL127" s="17"/>
-      <c r="AM127" s="91" t="n">
+      <c r="AM127" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN127" s="30" t="n">
         <v>126</v>
       </c>
       <c r="AO127" s="12"/>
-      <c r="AP127" s="90" t="s">
+      <c r="AP127" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ127" s="12"/>
@@ -13522,29 +13533,29 @@
       <c r="A128" s="14" t="n">
         <v>127</v>
       </c>
-      <c r="B128" s="56" t="s">
+      <c r="B128" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C128" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D128" s="56" t="s">
+      <c r="D128" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E128" s="56" t="s">
+      <c r="E128" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F128" s="56"/>
+      <c r="F128" s="57"/>
       <c r="G128" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="H128" s="33" t="s">
+      <c r="H128" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="I128" s="40" t="s">
+      <c r="I128" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J128" s="40"/>
+      <c r="J128" s="41"/>
       <c r="K128" s="17" t="n">
         <v>1</v>
       </c>
@@ -13553,11 +13564,11 @@
       <c r="N128" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="O128" s="58" t="n">
+      <c r="O128" s="59" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="P128" s="58"/>
-      <c r="Q128" s="58"/>
+      <c r="P128" s="59"/>
+      <c r="Q128" s="59"/>
       <c r="R128" s="17" t="s">
         <v>55</v>
       </c>
@@ -13582,25 +13593,25 @@
       <c r="AE128" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF128" s="61" t="n">
+      <c r="AF128" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG128" s="17"/>
       <c r="AH128" s="17"/>
       <c r="AI128" s="17"/>
-      <c r="AJ128" s="84" t="s">
+      <c r="AJ128" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK128" s="17"/>
       <c r="AL128" s="17"/>
-      <c r="AM128" s="91" t="n">
+      <c r="AM128" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN128" s="21" t="n">
         <v>127</v>
       </c>
       <c r="AO128" s="12"/>
-      <c r="AP128" s="90" t="s">
+      <c r="AP128" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ128" s="12"/>
@@ -13609,29 +13620,29 @@
       <c r="A129" s="24" t="n">
         <v>128</v>
       </c>
-      <c r="B129" s="56" t="s">
+      <c r="B129" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D129" s="56" t="s">
+      <c r="D129" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E129" s="56" t="s">
+      <c r="E129" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F129" s="56"/>
+      <c r="F129" s="57"/>
       <c r="G129" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="H129" s="33" t="s">
+      <c r="H129" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="I129" s="40" t="s">
+      <c r="I129" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J129" s="40"/>
+      <c r="J129" s="41"/>
       <c r="K129" s="17" t="n">
         <v>1</v>
       </c>
@@ -13640,11 +13651,11 @@
       <c r="N129" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="O129" s="58" t="n">
+      <c r="O129" s="59" t="n">
         <v>54491069</v>
       </c>
-      <c r="P129" s="58"/>
-      <c r="Q129" s="58"/>
+      <c r="P129" s="59"/>
+      <c r="Q129" s="59"/>
       <c r="R129" s="17" t="s">
         <v>55</v>
       </c>
@@ -13669,25 +13680,25 @@
       <c r="AE129" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF129" s="61" t="n">
+      <c r="AF129" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG129" s="17"/>
       <c r="AH129" s="17"/>
       <c r="AI129" s="17"/>
-      <c r="AJ129" s="84" t="s">
+      <c r="AJ129" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK129" s="17"/>
       <c r="AL129" s="17"/>
-      <c r="AM129" s="91" t="n">
+      <c r="AM129" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN129" s="30" t="n">
         <v>128</v>
       </c>
       <c r="AO129" s="12"/>
-      <c r="AP129" s="90" t="s">
+      <c r="AP129" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ129" s="12"/>
@@ -13696,29 +13707,29 @@
       <c r="A130" s="14" t="n">
         <v>129</v>
       </c>
-      <c r="B130" s="56" t="s">
+      <c r="B130" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C130" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D130" s="56" t="s">
+      <c r="D130" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E130" s="56" t="s">
+      <c r="E130" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F130" s="56"/>
+      <c r="F130" s="57"/>
       <c r="G130" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H130" s="33" t="s">
+      <c r="H130" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="I130" s="40" t="s">
+      <c r="I130" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J130" s="40"/>
+      <c r="J130" s="41"/>
       <c r="K130" s="17" t="n">
         <v>1</v>
       </c>
@@ -13727,11 +13738,11 @@
       <c r="N130" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="O130" s="58" t="n">
+      <c r="O130" s="59" t="n">
         <v>5449000050939</v>
       </c>
-      <c r="P130" s="58"/>
-      <c r="Q130" s="58"/>
+      <c r="P130" s="59"/>
+      <c r="Q130" s="59"/>
       <c r="R130" s="17" t="s">
         <v>55</v>
       </c>
@@ -13756,25 +13767,25 @@
       <c r="AE130" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF130" s="61" t="n">
+      <c r="AF130" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG130" s="17"/>
       <c r="AH130" s="17"/>
       <c r="AI130" s="17"/>
-      <c r="AJ130" s="84" t="s">
+      <c r="AJ130" s="85" t="s">
         <v>367</v>
       </c>
       <c r="AK130" s="17"/>
       <c r="AL130" s="17"/>
-      <c r="AM130" s="91" t="n">
+      <c r="AM130" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN130" s="21" t="n">
         <v>129</v>
       </c>
       <c r="AO130" s="12"/>
-      <c r="AP130" s="90" t="s">
+      <c r="AP130" s="91" t="s">
         <v>362</v>
       </c>
       <c r="AQ130" s="12"/>
@@ -13783,38 +13794,38 @@
       <c r="A131" s="24" t="n">
         <v>130</v>
       </c>
-      <c r="B131" s="56" t="s">
+      <c r="B131" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C131" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D131" s="56" t="s">
+      <c r="D131" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E131" s="56" t="s">
+      <c r="E131" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F131" s="56"/>
+      <c r="F131" s="57"/>
       <c r="G131" s="17" t="s">
         <v>405</v>
       </c>
       <c r="H131" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="I131" s="89" t="s">
+      <c r="I131" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="J131" s="89"/>
+      <c r="J131" s="90"/>
       <c r="K131" s="17" t="n">
         <v>11</v>
       </c>
       <c r="L131" s="17"/>
       <c r="M131" s="17"/>
       <c r="N131" s="12"/>
-      <c r="O131" s="87"/>
-      <c r="P131" s="58"/>
-      <c r="Q131" s="58"/>
+      <c r="O131" s="88"/>
+      <c r="P131" s="59"/>
+      <c r="Q131" s="59"/>
       <c r="R131" s="17" t="s">
         <v>249</v>
       </c>
@@ -13824,7 +13835,7 @@
       <c r="V131" s="12"/>
       <c r="W131" s="12"/>
       <c r="X131" s="17"/>
-      <c r="Y131" s="65" t="s">
+      <c r="Y131" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z131" s="12"/>
@@ -13834,10 +13845,10 @@
       <c r="AD131" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AE131" s="85" t="s">
+      <c r="AE131" s="86" t="s">
         <v>365</v>
       </c>
-      <c r="AF131" s="61" t="n">
+      <c r="AF131" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG131" s="17" t="n">
@@ -13849,7 +13860,7 @@
       <c r="AI131" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="AJ131" s="84" t="s">
+      <c r="AJ131" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK131" s="17"/>
@@ -13860,10 +13871,10 @@
       <c r="AN131" s="30" t="n">
         <v>130</v>
       </c>
-      <c r="AO131" s="64" t="s">
+      <c r="AO131" s="65" t="s">
         <v>409</v>
       </c>
-      <c r="AP131" s="90" t="s">
+      <c r="AP131" s="91" t="s">
         <v>358</v>
       </c>
       <c r="AQ131" s="12"/>
@@ -13872,29 +13883,29 @@
       <c r="A132" s="14" t="n">
         <v>131</v>
       </c>
-      <c r="B132" s="56" t="s">
+      <c r="B132" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C132" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D132" s="56" t="s">
+      <c r="D132" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E132" s="56" t="s">
+      <c r="E132" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F132" s="56"/>
+      <c r="F132" s="57"/>
       <c r="G132" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="H132" s="33" t="s">
+      <c r="H132" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="I132" s="40" t="s">
+      <c r="I132" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J132" s="40"/>
+      <c r="J132" s="41"/>
       <c r="K132" s="17" t="n">
         <v>1</v>
       </c>
@@ -13903,11 +13914,11 @@
       <c r="N132" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="O132" s="58" t="n">
+      <c r="O132" s="59" t="n">
         <v>5449000008046</v>
       </c>
-      <c r="P132" s="58"/>
-      <c r="Q132" s="58"/>
+      <c r="P132" s="59"/>
+      <c r="Q132" s="59"/>
       <c r="R132" s="17" t="s">
         <v>55</v>
       </c>
@@ -13919,7 +13930,7 @@
       <c r="V132" s="12"/>
       <c r="W132" s="12"/>
       <c r="X132" s="17"/>
-      <c r="Y132" s="65" t="s">
+      <c r="Y132" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z132" s="12"/>
@@ -13932,25 +13943,25 @@
       <c r="AE132" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF132" s="61" t="n">
+      <c r="AF132" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG132" s="17"/>
       <c r="AH132" s="17"/>
       <c r="AI132" s="17"/>
-      <c r="AJ132" s="84" t="s">
+      <c r="AJ132" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK132" s="17"/>
       <c r="AL132" s="17"/>
-      <c r="AM132" s="91" t="n">
+      <c r="AM132" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN132" s="21" t="n">
         <v>131</v>
       </c>
       <c r="AO132" s="12"/>
-      <c r="AP132" s="92" t="s">
+      <c r="AP132" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ132" s="12"/>
@@ -13959,29 +13970,29 @@
       <c r="A133" s="24" t="n">
         <v>132</v>
       </c>
-      <c r="B133" s="56" t="s">
+      <c r="B133" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D133" s="56" t="s">
+      <c r="D133" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E133" s="56" t="s">
+      <c r="E133" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F133" s="56"/>
+      <c r="F133" s="57"/>
       <c r="G133" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="H133" s="33" t="s">
+      <c r="H133" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="I133" s="40" t="s">
+      <c r="I133" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J133" s="40"/>
+      <c r="J133" s="41"/>
       <c r="K133" s="17" t="n">
         <v>1</v>
       </c>
@@ -13990,11 +14001,11 @@
       <c r="N133" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="O133" s="58" t="n">
+      <c r="O133" s="59" t="n">
         <v>5449000000996</v>
       </c>
-      <c r="P133" s="58"/>
-      <c r="Q133" s="58"/>
+      <c r="P133" s="59"/>
+      <c r="Q133" s="59"/>
       <c r="R133" s="17" t="s">
         <v>55</v>
       </c>
@@ -14006,7 +14017,7 @@
       <c r="V133" s="12"/>
       <c r="W133" s="12"/>
       <c r="X133" s="17"/>
-      <c r="Y133" s="65" t="s">
+      <c r="Y133" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z133" s="12"/>
@@ -14019,25 +14030,25 @@
       <c r="AE133" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF133" s="61" t="n">
+      <c r="AF133" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG133" s="17"/>
       <c r="AH133" s="17"/>
       <c r="AI133" s="17"/>
-      <c r="AJ133" s="84" t="s">
+      <c r="AJ133" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK133" s="17"/>
       <c r="AL133" s="17"/>
-      <c r="AM133" s="91" t="n">
+      <c r="AM133" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN133" s="30" t="n">
         <v>132</v>
       </c>
       <c r="AO133" s="12"/>
-      <c r="AP133" s="92" t="s">
+      <c r="AP133" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ133" s="12"/>
@@ -14046,29 +14057,29 @@
       <c r="A134" s="14" t="n">
         <v>133</v>
       </c>
-      <c r="B134" s="56" t="s">
+      <c r="B134" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C134" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D134" s="56" t="s">
+      <c r="D134" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E134" s="56" t="s">
+      <c r="E134" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F134" s="56"/>
+      <c r="F134" s="57"/>
       <c r="G134" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="H134" s="33" t="s">
+      <c r="H134" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="I134" s="40" t="s">
+      <c r="I134" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J134" s="40"/>
+      <c r="J134" s="41"/>
       <c r="K134" s="17" t="n">
         <v>1</v>
       </c>
@@ -14077,11 +14088,11 @@
       <c r="N134" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="O134" s="58" t="n">
+      <c r="O134" s="59" t="n">
         <v>54491472</v>
       </c>
-      <c r="P134" s="58"/>
-      <c r="Q134" s="58"/>
+      <c r="P134" s="59"/>
+      <c r="Q134" s="59"/>
       <c r="R134" s="17" t="s">
         <v>55</v>
       </c>
@@ -14093,7 +14104,7 @@
       <c r="V134" s="12"/>
       <c r="W134" s="12"/>
       <c r="X134" s="17"/>
-      <c r="Y134" s="65" t="s">
+      <c r="Y134" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z134" s="12"/>
@@ -14106,25 +14117,25 @@
       <c r="AE134" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF134" s="61" t="n">
+      <c r="AF134" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG134" s="17"/>
       <c r="AH134" s="17"/>
       <c r="AI134" s="17"/>
-      <c r="AJ134" s="84" t="s">
+      <c r="AJ134" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK134" s="17"/>
       <c r="AL134" s="17"/>
-      <c r="AM134" s="91" t="n">
+      <c r="AM134" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN134" s="21" t="n">
         <v>133</v>
       </c>
       <c r="AO134" s="12"/>
-      <c r="AP134" s="92" t="s">
+      <c r="AP134" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ134" s="12"/>
@@ -14133,29 +14144,29 @@
       <c r="A135" s="24" t="n">
         <v>134</v>
       </c>
-      <c r="B135" s="56" t="s">
+      <c r="B135" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C135" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D135" s="56" t="s">
+      <c r="D135" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E135" s="56" t="s">
+      <c r="E135" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F135" s="56"/>
+      <c r="F135" s="57"/>
       <c r="G135" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="H135" s="33" t="s">
+      <c r="H135" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="I135" s="40" t="s">
+      <c r="I135" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J135" s="40"/>
+      <c r="J135" s="41"/>
       <c r="K135" s="17" t="n">
         <v>1</v>
       </c>
@@ -14164,11 +14175,11 @@
       <c r="N135" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O135" s="58" t="n">
+      <c r="O135" s="59" t="n">
         <v>5449000054227</v>
       </c>
-      <c r="P135" s="58"/>
-      <c r="Q135" s="58"/>
+      <c r="P135" s="59"/>
+      <c r="Q135" s="59"/>
       <c r="R135" s="17" t="s">
         <v>55</v>
       </c>
@@ -14180,7 +14191,7 @@
       <c r="V135" s="12"/>
       <c r="W135" s="12"/>
       <c r="X135" s="17"/>
-      <c r="Y135" s="65" t="s">
+      <c r="Y135" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z135" s="12"/>
@@ -14193,25 +14204,25 @@
       <c r="AE135" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF135" s="61" t="n">
+      <c r="AF135" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG135" s="17"/>
       <c r="AH135" s="17"/>
       <c r="AI135" s="17"/>
-      <c r="AJ135" s="84" t="s">
+      <c r="AJ135" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK135" s="17"/>
       <c r="AL135" s="17"/>
-      <c r="AM135" s="91" t="n">
+      <c r="AM135" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN135" s="30" t="n">
         <v>134</v>
       </c>
       <c r="AO135" s="12"/>
-      <c r="AP135" s="92" t="s">
+      <c r="AP135" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ135" s="12"/>
@@ -14220,29 +14231,29 @@
       <c r="A136" s="14" t="n">
         <v>135</v>
       </c>
-      <c r="B136" s="56" t="s">
+      <c r="B136" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D136" s="56" t="s">
+      <c r="D136" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E136" s="56" t="s">
+      <c r="E136" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F136" s="56"/>
+      <c r="F136" s="57"/>
       <c r="G136" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="H136" s="33" t="s">
+      <c r="H136" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="I136" s="40" t="s">
+      <c r="I136" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J136" s="40"/>
+      <c r="J136" s="41"/>
       <c r="K136" s="17" t="n">
         <v>1</v>
       </c>
@@ -14251,11 +14262,11 @@
       <c r="N136" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="O136" s="58" t="n">
+      <c r="O136" s="59" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="P136" s="58"/>
-      <c r="Q136" s="58"/>
+      <c r="P136" s="59"/>
+      <c r="Q136" s="59"/>
       <c r="R136" s="17" t="s">
         <v>55</v>
       </c>
@@ -14267,7 +14278,7 @@
       <c r="V136" s="12"/>
       <c r="W136" s="12"/>
       <c r="X136" s="17"/>
-      <c r="Y136" s="65" t="s">
+      <c r="Y136" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z136" s="12"/>
@@ -14280,25 +14291,25 @@
       <c r="AE136" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF136" s="61" t="n">
+      <c r="AF136" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG136" s="17"/>
       <c r="AH136" s="17"/>
       <c r="AI136" s="17"/>
-      <c r="AJ136" s="84" t="s">
+      <c r="AJ136" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK136" s="17"/>
       <c r="AL136" s="17"/>
-      <c r="AM136" s="91" t="n">
+      <c r="AM136" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN136" s="21" t="n">
         <v>135</v>
       </c>
       <c r="AO136" s="12"/>
-      <c r="AP136" s="92" t="s">
+      <c r="AP136" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ136" s="12"/>
@@ -14307,29 +14318,29 @@
       <c r="A137" s="24" t="n">
         <v>136</v>
       </c>
-      <c r="B137" s="56" t="s">
+      <c r="B137" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D137" s="56" t="s">
+      <c r="D137" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E137" s="56" t="s">
+      <c r="E137" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F137" s="56"/>
+      <c r="F137" s="57"/>
       <c r="G137" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="H137" s="33" t="s">
+      <c r="H137" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="I137" s="40" t="s">
+      <c r="I137" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J137" s="40"/>
+      <c r="J137" s="41"/>
       <c r="K137" s="17" t="n">
         <v>1</v>
       </c>
@@ -14338,11 +14349,11 @@
       <c r="N137" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="O137" s="58" t="n">
+      <c r="O137" s="59" t="n">
         <v>5449000133328</v>
       </c>
-      <c r="P137" s="58"/>
-      <c r="Q137" s="58"/>
+      <c r="P137" s="59"/>
+      <c r="Q137" s="59"/>
       <c r="R137" s="17" t="s">
         <v>55</v>
       </c>
@@ -14354,7 +14365,7 @@
       <c r="V137" s="12"/>
       <c r="W137" s="12"/>
       <c r="X137" s="17"/>
-      <c r="Y137" s="65" t="s">
+      <c r="Y137" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z137" s="12"/>
@@ -14367,25 +14378,25 @@
       <c r="AE137" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF137" s="61" t="n">
+      <c r="AF137" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG137" s="17"/>
       <c r="AH137" s="17"/>
       <c r="AI137" s="17"/>
-      <c r="AJ137" s="84" t="s">
+      <c r="AJ137" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK137" s="17"/>
       <c r="AL137" s="17"/>
-      <c r="AM137" s="91" t="n">
+      <c r="AM137" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN137" s="30" t="n">
         <v>136</v>
       </c>
       <c r="AO137" s="12"/>
-      <c r="AP137" s="92" t="s">
+      <c r="AP137" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ137" s="12"/>
@@ -14394,29 +14405,29 @@
       <c r="A138" s="14" t="n">
         <v>137</v>
       </c>
-      <c r="B138" s="56" t="s">
+      <c r="B138" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D138" s="56" t="s">
+      <c r="D138" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E138" s="56" t="s">
+      <c r="E138" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F138" s="56"/>
+      <c r="F138" s="57"/>
       <c r="G138" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="H138" s="33" t="s">
+      <c r="H138" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="I138" s="40" t="s">
+      <c r="I138" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J138" s="40"/>
+      <c r="J138" s="41"/>
       <c r="K138" s="17" t="n">
         <v>1</v>
       </c>
@@ -14425,11 +14436,11 @@
       <c r="N138" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="O138" s="58" t="n">
+      <c r="O138" s="59" t="n">
         <v>5449000213631</v>
       </c>
-      <c r="P138" s="58"/>
-      <c r="Q138" s="58"/>
+      <c r="P138" s="59"/>
+      <c r="Q138" s="59"/>
       <c r="R138" s="17" t="s">
         <v>55</v>
       </c>
@@ -14441,7 +14452,7 @@
       <c r="V138" s="12"/>
       <c r="W138" s="12"/>
       <c r="X138" s="17"/>
-      <c r="Y138" s="65" t="s">
+      <c r="Y138" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z138" s="12"/>
@@ -14454,25 +14465,25 @@
       <c r="AE138" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF138" s="61" t="n">
+      <c r="AF138" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG138" s="17"/>
       <c r="AH138" s="17"/>
       <c r="AI138" s="17"/>
-      <c r="AJ138" s="84" t="s">
+      <c r="AJ138" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK138" s="17"/>
       <c r="AL138" s="17"/>
-      <c r="AM138" s="91" t="n">
+      <c r="AM138" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN138" s="21" t="n">
         <v>137</v>
       </c>
       <c r="AO138" s="12"/>
-      <c r="AP138" s="92" t="s">
+      <c r="AP138" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ138" s="12"/>
@@ -14481,29 +14492,29 @@
       <c r="A139" s="24" t="n">
         <v>138</v>
       </c>
-      <c r="B139" s="56" t="s">
+      <c r="B139" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D139" s="56" t="s">
+      <c r="D139" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E139" s="56" t="s">
+      <c r="E139" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F139" s="56"/>
+      <c r="F139" s="57"/>
       <c r="G139" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="H139" s="33" t="s">
+      <c r="H139" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="I139" s="40" t="s">
+      <c r="I139" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J139" s="40"/>
+      <c r="J139" s="41"/>
       <c r="K139" s="17" t="n">
         <v>1</v>
       </c>
@@ -14512,11 +14523,11 @@
       <c r="N139" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O139" s="58" t="n">
+      <c r="O139" s="59" t="n">
         <v>40822938</v>
       </c>
-      <c r="P139" s="58"/>
-      <c r="Q139" s="58"/>
+      <c r="P139" s="59"/>
+      <c r="Q139" s="59"/>
       <c r="R139" s="17" t="s">
         <v>55</v>
       </c>
@@ -14528,7 +14539,7 @@
       <c r="V139" s="12"/>
       <c r="W139" s="12"/>
       <c r="X139" s="17"/>
-      <c r="Y139" s="65" t="s">
+      <c r="Y139" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z139" s="12"/>
@@ -14541,25 +14552,25 @@
       <c r="AE139" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF139" s="61" t="n">
+      <c r="AF139" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG139" s="17"/>
       <c r="AH139" s="17"/>
       <c r="AI139" s="17"/>
-      <c r="AJ139" s="84" t="s">
+      <c r="AJ139" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK139" s="17"/>
       <c r="AL139" s="17"/>
-      <c r="AM139" s="91" t="n">
+      <c r="AM139" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN139" s="30" t="n">
         <v>138</v>
       </c>
       <c r="AO139" s="12"/>
-      <c r="AP139" s="92" t="s">
+      <c r="AP139" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ139" s="12"/>
@@ -14568,29 +14579,29 @@
       <c r="A140" s="14" t="n">
         <v>139</v>
       </c>
-      <c r="B140" s="56" t="s">
+      <c r="B140" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C140" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D140" s="56" t="s">
+      <c r="D140" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E140" s="56" t="s">
+      <c r="E140" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F140" s="56"/>
+      <c r="F140" s="57"/>
       <c r="G140" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="H140" s="33" t="s">
+      <c r="H140" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="I140" s="40" t="s">
+      <c r="I140" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J140" s="40"/>
+      <c r="J140" s="41"/>
       <c r="K140" s="17" t="n">
         <v>1</v>
       </c>
@@ -14599,11 +14610,11 @@
       <c r="N140" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="O140" s="58" t="n">
+      <c r="O140" s="59" t="n">
         <v>5449000006271</v>
       </c>
-      <c r="P140" s="58"/>
-      <c r="Q140" s="58"/>
+      <c r="P140" s="59"/>
+      <c r="Q140" s="59"/>
       <c r="R140" s="17" t="s">
         <v>55</v>
       </c>
@@ -14615,7 +14626,7 @@
       <c r="V140" s="12"/>
       <c r="W140" s="12"/>
       <c r="X140" s="17"/>
-      <c r="Y140" s="65" t="s">
+      <c r="Y140" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z140" s="12"/>
@@ -14628,25 +14639,25 @@
       <c r="AE140" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF140" s="61" t="n">
+      <c r="AF140" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG140" s="17"/>
       <c r="AH140" s="17"/>
       <c r="AI140" s="17"/>
-      <c r="AJ140" s="84" t="s">
+      <c r="AJ140" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK140" s="17"/>
       <c r="AL140" s="17"/>
-      <c r="AM140" s="91" t="n">
+      <c r="AM140" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN140" s="21" t="n">
         <v>139</v>
       </c>
       <c r="AO140" s="12"/>
-      <c r="AP140" s="92" t="s">
+      <c r="AP140" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ140" s="12"/>
@@ -14655,29 +14666,29 @@
       <c r="A141" s="24" t="n">
         <v>140</v>
       </c>
-      <c r="B141" s="56" t="s">
+      <c r="B141" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C141" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D141" s="56" t="s">
+      <c r="D141" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E141" s="56" t="s">
+      <c r="E141" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F141" s="56"/>
+      <c r="F141" s="57"/>
       <c r="G141" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="H141" s="33" t="s">
+      <c r="H141" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="I141" s="40" t="s">
+      <c r="I141" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J141" s="40"/>
+      <c r="J141" s="41"/>
       <c r="K141" s="17" t="n">
         <v>1</v>
       </c>
@@ -14686,11 +14697,11 @@
       <c r="N141" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="O141" s="58" t="n">
+      <c r="O141" s="59" t="n">
         <v>54491069</v>
       </c>
-      <c r="P141" s="58"/>
-      <c r="Q141" s="58"/>
+      <c r="P141" s="59"/>
+      <c r="Q141" s="59"/>
       <c r="R141" s="17" t="s">
         <v>55</v>
       </c>
@@ -14702,7 +14713,7 @@
       <c r="V141" s="12"/>
       <c r="W141" s="12"/>
       <c r="X141" s="17"/>
-      <c r="Y141" s="65" t="s">
+      <c r="Y141" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z141" s="12"/>
@@ -14715,25 +14726,25 @@
       <c r="AE141" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF141" s="61" t="n">
+      <c r="AF141" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG141" s="17"/>
       <c r="AH141" s="17"/>
       <c r="AI141" s="17"/>
-      <c r="AJ141" s="84" t="s">
+      <c r="AJ141" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK141" s="17"/>
       <c r="AL141" s="17"/>
-      <c r="AM141" s="91" t="n">
+      <c r="AM141" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN141" s="30" t="n">
         <v>140</v>
       </c>
       <c r="AO141" s="12"/>
-      <c r="AP141" s="92" t="s">
+      <c r="AP141" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ141" s="12"/>
@@ -14742,29 +14753,29 @@
       <c r="A142" s="14" t="n">
         <v>141</v>
       </c>
-      <c r="B142" s="56" t="s">
+      <c r="B142" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C142" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D142" s="56" t="s">
+      <c r="D142" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E142" s="56" t="s">
+      <c r="E142" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F142" s="56"/>
+      <c r="F142" s="57"/>
       <c r="G142" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="H142" s="33" t="s">
+      <c r="H142" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="I142" s="40" t="s">
+      <c r="I142" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J142" s="40"/>
+      <c r="J142" s="41"/>
       <c r="K142" s="17" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +14784,11 @@
       <c r="N142" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="O142" s="58" t="n">
+      <c r="O142" s="59" t="n">
         <v>5449000050939</v>
       </c>
-      <c r="P142" s="58"/>
-      <c r="Q142" s="58"/>
+      <c r="P142" s="59"/>
+      <c r="Q142" s="59"/>
       <c r="R142" s="17" t="s">
         <v>55</v>
       </c>
@@ -14789,7 +14800,7 @@
       <c r="V142" s="12"/>
       <c r="W142" s="12"/>
       <c r="X142" s="17"/>
-      <c r="Y142" s="65" t="s">
+      <c r="Y142" s="66" t="s">
         <v>407</v>
       </c>
       <c r="Z142" s="12"/>
@@ -14802,25 +14813,25 @@
       <c r="AE142" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF142" s="61" t="n">
+      <c r="AF142" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG142" s="17"/>
       <c r="AH142" s="17"/>
       <c r="AI142" s="17"/>
-      <c r="AJ142" s="84" t="s">
+      <c r="AJ142" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK142" s="17"/>
       <c r="AL142" s="17"/>
-      <c r="AM142" s="91" t="n">
+      <c r="AM142" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN142" s="21" t="n">
         <v>141</v>
       </c>
       <c r="AO142" s="12"/>
-      <c r="AP142" s="92" t="s">
+      <c r="AP142" s="93" t="s">
         <v>405</v>
       </c>
       <c r="AQ142" s="12"/>
@@ -14829,38 +14840,38 @@
       <c r="A143" s="24" t="n">
         <v>142</v>
       </c>
-      <c r="B143" s="56" t="s">
+      <c r="B143" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D143" s="56" t="s">
+      <c r="D143" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E143" s="56" t="s">
+      <c r="E143" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F143" s="56"/>
+      <c r="F143" s="57"/>
       <c r="G143" s="17" t="s">
         <v>432</v>
       </c>
       <c r="H143" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="I143" s="89" t="s">
+      <c r="I143" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="J143" s="89"/>
+      <c r="J143" s="90"/>
       <c r="K143" s="17" t="n">
         <v>10</v>
       </c>
       <c r="L143" s="17"/>
       <c r="M143" s="17"/>
       <c r="N143" s="12"/>
-      <c r="O143" s="87"/>
-      <c r="P143" s="58"/>
-      <c r="Q143" s="58"/>
+      <c r="O143" s="88"/>
+      <c r="P143" s="59"/>
+      <c r="Q143" s="59"/>
       <c r="R143" s="17" t="s">
         <v>249</v>
       </c>
@@ -14880,10 +14891,10 @@
       <c r="AD143" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AE143" s="85" t="s">
+      <c r="AE143" s="86" t="s">
         <v>365</v>
       </c>
-      <c r="AF143" s="61" t="n">
+      <c r="AF143" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG143" s="17" t="n">
@@ -14895,7 +14906,7 @@
       <c r="AI143" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="AJ143" s="84" t="s">
+      <c r="AJ143" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK143" s="17"/>
@@ -14906,10 +14917,10 @@
       <c r="AN143" s="30" t="n">
         <v>142</v>
       </c>
-      <c r="AO143" s="64" t="s">
+      <c r="AO143" s="65" t="s">
         <v>435</v>
       </c>
-      <c r="AP143" s="90" t="s">
+      <c r="AP143" s="91" t="s">
         <v>358</v>
       </c>
       <c r="AQ143" s="12"/>
@@ -14918,29 +14929,29 @@
       <c r="A144" s="14" t="n">
         <v>143</v>
       </c>
-      <c r="B144" s="56" t="s">
+      <c r="B144" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D144" s="56" t="s">
+      <c r="D144" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E144" s="56" t="s">
+      <c r="E144" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F144" s="56"/>
+      <c r="F144" s="57"/>
       <c r="G144" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="H144" s="33" t="s">
+      <c r="H144" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="I144" s="40" t="s">
+      <c r="I144" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J144" s="40"/>
+      <c r="J144" s="41"/>
       <c r="K144" s="17" t="n">
         <v>1</v>
       </c>
@@ -14949,11 +14960,11 @@
       <c r="N144" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="O144" s="62" t="n">
+      <c r="O144" s="63" t="n">
         <v>90494406</v>
       </c>
-      <c r="P144" s="58"/>
-      <c r="Q144" s="58"/>
+      <c r="P144" s="59"/>
+      <c r="Q144" s="59"/>
       <c r="R144" s="17" t="s">
         <v>55</v>
       </c>
@@ -14978,25 +14989,25 @@
       <c r="AE144" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF144" s="61" t="n">
+      <c r="AF144" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG144" s="17"/>
       <c r="AH144" s="17"/>
       <c r="AI144" s="17"/>
-      <c r="AJ144" s="84" t="s">
+      <c r="AJ144" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK144" s="17"/>
       <c r="AL144" s="17"/>
-      <c r="AM144" s="91" t="n">
+      <c r="AM144" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN144" s="21" t="n">
         <v>143</v>
       </c>
       <c r="AO144" s="12"/>
-      <c r="AP144" s="92" t="s">
+      <c r="AP144" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ144" s="12"/>
@@ -15005,29 +15016,29 @@
       <c r="A145" s="24" t="n">
         <v>144</v>
       </c>
-      <c r="B145" s="56" t="s">
+      <c r="B145" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C145" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D145" s="56" t="s">
+      <c r="D145" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E145" s="56" t="s">
+      <c r="E145" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F145" s="56"/>
+      <c r="F145" s="57"/>
       <c r="G145" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="H145" s="33" t="s">
+      <c r="H145" s="34" t="s">
         <v>439</v>
       </c>
-      <c r="I145" s="40" t="s">
+      <c r="I145" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J145" s="40"/>
+      <c r="J145" s="41"/>
       <c r="K145" s="17" t="n">
         <v>1</v>
       </c>
@@ -15036,11 +15047,11 @@
       <c r="N145" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="O145" s="62" t="n">
+      <c r="O145" s="63" t="n">
         <v>40822426</v>
       </c>
-      <c r="P145" s="58"/>
-      <c r="Q145" s="58"/>
+      <c r="P145" s="59"/>
+      <c r="Q145" s="59"/>
       <c r="R145" s="17" t="s">
         <v>55</v>
       </c>
@@ -15065,25 +15076,25 @@
       <c r="AE145" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF145" s="61" t="n">
+      <c r="AF145" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG145" s="17"/>
       <c r="AH145" s="17"/>
       <c r="AI145" s="17"/>
-      <c r="AJ145" s="84" t="s">
+      <c r="AJ145" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK145" s="17"/>
       <c r="AL145" s="17"/>
-      <c r="AM145" s="91" t="n">
+      <c r="AM145" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN145" s="30" t="n">
         <v>144</v>
       </c>
       <c r="AO145" s="12"/>
-      <c r="AP145" s="92" t="s">
+      <c r="AP145" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ145" s="12"/>
@@ -15092,29 +15103,29 @@
       <c r="A146" s="14" t="n">
         <v>145</v>
       </c>
-      <c r="B146" s="56" t="s">
+      <c r="B146" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C146" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D146" s="56" t="s">
+      <c r="D146" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E146" s="56" t="s">
+      <c r="E146" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F146" s="56"/>
+      <c r="F146" s="57"/>
       <c r="G146" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="H146" s="33" t="s">
+      <c r="H146" s="34" t="s">
         <v>441</v>
       </c>
-      <c r="I146" s="40" t="s">
+      <c r="I146" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J146" s="40"/>
+      <c r="J146" s="41"/>
       <c r="K146" s="17" t="n">
         <v>1</v>
       </c>
@@ -15123,11 +15134,11 @@
       <c r="N146" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="O146" s="62" t="n">
+      <c r="O146" s="63" t="n">
         <v>5449000005489</v>
       </c>
-      <c r="P146" s="58"/>
-      <c r="Q146" s="58"/>
+      <c r="P146" s="59"/>
+      <c r="Q146" s="59"/>
       <c r="R146" s="17" t="s">
         <v>55</v>
       </c>
@@ -15152,25 +15163,25 @@
       <c r="AE146" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF146" s="61" t="n">
+      <c r="AF146" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG146" s="17"/>
       <c r="AH146" s="17"/>
       <c r="AI146" s="17"/>
-      <c r="AJ146" s="84" t="s">
+      <c r="AJ146" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK146" s="17"/>
       <c r="AL146" s="17"/>
-      <c r="AM146" s="91" t="n">
+      <c r="AM146" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN146" s="21" t="n">
         <v>145</v>
       </c>
       <c r="AO146" s="12"/>
-      <c r="AP146" s="92" t="s">
+      <c r="AP146" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ146" s="12"/>
@@ -15179,29 +15190,29 @@
       <c r="A147" s="24" t="n">
         <v>146</v>
       </c>
-      <c r="B147" s="56" t="s">
+      <c r="B147" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C147" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D147" s="56" t="s">
+      <c r="D147" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E147" s="56" t="s">
+      <c r="E147" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F147" s="56"/>
+      <c r="F147" s="57"/>
       <c r="G147" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="H147" s="33" t="s">
+      <c r="H147" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="I147" s="40" t="s">
+      <c r="I147" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J147" s="40"/>
+      <c r="J147" s="41"/>
       <c r="K147" s="17" t="n">
         <v>1</v>
       </c>
@@ -15210,11 +15221,11 @@
       <c r="N147" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="O147" s="62" t="n">
+      <c r="O147" s="63" t="n">
         <v>5449000152190</v>
       </c>
-      <c r="P147" s="58"/>
-      <c r="Q147" s="58"/>
+      <c r="P147" s="59"/>
+      <c r="Q147" s="59"/>
       <c r="R147" s="17" t="s">
         <v>55</v>
       </c>
@@ -15239,25 +15250,25 @@
       <c r="AE147" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF147" s="61" t="n">
+      <c r="AF147" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG147" s="17"/>
       <c r="AH147" s="17"/>
       <c r="AI147" s="17"/>
-      <c r="AJ147" s="84" t="s">
+      <c r="AJ147" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK147" s="17"/>
       <c r="AL147" s="17"/>
-      <c r="AM147" s="91" t="n">
+      <c r="AM147" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN147" s="30" t="n">
         <v>146</v>
       </c>
       <c r="AO147" s="12"/>
-      <c r="AP147" s="92" t="s">
+      <c r="AP147" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ147" s="12"/>
@@ -15266,29 +15277,29 @@
       <c r="A148" s="14" t="n">
         <v>147</v>
       </c>
-      <c r="B148" s="56" t="s">
+      <c r="B148" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C148" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D148" s="56" t="s">
+      <c r="D148" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E148" s="56" t="s">
+      <c r="E148" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F148" s="56"/>
+      <c r="F148" s="57"/>
       <c r="G148" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="H148" s="33" t="s">
+      <c r="H148" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="I148" s="40" t="s">
+      <c r="I148" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J148" s="40"/>
+      <c r="J148" s="41"/>
       <c r="K148" s="17" t="n">
         <v>1</v>
       </c>
@@ -15297,11 +15308,11 @@
       <c r="N148" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="O148" s="62" t="n">
+      <c r="O148" s="63" t="n">
         <v>5449000131768</v>
       </c>
-      <c r="P148" s="58"/>
-      <c r="Q148" s="58"/>
+      <c r="P148" s="59"/>
+      <c r="Q148" s="59"/>
       <c r="R148" s="17" t="s">
         <v>55</v>
       </c>
@@ -15326,25 +15337,25 @@
       <c r="AE148" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF148" s="61" t="n">
+      <c r="AF148" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG148" s="17"/>
       <c r="AH148" s="17"/>
       <c r="AI148" s="17"/>
-      <c r="AJ148" s="84" t="s">
+      <c r="AJ148" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK148" s="17"/>
       <c r="AL148" s="17"/>
-      <c r="AM148" s="91" t="n">
+      <c r="AM148" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN148" s="21" t="n">
         <v>147</v>
       </c>
       <c r="AO148" s="12"/>
-      <c r="AP148" s="92" t="s">
+      <c r="AP148" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ148" s="12"/>
@@ -15353,29 +15364,29 @@
       <c r="A149" s="24" t="n">
         <v>148</v>
       </c>
-      <c r="B149" s="56" t="s">
+      <c r="B149" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C149" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D149" s="56" t="s">
+      <c r="D149" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E149" s="56" t="s">
+      <c r="E149" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F149" s="56"/>
+      <c r="F149" s="57"/>
       <c r="G149" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="H149" s="33" t="s">
+      <c r="H149" s="34" t="s">
         <v>447</v>
       </c>
-      <c r="I149" s="40" t="s">
+      <c r="I149" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J149" s="40"/>
+      <c r="J149" s="41"/>
       <c r="K149" s="17" t="n">
         <v>1</v>
       </c>
@@ -15384,11 +15395,11 @@
       <c r="N149" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="O149" s="62" t="s">
+      <c r="O149" s="63" t="s">
         <v>394</v>
       </c>
-      <c r="P149" s="58"/>
-      <c r="Q149" s="58"/>
+      <c r="P149" s="59"/>
+      <c r="Q149" s="59"/>
       <c r="R149" s="17" t="s">
         <v>55</v>
       </c>
@@ -15413,25 +15424,25 @@
       <c r="AE149" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF149" s="61" t="n">
+      <c r="AF149" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG149" s="17"/>
       <c r="AH149" s="17"/>
       <c r="AI149" s="17"/>
-      <c r="AJ149" s="84" t="s">
+      <c r="AJ149" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK149" s="17"/>
       <c r="AL149" s="17"/>
-      <c r="AM149" s="91" t="n">
+      <c r="AM149" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN149" s="30" t="n">
         <v>148</v>
       </c>
       <c r="AO149" s="12"/>
-      <c r="AP149" s="92" t="s">
+      <c r="AP149" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ149" s="12"/>
@@ -15440,29 +15451,29 @@
       <c r="A150" s="14" t="n">
         <v>149</v>
       </c>
-      <c r="B150" s="56" t="s">
+      <c r="B150" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C150" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D150" s="56" t="s">
+      <c r="D150" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E150" s="56" t="s">
+      <c r="E150" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F150" s="56"/>
+      <c r="F150" s="57"/>
       <c r="G150" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="H150" s="33" t="s">
+      <c r="H150" s="34" t="s">
         <v>449</v>
       </c>
-      <c r="I150" s="40" t="s">
+      <c r="I150" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J150" s="40"/>
+      <c r="J150" s="41"/>
       <c r="K150" s="17" t="n">
         <v>1</v>
       </c>
@@ -15471,11 +15482,11 @@
       <c r="N150" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="O150" s="62" t="s">
+      <c r="O150" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="P150" s="58"/>
-      <c r="Q150" s="58"/>
+      <c r="P150" s="59"/>
+      <c r="Q150" s="59"/>
       <c r="R150" s="17" t="s">
         <v>55</v>
       </c>
@@ -15500,25 +15511,25 @@
       <c r="AE150" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF150" s="61" t="n">
+      <c r="AF150" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG150" s="17"/>
       <c r="AH150" s="17"/>
       <c r="AI150" s="17"/>
-      <c r="AJ150" s="84" t="s">
+      <c r="AJ150" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK150" s="17"/>
       <c r="AL150" s="17"/>
-      <c r="AM150" s="91" t="n">
+      <c r="AM150" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN150" s="21" t="n">
         <v>149</v>
       </c>
       <c r="AO150" s="12"/>
-      <c r="AP150" s="92" t="s">
+      <c r="AP150" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ150" s="12"/>
@@ -15527,29 +15538,29 @@
       <c r="A151" s="24" t="n">
         <v>150</v>
       </c>
-      <c r="B151" s="56" t="s">
+      <c r="B151" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C151" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D151" s="56" t="s">
+      <c r="D151" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E151" s="56" t="s">
+      <c r="E151" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F151" s="56"/>
+      <c r="F151" s="57"/>
       <c r="G151" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="H151" s="33" t="s">
+      <c r="H151" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="I151" s="40" t="s">
+      <c r="I151" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J151" s="40"/>
+      <c r="J151" s="41"/>
       <c r="K151" s="17" t="n">
         <v>1</v>
       </c>
@@ -15558,11 +15569,11 @@
       <c r="N151" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="O151" s="62" t="s">
+      <c r="O151" s="63" t="s">
         <v>453</v>
       </c>
-      <c r="P151" s="58"/>
-      <c r="Q151" s="58"/>
+      <c r="P151" s="59"/>
+      <c r="Q151" s="59"/>
       <c r="R151" s="17" t="s">
         <v>55</v>
       </c>
@@ -15587,25 +15598,25 @@
       <c r="AE151" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF151" s="61" t="n">
+      <c r="AF151" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG151" s="17"/>
       <c r="AH151" s="17"/>
       <c r="AI151" s="17"/>
-      <c r="AJ151" s="84" t="s">
+      <c r="AJ151" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK151" s="17"/>
       <c r="AL151" s="17"/>
-      <c r="AM151" s="91" t="n">
+      <c r="AM151" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN151" s="30" t="n">
         <v>150</v>
       </c>
       <c r="AO151" s="12"/>
-      <c r="AP151" s="92" t="s">
+      <c r="AP151" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ151" s="12"/>
@@ -15614,29 +15625,29 @@
       <c r="A152" s="14" t="n">
         <v>151</v>
       </c>
-      <c r="B152" s="56" t="s">
+      <c r="B152" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C152" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D152" s="56" t="s">
+      <c r="D152" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E152" s="56" t="s">
+      <c r="E152" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F152" s="56"/>
+      <c r="F152" s="57"/>
       <c r="G152" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="H152" s="33" t="s">
+      <c r="H152" s="34" t="s">
         <v>455</v>
       </c>
-      <c r="I152" s="40" t="s">
+      <c r="I152" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J152" s="40"/>
+      <c r="J152" s="41"/>
       <c r="K152" s="17" t="n">
         <v>1</v>
       </c>
@@ -15645,11 +15656,11 @@
       <c r="N152" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="O152" s="62" t="n">
+      <c r="O152" s="63" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="P152" s="58"/>
-      <c r="Q152" s="58"/>
+      <c r="P152" s="59"/>
+      <c r="Q152" s="59"/>
       <c r="R152" s="17" t="s">
         <v>55</v>
       </c>
@@ -15674,25 +15685,25 @@
       <c r="AE152" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF152" s="61" t="n">
+      <c r="AF152" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG152" s="17"/>
       <c r="AH152" s="17"/>
       <c r="AI152" s="17"/>
-      <c r="AJ152" s="84" t="s">
+      <c r="AJ152" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK152" s="17"/>
       <c r="AL152" s="17"/>
-      <c r="AM152" s="91" t="n">
+      <c r="AM152" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN152" s="21" t="n">
         <v>151</v>
       </c>
       <c r="AO152" s="12"/>
-      <c r="AP152" s="92" t="s">
+      <c r="AP152" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ152" s="12"/>
@@ -15701,29 +15712,29 @@
       <c r="A153" s="24" t="n">
         <v>152</v>
       </c>
-      <c r="B153" s="56" t="s">
+      <c r="B153" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D153" s="56" t="s">
+      <c r="D153" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E153" s="56" t="s">
+      <c r="E153" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F153" s="56"/>
+      <c r="F153" s="57"/>
       <c r="G153" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="H153" s="33" t="s">
+      <c r="H153" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="I153" s="40" t="s">
+      <c r="I153" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="J153" s="40"/>
+      <c r="J153" s="41"/>
       <c r="K153" s="17" t="n">
         <v>1</v>
       </c>
@@ -15732,11 +15743,11 @@
       <c r="N153" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="O153" s="93" t="s">
+      <c r="O153" s="94" t="s">
         <v>459</v>
       </c>
-      <c r="P153" s="58"/>
-      <c r="Q153" s="58"/>
+      <c r="P153" s="59"/>
+      <c r="Q153" s="59"/>
       <c r="R153" s="17" t="s">
         <v>55</v>
       </c>
@@ -15761,25 +15772,25 @@
       <c r="AE153" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AF153" s="61" t="n">
+      <c r="AF153" s="62" t="n">
         <v>0</v>
       </c>
       <c r="AG153" s="17"/>
       <c r="AH153" s="17"/>
       <c r="AI153" s="17"/>
-      <c r="AJ153" s="84" t="s">
+      <c r="AJ153" s="85" t="s">
         <v>408</v>
       </c>
       <c r="AK153" s="17"/>
       <c r="AL153" s="17"/>
-      <c r="AM153" s="91" t="n">
+      <c r="AM153" s="92" t="n">
         <v>4</v>
       </c>
       <c r="AN153" s="30" t="n">
         <v>152</v>
       </c>
       <c r="AO153" s="12"/>
-      <c r="AP153" s="92" t="s">
+      <c r="AP153" s="93" t="s">
         <v>432</v>
       </c>
       <c r="AQ153" s="12"/>
@@ -15788,38 +15799,38 @@
       <c r="A154" s="14" t="n">
         <v>153</v>
       </c>
-      <c r="B154" s="56" t="s">
+      <c r="B154" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D154" s="56" t="s">
+      <c r="D154" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E154" s="56" t="s">
+      <c r="E154" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F154" s="56"/>
+      <c r="F154" s="57"/>
       <c r="G154" s="17" t="s">
         <v>460</v>
       </c>
       <c r="H154" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="I154" s="40" t="s">
+      <c r="I154" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="J154" s="40"/>
+      <c r="J154" s="41"/>
       <c r="K154" s="17"/>
       <c r="L154" s="17"/>
       <c r="M154" s="17"/>
       <c r="N154" s="17"/>
-      <c r="O154" s="62" t="s">
+      <c r="O154" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="P154" s="62"/>
-      <c r="Q154" s="62"/>
+      <c r="P154" s="63"/>
+      <c r="Q154" s="63"/>
       <c r="R154" s="12"/>
       <c r="S154" s="12" t="s">
         <v>328</v>
@@ -15842,7 +15853,7 @@
       <c r="AE154" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="AF154" s="61" t="n">
+      <c r="AF154" s="62" t="n">
         <v>0.025</v>
       </c>
       <c r="AG154" s="17"/>
@@ -15850,7 +15861,7 @@
       <c r="AI154" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="AJ154" s="84" t="s">
+      <c r="AJ154" s="85" t="s">
         <v>357</v>
       </c>
       <c r="AK154" s="17"/>
@@ -15862,7 +15873,7 @@
         <v>153</v>
       </c>
       <c r="AO154" s="12"/>
-      <c r="AP154" s="92" t="s">
+      <c r="AP154" s="93" t="s">
         <v>353</v>
       </c>
       <c r="AQ154" s="12"/>
@@ -15871,821 +15882,821 @@
       <c r="A155" s="14" t="n">
         <v>154</v>
       </c>
-      <c r="B155" s="56" t="s">
+      <c r="B155" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D155" s="94" t="s">
+      <c r="D155" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E155" s="95" t="s">
+      <c r="E155" s="96" t="s">
         <v>464</v>
       </c>
-      <c r="F155" s="95" t="s">
+      <c r="F155" s="96" t="s">
         <v>465</v>
       </c>
-      <c r="G155" s="96" t="s">
+      <c r="G155" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="H155" s="97" t="s">
+      <c r="H155" s="98" t="s">
         <v>466</v>
       </c>
-      <c r="I155" s="98" t="s">
+      <c r="I155" s="99" t="s">
         <v>467</v>
       </c>
-      <c r="J155" s="99" t="s">
+      <c r="J155" s="100" t="s">
         <v>468</v>
       </c>
-      <c r="K155" s="99"/>
-      <c r="L155" s="99"/>
-      <c r="M155" s="100"/>
-      <c r="N155" s="100"/>
-      <c r="O155" s="99"/>
-      <c r="P155" s="99"/>
-      <c r="Q155" s="99"/>
-      <c r="R155" s="99"/>
-      <c r="S155" s="99" t="s">
+      <c r="K155" s="100"/>
+      <c r="L155" s="100"/>
+      <c r="M155" s="101"/>
+      <c r="N155" s="101"/>
+      <c r="O155" s="100"/>
+      <c r="P155" s="100"/>
+      <c r="Q155" s="100"/>
+      <c r="R155" s="100"/>
+      <c r="S155" s="100" t="s">
         <v>469</v>
       </c>
-      <c r="T155" s="99"/>
-      <c r="U155" s="99"/>
-      <c r="V155" s="99"/>
-      <c r="W155" s="99"/>
-      <c r="X155" s="99"/>
-      <c r="Y155" s="99"/>
-      <c r="Z155" s="99"/>
-      <c r="AA155" s="99"/>
-      <c r="AB155" s="99"/>
-      <c r="AC155" s="99"/>
-      <c r="AD155" s="99"/>
-      <c r="AE155" s="99"/>
-      <c r="AF155" s="101" t="n">
+      <c r="T155" s="100"/>
+      <c r="U155" s="100"/>
+      <c r="V155" s="100"/>
+      <c r="W155" s="100"/>
+      <c r="X155" s="100"/>
+      <c r="Y155" s="100"/>
+      <c r="Z155" s="100"/>
+      <c r="AA155" s="100"/>
+      <c r="AB155" s="100"/>
+      <c r="AC155" s="100"/>
+      <c r="AD155" s="100"/>
+      <c r="AE155" s="100"/>
+      <c r="AF155" s="102" t="n">
         <v>0</v>
       </c>
-      <c r="AG155" s="99"/>
-      <c r="AH155" s="99"/>
-      <c r="AI155" s="99"/>
-      <c r="AJ155" s="99"/>
-      <c r="AK155" s="99"/>
-      <c r="AL155" s="99"/>
-      <c r="AM155" s="102"/>
+      <c r="AG155" s="100"/>
+      <c r="AH155" s="100"/>
+      <c r="AI155" s="100"/>
+      <c r="AJ155" s="100"/>
+      <c r="AK155" s="100"/>
+      <c r="AL155" s="100"/>
+      <c r="AM155" s="103"/>
       <c r="AN155" s="21" t="n">
         <v>154</v>
       </c>
-      <c r="AO155" s="99" t="n">
+      <c r="AO155" s="100" t="n">
         <v>101</v>
       </c>
-      <c r="AP155" s="99"/>
-      <c r="AQ155" s="99"/>
+      <c r="AP155" s="100"/>
+      <c r="AQ155" s="100"/>
     </row>
     <row r="156" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="14" t="n">
         <v>155</v>
       </c>
-      <c r="B156" s="56" t="s">
+      <c r="B156" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C156" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D156" s="94" t="s">
+      <c r="D156" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E156" s="95" t="s">
+      <c r="E156" s="96" t="s">
         <v>470</v>
       </c>
-      <c r="F156" s="95" t="s">
+      <c r="F156" s="96" t="s">
         <v>471</v>
       </c>
-      <c r="G156" s="95" t="s">
+      <c r="G156" s="96" t="s">
         <v>353</v>
       </c>
-      <c r="H156" s="97"/>
-      <c r="I156" s="98" t="s">
+      <c r="H156" s="98"/>
+      <c r="I156" s="99" t="s">
         <v>472</v>
       </c>
-      <c r="J156" s="99" t="s">
+      <c r="J156" s="100" t="s">
         <v>473</v>
       </c>
-      <c r="K156" s="99"/>
-      <c r="L156" s="99"/>
-      <c r="M156" s="100"/>
-      <c r="N156" s="100"/>
-      <c r="O156" s="99"/>
-      <c r="P156" s="99"/>
-      <c r="Q156" s="99"/>
-      <c r="R156" s="99"/>
-      <c r="S156" s="99" t="s">
+      <c r="K156" s="100"/>
+      <c r="L156" s="100"/>
+      <c r="M156" s="101"/>
+      <c r="N156" s="101"/>
+      <c r="O156" s="100"/>
+      <c r="P156" s="100"/>
+      <c r="Q156" s="100"/>
+      <c r="R156" s="100"/>
+      <c r="S156" s="100" t="s">
         <v>469</v>
       </c>
-      <c r="T156" s="99"/>
-      <c r="U156" s="99"/>
-      <c r="V156" s="99"/>
-      <c r="W156" s="99"/>
-      <c r="X156" s="99"/>
-      <c r="Y156" s="99"/>
-      <c r="Z156" s="99"/>
-      <c r="AA156" s="99"/>
-      <c r="AB156" s="99"/>
-      <c r="AC156" s="99"/>
-      <c r="AD156" s="99"/>
-      <c r="AE156" s="99"/>
-      <c r="AF156" s="103" t="n">
+      <c r="T156" s="100"/>
+      <c r="U156" s="100"/>
+      <c r="V156" s="100"/>
+      <c r="W156" s="100"/>
+      <c r="X156" s="100"/>
+      <c r="Y156" s="100"/>
+      <c r="Z156" s="100"/>
+      <c r="AA156" s="100"/>
+      <c r="AB156" s="100"/>
+      <c r="AC156" s="100"/>
+      <c r="AD156" s="100"/>
+      <c r="AE156" s="100"/>
+      <c r="AF156" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="AG156" s="99"/>
-      <c r="AH156" s="99"/>
-      <c r="AI156" s="99"/>
-      <c r="AJ156" s="99"/>
-      <c r="AK156" s="99"/>
-      <c r="AL156" s="99"/>
-      <c r="AM156" s="102"/>
+      <c r="AG156" s="100"/>
+      <c r="AH156" s="100"/>
+      <c r="AI156" s="100"/>
+      <c r="AJ156" s="100"/>
+      <c r="AK156" s="100"/>
+      <c r="AL156" s="100"/>
+      <c r="AM156" s="103"/>
       <c r="AN156" s="21" t="n">
         <v>155</v>
       </c>
-      <c r="AO156" s="100" t="s">
+      <c r="AO156" s="101" t="s">
         <v>474</v>
       </c>
-      <c r="AP156" s="99"/>
-      <c r="AQ156" s="99"/>
+      <c r="AP156" s="100"/>
+      <c r="AQ156" s="100"/>
     </row>
     <row r="157" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="14" t="n">
         <v>156</v>
       </c>
-      <c r="B157" s="56" t="s">
+      <c r="B157" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C157" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D157" s="94" t="s">
+      <c r="D157" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E157" s="95" t="s">
+      <c r="E157" s="96" t="s">
         <v>475</v>
       </c>
-      <c r="F157" s="95" t="s">
+      <c r="F157" s="96" t="s">
         <v>476</v>
       </c>
-      <c r="G157" s="95" t="s">
+      <c r="G157" s="96" t="s">
         <v>323</v>
       </c>
-      <c r="H157" s="97" t="s">
+      <c r="H157" s="98" t="s">
         <v>477</v>
       </c>
-      <c r="I157" s="98" t="s">
+      <c r="I157" s="99" t="s">
         <v>467</v>
       </c>
-      <c r="J157" s="99" t="s">
+      <c r="J157" s="100" t="s">
         <v>473</v>
       </c>
-      <c r="K157" s="99"/>
-      <c r="L157" s="99"/>
-      <c r="M157" s="100"/>
-      <c r="N157" s="100"/>
-      <c r="O157" s="99"/>
-      <c r="P157" s="99"/>
-      <c r="Q157" s="99"/>
-      <c r="R157" s="99"/>
-      <c r="S157" s="99" t="s">
+      <c r="K157" s="100"/>
+      <c r="L157" s="100"/>
+      <c r="M157" s="101"/>
+      <c r="N157" s="101"/>
+      <c r="O157" s="100"/>
+      <c r="P157" s="100"/>
+      <c r="Q157" s="100"/>
+      <c r="R157" s="100"/>
+      <c r="S157" s="100" t="s">
         <v>469</v>
       </c>
-      <c r="T157" s="99"/>
-      <c r="U157" s="99"/>
-      <c r="V157" s="99"/>
-      <c r="W157" s="99"/>
-      <c r="X157" s="99"/>
-      <c r="Y157" s="99"/>
-      <c r="Z157" s="99"/>
-      <c r="AA157" s="99"/>
-      <c r="AB157" s="99"/>
-      <c r="AC157" s="99"/>
-      <c r="AD157" s="99"/>
-      <c r="AE157" s="99"/>
-      <c r="AF157" s="103" t="n">
+      <c r="T157" s="100"/>
+      <c r="U157" s="100"/>
+      <c r="V157" s="100"/>
+      <c r="W157" s="100"/>
+      <c r="X157" s="100"/>
+      <c r="Y157" s="100"/>
+      <c r="Z157" s="100"/>
+      <c r="AA157" s="100"/>
+      <c r="AB157" s="100"/>
+      <c r="AC157" s="100"/>
+      <c r="AD157" s="100"/>
+      <c r="AE157" s="100"/>
+      <c r="AF157" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="AG157" s="99"/>
-      <c r="AH157" s="99"/>
-      <c r="AI157" s="99"/>
-      <c r="AJ157" s="99"/>
-      <c r="AK157" s="99"/>
-      <c r="AL157" s="99"/>
-      <c r="AM157" s="102"/>
+      <c r="AG157" s="100"/>
+      <c r="AH157" s="100"/>
+      <c r="AI157" s="100"/>
+      <c r="AJ157" s="100"/>
+      <c r="AK157" s="100"/>
+      <c r="AL157" s="100"/>
+      <c r="AM157" s="103"/>
       <c r="AN157" s="21" t="n">
         <v>156</v>
       </c>
-      <c r="AO157" s="99" t="n">
+      <c r="AO157" s="100" t="n">
         <v>105</v>
       </c>
-      <c r="AP157" s="99"/>
-      <c r="AQ157" s="99"/>
+      <c r="AP157" s="100"/>
+      <c r="AQ157" s="100"/>
     </row>
     <row r="158" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="14" t="n">
         <v>157</v>
       </c>
-      <c r="B158" s="56" t="s">
+      <c r="B158" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C158" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D158" s="94" t="s">
+      <c r="D158" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E158" s="95" t="s">
+      <c r="E158" s="96" t="s">
         <v>478</v>
       </c>
-      <c r="F158" s="95" t="s">
+      <c r="F158" s="96" t="s">
         <v>479</v>
       </c>
-      <c r="G158" s="95" t="s">
+      <c r="G158" s="96" t="s">
         <v>480</v>
       </c>
-      <c r="H158" s="104"/>
-      <c r="I158" s="105" t="s">
+      <c r="H158" s="105"/>
+      <c r="I158" s="106" t="s">
         <v>481</v>
       </c>
-      <c r="J158" s="100" t="s">
+      <c r="J158" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="K158" s="99"/>
-      <c r="L158" s="99"/>
-      <c r="M158" s="100"/>
-      <c r="N158" s="100"/>
-      <c r="O158" s="99" t="s">
+      <c r="K158" s="100"/>
+      <c r="L158" s="100"/>
+      <c r="M158" s="101"/>
+      <c r="N158" s="101"/>
+      <c r="O158" s="100" t="s">
         <v>482</v>
       </c>
-      <c r="P158" s="99"/>
-      <c r="Q158" s="99"/>
-      <c r="R158" s="99"/>
-      <c r="S158" s="99" t="s">
+      <c r="P158" s="100"/>
+      <c r="Q158" s="100"/>
+      <c r="R158" s="100"/>
+      <c r="S158" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="T158" s="99"/>
-      <c r="U158" s="99"/>
-      <c r="V158" s="99"/>
-      <c r="W158" s="99"/>
-      <c r="X158" s="99"/>
-      <c r="Y158" s="100" t="s">
+      <c r="T158" s="100"/>
+      <c r="U158" s="100"/>
+      <c r="V158" s="100"/>
+      <c r="W158" s="100"/>
+      <c r="X158" s="100"/>
+      <c r="Y158" s="101" t="s">
         <v>484</v>
       </c>
-      <c r="Z158" s="99"/>
-      <c r="AA158" s="99"/>
-      <c r="AB158" s="99"/>
-      <c r="AC158" s="99"/>
-      <c r="AD158" s="99"/>
-      <c r="AE158" s="99"/>
-      <c r="AF158" s="99" t="n">
+      <c r="Z158" s="100"/>
+      <c r="AA158" s="100"/>
+      <c r="AB158" s="100"/>
+      <c r="AC158" s="100"/>
+      <c r="AD158" s="100"/>
+      <c r="AE158" s="100"/>
+      <c r="AF158" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="AG158" s="99"/>
-      <c r="AH158" s="99"/>
-      <c r="AI158" s="99"/>
-      <c r="AJ158" s="99"/>
-      <c r="AK158" s="99"/>
-      <c r="AL158" s="99"/>
-      <c r="AM158" s="102"/>
+      <c r="AG158" s="100"/>
+      <c r="AH158" s="100"/>
+      <c r="AI158" s="100"/>
+      <c r="AJ158" s="100"/>
+      <c r="AK158" s="100"/>
+      <c r="AL158" s="100"/>
+      <c r="AM158" s="103"/>
       <c r="AN158" s="21" t="n">
         <v>157</v>
       </c>
-      <c r="AO158" s="99"/>
-      <c r="AP158" s="99"/>
-      <c r="AQ158" s="99"/>
+      <c r="AO158" s="100"/>
+      <c r="AP158" s="100"/>
+      <c r="AQ158" s="100"/>
     </row>
     <row r="159" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="14" t="n">
         <v>158</v>
       </c>
-      <c r="B159" s="56" t="s">
+      <c r="B159" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C159" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D159" s="94" t="s">
+      <c r="D159" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E159" s="95" t="s">
+      <c r="E159" s="96" t="s">
         <v>485</v>
       </c>
-      <c r="F159" s="95" t="s">
+      <c r="F159" s="96" t="s">
         <v>486</v>
       </c>
-      <c r="G159" s="95" t="s">
+      <c r="G159" s="96" t="s">
         <v>487</v>
       </c>
-      <c r="H159" s="104"/>
-      <c r="I159" s="105" t="s">
+      <c r="H159" s="105"/>
+      <c r="I159" s="106" t="s">
         <v>488</v>
       </c>
-      <c r="J159" s="100" t="s">
+      <c r="J159" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="K159" s="99"/>
-      <c r="L159" s="99"/>
-      <c r="M159" s="100"/>
-      <c r="N159" s="100"/>
-      <c r="O159" s="99" t="s">
+      <c r="K159" s="100"/>
+      <c r="L159" s="100"/>
+      <c r="M159" s="101"/>
+      <c r="N159" s="101"/>
+      <c r="O159" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="P159" s="99"/>
-      <c r="Q159" s="99"/>
-      <c r="R159" s="99"/>
-      <c r="S159" s="99" t="s">
+      <c r="P159" s="100"/>
+      <c r="Q159" s="100"/>
+      <c r="R159" s="100"/>
+      <c r="S159" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="T159" s="99"/>
-      <c r="U159" s="99"/>
-      <c r="V159" s="99"/>
-      <c r="W159" s="99"/>
-      <c r="X159" s="99"/>
-      <c r="Y159" s="100" t="s">
+      <c r="T159" s="100"/>
+      <c r="U159" s="100"/>
+      <c r="V159" s="100"/>
+      <c r="W159" s="100"/>
+      <c r="X159" s="100"/>
+      <c r="Y159" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="Z159" s="99"/>
-      <c r="AA159" s="99"/>
-      <c r="AB159" s="99"/>
-      <c r="AC159" s="99"/>
-      <c r="AD159" s="99"/>
-      <c r="AE159" s="99"/>
-      <c r="AF159" s="99" t="n">
+      <c r="Z159" s="100"/>
+      <c r="AA159" s="100"/>
+      <c r="AB159" s="100"/>
+      <c r="AC159" s="100"/>
+      <c r="AD159" s="100"/>
+      <c r="AE159" s="100"/>
+      <c r="AF159" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="AG159" s="99"/>
-      <c r="AH159" s="99"/>
-      <c r="AI159" s="99"/>
-      <c r="AJ159" s="99"/>
-      <c r="AK159" s="99"/>
-      <c r="AL159" s="99"/>
-      <c r="AM159" s="102"/>
+      <c r="AG159" s="100"/>
+      <c r="AH159" s="100"/>
+      <c r="AI159" s="100"/>
+      <c r="AJ159" s="100"/>
+      <c r="AK159" s="100"/>
+      <c r="AL159" s="100"/>
+      <c r="AM159" s="103"/>
       <c r="AN159" s="21" t="n">
         <v>158</v>
       </c>
-      <c r="AO159" s="99"/>
-      <c r="AP159" s="99"/>
-      <c r="AQ159" s="99"/>
+      <c r="AO159" s="100"/>
+      <c r="AP159" s="100"/>
+      <c r="AQ159" s="100"/>
     </row>
     <row r="160" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="14" t="n">
         <v>159</v>
       </c>
-      <c r="B160" s="56" t="s">
+      <c r="B160" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C160" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D160" s="94" t="s">
+      <c r="D160" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E160" s="95" t="s">
+      <c r="E160" s="96" t="s">
         <v>491</v>
       </c>
-      <c r="F160" s="95" t="s">
+      <c r="F160" s="96" t="s">
         <v>492</v>
       </c>
-      <c r="G160" s="95" t="s">
+      <c r="G160" s="96" t="s">
         <v>493</v>
       </c>
-      <c r="H160" s="104"/>
-      <c r="I160" s="105" t="s">
+      <c r="H160" s="105"/>
+      <c r="I160" s="106" t="s">
         <v>488</v>
       </c>
-      <c r="J160" s="100" t="s">
+      <c r="J160" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="K160" s="99"/>
-      <c r="L160" s="99"/>
-      <c r="M160" s="100"/>
-      <c r="N160" s="100"/>
-      <c r="O160" s="99" t="s">
+      <c r="K160" s="100"/>
+      <c r="L160" s="100"/>
+      <c r="M160" s="101"/>
+      <c r="N160" s="101"/>
+      <c r="O160" s="100" t="s">
         <v>494</v>
       </c>
-      <c r="P160" s="99"/>
-      <c r="Q160" s="99"/>
-      <c r="R160" s="99"/>
-      <c r="S160" s="99" t="s">
+      <c r="P160" s="100"/>
+      <c r="Q160" s="100"/>
+      <c r="R160" s="100"/>
+      <c r="S160" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="T160" s="99"/>
-      <c r="U160" s="99"/>
-      <c r="V160" s="99"/>
-      <c r="W160" s="99"/>
-      <c r="X160" s="99"/>
-      <c r="Y160" s="100" t="s">
+      <c r="T160" s="100"/>
+      <c r="U160" s="100"/>
+      <c r="V160" s="100"/>
+      <c r="W160" s="100"/>
+      <c r="X160" s="100"/>
+      <c r="Y160" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="Z160" s="99"/>
-      <c r="AA160" s="99"/>
-      <c r="AB160" s="99"/>
-      <c r="AC160" s="99"/>
-      <c r="AD160" s="99"/>
-      <c r="AE160" s="99"/>
-      <c r="AF160" s="99" t="n">
+      <c r="Z160" s="100"/>
+      <c r="AA160" s="100"/>
+      <c r="AB160" s="100"/>
+      <c r="AC160" s="100"/>
+      <c r="AD160" s="100"/>
+      <c r="AE160" s="100"/>
+      <c r="AF160" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="AG160" s="99"/>
-      <c r="AH160" s="99"/>
-      <c r="AI160" s="99"/>
-      <c r="AJ160" s="99"/>
-      <c r="AK160" s="99"/>
-      <c r="AL160" s="99"/>
-      <c r="AM160" s="102"/>
+      <c r="AG160" s="100"/>
+      <c r="AH160" s="100"/>
+      <c r="AI160" s="100"/>
+      <c r="AJ160" s="100"/>
+      <c r="AK160" s="100"/>
+      <c r="AL160" s="100"/>
+      <c r="AM160" s="103"/>
       <c r="AN160" s="21" t="n">
         <v>159</v>
       </c>
-      <c r="AO160" s="99"/>
-      <c r="AP160" s="99"/>
-      <c r="AQ160" s="99"/>
+      <c r="AO160" s="100"/>
+      <c r="AP160" s="100"/>
+      <c r="AQ160" s="100"/>
     </row>
     <row r="161" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="14" t="n">
         <v>160</v>
       </c>
-      <c r="B161" s="56" t="s">
+      <c r="B161" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D161" s="94" t="s">
+      <c r="D161" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E161" s="95" t="s">
+      <c r="E161" s="96" t="s">
         <v>495</v>
       </c>
-      <c r="F161" s="95" t="s">
+      <c r="F161" s="96" t="s">
         <v>496</v>
       </c>
-      <c r="G161" s="95" t="s">
+      <c r="G161" s="96" t="s">
         <v>497</v>
       </c>
-      <c r="H161" s="104"/>
-      <c r="I161" s="105" t="s">
+      <c r="H161" s="105"/>
+      <c r="I161" s="106" t="s">
         <v>488</v>
       </c>
-      <c r="J161" s="100" t="s">
+      <c r="J161" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="K161" s="99"/>
-      <c r="L161" s="99"/>
-      <c r="M161" s="100"/>
-      <c r="N161" s="100"/>
-      <c r="O161" s="99" t="s">
+      <c r="K161" s="100"/>
+      <c r="L161" s="100"/>
+      <c r="M161" s="101"/>
+      <c r="N161" s="101"/>
+      <c r="O161" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="P161" s="99"/>
-      <c r="Q161" s="99"/>
-      <c r="R161" s="99"/>
-      <c r="S161" s="99" t="s">
+      <c r="P161" s="100"/>
+      <c r="Q161" s="100"/>
+      <c r="R161" s="100"/>
+      <c r="S161" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="T161" s="99"/>
-      <c r="U161" s="99"/>
-      <c r="V161" s="99"/>
-      <c r="W161" s="99"/>
-      <c r="X161" s="99"/>
-      <c r="Y161" s="100" t="s">
+      <c r="T161" s="100"/>
+      <c r="U161" s="100"/>
+      <c r="V161" s="100"/>
+      <c r="W161" s="100"/>
+      <c r="X161" s="100"/>
+      <c r="Y161" s="101" t="s">
         <v>490</v>
       </c>
-      <c r="Z161" s="99"/>
-      <c r="AA161" s="99"/>
-      <c r="AB161" s="99"/>
-      <c r="AC161" s="99"/>
-      <c r="AD161" s="99"/>
-      <c r="AE161" s="99"/>
-      <c r="AF161" s="99" t="n">
+      <c r="Z161" s="100"/>
+      <c r="AA161" s="100"/>
+      <c r="AB161" s="100"/>
+      <c r="AC161" s="100"/>
+      <c r="AD161" s="100"/>
+      <c r="AE161" s="100"/>
+      <c r="AF161" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="AG161" s="99"/>
-      <c r="AH161" s="99"/>
-      <c r="AI161" s="99"/>
-      <c r="AJ161" s="99"/>
-      <c r="AK161" s="99"/>
-      <c r="AL161" s="106"/>
-      <c r="AM161" s="102"/>
+      <c r="AG161" s="100"/>
+      <c r="AH161" s="100"/>
+      <c r="AI161" s="100"/>
+      <c r="AJ161" s="100"/>
+      <c r="AK161" s="100"/>
+      <c r="AL161" s="107"/>
+      <c r="AM161" s="103"/>
       <c r="AN161" s="21" t="n">
         <v>160</v>
       </c>
-      <c r="AO161" s="99"/>
-      <c r="AP161" s="99"/>
-      <c r="AQ161" s="99"/>
+      <c r="AO161" s="100"/>
+      <c r="AP161" s="100"/>
+      <c r="AQ161" s="100"/>
     </row>
     <row r="162" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="14" t="n">
         <v>161</v>
       </c>
-      <c r="B162" s="56" t="s">
+      <c r="B162" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C162" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D162" s="94" t="s">
+      <c r="D162" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E162" s="95" t="s">
+      <c r="E162" s="96" t="s">
         <v>499</v>
       </c>
-      <c r="F162" s="95" t="s">
+      <c r="F162" s="96" t="s">
         <v>500</v>
       </c>
-      <c r="G162" s="95" t="s">
+      <c r="G162" s="96" t="s">
         <v>501</v>
       </c>
-      <c r="H162" s="104" t="s">
+      <c r="H162" s="105" t="s">
         <v>246</v>
       </c>
-      <c r="I162" s="105" t="s">
+      <c r="I162" s="106" t="s">
         <v>502</v>
       </c>
-      <c r="J162" s="100" t="s">
+      <c r="J162" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="K162" s="99"/>
-      <c r="L162" s="99"/>
-      <c r="M162" s="100"/>
-      <c r="N162" s="100"/>
-      <c r="O162" s="100" t="s">
+      <c r="K162" s="100"/>
+      <c r="L162" s="100"/>
+      <c r="M162" s="101"/>
+      <c r="N162" s="101"/>
+      <c r="O162" s="101" t="s">
         <v>503</v>
       </c>
-      <c r="P162" s="99"/>
-      <c r="Q162" s="99"/>
-      <c r="R162" s="99"/>
-      <c r="S162" s="99" t="s">
+      <c r="P162" s="100"/>
+      <c r="Q162" s="100"/>
+      <c r="R162" s="100"/>
+      <c r="S162" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="T162" s="99"/>
-      <c r="U162" s="99"/>
-      <c r="V162" s="99"/>
-      <c r="W162" s="99"/>
-      <c r="X162" s="99"/>
-      <c r="Y162" s="100" t="s">
+      <c r="T162" s="100"/>
+      <c r="U162" s="100"/>
+      <c r="V162" s="100"/>
+      <c r="W162" s="100"/>
+      <c r="X162" s="100"/>
+      <c r="Y162" s="101" t="s">
         <v>504</v>
       </c>
-      <c r="Z162" s="99"/>
-      <c r="AA162" s="99"/>
-      <c r="AB162" s="99"/>
-      <c r="AC162" s="99"/>
-      <c r="AD162" s="99"/>
-      <c r="AE162" s="99"/>
-      <c r="AF162" s="99" t="n">
+      <c r="Z162" s="100"/>
+      <c r="AA162" s="100"/>
+      <c r="AB162" s="100"/>
+      <c r="AC162" s="100"/>
+      <c r="AD162" s="100"/>
+      <c r="AE162" s="100"/>
+      <c r="AF162" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="AG162" s="99"/>
-      <c r="AH162" s="99"/>
-      <c r="AI162" s="99"/>
-      <c r="AJ162" s="99"/>
-      <c r="AK162" s="99"/>
-      <c r="AL162" s="99"/>
-      <c r="AM162" s="102"/>
+      <c r="AG162" s="100"/>
+      <c r="AH162" s="100"/>
+      <c r="AI162" s="100"/>
+      <c r="AJ162" s="100"/>
+      <c r="AK162" s="100"/>
+      <c r="AL162" s="100"/>
+      <c r="AM162" s="103"/>
       <c r="AN162" s="21" t="n">
         <v>161</v>
       </c>
-      <c r="AO162" s="99" t="n">
+      <c r="AO162" s="100" t="n">
         <v>83</v>
       </c>
-      <c r="AP162" s="99"/>
-      <c r="AQ162" s="99"/>
+      <c r="AP162" s="100"/>
+      <c r="AQ162" s="100"/>
     </row>
     <row r="163" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="14" t="n">
         <v>162</v>
       </c>
-      <c r="B163" s="56" t="s">
+      <c r="B163" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C163" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D163" s="94" t="s">
+      <c r="D163" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E163" s="95" t="s">
+      <c r="E163" s="96" t="s">
         <v>499</v>
       </c>
-      <c r="F163" s="95" t="s">
+      <c r="F163" s="96" t="s">
         <v>500</v>
       </c>
-      <c r="G163" s="95" t="s">
+      <c r="G163" s="96" t="s">
         <v>501</v>
       </c>
-      <c r="H163" s="104" t="s">
+      <c r="H163" s="105" t="s">
         <v>274</v>
       </c>
-      <c r="I163" s="105" t="s">
+      <c r="I163" s="106" t="s">
         <v>502</v>
       </c>
-      <c r="J163" s="100" t="s">
+      <c r="J163" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="K163" s="99"/>
-      <c r="L163" s="99"/>
-      <c r="M163" s="100"/>
-      <c r="N163" s="100"/>
-      <c r="O163" s="100" t="s">
+      <c r="K163" s="100"/>
+      <c r="L163" s="100"/>
+      <c r="M163" s="101"/>
+      <c r="N163" s="101"/>
+      <c r="O163" s="101" t="s">
         <v>503</v>
       </c>
-      <c r="P163" s="99"/>
-      <c r="Q163" s="99"/>
-      <c r="R163" s="99"/>
-      <c r="S163" s="99" t="s">
+      <c r="P163" s="100"/>
+      <c r="Q163" s="100"/>
+      <c r="R163" s="100"/>
+      <c r="S163" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="T163" s="99"/>
-      <c r="U163" s="99"/>
-      <c r="V163" s="99"/>
-      <c r="W163" s="99"/>
-      <c r="X163" s="99"/>
-      <c r="Y163" s="100" t="s">
+      <c r="T163" s="100"/>
+      <c r="U163" s="100"/>
+      <c r="V163" s="100"/>
+      <c r="W163" s="100"/>
+      <c r="X163" s="100"/>
+      <c r="Y163" s="101" t="s">
         <v>505</v>
       </c>
-      <c r="Z163" s="99"/>
-      <c r="AA163" s="99"/>
-      <c r="AB163" s="99"/>
-      <c r="AC163" s="99"/>
-      <c r="AD163" s="99"/>
-      <c r="AE163" s="99"/>
-      <c r="AF163" s="99" t="n">
+      <c r="Z163" s="100"/>
+      <c r="AA163" s="100"/>
+      <c r="AB163" s="100"/>
+      <c r="AC163" s="100"/>
+      <c r="AD163" s="100"/>
+      <c r="AE163" s="100"/>
+      <c r="AF163" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="AG163" s="99"/>
-      <c r="AH163" s="99"/>
-      <c r="AI163" s="99"/>
-      <c r="AJ163" s="99"/>
-      <c r="AK163" s="99"/>
-      <c r="AL163" s="99"/>
-      <c r="AM163" s="102"/>
+      <c r="AG163" s="100"/>
+      <c r="AH163" s="100"/>
+      <c r="AI163" s="100"/>
+      <c r="AJ163" s="100"/>
+      <c r="AK163" s="100"/>
+      <c r="AL163" s="100"/>
+      <c r="AM163" s="103"/>
       <c r="AN163" s="21" t="n">
         <v>162</v>
       </c>
-      <c r="AO163" s="99" t="n">
+      <c r="AO163" s="100" t="n">
         <v>91</v>
       </c>
-      <c r="AP163" s="99"/>
-      <c r="AQ163" s="99"/>
+      <c r="AP163" s="100"/>
+      <c r="AQ163" s="100"/>
     </row>
     <row r="164" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="14" t="n">
         <v>163</v>
       </c>
-      <c r="B164" s="56" t="s">
+      <c r="B164" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C164" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D164" s="94" t="s">
+      <c r="D164" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E164" s="95" t="s">
+      <c r="E164" s="96" t="s">
         <v>499</v>
       </c>
-      <c r="F164" s="95" t="s">
+      <c r="F164" s="96" t="s">
         <v>500</v>
       </c>
-      <c r="G164" s="95" t="s">
+      <c r="G164" s="96" t="s">
         <v>501</v>
       </c>
-      <c r="H164" s="104" t="s">
+      <c r="H164" s="105" t="s">
         <v>265</v>
       </c>
-      <c r="I164" s="105" t="s">
+      <c r="I164" s="106" t="s">
         <v>502</v>
       </c>
-      <c r="J164" s="100" t="s">
+      <c r="J164" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="K164" s="99"/>
-      <c r="L164" s="99"/>
-      <c r="M164" s="100"/>
-      <c r="N164" s="100"/>
-      <c r="O164" s="100" t="s">
+      <c r="K164" s="100"/>
+      <c r="L164" s="100"/>
+      <c r="M164" s="101"/>
+      <c r="N164" s="101"/>
+      <c r="O164" s="101" t="s">
         <v>503</v>
       </c>
-      <c r="P164" s="99"/>
-      <c r="Q164" s="99"/>
-      <c r="R164" s="99"/>
-      <c r="S164" s="99" t="s">
+      <c r="P164" s="100"/>
+      <c r="Q164" s="100"/>
+      <c r="R164" s="100"/>
+      <c r="S164" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="T164" s="99"/>
-      <c r="U164" s="99"/>
-      <c r="V164" s="99"/>
-      <c r="W164" s="99"/>
-      <c r="X164" s="99"/>
-      <c r="Y164" s="100" t="s">
+      <c r="T164" s="100"/>
+      <c r="U164" s="100"/>
+      <c r="V164" s="100"/>
+      <c r="W164" s="100"/>
+      <c r="X164" s="100"/>
+      <c r="Y164" s="101" t="s">
         <v>506</v>
       </c>
-      <c r="Z164" s="99"/>
-      <c r="AA164" s="99"/>
-      <c r="AB164" s="99"/>
-      <c r="AC164" s="99"/>
-      <c r="AD164" s="99"/>
-      <c r="AE164" s="99"/>
-      <c r="AF164" s="99" t="n">
+      <c r="Z164" s="100"/>
+      <c r="AA164" s="100"/>
+      <c r="AB164" s="100"/>
+      <c r="AC164" s="100"/>
+      <c r="AD164" s="100"/>
+      <c r="AE164" s="100"/>
+      <c r="AF164" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="AG164" s="99"/>
-      <c r="AH164" s="99"/>
-      <c r="AI164" s="99"/>
-      <c r="AJ164" s="99"/>
-      <c r="AK164" s="99"/>
-      <c r="AL164" s="99"/>
-      <c r="AM164" s="102"/>
+      <c r="AG164" s="100"/>
+      <c r="AH164" s="100"/>
+      <c r="AI164" s="100"/>
+      <c r="AJ164" s="100"/>
+      <c r="AK164" s="100"/>
+      <c r="AL164" s="100"/>
+      <c r="AM164" s="103"/>
       <c r="AN164" s="21" t="n">
         <v>163</v>
       </c>
-      <c r="AO164" s="99" t="n">
+      <c r="AO164" s="100" t="n">
         <v>88</v>
       </c>
-      <c r="AP164" s="99"/>
-      <c r="AQ164" s="99"/>
+      <c r="AP164" s="100"/>
+      <c r="AQ164" s="100"/>
     </row>
     <row r="165" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="14" t="n">
         <v>164</v>
       </c>
-      <c r="B165" s="56" t="s">
+      <c r="B165" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C165" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D165" s="94" t="s">
+      <c r="D165" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="E165" s="95" t="s">
+      <c r="E165" s="96" t="s">
         <v>499</v>
       </c>
-      <c r="F165" s="95" t="s">
+      <c r="F165" s="96" t="s">
         <v>500</v>
       </c>
-      <c r="G165" s="95" t="s">
+      <c r="G165" s="96" t="s">
         <v>501</v>
       </c>
-      <c r="H165" s="104" t="s">
+      <c r="H165" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="I165" s="105" t="s">
+      <c r="I165" s="106" t="s">
         <v>502</v>
       </c>
-      <c r="J165" s="100" t="s">
+      <c r="J165" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="K165" s="99"/>
-      <c r="L165" s="99"/>
-      <c r="M165" s="100"/>
-      <c r="N165" s="100"/>
-      <c r="O165" s="100" t="s">
+      <c r="K165" s="100"/>
+      <c r="L165" s="100"/>
+      <c r="M165" s="101"/>
+      <c r="N165" s="101"/>
+      <c r="O165" s="101" t="s">
         <v>503</v>
       </c>
-      <c r="P165" s="99"/>
-      <c r="Q165" s="99"/>
-      <c r="R165" s="99"/>
-      <c r="S165" s="99" t="s">
+      <c r="P165" s="100"/>
+      <c r="Q165" s="100"/>
+      <c r="R165" s="100"/>
+      <c r="S165" s="100" t="s">
         <v>483</v>
       </c>
-      <c r="T165" s="99"/>
-      <c r="U165" s="99"/>
-      <c r="V165" s="99"/>
-      <c r="W165" s="99"/>
-      <c r="X165" s="99"/>
-      <c r="Y165" s="100" t="s">
+      <c r="T165" s="100"/>
+      <c r="U165" s="100"/>
+      <c r="V165" s="100"/>
+      <c r="W165" s="100"/>
+      <c r="X165" s="100"/>
+      <c r="Y165" s="101" t="s">
         <v>507</v>
       </c>
-      <c r="Z165" s="99"/>
-      <c r="AA165" s="99"/>
-      <c r="AB165" s="99"/>
-      <c r="AC165" s="99"/>
-      <c r="AD165" s="99"/>
-      <c r="AE165" s="99"/>
-      <c r="AF165" s="99" t="n">
+      <c r="Z165" s="100"/>
+      <c r="AA165" s="100"/>
+      <c r="AB165" s="100"/>
+      <c r="AC165" s="100"/>
+      <c r="AD165" s="100"/>
+      <c r="AE165" s="100"/>
+      <c r="AF165" s="100" t="n">
         <v>0</v>
       </c>
-      <c r="AG165" s="99"/>
-      <c r="AH165" s="99"/>
-      <c r="AI165" s="99"/>
-      <c r="AJ165" s="99"/>
-      <c r="AK165" s="99"/>
-      <c r="AL165" s="99"/>
-      <c r="AM165" s="102"/>
+      <c r="AG165" s="100"/>
+      <c r="AH165" s="100"/>
+      <c r="AI165" s="100"/>
+      <c r="AJ165" s="100"/>
+      <c r="AK165" s="100"/>
+      <c r="AL165" s="100"/>
+      <c r="AM165" s="103"/>
       <c r="AN165" s="21" t="n">
         <v>164</v>
       </c>
-      <c r="AO165" s="99" t="n">
+      <c r="AO165" s="100" t="n">
         <v>96</v>
       </c>
-      <c r="AP165" s="99"/>
-      <c r="AQ165" s="99"/>
+      <c r="AP165" s="100"/>
+      <c r="AQ165" s="100"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ161"/>
+  <autoFilter ref="A1:AQ165"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -16704,22 +16715,19 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="108" t="s">
         <v>352</v>
       </c>
     </row>
@@ -16741,14 +16749,11 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -16778,14 +16783,11 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
@@ -16821,7 +16823,7 @@
       <c r="A7" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="109" t="s">
         <v>515</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -16830,10 +16832,10 @@
       <c r="F7" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="H7" s="108"/>
+      <c r="H7" s="109"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="109" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
@@ -16842,13 +16844,13 @@
       <c r="F8" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="H8" s="108"/>
+      <c r="H8" s="109"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="108"/>
+      <c r="A10" s="109"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="109" t="s">
         <v>515</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -16859,7 +16861,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="109" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -16873,21 +16875,21 @@
       <c r="A15" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="E15" s="108"/>
-      <c r="H15" s="108"/>
+      <c r="E15" s="109"/>
+      <c r="H15" s="109"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="108"/>
-      <c r="H16" s="108"/>
+      <c r="E16" s="109"/>
+      <c r="H16" s="109"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="109" t="s">
         <v>515</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="109" t="s">
         <v>515</v>
       </c>
       <c r="D18" s="0" t="n">
@@ -16898,13 +16900,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="109" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="109" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -16915,16 +16917,16 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="109" t="s">
         <v>523</v>
       </c>
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="110" t="s">
         <v>524</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="109" t="s">
         <v>523</v>
       </c>
-      <c r="D20" s="109" t="s">
+      <c r="D20" s="110" t="s">
         <v>525</v>
       </c>
     </row>
@@ -16939,31 +16941,31 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="108" t="s">
+      <c r="G25" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="H25" s="110" t="s">
+      <c r="H25" s="111" t="s">
         <v>528</v>
       </c>
-      <c r="J25" s="108"/>
+      <c r="J25" s="109"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="108" t="s">
+      <c r="G26" s="109" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J26" s="108"/>
+      <c r="J26" s="109"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="C28" s="110" t="s">
+      <c r="C28" s="111" t="s">
         <v>528</v>
       </c>
-      <c r="D28" s="108" t="s">
+      <c r="D28" s="109" t="s">
         <v>515</v>
       </c>
       <c r="E28" s="0" t="n">
@@ -16974,13 +16976,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="109" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D29" s="108" t="s">
+      <c r="D29" s="109" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="0" t="n">
@@ -17013,58 +17015,55 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="113" t="s">
         <v>532</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="113" t="s">
         <v>533</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="I1" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="J1" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="112" t="s">
+      <c r="K1" s="113" t="s">
         <v>534</v>
       </c>
-      <c r="L1" s="112" t="s">
+      <c r="L1" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="112" t="s">
+      <c r="M1" s="113" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="114" t="s">
         <v>535</v>
       </c>
     </row>

--- a/Projects/CCRU/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU/Data/FT PoS 2018.xlsx
@@ -31,9 +31,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$165</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1877,12 +1878,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1943,6 +1938,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2023,19 +2024,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -2094,7 +2088,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2120,10 +2114,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -2136,175 +2127,175 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2312,15 +2303,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2328,131 +2319,131 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2468,23 +2459,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2492,79 +2483,79 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="11" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="11" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="11" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="9" fillId="11" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2576,28 +2567,27 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="SAPBEXstdItem" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2673,20 +2663,25 @@
   </sheetPr>
   <dimension ref="A1:AQ165"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F55" activeCellId="0" sqref="F55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O167" activeCellId="0" sqref="O167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2591093117409"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.587044534413"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.3603238866397"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.2591093117409"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.2591093117409"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="21.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="35" min="16" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="37" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="81.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3587,7 +3582,7 @@
       </c>
       <c r="AQ10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="26.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="n">
         <v>10</v>
       </c>
@@ -3623,7 +3618,7 @@
         <v>74</v>
       </c>
       <c r="O11" s="31" t="n">
-        <v>5449000000729</v>
+        <v>5449000008046</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -3848,7 +3843,7 @@
       </c>
       <c r="AQ13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="n">
         <v>13</v>
       </c>
@@ -3884,7 +3879,7 @@
         <v>80</v>
       </c>
       <c r="O14" s="27" t="n">
-        <v>4607042436505</v>
+        <v>5449000000729</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
@@ -3935,7 +3930,7 @@
       </c>
       <c r="AQ14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="42.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="n">
         <v>14</v>
       </c>
@@ -3971,7 +3966,7 @@
         <v>82</v>
       </c>
       <c r="O15" s="27" t="n">
-        <v>4607042436109</v>
+        <v>5449000000712</v>
       </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
@@ -4022,7 +4017,7 @@
       </c>
       <c r="AQ15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="39.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="42.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="n">
         <v>15</v>
       </c>
@@ -4058,7 +4053,7 @@
         <v>84</v>
       </c>
       <c r="O16" s="31" t="n">
-        <v>5449000000712</v>
+        <v>5449000020987</v>
       </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
@@ -16720,6 +16715,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="108" t="s">
@@ -16754,6 +16752,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -16788,6 +16789,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
@@ -17020,6 +17024,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="112" t="s">

--- a/Projects/CCRU/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU/Data/FT PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,9 +34,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$165</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$165</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$165</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$165</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$165</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1186,10 +1188,10 @@
     <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Max 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Максимум 23 СКЮ на дверь</t>
+    <t xml:space="preserve">Cooler: Max 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 26 СКЮ на дверь</t>
   </si>
   <si>
     <t xml:space="preserve">number of SKU per Door RANGE</t>
@@ -1323,7 +1325,7 @@
     <t xml:space="preserve">ANY Fuze Green 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000233615, 5449000189370</t>
+    <t xml:space="preserve">5449000233615, 5449000189370, 5449000027450</t>
   </si>
   <si>
     <t xml:space="preserve">Mixed Door: ANY Fuze Black 0.5L</t>
@@ -2322,17 +2324,17 @@
   </sheetPr>
   <dimension ref="A1:AQ165"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="M113" activeCellId="0" sqref="M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="32.5587044534413"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="13.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="13.8178137651822"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11818,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="M112" s="11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N112" s="9" t="s">
         <v>326</v>

--- a/Projects/CCRU/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU/Data/FT PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,9 +36,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$165</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$165</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$165</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$165</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$161</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="537">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1325,7 +1326,7 @@
     <t xml:space="preserve">ANY Fuze Green 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000233615, 5449000189370, 5449000027450</t>
+    <t xml:space="preserve">5449000233615, 5449000189370, 4607042430879</t>
   </si>
   <si>
     <t xml:space="preserve">Mixed Door: ANY Fuze Black 0.5L</t>
@@ -1504,6 +1505,9 @@
   </si>
   <si>
     <t xml:space="preserve">NCB Дверь: Фьюз Зеленый - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000233615, 5449000189370, 5449000027450</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Door: ANY Fuze Black 0.5L</t>
@@ -1860,7 +1864,7 @@
     <numFmt numFmtId="169" formatCode="D\-MMM"/>
     <numFmt numFmtId="170" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1919,6 +1923,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -2051,7 +2062,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2192,6 +2203,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2216,7 +2231,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2228,15 +2243,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2261,7 +2276,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -2325,16 +2340,16 @@
   <dimension ref="A1:AQ165"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M113" activeCellId="0" sqref="M113"/>
+      <selection pane="bottomLeft" activeCell="O126" activeCellId="0" sqref="O126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="34.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="14.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13039,7 +13054,7 @@
       <c r="N126" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="O126" s="25" t="s">
+      <c r="O126" s="35" t="s">
         <v>394</v>
       </c>
       <c r="P126" s="25"/>
@@ -15045,7 +15060,7 @@
         <v>393</v>
       </c>
       <c r="O149" s="8" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="P149" s="25"/>
       <c r="Q149" s="25"/>
@@ -15114,10 +15129,10 @@
       </c>
       <c r="F150" s="9"/>
       <c r="G150" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I150" s="11" t="s">
         <v>54</v>
@@ -15201,10 +15216,10 @@
       </c>
       <c r="F151" s="9"/>
       <c r="G151" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I151" s="11" t="s">
         <v>54</v>
@@ -15216,10 +15231,10 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
       <c r="N151" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O151" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P151" s="25"/>
       <c r="Q151" s="25"/>
@@ -15288,10 +15303,10 @@
       </c>
       <c r="F152" s="9"/>
       <c r="G152" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I152" s="11" t="s">
         <v>54</v>
@@ -15375,10 +15390,10 @@
       </c>
       <c r="F153" s="9"/>
       <c r="G153" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I153" s="11" t="s">
         <v>54</v>
@@ -15390,10 +15405,10 @@
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
       <c r="N153" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O153" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P153" s="25"/>
       <c r="Q153" s="25"/>
@@ -15462,13 +15477,13 @@
       </c>
       <c r="F154" s="9"/>
       <c r="G154" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J154" s="11"/>
       <c r="K154" s="7"/>
@@ -15538,67 +15553,67 @@
         <v>44</v>
       </c>
       <c r="D155" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E155" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="F155" s="35" t="s">
+      <c r="E155" s="36" t="s">
         <v>465</v>
+      </c>
+      <c r="F155" s="36" t="s">
+        <v>466</v>
       </c>
       <c r="G155" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="H155" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="I155" s="37" t="s">
+      <c r="H155" s="37" t="s">
         <v>467</v>
       </c>
-      <c r="J155" s="37" t="s">
+      <c r="I155" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="K155" s="37"/>
-      <c r="L155" s="37"/>
+      <c r="J155" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="K155" s="38"/>
+      <c r="L155" s="38"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
-      <c r="O155" s="37"/>
-      <c r="P155" s="37"/>
-      <c r="Q155" s="37"/>
-      <c r="R155" s="37"/>
-      <c r="S155" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="T155" s="37"/>
-      <c r="U155" s="37"/>
-      <c r="V155" s="37"/>
-      <c r="W155" s="37"/>
-      <c r="X155" s="37"/>
-      <c r="Y155" s="37"/>
-      <c r="Z155" s="37"/>
-      <c r="AA155" s="37"/>
-      <c r="AB155" s="37"/>
-      <c r="AC155" s="37"/>
-      <c r="AD155" s="37"/>
-      <c r="AE155" s="37"/>
-      <c r="AF155" s="38" t="n">
+      <c r="O155" s="38"/>
+      <c r="P155" s="38"/>
+      <c r="Q155" s="38"/>
+      <c r="R155" s="38"/>
+      <c r="S155" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="T155" s="38"/>
+      <c r="U155" s="38"/>
+      <c r="V155" s="38"/>
+      <c r="W155" s="38"/>
+      <c r="X155" s="38"/>
+      <c r="Y155" s="38"/>
+      <c r="Z155" s="38"/>
+      <c r="AA155" s="38"/>
+      <c r="AB155" s="38"/>
+      <c r="AC155" s="38"/>
+      <c r="AD155" s="38"/>
+      <c r="AE155" s="38"/>
+      <c r="AF155" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="AG155" s="37"/>
-      <c r="AH155" s="37"/>
-      <c r="AI155" s="37"/>
-      <c r="AJ155" s="37"/>
-      <c r="AK155" s="37"/>
-      <c r="AL155" s="37"/>
-      <c r="AM155" s="37"/>
+      <c r="AG155" s="38"/>
+      <c r="AH155" s="38"/>
+      <c r="AI155" s="38"/>
+      <c r="AJ155" s="38"/>
+      <c r="AK155" s="38"/>
+      <c r="AL155" s="38"/>
+      <c r="AM155" s="38"/>
       <c r="AN155" s="9" t="n">
         <v>154</v>
       </c>
-      <c r="AO155" s="37" t="n">
+      <c r="AO155" s="38" t="n">
         <v>101</v>
       </c>
-      <c r="AP155" s="37"/>
-      <c r="AQ155" s="37"/>
+      <c r="AP155" s="38"/>
+      <c r="AQ155" s="38"/>
     </row>
     <row r="156" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="n">
@@ -15611,65 +15626,65 @@
         <v>44</v>
       </c>
       <c r="D156" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E156" s="35" t="s">
-        <v>470</v>
-      </c>
-      <c r="F156" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E156" s="36" t="s">
         <v>471</v>
       </c>
-      <c r="G156" s="35" t="s">
+      <c r="F156" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="G156" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="H156" s="36"/>
-      <c r="I156" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="J156" s="37" t="s">
+      <c r="H156" s="37"/>
+      <c r="I156" s="38" t="s">
         <v>473</v>
       </c>
-      <c r="K156" s="37"/>
-      <c r="L156" s="37"/>
+      <c r="J156" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="K156" s="38"/>
+      <c r="L156" s="38"/>
       <c r="M156" s="18"/>
       <c r="N156" s="18"/>
-      <c r="O156" s="37"/>
-      <c r="P156" s="37"/>
-      <c r="Q156" s="37"/>
-      <c r="R156" s="37"/>
-      <c r="S156" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="T156" s="37"/>
-      <c r="U156" s="37"/>
-      <c r="V156" s="37"/>
-      <c r="W156" s="37"/>
-      <c r="X156" s="37"/>
-      <c r="Y156" s="37"/>
-      <c r="Z156" s="37"/>
-      <c r="AA156" s="37"/>
-      <c r="AB156" s="37"/>
-      <c r="AC156" s="37"/>
-      <c r="AD156" s="37"/>
-      <c r="AE156" s="37"/>
-      <c r="AF156" s="39" t="n">
+      <c r="O156" s="38"/>
+      <c r="P156" s="38"/>
+      <c r="Q156" s="38"/>
+      <c r="R156" s="38"/>
+      <c r="S156" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="T156" s="38"/>
+      <c r="U156" s="38"/>
+      <c r="V156" s="38"/>
+      <c r="W156" s="38"/>
+      <c r="X156" s="38"/>
+      <c r="Y156" s="38"/>
+      <c r="Z156" s="38"/>
+      <c r="AA156" s="38"/>
+      <c r="AB156" s="38"/>
+      <c r="AC156" s="38"/>
+      <c r="AD156" s="38"/>
+      <c r="AE156" s="38"/>
+      <c r="AF156" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="AG156" s="37"/>
-      <c r="AH156" s="37"/>
-      <c r="AI156" s="37"/>
-      <c r="AJ156" s="37"/>
-      <c r="AK156" s="37"/>
-      <c r="AL156" s="37"/>
-      <c r="AM156" s="37"/>
+      <c r="AG156" s="38"/>
+      <c r="AH156" s="38"/>
+      <c r="AI156" s="38"/>
+      <c r="AJ156" s="38"/>
+      <c r="AK156" s="38"/>
+      <c r="AL156" s="38"/>
+      <c r="AM156" s="38"/>
       <c r="AN156" s="9" t="n">
         <v>155</v>
       </c>
       <c r="AO156" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="AP156" s="37"/>
-      <c r="AQ156" s="37"/>
+        <v>475</v>
+      </c>
+      <c r="AP156" s="38"/>
+      <c r="AQ156" s="38"/>
     </row>
     <row r="157" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="n">
@@ -15682,67 +15697,67 @@
         <v>44</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E157" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="F157" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E157" s="36" t="s">
         <v>476</v>
       </c>
-      <c r="G157" s="35" t="s">
+      <c r="F157" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="G157" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="H157" s="36" t="s">
-        <v>477</v>
-      </c>
-      <c r="I157" s="37" t="s">
-        <v>467</v>
-      </c>
-      <c r="J157" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="K157" s="37"/>
-      <c r="L157" s="37"/>
+      <c r="H157" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="I157" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="J157" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="K157" s="38"/>
+      <c r="L157" s="38"/>
       <c r="M157" s="18"/>
       <c r="N157" s="18"/>
-      <c r="O157" s="37"/>
-      <c r="P157" s="37"/>
-      <c r="Q157" s="37"/>
-      <c r="R157" s="37"/>
-      <c r="S157" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="T157" s="37"/>
-      <c r="U157" s="37"/>
-      <c r="V157" s="37"/>
-      <c r="W157" s="37"/>
-      <c r="X157" s="37"/>
-      <c r="Y157" s="37"/>
-      <c r="Z157" s="37"/>
-      <c r="AA157" s="37"/>
-      <c r="AB157" s="37"/>
-      <c r="AC157" s="37"/>
-      <c r="AD157" s="37"/>
-      <c r="AE157" s="37"/>
-      <c r="AF157" s="39" t="n">
+      <c r="O157" s="38"/>
+      <c r="P157" s="38"/>
+      <c r="Q157" s="38"/>
+      <c r="R157" s="38"/>
+      <c r="S157" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="T157" s="38"/>
+      <c r="U157" s="38"/>
+      <c r="V157" s="38"/>
+      <c r="W157" s="38"/>
+      <c r="X157" s="38"/>
+      <c r="Y157" s="38"/>
+      <c r="Z157" s="38"/>
+      <c r="AA157" s="38"/>
+      <c r="AB157" s="38"/>
+      <c r="AC157" s="38"/>
+      <c r="AD157" s="38"/>
+      <c r="AE157" s="38"/>
+      <c r="AF157" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="AG157" s="37"/>
-      <c r="AH157" s="37"/>
-      <c r="AI157" s="37"/>
-      <c r="AJ157" s="37"/>
-      <c r="AK157" s="37"/>
-      <c r="AL157" s="37"/>
-      <c r="AM157" s="37"/>
+      <c r="AG157" s="38"/>
+      <c r="AH157" s="38"/>
+      <c r="AI157" s="38"/>
+      <c r="AJ157" s="38"/>
+      <c r="AK157" s="38"/>
+      <c r="AL157" s="38"/>
+      <c r="AM157" s="38"/>
       <c r="AN157" s="9" t="n">
         <v>156</v>
       </c>
-      <c r="AO157" s="37" t="n">
+      <c r="AO157" s="38" t="n">
         <v>105</v>
       </c>
-      <c r="AP157" s="37"/>
-      <c r="AQ157" s="37"/>
+      <c r="AP157" s="38"/>
+      <c r="AQ157" s="38"/>
     </row>
     <row r="158" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="n">
@@ -15755,67 +15770,67 @@
         <v>44</v>
       </c>
       <c r="D158" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E158" s="35" t="s">
-        <v>478</v>
-      </c>
-      <c r="F158" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E158" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="G158" s="35" t="s">
+      <c r="F158" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="H158" s="37"/>
+      <c r="G158" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="H158" s="38"/>
       <c r="I158" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J158" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="K158" s="37"/>
-      <c r="L158" s="37"/>
+        <v>474</v>
+      </c>
+      <c r="K158" s="38"/>
+      <c r="L158" s="38"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
-      <c r="O158" s="37" t="s">
-        <v>482</v>
-      </c>
-      <c r="P158" s="37"/>
-      <c r="Q158" s="37"/>
-      <c r="R158" s="37"/>
-      <c r="S158" s="37" t="s">
+      <c r="O158" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="T158" s="37"/>
-      <c r="U158" s="37"/>
-      <c r="V158" s="37"/>
-      <c r="W158" s="37"/>
-      <c r="X158" s="37"/>
+      <c r="P158" s="38"/>
+      <c r="Q158" s="38"/>
+      <c r="R158" s="38"/>
+      <c r="S158" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="T158" s="38"/>
+      <c r="U158" s="38"/>
+      <c r="V158" s="38"/>
+      <c r="W158" s="38"/>
+      <c r="X158" s="38"/>
       <c r="Y158" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="Z158" s="37"/>
-      <c r="AA158" s="37"/>
-      <c r="AB158" s="37"/>
-      <c r="AC158" s="37"/>
-      <c r="AD158" s="37"/>
-      <c r="AE158" s="37"/>
-      <c r="AF158" s="37" t="n">
+        <v>485</v>
+      </c>
+      <c r="Z158" s="38"/>
+      <c r="AA158" s="38"/>
+      <c r="AB158" s="38"/>
+      <c r="AC158" s="38"/>
+      <c r="AD158" s="38"/>
+      <c r="AE158" s="38"/>
+      <c r="AF158" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="AG158" s="37"/>
-      <c r="AH158" s="37"/>
-      <c r="AI158" s="37"/>
-      <c r="AJ158" s="37"/>
-      <c r="AK158" s="37"/>
-      <c r="AL158" s="37"/>
-      <c r="AM158" s="37"/>
+      <c r="AG158" s="38"/>
+      <c r="AH158" s="38"/>
+      <c r="AI158" s="38"/>
+      <c r="AJ158" s="38"/>
+      <c r="AK158" s="38"/>
+      <c r="AL158" s="38"/>
+      <c r="AM158" s="38"/>
       <c r="AN158" s="9" t="n">
         <v>157</v>
       </c>
-      <c r="AO158" s="37"/>
-      <c r="AP158" s="37"/>
-      <c r="AQ158" s="37"/>
+      <c r="AO158" s="38"/>
+      <c r="AP158" s="38"/>
+      <c r="AQ158" s="38"/>
     </row>
     <row r="159" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="n">
@@ -15828,67 +15843,67 @@
         <v>44</v>
       </c>
       <c r="D159" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E159" s="35" t="s">
-        <v>485</v>
-      </c>
-      <c r="F159" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E159" s="36" t="s">
         <v>486</v>
       </c>
-      <c r="G159" s="35" t="s">
+      <c r="F159" s="36" t="s">
         <v>487</v>
       </c>
-      <c r="H159" s="37"/>
+      <c r="G159" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="H159" s="38"/>
       <c r="I159" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J159" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="K159" s="37"/>
-      <c r="L159" s="37"/>
+        <v>490</v>
+      </c>
+      <c r="K159" s="38"/>
+      <c r="L159" s="38"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
-      <c r="O159" s="37" t="s">
+      <c r="O159" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="P159" s="37"/>
-      <c r="Q159" s="37"/>
-      <c r="R159" s="37"/>
-      <c r="S159" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="T159" s="37"/>
-      <c r="U159" s="37"/>
-      <c r="V159" s="37"/>
-      <c r="W159" s="37"/>
-      <c r="X159" s="37"/>
+      <c r="P159" s="38"/>
+      <c r="Q159" s="38"/>
+      <c r="R159" s="38"/>
+      <c r="S159" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="T159" s="38"/>
+      <c r="U159" s="38"/>
+      <c r="V159" s="38"/>
+      <c r="W159" s="38"/>
+      <c r="X159" s="38"/>
       <c r="Y159" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z159" s="37"/>
-      <c r="AA159" s="37"/>
-      <c r="AB159" s="37"/>
-      <c r="AC159" s="37"/>
-      <c r="AD159" s="37"/>
-      <c r="AE159" s="37"/>
-      <c r="AF159" s="37" t="n">
+        <v>491</v>
+      </c>
+      <c r="Z159" s="38"/>
+      <c r="AA159" s="38"/>
+      <c r="AB159" s="38"/>
+      <c r="AC159" s="38"/>
+      <c r="AD159" s="38"/>
+      <c r="AE159" s="38"/>
+      <c r="AF159" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="AG159" s="37"/>
-      <c r="AH159" s="37"/>
-      <c r="AI159" s="37"/>
-      <c r="AJ159" s="37"/>
-      <c r="AK159" s="37"/>
-      <c r="AL159" s="37"/>
-      <c r="AM159" s="37"/>
+      <c r="AG159" s="38"/>
+      <c r="AH159" s="38"/>
+      <c r="AI159" s="38"/>
+      <c r="AJ159" s="38"/>
+      <c r="AK159" s="38"/>
+      <c r="AL159" s="38"/>
+      <c r="AM159" s="38"/>
       <c r="AN159" s="9" t="n">
         <v>158</v>
       </c>
-      <c r="AO159" s="37"/>
-      <c r="AP159" s="37"/>
-      <c r="AQ159" s="37"/>
+      <c r="AO159" s="38"/>
+      <c r="AP159" s="38"/>
+      <c r="AQ159" s="38"/>
     </row>
     <row r="160" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="n">
@@ -15901,67 +15916,67 @@
         <v>44</v>
       </c>
       <c r="D160" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E160" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="F160" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E160" s="36" t="s">
         <v>492</v>
       </c>
-      <c r="G160" s="35" t="s">
+      <c r="F160" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="H160" s="37"/>
+      <c r="G160" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="H160" s="38"/>
       <c r="I160" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J160" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="K160" s="37"/>
-      <c r="L160" s="37"/>
+        <v>490</v>
+      </c>
+      <c r="K160" s="38"/>
+      <c r="L160" s="38"/>
       <c r="M160" s="18"/>
       <c r="N160" s="18"/>
-      <c r="O160" s="37" t="s">
-        <v>494</v>
-      </c>
-      <c r="P160" s="37"/>
-      <c r="Q160" s="37"/>
-      <c r="R160" s="37"/>
-      <c r="S160" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="T160" s="37"/>
-      <c r="U160" s="37"/>
-      <c r="V160" s="37"/>
-      <c r="W160" s="37"/>
-      <c r="X160" s="37"/>
+      <c r="O160" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="P160" s="38"/>
+      <c r="Q160" s="38"/>
+      <c r="R160" s="38"/>
+      <c r="S160" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="T160" s="38"/>
+      <c r="U160" s="38"/>
+      <c r="V160" s="38"/>
+      <c r="W160" s="38"/>
+      <c r="X160" s="38"/>
       <c r="Y160" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z160" s="37"/>
-      <c r="AA160" s="37"/>
-      <c r="AB160" s="37"/>
-      <c r="AC160" s="37"/>
-      <c r="AD160" s="37"/>
-      <c r="AE160" s="37"/>
-      <c r="AF160" s="37" t="n">
+        <v>491</v>
+      </c>
+      <c r="Z160" s="38"/>
+      <c r="AA160" s="38"/>
+      <c r="AB160" s="38"/>
+      <c r="AC160" s="38"/>
+      <c r="AD160" s="38"/>
+      <c r="AE160" s="38"/>
+      <c r="AF160" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="AG160" s="37"/>
-      <c r="AH160" s="37"/>
-      <c r="AI160" s="37"/>
-      <c r="AJ160" s="37"/>
-      <c r="AK160" s="37"/>
-      <c r="AL160" s="37"/>
-      <c r="AM160" s="37"/>
+      <c r="AG160" s="38"/>
+      <c r="AH160" s="38"/>
+      <c r="AI160" s="38"/>
+      <c r="AJ160" s="38"/>
+      <c r="AK160" s="38"/>
+      <c r="AL160" s="38"/>
+      <c r="AM160" s="38"/>
       <c r="AN160" s="9" t="n">
         <v>159</v>
       </c>
-      <c r="AO160" s="37"/>
-      <c r="AP160" s="37"/>
-      <c r="AQ160" s="37"/>
+      <c r="AO160" s="38"/>
+      <c r="AP160" s="38"/>
+      <c r="AQ160" s="38"/>
     </row>
     <row r="161" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="n">
@@ -15974,67 +15989,67 @@
         <v>44</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E161" s="35" t="s">
-        <v>495</v>
-      </c>
-      <c r="F161" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E161" s="36" t="s">
         <v>496</v>
       </c>
-      <c r="G161" s="35" t="s">
+      <c r="F161" s="36" t="s">
         <v>497</v>
       </c>
-      <c r="H161" s="37"/>
+      <c r="G161" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="H161" s="38"/>
       <c r="I161" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J161" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="K161" s="37"/>
-      <c r="L161" s="37"/>
+        <v>490</v>
+      </c>
+      <c r="K161" s="38"/>
+      <c r="L161" s="38"/>
       <c r="M161" s="18"/>
       <c r="N161" s="18"/>
-      <c r="O161" s="37" t="s">
-        <v>498</v>
-      </c>
-      <c r="P161" s="37"/>
-      <c r="Q161" s="37"/>
-      <c r="R161" s="37"/>
-      <c r="S161" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="T161" s="37"/>
-      <c r="U161" s="37"/>
-      <c r="V161" s="37"/>
-      <c r="W161" s="37"/>
-      <c r="X161" s="37"/>
+      <c r="O161" s="38" t="s">
+        <v>499</v>
+      </c>
+      <c r="P161" s="38"/>
+      <c r="Q161" s="38"/>
+      <c r="R161" s="38"/>
+      <c r="S161" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="T161" s="38"/>
+      <c r="U161" s="38"/>
+      <c r="V161" s="38"/>
+      <c r="W161" s="38"/>
+      <c r="X161" s="38"/>
       <c r="Y161" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="Z161" s="37"/>
-      <c r="AA161" s="37"/>
-      <c r="AB161" s="37"/>
-      <c r="AC161" s="37"/>
-      <c r="AD161" s="37"/>
-      <c r="AE161" s="37"/>
-      <c r="AF161" s="37" t="n">
+        <v>491</v>
+      </c>
+      <c r="Z161" s="38"/>
+      <c r="AA161" s="38"/>
+      <c r="AB161" s="38"/>
+      <c r="AC161" s="38"/>
+      <c r="AD161" s="38"/>
+      <c r="AE161" s="38"/>
+      <c r="AF161" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="AG161" s="37"/>
-      <c r="AH161" s="37"/>
-      <c r="AI161" s="37"/>
-      <c r="AJ161" s="37"/>
-      <c r="AK161" s="37"/>
+      <c r="AG161" s="38"/>
+      <c r="AH161" s="38"/>
+      <c r="AI161" s="38"/>
+      <c r="AJ161" s="38"/>
+      <c r="AK161" s="38"/>
       <c r="AL161" s="9"/>
-      <c r="AM161" s="37"/>
+      <c r="AM161" s="38"/>
       <c r="AN161" s="9" t="n">
         <v>160</v>
       </c>
-      <c r="AO161" s="37"/>
-      <c r="AP161" s="37"/>
-      <c r="AQ161" s="37"/>
+      <c r="AO161" s="38"/>
+      <c r="AP161" s="38"/>
+      <c r="AQ161" s="38"/>
     </row>
     <row r="162" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="n">
@@ -16047,71 +16062,71 @@
         <v>44</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E162" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="F162" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E162" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="G162" s="35" t="s">
+      <c r="F162" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="H162" s="37" t="s">
+      <c r="G162" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="H162" s="38" t="s">
         <v>246</v>
       </c>
       <c r="I162" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J162" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="K162" s="37"/>
-      <c r="L162" s="37"/>
+        <v>490</v>
+      </c>
+      <c r="K162" s="38"/>
+      <c r="L162" s="38"/>
       <c r="M162" s="18"/>
       <c r="N162" s="18"/>
       <c r="O162" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="P162" s="37"/>
-      <c r="Q162" s="37"/>
-      <c r="R162" s="37"/>
-      <c r="S162" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="T162" s="37"/>
-      <c r="U162" s="37"/>
-      <c r="V162" s="37"/>
-      <c r="W162" s="37"/>
-      <c r="X162" s="37"/>
+        <v>504</v>
+      </c>
+      <c r="P162" s="38"/>
+      <c r="Q162" s="38"/>
+      <c r="R162" s="38"/>
+      <c r="S162" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="T162" s="38"/>
+      <c r="U162" s="38"/>
+      <c r="V162" s="38"/>
+      <c r="W162" s="38"/>
+      <c r="X162" s="38"/>
       <c r="Y162" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z162" s="37"/>
-      <c r="AA162" s="37"/>
-      <c r="AB162" s="37"/>
-      <c r="AC162" s="37"/>
-      <c r="AD162" s="37"/>
-      <c r="AE162" s="37"/>
-      <c r="AF162" s="37" t="n">
+        <v>505</v>
+      </c>
+      <c r="Z162" s="38"/>
+      <c r="AA162" s="38"/>
+      <c r="AB162" s="38"/>
+      <c r="AC162" s="38"/>
+      <c r="AD162" s="38"/>
+      <c r="AE162" s="38"/>
+      <c r="AF162" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="AG162" s="37"/>
-      <c r="AH162" s="37"/>
-      <c r="AI162" s="37"/>
-      <c r="AJ162" s="37"/>
-      <c r="AK162" s="37"/>
-      <c r="AL162" s="37"/>
-      <c r="AM162" s="37"/>
+      <c r="AG162" s="38"/>
+      <c r="AH162" s="38"/>
+      <c r="AI162" s="38"/>
+      <c r="AJ162" s="38"/>
+      <c r="AK162" s="38"/>
+      <c r="AL162" s="38"/>
+      <c r="AM162" s="38"/>
       <c r="AN162" s="9" t="n">
         <v>161</v>
       </c>
-      <c r="AO162" s="37" t="n">
+      <c r="AO162" s="38" t="n">
         <v>83</v>
       </c>
-      <c r="AP162" s="37"/>
-      <c r="AQ162" s="37"/>
+      <c r="AP162" s="38"/>
+      <c r="AQ162" s="38"/>
     </row>
     <row r="163" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="n">
@@ -16124,71 +16139,71 @@
         <v>44</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E163" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="F163" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E163" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="G163" s="35" t="s">
+      <c r="F163" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="H163" s="37" t="s">
+      <c r="G163" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="H163" s="38" t="s">
         <v>274</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J163" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="K163" s="37"/>
-      <c r="L163" s="37"/>
+        <v>490</v>
+      </c>
+      <c r="K163" s="38"/>
+      <c r="L163" s="38"/>
       <c r="M163" s="18"/>
       <c r="N163" s="18"/>
       <c r="O163" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="P163" s="37"/>
-      <c r="Q163" s="37"/>
-      <c r="R163" s="37"/>
-      <c r="S163" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="T163" s="37"/>
-      <c r="U163" s="37"/>
-      <c r="V163" s="37"/>
-      <c r="W163" s="37"/>
-      <c r="X163" s="37"/>
+        <v>504</v>
+      </c>
+      <c r="P163" s="38"/>
+      <c r="Q163" s="38"/>
+      <c r="R163" s="38"/>
+      <c r="S163" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="T163" s="38"/>
+      <c r="U163" s="38"/>
+      <c r="V163" s="38"/>
+      <c r="W163" s="38"/>
+      <c r="X163" s="38"/>
       <c r="Y163" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z163" s="37"/>
-      <c r="AA163" s="37"/>
-      <c r="AB163" s="37"/>
-      <c r="AC163" s="37"/>
-      <c r="AD163" s="37"/>
-      <c r="AE163" s="37"/>
-      <c r="AF163" s="37" t="n">
+        <v>506</v>
+      </c>
+      <c r="Z163" s="38"/>
+      <c r="AA163" s="38"/>
+      <c r="AB163" s="38"/>
+      <c r="AC163" s="38"/>
+      <c r="AD163" s="38"/>
+      <c r="AE163" s="38"/>
+      <c r="AF163" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="AG163" s="37"/>
-      <c r="AH163" s="37"/>
-      <c r="AI163" s="37"/>
-      <c r="AJ163" s="37"/>
-      <c r="AK163" s="37"/>
-      <c r="AL163" s="37"/>
-      <c r="AM163" s="37"/>
+      <c r="AG163" s="38"/>
+      <c r="AH163" s="38"/>
+      <c r="AI163" s="38"/>
+      <c r="AJ163" s="38"/>
+      <c r="AK163" s="38"/>
+      <c r="AL163" s="38"/>
+      <c r="AM163" s="38"/>
       <c r="AN163" s="9" t="n">
         <v>162</v>
       </c>
-      <c r="AO163" s="37" t="n">
+      <c r="AO163" s="38" t="n">
         <v>91</v>
       </c>
-      <c r="AP163" s="37"/>
-      <c r="AQ163" s="37"/>
+      <c r="AP163" s="38"/>
+      <c r="AQ163" s="38"/>
     </row>
     <row r="164" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="n">
@@ -16201,71 +16216,71 @@
         <v>44</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E164" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="F164" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E164" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="G164" s="35" t="s">
+      <c r="F164" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="H164" s="37" t="s">
+      <c r="G164" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="H164" s="38" t="s">
         <v>265</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J164" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="K164" s="37"/>
-      <c r="L164" s="37"/>
+        <v>490</v>
+      </c>
+      <c r="K164" s="38"/>
+      <c r="L164" s="38"/>
       <c r="M164" s="18"/>
       <c r="N164" s="18"/>
       <c r="O164" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="P164" s="37"/>
-      <c r="Q164" s="37"/>
-      <c r="R164" s="37"/>
-      <c r="S164" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="T164" s="37"/>
-      <c r="U164" s="37"/>
-      <c r="V164" s="37"/>
-      <c r="W164" s="37"/>
-      <c r="X164" s="37"/>
+        <v>504</v>
+      </c>
+      <c r="P164" s="38"/>
+      <c r="Q164" s="38"/>
+      <c r="R164" s="38"/>
+      <c r="S164" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="T164" s="38"/>
+      <c r="U164" s="38"/>
+      <c r="V164" s="38"/>
+      <c r="W164" s="38"/>
+      <c r="X164" s="38"/>
       <c r="Y164" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="Z164" s="37"/>
-      <c r="AA164" s="37"/>
-      <c r="AB164" s="37"/>
-      <c r="AC164" s="37"/>
-      <c r="AD164" s="37"/>
-      <c r="AE164" s="37"/>
-      <c r="AF164" s="37" t="n">
+        <v>507</v>
+      </c>
+      <c r="Z164" s="38"/>
+      <c r="AA164" s="38"/>
+      <c r="AB164" s="38"/>
+      <c r="AC164" s="38"/>
+      <c r="AD164" s="38"/>
+      <c r="AE164" s="38"/>
+      <c r="AF164" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="AG164" s="37"/>
-      <c r="AH164" s="37"/>
-      <c r="AI164" s="37"/>
-      <c r="AJ164" s="37"/>
-      <c r="AK164" s="37"/>
-      <c r="AL164" s="37"/>
-      <c r="AM164" s="37"/>
+      <c r="AG164" s="38"/>
+      <c r="AH164" s="38"/>
+      <c r="AI164" s="38"/>
+      <c r="AJ164" s="38"/>
+      <c r="AK164" s="38"/>
+      <c r="AL164" s="38"/>
+      <c r="AM164" s="38"/>
       <c r="AN164" s="9" t="n">
         <v>163</v>
       </c>
-      <c r="AO164" s="37" t="n">
+      <c r="AO164" s="38" t="n">
         <v>88</v>
       </c>
-      <c r="AP164" s="37"/>
-      <c r="AQ164" s="37"/>
+      <c r="AP164" s="38"/>
+      <c r="AQ164" s="38"/>
     </row>
     <row r="165" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="n">
@@ -16278,71 +16293,71 @@
         <v>44</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E165" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="F165" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E165" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="G165" s="35" t="s">
+      <c r="F165" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="H165" s="37" t="s">
+      <c r="G165" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="H165" s="38" t="s">
         <v>289</v>
       </c>
       <c r="I165" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J165" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="K165" s="37"/>
-      <c r="L165" s="37"/>
+        <v>490</v>
+      </c>
+      <c r="K165" s="38"/>
+      <c r="L165" s="38"/>
       <c r="M165" s="18"/>
       <c r="N165" s="18"/>
       <c r="O165" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="P165" s="37"/>
-      <c r="Q165" s="37"/>
-      <c r="R165" s="37"/>
-      <c r="S165" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="T165" s="37"/>
-      <c r="U165" s="37"/>
-      <c r="V165" s="37"/>
-      <c r="W165" s="37"/>
-      <c r="X165" s="37"/>
+        <v>504</v>
+      </c>
+      <c r="P165" s="38"/>
+      <c r="Q165" s="38"/>
+      <c r="R165" s="38"/>
+      <c r="S165" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="T165" s="38"/>
+      <c r="U165" s="38"/>
+      <c r="V165" s="38"/>
+      <c r="W165" s="38"/>
+      <c r="X165" s="38"/>
       <c r="Y165" s="18" t="s">
-        <v>507</v>
-      </c>
-      <c r="Z165" s="37"/>
-      <c r="AA165" s="37"/>
-      <c r="AB165" s="37"/>
-      <c r="AC165" s="37"/>
-      <c r="AD165" s="37"/>
-      <c r="AE165" s="37"/>
-      <c r="AF165" s="37" t="n">
+        <v>508</v>
+      </c>
+      <c r="Z165" s="38"/>
+      <c r="AA165" s="38"/>
+      <c r="AB165" s="38"/>
+      <c r="AC165" s="38"/>
+      <c r="AD165" s="38"/>
+      <c r="AE165" s="38"/>
+      <c r="AF165" s="38" t="n">
         <v>0</v>
       </c>
-      <c r="AG165" s="37"/>
-      <c r="AH165" s="37"/>
-      <c r="AI165" s="37"/>
-      <c r="AJ165" s="37"/>
-      <c r="AK165" s="37"/>
-      <c r="AL165" s="37"/>
-      <c r="AM165" s="37"/>
+      <c r="AG165" s="38"/>
+      <c r="AH165" s="38"/>
+      <c r="AI165" s="38"/>
+      <c r="AJ165" s="38"/>
+      <c r="AK165" s="38"/>
+      <c r="AL165" s="38"/>
+      <c r="AM165" s="38"/>
       <c r="AN165" s="9" t="n">
         <v>164</v>
       </c>
-      <c r="AO165" s="37" t="n">
+      <c r="AO165" s="38" t="n">
         <v>96</v>
       </c>
-      <c r="AP165" s="37"/>
-      <c r="AQ165" s="37"/>
+      <c r="AP165" s="38"/>
+      <c r="AQ165" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ165"/>
@@ -16370,16 +16385,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>352</v>
       </c>
     </row>
@@ -16407,17 +16422,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -16444,21 +16459,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G1" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16471,7 +16486,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>10</v>
@@ -16479,180 +16494,180 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="C7" s="41" t="s">
         <v>515</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>516</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="H7" s="41"/>
+        <v>517</v>
+      </c>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="H8" s="41"/>
+        <v>518</v>
+      </c>
+      <c r="H8" s="42"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41" t="s">
-        <v>515</v>
+      <c r="A11" s="42" t="s">
+        <v>516</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="H15" s="41"/>
+        <v>521</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41" t="s">
-        <v>515</v>
+      <c r="A18" s="42" t="s">
+        <v>516</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>515</v>
+      <c r="C18" s="42" t="s">
+        <v>516</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="42" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41" t="s">
-        <v>523</v>
-      </c>
-      <c r="B20" s="42" t="s">
+      <c r="A20" s="42" t="s">
         <v>524</v>
       </c>
-      <c r="C20" s="41" t="s">
-        <v>523</v>
-      </c>
-      <c r="D20" s="42" t="s">
+      <c r="B20" s="43" t="s">
         <v>525</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="41" t="s">
-        <v>515</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>528</v>
-      </c>
-      <c r="J25" s="41"/>
+      <c r="G25" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="J25" s="42"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="42" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J26" s="41"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="41" t="s">
-        <v>515</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>528</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>515</v>
+      <c r="B28" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>516</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="42" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -16679,53 +16694,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="45" t="s">
-        <v>532</v>
-      </c>
-      <c r="H1" s="45" t="s">
+      <c r="G1" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="46" t="s">
+        <v>534</v>
+      </c>
+      <c r="I1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="45" t="s">
-        <v>534</v>
-      </c>
-      <c r="L1" s="45" t="s">
+      <c r="K1" s="46" t="s">
+        <v>535</v>
+      </c>
+      <c r="L1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="46" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="46" t="s">
-        <v>535</v>
+      <c r="B4" s="47" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU/Data/FT PoS 2018.xlsx
@@ -38,9 +38,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="537">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1218,6 +1219,9 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты</t>
   </si>
   <si>
+    <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors". Score = 0,5* score Mixed Door + 0,25 * score SSD Door* 0,25 score NCB Door</t>
   </si>
   <si>
@@ -1233,15 +1237,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mixed 1 door, Mixed  1.5 door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scene type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If there is no Scene type like this It shouldn't be calculated (no score)</t>
   </si>
   <si>
     <t xml:space="preserve">114
@@ -2073,7 +2068,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2250,6 +2245,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2394,19 +2393,19 @@
   </sheetPr>
   <dimension ref="A1:AQ167"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="AF145" activeCellId="0" sqref="AF145"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AH117" activeCellId="0" sqref="AH117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="35.9919028340081"/>
-    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="15.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="37.5627530364372"/>
+    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="15.5668016194332"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="15.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="15.5668016194332"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12094,18 +12093,22 @@
         <v>50</v>
       </c>
       <c r="AE114" s="41" t="s">
-        <v>49</v>
+        <v>363</v>
       </c>
       <c r="AF114" s="17" t="n">
         <v>0.025</v>
       </c>
-      <c r="AG114" s="9"/>
-      <c r="AH114" s="9"/>
+      <c r="AG114" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH114" s="37" t="n">
+        <v>1</v>
+      </c>
       <c r="AI114" s="9" t="s">
         <v>336</v>
       </c>
       <c r="AJ114" s="43" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AK114" s="9"/>
       <c r="AL114" s="9"/>
@@ -12116,7 +12119,7 @@
         <v>112</v>
       </c>
       <c r="AO114" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AP114" s="33" t="s">
         <v>356</v>
@@ -12141,10 +12144,10 @@
       </c>
       <c r="F115" s="12"/>
       <c r="G115" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>256</v>
@@ -12169,7 +12172,7 @@
       <c r="W115" s="12"/>
       <c r="X115" s="9"/>
       <c r="Y115" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z115" s="12"/>
       <c r="AA115" s="9"/>
@@ -12179,10 +12182,10 @@
         <v>50</v>
       </c>
       <c r="AE115" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF115" s="17" t="n">
-        <v>0.5</v>
+        <v>363</v>
+      </c>
+      <c r="AF115" s="44" t="n">
+        <v>1</v>
       </c>
       <c r="AG115" s="9" t="n">
         <v>0.8</v>
@@ -12190,12 +12193,8 @@
       <c r="AH115" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AI115" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="AJ115" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AI115" s="37"/>
+      <c r="AJ115" s="37"/>
       <c r="AK115" s="9"/>
       <c r="AL115" s="9"/>
       <c r="AM115" s="12" t="n">
@@ -12205,7 +12204,7 @@
         <v>113</v>
       </c>
       <c r="AO115" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AP115" s="33" t="s">
         <v>361</v>
@@ -12230,10 +12229,10 @@
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I116" s="14" t="s">
         <v>54</v>
@@ -12264,7 +12263,7 @@
       <c r="W116" s="12"/>
       <c r="X116" s="9"/>
       <c r="Y116" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z116" s="12"/>
       <c r="AA116" s="9"/>
@@ -12282,9 +12281,7 @@
       <c r="AG116" s="9"/>
       <c r="AH116" s="9"/>
       <c r="AI116" s="9"/>
-      <c r="AJ116" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ116" s="37"/>
       <c r="AK116" s="9"/>
       <c r="AL116" s="9"/>
       <c r="AM116" s="12" t="n">
@@ -12295,7 +12292,7 @@
       </c>
       <c r="AO116" s="12"/>
       <c r="AP116" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ116" s="12"/>
     </row>
@@ -12317,10 +12314,10 @@
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I117" s="14" t="s">
         <v>54</v>
@@ -12351,7 +12348,7 @@
       <c r="W117" s="12"/>
       <c r="X117" s="9"/>
       <c r="Y117" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z117" s="12"/>
       <c r="AA117" s="9"/>
@@ -12369,9 +12366,7 @@
       <c r="AG117" s="9"/>
       <c r="AH117" s="9"/>
       <c r="AI117" s="9"/>
-      <c r="AJ117" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ117" s="37"/>
       <c r="AK117" s="9"/>
       <c r="AL117" s="9"/>
       <c r="AM117" s="12" t="n">
@@ -12382,7 +12377,7 @@
       </c>
       <c r="AO117" s="12"/>
       <c r="AP117" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ117" s="12"/>
     </row>
@@ -12404,10 +12399,10 @@
       </c>
       <c r="F118" s="12"/>
       <c r="G118" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I118" s="14" t="s">
         <v>54</v>
@@ -12438,7 +12433,7 @@
       <c r="W118" s="12"/>
       <c r="X118" s="9"/>
       <c r="Y118" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z118" s="12"/>
       <c r="AA118" s="9"/>
@@ -12456,9 +12451,7 @@
       <c r="AG118" s="9"/>
       <c r="AH118" s="9"/>
       <c r="AI118" s="9"/>
-      <c r="AJ118" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ118" s="37"/>
       <c r="AK118" s="9"/>
       <c r="AL118" s="9"/>
       <c r="AM118" s="12" t="n">
@@ -12469,7 +12462,7 @@
       </c>
       <c r="AO118" s="12"/>
       <c r="AP118" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ118" s="12"/>
     </row>
@@ -12491,10 +12484,10 @@
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I119" s="14" t="s">
         <v>54</v>
@@ -12525,7 +12518,7 @@
       <c r="W119" s="12"/>
       <c r="X119" s="9"/>
       <c r="Y119" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z119" s="12"/>
       <c r="AA119" s="9"/>
@@ -12543,9 +12536,7 @@
       <c r="AG119" s="9"/>
       <c r="AH119" s="9"/>
       <c r="AI119" s="9"/>
-      <c r="AJ119" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ119" s="37"/>
       <c r="AK119" s="9"/>
       <c r="AL119" s="9"/>
       <c r="AM119" s="12" t="n">
@@ -12556,7 +12547,7 @@
       </c>
       <c r="AO119" s="12"/>
       <c r="AP119" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ119" s="12"/>
     </row>
@@ -12578,10 +12569,10 @@
       </c>
       <c r="F120" s="12"/>
       <c r="G120" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I120" s="14" t="s">
         <v>54</v>
@@ -12612,7 +12603,7 @@
       <c r="W120" s="12"/>
       <c r="X120" s="9"/>
       <c r="Y120" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z120" s="12"/>
       <c r="AA120" s="9"/>
@@ -12630,9 +12621,7 @@
       <c r="AG120" s="9"/>
       <c r="AH120" s="9"/>
       <c r="AI120" s="9"/>
-      <c r="AJ120" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ120" s="37"/>
       <c r="AK120" s="9"/>
       <c r="AL120" s="9"/>
       <c r="AM120" s="12" t="n">
@@ -12643,7 +12632,7 @@
       </c>
       <c r="AO120" s="12"/>
       <c r="AP120" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ120" s="12"/>
     </row>
@@ -12665,10 +12654,10 @@
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I121" s="14" t="s">
         <v>54</v>
@@ -12699,7 +12688,7 @@
       <c r="W121" s="12"/>
       <c r="X121" s="9"/>
       <c r="Y121" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z121" s="12"/>
       <c r="AA121" s="9"/>
@@ -12717,9 +12706,7 @@
       <c r="AG121" s="9"/>
       <c r="AH121" s="9"/>
       <c r="AI121" s="9"/>
-      <c r="AJ121" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ121" s="37"/>
       <c r="AK121" s="9"/>
       <c r="AL121" s="9"/>
       <c r="AM121" s="12" t="n">
@@ -12730,7 +12717,7 @@
       </c>
       <c r="AO121" s="12"/>
       <c r="AP121" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ121" s="12"/>
     </row>
@@ -12752,10 +12739,10 @@
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I122" s="14" t="s">
         <v>54</v>
@@ -12786,7 +12773,7 @@
       <c r="W122" s="12"/>
       <c r="X122" s="9"/>
       <c r="Y122" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z122" s="12"/>
       <c r="AA122" s="9"/>
@@ -12804,9 +12791,7 @@
       <c r="AG122" s="9"/>
       <c r="AH122" s="9"/>
       <c r="AI122" s="9"/>
-      <c r="AJ122" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ122" s="37"/>
       <c r="AK122" s="9"/>
       <c r="AL122" s="9"/>
       <c r="AM122" s="12" t="n">
@@ -12817,7 +12802,7 @@
       </c>
       <c r="AO122" s="12"/>
       <c r="AP122" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ122" s="12"/>
     </row>
@@ -12839,10 +12824,10 @@
       </c>
       <c r="F123" s="12"/>
       <c r="G123" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I123" s="14" t="s">
         <v>54</v>
@@ -12873,7 +12858,7 @@
       <c r="W123" s="12"/>
       <c r="X123" s="9"/>
       <c r="Y123" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z123" s="12"/>
       <c r="AA123" s="9"/>
@@ -12891,9 +12876,7 @@
       <c r="AG123" s="9"/>
       <c r="AH123" s="9"/>
       <c r="AI123" s="9"/>
-      <c r="AJ123" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ123" s="37"/>
       <c r="AK123" s="9"/>
       <c r="AL123" s="9"/>
       <c r="AM123" s="12" t="n">
@@ -12904,7 +12887,7 @@
       </c>
       <c r="AO123" s="12"/>
       <c r="AP123" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ123" s="12"/>
     </row>
@@ -12926,10 +12909,10 @@
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I124" s="14" t="s">
         <v>54</v>
@@ -12960,7 +12943,7 @@
       <c r="W124" s="12"/>
       <c r="X124" s="9"/>
       <c r="Y124" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z124" s="12"/>
       <c r="AA124" s="9"/>
@@ -12978,9 +12961,7 @@
       <c r="AG124" s="9"/>
       <c r="AH124" s="9"/>
       <c r="AI124" s="9"/>
-      <c r="AJ124" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ124" s="37"/>
       <c r="AK124" s="9"/>
       <c r="AL124" s="9"/>
       <c r="AM124" s="12" t="n">
@@ -12991,7 +12972,7 @@
       </c>
       <c r="AO124" s="12"/>
       <c r="AP124" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ124" s="12"/>
     </row>
@@ -13013,10 +12994,10 @@
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I125" s="14" t="s">
         <v>54</v>
@@ -13047,7 +13028,7 @@
       <c r="W125" s="12"/>
       <c r="X125" s="9"/>
       <c r="Y125" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z125" s="12"/>
       <c r="AA125" s="9"/>
@@ -13065,9 +13046,7 @@
       <c r="AG125" s="9"/>
       <c r="AH125" s="9"/>
       <c r="AI125" s="9"/>
-      <c r="AJ125" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ125" s="37"/>
       <c r="AK125" s="9"/>
       <c r="AL125" s="9"/>
       <c r="AM125" s="12" t="n">
@@ -13078,7 +13057,7 @@
       </c>
       <c r="AO125" s="12"/>
       <c r="AP125" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ125" s="12"/>
     </row>
@@ -13100,10 +13079,10 @@
       </c>
       <c r="F126" s="12"/>
       <c r="G126" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I126" s="14" t="s">
         <v>54</v>
@@ -13134,7 +13113,7 @@
       <c r="W126" s="12"/>
       <c r="X126" s="9"/>
       <c r="Y126" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z126" s="12"/>
       <c r="AA126" s="9"/>
@@ -13152,9 +13131,7 @@
       <c r="AG126" s="9"/>
       <c r="AH126" s="9"/>
       <c r="AI126" s="9"/>
-      <c r="AJ126" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ126" s="37"/>
       <c r="AK126" s="9"/>
       <c r="AL126" s="9"/>
       <c r="AM126" s="12" t="n">
@@ -13165,7 +13142,7 @@
       </c>
       <c r="AO126" s="12"/>
       <c r="AP126" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ126" s="12"/>
     </row>
@@ -13187,10 +13164,10 @@
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I127" s="14" t="s">
         <v>54</v>
@@ -13202,10 +13179,10 @@
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
       <c r="N127" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="O127" s="44" t="s">
-        <v>397</v>
+        <v>394</v>
+      </c>
+      <c r="O127" s="45" t="s">
+        <v>395</v>
       </c>
       <c r="P127" s="27"/>
       <c r="Q127" s="27"/>
@@ -13221,7 +13198,7 @@
       <c r="W127" s="12"/>
       <c r="X127" s="9"/>
       <c r="Y127" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z127" s="12"/>
       <c r="AA127" s="9"/>
@@ -13239,9 +13216,7 @@
       <c r="AG127" s="9"/>
       <c r="AH127" s="9"/>
       <c r="AI127" s="9"/>
-      <c r="AJ127" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ127" s="37"/>
       <c r="AK127" s="9"/>
       <c r="AL127" s="9"/>
       <c r="AM127" s="12" t="n">
@@ -13252,7 +13227,7 @@
       </c>
       <c r="AO127" s="12"/>
       <c r="AP127" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ127" s="12"/>
     </row>
@@ -13274,10 +13249,10 @@
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I128" s="14" t="s">
         <v>54</v>
@@ -13289,10 +13264,10 @@
       <c r="L128" s="9"/>
       <c r="M128" s="9"/>
       <c r="N128" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="O128" s="27" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P128" s="27"/>
       <c r="Q128" s="27"/>
@@ -13308,7 +13283,7 @@
       <c r="W128" s="12"/>
       <c r="X128" s="9"/>
       <c r="Y128" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z128" s="12"/>
       <c r="AA128" s="9"/>
@@ -13326,9 +13301,7 @@
       <c r="AG128" s="9"/>
       <c r="AH128" s="9"/>
       <c r="AI128" s="9"/>
-      <c r="AJ128" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ128" s="37"/>
       <c r="AK128" s="9"/>
       <c r="AL128" s="9"/>
       <c r="AM128" s="12" t="n">
@@ -13339,7 +13312,7 @@
       </c>
       <c r="AO128" s="12"/>
       <c r="AP128" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ128" s="12"/>
     </row>
@@ -13361,10 +13334,10 @@
       </c>
       <c r="F129" s="12"/>
       <c r="G129" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I129" s="14" t="s">
         <v>54</v>
@@ -13395,7 +13368,7 @@
       <c r="W129" s="12"/>
       <c r="X129" s="9"/>
       <c r="Y129" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z129" s="12"/>
       <c r="AA129" s="9"/>
@@ -13413,9 +13386,7 @@
       <c r="AG129" s="9"/>
       <c r="AH129" s="9"/>
       <c r="AI129" s="9"/>
-      <c r="AJ129" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ129" s="37"/>
       <c r="AK129" s="9"/>
       <c r="AL129" s="9"/>
       <c r="AM129" s="12" t="n">
@@ -13426,7 +13397,7 @@
       </c>
       <c r="AO129" s="12"/>
       <c r="AP129" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ129" s="12"/>
     </row>
@@ -13448,10 +13419,10 @@
       </c>
       <c r="F130" s="12"/>
       <c r="G130" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I130" s="14" t="s">
         <v>54</v>
@@ -13482,7 +13453,7 @@
       <c r="W130" s="12"/>
       <c r="X130" s="9"/>
       <c r="Y130" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z130" s="12"/>
       <c r="AA130" s="9"/>
@@ -13500,9 +13471,7 @@
       <c r="AG130" s="9"/>
       <c r="AH130" s="9"/>
       <c r="AI130" s="9"/>
-      <c r="AJ130" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ130" s="37"/>
       <c r="AK130" s="9"/>
       <c r="AL130" s="9"/>
       <c r="AM130" s="12" t="n">
@@ -13513,7 +13482,7 @@
       </c>
       <c r="AO130" s="12"/>
       <c r="AP130" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ130" s="12"/>
     </row>
@@ -13535,10 +13504,10 @@
       </c>
       <c r="F131" s="12"/>
       <c r="G131" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>54</v>
@@ -13569,7 +13538,7 @@
       <c r="W131" s="12"/>
       <c r="X131" s="9"/>
       <c r="Y131" s="37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z131" s="12"/>
       <c r="AA131" s="9"/>
@@ -13587,9 +13556,7 @@
       <c r="AG131" s="9"/>
       <c r="AH131" s="9"/>
       <c r="AI131" s="9"/>
-      <c r="AJ131" s="9" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ131" s="37"/>
       <c r="AK131" s="9"/>
       <c r="AL131" s="9"/>
       <c r="AM131" s="12" t="n">
@@ -13600,7 +13567,7 @@
       </c>
       <c r="AO131" s="12"/>
       <c r="AP131" s="33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ131" s="12"/>
     </row>
@@ -13622,10 +13589,10 @@
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>256</v>
@@ -13650,7 +13617,7 @@
       <c r="W132" s="12"/>
       <c r="X132" s="9"/>
       <c r="Y132" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Z132" s="12"/>
       <c r="AA132" s="9"/>
@@ -13660,10 +13627,10 @@
         <v>50</v>
       </c>
       <c r="AE132" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF132" s="17" t="n">
-        <v>0.25</v>
+        <v>363</v>
+      </c>
+      <c r="AF132" s="44" t="n">
+        <v>0.5</v>
       </c>
       <c r="AG132" s="9" t="n">
         <v>0.8</v>
@@ -13671,12 +13638,8 @@
       <c r="AH132" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AI132" s="37" t="s">
-        <v>369</v>
-      </c>
-      <c r="AJ132" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AI132" s="37"/>
+      <c r="AJ132" s="37"/>
       <c r="AK132" s="9"/>
       <c r="AL132" s="9"/>
       <c r="AM132" s="12" t="n">
@@ -13686,7 +13649,7 @@
         <v>130</v>
       </c>
       <c r="AO132" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AP132" s="33" t="s">
         <v>361</v>
@@ -13711,10 +13674,10 @@
       </c>
       <c r="F133" s="12"/>
       <c r="G133" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I133" s="14" t="s">
         <v>54</v>
@@ -13745,7 +13708,7 @@
       <c r="W133" s="12"/>
       <c r="X133" s="9"/>
       <c r="Y133" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Z133" s="12"/>
       <c r="AA133" s="9"/>
@@ -13763,9 +13726,7 @@
       <c r="AG133" s="9"/>
       <c r="AH133" s="9"/>
       <c r="AI133" s="9"/>
-      <c r="AJ133" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ133" s="37"/>
       <c r="AK133" s="9"/>
       <c r="AL133" s="9"/>
       <c r="AM133" s="12" t="n">
@@ -13776,7 +13737,7 @@
       </c>
       <c r="AO133" s="12"/>
       <c r="AP133" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AQ133" s="12"/>
     </row>
@@ -13798,10 +13759,10 @@
       </c>
       <c r="F134" s="12"/>
       <c r="G134" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I134" s="14" t="s">
         <v>54</v>
@@ -13832,7 +13793,7 @@
       <c r="W134" s="12"/>
       <c r="X134" s="9"/>
       <c r="Y134" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Z134" s="12"/>
       <c r="AA134" s="9"/>
@@ -13850,9 +13811,7 @@
       <c r="AG134" s="9"/>
       <c r="AH134" s="9"/>
       <c r="AI134" s="9"/>
-      <c r="AJ134" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ134" s="37"/>
       <c r="AK134" s="9"/>
       <c r="AL134" s="9"/>
       <c r="AM134" s="12" t="n">
@@ -13863,7 +13822,7 @@
       </c>
       <c r="AO134" s="12"/>
       <c r="AP134" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AQ134" s="12"/>
     </row>
@@ -13885,10 +13844,10 @@
       </c>
       <c r="F135" s="12"/>
       <c r="G135" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I135" s="14" t="s">
         <v>54</v>
@@ -13919,7 +13878,7 @@
       <c r="W135" s="12"/>
       <c r="X135" s="9"/>
       <c r="Y135" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Z135" s="12"/>
       <c r="AA135" s="9"/>
@@ -13937,9 +13896,7 @@
       <c r="AG135" s="9"/>
       <c r="AH135" s="9"/>
       <c r="AI135" s="9"/>
-      <c r="AJ135" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ135" s="37"/>
       <c r="AK135" s="9"/>
       <c r="AL135" s="9"/>
       <c r="AM135" s="12" t="n">
@@ -13950,7 +13907,7 @@
       </c>
       <c r="AO135" s="12"/>
       <c r="AP135" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AQ135" s="12"/>
     </row>
@@ -13972,10 +13929,10 @@
       </c>
       <c r="F136" s="12"/>
       <c r="G136" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I136" s="14" t="s">
         <v>54</v>
@@ -14006,7 +13963,7 @@
       <c r="W136" s="12"/>
       <c r="X136" s="9"/>
       <c r="Y136" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Z136" s="12"/>
       <c r="AA136" s="9"/>
@@ -14024,9 +13981,7 @@
       <c r="AG136" s="9"/>
       <c r="AH136" s="9"/>
       <c r="AI136" s="9"/>
-      <c r="AJ136" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ136" s="37"/>
       <c r="AK136" s="9"/>
       <c r="AL136" s="9"/>
       <c r="AM136" s="12" t="n">
@@ -14037,7 +13992,7 @@
       </c>
       <c r="AO136" s="12"/>
       <c r="AP136" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AQ136" s="12"/>
     </row>
@@ -14059,10 +14014,10 @@
       </c>
       <c r="F137" s="12"/>
       <c r="G137" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I137" s="14" t="s">
         <v>54</v>
@@ -14093,7 +14048,7 @@
       <c r="W137" s="12"/>
       <c r="X137" s="9"/>
       <c r="Y137" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Z137" s="12"/>
       <c r="AA137" s="9"/>
@@ -14111,9 +14066,7 @@
       <c r="AG137" s="9"/>
       <c r="AH137" s="9"/>
       <c r="AI137" s="9"/>
-      <c r="AJ137" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ137" s="37"/>
       <c r="AK137" s="9"/>
       <c r="AL137" s="9"/>
       <c r="AM137" s="12" t="n">
@@ -14124,7 +14077,7 @@
       </c>
       <c r="AO137" s="12"/>
       <c r="AP137" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AQ137" s="12"/>
     </row>
@@ -14146,10 +14099,10 @@
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I138" s="14" t="s">
         <v>54</v>
@@ -14180,7 +14133,7 @@
       <c r="W138" s="12"/>
       <c r="X138" s="9"/>
       <c r="Y138" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Z138" s="12"/>
       <c r="AA138" s="9"/>
@@ -14198,9 +14151,7 @@
       <c r="AG138" s="9"/>
       <c r="AH138" s="9"/>
       <c r="AI138" s="9"/>
-      <c r="AJ138" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ138" s="37"/>
       <c r="AK138" s="9"/>
       <c r="AL138" s="9"/>
       <c r="AM138" s="12" t="n">
@@ -14211,7 +14162,7 @@
       </c>
       <c r="AO138" s="12"/>
       <c r="AP138" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AQ138" s="12"/>
     </row>
@@ -14233,10 +14184,10 @@
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I139" s="14" t="s">
         <v>54</v>
@@ -14267,7 +14218,7 @@
       <c r="W139" s="12"/>
       <c r="X139" s="9"/>
       <c r="Y139" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Z139" s="12"/>
       <c r="AA139" s="9"/>
@@ -14285,9 +14236,7 @@
       <c r="AG139" s="9"/>
       <c r="AH139" s="9"/>
       <c r="AI139" s="9"/>
-      <c r="AJ139" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ139" s="37"/>
       <c r="AK139" s="9"/>
       <c r="AL139" s="9"/>
       <c r="AM139" s="12" t="n">
@@ -14298,7 +14247,7 @@
       </c>
       <c r="AO139" s="12"/>
       <c r="AP139" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AQ139" s="12"/>
     </row>
@@ -14320,10 +14269,10 @@
       </c>
       <c r="F140" s="12"/>
       <c r="G140" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I140" s="14" t="s">
         <v>54</v>
@@ -14354,7 +14303,7 @@
       <c r="W140" s="12"/>
       <c r="X140" s="9"/>
       <c r="Y140" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Z140" s="12"/>
       <c r="AA140" s="9"/>
@@ -14372,9 +14321,7 @@
       <c r="AG140" s="9"/>
       <c r="AH140" s="9"/>
       <c r="AI140" s="9"/>
-      <c r="AJ140" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ140" s="37"/>
       <c r="AK140" s="9"/>
       <c r="AL140" s="9"/>
       <c r="AM140" s="12" t="n">
@@ -14385,7 +14332,7 @@
       </c>
       <c r="AO140" s="12"/>
       <c r="AP140" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AQ140" s="12"/>
     </row>
@@ -14407,10 +14354,10 @@
       </c>
       <c r="F141" s="12"/>
       <c r="G141" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I141" s="14" t="s">
         <v>54</v>
@@ -14441,7 +14388,7 @@
       <c r="W141" s="12"/>
       <c r="X141" s="9"/>
       <c r="Y141" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Z141" s="12"/>
       <c r="AA141" s="9"/>
@@ -14459,9 +14406,7 @@
       <c r="AG141" s="9"/>
       <c r="AH141" s="9"/>
       <c r="AI141" s="9"/>
-      <c r="AJ141" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ141" s="37"/>
       <c r="AK141" s="9"/>
       <c r="AL141" s="9"/>
       <c r="AM141" s="12" t="n">
@@ -14472,7 +14417,7 @@
       </c>
       <c r="AO141" s="12"/>
       <c r="AP141" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AQ141" s="12"/>
     </row>
@@ -14494,10 +14439,10 @@
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I142" s="14" t="s">
         <v>54</v>
@@ -14528,7 +14473,7 @@
       <c r="W142" s="12"/>
       <c r="X142" s="9"/>
       <c r="Y142" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Z142" s="12"/>
       <c r="AA142" s="9"/>
@@ -14546,9 +14491,7 @@
       <c r="AG142" s="9"/>
       <c r="AH142" s="9"/>
       <c r="AI142" s="9"/>
-      <c r="AJ142" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ142" s="37"/>
       <c r="AK142" s="9"/>
       <c r="AL142" s="9"/>
       <c r="AM142" s="12" t="n">
@@ -14559,7 +14502,7 @@
       </c>
       <c r="AO142" s="12"/>
       <c r="AP142" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AQ142" s="12"/>
     </row>
@@ -14581,10 +14524,10 @@
       </c>
       <c r="F143" s="12"/>
       <c r="G143" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I143" s="14" t="s">
         <v>54</v>
@@ -14615,7 +14558,7 @@
       <c r="W143" s="12"/>
       <c r="X143" s="9"/>
       <c r="Y143" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Z143" s="12"/>
       <c r="AA143" s="9"/>
@@ -14633,9 +14576,7 @@
       <c r="AG143" s="9"/>
       <c r="AH143" s="9"/>
       <c r="AI143" s="9"/>
-      <c r="AJ143" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ143" s="37"/>
       <c r="AK143" s="9"/>
       <c r="AL143" s="9"/>
       <c r="AM143" s="12" t="n">
@@ -14646,7 +14587,7 @@
       </c>
       <c r="AO143" s="12"/>
       <c r="AP143" s="33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AQ143" s="12"/>
     </row>
@@ -14668,10 +14609,10 @@
       </c>
       <c r="F144" s="12"/>
       <c r="G144" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>256</v>
@@ -14696,7 +14637,7 @@
       <c r="W144" s="12"/>
       <c r="X144" s="9"/>
       <c r="Y144" s="37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Z144" s="12"/>
       <c r="AA144" s="9"/>
@@ -14706,10 +14647,10 @@
         <v>50</v>
       </c>
       <c r="AE144" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF144" s="17" t="n">
-        <v>0.25</v>
+        <v>363</v>
+      </c>
+      <c r="AF144" s="44" t="n">
+        <v>0.5</v>
       </c>
       <c r="AG144" s="9" t="n">
         <v>0.8</v>
@@ -14717,12 +14658,8 @@
       <c r="AH144" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AI144" s="37" t="s">
-        <v>369</v>
-      </c>
-      <c r="AJ144" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AI144" s="37"/>
+      <c r="AJ144" s="37"/>
       <c r="AK144" s="9"/>
       <c r="AL144" s="9"/>
       <c r="AM144" s="12" t="n">
@@ -14732,7 +14669,7 @@
         <v>142</v>
       </c>
       <c r="AO144" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AP144" s="33" t="s">
         <v>361</v>
@@ -14757,10 +14694,10 @@
       </c>
       <c r="F145" s="12"/>
       <c r="G145" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I145" s="14" t="s">
         <v>54</v>
@@ -14791,7 +14728,7 @@
       <c r="W145" s="12"/>
       <c r="X145" s="9"/>
       <c r="Y145" s="37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Z145" s="12"/>
       <c r="AA145" s="9"/>
@@ -14809,9 +14746,7 @@
       <c r="AG145" s="9"/>
       <c r="AH145" s="9"/>
       <c r="AI145" s="9"/>
-      <c r="AJ145" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ145" s="37"/>
       <c r="AK145" s="9"/>
       <c r="AL145" s="9"/>
       <c r="AM145" s="12" t="n">
@@ -14822,7 +14757,7 @@
       </c>
       <c r="AO145" s="12"/>
       <c r="AP145" s="33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AQ145" s="12"/>
     </row>
@@ -14844,10 +14779,10 @@
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I146" s="14" t="s">
         <v>54</v>
@@ -14878,7 +14813,7 @@
       <c r="W146" s="12"/>
       <c r="X146" s="9"/>
       <c r="Y146" s="37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Z146" s="12"/>
       <c r="AA146" s="9"/>
@@ -14896,9 +14831,7 @@
       <c r="AG146" s="9"/>
       <c r="AH146" s="9"/>
       <c r="AI146" s="9"/>
-      <c r="AJ146" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ146" s="37"/>
       <c r="AK146" s="9"/>
       <c r="AL146" s="9"/>
       <c r="AM146" s="12" t="n">
@@ -14909,7 +14842,7 @@
       </c>
       <c r="AO146" s="12"/>
       <c r="AP146" s="33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AQ146" s="12"/>
     </row>
@@ -14931,10 +14864,10 @@
       </c>
       <c r="F147" s="12"/>
       <c r="G147" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I147" s="14" t="s">
         <v>54</v>
@@ -14965,7 +14898,7 @@
       <c r="W147" s="12"/>
       <c r="X147" s="9"/>
       <c r="Y147" s="37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Z147" s="12"/>
       <c r="AA147" s="9"/>
@@ -14983,9 +14916,7 @@
       <c r="AG147" s="9"/>
       <c r="AH147" s="9"/>
       <c r="AI147" s="9"/>
-      <c r="AJ147" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ147" s="37"/>
       <c r="AK147" s="9"/>
       <c r="AL147" s="9"/>
       <c r="AM147" s="12" t="n">
@@ -14996,7 +14927,7 @@
       </c>
       <c r="AO147" s="12"/>
       <c r="AP147" s="33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AQ147" s="12"/>
     </row>
@@ -15018,10 +14949,10 @@
       </c>
       <c r="F148" s="12"/>
       <c r="G148" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I148" s="14" t="s">
         <v>54</v>
@@ -15052,7 +14983,7 @@
       <c r="W148" s="12"/>
       <c r="X148" s="9"/>
       <c r="Y148" s="37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Z148" s="12"/>
       <c r="AA148" s="9"/>
@@ -15070,9 +15001,7 @@
       <c r="AG148" s="9"/>
       <c r="AH148" s="9"/>
       <c r="AI148" s="9"/>
-      <c r="AJ148" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ148" s="37"/>
       <c r="AK148" s="9"/>
       <c r="AL148" s="9"/>
       <c r="AM148" s="12" t="n">
@@ -15083,7 +15012,7 @@
       </c>
       <c r="AO148" s="12"/>
       <c r="AP148" s="33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AQ148" s="12"/>
     </row>
@@ -15105,10 +15034,10 @@
       </c>
       <c r="F149" s="12"/>
       <c r="G149" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I149" s="14" t="s">
         <v>54</v>
@@ -15139,7 +15068,7 @@
       <c r="W149" s="12"/>
       <c r="X149" s="9"/>
       <c r="Y149" s="37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Z149" s="12"/>
       <c r="AA149" s="9"/>
@@ -15157,9 +15086,7 @@
       <c r="AG149" s="9"/>
       <c r="AH149" s="9"/>
       <c r="AI149" s="9"/>
-      <c r="AJ149" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ149" s="37"/>
       <c r="AK149" s="9"/>
       <c r="AL149" s="9"/>
       <c r="AM149" s="12" t="n">
@@ -15170,7 +15097,7 @@
       </c>
       <c r="AO149" s="12"/>
       <c r="AP149" s="33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AQ149" s="12"/>
     </row>
@@ -15192,10 +15119,10 @@
       </c>
       <c r="F150" s="12"/>
       <c r="G150" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I150" s="14" t="s">
         <v>54</v>
@@ -15207,10 +15134,10 @@
       <c r="L150" s="9"/>
       <c r="M150" s="9"/>
       <c r="N150" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="O150" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P150" s="27"/>
       <c r="Q150" s="27"/>
@@ -15226,7 +15153,7 @@
       <c r="W150" s="12"/>
       <c r="X150" s="9"/>
       <c r="Y150" s="37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Z150" s="12"/>
       <c r="AA150" s="9"/>
@@ -15244,9 +15171,7 @@
       <c r="AG150" s="9"/>
       <c r="AH150" s="9"/>
       <c r="AI150" s="9"/>
-      <c r="AJ150" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ150" s="37"/>
       <c r="AK150" s="9"/>
       <c r="AL150" s="9"/>
       <c r="AM150" s="12" t="n">
@@ -15257,7 +15182,7 @@
       </c>
       <c r="AO150" s="12"/>
       <c r="AP150" s="33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AQ150" s="12"/>
     </row>
@@ -15279,10 +15204,10 @@
       </c>
       <c r="F151" s="12"/>
       <c r="G151" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I151" s="14" t="s">
         <v>54</v>
@@ -15294,10 +15219,10 @@
       <c r="L151" s="9"/>
       <c r="M151" s="9"/>
       <c r="N151" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="O151" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P151" s="27"/>
       <c r="Q151" s="27"/>
@@ -15313,7 +15238,7 @@
       <c r="W151" s="12"/>
       <c r="X151" s="9"/>
       <c r="Y151" s="37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Z151" s="12"/>
       <c r="AA151" s="9"/>
@@ -15331,9 +15256,7 @@
       <c r="AG151" s="9"/>
       <c r="AH151" s="9"/>
       <c r="AI151" s="9"/>
-      <c r="AJ151" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ151" s="37"/>
       <c r="AK151" s="9"/>
       <c r="AL151" s="9"/>
       <c r="AM151" s="12" t="n">
@@ -15344,7 +15267,7 @@
       </c>
       <c r="AO151" s="12"/>
       <c r="AP151" s="33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AQ151" s="12"/>
     </row>
@@ -15366,10 +15289,10 @@
       </c>
       <c r="F152" s="12"/>
       <c r="G152" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I152" s="14" t="s">
         <v>54</v>
@@ -15381,10 +15304,10 @@
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
       <c r="N152" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O152" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P152" s="27"/>
       <c r="Q152" s="27"/>
@@ -15400,7 +15323,7 @@
       <c r="W152" s="12"/>
       <c r="X152" s="9"/>
       <c r="Y152" s="37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Z152" s="12"/>
       <c r="AA152" s="9"/>
@@ -15418,9 +15341,7 @@
       <c r="AG152" s="9"/>
       <c r="AH152" s="9"/>
       <c r="AI152" s="9"/>
-      <c r="AJ152" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ152" s="37"/>
       <c r="AK152" s="9"/>
       <c r="AL152" s="9"/>
       <c r="AM152" s="12" t="n">
@@ -15431,7 +15352,7 @@
       </c>
       <c r="AO152" s="12"/>
       <c r="AP152" s="33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AQ152" s="12"/>
     </row>
@@ -15453,10 +15374,10 @@
       </c>
       <c r="F153" s="12"/>
       <c r="G153" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I153" s="14" t="s">
         <v>54</v>
@@ -15487,7 +15408,7 @@
       <c r="W153" s="12"/>
       <c r="X153" s="9"/>
       <c r="Y153" s="37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Z153" s="12"/>
       <c r="AA153" s="9"/>
@@ -15505,9 +15426,7 @@
       <c r="AG153" s="9"/>
       <c r="AH153" s="9"/>
       <c r="AI153" s="9"/>
-      <c r="AJ153" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ153" s="37"/>
       <c r="AK153" s="9"/>
       <c r="AL153" s="9"/>
       <c r="AM153" s="12" t="n">
@@ -15518,7 +15437,7 @@
       </c>
       <c r="AO153" s="12"/>
       <c r="AP153" s="33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AQ153" s="12"/>
     </row>
@@ -15540,10 +15459,10 @@
       </c>
       <c r="F154" s="12"/>
       <c r="G154" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I154" s="14" t="s">
         <v>54</v>
@@ -15555,10 +15474,10 @@
       <c r="L154" s="9"/>
       <c r="M154" s="9"/>
       <c r="N154" s="12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O154" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="P154" s="27"/>
       <c r="Q154" s="27"/>
@@ -15574,7 +15493,7 @@
       <c r="W154" s="12"/>
       <c r="X154" s="9"/>
       <c r="Y154" s="37" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Z154" s="12"/>
       <c r="AA154" s="9"/>
@@ -15592,9 +15511,7 @@
       <c r="AG154" s="9"/>
       <c r="AH154" s="9"/>
       <c r="AI154" s="9"/>
-      <c r="AJ154" s="37" t="s">
-        <v>370</v>
-      </c>
+      <c r="AJ154" s="37"/>
       <c r="AK154" s="9"/>
       <c r="AL154" s="9"/>
       <c r="AM154" s="12" t="n">
@@ -15605,7 +15522,7 @@
       </c>
       <c r="AO154" s="12"/>
       <c r="AP154" s="33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AQ154" s="12"/>
     </row>
@@ -15627,13 +15544,13 @@
       </c>
       <c r="F155" s="12"/>
       <c r="G155" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="H155" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="I155" s="14" t="s">
         <v>463</v>
-      </c>
-      <c r="H155" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="I155" s="14" t="s">
-        <v>465</v>
       </c>
       <c r="J155" s="14"/>
       <c r="K155" s="9"/>
@@ -15703,67 +15620,67 @@
         <v>44</v>
       </c>
       <c r="D156" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="E156" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="F156" s="46" t="s">
         <v>466</v>
-      </c>
-      <c r="E156" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="F156" s="45" t="s">
-        <v>468</v>
       </c>
       <c r="G156" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="H156" s="46" t="s">
+      <c r="H156" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="I156" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="J156" s="48" t="s">
         <v>469</v>
       </c>
-      <c r="I156" s="47" t="s">
-        <v>470</v>
-      </c>
-      <c r="J156" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="K156" s="47"/>
-      <c r="L156" s="47"/>
+      <c r="K156" s="48"/>
+      <c r="L156" s="48"/>
       <c r="M156" s="21"/>
       <c r="N156" s="21"/>
-      <c r="O156" s="47"/>
-      <c r="P156" s="47"/>
-      <c r="Q156" s="47"/>
-      <c r="R156" s="47"/>
-      <c r="S156" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="T156" s="47"/>
-      <c r="U156" s="47"/>
-      <c r="V156" s="47"/>
-      <c r="W156" s="47"/>
-      <c r="X156" s="47"/>
-      <c r="Y156" s="47"/>
-      <c r="Z156" s="47"/>
-      <c r="AA156" s="47"/>
-      <c r="AB156" s="47"/>
-      <c r="AC156" s="47"/>
-      <c r="AD156" s="47"/>
-      <c r="AE156" s="47"/>
-      <c r="AF156" s="48" t="n">
+      <c r="O156" s="48"/>
+      <c r="P156" s="48"/>
+      <c r="Q156" s="48"/>
+      <c r="R156" s="48"/>
+      <c r="S156" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="T156" s="48"/>
+      <c r="U156" s="48"/>
+      <c r="V156" s="48"/>
+      <c r="W156" s="48"/>
+      <c r="X156" s="48"/>
+      <c r="Y156" s="48"/>
+      <c r="Z156" s="48"/>
+      <c r="AA156" s="48"/>
+      <c r="AB156" s="48"/>
+      <c r="AC156" s="48"/>
+      <c r="AD156" s="48"/>
+      <c r="AE156" s="48"/>
+      <c r="AF156" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="AG156" s="47"/>
-      <c r="AH156" s="47"/>
-      <c r="AI156" s="47"/>
-      <c r="AJ156" s="47"/>
-      <c r="AK156" s="47"/>
-      <c r="AL156" s="47"/>
-      <c r="AM156" s="47"/>
+      <c r="AG156" s="48"/>
+      <c r="AH156" s="48"/>
+      <c r="AI156" s="48"/>
+      <c r="AJ156" s="48"/>
+      <c r="AK156" s="48"/>
+      <c r="AL156" s="48"/>
+      <c r="AM156" s="48"/>
       <c r="AN156" s="12" t="n">
         <v>154</v>
       </c>
-      <c r="AO156" s="47" t="n">
+      <c r="AO156" s="48" t="n">
         <v>101</v>
       </c>
-      <c r="AP156" s="47"/>
-      <c r="AQ156" s="47"/>
+      <c r="AP156" s="48"/>
+      <c r="AQ156" s="48"/>
     </row>
     <row r="157" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="37" t="n">
@@ -15776,65 +15693,65 @@
         <v>44</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E157" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="E157" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="F157" s="46" t="s">
+        <v>472</v>
+      </c>
+      <c r="G157" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="H157" s="47"/>
+      <c r="I157" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="F157" s="45" t="s">
+      <c r="J157" s="48" t="s">
         <v>474</v>
       </c>
-      <c r="G157" s="45" t="s">
-        <v>356</v>
-      </c>
-      <c r="H157" s="46"/>
-      <c r="I157" s="47" t="s">
-        <v>475</v>
-      </c>
-      <c r="J157" s="47" t="s">
-        <v>476</v>
-      </c>
-      <c r="K157" s="47"/>
-      <c r="L157" s="47"/>
+      <c r="K157" s="48"/>
+      <c r="L157" s="48"/>
       <c r="M157" s="21"/>
       <c r="N157" s="21"/>
-      <c r="O157" s="47"/>
-      <c r="P157" s="47"/>
-      <c r="Q157" s="47"/>
-      <c r="R157" s="47"/>
-      <c r="S157" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="T157" s="47"/>
-      <c r="U157" s="47"/>
-      <c r="V157" s="47"/>
-      <c r="W157" s="47"/>
-      <c r="X157" s="47"/>
-      <c r="Y157" s="47"/>
-      <c r="Z157" s="47"/>
-      <c r="AA157" s="47"/>
-      <c r="AB157" s="47"/>
-      <c r="AC157" s="47"/>
-      <c r="AD157" s="47"/>
-      <c r="AE157" s="47"/>
-      <c r="AF157" s="48" t="n">
+      <c r="O157" s="48"/>
+      <c r="P157" s="48"/>
+      <c r="Q157" s="48"/>
+      <c r="R157" s="48"/>
+      <c r="S157" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="T157" s="48"/>
+      <c r="U157" s="48"/>
+      <c r="V157" s="48"/>
+      <c r="W157" s="48"/>
+      <c r="X157" s="48"/>
+      <c r="Y157" s="48"/>
+      <c r="Z157" s="48"/>
+      <c r="AA157" s="48"/>
+      <c r="AB157" s="48"/>
+      <c r="AC157" s="48"/>
+      <c r="AD157" s="48"/>
+      <c r="AE157" s="48"/>
+      <c r="AF157" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="AG157" s="47"/>
-      <c r="AH157" s="47"/>
-      <c r="AI157" s="47"/>
-      <c r="AJ157" s="47"/>
-      <c r="AK157" s="47"/>
-      <c r="AL157" s="47"/>
-      <c r="AM157" s="47"/>
+      <c r="AG157" s="48"/>
+      <c r="AH157" s="48"/>
+      <c r="AI157" s="48"/>
+      <c r="AJ157" s="48"/>
+      <c r="AK157" s="48"/>
+      <c r="AL157" s="48"/>
+      <c r="AM157" s="48"/>
       <c r="AN157" s="12" t="n">
         <v>155</v>
       </c>
       <c r="AO157" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="AP157" s="47"/>
-      <c r="AQ157" s="47"/>
+        <v>475</v>
+      </c>
+      <c r="AP157" s="48"/>
+      <c r="AQ157" s="48"/>
     </row>
     <row r="158" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="37" t="n">
@@ -15847,67 +15764,67 @@
         <v>44</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E158" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="E158" s="46" t="s">
+        <v>476</v>
+      </c>
+      <c r="F158" s="46" t="s">
+        <v>477</v>
+      </c>
+      <c r="G158" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="H158" s="47" t="s">
         <v>478</v>
       </c>
-      <c r="F158" s="45" t="s">
-        <v>479</v>
-      </c>
-      <c r="G158" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="H158" s="46" t="s">
-        <v>480</v>
-      </c>
-      <c r="I158" s="47" t="s">
-        <v>470</v>
-      </c>
-      <c r="J158" s="47" t="s">
-        <v>476</v>
-      </c>
-      <c r="K158" s="47"/>
-      <c r="L158" s="47"/>
+      <c r="I158" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="J158" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="K158" s="48"/>
+      <c r="L158" s="48"/>
       <c r="M158" s="21"/>
       <c r="N158" s="21"/>
-      <c r="O158" s="47"/>
-      <c r="P158" s="47"/>
-      <c r="Q158" s="47"/>
-      <c r="R158" s="47"/>
-      <c r="S158" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="T158" s="47"/>
-      <c r="U158" s="47"/>
-      <c r="V158" s="47"/>
-      <c r="W158" s="47"/>
-      <c r="X158" s="47"/>
-      <c r="Y158" s="47"/>
-      <c r="Z158" s="47"/>
-      <c r="AA158" s="47"/>
-      <c r="AB158" s="47"/>
-      <c r="AC158" s="47"/>
-      <c r="AD158" s="47"/>
-      <c r="AE158" s="47"/>
-      <c r="AF158" s="48" t="n">
+      <c r="O158" s="48"/>
+      <c r="P158" s="48"/>
+      <c r="Q158" s="48"/>
+      <c r="R158" s="48"/>
+      <c r="S158" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="T158" s="48"/>
+      <c r="U158" s="48"/>
+      <c r="V158" s="48"/>
+      <c r="W158" s="48"/>
+      <c r="X158" s="48"/>
+      <c r="Y158" s="48"/>
+      <c r="Z158" s="48"/>
+      <c r="AA158" s="48"/>
+      <c r="AB158" s="48"/>
+      <c r="AC158" s="48"/>
+      <c r="AD158" s="48"/>
+      <c r="AE158" s="48"/>
+      <c r="AF158" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="AG158" s="47"/>
-      <c r="AH158" s="47"/>
-      <c r="AI158" s="47"/>
-      <c r="AJ158" s="47"/>
-      <c r="AK158" s="47"/>
-      <c r="AL158" s="47"/>
-      <c r="AM158" s="47"/>
+      <c r="AG158" s="48"/>
+      <c r="AH158" s="48"/>
+      <c r="AI158" s="48"/>
+      <c r="AJ158" s="48"/>
+      <c r="AK158" s="48"/>
+      <c r="AL158" s="48"/>
+      <c r="AM158" s="48"/>
       <c r="AN158" s="12" t="n">
         <v>156</v>
       </c>
-      <c r="AO158" s="47" t="n">
+      <c r="AO158" s="48" t="n">
         <v>105</v>
       </c>
-      <c r="AP158" s="47"/>
-      <c r="AQ158" s="47"/>
+      <c r="AP158" s="48"/>
+      <c r="AQ158" s="48"/>
     </row>
     <row r="159" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="37" t="n">
@@ -15920,69 +15837,69 @@
         <v>44</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E159" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="E159" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="F159" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="G159" s="46" t="s">
         <v>481</v>
       </c>
-      <c r="F159" s="45" t="s">
+      <c r="H159" s="48"/>
+      <c r="I159" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="G159" s="45" t="s">
-        <v>483</v>
-      </c>
-      <c r="H159" s="47"/>
-      <c r="I159" s="21" t="s">
-        <v>484</v>
-      </c>
       <c r="J159" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="K159" s="47"/>
-      <c r="L159" s="47"/>
+        <v>474</v>
+      </c>
+      <c r="K159" s="48"/>
+      <c r="L159" s="48"/>
       <c r="M159" s="21"/>
       <c r="N159" s="21"/>
-      <c r="O159" s="47" t="s">
+      <c r="O159" s="48" t="s">
+        <v>483</v>
+      </c>
+      <c r="P159" s="48"/>
+      <c r="Q159" s="48"/>
+      <c r="R159" s="48"/>
+      <c r="S159" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="T159" s="48"/>
+      <c r="U159" s="48"/>
+      <c r="V159" s="48"/>
+      <c r="W159" s="48"/>
+      <c r="X159" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y159" s="51" t="s">
         <v>485</v>
       </c>
-      <c r="P159" s="47"/>
-      <c r="Q159" s="47"/>
-      <c r="R159" s="47"/>
-      <c r="S159" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="T159" s="47"/>
-      <c r="U159" s="47"/>
-      <c r="V159" s="47"/>
-      <c r="W159" s="47"/>
-      <c r="X159" s="49" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y159" s="50" t="s">
-        <v>487</v>
-      </c>
-      <c r="Z159" s="47"/>
-      <c r="AA159" s="47"/>
-      <c r="AB159" s="47"/>
-      <c r="AC159" s="47"/>
-      <c r="AD159" s="47"/>
-      <c r="AE159" s="47"/>
-      <c r="AF159" s="51" t="n">
+      <c r="Z159" s="48"/>
+      <c r="AA159" s="48"/>
+      <c r="AB159" s="48"/>
+      <c r="AC159" s="48"/>
+      <c r="AD159" s="48"/>
+      <c r="AE159" s="48"/>
+      <c r="AF159" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG159" s="47"/>
-      <c r="AH159" s="47"/>
-      <c r="AI159" s="47"/>
-      <c r="AJ159" s="47"/>
-      <c r="AK159" s="47"/>
-      <c r="AL159" s="47"/>
-      <c r="AM159" s="47"/>
+      <c r="AG159" s="48"/>
+      <c r="AH159" s="48"/>
+      <c r="AI159" s="48"/>
+      <c r="AJ159" s="48"/>
+      <c r="AK159" s="48"/>
+      <c r="AL159" s="48"/>
+      <c r="AM159" s="48"/>
       <c r="AN159" s="12" t="n">
         <v>157</v>
       </c>
-      <c r="AO159" s="47"/>
-      <c r="AP159" s="47"/>
-      <c r="AQ159" s="47"/>
+      <c r="AO159" s="48"/>
+      <c r="AP159" s="48"/>
+      <c r="AQ159" s="48"/>
     </row>
     <row r="160" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="37" t="n">
@@ -15995,67 +15912,67 @@
         <v>44</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E160" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="E160" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="F160" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G160" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="F160" s="45" t="s">
+      <c r="H160" s="48"/>
+      <c r="I160" s="21" t="s">
         <v>489</v>
       </c>
-      <c r="G160" s="45" t="s">
+      <c r="J160" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="H160" s="47"/>
-      <c r="I160" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="J160" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="K160" s="47"/>
-      <c r="L160" s="47"/>
+      <c r="K160" s="48"/>
+      <c r="L160" s="48"/>
       <c r="M160" s="21"/>
       <c r="N160" s="21"/>
-      <c r="O160" s="47" t="s">
+      <c r="O160" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="P160" s="47"/>
-      <c r="Q160" s="47"/>
-      <c r="R160" s="47"/>
-      <c r="S160" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="T160" s="47"/>
-      <c r="U160" s="47"/>
-      <c r="V160" s="47"/>
-      <c r="W160" s="47"/>
-      <c r="X160" s="47"/>
+      <c r="P160" s="48"/>
+      <c r="Q160" s="48"/>
+      <c r="R160" s="48"/>
+      <c r="S160" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="T160" s="48"/>
+      <c r="U160" s="48"/>
+      <c r="V160" s="48"/>
+      <c r="W160" s="48"/>
+      <c r="X160" s="48"/>
       <c r="Y160" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="Z160" s="47"/>
-      <c r="AA160" s="47"/>
-      <c r="AB160" s="47"/>
-      <c r="AC160" s="47"/>
-      <c r="AD160" s="47"/>
-      <c r="AE160" s="47"/>
-      <c r="AF160" s="51" t="n">
+        <v>491</v>
+      </c>
+      <c r="Z160" s="48"/>
+      <c r="AA160" s="48"/>
+      <c r="AB160" s="48"/>
+      <c r="AC160" s="48"/>
+      <c r="AD160" s="48"/>
+      <c r="AE160" s="48"/>
+      <c r="AF160" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG160" s="47"/>
-      <c r="AH160" s="47"/>
-      <c r="AI160" s="47"/>
-      <c r="AJ160" s="47"/>
-      <c r="AK160" s="47"/>
-      <c r="AL160" s="47"/>
-      <c r="AM160" s="47"/>
+      <c r="AG160" s="48"/>
+      <c r="AH160" s="48"/>
+      <c r="AI160" s="48"/>
+      <c r="AJ160" s="48"/>
+      <c r="AK160" s="48"/>
+      <c r="AL160" s="48"/>
+      <c r="AM160" s="48"/>
       <c r="AN160" s="12" t="n">
         <v>158</v>
       </c>
-      <c r="AO160" s="47"/>
-      <c r="AP160" s="47"/>
-      <c r="AQ160" s="47"/>
+      <c r="AO160" s="48"/>
+      <c r="AP160" s="48"/>
+      <c r="AQ160" s="48"/>
     </row>
     <row r="161" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="37" t="n">
@@ -16068,67 +15985,67 @@
         <v>44</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E161" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="E161" s="46" t="s">
+        <v>492</v>
+      </c>
+      <c r="F161" s="46" t="s">
+        <v>493</v>
+      </c>
+      <c r="G161" s="46" t="s">
         <v>494</v>
       </c>
-      <c r="F161" s="45" t="s">
-        <v>495</v>
-      </c>
-      <c r="G161" s="45" t="s">
-        <v>496</v>
-      </c>
-      <c r="H161" s="47"/>
+      <c r="H161" s="48"/>
       <c r="I161" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J161" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="K161" s="47"/>
-      <c r="L161" s="47"/>
+        <v>490</v>
+      </c>
+      <c r="K161" s="48"/>
+      <c r="L161" s="48"/>
       <c r="M161" s="21"/>
       <c r="N161" s="21"/>
-      <c r="O161" s="47" t="s">
-        <v>497</v>
-      </c>
-      <c r="P161" s="47"/>
-      <c r="Q161" s="47"/>
-      <c r="R161" s="47"/>
-      <c r="S161" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="T161" s="47"/>
-      <c r="U161" s="47"/>
-      <c r="V161" s="47"/>
-      <c r="W161" s="47"/>
-      <c r="X161" s="47"/>
+      <c r="O161" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="P161" s="48"/>
+      <c r="Q161" s="48"/>
+      <c r="R161" s="48"/>
+      <c r="S161" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="T161" s="48"/>
+      <c r="U161" s="48"/>
+      <c r="V161" s="48"/>
+      <c r="W161" s="48"/>
+      <c r="X161" s="48"/>
       <c r="Y161" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="Z161" s="47"/>
-      <c r="AA161" s="47"/>
-      <c r="AB161" s="47"/>
-      <c r="AC161" s="47"/>
-      <c r="AD161" s="47"/>
-      <c r="AE161" s="47"/>
-      <c r="AF161" s="51" t="n">
+        <v>491</v>
+      </c>
+      <c r="Z161" s="48"/>
+      <c r="AA161" s="48"/>
+      <c r="AB161" s="48"/>
+      <c r="AC161" s="48"/>
+      <c r="AD161" s="48"/>
+      <c r="AE161" s="48"/>
+      <c r="AF161" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG161" s="47"/>
-      <c r="AH161" s="47"/>
-      <c r="AI161" s="47"/>
-      <c r="AJ161" s="47"/>
-      <c r="AK161" s="47"/>
-      <c r="AL161" s="47"/>
-      <c r="AM161" s="47"/>
+      <c r="AG161" s="48"/>
+      <c r="AH161" s="48"/>
+      <c r="AI161" s="48"/>
+      <c r="AJ161" s="48"/>
+      <c r="AK161" s="48"/>
+      <c r="AL161" s="48"/>
+      <c r="AM161" s="48"/>
       <c r="AN161" s="12" t="n">
         <v>159</v>
       </c>
-      <c r="AO161" s="47"/>
-      <c r="AP161" s="47"/>
-      <c r="AQ161" s="47"/>
+      <c r="AO161" s="48"/>
+      <c r="AP161" s="48"/>
+      <c r="AQ161" s="48"/>
     </row>
     <row r="162" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="37" t="n">
@@ -16141,67 +16058,67 @@
         <v>44</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E162" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="E162" s="46" t="s">
+        <v>496</v>
+      </c>
+      <c r="F162" s="46" t="s">
+        <v>497</v>
+      </c>
+      <c r="G162" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="F162" s="45" t="s">
-        <v>499</v>
-      </c>
-      <c r="G162" s="45" t="s">
-        <v>500</v>
-      </c>
-      <c r="H162" s="47"/>
+      <c r="H162" s="48"/>
       <c r="I162" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J162" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="K162" s="47"/>
-      <c r="L162" s="47"/>
+        <v>490</v>
+      </c>
+      <c r="K162" s="48"/>
+      <c r="L162" s="48"/>
       <c r="M162" s="21"/>
       <c r="N162" s="21"/>
-      <c r="O162" s="47" t="s">
-        <v>501</v>
-      </c>
-      <c r="P162" s="47"/>
-      <c r="Q162" s="47"/>
-      <c r="R162" s="47"/>
-      <c r="S162" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="T162" s="47"/>
-      <c r="U162" s="47"/>
-      <c r="V162" s="47"/>
-      <c r="W162" s="47"/>
-      <c r="X162" s="47"/>
+      <c r="O162" s="48" t="s">
+        <v>499</v>
+      </c>
+      <c r="P162" s="48"/>
+      <c r="Q162" s="48"/>
+      <c r="R162" s="48"/>
+      <c r="S162" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="T162" s="48"/>
+      <c r="U162" s="48"/>
+      <c r="V162" s="48"/>
+      <c r="W162" s="48"/>
+      <c r="X162" s="48"/>
       <c r="Y162" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="Z162" s="47"/>
-      <c r="AA162" s="47"/>
-      <c r="AB162" s="47"/>
-      <c r="AC162" s="47"/>
-      <c r="AD162" s="47"/>
-      <c r="AE162" s="47"/>
-      <c r="AF162" s="51" t="n">
+        <v>491</v>
+      </c>
+      <c r="Z162" s="48"/>
+      <c r="AA162" s="48"/>
+      <c r="AB162" s="48"/>
+      <c r="AC162" s="48"/>
+      <c r="AD162" s="48"/>
+      <c r="AE162" s="48"/>
+      <c r="AF162" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG162" s="47"/>
-      <c r="AH162" s="47"/>
-      <c r="AI162" s="47"/>
-      <c r="AJ162" s="47"/>
-      <c r="AK162" s="47"/>
+      <c r="AG162" s="48"/>
+      <c r="AH162" s="48"/>
+      <c r="AI162" s="48"/>
+      <c r="AJ162" s="48"/>
+      <c r="AK162" s="48"/>
       <c r="AL162" s="12"/>
-      <c r="AM162" s="47"/>
+      <c r="AM162" s="48"/>
       <c r="AN162" s="12" t="n">
         <v>160</v>
       </c>
-      <c r="AO162" s="47"/>
-      <c r="AP162" s="47"/>
-      <c r="AQ162" s="47"/>
+      <c r="AO162" s="48"/>
+      <c r="AP162" s="48"/>
+      <c r="AQ162" s="48"/>
     </row>
     <row r="163" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="37" t="n">
@@ -16214,71 +16131,71 @@
         <v>44</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E163" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="E163" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="F163" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="G163" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="F163" s="45" t="s">
+      <c r="H163" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="I163" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="G163" s="45" t="s">
-        <v>504</v>
-      </c>
-      <c r="H163" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="I163" s="21" t="s">
-        <v>505</v>
-      </c>
       <c r="J163" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="K163" s="47"/>
-      <c r="L163" s="47"/>
+        <v>490</v>
+      </c>
+      <c r="K163" s="48"/>
+      <c r="L163" s="48"/>
       <c r="M163" s="21"/>
       <c r="N163" s="21"/>
       <c r="O163" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="P163" s="47"/>
-      <c r="Q163" s="47"/>
-      <c r="R163" s="47"/>
-      <c r="S163" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="T163" s="47"/>
-      <c r="U163" s="47"/>
-      <c r="V163" s="47"/>
-      <c r="W163" s="47"/>
-      <c r="X163" s="47"/>
+        <v>504</v>
+      </c>
+      <c r="P163" s="48"/>
+      <c r="Q163" s="48"/>
+      <c r="R163" s="48"/>
+      <c r="S163" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="T163" s="48"/>
+      <c r="U163" s="48"/>
+      <c r="V163" s="48"/>
+      <c r="W163" s="48"/>
+      <c r="X163" s="48"/>
       <c r="Y163" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="Z163" s="47"/>
-      <c r="AA163" s="47"/>
-      <c r="AB163" s="47"/>
-      <c r="AC163" s="47"/>
-      <c r="AD163" s="47"/>
-      <c r="AE163" s="47"/>
-      <c r="AF163" s="51" t="n">
+        <v>505</v>
+      </c>
+      <c r="Z163" s="48"/>
+      <c r="AA163" s="48"/>
+      <c r="AB163" s="48"/>
+      <c r="AC163" s="48"/>
+      <c r="AD163" s="48"/>
+      <c r="AE163" s="48"/>
+      <c r="AF163" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG163" s="47"/>
-      <c r="AH163" s="47"/>
-      <c r="AI163" s="47"/>
-      <c r="AJ163" s="47"/>
-      <c r="AK163" s="47"/>
-      <c r="AL163" s="47"/>
-      <c r="AM163" s="47"/>
+      <c r="AG163" s="48"/>
+      <c r="AH163" s="48"/>
+      <c r="AI163" s="48"/>
+      <c r="AJ163" s="48"/>
+      <c r="AK163" s="48"/>
+      <c r="AL163" s="48"/>
+      <c r="AM163" s="48"/>
       <c r="AN163" s="12" t="n">
         <v>161</v>
       </c>
-      <c r="AO163" s="47" t="n">
+      <c r="AO163" s="48" t="n">
         <v>83</v>
       </c>
-      <c r="AP163" s="47"/>
-      <c r="AQ163" s="47"/>
+      <c r="AP163" s="48"/>
+      <c r="AQ163" s="48"/>
     </row>
     <row r="164" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="37" t="n">
@@ -16291,71 +16208,71 @@
         <v>44</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E164" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="E164" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="F164" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="G164" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="F164" s="45" t="s">
+      <c r="H164" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="I164" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="G164" s="45" t="s">
-        <v>504</v>
-      </c>
-      <c r="H164" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="I164" s="21" t="s">
-        <v>505</v>
-      </c>
       <c r="J164" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="K164" s="47"/>
-      <c r="L164" s="47"/>
+        <v>490</v>
+      </c>
+      <c r="K164" s="48"/>
+      <c r="L164" s="48"/>
       <c r="M164" s="21"/>
       <c r="N164" s="21"/>
       <c r="O164" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="P164" s="48"/>
+      <c r="Q164" s="48"/>
+      <c r="R164" s="48"/>
+      <c r="S164" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="T164" s="48"/>
+      <c r="U164" s="48"/>
+      <c r="V164" s="48"/>
+      <c r="W164" s="48"/>
+      <c r="X164" s="48"/>
+      <c r="Y164" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="P164" s="47"/>
-      <c r="Q164" s="47"/>
-      <c r="R164" s="47"/>
-      <c r="S164" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="T164" s="47"/>
-      <c r="U164" s="47"/>
-      <c r="V164" s="47"/>
-      <c r="W164" s="47"/>
-      <c r="X164" s="47"/>
-      <c r="Y164" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z164" s="47"/>
-      <c r="AA164" s="47"/>
-      <c r="AB164" s="47"/>
-      <c r="AC164" s="47"/>
-      <c r="AD164" s="47"/>
-      <c r="AE164" s="47"/>
-      <c r="AF164" s="51" t="n">
+      <c r="Z164" s="48"/>
+      <c r="AA164" s="48"/>
+      <c r="AB164" s="48"/>
+      <c r="AC164" s="48"/>
+      <c r="AD164" s="48"/>
+      <c r="AE164" s="48"/>
+      <c r="AF164" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG164" s="47"/>
-      <c r="AH164" s="47"/>
-      <c r="AI164" s="47"/>
-      <c r="AJ164" s="47"/>
-      <c r="AK164" s="47"/>
-      <c r="AL164" s="47"/>
-      <c r="AM164" s="47"/>
+      <c r="AG164" s="48"/>
+      <c r="AH164" s="48"/>
+      <c r="AI164" s="48"/>
+      <c r="AJ164" s="48"/>
+      <c r="AK164" s="48"/>
+      <c r="AL164" s="48"/>
+      <c r="AM164" s="48"/>
       <c r="AN164" s="12" t="n">
         <v>162</v>
       </c>
-      <c r="AO164" s="47" t="n">
+      <c r="AO164" s="48" t="n">
         <v>91</v>
       </c>
-      <c r="AP164" s="47"/>
-      <c r="AQ164" s="47"/>
+      <c r="AP164" s="48"/>
+      <c r="AQ164" s="48"/>
     </row>
     <row r="165" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="37" t="n">
@@ -16368,71 +16285,71 @@
         <v>44</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E165" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="E165" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="F165" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="G165" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="F165" s="45" t="s">
+      <c r="H165" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="I165" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="G165" s="45" t="s">
-        <v>504</v>
-      </c>
-      <c r="H165" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="I165" s="21" t="s">
-        <v>505</v>
-      </c>
       <c r="J165" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="K165" s="47"/>
-      <c r="L165" s="47"/>
+        <v>490</v>
+      </c>
+      <c r="K165" s="48"/>
+      <c r="L165" s="48"/>
       <c r="M165" s="21"/>
       <c r="N165" s="21"/>
       <c r="O165" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="P165" s="47"/>
-      <c r="Q165" s="47"/>
-      <c r="R165" s="47"/>
-      <c r="S165" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="T165" s="47"/>
-      <c r="U165" s="47"/>
-      <c r="V165" s="47"/>
-      <c r="W165" s="47"/>
-      <c r="X165" s="47"/>
+        <v>504</v>
+      </c>
+      <c r="P165" s="48"/>
+      <c r="Q165" s="48"/>
+      <c r="R165" s="48"/>
+      <c r="S165" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="T165" s="48"/>
+      <c r="U165" s="48"/>
+      <c r="V165" s="48"/>
+      <c r="W165" s="48"/>
+      <c r="X165" s="48"/>
       <c r="Y165" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z165" s="47"/>
-      <c r="AA165" s="47"/>
-      <c r="AB165" s="47"/>
-      <c r="AC165" s="47"/>
-      <c r="AD165" s="47"/>
-      <c r="AE165" s="47"/>
-      <c r="AF165" s="51" t="n">
+        <v>507</v>
+      </c>
+      <c r="Z165" s="48"/>
+      <c r="AA165" s="48"/>
+      <c r="AB165" s="48"/>
+      <c r="AC165" s="48"/>
+      <c r="AD165" s="48"/>
+      <c r="AE165" s="48"/>
+      <c r="AF165" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG165" s="47"/>
-      <c r="AH165" s="47"/>
-      <c r="AI165" s="47"/>
-      <c r="AJ165" s="47"/>
-      <c r="AK165" s="47"/>
-      <c r="AL165" s="47"/>
-      <c r="AM165" s="47"/>
+      <c r="AG165" s="48"/>
+      <c r="AH165" s="48"/>
+      <c r="AI165" s="48"/>
+      <c r="AJ165" s="48"/>
+      <c r="AK165" s="48"/>
+      <c r="AL165" s="48"/>
+      <c r="AM165" s="48"/>
       <c r="AN165" s="12" t="n">
         <v>163</v>
       </c>
-      <c r="AO165" s="47" t="n">
+      <c r="AO165" s="48" t="n">
         <v>88</v>
       </c>
-      <c r="AP165" s="47"/>
-      <c r="AQ165" s="47"/>
+      <c r="AP165" s="48"/>
+      <c r="AQ165" s="48"/>
     </row>
     <row r="166" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="37" t="n">
@@ -16445,71 +16362,71 @@
         <v>44</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E166" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="E166" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="F166" s="46" t="s">
+        <v>501</v>
+      </c>
+      <c r="G166" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="F166" s="45" t="s">
+      <c r="H166" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="I166" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="G166" s="45" t="s">
-        <v>504</v>
-      </c>
-      <c r="H166" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="I166" s="21" t="s">
-        <v>505</v>
-      </c>
       <c r="J166" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="K166" s="47"/>
-      <c r="L166" s="47"/>
+        <v>490</v>
+      </c>
+      <c r="K166" s="48"/>
+      <c r="L166" s="48"/>
       <c r="M166" s="21"/>
       <c r="N166" s="21"/>
       <c r="O166" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="P166" s="47"/>
-      <c r="Q166" s="47"/>
-      <c r="R166" s="47"/>
-      <c r="S166" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="T166" s="47"/>
-      <c r="U166" s="47"/>
-      <c r="V166" s="47"/>
-      <c r="W166" s="47"/>
-      <c r="X166" s="47"/>
+        <v>504</v>
+      </c>
+      <c r="P166" s="48"/>
+      <c r="Q166" s="48"/>
+      <c r="R166" s="48"/>
+      <c r="S166" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="T166" s="48"/>
+      <c r="U166" s="48"/>
+      <c r="V166" s="48"/>
+      <c r="W166" s="48"/>
+      <c r="X166" s="48"/>
       <c r="Y166" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="Z166" s="47"/>
-      <c r="AA166" s="47"/>
-      <c r="AB166" s="47"/>
-      <c r="AC166" s="47"/>
-      <c r="AD166" s="47"/>
-      <c r="AE166" s="47"/>
-      <c r="AF166" s="51" t="n">
+        <v>508</v>
+      </c>
+      <c r="Z166" s="48"/>
+      <c r="AA166" s="48"/>
+      <c r="AB166" s="48"/>
+      <c r="AC166" s="48"/>
+      <c r="AD166" s="48"/>
+      <c r="AE166" s="48"/>
+      <c r="AF166" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG166" s="47"/>
-      <c r="AH166" s="47"/>
-      <c r="AI166" s="47"/>
-      <c r="AJ166" s="47"/>
-      <c r="AK166" s="47"/>
-      <c r="AL166" s="47"/>
-      <c r="AM166" s="47"/>
+      <c r="AG166" s="48"/>
+      <c r="AH166" s="48"/>
+      <c r="AI166" s="48"/>
+      <c r="AJ166" s="48"/>
+      <c r="AK166" s="48"/>
+      <c r="AL166" s="48"/>
+      <c r="AM166" s="48"/>
       <c r="AN166" s="12" t="n">
         <v>164</v>
       </c>
-      <c r="AO166" s="47" t="n">
+      <c r="AO166" s="48" t="n">
         <v>96</v>
       </c>
-      <c r="AP166" s="47"/>
-      <c r="AQ166" s="47"/>
+      <c r="AP166" s="48"/>
+      <c r="AQ166" s="48"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16569,16 +16486,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>355</v>
       </c>
     </row>
@@ -16606,17 +16523,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -16643,21 +16560,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G1" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16670,7 +16587,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="0" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>10</v>
@@ -16678,180 +16595,180 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>518</v>
+        <v>515</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>516</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="H7" s="53"/>
+        <v>517</v>
+      </c>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="H8" s="53"/>
+        <v>518</v>
+      </c>
+      <c r="H8" s="54"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="53"/>
+      <c r="A10" s="54"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="53" t="s">
-        <v>518</v>
+      <c r="A11" s="54" t="s">
+        <v>516</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="E15" s="53"/>
-      <c r="H15" s="53"/>
+        <v>521</v>
+      </c>
+      <c r="E15" s="54"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="53"/>
-      <c r="H16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="53" t="s">
-        <v>518</v>
+      <c r="A18" s="54" t="s">
+        <v>516</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C18" s="53" t="s">
-        <v>518</v>
+      <c r="C18" s="54" t="s">
+        <v>516</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F19" s="0" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="54" t="s">
+        <v>524</v>
+      </c>
+      <c r="B20" s="55" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="53" t="s">
+      <c r="C20" s="54" t="s">
+        <v>524</v>
+      </c>
+      <c r="D20" s="55" t="s">
         <v>526</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>527</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>526</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="0" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="H25" s="55" t="s">
-        <v>531</v>
-      </c>
-      <c r="J25" s="53"/>
+      <c r="G25" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="J25" s="54"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="54" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="53" t="s">
-        <v>518</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>531</v>
-      </c>
-      <c r="D28" s="53" t="s">
-        <v>518</v>
+      <c r="B28" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>516</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="54" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -16878,53 +16795,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="58" t="s">
         <v>535</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="L1" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="59" t="s">
         <v>536</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="57" t="s">
-        <v>537</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="58" t="s">
-        <v>538</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU/Data/FT PoS 2018.xlsx
@@ -39,9 +39,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1222,7 +1223,7 @@
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors". Score = 0,5* score Mixed Door + 0,25 * score SSD Door* 0,25 score NCB Door</t>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors". Score =1* score Mixed Door + 0,5 * score SSD Door* 0,5 score NCB Door</t>
   </si>
   <si>
     <t xml:space="preserve">113
@@ -1857,7 +1858,7 @@
     <numFmt numFmtId="168" formatCode="D\-MMM"/>
     <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1916,13 +1917,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2068,7 +2062,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2241,15 +2235,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2285,7 +2275,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2297,15 +2287,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2394,18 +2384,18 @@
   <dimension ref="A1:AQ167"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AH117" activeCellId="0" sqref="AH117"/>
+      <selection pane="bottomLeft" activeCell="AI116" activeCellId="0" sqref="AI116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="15.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="37.5627530364372"/>
-    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="15.5668016194332"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="15.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="15.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="39.2753036437247"/>
+    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="16.2834008097166"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12107,7 +12097,7 @@
       <c r="AI114" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="AJ114" s="43" t="s">
+      <c r="AJ114" s="37" t="s">
         <v>364</v>
       </c>
       <c r="AK114" s="9"/>
@@ -12184,7 +12174,7 @@
       <c r="AE115" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AF115" s="44" t="n">
+      <c r="AF115" s="43" t="n">
         <v>1</v>
       </c>
       <c r="AG115" s="9" t="n">
@@ -13181,7 +13171,7 @@
       <c r="N127" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="O127" s="45" t="s">
+      <c r="O127" s="44" t="s">
         <v>395</v>
       </c>
       <c r="P127" s="27"/>
@@ -13629,7 +13619,7 @@
       <c r="AE132" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AF132" s="44" t="n">
+      <c r="AF132" s="43" t="n">
         <v>0.5</v>
       </c>
       <c r="AG132" s="9" t="n">
@@ -14649,7 +14639,7 @@
       <c r="AE144" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AF144" s="44" t="n">
+      <c r="AF144" s="43" t="n">
         <v>0.5</v>
       </c>
       <c r="AG144" s="9" t="n">
@@ -15622,65 +15612,65 @@
       <c r="D156" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="E156" s="46" t="s">
+      <c r="E156" s="45" t="s">
         <v>465</v>
       </c>
-      <c r="F156" s="46" t="s">
+      <c r="F156" s="45" t="s">
         <v>466</v>
       </c>
       <c r="G156" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="H156" s="47" t="s">
+      <c r="H156" s="46" t="s">
         <v>467</v>
       </c>
-      <c r="I156" s="48" t="s">
+      <c r="I156" s="47" t="s">
         <v>468</v>
       </c>
-      <c r="J156" s="48" t="s">
+      <c r="J156" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="K156" s="48"/>
-      <c r="L156" s="48"/>
+      <c r="K156" s="47"/>
+      <c r="L156" s="47"/>
       <c r="M156" s="21"/>
       <c r="N156" s="21"/>
-      <c r="O156" s="48"/>
-      <c r="P156" s="48"/>
-      <c r="Q156" s="48"/>
-      <c r="R156" s="48"/>
-      <c r="S156" s="48" t="s">
+      <c r="O156" s="47"/>
+      <c r="P156" s="47"/>
+      <c r="Q156" s="47"/>
+      <c r="R156" s="47"/>
+      <c r="S156" s="47" t="s">
         <v>470</v>
       </c>
-      <c r="T156" s="48"/>
-      <c r="U156" s="48"/>
-      <c r="V156" s="48"/>
-      <c r="W156" s="48"/>
-      <c r="X156" s="48"/>
-      <c r="Y156" s="48"/>
-      <c r="Z156" s="48"/>
-      <c r="AA156" s="48"/>
-      <c r="AB156" s="48"/>
-      <c r="AC156" s="48"/>
-      <c r="AD156" s="48"/>
-      <c r="AE156" s="48"/>
-      <c r="AF156" s="49" t="n">
+      <c r="T156" s="47"/>
+      <c r="U156" s="47"/>
+      <c r="V156" s="47"/>
+      <c r="W156" s="47"/>
+      <c r="X156" s="47"/>
+      <c r="Y156" s="47"/>
+      <c r="Z156" s="47"/>
+      <c r="AA156" s="47"/>
+      <c r="AB156" s="47"/>
+      <c r="AC156" s="47"/>
+      <c r="AD156" s="47"/>
+      <c r="AE156" s="47"/>
+      <c r="AF156" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="AG156" s="48"/>
-      <c r="AH156" s="48"/>
-      <c r="AI156" s="48"/>
-      <c r="AJ156" s="48"/>
-      <c r="AK156" s="48"/>
-      <c r="AL156" s="48"/>
-      <c r="AM156" s="48"/>
+      <c r="AG156" s="47"/>
+      <c r="AH156" s="47"/>
+      <c r="AI156" s="47"/>
+      <c r="AJ156" s="47"/>
+      <c r="AK156" s="47"/>
+      <c r="AL156" s="47"/>
+      <c r="AM156" s="47"/>
       <c r="AN156" s="12" t="n">
         <v>154</v>
       </c>
-      <c r="AO156" s="48" t="n">
+      <c r="AO156" s="47" t="n">
         <v>101</v>
       </c>
-      <c r="AP156" s="48"/>
-      <c r="AQ156" s="48"/>
+      <c r="AP156" s="47"/>
+      <c r="AQ156" s="47"/>
     </row>
     <row r="157" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="37" t="n">
@@ -15695,63 +15685,63 @@
       <c r="D157" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="E157" s="46" t="s">
+      <c r="E157" s="45" t="s">
         <v>471</v>
       </c>
-      <c r="F157" s="46" t="s">
+      <c r="F157" s="45" t="s">
         <v>472</v>
       </c>
-      <c r="G157" s="46" t="s">
+      <c r="G157" s="45" t="s">
         <v>356</v>
       </c>
-      <c r="H157" s="47"/>
-      <c r="I157" s="48" t="s">
+      <c r="H157" s="46"/>
+      <c r="I157" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="J157" s="48" t="s">
+      <c r="J157" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="K157" s="48"/>
-      <c r="L157" s="48"/>
+      <c r="K157" s="47"/>
+      <c r="L157" s="47"/>
       <c r="M157" s="21"/>
       <c r="N157" s="21"/>
-      <c r="O157" s="48"/>
-      <c r="P157" s="48"/>
-      <c r="Q157" s="48"/>
-      <c r="R157" s="48"/>
-      <c r="S157" s="48" t="s">
+      <c r="O157" s="47"/>
+      <c r="P157" s="47"/>
+      <c r="Q157" s="47"/>
+      <c r="R157" s="47"/>
+      <c r="S157" s="47" t="s">
         <v>470</v>
       </c>
-      <c r="T157" s="48"/>
-      <c r="U157" s="48"/>
-      <c r="V157" s="48"/>
-      <c r="W157" s="48"/>
-      <c r="X157" s="48"/>
-      <c r="Y157" s="48"/>
-      <c r="Z157" s="48"/>
-      <c r="AA157" s="48"/>
-      <c r="AB157" s="48"/>
-      <c r="AC157" s="48"/>
-      <c r="AD157" s="48"/>
-      <c r="AE157" s="48"/>
-      <c r="AF157" s="49" t="n">
+      <c r="T157" s="47"/>
+      <c r="U157" s="47"/>
+      <c r="V157" s="47"/>
+      <c r="W157" s="47"/>
+      <c r="X157" s="47"/>
+      <c r="Y157" s="47"/>
+      <c r="Z157" s="47"/>
+      <c r="AA157" s="47"/>
+      <c r="AB157" s="47"/>
+      <c r="AC157" s="47"/>
+      <c r="AD157" s="47"/>
+      <c r="AE157" s="47"/>
+      <c r="AF157" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="AG157" s="48"/>
-      <c r="AH157" s="48"/>
-      <c r="AI157" s="48"/>
-      <c r="AJ157" s="48"/>
-      <c r="AK157" s="48"/>
-      <c r="AL157" s="48"/>
-      <c r="AM157" s="48"/>
+      <c r="AG157" s="47"/>
+      <c r="AH157" s="47"/>
+      <c r="AI157" s="47"/>
+      <c r="AJ157" s="47"/>
+      <c r="AK157" s="47"/>
+      <c r="AL157" s="47"/>
+      <c r="AM157" s="47"/>
       <c r="AN157" s="12" t="n">
         <v>155</v>
       </c>
       <c r="AO157" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="AP157" s="48"/>
-      <c r="AQ157" s="48"/>
+      <c r="AP157" s="47"/>
+      <c r="AQ157" s="47"/>
     </row>
     <row r="158" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="37" t="n">
@@ -15766,65 +15756,65 @@
       <c r="D158" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="E158" s="46" t="s">
+      <c r="E158" s="45" t="s">
         <v>476</v>
       </c>
-      <c r="F158" s="46" t="s">
+      <c r="F158" s="45" t="s">
         <v>477</v>
       </c>
-      <c r="G158" s="46" t="s">
+      <c r="G158" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="H158" s="47" t="s">
+      <c r="H158" s="46" t="s">
         <v>478</v>
       </c>
-      <c r="I158" s="48" t="s">
+      <c r="I158" s="47" t="s">
         <v>468</v>
       </c>
-      <c r="J158" s="48" t="s">
+      <c r="J158" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="K158" s="48"/>
-      <c r="L158" s="48"/>
+      <c r="K158" s="47"/>
+      <c r="L158" s="47"/>
       <c r="M158" s="21"/>
       <c r="N158" s="21"/>
-      <c r="O158" s="48"/>
-      <c r="P158" s="48"/>
-      <c r="Q158" s="48"/>
-      <c r="R158" s="48"/>
-      <c r="S158" s="48" t="s">
+      <c r="O158" s="47"/>
+      <c r="P158" s="47"/>
+      <c r="Q158" s="47"/>
+      <c r="R158" s="47"/>
+      <c r="S158" s="47" t="s">
         <v>470</v>
       </c>
-      <c r="T158" s="48"/>
-      <c r="U158" s="48"/>
-      <c r="V158" s="48"/>
-      <c r="W158" s="48"/>
-      <c r="X158" s="48"/>
-      <c r="Y158" s="48"/>
-      <c r="Z158" s="48"/>
-      <c r="AA158" s="48"/>
-      <c r="AB158" s="48"/>
-      <c r="AC158" s="48"/>
-      <c r="AD158" s="48"/>
-      <c r="AE158" s="48"/>
-      <c r="AF158" s="49" t="n">
+      <c r="T158" s="47"/>
+      <c r="U158" s="47"/>
+      <c r="V158" s="47"/>
+      <c r="W158" s="47"/>
+      <c r="X158" s="47"/>
+      <c r="Y158" s="47"/>
+      <c r="Z158" s="47"/>
+      <c r="AA158" s="47"/>
+      <c r="AB158" s="47"/>
+      <c r="AC158" s="47"/>
+      <c r="AD158" s="47"/>
+      <c r="AE158" s="47"/>
+      <c r="AF158" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="AG158" s="48"/>
-      <c r="AH158" s="48"/>
-      <c r="AI158" s="48"/>
-      <c r="AJ158" s="48"/>
-      <c r="AK158" s="48"/>
-      <c r="AL158" s="48"/>
-      <c r="AM158" s="48"/>
+      <c r="AG158" s="47"/>
+      <c r="AH158" s="47"/>
+      <c r="AI158" s="47"/>
+      <c r="AJ158" s="47"/>
+      <c r="AK158" s="47"/>
+      <c r="AL158" s="47"/>
+      <c r="AM158" s="47"/>
       <c r="AN158" s="12" t="n">
         <v>156</v>
       </c>
-      <c r="AO158" s="48" t="n">
+      <c r="AO158" s="47" t="n">
         <v>105</v>
       </c>
-      <c r="AP158" s="48"/>
-      <c r="AQ158" s="48"/>
+      <c r="AP158" s="47"/>
+      <c r="AQ158" s="47"/>
     </row>
     <row r="159" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="37" t="n">
@@ -15839,67 +15829,67 @@
       <c r="D159" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="E159" s="46" t="s">
+      <c r="E159" s="45" t="s">
         <v>479</v>
       </c>
-      <c r="F159" s="46" t="s">
+      <c r="F159" s="45" t="s">
         <v>480</v>
       </c>
-      <c r="G159" s="46" t="s">
+      <c r="G159" s="45" t="s">
         <v>481</v>
       </c>
-      <c r="H159" s="48"/>
+      <c r="H159" s="47"/>
       <c r="I159" s="21" t="s">
         <v>482</v>
       </c>
       <c r="J159" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="K159" s="48"/>
-      <c r="L159" s="48"/>
+      <c r="K159" s="47"/>
+      <c r="L159" s="47"/>
       <c r="M159" s="21"/>
       <c r="N159" s="21"/>
-      <c r="O159" s="48" t="s">
+      <c r="O159" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="P159" s="48"/>
-      <c r="Q159" s="48"/>
-      <c r="R159" s="48"/>
-      <c r="S159" s="48" t="s">
+      <c r="P159" s="47"/>
+      <c r="Q159" s="47"/>
+      <c r="R159" s="47"/>
+      <c r="S159" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="T159" s="48"/>
-      <c r="U159" s="48"/>
-      <c r="V159" s="48"/>
-      <c r="W159" s="48"/>
-      <c r="X159" s="50" t="s">
+      <c r="T159" s="47"/>
+      <c r="U159" s="47"/>
+      <c r="V159" s="47"/>
+      <c r="W159" s="47"/>
+      <c r="X159" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="Y159" s="51" t="s">
+      <c r="Y159" s="50" t="s">
         <v>485</v>
       </c>
-      <c r="Z159" s="48"/>
-      <c r="AA159" s="48"/>
-      <c r="AB159" s="48"/>
-      <c r="AC159" s="48"/>
-      <c r="AD159" s="48"/>
-      <c r="AE159" s="48"/>
-      <c r="AF159" s="52" t="n">
+      <c r="Z159" s="47"/>
+      <c r="AA159" s="47"/>
+      <c r="AB159" s="47"/>
+      <c r="AC159" s="47"/>
+      <c r="AD159" s="47"/>
+      <c r="AE159" s="47"/>
+      <c r="AF159" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="AG159" s="48"/>
-      <c r="AH159" s="48"/>
-      <c r="AI159" s="48"/>
-      <c r="AJ159" s="48"/>
-      <c r="AK159" s="48"/>
-      <c r="AL159" s="48"/>
-      <c r="AM159" s="48"/>
+      <c r="AG159" s="47"/>
+      <c r="AH159" s="47"/>
+      <c r="AI159" s="47"/>
+      <c r="AJ159" s="47"/>
+      <c r="AK159" s="47"/>
+      <c r="AL159" s="47"/>
+      <c r="AM159" s="47"/>
       <c r="AN159" s="12" t="n">
         <v>157</v>
       </c>
-      <c r="AO159" s="48"/>
-      <c r="AP159" s="48"/>
-      <c r="AQ159" s="48"/>
+      <c r="AO159" s="47"/>
+      <c r="AP159" s="47"/>
+      <c r="AQ159" s="47"/>
     </row>
     <row r="160" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="37" t="n">
@@ -15914,65 +15904,65 @@
       <c r="D160" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="E160" s="46" t="s">
+      <c r="E160" s="45" t="s">
         <v>486</v>
       </c>
-      <c r="F160" s="46" t="s">
+      <c r="F160" s="45" t="s">
         <v>487</v>
       </c>
-      <c r="G160" s="46" t="s">
+      <c r="G160" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="H160" s="48"/>
+      <c r="H160" s="47"/>
       <c r="I160" s="21" t="s">
         <v>489</v>
       </c>
       <c r="J160" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="K160" s="48"/>
-      <c r="L160" s="48"/>
+      <c r="K160" s="47"/>
+      <c r="L160" s="47"/>
       <c r="M160" s="21"/>
       <c r="N160" s="21"/>
-      <c r="O160" s="48" t="s">
+      <c r="O160" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="P160" s="48"/>
-      <c r="Q160" s="48"/>
-      <c r="R160" s="48"/>
-      <c r="S160" s="48" t="s">
+      <c r="P160" s="47"/>
+      <c r="Q160" s="47"/>
+      <c r="R160" s="47"/>
+      <c r="S160" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="T160" s="48"/>
-      <c r="U160" s="48"/>
-      <c r="V160" s="48"/>
-      <c r="W160" s="48"/>
-      <c r="X160" s="48"/>
+      <c r="T160" s="47"/>
+      <c r="U160" s="47"/>
+      <c r="V160" s="47"/>
+      <c r="W160" s="47"/>
+      <c r="X160" s="47"/>
       <c r="Y160" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="Z160" s="48"/>
-      <c r="AA160" s="48"/>
-      <c r="AB160" s="48"/>
-      <c r="AC160" s="48"/>
-      <c r="AD160" s="48"/>
-      <c r="AE160" s="48"/>
-      <c r="AF160" s="52" t="n">
+      <c r="Z160" s="47"/>
+      <c r="AA160" s="47"/>
+      <c r="AB160" s="47"/>
+      <c r="AC160" s="47"/>
+      <c r="AD160" s="47"/>
+      <c r="AE160" s="47"/>
+      <c r="AF160" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="AG160" s="48"/>
-      <c r="AH160" s="48"/>
-      <c r="AI160" s="48"/>
-      <c r="AJ160" s="48"/>
-      <c r="AK160" s="48"/>
-      <c r="AL160" s="48"/>
-      <c r="AM160" s="48"/>
+      <c r="AG160" s="47"/>
+      <c r="AH160" s="47"/>
+      <c r="AI160" s="47"/>
+      <c r="AJ160" s="47"/>
+      <c r="AK160" s="47"/>
+      <c r="AL160" s="47"/>
+      <c r="AM160" s="47"/>
       <c r="AN160" s="12" t="n">
         <v>158</v>
       </c>
-      <c r="AO160" s="48"/>
-      <c r="AP160" s="48"/>
-      <c r="AQ160" s="48"/>
+      <c r="AO160" s="47"/>
+      <c r="AP160" s="47"/>
+      <c r="AQ160" s="47"/>
     </row>
     <row r="161" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="37" t="n">
@@ -15987,65 +15977,65 @@
       <c r="D161" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="E161" s="46" t="s">
+      <c r="E161" s="45" t="s">
         <v>492</v>
       </c>
-      <c r="F161" s="46" t="s">
+      <c r="F161" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="G161" s="46" t="s">
+      <c r="G161" s="45" t="s">
         <v>494</v>
       </c>
-      <c r="H161" s="48"/>
+      <c r="H161" s="47"/>
       <c r="I161" s="21" t="s">
         <v>489</v>
       </c>
       <c r="J161" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="K161" s="48"/>
-      <c r="L161" s="48"/>
+      <c r="K161" s="47"/>
+      <c r="L161" s="47"/>
       <c r="M161" s="21"/>
       <c r="N161" s="21"/>
-      <c r="O161" s="48" t="s">
+      <c r="O161" s="47" t="s">
         <v>495</v>
       </c>
-      <c r="P161" s="48"/>
-      <c r="Q161" s="48"/>
-      <c r="R161" s="48"/>
-      <c r="S161" s="48" t="s">
+      <c r="P161" s="47"/>
+      <c r="Q161" s="47"/>
+      <c r="R161" s="47"/>
+      <c r="S161" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="T161" s="48"/>
-      <c r="U161" s="48"/>
-      <c r="V161" s="48"/>
-      <c r="W161" s="48"/>
-      <c r="X161" s="48"/>
+      <c r="T161" s="47"/>
+      <c r="U161" s="47"/>
+      <c r="V161" s="47"/>
+      <c r="W161" s="47"/>
+      <c r="X161" s="47"/>
       <c r="Y161" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="Z161" s="48"/>
-      <c r="AA161" s="48"/>
-      <c r="AB161" s="48"/>
-      <c r="AC161" s="48"/>
-      <c r="AD161" s="48"/>
-      <c r="AE161" s="48"/>
-      <c r="AF161" s="52" t="n">
+      <c r="Z161" s="47"/>
+      <c r="AA161" s="47"/>
+      <c r="AB161" s="47"/>
+      <c r="AC161" s="47"/>
+      <c r="AD161" s="47"/>
+      <c r="AE161" s="47"/>
+      <c r="AF161" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="AG161" s="48"/>
-      <c r="AH161" s="48"/>
-      <c r="AI161" s="48"/>
-      <c r="AJ161" s="48"/>
-      <c r="AK161" s="48"/>
-      <c r="AL161" s="48"/>
-      <c r="AM161" s="48"/>
+      <c r="AG161" s="47"/>
+      <c r="AH161" s="47"/>
+      <c r="AI161" s="47"/>
+      <c r="AJ161" s="47"/>
+      <c r="AK161" s="47"/>
+      <c r="AL161" s="47"/>
+      <c r="AM161" s="47"/>
       <c r="AN161" s="12" t="n">
         <v>159</v>
       </c>
-      <c r="AO161" s="48"/>
-      <c r="AP161" s="48"/>
-      <c r="AQ161" s="48"/>
+      <c r="AO161" s="47"/>
+      <c r="AP161" s="47"/>
+      <c r="AQ161" s="47"/>
     </row>
     <row r="162" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="37" t="n">
@@ -16060,65 +16050,65 @@
       <c r="D162" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="E162" s="46" t="s">
+      <c r="E162" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="F162" s="46" t="s">
+      <c r="F162" s="45" t="s">
         <v>497</v>
       </c>
-      <c r="G162" s="46" t="s">
+      <c r="G162" s="45" t="s">
         <v>498</v>
       </c>
-      <c r="H162" s="48"/>
+      <c r="H162" s="47"/>
       <c r="I162" s="21" t="s">
         <v>489</v>
       </c>
       <c r="J162" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="K162" s="48"/>
-      <c r="L162" s="48"/>
+      <c r="K162" s="47"/>
+      <c r="L162" s="47"/>
       <c r="M162" s="21"/>
       <c r="N162" s="21"/>
-      <c r="O162" s="48" t="s">
+      <c r="O162" s="47" t="s">
         <v>499</v>
       </c>
-      <c r="P162" s="48"/>
-      <c r="Q162" s="48"/>
-      <c r="R162" s="48"/>
-      <c r="S162" s="48" t="s">
+      <c r="P162" s="47"/>
+      <c r="Q162" s="47"/>
+      <c r="R162" s="47"/>
+      <c r="S162" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="T162" s="48"/>
-      <c r="U162" s="48"/>
-      <c r="V162" s="48"/>
-      <c r="W162" s="48"/>
-      <c r="X162" s="48"/>
+      <c r="T162" s="47"/>
+      <c r="U162" s="47"/>
+      <c r="V162" s="47"/>
+      <c r="W162" s="47"/>
+      <c r="X162" s="47"/>
       <c r="Y162" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="Z162" s="48"/>
-      <c r="AA162" s="48"/>
-      <c r="AB162" s="48"/>
-      <c r="AC162" s="48"/>
-      <c r="AD162" s="48"/>
-      <c r="AE162" s="48"/>
-      <c r="AF162" s="52" t="n">
+      <c r="Z162" s="47"/>
+      <c r="AA162" s="47"/>
+      <c r="AB162" s="47"/>
+      <c r="AC162" s="47"/>
+      <c r="AD162" s="47"/>
+      <c r="AE162" s="47"/>
+      <c r="AF162" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="AG162" s="48"/>
-      <c r="AH162" s="48"/>
-      <c r="AI162" s="48"/>
-      <c r="AJ162" s="48"/>
-      <c r="AK162" s="48"/>
+      <c r="AG162" s="47"/>
+      <c r="AH162" s="47"/>
+      <c r="AI162" s="47"/>
+      <c r="AJ162" s="47"/>
+      <c r="AK162" s="47"/>
       <c r="AL162" s="12"/>
-      <c r="AM162" s="48"/>
+      <c r="AM162" s="47"/>
       <c r="AN162" s="12" t="n">
         <v>160</v>
       </c>
-      <c r="AO162" s="48"/>
-      <c r="AP162" s="48"/>
-      <c r="AQ162" s="48"/>
+      <c r="AO162" s="47"/>
+      <c r="AP162" s="47"/>
+      <c r="AQ162" s="47"/>
     </row>
     <row r="163" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="37" t="n">
@@ -16133,16 +16123,16 @@
       <c r="D163" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="E163" s="46" t="s">
+      <c r="E163" s="45" t="s">
         <v>500</v>
       </c>
-      <c r="F163" s="46" t="s">
+      <c r="F163" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="G163" s="46" t="s">
+      <c r="G163" s="45" t="s">
         <v>502</v>
       </c>
-      <c r="H163" s="48" t="s">
+      <c r="H163" s="47" t="s">
         <v>246</v>
       </c>
       <c r="I163" s="21" t="s">
@@ -16151,51 +16141,51 @@
       <c r="J163" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="K163" s="48"/>
-      <c r="L163" s="48"/>
+      <c r="K163" s="47"/>
+      <c r="L163" s="47"/>
       <c r="M163" s="21"/>
       <c r="N163" s="21"/>
       <c r="O163" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="P163" s="48"/>
-      <c r="Q163" s="48"/>
-      <c r="R163" s="48"/>
-      <c r="S163" s="48" t="s">
+      <c r="P163" s="47"/>
+      <c r="Q163" s="47"/>
+      <c r="R163" s="47"/>
+      <c r="S163" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="T163" s="48"/>
-      <c r="U163" s="48"/>
-      <c r="V163" s="48"/>
-      <c r="W163" s="48"/>
-      <c r="X163" s="48"/>
+      <c r="T163" s="47"/>
+      <c r="U163" s="47"/>
+      <c r="V163" s="47"/>
+      <c r="W163" s="47"/>
+      <c r="X163" s="47"/>
       <c r="Y163" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="Z163" s="48"/>
-      <c r="AA163" s="48"/>
-      <c r="AB163" s="48"/>
-      <c r="AC163" s="48"/>
-      <c r="AD163" s="48"/>
-      <c r="AE163" s="48"/>
-      <c r="AF163" s="52" t="n">
+      <c r="Z163" s="47"/>
+      <c r="AA163" s="47"/>
+      <c r="AB163" s="47"/>
+      <c r="AC163" s="47"/>
+      <c r="AD163" s="47"/>
+      <c r="AE163" s="47"/>
+      <c r="AF163" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="AG163" s="48"/>
-      <c r="AH163" s="48"/>
-      <c r="AI163" s="48"/>
-      <c r="AJ163" s="48"/>
-      <c r="AK163" s="48"/>
-      <c r="AL163" s="48"/>
-      <c r="AM163" s="48"/>
+      <c r="AG163" s="47"/>
+      <c r="AH163" s="47"/>
+      <c r="AI163" s="47"/>
+      <c r="AJ163" s="47"/>
+      <c r="AK163" s="47"/>
+      <c r="AL163" s="47"/>
+      <c r="AM163" s="47"/>
       <c r="AN163" s="12" t="n">
         <v>161</v>
       </c>
-      <c r="AO163" s="48" t="n">
+      <c r="AO163" s="47" t="n">
         <v>83</v>
       </c>
-      <c r="AP163" s="48"/>
-      <c r="AQ163" s="48"/>
+      <c r="AP163" s="47"/>
+      <c r="AQ163" s="47"/>
     </row>
     <row r="164" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="37" t="n">
@@ -16210,16 +16200,16 @@
       <c r="D164" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="E164" s="46" t="s">
+      <c r="E164" s="45" t="s">
         <v>500</v>
       </c>
-      <c r="F164" s="46" t="s">
+      <c r="F164" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="G164" s="46" t="s">
+      <c r="G164" s="45" t="s">
         <v>502</v>
       </c>
-      <c r="H164" s="48" t="s">
+      <c r="H164" s="47" t="s">
         <v>274</v>
       </c>
       <c r="I164" s="21" t="s">
@@ -16228,51 +16218,51 @@
       <c r="J164" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="K164" s="48"/>
-      <c r="L164" s="48"/>
+      <c r="K164" s="47"/>
+      <c r="L164" s="47"/>
       <c r="M164" s="21"/>
       <c r="N164" s="21"/>
       <c r="O164" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="P164" s="48"/>
-      <c r="Q164" s="48"/>
-      <c r="R164" s="48"/>
-      <c r="S164" s="48" t="s">
+      <c r="P164" s="47"/>
+      <c r="Q164" s="47"/>
+      <c r="R164" s="47"/>
+      <c r="S164" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="T164" s="48"/>
-      <c r="U164" s="48"/>
-      <c r="V164" s="48"/>
-      <c r="W164" s="48"/>
-      <c r="X164" s="48"/>
+      <c r="T164" s="47"/>
+      <c r="U164" s="47"/>
+      <c r="V164" s="47"/>
+      <c r="W164" s="47"/>
+      <c r="X164" s="47"/>
       <c r="Y164" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="Z164" s="48"/>
-      <c r="AA164" s="48"/>
-      <c r="AB164" s="48"/>
-      <c r="AC164" s="48"/>
-      <c r="AD164" s="48"/>
-      <c r="AE164" s="48"/>
-      <c r="AF164" s="52" t="n">
+      <c r="Z164" s="47"/>
+      <c r="AA164" s="47"/>
+      <c r="AB164" s="47"/>
+      <c r="AC164" s="47"/>
+      <c r="AD164" s="47"/>
+      <c r="AE164" s="47"/>
+      <c r="AF164" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="AG164" s="48"/>
-      <c r="AH164" s="48"/>
-      <c r="AI164" s="48"/>
-      <c r="AJ164" s="48"/>
-      <c r="AK164" s="48"/>
-      <c r="AL164" s="48"/>
-      <c r="AM164" s="48"/>
+      <c r="AG164" s="47"/>
+      <c r="AH164" s="47"/>
+      <c r="AI164" s="47"/>
+      <c r="AJ164" s="47"/>
+      <c r="AK164" s="47"/>
+      <c r="AL164" s="47"/>
+      <c r="AM164" s="47"/>
       <c r="AN164" s="12" t="n">
         <v>162</v>
       </c>
-      <c r="AO164" s="48" t="n">
+      <c r="AO164" s="47" t="n">
         <v>91</v>
       </c>
-      <c r="AP164" s="48"/>
-      <c r="AQ164" s="48"/>
+      <c r="AP164" s="47"/>
+      <c r="AQ164" s="47"/>
     </row>
     <row r="165" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="37" t="n">
@@ -16287,16 +16277,16 @@
       <c r="D165" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="E165" s="46" t="s">
+      <c r="E165" s="45" t="s">
         <v>500</v>
       </c>
-      <c r="F165" s="46" t="s">
+      <c r="F165" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="G165" s="46" t="s">
+      <c r="G165" s="45" t="s">
         <v>502</v>
       </c>
-      <c r="H165" s="48" t="s">
+      <c r="H165" s="47" t="s">
         <v>265</v>
       </c>
       <c r="I165" s="21" t="s">
@@ -16305,51 +16295,51 @@
       <c r="J165" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="K165" s="48"/>
-      <c r="L165" s="48"/>
+      <c r="K165" s="47"/>
+      <c r="L165" s="47"/>
       <c r="M165" s="21"/>
       <c r="N165" s="21"/>
       <c r="O165" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="P165" s="48"/>
-      <c r="Q165" s="48"/>
-      <c r="R165" s="48"/>
-      <c r="S165" s="48" t="s">
+      <c r="P165" s="47"/>
+      <c r="Q165" s="47"/>
+      <c r="R165" s="47"/>
+      <c r="S165" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="T165" s="48"/>
-      <c r="U165" s="48"/>
-      <c r="V165" s="48"/>
-      <c r="W165" s="48"/>
-      <c r="X165" s="48"/>
+      <c r="T165" s="47"/>
+      <c r="U165" s="47"/>
+      <c r="V165" s="47"/>
+      <c r="W165" s="47"/>
+      <c r="X165" s="47"/>
       <c r="Y165" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="Z165" s="48"/>
-      <c r="AA165" s="48"/>
-      <c r="AB165" s="48"/>
-      <c r="AC165" s="48"/>
-      <c r="AD165" s="48"/>
-      <c r="AE165" s="48"/>
-      <c r="AF165" s="52" t="n">
+      <c r="Z165" s="47"/>
+      <c r="AA165" s="47"/>
+      <c r="AB165" s="47"/>
+      <c r="AC165" s="47"/>
+      <c r="AD165" s="47"/>
+      <c r="AE165" s="47"/>
+      <c r="AF165" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="AG165" s="48"/>
-      <c r="AH165" s="48"/>
-      <c r="AI165" s="48"/>
-      <c r="AJ165" s="48"/>
-      <c r="AK165" s="48"/>
-      <c r="AL165" s="48"/>
-      <c r="AM165" s="48"/>
+      <c r="AG165" s="47"/>
+      <c r="AH165" s="47"/>
+      <c r="AI165" s="47"/>
+      <c r="AJ165" s="47"/>
+      <c r="AK165" s="47"/>
+      <c r="AL165" s="47"/>
+      <c r="AM165" s="47"/>
       <c r="AN165" s="12" t="n">
         <v>163</v>
       </c>
-      <c r="AO165" s="48" t="n">
+      <c r="AO165" s="47" t="n">
         <v>88</v>
       </c>
-      <c r="AP165" s="48"/>
-      <c r="AQ165" s="48"/>
+      <c r="AP165" s="47"/>
+      <c r="AQ165" s="47"/>
     </row>
     <row r="166" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="37" t="n">
@@ -16364,16 +16354,16 @@
       <c r="D166" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="E166" s="46" t="s">
+      <c r="E166" s="45" t="s">
         <v>500</v>
       </c>
-      <c r="F166" s="46" t="s">
+      <c r="F166" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="G166" s="46" t="s">
+      <c r="G166" s="45" t="s">
         <v>502</v>
       </c>
-      <c r="H166" s="48" t="s">
+      <c r="H166" s="47" t="s">
         <v>289</v>
       </c>
       <c r="I166" s="21" t="s">
@@ -16382,51 +16372,51 @@
       <c r="J166" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="K166" s="48"/>
-      <c r="L166" s="48"/>
+      <c r="K166" s="47"/>
+      <c r="L166" s="47"/>
       <c r="M166" s="21"/>
       <c r="N166" s="21"/>
       <c r="O166" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="P166" s="48"/>
-      <c r="Q166" s="48"/>
-      <c r="R166" s="48"/>
-      <c r="S166" s="48" t="s">
+      <c r="P166" s="47"/>
+      <c r="Q166" s="47"/>
+      <c r="R166" s="47"/>
+      <c r="S166" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="T166" s="48"/>
-      <c r="U166" s="48"/>
-      <c r="V166" s="48"/>
-      <c r="W166" s="48"/>
-      <c r="X166" s="48"/>
+      <c r="T166" s="47"/>
+      <c r="U166" s="47"/>
+      <c r="V166" s="47"/>
+      <c r="W166" s="47"/>
+      <c r="X166" s="47"/>
       <c r="Y166" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="Z166" s="48"/>
-      <c r="AA166" s="48"/>
-      <c r="AB166" s="48"/>
-      <c r="AC166" s="48"/>
-      <c r="AD166" s="48"/>
-      <c r="AE166" s="48"/>
-      <c r="AF166" s="52" t="n">
+      <c r="Z166" s="47"/>
+      <c r="AA166" s="47"/>
+      <c r="AB166" s="47"/>
+      <c r="AC166" s="47"/>
+      <c r="AD166" s="47"/>
+      <c r="AE166" s="47"/>
+      <c r="AF166" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="AG166" s="48"/>
-      <c r="AH166" s="48"/>
-      <c r="AI166" s="48"/>
-      <c r="AJ166" s="48"/>
-      <c r="AK166" s="48"/>
-      <c r="AL166" s="48"/>
-      <c r="AM166" s="48"/>
+      <c r="AG166" s="47"/>
+      <c r="AH166" s="47"/>
+      <c r="AI166" s="47"/>
+      <c r="AJ166" s="47"/>
+      <c r="AK166" s="47"/>
+      <c r="AL166" s="47"/>
+      <c r="AM166" s="47"/>
       <c r="AN166" s="12" t="n">
         <v>164</v>
       </c>
-      <c r="AO166" s="48" t="n">
+      <c r="AO166" s="47" t="n">
         <v>96</v>
       </c>
-      <c r="AP166" s="48"/>
-      <c r="AQ166" s="48"/>
+      <c r="AP166" s="47"/>
+      <c r="AQ166" s="47"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16485,17 +16475,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.57085020242915"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>355</v>
       </c>
     </row>
@@ -16522,9 +16509,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.57085020242915"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -16559,9 +16543,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.57085020242915"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
@@ -16597,7 +16578,7 @@
       <c r="A7" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>516</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -16606,10 +16587,10 @@
       <c r="F7" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="H7" s="54"/>
+      <c r="H7" s="53"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
@@ -16618,13 +16599,13 @@
       <c r="F8" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="H8" s="54"/>
+      <c r="H8" s="53"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54"/>
+      <c r="A10" s="53"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>516</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -16635,7 +16616,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -16649,21 +16630,21 @@
       <c r="A15" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="E15" s="53"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="E16" s="53"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="53" t="s">
         <v>516</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="53" t="s">
         <v>516</v>
       </c>
       <c r="D18" s="0" t="n">
@@ -16674,13 +16655,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -16691,16 +16672,16 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="54" t="s">
         <v>525</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="53" t="s">
         <v>524</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="54" t="s">
         <v>526</v>
       </c>
     </row>
@@ -16715,31 +16696,31 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="53" t="s">
         <v>516</v>
       </c>
-      <c r="H25" s="56" t="s">
+      <c r="H25" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="J25" s="54"/>
+      <c r="J25" s="53"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="53" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J26" s="54"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="53" t="s">
         <v>516</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="55" t="s">
         <v>529</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="53" t="s">
         <v>516</v>
       </c>
       <c r="E28" s="0" t="n">
@@ -16750,13 +16731,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="53" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="0" t="n">
@@ -16794,53 +16775,50 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.57085020242915"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>533</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>534</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="57" t="s">
         <v>535</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="57" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>536</v>
       </c>
     </row>

--- a/Projects/CCRU/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU/Data/FT PoS 2018.xlsx
@@ -40,9 +40,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="538">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1238,6 +1239,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mixed 1 door, Mixed  1.5 door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scene type</t>
   </si>
   <si>
     <t xml:space="preserve">114
@@ -1858,7 +1862,7 @@
     <numFmt numFmtId="168" formatCode="D\-MMM"/>
     <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1917,6 +1921,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2062,7 +2071,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2223,6 +2232,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2239,7 +2252,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2275,7 +2288,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2287,15 +2300,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2383,19 +2396,19 @@
   </sheetPr>
   <dimension ref="A1:AQ167"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AI116" activeCellId="0" sqref="AI116"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="bottomLeft" activeCell="AI111" activeCellId="0" sqref="AI111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="39.2753036437247"/>
-    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="16.3886639676113"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11752,7 +11765,7 @@
       </c>
       <c r="AG110" s="37"/>
       <c r="AH110" s="37"/>
-      <c r="AI110" s="37" t="s">
+      <c r="AI110" s="40" t="s">
         <v>341</v>
       </c>
       <c r="AJ110" s="37" t="s">
@@ -11888,7 +11901,7 @@
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
       <c r="N112" s="12"/>
-      <c r="O112" s="40" t="s">
+      <c r="O112" s="41" t="s">
         <v>352</v>
       </c>
       <c r="P112" s="27"/>
@@ -11899,15 +11912,15 @@
       </c>
       <c r="T112" s="12"/>
       <c r="U112" s="12"/>
-      <c r="V112" s="40"/>
+      <c r="V112" s="41"/>
       <c r="W112" s="12"/>
       <c r="X112" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="Y112" s="40" t="s">
+      <c r="Y112" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="Z112" s="40"/>
+      <c r="Z112" s="41"/>
       <c r="AA112" s="9"/>
       <c r="AB112" s="12"/>
       <c r="AC112" s="12"/>
@@ -12052,7 +12065,7 @@
       <c r="H114" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="I114" s="41" t="s">
+      <c r="I114" s="42" t="s">
         <v>49</v>
       </c>
       <c r="J114" s="14"/>
@@ -12060,7 +12073,7 @@
       <c r="L114" s="9"/>
       <c r="M114" s="9"/>
       <c r="N114" s="12"/>
-      <c r="O114" s="42"/>
+      <c r="O114" s="43"/>
       <c r="P114" s="27"/>
       <c r="Q114" s="27"/>
       <c r="R114" s="9" t="s">
@@ -12082,7 +12095,7 @@
       <c r="AD114" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AE114" s="41" t="s">
+      <c r="AE114" s="42" t="s">
         <v>363</v>
       </c>
       <c r="AF114" s="17" t="n">
@@ -12149,7 +12162,7 @@
       <c r="L115" s="9"/>
       <c r="M115" s="9"/>
       <c r="N115" s="12"/>
-      <c r="O115" s="42"/>
+      <c r="O115" s="43"/>
       <c r="P115" s="27"/>
       <c r="Q115" s="27"/>
       <c r="R115" s="9" t="s">
@@ -12174,7 +12187,7 @@
       <c r="AE115" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AF115" s="43" t="n">
+      <c r="AF115" s="44" t="n">
         <v>1</v>
       </c>
       <c r="AG115" s="9" t="n">
@@ -12183,7 +12196,9 @@
       <c r="AH115" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AI115" s="37"/>
+      <c r="AI115" s="37" t="s">
+        <v>369</v>
+      </c>
       <c r="AJ115" s="37"/>
       <c r="AK115" s="9"/>
       <c r="AL115" s="9"/>
@@ -12194,7 +12209,7 @@
         <v>113</v>
       </c>
       <c r="AO115" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AP115" s="33" t="s">
         <v>361</v>
@@ -12219,10 +12234,10 @@
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I116" s="14" t="s">
         <v>54</v>
@@ -12304,10 +12319,10 @@
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I117" s="14" t="s">
         <v>54</v>
@@ -12389,10 +12404,10 @@
       </c>
       <c r="F118" s="12"/>
       <c r="G118" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I118" s="14" t="s">
         <v>54</v>
@@ -12474,10 +12489,10 @@
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I119" s="14" t="s">
         <v>54</v>
@@ -12559,10 +12574,10 @@
       </c>
       <c r="F120" s="12"/>
       <c r="G120" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I120" s="14" t="s">
         <v>54</v>
@@ -12644,10 +12659,10 @@
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I121" s="14" t="s">
         <v>54</v>
@@ -12729,10 +12744,10 @@
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I122" s="14" t="s">
         <v>54</v>
@@ -12814,10 +12829,10 @@
       </c>
       <c r="F123" s="12"/>
       <c r="G123" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I123" s="14" t="s">
         <v>54</v>
@@ -12899,10 +12914,10 @@
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I124" s="14" t="s">
         <v>54</v>
@@ -12984,10 +12999,10 @@
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I125" s="14" t="s">
         <v>54</v>
@@ -13069,10 +13084,10 @@
       </c>
       <c r="F126" s="12"/>
       <c r="G126" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I126" s="14" t="s">
         <v>54</v>
@@ -13154,10 +13169,10 @@
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I127" s="14" t="s">
         <v>54</v>
@@ -13169,10 +13184,10 @@
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
       <c r="N127" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="O127" s="44" t="s">
         <v>395</v>
+      </c>
+      <c r="O127" s="45" t="s">
+        <v>396</v>
       </c>
       <c r="P127" s="27"/>
       <c r="Q127" s="27"/>
@@ -13239,10 +13254,10 @@
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I128" s="14" t="s">
         <v>54</v>
@@ -13254,10 +13269,10 @@
       <c r="L128" s="9"/>
       <c r="M128" s="9"/>
       <c r="N128" s="12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O128" s="27" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P128" s="27"/>
       <c r="Q128" s="27"/>
@@ -13324,10 +13339,10 @@
       </c>
       <c r="F129" s="12"/>
       <c r="G129" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I129" s="14" t="s">
         <v>54</v>
@@ -13409,10 +13424,10 @@
       </c>
       <c r="F130" s="12"/>
       <c r="G130" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I130" s="14" t="s">
         <v>54</v>
@@ -13494,10 +13509,10 @@
       </c>
       <c r="F131" s="12"/>
       <c r="G131" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>54</v>
@@ -13579,10 +13594,10 @@
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>256</v>
@@ -13594,7 +13609,7 @@
       <c r="L132" s="9"/>
       <c r="M132" s="9"/>
       <c r="N132" s="12"/>
-      <c r="O132" s="42"/>
+      <c r="O132" s="43"/>
       <c r="P132" s="27"/>
       <c r="Q132" s="27"/>
       <c r="R132" s="9" t="s">
@@ -13607,7 +13622,7 @@
       <c r="W132" s="12"/>
       <c r="X132" s="9"/>
       <c r="Y132" s="37" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z132" s="12"/>
       <c r="AA132" s="9"/>
@@ -13619,7 +13634,7 @@
       <c r="AE132" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AF132" s="43" t="n">
+      <c r="AF132" s="44" t="n">
         <v>0.5</v>
       </c>
       <c r="AG132" s="9" t="n">
@@ -13628,7 +13643,9 @@
       <c r="AH132" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AI132" s="37"/>
+      <c r="AI132" s="37" t="s">
+        <v>369</v>
+      </c>
       <c r="AJ132" s="37"/>
       <c r="AK132" s="9"/>
       <c r="AL132" s="9"/>
@@ -13639,7 +13656,7 @@
         <v>130</v>
       </c>
       <c r="AO132" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AP132" s="33" t="s">
         <v>361</v>
@@ -13664,10 +13681,10 @@
       </c>
       <c r="F133" s="12"/>
       <c r="G133" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I133" s="14" t="s">
         <v>54</v>
@@ -13698,7 +13715,7 @@
       <c r="W133" s="12"/>
       <c r="X133" s="9"/>
       <c r="Y133" s="37" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z133" s="12"/>
       <c r="AA133" s="9"/>
@@ -13727,7 +13744,7 @@
       </c>
       <c r="AO133" s="12"/>
       <c r="AP133" s="33" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ133" s="12"/>
     </row>
@@ -13749,10 +13766,10 @@
       </c>
       <c r="F134" s="12"/>
       <c r="G134" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I134" s="14" t="s">
         <v>54</v>
@@ -13783,7 +13800,7 @@
       <c r="W134" s="12"/>
       <c r="X134" s="9"/>
       <c r="Y134" s="37" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z134" s="12"/>
       <c r="AA134" s="9"/>
@@ -13812,7 +13829,7 @@
       </c>
       <c r="AO134" s="12"/>
       <c r="AP134" s="33" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ134" s="12"/>
     </row>
@@ -13834,10 +13851,10 @@
       </c>
       <c r="F135" s="12"/>
       <c r="G135" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I135" s="14" t="s">
         <v>54</v>
@@ -13868,7 +13885,7 @@
       <c r="W135" s="12"/>
       <c r="X135" s="9"/>
       <c r="Y135" s="37" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z135" s="12"/>
       <c r="AA135" s="9"/>
@@ -13897,7 +13914,7 @@
       </c>
       <c r="AO135" s="12"/>
       <c r="AP135" s="33" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ135" s="12"/>
     </row>
@@ -13919,10 +13936,10 @@
       </c>
       <c r="F136" s="12"/>
       <c r="G136" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I136" s="14" t="s">
         <v>54</v>
@@ -13953,7 +13970,7 @@
       <c r="W136" s="12"/>
       <c r="X136" s="9"/>
       <c r="Y136" s="37" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z136" s="12"/>
       <c r="AA136" s="9"/>
@@ -13982,7 +13999,7 @@
       </c>
       <c r="AO136" s="12"/>
       <c r="AP136" s="33" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ136" s="12"/>
     </row>
@@ -14004,10 +14021,10 @@
       </c>
       <c r="F137" s="12"/>
       <c r="G137" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I137" s="14" t="s">
         <v>54</v>
@@ -14038,7 +14055,7 @@
       <c r="W137" s="12"/>
       <c r="X137" s="9"/>
       <c r="Y137" s="37" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z137" s="12"/>
       <c r="AA137" s="9"/>
@@ -14067,7 +14084,7 @@
       </c>
       <c r="AO137" s="12"/>
       <c r="AP137" s="33" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ137" s="12"/>
     </row>
@@ -14089,10 +14106,10 @@
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I138" s="14" t="s">
         <v>54</v>
@@ -14123,7 +14140,7 @@
       <c r="W138" s="12"/>
       <c r="X138" s="9"/>
       <c r="Y138" s="37" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z138" s="12"/>
       <c r="AA138" s="9"/>
@@ -14152,7 +14169,7 @@
       </c>
       <c r="AO138" s="12"/>
       <c r="AP138" s="33" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ138" s="12"/>
     </row>
@@ -14174,10 +14191,10 @@
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I139" s="14" t="s">
         <v>54</v>
@@ -14208,7 +14225,7 @@
       <c r="W139" s="12"/>
       <c r="X139" s="9"/>
       <c r="Y139" s="37" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z139" s="12"/>
       <c r="AA139" s="9"/>
@@ -14237,7 +14254,7 @@
       </c>
       <c r="AO139" s="12"/>
       <c r="AP139" s="33" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ139" s="12"/>
     </row>
@@ -14259,10 +14276,10 @@
       </c>
       <c r="F140" s="12"/>
       <c r="G140" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I140" s="14" t="s">
         <v>54</v>
@@ -14293,7 +14310,7 @@
       <c r="W140" s="12"/>
       <c r="X140" s="9"/>
       <c r="Y140" s="37" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z140" s="12"/>
       <c r="AA140" s="9"/>
@@ -14322,7 +14339,7 @@
       </c>
       <c r="AO140" s="12"/>
       <c r="AP140" s="33" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ140" s="12"/>
     </row>
@@ -14344,10 +14361,10 @@
       </c>
       <c r="F141" s="12"/>
       <c r="G141" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I141" s="14" t="s">
         <v>54</v>
@@ -14378,7 +14395,7 @@
       <c r="W141" s="12"/>
       <c r="X141" s="9"/>
       <c r="Y141" s="37" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z141" s="12"/>
       <c r="AA141" s="9"/>
@@ -14407,7 +14424,7 @@
       </c>
       <c r="AO141" s="12"/>
       <c r="AP141" s="33" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ141" s="12"/>
     </row>
@@ -14429,10 +14446,10 @@
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I142" s="14" t="s">
         <v>54</v>
@@ -14463,7 +14480,7 @@
       <c r="W142" s="12"/>
       <c r="X142" s="9"/>
       <c r="Y142" s="37" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z142" s="12"/>
       <c r="AA142" s="9"/>
@@ -14492,7 +14509,7 @@
       </c>
       <c r="AO142" s="12"/>
       <c r="AP142" s="33" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ142" s="12"/>
     </row>
@@ -14514,10 +14531,10 @@
       </c>
       <c r="F143" s="12"/>
       <c r="G143" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I143" s="14" t="s">
         <v>54</v>
@@ -14548,7 +14565,7 @@
       <c r="W143" s="12"/>
       <c r="X143" s="9"/>
       <c r="Y143" s="37" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z143" s="12"/>
       <c r="AA143" s="9"/>
@@ -14577,7 +14594,7 @@
       </c>
       <c r="AO143" s="12"/>
       <c r="AP143" s="33" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AQ143" s="12"/>
     </row>
@@ -14599,10 +14616,10 @@
       </c>
       <c r="F144" s="12"/>
       <c r="G144" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>256</v>
@@ -14614,7 +14631,7 @@
       <c r="L144" s="9"/>
       <c r="M144" s="9"/>
       <c r="N144" s="12"/>
-      <c r="O144" s="42"/>
+      <c r="O144" s="43"/>
       <c r="P144" s="27"/>
       <c r="Q144" s="27"/>
       <c r="R144" s="9" t="s">
@@ -14627,7 +14644,7 @@
       <c r="W144" s="12"/>
       <c r="X144" s="9"/>
       <c r="Y144" s="37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z144" s="12"/>
       <c r="AA144" s="9"/>
@@ -14639,7 +14656,7 @@
       <c r="AE144" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AF144" s="43" t="n">
+      <c r="AF144" s="44" t="n">
         <v>0.5</v>
       </c>
       <c r="AG144" s="9" t="n">
@@ -14648,7 +14665,9 @@
       <c r="AH144" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AI144" s="37"/>
+      <c r="AI144" s="37" t="s">
+        <v>369</v>
+      </c>
       <c r="AJ144" s="37"/>
       <c r="AK144" s="9"/>
       <c r="AL144" s="9"/>
@@ -14659,7 +14678,7 @@
         <v>142</v>
       </c>
       <c r="AO144" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AP144" s="33" t="s">
         <v>361</v>
@@ -14684,10 +14703,10 @@
       </c>
       <c r="F145" s="12"/>
       <c r="G145" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I145" s="14" t="s">
         <v>54</v>
@@ -14718,7 +14737,7 @@
       <c r="W145" s="12"/>
       <c r="X145" s="9"/>
       <c r="Y145" s="37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z145" s="12"/>
       <c r="AA145" s="9"/>
@@ -14747,7 +14766,7 @@
       </c>
       <c r="AO145" s="12"/>
       <c r="AP145" s="33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ145" s="12"/>
     </row>
@@ -14769,10 +14788,10 @@
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I146" s="14" t="s">
         <v>54</v>
@@ -14803,7 +14822,7 @@
       <c r="W146" s="12"/>
       <c r="X146" s="9"/>
       <c r="Y146" s="37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z146" s="12"/>
       <c r="AA146" s="9"/>
@@ -14832,7 +14851,7 @@
       </c>
       <c r="AO146" s="12"/>
       <c r="AP146" s="33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ146" s="12"/>
     </row>
@@ -14854,10 +14873,10 @@
       </c>
       <c r="F147" s="12"/>
       <c r="G147" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I147" s="14" t="s">
         <v>54</v>
@@ -14888,7 +14907,7 @@
       <c r="W147" s="12"/>
       <c r="X147" s="9"/>
       <c r="Y147" s="37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z147" s="12"/>
       <c r="AA147" s="9"/>
@@ -14917,7 +14936,7 @@
       </c>
       <c r="AO147" s="12"/>
       <c r="AP147" s="33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ147" s="12"/>
     </row>
@@ -14939,10 +14958,10 @@
       </c>
       <c r="F148" s="12"/>
       <c r="G148" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I148" s="14" t="s">
         <v>54</v>
@@ -14973,7 +14992,7 @@
       <c r="W148" s="12"/>
       <c r="X148" s="9"/>
       <c r="Y148" s="37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z148" s="12"/>
       <c r="AA148" s="9"/>
@@ -15002,7 +15021,7 @@
       </c>
       <c r="AO148" s="12"/>
       <c r="AP148" s="33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ148" s="12"/>
     </row>
@@ -15024,10 +15043,10 @@
       </c>
       <c r="F149" s="12"/>
       <c r="G149" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I149" s="14" t="s">
         <v>54</v>
@@ -15058,7 +15077,7 @@
       <c r="W149" s="12"/>
       <c r="X149" s="9"/>
       <c r="Y149" s="37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z149" s="12"/>
       <c r="AA149" s="9"/>
@@ -15087,7 +15106,7 @@
       </c>
       <c r="AO149" s="12"/>
       <c r="AP149" s="33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ149" s="12"/>
     </row>
@@ -15109,10 +15128,10 @@
       </c>
       <c r="F150" s="12"/>
       <c r="G150" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I150" s="14" t="s">
         <v>54</v>
@@ -15124,10 +15143,10 @@
       <c r="L150" s="9"/>
       <c r="M150" s="9"/>
       <c r="N150" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O150" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P150" s="27"/>
       <c r="Q150" s="27"/>
@@ -15143,7 +15162,7 @@
       <c r="W150" s="12"/>
       <c r="X150" s="9"/>
       <c r="Y150" s="37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z150" s="12"/>
       <c r="AA150" s="9"/>
@@ -15172,7 +15191,7 @@
       </c>
       <c r="AO150" s="12"/>
       <c r="AP150" s="33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ150" s="12"/>
     </row>
@@ -15194,10 +15213,10 @@
       </c>
       <c r="F151" s="12"/>
       <c r="G151" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I151" s="14" t="s">
         <v>54</v>
@@ -15209,10 +15228,10 @@
       <c r="L151" s="9"/>
       <c r="M151" s="9"/>
       <c r="N151" s="12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O151" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P151" s="27"/>
       <c r="Q151" s="27"/>
@@ -15228,7 +15247,7 @@
       <c r="W151" s="12"/>
       <c r="X151" s="9"/>
       <c r="Y151" s="37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z151" s="12"/>
       <c r="AA151" s="9"/>
@@ -15257,7 +15276,7 @@
       </c>
       <c r="AO151" s="12"/>
       <c r="AP151" s="33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ151" s="12"/>
     </row>
@@ -15279,10 +15298,10 @@
       </c>
       <c r="F152" s="12"/>
       <c r="G152" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I152" s="14" t="s">
         <v>54</v>
@@ -15294,10 +15313,10 @@
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
       <c r="N152" s="12" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O152" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P152" s="27"/>
       <c r="Q152" s="27"/>
@@ -15313,7 +15332,7 @@
       <c r="W152" s="12"/>
       <c r="X152" s="9"/>
       <c r="Y152" s="37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z152" s="12"/>
       <c r="AA152" s="9"/>
@@ -15342,7 +15361,7 @@
       </c>
       <c r="AO152" s="12"/>
       <c r="AP152" s="33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ152" s="12"/>
     </row>
@@ -15364,10 +15383,10 @@
       </c>
       <c r="F153" s="12"/>
       <c r="G153" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I153" s="14" t="s">
         <v>54</v>
@@ -15398,7 +15417,7 @@
       <c r="W153" s="12"/>
       <c r="X153" s="9"/>
       <c r="Y153" s="37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z153" s="12"/>
       <c r="AA153" s="9"/>
@@ -15427,7 +15446,7 @@
       </c>
       <c r="AO153" s="12"/>
       <c r="AP153" s="33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ153" s="12"/>
     </row>
@@ -15449,10 +15468,10 @@
       </c>
       <c r="F154" s="12"/>
       <c r="G154" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I154" s="14" t="s">
         <v>54</v>
@@ -15464,10 +15483,10 @@
       <c r="L154" s="9"/>
       <c r="M154" s="9"/>
       <c r="N154" s="12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O154" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P154" s="27"/>
       <c r="Q154" s="27"/>
@@ -15483,7 +15502,7 @@
       <c r="W154" s="12"/>
       <c r="X154" s="9"/>
       <c r="Y154" s="37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z154" s="12"/>
       <c r="AA154" s="9"/>
@@ -15512,7 +15531,7 @@
       </c>
       <c r="AO154" s="12"/>
       <c r="AP154" s="33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AQ154" s="12"/>
     </row>
@@ -15534,13 +15553,13 @@
       </c>
       <c r="F155" s="12"/>
       <c r="G155" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I155" s="14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J155" s="14"/>
       <c r="K155" s="9"/>
@@ -15610,67 +15629,67 @@
         <v>44</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="E156" s="45" t="s">
         <v>465</v>
       </c>
-      <c r="F156" s="45" t="s">
+      <c r="E156" s="46" t="s">
         <v>466</v>
+      </c>
+      <c r="F156" s="46" t="s">
+        <v>467</v>
       </c>
       <c r="G156" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="H156" s="46" t="s">
-        <v>467</v>
-      </c>
-      <c r="I156" s="47" t="s">
+      <c r="H156" s="47" t="s">
         <v>468</v>
       </c>
-      <c r="J156" s="47" t="s">
+      <c r="I156" s="48" t="s">
         <v>469</v>
       </c>
-      <c r="K156" s="47"/>
-      <c r="L156" s="47"/>
+      <c r="J156" s="48" t="s">
+        <v>470</v>
+      </c>
+      <c r="K156" s="48"/>
+      <c r="L156" s="48"/>
       <c r="M156" s="21"/>
       <c r="N156" s="21"/>
-      <c r="O156" s="47"/>
-      <c r="P156" s="47"/>
-      <c r="Q156" s="47"/>
-      <c r="R156" s="47"/>
-      <c r="S156" s="47" t="s">
-        <v>470</v>
-      </c>
-      <c r="T156" s="47"/>
-      <c r="U156" s="47"/>
-      <c r="V156" s="47"/>
-      <c r="W156" s="47"/>
-      <c r="X156" s="47"/>
-      <c r="Y156" s="47"/>
-      <c r="Z156" s="47"/>
-      <c r="AA156" s="47"/>
-      <c r="AB156" s="47"/>
-      <c r="AC156" s="47"/>
-      <c r="AD156" s="47"/>
-      <c r="AE156" s="47"/>
-      <c r="AF156" s="48" t="n">
+      <c r="O156" s="48"/>
+      <c r="P156" s="48"/>
+      <c r="Q156" s="48"/>
+      <c r="R156" s="48"/>
+      <c r="S156" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="T156" s="48"/>
+      <c r="U156" s="48"/>
+      <c r="V156" s="48"/>
+      <c r="W156" s="48"/>
+      <c r="X156" s="48"/>
+      <c r="Y156" s="48"/>
+      <c r="Z156" s="48"/>
+      <c r="AA156" s="48"/>
+      <c r="AB156" s="48"/>
+      <c r="AC156" s="48"/>
+      <c r="AD156" s="48"/>
+      <c r="AE156" s="48"/>
+      <c r="AF156" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="AG156" s="47"/>
-      <c r="AH156" s="47"/>
-      <c r="AI156" s="47"/>
-      <c r="AJ156" s="47"/>
-      <c r="AK156" s="47"/>
-      <c r="AL156" s="47"/>
-      <c r="AM156" s="47"/>
+      <c r="AG156" s="48"/>
+      <c r="AH156" s="48"/>
+      <c r="AI156" s="48"/>
+      <c r="AJ156" s="48"/>
+      <c r="AK156" s="48"/>
+      <c r="AL156" s="48"/>
+      <c r="AM156" s="48"/>
       <c r="AN156" s="12" t="n">
         <v>154</v>
       </c>
-      <c r="AO156" s="47" t="n">
+      <c r="AO156" s="48" t="n">
         <v>101</v>
       </c>
-      <c r="AP156" s="47"/>
-      <c r="AQ156" s="47"/>
+      <c r="AP156" s="48"/>
+      <c r="AQ156" s="48"/>
     </row>
     <row r="157" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="37" t="n">
@@ -15683,65 +15702,65 @@
         <v>44</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="E157" s="45" t="s">
-        <v>471</v>
-      </c>
-      <c r="F157" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="E157" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="G157" s="45" t="s">
+      <c r="F157" s="46" t="s">
+        <v>473</v>
+      </c>
+      <c r="G157" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="H157" s="46"/>
-      <c r="I157" s="47" t="s">
-        <v>473</v>
-      </c>
-      <c r="J157" s="47" t="s">
+      <c r="H157" s="47"/>
+      <c r="I157" s="48" t="s">
         <v>474</v>
       </c>
-      <c r="K157" s="47"/>
-      <c r="L157" s="47"/>
+      <c r="J157" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="K157" s="48"/>
+      <c r="L157" s="48"/>
       <c r="M157" s="21"/>
       <c r="N157" s="21"/>
-      <c r="O157" s="47"/>
-      <c r="P157" s="47"/>
-      <c r="Q157" s="47"/>
-      <c r="R157" s="47"/>
-      <c r="S157" s="47" t="s">
-        <v>470</v>
-      </c>
-      <c r="T157" s="47"/>
-      <c r="U157" s="47"/>
-      <c r="V157" s="47"/>
-      <c r="W157" s="47"/>
-      <c r="X157" s="47"/>
-      <c r="Y157" s="47"/>
-      <c r="Z157" s="47"/>
-      <c r="AA157" s="47"/>
-      <c r="AB157" s="47"/>
-      <c r="AC157" s="47"/>
-      <c r="AD157" s="47"/>
-      <c r="AE157" s="47"/>
-      <c r="AF157" s="48" t="n">
+      <c r="O157" s="48"/>
+      <c r="P157" s="48"/>
+      <c r="Q157" s="48"/>
+      <c r="R157" s="48"/>
+      <c r="S157" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="T157" s="48"/>
+      <c r="U157" s="48"/>
+      <c r="V157" s="48"/>
+      <c r="W157" s="48"/>
+      <c r="X157" s="48"/>
+      <c r="Y157" s="48"/>
+      <c r="Z157" s="48"/>
+      <c r="AA157" s="48"/>
+      <c r="AB157" s="48"/>
+      <c r="AC157" s="48"/>
+      <c r="AD157" s="48"/>
+      <c r="AE157" s="48"/>
+      <c r="AF157" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="AG157" s="47"/>
-      <c r="AH157" s="47"/>
-      <c r="AI157" s="47"/>
-      <c r="AJ157" s="47"/>
-      <c r="AK157" s="47"/>
-      <c r="AL157" s="47"/>
-      <c r="AM157" s="47"/>
+      <c r="AG157" s="48"/>
+      <c r="AH157" s="48"/>
+      <c r="AI157" s="48"/>
+      <c r="AJ157" s="48"/>
+      <c r="AK157" s="48"/>
+      <c r="AL157" s="48"/>
+      <c r="AM157" s="48"/>
       <c r="AN157" s="12" t="n">
         <v>155</v>
       </c>
       <c r="AO157" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="AP157" s="47"/>
-      <c r="AQ157" s="47"/>
+        <v>476</v>
+      </c>
+      <c r="AP157" s="48"/>
+      <c r="AQ157" s="48"/>
     </row>
     <row r="158" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="37" t="n">
@@ -15754,67 +15773,67 @@
         <v>44</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="E158" s="45" t="s">
-        <v>476</v>
-      </c>
-      <c r="F158" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="E158" s="46" t="s">
         <v>477</v>
       </c>
-      <c r="G158" s="45" t="s">
+      <c r="F158" s="46" t="s">
+        <v>478</v>
+      </c>
+      <c r="G158" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="H158" s="46" t="s">
-        <v>478</v>
-      </c>
-      <c r="I158" s="47" t="s">
-        <v>468</v>
-      </c>
-      <c r="J158" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="K158" s="47"/>
-      <c r="L158" s="47"/>
+      <c r="H158" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="I158" s="48" t="s">
+        <v>469</v>
+      </c>
+      <c r="J158" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="K158" s="48"/>
+      <c r="L158" s="48"/>
       <c r="M158" s="21"/>
       <c r="N158" s="21"/>
-      <c r="O158" s="47"/>
-      <c r="P158" s="47"/>
-      <c r="Q158" s="47"/>
-      <c r="R158" s="47"/>
-      <c r="S158" s="47" t="s">
-        <v>470</v>
-      </c>
-      <c r="T158" s="47"/>
-      <c r="U158" s="47"/>
-      <c r="V158" s="47"/>
-      <c r="W158" s="47"/>
-      <c r="X158" s="47"/>
-      <c r="Y158" s="47"/>
-      <c r="Z158" s="47"/>
-      <c r="AA158" s="47"/>
-      <c r="AB158" s="47"/>
-      <c r="AC158" s="47"/>
-      <c r="AD158" s="47"/>
-      <c r="AE158" s="47"/>
-      <c r="AF158" s="48" t="n">
+      <c r="O158" s="48"/>
+      <c r="P158" s="48"/>
+      <c r="Q158" s="48"/>
+      <c r="R158" s="48"/>
+      <c r="S158" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="T158" s="48"/>
+      <c r="U158" s="48"/>
+      <c r="V158" s="48"/>
+      <c r="W158" s="48"/>
+      <c r="X158" s="48"/>
+      <c r="Y158" s="48"/>
+      <c r="Z158" s="48"/>
+      <c r="AA158" s="48"/>
+      <c r="AB158" s="48"/>
+      <c r="AC158" s="48"/>
+      <c r="AD158" s="48"/>
+      <c r="AE158" s="48"/>
+      <c r="AF158" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="AG158" s="47"/>
-      <c r="AH158" s="47"/>
-      <c r="AI158" s="47"/>
-      <c r="AJ158" s="47"/>
-      <c r="AK158" s="47"/>
-      <c r="AL158" s="47"/>
-      <c r="AM158" s="47"/>
+      <c r="AG158" s="48"/>
+      <c r="AH158" s="48"/>
+      <c r="AI158" s="48"/>
+      <c r="AJ158" s="48"/>
+      <c r="AK158" s="48"/>
+      <c r="AL158" s="48"/>
+      <c r="AM158" s="48"/>
       <c r="AN158" s="12" t="n">
         <v>156</v>
       </c>
-      <c r="AO158" s="47" t="n">
+      <c r="AO158" s="48" t="n">
         <v>105</v>
       </c>
-      <c r="AP158" s="47"/>
-      <c r="AQ158" s="47"/>
+      <c r="AP158" s="48"/>
+      <c r="AQ158" s="48"/>
     </row>
     <row r="159" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="37" t="n">
@@ -15827,69 +15846,69 @@
         <v>44</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="E159" s="45" t="s">
-        <v>479</v>
-      </c>
-      <c r="F159" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="E159" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="G159" s="45" t="s">
+      <c r="F159" s="46" t="s">
         <v>481</v>
       </c>
-      <c r="H159" s="47"/>
+      <c r="G159" s="46" t="s">
+        <v>482</v>
+      </c>
+      <c r="H159" s="48"/>
       <c r="I159" s="21" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J159" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="K159" s="47"/>
-      <c r="L159" s="47"/>
+        <v>475</v>
+      </c>
+      <c r="K159" s="48"/>
+      <c r="L159" s="48"/>
       <c r="M159" s="21"/>
       <c r="N159" s="21"/>
-      <c r="O159" s="47" t="s">
-        <v>483</v>
-      </c>
-      <c r="P159" s="47"/>
-      <c r="Q159" s="47"/>
-      <c r="R159" s="47"/>
-      <c r="S159" s="47" t="s">
+      <c r="O159" s="48" t="s">
         <v>484</v>
       </c>
-      <c r="T159" s="47"/>
-      <c r="U159" s="47"/>
-      <c r="V159" s="47"/>
-      <c r="W159" s="47"/>
-      <c r="X159" s="49" t="s">
+      <c r="P159" s="48"/>
+      <c r="Q159" s="48"/>
+      <c r="R159" s="48"/>
+      <c r="S159" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="T159" s="48"/>
+      <c r="U159" s="48"/>
+      <c r="V159" s="48"/>
+      <c r="W159" s="48"/>
+      <c r="X159" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="Y159" s="50" t="s">
-        <v>485</v>
-      </c>
-      <c r="Z159" s="47"/>
-      <c r="AA159" s="47"/>
-      <c r="AB159" s="47"/>
-      <c r="AC159" s="47"/>
-      <c r="AD159" s="47"/>
-      <c r="AE159" s="47"/>
-      <c r="AF159" s="51" t="n">
+      <c r="Y159" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z159" s="48"/>
+      <c r="AA159" s="48"/>
+      <c r="AB159" s="48"/>
+      <c r="AC159" s="48"/>
+      <c r="AD159" s="48"/>
+      <c r="AE159" s="48"/>
+      <c r="AF159" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG159" s="47"/>
-      <c r="AH159" s="47"/>
-      <c r="AI159" s="47"/>
-      <c r="AJ159" s="47"/>
-      <c r="AK159" s="47"/>
-      <c r="AL159" s="47"/>
-      <c r="AM159" s="47"/>
+      <c r="AG159" s="48"/>
+      <c r="AH159" s="48"/>
+      <c r="AI159" s="48"/>
+      <c r="AJ159" s="48"/>
+      <c r="AK159" s="48"/>
+      <c r="AL159" s="48"/>
+      <c r="AM159" s="48"/>
       <c r="AN159" s="12" t="n">
         <v>157</v>
       </c>
-      <c r="AO159" s="47"/>
-      <c r="AP159" s="47"/>
-      <c r="AQ159" s="47"/>
+      <c r="AO159" s="48"/>
+      <c r="AP159" s="48"/>
+      <c r="AQ159" s="48"/>
     </row>
     <row r="160" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="37" t="n">
@@ -15902,67 +15921,67 @@
         <v>44</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="E160" s="45" t="s">
-        <v>486</v>
-      </c>
-      <c r="F160" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="E160" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="G160" s="45" t="s">
+      <c r="F160" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="H160" s="47"/>
+      <c r="G160" s="46" t="s">
+        <v>489</v>
+      </c>
+      <c r="H160" s="48"/>
       <c r="I160" s="21" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J160" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="K160" s="47"/>
-      <c r="L160" s="47"/>
+        <v>491</v>
+      </c>
+      <c r="K160" s="48"/>
+      <c r="L160" s="48"/>
       <c r="M160" s="21"/>
       <c r="N160" s="21"/>
-      <c r="O160" s="47" t="s">
+      <c r="O160" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="P160" s="47"/>
-      <c r="Q160" s="47"/>
-      <c r="R160" s="47"/>
-      <c r="S160" s="47" t="s">
-        <v>484</v>
-      </c>
-      <c r="T160" s="47"/>
-      <c r="U160" s="47"/>
-      <c r="V160" s="47"/>
-      <c r="W160" s="47"/>
-      <c r="X160" s="47"/>
+      <c r="P160" s="48"/>
+      <c r="Q160" s="48"/>
+      <c r="R160" s="48"/>
+      <c r="S160" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="T160" s="48"/>
+      <c r="U160" s="48"/>
+      <c r="V160" s="48"/>
+      <c r="W160" s="48"/>
+      <c r="X160" s="48"/>
       <c r="Y160" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="Z160" s="47"/>
-      <c r="AA160" s="47"/>
-      <c r="AB160" s="47"/>
-      <c r="AC160" s="47"/>
-      <c r="AD160" s="47"/>
-      <c r="AE160" s="47"/>
-      <c r="AF160" s="51" t="n">
+        <v>492</v>
+      </c>
+      <c r="Z160" s="48"/>
+      <c r="AA160" s="48"/>
+      <c r="AB160" s="48"/>
+      <c r="AC160" s="48"/>
+      <c r="AD160" s="48"/>
+      <c r="AE160" s="48"/>
+      <c r="AF160" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG160" s="47"/>
-      <c r="AH160" s="47"/>
-      <c r="AI160" s="47"/>
-      <c r="AJ160" s="47"/>
-      <c r="AK160" s="47"/>
-      <c r="AL160" s="47"/>
-      <c r="AM160" s="47"/>
+      <c r="AG160" s="48"/>
+      <c r="AH160" s="48"/>
+      <c r="AI160" s="48"/>
+      <c r="AJ160" s="48"/>
+      <c r="AK160" s="48"/>
+      <c r="AL160" s="48"/>
+      <c r="AM160" s="48"/>
       <c r="AN160" s="12" t="n">
         <v>158</v>
       </c>
-      <c r="AO160" s="47"/>
-      <c r="AP160" s="47"/>
-      <c r="AQ160" s="47"/>
+      <c r="AO160" s="48"/>
+      <c r="AP160" s="48"/>
+      <c r="AQ160" s="48"/>
     </row>
     <row r="161" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="37" t="n">
@@ -15975,67 +15994,67 @@
         <v>44</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="E161" s="45" t="s">
-        <v>492</v>
-      </c>
-      <c r="F161" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="E161" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="G161" s="45" t="s">
+      <c r="F161" s="46" t="s">
         <v>494</v>
       </c>
-      <c r="H161" s="47"/>
+      <c r="G161" s="46" t="s">
+        <v>495</v>
+      </c>
+      <c r="H161" s="48"/>
       <c r="I161" s="21" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J161" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="K161" s="47"/>
-      <c r="L161" s="47"/>
+        <v>491</v>
+      </c>
+      <c r="K161" s="48"/>
+      <c r="L161" s="48"/>
       <c r="M161" s="21"/>
       <c r="N161" s="21"/>
-      <c r="O161" s="47" t="s">
-        <v>495</v>
-      </c>
-      <c r="P161" s="47"/>
-      <c r="Q161" s="47"/>
-      <c r="R161" s="47"/>
-      <c r="S161" s="47" t="s">
-        <v>484</v>
-      </c>
-      <c r="T161" s="47"/>
-      <c r="U161" s="47"/>
-      <c r="V161" s="47"/>
-      <c r="W161" s="47"/>
-      <c r="X161" s="47"/>
+      <c r="O161" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="P161" s="48"/>
+      <c r="Q161" s="48"/>
+      <c r="R161" s="48"/>
+      <c r="S161" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="T161" s="48"/>
+      <c r="U161" s="48"/>
+      <c r="V161" s="48"/>
+      <c r="W161" s="48"/>
+      <c r="X161" s="48"/>
       <c r="Y161" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="Z161" s="47"/>
-      <c r="AA161" s="47"/>
-      <c r="AB161" s="47"/>
-      <c r="AC161" s="47"/>
-      <c r="AD161" s="47"/>
-      <c r="AE161" s="47"/>
-      <c r="AF161" s="51" t="n">
+        <v>492</v>
+      </c>
+      <c r="Z161" s="48"/>
+      <c r="AA161" s="48"/>
+      <c r="AB161" s="48"/>
+      <c r="AC161" s="48"/>
+      <c r="AD161" s="48"/>
+      <c r="AE161" s="48"/>
+      <c r="AF161" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG161" s="47"/>
-      <c r="AH161" s="47"/>
-      <c r="AI161" s="47"/>
-      <c r="AJ161" s="47"/>
-      <c r="AK161" s="47"/>
-      <c r="AL161" s="47"/>
-      <c r="AM161" s="47"/>
+      <c r="AG161" s="48"/>
+      <c r="AH161" s="48"/>
+      <c r="AI161" s="48"/>
+      <c r="AJ161" s="48"/>
+      <c r="AK161" s="48"/>
+      <c r="AL161" s="48"/>
+      <c r="AM161" s="48"/>
       <c r="AN161" s="12" t="n">
         <v>159</v>
       </c>
-      <c r="AO161" s="47"/>
-      <c r="AP161" s="47"/>
-      <c r="AQ161" s="47"/>
+      <c r="AO161" s="48"/>
+      <c r="AP161" s="48"/>
+      <c r="AQ161" s="48"/>
     </row>
     <row r="162" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="37" t="n">
@@ -16048,67 +16067,67 @@
         <v>44</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="E162" s="45" t="s">
-        <v>496</v>
-      </c>
-      <c r="F162" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="E162" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="G162" s="45" t="s">
+      <c r="F162" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="H162" s="47"/>
+      <c r="G162" s="46" t="s">
+        <v>499</v>
+      </c>
+      <c r="H162" s="48"/>
       <c r="I162" s="21" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J162" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="K162" s="47"/>
-      <c r="L162" s="47"/>
+        <v>491</v>
+      </c>
+      <c r="K162" s="48"/>
+      <c r="L162" s="48"/>
       <c r="M162" s="21"/>
       <c r="N162" s="21"/>
-      <c r="O162" s="47" t="s">
-        <v>499</v>
-      </c>
-      <c r="P162" s="47"/>
-      <c r="Q162" s="47"/>
-      <c r="R162" s="47"/>
-      <c r="S162" s="47" t="s">
-        <v>484</v>
-      </c>
-      <c r="T162" s="47"/>
-      <c r="U162" s="47"/>
-      <c r="V162" s="47"/>
-      <c r="W162" s="47"/>
-      <c r="X162" s="47"/>
+      <c r="O162" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="P162" s="48"/>
+      <c r="Q162" s="48"/>
+      <c r="R162" s="48"/>
+      <c r="S162" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="T162" s="48"/>
+      <c r="U162" s="48"/>
+      <c r="V162" s="48"/>
+      <c r="W162" s="48"/>
+      <c r="X162" s="48"/>
       <c r="Y162" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="Z162" s="47"/>
-      <c r="AA162" s="47"/>
-      <c r="AB162" s="47"/>
-      <c r="AC162" s="47"/>
-      <c r="AD162" s="47"/>
-      <c r="AE162" s="47"/>
-      <c r="AF162" s="51" t="n">
+        <v>492</v>
+      </c>
+      <c r="Z162" s="48"/>
+      <c r="AA162" s="48"/>
+      <c r="AB162" s="48"/>
+      <c r="AC162" s="48"/>
+      <c r="AD162" s="48"/>
+      <c r="AE162" s="48"/>
+      <c r="AF162" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG162" s="47"/>
-      <c r="AH162" s="47"/>
-      <c r="AI162" s="47"/>
-      <c r="AJ162" s="47"/>
-      <c r="AK162" s="47"/>
+      <c r="AG162" s="48"/>
+      <c r="AH162" s="48"/>
+      <c r="AI162" s="48"/>
+      <c r="AJ162" s="48"/>
+      <c r="AK162" s="48"/>
       <c r="AL162" s="12"/>
-      <c r="AM162" s="47"/>
+      <c r="AM162" s="48"/>
       <c r="AN162" s="12" t="n">
         <v>160</v>
       </c>
-      <c r="AO162" s="47"/>
-      <c r="AP162" s="47"/>
-      <c r="AQ162" s="47"/>
+      <c r="AO162" s="48"/>
+      <c r="AP162" s="48"/>
+      <c r="AQ162" s="48"/>
     </row>
     <row r="163" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="37" t="n">
@@ -16121,71 +16140,71 @@
         <v>44</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="E163" s="45" t="s">
-        <v>500</v>
-      </c>
-      <c r="F163" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="E163" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="G163" s="45" t="s">
+      <c r="F163" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="H163" s="47" t="s">
+      <c r="G163" s="46" t="s">
+        <v>503</v>
+      </c>
+      <c r="H163" s="48" t="s">
         <v>246</v>
       </c>
       <c r="I163" s="21" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J163" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="K163" s="47"/>
-      <c r="L163" s="47"/>
+        <v>491</v>
+      </c>
+      <c r="K163" s="48"/>
+      <c r="L163" s="48"/>
       <c r="M163" s="21"/>
       <c r="N163" s="21"/>
       <c r="O163" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="P163" s="47"/>
-      <c r="Q163" s="47"/>
-      <c r="R163" s="47"/>
-      <c r="S163" s="47" t="s">
-        <v>484</v>
-      </c>
-      <c r="T163" s="47"/>
-      <c r="U163" s="47"/>
-      <c r="V163" s="47"/>
-      <c r="W163" s="47"/>
-      <c r="X163" s="47"/>
+        <v>505</v>
+      </c>
+      <c r="P163" s="48"/>
+      <c r="Q163" s="48"/>
+      <c r="R163" s="48"/>
+      <c r="S163" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="T163" s="48"/>
+      <c r="U163" s="48"/>
+      <c r="V163" s="48"/>
+      <c r="W163" s="48"/>
+      <c r="X163" s="48"/>
       <c r="Y163" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z163" s="47"/>
-      <c r="AA163" s="47"/>
-      <c r="AB163" s="47"/>
-      <c r="AC163" s="47"/>
-      <c r="AD163" s="47"/>
-      <c r="AE163" s="47"/>
-      <c r="AF163" s="51" t="n">
+        <v>506</v>
+      </c>
+      <c r="Z163" s="48"/>
+      <c r="AA163" s="48"/>
+      <c r="AB163" s="48"/>
+      <c r="AC163" s="48"/>
+      <c r="AD163" s="48"/>
+      <c r="AE163" s="48"/>
+      <c r="AF163" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG163" s="47"/>
-      <c r="AH163" s="47"/>
-      <c r="AI163" s="47"/>
-      <c r="AJ163" s="47"/>
-      <c r="AK163" s="47"/>
-      <c r="AL163" s="47"/>
-      <c r="AM163" s="47"/>
+      <c r="AG163" s="48"/>
+      <c r="AH163" s="48"/>
+      <c r="AI163" s="48"/>
+      <c r="AJ163" s="48"/>
+      <c r="AK163" s="48"/>
+      <c r="AL163" s="48"/>
+      <c r="AM163" s="48"/>
       <c r="AN163" s="12" t="n">
         <v>161</v>
       </c>
-      <c r="AO163" s="47" t="n">
+      <c r="AO163" s="48" t="n">
         <v>83</v>
       </c>
-      <c r="AP163" s="47"/>
-      <c r="AQ163" s="47"/>
+      <c r="AP163" s="48"/>
+      <c r="AQ163" s="48"/>
     </row>
     <row r="164" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="37" t="n">
@@ -16198,71 +16217,71 @@
         <v>44</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="E164" s="45" t="s">
-        <v>500</v>
-      </c>
-      <c r="F164" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="E164" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="G164" s="45" t="s">
+      <c r="F164" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="H164" s="47" t="s">
+      <c r="G164" s="46" t="s">
+        <v>503</v>
+      </c>
+      <c r="H164" s="48" t="s">
         <v>274</v>
       </c>
       <c r="I164" s="21" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J164" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="K164" s="47"/>
-      <c r="L164" s="47"/>
+        <v>491</v>
+      </c>
+      <c r="K164" s="48"/>
+      <c r="L164" s="48"/>
       <c r="M164" s="21"/>
       <c r="N164" s="21"/>
       <c r="O164" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="P164" s="47"/>
-      <c r="Q164" s="47"/>
-      <c r="R164" s="47"/>
-      <c r="S164" s="47" t="s">
-        <v>484</v>
-      </c>
-      <c r="T164" s="47"/>
-      <c r="U164" s="47"/>
-      <c r="V164" s="47"/>
-      <c r="W164" s="47"/>
-      <c r="X164" s="47"/>
+        <v>505</v>
+      </c>
+      <c r="P164" s="48"/>
+      <c r="Q164" s="48"/>
+      <c r="R164" s="48"/>
+      <c r="S164" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="T164" s="48"/>
+      <c r="U164" s="48"/>
+      <c r="V164" s="48"/>
+      <c r="W164" s="48"/>
+      <c r="X164" s="48"/>
       <c r="Y164" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="Z164" s="47"/>
-      <c r="AA164" s="47"/>
-      <c r="AB164" s="47"/>
-      <c r="AC164" s="47"/>
-      <c r="AD164" s="47"/>
-      <c r="AE164" s="47"/>
-      <c r="AF164" s="51" t="n">
+        <v>507</v>
+      </c>
+      <c r="Z164" s="48"/>
+      <c r="AA164" s="48"/>
+      <c r="AB164" s="48"/>
+      <c r="AC164" s="48"/>
+      <c r="AD164" s="48"/>
+      <c r="AE164" s="48"/>
+      <c r="AF164" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG164" s="47"/>
-      <c r="AH164" s="47"/>
-      <c r="AI164" s="47"/>
-      <c r="AJ164" s="47"/>
-      <c r="AK164" s="47"/>
-      <c r="AL164" s="47"/>
-      <c r="AM164" s="47"/>
+      <c r="AG164" s="48"/>
+      <c r="AH164" s="48"/>
+      <c r="AI164" s="48"/>
+      <c r="AJ164" s="48"/>
+      <c r="AK164" s="48"/>
+      <c r="AL164" s="48"/>
+      <c r="AM164" s="48"/>
       <c r="AN164" s="12" t="n">
         <v>162</v>
       </c>
-      <c r="AO164" s="47" t="n">
+      <c r="AO164" s="48" t="n">
         <v>91</v>
       </c>
-      <c r="AP164" s="47"/>
-      <c r="AQ164" s="47"/>
+      <c r="AP164" s="48"/>
+      <c r="AQ164" s="48"/>
     </row>
     <row r="165" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="37" t="n">
@@ -16275,71 +16294,71 @@
         <v>44</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="E165" s="45" t="s">
-        <v>500</v>
-      </c>
-      <c r="F165" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="E165" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="G165" s="45" t="s">
+      <c r="F165" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="H165" s="47" t="s">
+      <c r="G165" s="46" t="s">
+        <v>503</v>
+      </c>
+      <c r="H165" s="48" t="s">
         <v>265</v>
       </c>
       <c r="I165" s="21" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J165" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="K165" s="47"/>
-      <c r="L165" s="47"/>
+        <v>491</v>
+      </c>
+      <c r="K165" s="48"/>
+      <c r="L165" s="48"/>
       <c r="M165" s="21"/>
       <c r="N165" s="21"/>
       <c r="O165" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="P165" s="47"/>
-      <c r="Q165" s="47"/>
-      <c r="R165" s="47"/>
-      <c r="S165" s="47" t="s">
-        <v>484</v>
-      </c>
-      <c r="T165" s="47"/>
-      <c r="U165" s="47"/>
-      <c r="V165" s="47"/>
-      <c r="W165" s="47"/>
-      <c r="X165" s="47"/>
+        <v>505</v>
+      </c>
+      <c r="P165" s="48"/>
+      <c r="Q165" s="48"/>
+      <c r="R165" s="48"/>
+      <c r="S165" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="T165" s="48"/>
+      <c r="U165" s="48"/>
+      <c r="V165" s="48"/>
+      <c r="W165" s="48"/>
+      <c r="X165" s="48"/>
       <c r="Y165" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="Z165" s="47"/>
-      <c r="AA165" s="47"/>
-      <c r="AB165" s="47"/>
-      <c r="AC165" s="47"/>
-      <c r="AD165" s="47"/>
-      <c r="AE165" s="47"/>
-      <c r="AF165" s="51" t="n">
+        <v>508</v>
+      </c>
+      <c r="Z165" s="48"/>
+      <c r="AA165" s="48"/>
+      <c r="AB165" s="48"/>
+      <c r="AC165" s="48"/>
+      <c r="AD165" s="48"/>
+      <c r="AE165" s="48"/>
+      <c r="AF165" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG165" s="47"/>
-      <c r="AH165" s="47"/>
-      <c r="AI165" s="47"/>
-      <c r="AJ165" s="47"/>
-      <c r="AK165" s="47"/>
-      <c r="AL165" s="47"/>
-      <c r="AM165" s="47"/>
+      <c r="AG165" s="48"/>
+      <c r="AH165" s="48"/>
+      <c r="AI165" s="48"/>
+      <c r="AJ165" s="48"/>
+      <c r="AK165" s="48"/>
+      <c r="AL165" s="48"/>
+      <c r="AM165" s="48"/>
       <c r="AN165" s="12" t="n">
         <v>163</v>
       </c>
-      <c r="AO165" s="47" t="n">
+      <c r="AO165" s="48" t="n">
         <v>88</v>
       </c>
-      <c r="AP165" s="47"/>
-      <c r="AQ165" s="47"/>
+      <c r="AP165" s="48"/>
+      <c r="AQ165" s="48"/>
     </row>
     <row r="166" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="37" t="n">
@@ -16352,71 +16371,71 @@
         <v>44</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="E166" s="45" t="s">
-        <v>500</v>
-      </c>
-      <c r="F166" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="E166" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="G166" s="45" t="s">
+      <c r="F166" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="H166" s="47" t="s">
+      <c r="G166" s="46" t="s">
+        <v>503</v>
+      </c>
+      <c r="H166" s="48" t="s">
         <v>289</v>
       </c>
       <c r="I166" s="21" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J166" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="K166" s="47"/>
-      <c r="L166" s="47"/>
+        <v>491</v>
+      </c>
+      <c r="K166" s="48"/>
+      <c r="L166" s="48"/>
       <c r="M166" s="21"/>
       <c r="N166" s="21"/>
       <c r="O166" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="P166" s="47"/>
-      <c r="Q166" s="47"/>
-      <c r="R166" s="47"/>
-      <c r="S166" s="47" t="s">
-        <v>484</v>
-      </c>
-      <c r="T166" s="47"/>
-      <c r="U166" s="47"/>
-      <c r="V166" s="47"/>
-      <c r="W166" s="47"/>
-      <c r="X166" s="47"/>
+        <v>505</v>
+      </c>
+      <c r="P166" s="48"/>
+      <c r="Q166" s="48"/>
+      <c r="R166" s="48"/>
+      <c r="S166" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="T166" s="48"/>
+      <c r="U166" s="48"/>
+      <c r="V166" s="48"/>
+      <c r="W166" s="48"/>
+      <c r="X166" s="48"/>
       <c r="Y166" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z166" s="47"/>
-      <c r="AA166" s="47"/>
-      <c r="AB166" s="47"/>
-      <c r="AC166" s="47"/>
-      <c r="AD166" s="47"/>
-      <c r="AE166" s="47"/>
-      <c r="AF166" s="51" t="n">
+        <v>509</v>
+      </c>
+      <c r="Z166" s="48"/>
+      <c r="AA166" s="48"/>
+      <c r="AB166" s="48"/>
+      <c r="AC166" s="48"/>
+      <c r="AD166" s="48"/>
+      <c r="AE166" s="48"/>
+      <c r="AF166" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG166" s="47"/>
-      <c r="AH166" s="47"/>
-      <c r="AI166" s="47"/>
-      <c r="AJ166" s="47"/>
-      <c r="AK166" s="47"/>
-      <c r="AL166" s="47"/>
-      <c r="AM166" s="47"/>
+      <c r="AG166" s="48"/>
+      <c r="AH166" s="48"/>
+      <c r="AI166" s="48"/>
+      <c r="AJ166" s="48"/>
+      <c r="AK166" s="48"/>
+      <c r="AL166" s="48"/>
+      <c r="AM166" s="48"/>
       <c r="AN166" s="12" t="n">
         <v>164</v>
       </c>
-      <c r="AO166" s="47" t="n">
+      <c r="AO166" s="48" t="n">
         <v>96</v>
       </c>
-      <c r="AP166" s="47"/>
-      <c r="AQ166" s="47"/>
+      <c r="AP166" s="48"/>
+      <c r="AQ166" s="48"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16475,14 +16494,17 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>355</v>
       </c>
     </row>
@@ -16509,15 +16531,18 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -16543,19 +16568,22 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G1" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16568,7 +16596,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>10</v>
@@ -16576,180 +16604,180 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="C7" s="53" t="s">
         <v>516</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>517</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="H7" s="53"/>
+        <v>518</v>
+      </c>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="H8" s="53"/>
+        <v>519</v>
+      </c>
+      <c r="H8" s="54"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="53"/>
+      <c r="A10" s="54"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="53" t="s">
-        <v>516</v>
+      <c r="A11" s="54" t="s">
+        <v>517</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="E15" s="53"/>
-      <c r="H15" s="53"/>
+        <v>522</v>
+      </c>
+      <c r="E15" s="54"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="53"/>
-      <c r="H16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="53" t="s">
-        <v>516</v>
+      <c r="A18" s="54" t="s">
+        <v>517</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C18" s="53" t="s">
-        <v>516</v>
+      <c r="C18" s="54" t="s">
+        <v>517</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="54" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="53" t="s">
-        <v>524</v>
-      </c>
-      <c r="B20" s="54" t="s">
+      <c r="A20" s="54" t="s">
         <v>525</v>
       </c>
-      <c r="C20" s="53" t="s">
-        <v>524</v>
-      </c>
-      <c r="D20" s="54" t="s">
+      <c r="B20" s="55" t="s">
         <v>526</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>525</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="H25" s="55" t="s">
-        <v>529</v>
-      </c>
-      <c r="J25" s="53"/>
+      <c r="G25" s="54" t="s">
+        <v>517</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>530</v>
+      </c>
+      <c r="J25" s="54"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="54" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="53" t="s">
-        <v>516</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>529</v>
-      </c>
-      <c r="D28" s="53" t="s">
-        <v>516</v>
+      <c r="B28" s="54" t="s">
+        <v>517</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>530</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>517</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="54" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -16775,51 +16803,54 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="57" t="s">
-        <v>533</v>
-      </c>
-      <c r="H1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>534</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="H1" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="I1" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="57" t="s">
-        <v>535</v>
-      </c>
-      <c r="L1" s="57" t="s">
+      <c r="K1" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="L1" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="58" t="s">
-        <v>536</v>
+      <c r="B4" s="59" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU/Data/FT PoS 2018.xlsx
@@ -41,9 +41,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="539">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1152,7 +1153,7 @@
     <t xml:space="preserve">Cooler</t>
   </si>
   <si>
-    <t xml:space="preserve">FC 1 door, FC 1.5 door</t>
+    <t xml:space="preserve">FC 1 door, FC door 1.5 door</t>
   </si>
   <si>
     <t xml:space="preserve">filled collers target</t>
@@ -1219,6 +1220,9 @@
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Sum</t>
   </si>
   <si>
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
@@ -2216,7 +2220,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2224,15 +2228,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2396,19 +2400,19 @@
   </sheetPr>
   <dimension ref="A1:AQ167"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="AI111" activeCellId="0" sqref="AI111"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="U107" activeCellId="0" sqref="U107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="41.4210526315789"/>
+    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="17.1376518218624"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11698,19 +11702,19 @@
       <c r="A110" s="37" t="n">
         <v>109</v>
       </c>
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C110" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D110" s="36" t="s">
+      <c r="D110" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E110" s="36" t="s">
+      <c r="E110" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="F110" s="36"/>
+      <c r="F110" s="38"/>
       <c r="G110" s="37" t="s">
         <v>343</v>
       </c>
@@ -11728,44 +11732,44 @@
         <v>24</v>
       </c>
       <c r="M110" s="37"/>
-      <c r="N110" s="36" t="s">
+      <c r="N110" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="O110" s="38" t="s">
+      <c r="O110" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="P110" s="38"/>
-      <c r="Q110" s="38"/>
-      <c r="R110" s="36"/>
+      <c r="P110" s="39"/>
+      <c r="Q110" s="39"/>
+      <c r="R110" s="38"/>
       <c r="S110" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="T110" s="36"/>
-      <c r="U110" s="36"/>
-      <c r="V110" s="36"/>
-      <c r="W110" s="36"/>
+      <c r="T110" s="38"/>
+      <c r="U110" s="38"/>
+      <c r="V110" s="38"/>
+      <c r="W110" s="38"/>
       <c r="X110" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="Y110" s="36" t="s">
+      <c r="Y110" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="Z110" s="36"/>
+      <c r="Z110" s="38"/>
       <c r="AA110" s="37"/>
-      <c r="AB110" s="36"/>
-      <c r="AC110" s="36"/>
+      <c r="AB110" s="38"/>
+      <c r="AC110" s="38"/>
       <c r="AD110" s="37" t="s">
         <v>50</v>
       </c>
       <c r="AE110" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="AF110" s="39" t="n">
+      <c r="AF110" s="40" t="n">
         <v>0</v>
       </c>
       <c r="AG110" s="37"/>
       <c r="AH110" s="37"/>
-      <c r="AI110" s="40" t="s">
+      <c r="AI110" s="37" t="s">
         <v>341</v>
       </c>
       <c r="AJ110" s="37" t="s">
@@ -11773,17 +11777,17 @@
       </c>
       <c r="AK110" s="37"/>
       <c r="AL110" s="37"/>
-      <c r="AM110" s="36" t="n">
+      <c r="AM110" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="AN110" s="36" t="n">
+      <c r="AN110" s="38" t="n">
         <v>165</v>
       </c>
-      <c r="AO110" s="36"/>
-      <c r="AP110" s="36" t="s">
+      <c r="AO110" s="38"/>
+      <c r="AP110" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="AQ110" s="36"/>
+      <c r="AQ110" s="38"/>
     </row>
     <row r="111" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="37" t="n">
@@ -12066,7 +12070,7 @@
         <v>362</v>
       </c>
       <c r="I114" s="42" t="s">
-        <v>49</v>
+        <v>363</v>
       </c>
       <c r="J114" s="14"/>
       <c r="K114" s="9"/>
@@ -12096,7 +12100,7 @@
         <v>50</v>
       </c>
       <c r="AE114" s="42" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF114" s="17" t="n">
         <v>0.025</v>
@@ -12111,7 +12115,7 @@
         <v>336</v>
       </c>
       <c r="AJ114" s="37" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK114" s="9"/>
       <c r="AL114" s="9"/>
@@ -12122,7 +12126,7 @@
         <v>112</v>
       </c>
       <c r="AO114" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AP114" s="33" t="s">
         <v>356</v>
@@ -12147,10 +12151,10 @@
       </c>
       <c r="F115" s="12"/>
       <c r="G115" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>256</v>
@@ -12175,7 +12179,7 @@
       <c r="W115" s="12"/>
       <c r="X115" s="9"/>
       <c r="Y115" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z115" s="12"/>
       <c r="AA115" s="9"/>
@@ -12185,7 +12189,7 @@
         <v>50</v>
       </c>
       <c r="AE115" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF115" s="44" t="n">
         <v>1</v>
@@ -12197,7 +12201,7 @@
         <v>1</v>
       </c>
       <c r="AI115" s="37" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AJ115" s="37"/>
       <c r="AK115" s="9"/>
@@ -12209,7 +12213,7 @@
         <v>113</v>
       </c>
       <c r="AO115" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AP115" s="33" t="s">
         <v>361</v>
@@ -12234,10 +12238,10 @@
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I116" s="14" t="s">
         <v>54</v>
@@ -12268,7 +12272,7 @@
       <c r="W116" s="12"/>
       <c r="X116" s="9"/>
       <c r="Y116" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z116" s="12"/>
       <c r="AA116" s="9"/>
@@ -12297,7 +12301,7 @@
       </c>
       <c r="AO116" s="12"/>
       <c r="AP116" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ116" s="12"/>
     </row>
@@ -12319,10 +12323,10 @@
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I117" s="14" t="s">
         <v>54</v>
@@ -12353,7 +12357,7 @@
       <c r="W117" s="12"/>
       <c r="X117" s="9"/>
       <c r="Y117" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z117" s="12"/>
       <c r="AA117" s="9"/>
@@ -12382,7 +12386,7 @@
       </c>
       <c r="AO117" s="12"/>
       <c r="AP117" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ117" s="12"/>
     </row>
@@ -12404,10 +12408,10 @@
       </c>
       <c r="F118" s="12"/>
       <c r="G118" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I118" s="14" t="s">
         <v>54</v>
@@ -12438,7 +12442,7 @@
       <c r="W118" s="12"/>
       <c r="X118" s="9"/>
       <c r="Y118" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z118" s="12"/>
       <c r="AA118" s="9"/>
@@ -12467,7 +12471,7 @@
       </c>
       <c r="AO118" s="12"/>
       <c r="AP118" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ118" s="12"/>
     </row>
@@ -12489,10 +12493,10 @@
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I119" s="14" t="s">
         <v>54</v>
@@ -12523,7 +12527,7 @@
       <c r="W119" s="12"/>
       <c r="X119" s="9"/>
       <c r="Y119" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z119" s="12"/>
       <c r="AA119" s="9"/>
@@ -12552,7 +12556,7 @@
       </c>
       <c r="AO119" s="12"/>
       <c r="AP119" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ119" s="12"/>
     </row>
@@ -12574,10 +12578,10 @@
       </c>
       <c r="F120" s="12"/>
       <c r="G120" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I120" s="14" t="s">
         <v>54</v>
@@ -12608,7 +12612,7 @@
       <c r="W120" s="12"/>
       <c r="X120" s="9"/>
       <c r="Y120" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z120" s="12"/>
       <c r="AA120" s="9"/>
@@ -12637,7 +12641,7 @@
       </c>
       <c r="AO120" s="12"/>
       <c r="AP120" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ120" s="12"/>
     </row>
@@ -12659,10 +12663,10 @@
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I121" s="14" t="s">
         <v>54</v>
@@ -12693,7 +12697,7 @@
       <c r="W121" s="12"/>
       <c r="X121" s="9"/>
       <c r="Y121" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z121" s="12"/>
       <c r="AA121" s="9"/>
@@ -12722,7 +12726,7 @@
       </c>
       <c r="AO121" s="12"/>
       <c r="AP121" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ121" s="12"/>
     </row>
@@ -12744,10 +12748,10 @@
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I122" s="14" t="s">
         <v>54</v>
@@ -12778,7 +12782,7 @@
       <c r="W122" s="12"/>
       <c r="X122" s="9"/>
       <c r="Y122" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z122" s="12"/>
       <c r="AA122" s="9"/>
@@ -12807,7 +12811,7 @@
       </c>
       <c r="AO122" s="12"/>
       <c r="AP122" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ122" s="12"/>
     </row>
@@ -12829,10 +12833,10 @@
       </c>
       <c r="F123" s="12"/>
       <c r="G123" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I123" s="14" t="s">
         <v>54</v>
@@ -12863,7 +12867,7 @@
       <c r="W123" s="12"/>
       <c r="X123" s="9"/>
       <c r="Y123" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z123" s="12"/>
       <c r="AA123" s="9"/>
@@ -12892,7 +12896,7 @@
       </c>
       <c r="AO123" s="12"/>
       <c r="AP123" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ123" s="12"/>
     </row>
@@ -12914,10 +12918,10 @@
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I124" s="14" t="s">
         <v>54</v>
@@ -12948,7 +12952,7 @@
       <c r="W124" s="12"/>
       <c r="X124" s="9"/>
       <c r="Y124" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z124" s="12"/>
       <c r="AA124" s="9"/>
@@ -12977,7 +12981,7 @@
       </c>
       <c r="AO124" s="12"/>
       <c r="AP124" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ124" s="12"/>
     </row>
@@ -12999,10 +13003,10 @@
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I125" s="14" t="s">
         <v>54</v>
@@ -13033,7 +13037,7 @@
       <c r="W125" s="12"/>
       <c r="X125" s="9"/>
       <c r="Y125" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z125" s="12"/>
       <c r="AA125" s="9"/>
@@ -13062,7 +13066,7 @@
       </c>
       <c r="AO125" s="12"/>
       <c r="AP125" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ125" s="12"/>
     </row>
@@ -13084,10 +13088,10 @@
       </c>
       <c r="F126" s="12"/>
       <c r="G126" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I126" s="14" t="s">
         <v>54</v>
@@ -13118,7 +13122,7 @@
       <c r="W126" s="12"/>
       <c r="X126" s="9"/>
       <c r="Y126" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z126" s="12"/>
       <c r="AA126" s="9"/>
@@ -13147,7 +13151,7 @@
       </c>
       <c r="AO126" s="12"/>
       <c r="AP126" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ126" s="12"/>
     </row>
@@ -13169,10 +13173,10 @@
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I127" s="14" t="s">
         <v>54</v>
@@ -13184,10 +13188,10 @@
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
       <c r="N127" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O127" s="45" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P127" s="27"/>
       <c r="Q127" s="27"/>
@@ -13203,7 +13207,7 @@
       <c r="W127" s="12"/>
       <c r="X127" s="9"/>
       <c r="Y127" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z127" s="12"/>
       <c r="AA127" s="9"/>
@@ -13232,7 +13236,7 @@
       </c>
       <c r="AO127" s="12"/>
       <c r="AP127" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ127" s="12"/>
     </row>
@@ -13254,10 +13258,10 @@
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I128" s="14" t="s">
         <v>54</v>
@@ -13269,10 +13273,10 @@
       <c r="L128" s="9"/>
       <c r="M128" s="9"/>
       <c r="N128" s="12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O128" s="27" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P128" s="27"/>
       <c r="Q128" s="27"/>
@@ -13288,7 +13292,7 @@
       <c r="W128" s="12"/>
       <c r="X128" s="9"/>
       <c r="Y128" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z128" s="12"/>
       <c r="AA128" s="9"/>
@@ -13317,7 +13321,7 @@
       </c>
       <c r="AO128" s="12"/>
       <c r="AP128" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ128" s="12"/>
     </row>
@@ -13339,10 +13343,10 @@
       </c>
       <c r="F129" s="12"/>
       <c r="G129" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I129" s="14" t="s">
         <v>54</v>
@@ -13373,7 +13377,7 @@
       <c r="W129" s="12"/>
       <c r="X129" s="9"/>
       <c r="Y129" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z129" s="12"/>
       <c r="AA129" s="9"/>
@@ -13402,7 +13406,7 @@
       </c>
       <c r="AO129" s="12"/>
       <c r="AP129" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ129" s="12"/>
     </row>
@@ -13424,10 +13428,10 @@
       </c>
       <c r="F130" s="12"/>
       <c r="G130" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I130" s="14" t="s">
         <v>54</v>
@@ -13458,7 +13462,7 @@
       <c r="W130" s="12"/>
       <c r="X130" s="9"/>
       <c r="Y130" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z130" s="12"/>
       <c r="AA130" s="9"/>
@@ -13487,7 +13491,7 @@
       </c>
       <c r="AO130" s="12"/>
       <c r="AP130" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ130" s="12"/>
     </row>
@@ -13509,10 +13513,10 @@
       </c>
       <c r="F131" s="12"/>
       <c r="G131" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>54</v>
@@ -13543,7 +13547,7 @@
       <c r="W131" s="12"/>
       <c r="X131" s="9"/>
       <c r="Y131" s="37" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z131" s="12"/>
       <c r="AA131" s="9"/>
@@ -13572,7 +13576,7 @@
       </c>
       <c r="AO131" s="12"/>
       <c r="AP131" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ131" s="12"/>
     </row>
@@ -13594,10 +13598,10 @@
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>256</v>
@@ -13622,7 +13626,7 @@
       <c r="W132" s="12"/>
       <c r="X132" s="9"/>
       <c r="Y132" s="37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z132" s="12"/>
       <c r="AA132" s="9"/>
@@ -13632,7 +13636,7 @@
         <v>50</v>
       </c>
       <c r="AE132" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF132" s="44" t="n">
         <v>0.5</v>
@@ -13644,7 +13648,7 @@
         <v>1</v>
       </c>
       <c r="AI132" s="37" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AJ132" s="37"/>
       <c r="AK132" s="9"/>
@@ -13656,7 +13660,7 @@
         <v>130</v>
       </c>
       <c r="AO132" s="13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP132" s="33" t="s">
         <v>361</v>
@@ -13681,10 +13685,10 @@
       </c>
       <c r="F133" s="12"/>
       <c r="G133" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I133" s="14" t="s">
         <v>54</v>
@@ -13715,7 +13719,7 @@
       <c r="W133" s="12"/>
       <c r="X133" s="9"/>
       <c r="Y133" s="37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z133" s="12"/>
       <c r="AA133" s="9"/>
@@ -13744,7 +13748,7 @@
       </c>
       <c r="AO133" s="12"/>
       <c r="AP133" s="33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ133" s="12"/>
     </row>
@@ -13766,10 +13770,10 @@
       </c>
       <c r="F134" s="12"/>
       <c r="G134" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I134" s="14" t="s">
         <v>54</v>
@@ -13800,7 +13804,7 @@
       <c r="W134" s="12"/>
       <c r="X134" s="9"/>
       <c r="Y134" s="37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z134" s="12"/>
       <c r="AA134" s="9"/>
@@ -13829,7 +13833,7 @@
       </c>
       <c r="AO134" s="12"/>
       <c r="AP134" s="33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ134" s="12"/>
     </row>
@@ -13851,10 +13855,10 @@
       </c>
       <c r="F135" s="12"/>
       <c r="G135" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I135" s="14" t="s">
         <v>54</v>
@@ -13885,7 +13889,7 @@
       <c r="W135" s="12"/>
       <c r="X135" s="9"/>
       <c r="Y135" s="37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z135" s="12"/>
       <c r="AA135" s="9"/>
@@ -13914,7 +13918,7 @@
       </c>
       <c r="AO135" s="12"/>
       <c r="AP135" s="33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ135" s="12"/>
     </row>
@@ -13936,10 +13940,10 @@
       </c>
       <c r="F136" s="12"/>
       <c r="G136" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I136" s="14" t="s">
         <v>54</v>
@@ -13970,7 +13974,7 @@
       <c r="W136" s="12"/>
       <c r="X136" s="9"/>
       <c r="Y136" s="37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z136" s="12"/>
       <c r="AA136" s="9"/>
@@ -13999,7 +14003,7 @@
       </c>
       <c r="AO136" s="12"/>
       <c r="AP136" s="33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ136" s="12"/>
     </row>
@@ -14021,10 +14025,10 @@
       </c>
       <c r="F137" s="12"/>
       <c r="G137" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I137" s="14" t="s">
         <v>54</v>
@@ -14055,7 +14059,7 @@
       <c r="W137" s="12"/>
       <c r="X137" s="9"/>
       <c r="Y137" s="37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z137" s="12"/>
       <c r="AA137" s="9"/>
@@ -14084,7 +14088,7 @@
       </c>
       <c r="AO137" s="12"/>
       <c r="AP137" s="33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ137" s="12"/>
     </row>
@@ -14106,10 +14110,10 @@
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I138" s="14" t="s">
         <v>54</v>
@@ -14140,7 +14144,7 @@
       <c r="W138" s="12"/>
       <c r="X138" s="9"/>
       <c r="Y138" s="37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z138" s="12"/>
       <c r="AA138" s="9"/>
@@ -14169,7 +14173,7 @@
       </c>
       <c r="AO138" s="12"/>
       <c r="AP138" s="33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ138" s="12"/>
     </row>
@@ -14191,10 +14195,10 @@
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I139" s="14" t="s">
         <v>54</v>
@@ -14225,7 +14229,7 @@
       <c r="W139" s="12"/>
       <c r="X139" s="9"/>
       <c r="Y139" s="37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z139" s="12"/>
       <c r="AA139" s="9"/>
@@ -14254,7 +14258,7 @@
       </c>
       <c r="AO139" s="12"/>
       <c r="AP139" s="33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ139" s="12"/>
     </row>
@@ -14276,10 +14280,10 @@
       </c>
       <c r="F140" s="12"/>
       <c r="G140" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I140" s="14" t="s">
         <v>54</v>
@@ -14310,7 +14314,7 @@
       <c r="W140" s="12"/>
       <c r="X140" s="9"/>
       <c r="Y140" s="37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z140" s="12"/>
       <c r="AA140" s="9"/>
@@ -14339,7 +14343,7 @@
       </c>
       <c r="AO140" s="12"/>
       <c r="AP140" s="33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ140" s="12"/>
     </row>
@@ -14361,10 +14365,10 @@
       </c>
       <c r="F141" s="12"/>
       <c r="G141" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I141" s="14" t="s">
         <v>54</v>
@@ -14395,7 +14399,7 @@
       <c r="W141" s="12"/>
       <c r="X141" s="9"/>
       <c r="Y141" s="37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z141" s="12"/>
       <c r="AA141" s="9"/>
@@ -14424,7 +14428,7 @@
       </c>
       <c r="AO141" s="12"/>
       <c r="AP141" s="33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ141" s="12"/>
     </row>
@@ -14446,10 +14450,10 @@
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I142" s="14" t="s">
         <v>54</v>
@@ -14480,7 +14484,7 @@
       <c r="W142" s="12"/>
       <c r="X142" s="9"/>
       <c r="Y142" s="37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z142" s="12"/>
       <c r="AA142" s="9"/>
@@ -14509,7 +14513,7 @@
       </c>
       <c r="AO142" s="12"/>
       <c r="AP142" s="33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ142" s="12"/>
     </row>
@@ -14531,10 +14535,10 @@
       </c>
       <c r="F143" s="12"/>
       <c r="G143" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I143" s="14" t="s">
         <v>54</v>
@@ -14565,7 +14569,7 @@
       <c r="W143" s="12"/>
       <c r="X143" s="9"/>
       <c r="Y143" s="37" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z143" s="12"/>
       <c r="AA143" s="9"/>
@@ -14594,7 +14598,7 @@
       </c>
       <c r="AO143" s="12"/>
       <c r="AP143" s="33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AQ143" s="12"/>
     </row>
@@ -14616,10 +14620,10 @@
       </c>
       <c r="F144" s="12"/>
       <c r="G144" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>256</v>
@@ -14644,7 +14648,7 @@
       <c r="W144" s="12"/>
       <c r="X144" s="9"/>
       <c r="Y144" s="37" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z144" s="12"/>
       <c r="AA144" s="9"/>
@@ -14654,7 +14658,7 @@
         <v>50</v>
       </c>
       <c r="AE144" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF144" s="44" t="n">
         <v>0.5</v>
@@ -14666,7 +14670,7 @@
         <v>1</v>
       </c>
       <c r="AI144" s="37" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AJ144" s="37"/>
       <c r="AK144" s="9"/>
@@ -14678,7 +14682,7 @@
         <v>142</v>
       </c>
       <c r="AO144" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AP144" s="33" t="s">
         <v>361</v>
@@ -14703,10 +14707,10 @@
       </c>
       <c r="F145" s="12"/>
       <c r="G145" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I145" s="14" t="s">
         <v>54</v>
@@ -14737,7 +14741,7 @@
       <c r="W145" s="12"/>
       <c r="X145" s="9"/>
       <c r="Y145" s="37" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z145" s="12"/>
       <c r="AA145" s="9"/>
@@ -14766,7 +14770,7 @@
       </c>
       <c r="AO145" s="12"/>
       <c r="AP145" s="33" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AQ145" s="12"/>
     </row>
@@ -14788,10 +14792,10 @@
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I146" s="14" t="s">
         <v>54</v>
@@ -14822,7 +14826,7 @@
       <c r="W146" s="12"/>
       <c r="X146" s="9"/>
       <c r="Y146" s="37" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z146" s="12"/>
       <c r="AA146" s="9"/>
@@ -14851,7 +14855,7 @@
       </c>
       <c r="AO146" s="12"/>
       <c r="AP146" s="33" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AQ146" s="12"/>
     </row>
@@ -14873,10 +14877,10 @@
       </c>
       <c r="F147" s="12"/>
       <c r="G147" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I147" s="14" t="s">
         <v>54</v>
@@ -14907,7 +14911,7 @@
       <c r="W147" s="12"/>
       <c r="X147" s="9"/>
       <c r="Y147" s="37" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z147" s="12"/>
       <c r="AA147" s="9"/>
@@ -14936,7 +14940,7 @@
       </c>
       <c r="AO147" s="12"/>
       <c r="AP147" s="33" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AQ147" s="12"/>
     </row>
@@ -14958,10 +14962,10 @@
       </c>
       <c r="F148" s="12"/>
       <c r="G148" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I148" s="14" t="s">
         <v>54</v>
@@ -14992,7 +14996,7 @@
       <c r="W148" s="12"/>
       <c r="X148" s="9"/>
       <c r="Y148" s="37" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z148" s="12"/>
       <c r="AA148" s="9"/>
@@ -15021,7 +15025,7 @@
       </c>
       <c r="AO148" s="12"/>
       <c r="AP148" s="33" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AQ148" s="12"/>
     </row>
@@ -15043,10 +15047,10 @@
       </c>
       <c r="F149" s="12"/>
       <c r="G149" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I149" s="14" t="s">
         <v>54</v>
@@ -15077,7 +15081,7 @@
       <c r="W149" s="12"/>
       <c r="X149" s="9"/>
       <c r="Y149" s="37" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z149" s="12"/>
       <c r="AA149" s="9"/>
@@ -15106,7 +15110,7 @@
       </c>
       <c r="AO149" s="12"/>
       <c r="AP149" s="33" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AQ149" s="12"/>
     </row>
@@ -15128,10 +15132,10 @@
       </c>
       <c r="F150" s="12"/>
       <c r="G150" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I150" s="14" t="s">
         <v>54</v>
@@ -15143,10 +15147,10 @@
       <c r="L150" s="9"/>
       <c r="M150" s="9"/>
       <c r="N150" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O150" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P150" s="27"/>
       <c r="Q150" s="27"/>
@@ -15162,7 +15166,7 @@
       <c r="W150" s="12"/>
       <c r="X150" s="9"/>
       <c r="Y150" s="37" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z150" s="12"/>
       <c r="AA150" s="9"/>
@@ -15191,7 +15195,7 @@
       </c>
       <c r="AO150" s="12"/>
       <c r="AP150" s="33" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AQ150" s="12"/>
     </row>
@@ -15213,10 +15217,10 @@
       </c>
       <c r="F151" s="12"/>
       <c r="G151" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I151" s="14" t="s">
         <v>54</v>
@@ -15228,10 +15232,10 @@
       <c r="L151" s="9"/>
       <c r="M151" s="9"/>
       <c r="N151" s="12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O151" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P151" s="27"/>
       <c r="Q151" s="27"/>
@@ -15247,7 +15251,7 @@
       <c r="W151" s="12"/>
       <c r="X151" s="9"/>
       <c r="Y151" s="37" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z151" s="12"/>
       <c r="AA151" s="9"/>
@@ -15276,7 +15280,7 @@
       </c>
       <c r="AO151" s="12"/>
       <c r="AP151" s="33" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AQ151" s="12"/>
     </row>
@@ -15298,10 +15302,10 @@
       </c>
       <c r="F152" s="12"/>
       <c r="G152" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I152" s="14" t="s">
         <v>54</v>
@@ -15313,10 +15317,10 @@
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
       <c r="N152" s="12" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O152" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P152" s="27"/>
       <c r="Q152" s="27"/>
@@ -15332,7 +15336,7 @@
       <c r="W152" s="12"/>
       <c r="X152" s="9"/>
       <c r="Y152" s="37" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z152" s="12"/>
       <c r="AA152" s="9"/>
@@ -15361,7 +15365,7 @@
       </c>
       <c r="AO152" s="12"/>
       <c r="AP152" s="33" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AQ152" s="12"/>
     </row>
@@ -15383,10 +15387,10 @@
       </c>
       <c r="F153" s="12"/>
       <c r="G153" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I153" s="14" t="s">
         <v>54</v>
@@ -15417,7 +15421,7 @@
       <c r="W153" s="12"/>
       <c r="X153" s="9"/>
       <c r="Y153" s="37" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z153" s="12"/>
       <c r="AA153" s="9"/>
@@ -15446,7 +15450,7 @@
       </c>
       <c r="AO153" s="12"/>
       <c r="AP153" s="33" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AQ153" s="12"/>
     </row>
@@ -15468,10 +15472,10 @@
       </c>
       <c r="F154" s="12"/>
       <c r="G154" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I154" s="14" t="s">
         <v>54</v>
@@ -15483,10 +15487,10 @@
       <c r="L154" s="9"/>
       <c r="M154" s="9"/>
       <c r="N154" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O154" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P154" s="27"/>
       <c r="Q154" s="27"/>
@@ -15502,7 +15506,7 @@
       <c r="W154" s="12"/>
       <c r="X154" s="9"/>
       <c r="Y154" s="37" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z154" s="12"/>
       <c r="AA154" s="9"/>
@@ -15531,7 +15535,7 @@
       </c>
       <c r="AO154" s="12"/>
       <c r="AP154" s="33" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AQ154" s="12"/>
     </row>
@@ -15553,13 +15557,13 @@
       </c>
       <c r="F155" s="12"/>
       <c r="G155" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I155" s="14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J155" s="14"/>
       <c r="K155" s="9"/>
@@ -15629,25 +15633,25 @@
         <v>44</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E156" s="46" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F156" s="46" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G156" s="33" t="s">
         <v>308</v>
       </c>
       <c r="H156" s="47" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I156" s="48" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J156" s="48" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K156" s="48"/>
       <c r="L156" s="48"/>
@@ -15658,7 +15662,7 @@
       <c r="Q156" s="48"/>
       <c r="R156" s="48"/>
       <c r="S156" s="48" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T156" s="48"/>
       <c r="U156" s="48"/>
@@ -15702,23 +15706,23 @@
         <v>44</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E157" s="46" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F157" s="46" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G157" s="46" t="s">
         <v>356</v>
       </c>
       <c r="H157" s="47"/>
       <c r="I157" s="48" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J157" s="48" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K157" s="48"/>
       <c r="L157" s="48"/>
@@ -15729,7 +15733,7 @@
       <c r="Q157" s="48"/>
       <c r="R157" s="48"/>
       <c r="S157" s="48" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T157" s="48"/>
       <c r="U157" s="48"/>
@@ -15757,7 +15761,7 @@
         <v>155</v>
       </c>
       <c r="AO157" s="21" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AP157" s="48"/>
       <c r="AQ157" s="48"/>
@@ -15773,25 +15777,25 @@
         <v>44</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E158" s="46" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F158" s="46" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G158" s="46" t="s">
         <v>323</v>
       </c>
       <c r="H158" s="47" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I158" s="48" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J158" s="48" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K158" s="48"/>
       <c r="L158" s="48"/>
@@ -15802,7 +15806,7 @@
       <c r="Q158" s="48"/>
       <c r="R158" s="48"/>
       <c r="S158" s="48" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T158" s="48"/>
       <c r="U158" s="48"/>
@@ -15846,36 +15850,36 @@
         <v>44</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E159" s="46" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F159" s="46" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G159" s="46" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H159" s="48"/>
       <c r="I159" s="21" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J159" s="21" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K159" s="48"/>
       <c r="L159" s="48"/>
       <c r="M159" s="21"/>
       <c r="N159" s="21"/>
       <c r="O159" s="48" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P159" s="48"/>
       <c r="Q159" s="48"/>
       <c r="R159" s="48"/>
       <c r="S159" s="48" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T159" s="48"/>
       <c r="U159" s="48"/>
@@ -15885,7 +15889,7 @@
         <v>339</v>
       </c>
       <c r="Y159" s="51" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z159" s="48"/>
       <c r="AA159" s="48"/>
@@ -15921,23 +15925,23 @@
         <v>44</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E160" s="46" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F160" s="46" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G160" s="46" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H160" s="48"/>
       <c r="I160" s="21" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J160" s="21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K160" s="48"/>
       <c r="L160" s="48"/>
@@ -15950,7 +15954,7 @@
       <c r="Q160" s="48"/>
       <c r="R160" s="48"/>
       <c r="S160" s="48" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T160" s="48"/>
       <c r="U160" s="48"/>
@@ -15958,7 +15962,7 @@
       <c r="W160" s="48"/>
       <c r="X160" s="48"/>
       <c r="Y160" s="21" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z160" s="48"/>
       <c r="AA160" s="48"/>
@@ -15994,36 +15998,36 @@
         <v>44</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E161" s="46" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F161" s="46" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G161" s="46" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H161" s="48"/>
       <c r="I161" s="21" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J161" s="21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K161" s="48"/>
       <c r="L161" s="48"/>
       <c r="M161" s="21"/>
       <c r="N161" s="21"/>
       <c r="O161" s="48" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P161" s="48"/>
       <c r="Q161" s="48"/>
       <c r="R161" s="48"/>
       <c r="S161" s="48" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T161" s="48"/>
       <c r="U161" s="48"/>
@@ -16031,7 +16035,7 @@
       <c r="W161" s="48"/>
       <c r="X161" s="48"/>
       <c r="Y161" s="21" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z161" s="48"/>
       <c r="AA161" s="48"/>
@@ -16067,36 +16071,36 @@
         <v>44</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E162" s="46" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F162" s="46" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G162" s="46" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H162" s="48"/>
       <c r="I162" s="21" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J162" s="21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K162" s="48"/>
       <c r="L162" s="48"/>
       <c r="M162" s="21"/>
       <c r="N162" s="21"/>
       <c r="O162" s="48" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P162" s="48"/>
       <c r="Q162" s="48"/>
       <c r="R162" s="48"/>
       <c r="S162" s="48" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T162" s="48"/>
       <c r="U162" s="48"/>
@@ -16104,7 +16108,7 @@
       <c r="W162" s="48"/>
       <c r="X162" s="48"/>
       <c r="Y162" s="21" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z162" s="48"/>
       <c r="AA162" s="48"/>
@@ -16140,38 +16144,38 @@
         <v>44</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E163" s="46" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F163" s="46" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G163" s="46" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H163" s="48" t="s">
         <v>246</v>
       </c>
       <c r="I163" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J163" s="21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K163" s="48"/>
       <c r="L163" s="48"/>
       <c r="M163" s="21"/>
       <c r="N163" s="21"/>
       <c r="O163" s="21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P163" s="48"/>
       <c r="Q163" s="48"/>
       <c r="R163" s="48"/>
       <c r="S163" s="48" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T163" s="48"/>
       <c r="U163" s="48"/>
@@ -16179,7 +16183,7 @@
       <c r="W163" s="48"/>
       <c r="X163" s="48"/>
       <c r="Y163" s="21" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Z163" s="48"/>
       <c r="AA163" s="48"/>
@@ -16217,38 +16221,38 @@
         <v>44</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E164" s="46" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F164" s="46" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G164" s="46" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H164" s="48" t="s">
         <v>274</v>
       </c>
       <c r="I164" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J164" s="21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K164" s="48"/>
       <c r="L164" s="48"/>
       <c r="M164" s="21"/>
       <c r="N164" s="21"/>
       <c r="O164" s="21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P164" s="48"/>
       <c r="Q164" s="48"/>
       <c r="R164" s="48"/>
       <c r="S164" s="48" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T164" s="48"/>
       <c r="U164" s="48"/>
@@ -16256,7 +16260,7 @@
       <c r="W164" s="48"/>
       <c r="X164" s="48"/>
       <c r="Y164" s="21" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Z164" s="48"/>
       <c r="AA164" s="48"/>
@@ -16294,38 +16298,38 @@
         <v>44</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E165" s="46" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F165" s="46" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G165" s="46" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H165" s="48" t="s">
         <v>265</v>
       </c>
       <c r="I165" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J165" s="21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K165" s="48"/>
       <c r="L165" s="48"/>
       <c r="M165" s="21"/>
       <c r="N165" s="21"/>
       <c r="O165" s="21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P165" s="48"/>
       <c r="Q165" s="48"/>
       <c r="R165" s="48"/>
       <c r="S165" s="48" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T165" s="48"/>
       <c r="U165" s="48"/>
@@ -16333,7 +16337,7 @@
       <c r="W165" s="48"/>
       <c r="X165" s="48"/>
       <c r="Y165" s="21" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z165" s="48"/>
       <c r="AA165" s="48"/>
@@ -16371,38 +16375,38 @@
         <v>44</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E166" s="46" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F166" s="46" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G166" s="46" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H166" s="48" t="s">
         <v>289</v>
       </c>
       <c r="I166" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J166" s="21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K166" s="48"/>
       <c r="L166" s="48"/>
       <c r="M166" s="21"/>
       <c r="N166" s="21"/>
       <c r="O166" s="21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P166" s="48"/>
       <c r="Q166" s="48"/>
       <c r="R166" s="48"/>
       <c r="S166" s="48" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="T166" s="48"/>
       <c r="U166" s="48"/>
@@ -16410,7 +16414,7 @@
       <c r="W166" s="48"/>
       <c r="X166" s="48"/>
       <c r="Y166" s="21" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Z166" s="48"/>
       <c r="AA166" s="48"/>
@@ -16495,7 +16499,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16532,17 +16536,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -16569,21 +16573,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G1" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16596,7 +16600,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>10</v>
@@ -16604,16 +16608,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H7" s="54"/>
     </row>
@@ -16625,7 +16629,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H8" s="54"/>
     </row>
@@ -16634,13 +16638,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="54" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16651,12 +16655,12 @@
         <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E15" s="54"/>
       <c r="H15" s="54"/>
@@ -16667,19 +16671,19 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="54" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16696,39 +16700,39 @@
         <v>10</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="54" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B20" s="55" t="s">
+        <v>527</v>
+      </c>
+      <c r="C20" s="54" t="s">
         <v>526</v>
       </c>
-      <c r="C20" s="54" t="s">
-        <v>525</v>
-      </c>
       <c r="D20" s="55" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G25" s="54" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H25" s="56" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="J25" s="54"/>
     </row>
@@ -16743,19 +16747,19 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="54" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16772,12 +16776,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -16804,7 +16808,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16827,10 +16831,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I1" s="58" t="s">
         <v>35</v>
@@ -16839,7 +16843,7 @@
         <v>31</v>
       </c>
       <c r="K1" s="58" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L1" s="58" t="s">
         <v>36</v>
@@ -16850,7 +16854,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="59" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU/Data/FT PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
@@ -42,9 +42,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="541">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1272,10 +1273,16 @@
     <t xml:space="preserve">Микс. Дверь: БонАква Газ - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixed Door: BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Микс. Дверь: БонАква Негаз - 0.5л</t>
+    <t xml:space="preserve">Mixed Door: ANY Schweppes 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Микс. Дверь: Швепс - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 0.5L, Schweppes Mojito - 0.5L, Schweppes Tonic - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54490130, 5449000176981, 50112265</t>
   </si>
   <si>
     <t xml:space="preserve">Mixed Door: Burn Original - 0.5L</t>
@@ -1290,7 +1297,7 @@
     <t xml:space="preserve">Микс. Дверь: Кока-Кола - 0.25л слим</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixed Door: Coca-Cola - 0.33L</t>
+    <t xml:space="preserve">Mixed Door: Coca-Cola Zero Cherry - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Микс. Дверь: Кока-Кола - 0.33л</t>
@@ -1866,7 +1873,7 @@
     <numFmt numFmtId="168" formatCode="D\-MMM"/>
     <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1928,11 +1935,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1955,7 +1957,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1972,6 +1974,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF33FF99"/>
         <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -2075,7 +2083,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2220,16 +2228,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2256,7 +2260,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2288,11 +2308,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2304,15 +2324,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2377,7 +2397,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -2400,19 +2420,19 @@
   </sheetPr>
   <dimension ref="A1:AQ167"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="U107" activeCellId="0" sqref="U107"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="N124" activeCellId="0" sqref="N124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="41.4210526315789"/>
-    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="42.3562753036437"/>
+    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="17.502024291498"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11702,19 +11722,19 @@
       <c r="A110" s="37" t="n">
         <v>109</v>
       </c>
-      <c r="B110" s="38" t="s">
+      <c r="B110" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C110" s="38" t="s">
+      <c r="C110" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D110" s="38" t="s">
+      <c r="D110" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E110" s="38" t="s">
+      <c r="E110" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="F110" s="38"/>
+      <c r="F110" s="36"/>
       <c r="G110" s="37" t="s">
         <v>343</v>
       </c>
@@ -11732,39 +11752,39 @@
         <v>24</v>
       </c>
       <c r="M110" s="37"/>
-      <c r="N110" s="38" t="s">
+      <c r="N110" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="O110" s="39" t="s">
+      <c r="O110" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="P110" s="39"/>
-      <c r="Q110" s="39"/>
-      <c r="R110" s="38"/>
+      <c r="P110" s="38"/>
+      <c r="Q110" s="38"/>
+      <c r="R110" s="36"/>
       <c r="S110" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="T110" s="38"/>
-      <c r="U110" s="38"/>
-      <c r="V110" s="38"/>
-      <c r="W110" s="38"/>
+      <c r="T110" s="36"/>
+      <c r="U110" s="36"/>
+      <c r="V110" s="36"/>
+      <c r="W110" s="36"/>
       <c r="X110" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="Y110" s="38" t="s">
+      <c r="Y110" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="Z110" s="38"/>
+      <c r="Z110" s="36"/>
       <c r="AA110" s="37"/>
-      <c r="AB110" s="38"/>
-      <c r="AC110" s="38"/>
+      <c r="AB110" s="36"/>
+      <c r="AC110" s="36"/>
       <c r="AD110" s="37" t="s">
         <v>50</v>
       </c>
       <c r="AE110" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="AF110" s="40" t="n">
+      <c r="AF110" s="39" t="n">
         <v>0</v>
       </c>
       <c r="AG110" s="37"/>
@@ -11777,17 +11797,17 @@
       </c>
       <c r="AK110" s="37"/>
       <c r="AL110" s="37"/>
-      <c r="AM110" s="38" t="n">
+      <c r="AM110" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="AN110" s="38" t="n">
+      <c r="AN110" s="36" t="n">
         <v>165</v>
       </c>
-      <c r="AO110" s="38"/>
-      <c r="AP110" s="38" t="s">
+      <c r="AO110" s="36"/>
+      <c r="AP110" s="36" t="s">
         <v>330</v>
       </c>
-      <c r="AQ110" s="38"/>
+      <c r="AQ110" s="36"/>
     </row>
     <row r="111" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="37" t="n">
@@ -11905,7 +11925,7 @@
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
       <c r="N112" s="12"/>
-      <c r="O112" s="41" t="s">
+      <c r="O112" s="40" t="s">
         <v>352</v>
       </c>
       <c r="P112" s="27"/>
@@ -11916,15 +11936,15 @@
       </c>
       <c r="T112" s="12"/>
       <c r="U112" s="12"/>
-      <c r="V112" s="41"/>
+      <c r="V112" s="40"/>
       <c r="W112" s="12"/>
       <c r="X112" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="Y112" s="41" t="s">
+      <c r="Y112" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="Z112" s="41"/>
+      <c r="Z112" s="40"/>
       <c r="AA112" s="9"/>
       <c r="AB112" s="12"/>
       <c r="AC112" s="12"/>
@@ -11991,7 +12011,7 @@
         <v>1</v>
       </c>
       <c r="M113" s="14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N113" s="12" t="s">
         <v>326</v>
@@ -12069,7 +12089,7 @@
       <c r="H114" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="I114" s="42" t="s">
+      <c r="I114" s="41" t="s">
         <v>363</v>
       </c>
       <c r="J114" s="14"/>
@@ -12077,7 +12097,7 @@
       <c r="L114" s="9"/>
       <c r="M114" s="9"/>
       <c r="N114" s="12"/>
-      <c r="O114" s="43"/>
+      <c r="O114" s="42"/>
       <c r="P114" s="27"/>
       <c r="Q114" s="27"/>
       <c r="R114" s="9" t="s">
@@ -12099,7 +12119,7 @@
       <c r="AD114" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AE114" s="42" t="s">
+      <c r="AE114" s="41" t="s">
         <v>364</v>
       </c>
       <c r="AF114" s="17" t="n">
@@ -12166,7 +12186,7 @@
       <c r="L115" s="9"/>
       <c r="M115" s="9"/>
       <c r="N115" s="12"/>
-      <c r="O115" s="43"/>
+      <c r="O115" s="42"/>
       <c r="P115" s="27"/>
       <c r="Q115" s="27"/>
       <c r="R115" s="9" t="s">
@@ -12191,7 +12211,7 @@
       <c r="AE115" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AF115" s="44" t="n">
+      <c r="AF115" s="43" t="n">
         <v>1</v>
       </c>
       <c r="AG115" s="9" t="n">
@@ -12322,10 +12342,10 @@
         <v>304</v>
       </c>
       <c r="F117" s="12"/>
-      <c r="G117" s="9" t="s">
+      <c r="G117" s="44" t="s">
         <v>374</v>
       </c>
-      <c r="H117" s="9" t="s">
+      <c r="H117" s="44" t="s">
         <v>375</v>
       </c>
       <c r="I117" s="14" t="s">
@@ -12337,11 +12357,11 @@
       </c>
       <c r="L117" s="9"/>
       <c r="M117" s="9"/>
-      <c r="N117" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="O117" s="27" t="n">
-        <v>40822426</v>
+      <c r="N117" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="O117" s="46" t="s">
+        <v>377</v>
       </c>
       <c r="P117" s="27"/>
       <c r="Q117" s="27"/>
@@ -12408,10 +12428,10 @@
       </c>
       <c r="F118" s="12"/>
       <c r="G118" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I118" s="14" t="s">
         <v>54</v>
@@ -12493,10 +12513,10 @@
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I119" s="14" t="s">
         <v>54</v>
@@ -12577,11 +12597,11 @@
         <v>304</v>
       </c>
       <c r="F120" s="12"/>
-      <c r="G120" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>381</v>
+      <c r="G120" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="H120" s="44" t="s">
+        <v>383</v>
       </c>
       <c r="I120" s="14" t="s">
         <v>54</v>
@@ -12592,11 +12612,11 @@
       </c>
       <c r="L120" s="9"/>
       <c r="M120" s="9"/>
-      <c r="N120" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O120" s="27" t="n">
-        <v>5449000000996</v>
+      <c r="N120" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="O120" s="47" t="n">
+        <v>5449000214744</v>
       </c>
       <c r="P120" s="27"/>
       <c r="Q120" s="27"/>
@@ -12663,10 +12683,10 @@
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I121" s="14" t="s">
         <v>54</v>
@@ -12748,10 +12768,10 @@
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="I122" s="14" t="s">
         <v>54</v>
@@ -12833,10 +12853,10 @@
       </c>
       <c r="F123" s="12"/>
       <c r="G123" s="9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I123" s="14" t="s">
         <v>54</v>
@@ -12918,10 +12938,10 @@
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I124" s="14" t="s">
         <v>54</v>
@@ -13003,10 +13023,10 @@
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I125" s="14" t="s">
         <v>54</v>
@@ -13088,10 +13108,10 @@
       </c>
       <c r="F126" s="12"/>
       <c r="G126" s="9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I126" s="14" t="s">
         <v>54</v>
@@ -13173,10 +13193,10 @@
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I127" s="14" t="s">
         <v>54</v>
@@ -13188,10 +13208,10 @@
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
       <c r="N127" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="O127" s="45" t="s">
-        <v>397</v>
+        <v>398</v>
+      </c>
+      <c r="O127" s="48" t="s">
+        <v>399</v>
       </c>
       <c r="P127" s="27"/>
       <c r="Q127" s="27"/>
@@ -13258,10 +13278,10 @@
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I128" s="14" t="s">
         <v>54</v>
@@ -13273,10 +13293,10 @@
       <c r="L128" s="9"/>
       <c r="M128" s="9"/>
       <c r="N128" s="12" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O128" s="27" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P128" s="27"/>
       <c r="Q128" s="27"/>
@@ -13343,10 +13363,10 @@
       </c>
       <c r="F129" s="12"/>
       <c r="G129" s="9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I129" s="14" t="s">
         <v>54</v>
@@ -13428,10 +13448,10 @@
       </c>
       <c r="F130" s="12"/>
       <c r="G130" s="9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I130" s="14" t="s">
         <v>54</v>
@@ -13513,10 +13533,10 @@
       </c>
       <c r="F131" s="12"/>
       <c r="G131" s="9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>54</v>
@@ -13598,10 +13618,10 @@
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>256</v>
@@ -13613,7 +13633,7 @@
       <c r="L132" s="9"/>
       <c r="M132" s="9"/>
       <c r="N132" s="12"/>
-      <c r="O132" s="43"/>
+      <c r="O132" s="42"/>
       <c r="P132" s="27"/>
       <c r="Q132" s="27"/>
       <c r="R132" s="9" t="s">
@@ -13626,7 +13646,7 @@
       <c r="W132" s="12"/>
       <c r="X132" s="9"/>
       <c r="Y132" s="37" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Z132" s="12"/>
       <c r="AA132" s="9"/>
@@ -13638,7 +13658,7 @@
       <c r="AE132" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AF132" s="44" t="n">
+      <c r="AF132" s="43" t="n">
         <v>0.5</v>
       </c>
       <c r="AG132" s="9" t="n">
@@ -13660,7 +13680,7 @@
         <v>130</v>
       </c>
       <c r="AO132" s="13" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AP132" s="33" t="s">
         <v>361</v>
@@ -13685,10 +13705,10 @@
       </c>
       <c r="F133" s="12"/>
       <c r="G133" s="9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I133" s="14" t="s">
         <v>54</v>
@@ -13719,7 +13739,7 @@
       <c r="W133" s="12"/>
       <c r="X133" s="9"/>
       <c r="Y133" s="37" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Z133" s="12"/>
       <c r="AA133" s="9"/>
@@ -13748,7 +13768,7 @@
       </c>
       <c r="AO133" s="12"/>
       <c r="AP133" s="33" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AQ133" s="12"/>
     </row>
@@ -13770,10 +13790,10 @@
       </c>
       <c r="F134" s="12"/>
       <c r="G134" s="9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I134" s="14" t="s">
         <v>54</v>
@@ -13804,7 +13824,7 @@
       <c r="W134" s="12"/>
       <c r="X134" s="9"/>
       <c r="Y134" s="37" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Z134" s="12"/>
       <c r="AA134" s="9"/>
@@ -13833,7 +13853,7 @@
       </c>
       <c r="AO134" s="12"/>
       <c r="AP134" s="33" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AQ134" s="12"/>
     </row>
@@ -13855,10 +13875,10 @@
       </c>
       <c r="F135" s="12"/>
       <c r="G135" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I135" s="14" t="s">
         <v>54</v>
@@ -13889,7 +13909,7 @@
       <c r="W135" s="12"/>
       <c r="X135" s="9"/>
       <c r="Y135" s="37" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Z135" s="12"/>
       <c r="AA135" s="9"/>
@@ -13918,7 +13938,7 @@
       </c>
       <c r="AO135" s="12"/>
       <c r="AP135" s="33" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AQ135" s="12"/>
     </row>
@@ -13940,10 +13960,10 @@
       </c>
       <c r="F136" s="12"/>
       <c r="G136" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I136" s="14" t="s">
         <v>54</v>
@@ -13974,7 +13994,7 @@
       <c r="W136" s="12"/>
       <c r="X136" s="9"/>
       <c r="Y136" s="37" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Z136" s="12"/>
       <c r="AA136" s="9"/>
@@ -14003,7 +14023,7 @@
       </c>
       <c r="AO136" s="12"/>
       <c r="AP136" s="33" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AQ136" s="12"/>
     </row>
@@ -14025,10 +14045,10 @@
       </c>
       <c r="F137" s="12"/>
       <c r="G137" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I137" s="14" t="s">
         <v>54</v>
@@ -14059,7 +14079,7 @@
       <c r="W137" s="12"/>
       <c r="X137" s="9"/>
       <c r="Y137" s="37" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Z137" s="12"/>
       <c r="AA137" s="9"/>
@@ -14088,7 +14108,7 @@
       </c>
       <c r="AO137" s="12"/>
       <c r="AP137" s="33" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AQ137" s="12"/>
     </row>
@@ -14110,10 +14130,10 @@
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="I138" s="14" t="s">
         <v>54</v>
@@ -14144,7 +14164,7 @@
       <c r="W138" s="12"/>
       <c r="X138" s="9"/>
       <c r="Y138" s="37" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Z138" s="12"/>
       <c r="AA138" s="9"/>
@@ -14173,7 +14193,7 @@
       </c>
       <c r="AO138" s="12"/>
       <c r="AP138" s="33" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AQ138" s="12"/>
     </row>
@@ -14195,10 +14215,10 @@
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I139" s="14" t="s">
         <v>54</v>
@@ -14229,7 +14249,7 @@
       <c r="W139" s="12"/>
       <c r="X139" s="9"/>
       <c r="Y139" s="37" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Z139" s="12"/>
       <c r="AA139" s="9"/>
@@ -14258,7 +14278,7 @@
       </c>
       <c r="AO139" s="12"/>
       <c r="AP139" s="33" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AQ139" s="12"/>
     </row>
@@ -14280,10 +14300,10 @@
       </c>
       <c r="F140" s="12"/>
       <c r="G140" s="9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I140" s="14" t="s">
         <v>54</v>
@@ -14314,7 +14334,7 @@
       <c r="W140" s="12"/>
       <c r="X140" s="9"/>
       <c r="Y140" s="37" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Z140" s="12"/>
       <c r="AA140" s="9"/>
@@ -14343,7 +14363,7 @@
       </c>
       <c r="AO140" s="12"/>
       <c r="AP140" s="33" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AQ140" s="12"/>
     </row>
@@ -14365,10 +14385,10 @@
       </c>
       <c r="F141" s="12"/>
       <c r="G141" s="9" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I141" s="14" t="s">
         <v>54</v>
@@ -14399,7 +14419,7 @@
       <c r="W141" s="12"/>
       <c r="X141" s="9"/>
       <c r="Y141" s="37" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Z141" s="12"/>
       <c r="AA141" s="9"/>
@@ -14428,7 +14448,7 @@
       </c>
       <c r="AO141" s="12"/>
       <c r="AP141" s="33" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AQ141" s="12"/>
     </row>
@@ -14450,10 +14470,10 @@
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="9" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I142" s="14" t="s">
         <v>54</v>
@@ -14484,7 +14504,7 @@
       <c r="W142" s="12"/>
       <c r="X142" s="9"/>
       <c r="Y142" s="37" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Z142" s="12"/>
       <c r="AA142" s="9"/>
@@ -14513,7 +14533,7 @@
       </c>
       <c r="AO142" s="12"/>
       <c r="AP142" s="33" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AQ142" s="12"/>
     </row>
@@ -14535,10 +14555,10 @@
       </c>
       <c r="F143" s="12"/>
       <c r="G143" s="9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I143" s="14" t="s">
         <v>54</v>
@@ -14569,7 +14589,7 @@
       <c r="W143" s="12"/>
       <c r="X143" s="9"/>
       <c r="Y143" s="37" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Z143" s="12"/>
       <c r="AA143" s="9"/>
@@ -14598,7 +14618,7 @@
       </c>
       <c r="AO143" s="12"/>
       <c r="AP143" s="33" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AQ143" s="12"/>
     </row>
@@ -14620,10 +14640,10 @@
       </c>
       <c r="F144" s="12"/>
       <c r="G144" s="9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>256</v>
@@ -14635,7 +14655,7 @@
       <c r="L144" s="9"/>
       <c r="M144" s="9"/>
       <c r="N144" s="12"/>
-      <c r="O144" s="43"/>
+      <c r="O144" s="42"/>
       <c r="P144" s="27"/>
       <c r="Q144" s="27"/>
       <c r="R144" s="9" t="s">
@@ -14648,7 +14668,7 @@
       <c r="W144" s="12"/>
       <c r="X144" s="9"/>
       <c r="Y144" s="37" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Z144" s="12"/>
       <c r="AA144" s="9"/>
@@ -14660,7 +14680,7 @@
       <c r="AE144" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AF144" s="44" t="n">
+      <c r="AF144" s="43" t="n">
         <v>0.5</v>
       </c>
       <c r="AG144" s="9" t="n">
@@ -14682,7 +14702,7 @@
         <v>142</v>
       </c>
       <c r="AO144" s="13" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AP144" s="33" t="s">
         <v>361</v>
@@ -14707,10 +14727,10 @@
       </c>
       <c r="F145" s="12"/>
       <c r="G145" s="9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I145" s="14" t="s">
         <v>54</v>
@@ -14741,7 +14761,7 @@
       <c r="W145" s="12"/>
       <c r="X145" s="9"/>
       <c r="Y145" s="37" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Z145" s="12"/>
       <c r="AA145" s="9"/>
@@ -14770,7 +14790,7 @@
       </c>
       <c r="AO145" s="12"/>
       <c r="AP145" s="33" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AQ145" s="12"/>
     </row>
@@ -14792,10 +14812,10 @@
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I146" s="14" t="s">
         <v>54</v>
@@ -14826,7 +14846,7 @@
       <c r="W146" s="12"/>
       <c r="X146" s="9"/>
       <c r="Y146" s="37" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Z146" s="12"/>
       <c r="AA146" s="9"/>
@@ -14855,7 +14875,7 @@
       </c>
       <c r="AO146" s="12"/>
       <c r="AP146" s="33" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AQ146" s="12"/>
     </row>
@@ -14877,10 +14897,10 @@
       </c>
       <c r="F147" s="12"/>
       <c r="G147" s="9" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="I147" s="14" t="s">
         <v>54</v>
@@ -14911,7 +14931,7 @@
       <c r="W147" s="12"/>
       <c r="X147" s="9"/>
       <c r="Y147" s="37" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Z147" s="12"/>
       <c r="AA147" s="9"/>
@@ -14940,7 +14960,7 @@
       </c>
       <c r="AO147" s="12"/>
       <c r="AP147" s="33" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AQ147" s="12"/>
     </row>
@@ -14962,10 +14982,10 @@
       </c>
       <c r="F148" s="12"/>
       <c r="G148" s="9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I148" s="14" t="s">
         <v>54</v>
@@ -14996,7 +15016,7 @@
       <c r="W148" s="12"/>
       <c r="X148" s="9"/>
       <c r="Y148" s="37" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Z148" s="12"/>
       <c r="AA148" s="9"/>
@@ -15025,7 +15045,7 @@
       </c>
       <c r="AO148" s="12"/>
       <c r="AP148" s="33" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AQ148" s="12"/>
     </row>
@@ -15047,10 +15067,10 @@
       </c>
       <c r="F149" s="12"/>
       <c r="G149" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I149" s="14" t="s">
         <v>54</v>
@@ -15081,7 +15101,7 @@
       <c r="W149" s="12"/>
       <c r="X149" s="9"/>
       <c r="Y149" s="37" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Z149" s="12"/>
       <c r="AA149" s="9"/>
@@ -15110,7 +15130,7 @@
       </c>
       <c r="AO149" s="12"/>
       <c r="AP149" s="33" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AQ149" s="12"/>
     </row>
@@ -15132,10 +15152,10 @@
       </c>
       <c r="F150" s="12"/>
       <c r="G150" s="9" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I150" s="14" t="s">
         <v>54</v>
@@ -15147,10 +15167,10 @@
       <c r="L150" s="9"/>
       <c r="M150" s="9"/>
       <c r="N150" s="12" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="O150" s="10" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P150" s="27"/>
       <c r="Q150" s="27"/>
@@ -15166,7 +15186,7 @@
       <c r="W150" s="12"/>
       <c r="X150" s="9"/>
       <c r="Y150" s="37" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Z150" s="12"/>
       <c r="AA150" s="9"/>
@@ -15195,7 +15215,7 @@
       </c>
       <c r="AO150" s="12"/>
       <c r="AP150" s="33" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AQ150" s="12"/>
     </row>
@@ -15217,10 +15237,10 @@
       </c>
       <c r="F151" s="12"/>
       <c r="G151" s="9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I151" s="14" t="s">
         <v>54</v>
@@ -15232,10 +15252,10 @@
       <c r="L151" s="9"/>
       <c r="M151" s="9"/>
       <c r="N151" s="12" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O151" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P151" s="27"/>
       <c r="Q151" s="27"/>
@@ -15251,7 +15271,7 @@
       <c r="W151" s="12"/>
       <c r="X151" s="9"/>
       <c r="Y151" s="37" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Z151" s="12"/>
       <c r="AA151" s="9"/>
@@ -15280,7 +15300,7 @@
       </c>
       <c r="AO151" s="12"/>
       <c r="AP151" s="33" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AQ151" s="12"/>
     </row>
@@ -15302,10 +15322,10 @@
       </c>
       <c r="F152" s="12"/>
       <c r="G152" s="9" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I152" s="14" t="s">
         <v>54</v>
@@ -15317,10 +15337,10 @@
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
       <c r="N152" s="12" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O152" s="10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P152" s="27"/>
       <c r="Q152" s="27"/>
@@ -15336,7 +15356,7 @@
       <c r="W152" s="12"/>
       <c r="X152" s="9"/>
       <c r="Y152" s="37" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Z152" s="12"/>
       <c r="AA152" s="9"/>
@@ -15365,7 +15385,7 @@
       </c>
       <c r="AO152" s="12"/>
       <c r="AP152" s="33" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AQ152" s="12"/>
     </row>
@@ -15387,10 +15407,10 @@
       </c>
       <c r="F153" s="12"/>
       <c r="G153" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="I153" s="14" t="s">
         <v>54</v>
@@ -15421,7 +15441,7 @@
       <c r="W153" s="12"/>
       <c r="X153" s="9"/>
       <c r="Y153" s="37" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Z153" s="12"/>
       <c r="AA153" s="9"/>
@@ -15450,7 +15470,7 @@
       </c>
       <c r="AO153" s="12"/>
       <c r="AP153" s="33" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AQ153" s="12"/>
     </row>
@@ -15472,10 +15492,10 @@
       </c>
       <c r="F154" s="12"/>
       <c r="G154" s="9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="I154" s="14" t="s">
         <v>54</v>
@@ -15487,10 +15507,10 @@
       <c r="L154" s="9"/>
       <c r="M154" s="9"/>
       <c r="N154" s="12" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="O154" s="10" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="P154" s="27"/>
       <c r="Q154" s="27"/>
@@ -15506,7 +15526,7 @@
       <c r="W154" s="12"/>
       <c r="X154" s="9"/>
       <c r="Y154" s="37" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Z154" s="12"/>
       <c r="AA154" s="9"/>
@@ -15535,7 +15555,7 @@
       </c>
       <c r="AO154" s="12"/>
       <c r="AP154" s="33" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AQ154" s="12"/>
     </row>
@@ -15557,13 +15577,13 @@
       </c>
       <c r="F155" s="12"/>
       <c r="G155" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I155" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="J155" s="14"/>
       <c r="K155" s="9"/>
@@ -15633,67 +15653,67 @@
         <v>44</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E156" s="46" t="s">
-        <v>467</v>
-      </c>
-      <c r="F156" s="46" t="s">
         <v>468</v>
+      </c>
+      <c r="E156" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="F156" s="49" t="s">
+        <v>470</v>
       </c>
       <c r="G156" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="H156" s="47" t="s">
-        <v>469</v>
-      </c>
-      <c r="I156" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="J156" s="48" t="s">
+      <c r="H156" s="50" t="s">
         <v>471</v>
       </c>
-      <c r="K156" s="48"/>
-      <c r="L156" s="48"/>
+      <c r="I156" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="J156" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="K156" s="51"/>
+      <c r="L156" s="51"/>
       <c r="M156" s="21"/>
       <c r="N156" s="21"/>
-      <c r="O156" s="48"/>
-      <c r="P156" s="48"/>
-      <c r="Q156" s="48"/>
-      <c r="R156" s="48"/>
-      <c r="S156" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="T156" s="48"/>
-      <c r="U156" s="48"/>
-      <c r="V156" s="48"/>
-      <c r="W156" s="48"/>
-      <c r="X156" s="48"/>
-      <c r="Y156" s="48"/>
-      <c r="Z156" s="48"/>
-      <c r="AA156" s="48"/>
-      <c r="AB156" s="48"/>
-      <c r="AC156" s="48"/>
-      <c r="AD156" s="48"/>
-      <c r="AE156" s="48"/>
-      <c r="AF156" s="49" t="n">
+      <c r="O156" s="51"/>
+      <c r="P156" s="51"/>
+      <c r="Q156" s="51"/>
+      <c r="R156" s="51"/>
+      <c r="S156" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="T156" s="51"/>
+      <c r="U156" s="51"/>
+      <c r="V156" s="51"/>
+      <c r="W156" s="51"/>
+      <c r="X156" s="51"/>
+      <c r="Y156" s="51"/>
+      <c r="Z156" s="51"/>
+      <c r="AA156" s="51"/>
+      <c r="AB156" s="51"/>
+      <c r="AC156" s="51"/>
+      <c r="AD156" s="51"/>
+      <c r="AE156" s="51"/>
+      <c r="AF156" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG156" s="48"/>
-      <c r="AH156" s="48"/>
-      <c r="AI156" s="48"/>
-      <c r="AJ156" s="48"/>
-      <c r="AK156" s="48"/>
-      <c r="AL156" s="48"/>
-      <c r="AM156" s="48"/>
+      <c r="AG156" s="51"/>
+      <c r="AH156" s="51"/>
+      <c r="AI156" s="51"/>
+      <c r="AJ156" s="51"/>
+      <c r="AK156" s="51"/>
+      <c r="AL156" s="51"/>
+      <c r="AM156" s="51"/>
       <c r="AN156" s="12" t="n">
         <v>154</v>
       </c>
-      <c r="AO156" s="48" t="n">
+      <c r="AO156" s="51" t="n">
         <v>101</v>
       </c>
-      <c r="AP156" s="48"/>
-      <c r="AQ156" s="48"/>
+      <c r="AP156" s="51"/>
+      <c r="AQ156" s="51"/>
     </row>
     <row r="157" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="37" t="n">
@@ -15706,65 +15726,65 @@
         <v>44</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E157" s="46" t="s">
-        <v>473</v>
-      </c>
-      <c r="F157" s="46" t="s">
-        <v>474</v>
-      </c>
-      <c r="G157" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E157" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="F157" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="G157" s="49" t="s">
         <v>356</v>
       </c>
-      <c r="H157" s="47"/>
-      <c r="I157" s="48" t="s">
-        <v>475</v>
-      </c>
-      <c r="J157" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="K157" s="48"/>
-      <c r="L157" s="48"/>
+      <c r="H157" s="50"/>
+      <c r="I157" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="J157" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="K157" s="51"/>
+      <c r="L157" s="51"/>
       <c r="M157" s="21"/>
       <c r="N157" s="21"/>
-      <c r="O157" s="48"/>
-      <c r="P157" s="48"/>
-      <c r="Q157" s="48"/>
-      <c r="R157" s="48"/>
-      <c r="S157" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="T157" s="48"/>
-      <c r="U157" s="48"/>
-      <c r="V157" s="48"/>
-      <c r="W157" s="48"/>
-      <c r="X157" s="48"/>
-      <c r="Y157" s="48"/>
-      <c r="Z157" s="48"/>
-      <c r="AA157" s="48"/>
-      <c r="AB157" s="48"/>
-      <c r="AC157" s="48"/>
-      <c r="AD157" s="48"/>
-      <c r="AE157" s="48"/>
-      <c r="AF157" s="49" t="n">
+      <c r="O157" s="51"/>
+      <c r="P157" s="51"/>
+      <c r="Q157" s="51"/>
+      <c r="R157" s="51"/>
+      <c r="S157" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="T157" s="51"/>
+      <c r="U157" s="51"/>
+      <c r="V157" s="51"/>
+      <c r="W157" s="51"/>
+      <c r="X157" s="51"/>
+      <c r="Y157" s="51"/>
+      <c r="Z157" s="51"/>
+      <c r="AA157" s="51"/>
+      <c r="AB157" s="51"/>
+      <c r="AC157" s="51"/>
+      <c r="AD157" s="51"/>
+      <c r="AE157" s="51"/>
+      <c r="AF157" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG157" s="48"/>
-      <c r="AH157" s="48"/>
-      <c r="AI157" s="48"/>
-      <c r="AJ157" s="48"/>
-      <c r="AK157" s="48"/>
-      <c r="AL157" s="48"/>
-      <c r="AM157" s="48"/>
+      <c r="AG157" s="51"/>
+      <c r="AH157" s="51"/>
+      <c r="AI157" s="51"/>
+      <c r="AJ157" s="51"/>
+      <c r="AK157" s="51"/>
+      <c r="AL157" s="51"/>
+      <c r="AM157" s="51"/>
       <c r="AN157" s="12" t="n">
         <v>155</v>
       </c>
       <c r="AO157" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="AP157" s="48"/>
-      <c r="AQ157" s="48"/>
+        <v>479</v>
+      </c>
+      <c r="AP157" s="51"/>
+      <c r="AQ157" s="51"/>
     </row>
     <row r="158" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="37" t="n">
@@ -15777,67 +15797,67 @@
         <v>44</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E158" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E158" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="F158" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="G158" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="H158" s="50" t="s">
+        <v>482</v>
+      </c>
+      <c r="I158" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="J158" s="51" t="s">
         <v>478</v>
       </c>
-      <c r="F158" s="46" t="s">
-        <v>479</v>
-      </c>
-      <c r="G158" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="H158" s="47" t="s">
-        <v>480</v>
-      </c>
-      <c r="I158" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="J158" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="K158" s="48"/>
-      <c r="L158" s="48"/>
+      <c r="K158" s="51"/>
+      <c r="L158" s="51"/>
       <c r="M158" s="21"/>
       <c r="N158" s="21"/>
-      <c r="O158" s="48"/>
-      <c r="P158" s="48"/>
-      <c r="Q158" s="48"/>
-      <c r="R158" s="48"/>
-      <c r="S158" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="T158" s="48"/>
-      <c r="U158" s="48"/>
-      <c r="V158" s="48"/>
-      <c r="W158" s="48"/>
-      <c r="X158" s="48"/>
-      <c r="Y158" s="48"/>
-      <c r="Z158" s="48"/>
-      <c r="AA158" s="48"/>
-      <c r="AB158" s="48"/>
-      <c r="AC158" s="48"/>
-      <c r="AD158" s="48"/>
-      <c r="AE158" s="48"/>
-      <c r="AF158" s="49" t="n">
+      <c r="O158" s="51"/>
+      <c r="P158" s="51"/>
+      <c r="Q158" s="51"/>
+      <c r="R158" s="51"/>
+      <c r="S158" s="51" t="s">
+        <v>474</v>
+      </c>
+      <c r="T158" s="51"/>
+      <c r="U158" s="51"/>
+      <c r="V158" s="51"/>
+      <c r="W158" s="51"/>
+      <c r="X158" s="51"/>
+      <c r="Y158" s="51"/>
+      <c r="Z158" s="51"/>
+      <c r="AA158" s="51"/>
+      <c r="AB158" s="51"/>
+      <c r="AC158" s="51"/>
+      <c r="AD158" s="51"/>
+      <c r="AE158" s="51"/>
+      <c r="AF158" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="AG158" s="48"/>
-      <c r="AH158" s="48"/>
-      <c r="AI158" s="48"/>
-      <c r="AJ158" s="48"/>
-      <c r="AK158" s="48"/>
-      <c r="AL158" s="48"/>
-      <c r="AM158" s="48"/>
+      <c r="AG158" s="51"/>
+      <c r="AH158" s="51"/>
+      <c r="AI158" s="51"/>
+      <c r="AJ158" s="51"/>
+      <c r="AK158" s="51"/>
+      <c r="AL158" s="51"/>
+      <c r="AM158" s="51"/>
       <c r="AN158" s="12" t="n">
         <v>156</v>
       </c>
-      <c r="AO158" s="48" t="n">
+      <c r="AO158" s="51" t="n">
         <v>105</v>
       </c>
-      <c r="AP158" s="48"/>
-      <c r="AQ158" s="48"/>
+      <c r="AP158" s="51"/>
+      <c r="AQ158" s="51"/>
     </row>
     <row r="159" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="37" t="n">
@@ -15850,69 +15870,69 @@
         <v>44</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E159" s="46" t="s">
-        <v>481</v>
-      </c>
-      <c r="F159" s="46" t="s">
-        <v>482</v>
-      </c>
-      <c r="G159" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E159" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="H159" s="48"/>
+      <c r="F159" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="G159" s="49" t="s">
+        <v>485</v>
+      </c>
+      <c r="H159" s="51"/>
       <c r="I159" s="21" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J159" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="K159" s="48"/>
-      <c r="L159" s="48"/>
+        <v>478</v>
+      </c>
+      <c r="K159" s="51"/>
+      <c r="L159" s="51"/>
       <c r="M159" s="21"/>
       <c r="N159" s="21"/>
-      <c r="O159" s="48" t="s">
-        <v>485</v>
-      </c>
-      <c r="P159" s="48"/>
-      <c r="Q159" s="48"/>
-      <c r="R159" s="48"/>
-      <c r="S159" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="T159" s="48"/>
-      <c r="U159" s="48"/>
-      <c r="V159" s="48"/>
-      <c r="W159" s="48"/>
-      <c r="X159" s="50" t="s">
+      <c r="O159" s="51" t="s">
+        <v>487</v>
+      </c>
+      <c r="P159" s="51"/>
+      <c r="Q159" s="51"/>
+      <c r="R159" s="51"/>
+      <c r="S159" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="T159" s="51"/>
+      <c r="U159" s="51"/>
+      <c r="V159" s="51"/>
+      <c r="W159" s="51"/>
+      <c r="X159" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="Y159" s="51" t="s">
-        <v>487</v>
-      </c>
-      <c r="Z159" s="48"/>
-      <c r="AA159" s="48"/>
-      <c r="AB159" s="48"/>
-      <c r="AC159" s="48"/>
-      <c r="AD159" s="48"/>
-      <c r="AE159" s="48"/>
-      <c r="AF159" s="52" t="n">
+      <c r="Y159" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z159" s="51"/>
+      <c r="AA159" s="51"/>
+      <c r="AB159" s="51"/>
+      <c r="AC159" s="51"/>
+      <c r="AD159" s="51"/>
+      <c r="AE159" s="51"/>
+      <c r="AF159" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AG159" s="48"/>
-      <c r="AH159" s="48"/>
-      <c r="AI159" s="48"/>
-      <c r="AJ159" s="48"/>
-      <c r="AK159" s="48"/>
-      <c r="AL159" s="48"/>
-      <c r="AM159" s="48"/>
+      <c r="AG159" s="51"/>
+      <c r="AH159" s="51"/>
+      <c r="AI159" s="51"/>
+      <c r="AJ159" s="51"/>
+      <c r="AK159" s="51"/>
+      <c r="AL159" s="51"/>
+      <c r="AM159" s="51"/>
       <c r="AN159" s="12" t="n">
         <v>157</v>
       </c>
-      <c r="AO159" s="48"/>
-      <c r="AP159" s="48"/>
-      <c r="AQ159" s="48"/>
+      <c r="AO159" s="51"/>
+      <c r="AP159" s="51"/>
+      <c r="AQ159" s="51"/>
     </row>
     <row r="160" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="37" t="n">
@@ -15925,67 +15945,67 @@
         <v>44</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E160" s="46" t="s">
-        <v>488</v>
-      </c>
-      <c r="F160" s="46" t="s">
-        <v>489</v>
-      </c>
-      <c r="G160" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E160" s="49" t="s">
         <v>490</v>
       </c>
-      <c r="H160" s="48"/>
+      <c r="F160" s="49" t="s">
+        <v>491</v>
+      </c>
+      <c r="G160" s="49" t="s">
+        <v>492</v>
+      </c>
+      <c r="H160" s="51"/>
       <c r="I160" s="21" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J160" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="K160" s="48"/>
-      <c r="L160" s="48"/>
+        <v>494</v>
+      </c>
+      <c r="K160" s="51"/>
+      <c r="L160" s="51"/>
       <c r="M160" s="21"/>
       <c r="N160" s="21"/>
-      <c r="O160" s="48" t="s">
+      <c r="O160" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="P160" s="48"/>
-      <c r="Q160" s="48"/>
-      <c r="R160" s="48"/>
-      <c r="S160" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="T160" s="48"/>
-      <c r="U160" s="48"/>
-      <c r="V160" s="48"/>
-      <c r="W160" s="48"/>
-      <c r="X160" s="48"/>
+      <c r="P160" s="51"/>
+      <c r="Q160" s="51"/>
+      <c r="R160" s="51"/>
+      <c r="S160" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="T160" s="51"/>
+      <c r="U160" s="51"/>
+      <c r="V160" s="51"/>
+      <c r="W160" s="51"/>
+      <c r="X160" s="51"/>
       <c r="Y160" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="Z160" s="48"/>
-      <c r="AA160" s="48"/>
-      <c r="AB160" s="48"/>
-      <c r="AC160" s="48"/>
-      <c r="AD160" s="48"/>
-      <c r="AE160" s="48"/>
-      <c r="AF160" s="52" t="n">
+        <v>495</v>
+      </c>
+      <c r="Z160" s="51"/>
+      <c r="AA160" s="51"/>
+      <c r="AB160" s="51"/>
+      <c r="AC160" s="51"/>
+      <c r="AD160" s="51"/>
+      <c r="AE160" s="51"/>
+      <c r="AF160" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AG160" s="48"/>
-      <c r="AH160" s="48"/>
-      <c r="AI160" s="48"/>
-      <c r="AJ160" s="48"/>
-      <c r="AK160" s="48"/>
-      <c r="AL160" s="48"/>
-      <c r="AM160" s="48"/>
+      <c r="AG160" s="51"/>
+      <c r="AH160" s="51"/>
+      <c r="AI160" s="51"/>
+      <c r="AJ160" s="51"/>
+      <c r="AK160" s="51"/>
+      <c r="AL160" s="51"/>
+      <c r="AM160" s="51"/>
       <c r="AN160" s="12" t="n">
         <v>158</v>
       </c>
-      <c r="AO160" s="48"/>
-      <c r="AP160" s="48"/>
-      <c r="AQ160" s="48"/>
+      <c r="AO160" s="51"/>
+      <c r="AP160" s="51"/>
+      <c r="AQ160" s="51"/>
     </row>
     <row r="161" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="37" t="n">
@@ -15998,67 +16018,67 @@
         <v>44</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E161" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E161" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="F161" s="49" t="s">
+        <v>497</v>
+      </c>
+      <c r="G161" s="49" t="s">
+        <v>498</v>
+      </c>
+      <c r="H161" s="51"/>
+      <c r="I161" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="J161" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="F161" s="46" t="s">
-        <v>495</v>
-      </c>
-      <c r="G161" s="46" t="s">
-        <v>496</v>
-      </c>
-      <c r="H161" s="48"/>
-      <c r="I161" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="J161" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="K161" s="48"/>
-      <c r="L161" s="48"/>
+      <c r="K161" s="51"/>
+      <c r="L161" s="51"/>
       <c r="M161" s="21"/>
       <c r="N161" s="21"/>
-      <c r="O161" s="48" t="s">
-        <v>497</v>
-      </c>
-      <c r="P161" s="48"/>
-      <c r="Q161" s="48"/>
-      <c r="R161" s="48"/>
-      <c r="S161" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="T161" s="48"/>
-      <c r="U161" s="48"/>
-      <c r="V161" s="48"/>
-      <c r="W161" s="48"/>
-      <c r="X161" s="48"/>
+      <c r="O161" s="51" t="s">
+        <v>499</v>
+      </c>
+      <c r="P161" s="51"/>
+      <c r="Q161" s="51"/>
+      <c r="R161" s="51"/>
+      <c r="S161" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="T161" s="51"/>
+      <c r="U161" s="51"/>
+      <c r="V161" s="51"/>
+      <c r="W161" s="51"/>
+      <c r="X161" s="51"/>
       <c r="Y161" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="Z161" s="48"/>
-      <c r="AA161" s="48"/>
-      <c r="AB161" s="48"/>
-      <c r="AC161" s="48"/>
-      <c r="AD161" s="48"/>
-      <c r="AE161" s="48"/>
-      <c r="AF161" s="52" t="n">
+        <v>495</v>
+      </c>
+      <c r="Z161" s="51"/>
+      <c r="AA161" s="51"/>
+      <c r="AB161" s="51"/>
+      <c r="AC161" s="51"/>
+      <c r="AD161" s="51"/>
+      <c r="AE161" s="51"/>
+      <c r="AF161" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AG161" s="48"/>
-      <c r="AH161" s="48"/>
-      <c r="AI161" s="48"/>
-      <c r="AJ161" s="48"/>
-      <c r="AK161" s="48"/>
-      <c r="AL161" s="48"/>
-      <c r="AM161" s="48"/>
+      <c r="AG161" s="51"/>
+      <c r="AH161" s="51"/>
+      <c r="AI161" s="51"/>
+      <c r="AJ161" s="51"/>
+      <c r="AK161" s="51"/>
+      <c r="AL161" s="51"/>
+      <c r="AM161" s="51"/>
       <c r="AN161" s="12" t="n">
         <v>159</v>
       </c>
-      <c r="AO161" s="48"/>
-      <c r="AP161" s="48"/>
-      <c r="AQ161" s="48"/>
+      <c r="AO161" s="51"/>
+      <c r="AP161" s="51"/>
+      <c r="AQ161" s="51"/>
     </row>
     <row r="162" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="37" t="n">
@@ -16071,67 +16091,67 @@
         <v>44</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E162" s="46" t="s">
-        <v>498</v>
-      </c>
-      <c r="F162" s="46" t="s">
-        <v>499</v>
-      </c>
-      <c r="G162" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E162" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="H162" s="48"/>
+      <c r="F162" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="G162" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="H162" s="51"/>
       <c r="I162" s="21" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J162" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="K162" s="48"/>
-      <c r="L162" s="48"/>
+        <v>494</v>
+      </c>
+      <c r="K162" s="51"/>
+      <c r="L162" s="51"/>
       <c r="M162" s="21"/>
       <c r="N162" s="21"/>
-      <c r="O162" s="48" t="s">
-        <v>501</v>
-      </c>
-      <c r="P162" s="48"/>
-      <c r="Q162" s="48"/>
-      <c r="R162" s="48"/>
-      <c r="S162" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="T162" s="48"/>
-      <c r="U162" s="48"/>
-      <c r="V162" s="48"/>
-      <c r="W162" s="48"/>
-      <c r="X162" s="48"/>
+      <c r="O162" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="P162" s="51"/>
+      <c r="Q162" s="51"/>
+      <c r="R162" s="51"/>
+      <c r="S162" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="T162" s="51"/>
+      <c r="U162" s="51"/>
+      <c r="V162" s="51"/>
+      <c r="W162" s="51"/>
+      <c r="X162" s="51"/>
       <c r="Y162" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="Z162" s="48"/>
-      <c r="AA162" s="48"/>
-      <c r="AB162" s="48"/>
-      <c r="AC162" s="48"/>
-      <c r="AD162" s="48"/>
-      <c r="AE162" s="48"/>
-      <c r="AF162" s="52" t="n">
+        <v>495</v>
+      </c>
+      <c r="Z162" s="51"/>
+      <c r="AA162" s="51"/>
+      <c r="AB162" s="51"/>
+      <c r="AC162" s="51"/>
+      <c r="AD162" s="51"/>
+      <c r="AE162" s="51"/>
+      <c r="AF162" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AG162" s="48"/>
-      <c r="AH162" s="48"/>
-      <c r="AI162" s="48"/>
-      <c r="AJ162" s="48"/>
-      <c r="AK162" s="48"/>
+      <c r="AG162" s="51"/>
+      <c r="AH162" s="51"/>
+      <c r="AI162" s="51"/>
+      <c r="AJ162" s="51"/>
+      <c r="AK162" s="51"/>
       <c r="AL162" s="12"/>
-      <c r="AM162" s="48"/>
+      <c r="AM162" s="51"/>
       <c r="AN162" s="12" t="n">
         <v>160</v>
       </c>
-      <c r="AO162" s="48"/>
-      <c r="AP162" s="48"/>
-      <c r="AQ162" s="48"/>
+      <c r="AO162" s="51"/>
+      <c r="AP162" s="51"/>
+      <c r="AQ162" s="51"/>
     </row>
     <row r="163" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="37" t="n">
@@ -16144,71 +16164,71 @@
         <v>44</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E163" s="46" t="s">
-        <v>502</v>
-      </c>
-      <c r="F163" s="46" t="s">
-        <v>503</v>
-      </c>
-      <c r="G163" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E163" s="49" t="s">
         <v>504</v>
       </c>
-      <c r="H163" s="48" t="s">
+      <c r="F163" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="G163" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="H163" s="51" t="s">
         <v>246</v>
       </c>
       <c r="I163" s="21" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J163" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="K163" s="48"/>
-      <c r="L163" s="48"/>
+        <v>494</v>
+      </c>
+      <c r="K163" s="51"/>
+      <c r="L163" s="51"/>
       <c r="M163" s="21"/>
       <c r="N163" s="21"/>
       <c r="O163" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="P163" s="48"/>
-      <c r="Q163" s="48"/>
-      <c r="R163" s="48"/>
-      <c r="S163" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="T163" s="48"/>
-      <c r="U163" s="48"/>
-      <c r="V163" s="48"/>
-      <c r="W163" s="48"/>
-      <c r="X163" s="48"/>
+        <v>508</v>
+      </c>
+      <c r="P163" s="51"/>
+      <c r="Q163" s="51"/>
+      <c r="R163" s="51"/>
+      <c r="S163" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="T163" s="51"/>
+      <c r="U163" s="51"/>
+      <c r="V163" s="51"/>
+      <c r="W163" s="51"/>
+      <c r="X163" s="51"/>
       <c r="Y163" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="Z163" s="48"/>
-      <c r="AA163" s="48"/>
-      <c r="AB163" s="48"/>
-      <c r="AC163" s="48"/>
-      <c r="AD163" s="48"/>
-      <c r="AE163" s="48"/>
-      <c r="AF163" s="52" t="n">
+        <v>509</v>
+      </c>
+      <c r="Z163" s="51"/>
+      <c r="AA163" s="51"/>
+      <c r="AB163" s="51"/>
+      <c r="AC163" s="51"/>
+      <c r="AD163" s="51"/>
+      <c r="AE163" s="51"/>
+      <c r="AF163" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AG163" s="48"/>
-      <c r="AH163" s="48"/>
-      <c r="AI163" s="48"/>
-      <c r="AJ163" s="48"/>
-      <c r="AK163" s="48"/>
-      <c r="AL163" s="48"/>
-      <c r="AM163" s="48"/>
+      <c r="AG163" s="51"/>
+      <c r="AH163" s="51"/>
+      <c r="AI163" s="51"/>
+      <c r="AJ163" s="51"/>
+      <c r="AK163" s="51"/>
+      <c r="AL163" s="51"/>
+      <c r="AM163" s="51"/>
       <c r="AN163" s="12" t="n">
         <v>161</v>
       </c>
-      <c r="AO163" s="48" t="n">
+      <c r="AO163" s="51" t="n">
         <v>83</v>
       </c>
-      <c r="AP163" s="48"/>
-      <c r="AQ163" s="48"/>
+      <c r="AP163" s="51"/>
+      <c r="AQ163" s="51"/>
     </row>
     <row r="164" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="37" t="n">
@@ -16221,71 +16241,71 @@
         <v>44</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E164" s="46" t="s">
-        <v>502</v>
-      </c>
-      <c r="F164" s="46" t="s">
-        <v>503</v>
-      </c>
-      <c r="G164" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E164" s="49" t="s">
         <v>504</v>
       </c>
-      <c r="H164" s="48" t="s">
+      <c r="F164" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="G164" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="H164" s="51" t="s">
         <v>274</v>
       </c>
       <c r="I164" s="21" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J164" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="K164" s="48"/>
-      <c r="L164" s="48"/>
+        <v>494</v>
+      </c>
+      <c r="K164" s="51"/>
+      <c r="L164" s="51"/>
       <c r="M164" s="21"/>
       <c r="N164" s="21"/>
       <c r="O164" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="P164" s="48"/>
-      <c r="Q164" s="48"/>
-      <c r="R164" s="48"/>
-      <c r="S164" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="T164" s="48"/>
-      <c r="U164" s="48"/>
-      <c r="V164" s="48"/>
-      <c r="W164" s="48"/>
-      <c r="X164" s="48"/>
+        <v>508</v>
+      </c>
+      <c r="P164" s="51"/>
+      <c r="Q164" s="51"/>
+      <c r="R164" s="51"/>
+      <c r="S164" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="T164" s="51"/>
+      <c r="U164" s="51"/>
+      <c r="V164" s="51"/>
+      <c r="W164" s="51"/>
+      <c r="X164" s="51"/>
       <c r="Y164" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z164" s="48"/>
-      <c r="AA164" s="48"/>
-      <c r="AB164" s="48"/>
-      <c r="AC164" s="48"/>
-      <c r="AD164" s="48"/>
-      <c r="AE164" s="48"/>
-      <c r="AF164" s="52" t="n">
+        <v>510</v>
+      </c>
+      <c r="Z164" s="51"/>
+      <c r="AA164" s="51"/>
+      <c r="AB164" s="51"/>
+      <c r="AC164" s="51"/>
+      <c r="AD164" s="51"/>
+      <c r="AE164" s="51"/>
+      <c r="AF164" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AG164" s="48"/>
-      <c r="AH164" s="48"/>
-      <c r="AI164" s="48"/>
-      <c r="AJ164" s="48"/>
-      <c r="AK164" s="48"/>
-      <c r="AL164" s="48"/>
-      <c r="AM164" s="48"/>
+      <c r="AG164" s="51"/>
+      <c r="AH164" s="51"/>
+      <c r="AI164" s="51"/>
+      <c r="AJ164" s="51"/>
+      <c r="AK164" s="51"/>
+      <c r="AL164" s="51"/>
+      <c r="AM164" s="51"/>
       <c r="AN164" s="12" t="n">
         <v>162</v>
       </c>
-      <c r="AO164" s="48" t="n">
+      <c r="AO164" s="51" t="n">
         <v>91</v>
       </c>
-      <c r="AP164" s="48"/>
-      <c r="AQ164" s="48"/>
+      <c r="AP164" s="51"/>
+      <c r="AQ164" s="51"/>
     </row>
     <row r="165" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="37" t="n">
@@ -16298,71 +16318,71 @@
         <v>44</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E165" s="46" t="s">
-        <v>502</v>
-      </c>
-      <c r="F165" s="46" t="s">
-        <v>503</v>
-      </c>
-      <c r="G165" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E165" s="49" t="s">
         <v>504</v>
       </c>
-      <c r="H165" s="48" t="s">
+      <c r="F165" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="G165" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="H165" s="51" t="s">
         <v>265</v>
       </c>
       <c r="I165" s="21" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J165" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="K165" s="48"/>
-      <c r="L165" s="48"/>
+        <v>494</v>
+      </c>
+      <c r="K165" s="51"/>
+      <c r="L165" s="51"/>
       <c r="M165" s="21"/>
       <c r="N165" s="21"/>
       <c r="O165" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="P165" s="48"/>
-      <c r="Q165" s="48"/>
-      <c r="R165" s="48"/>
-      <c r="S165" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="T165" s="48"/>
-      <c r="U165" s="48"/>
-      <c r="V165" s="48"/>
-      <c r="W165" s="48"/>
-      <c r="X165" s="48"/>
+        <v>508</v>
+      </c>
+      <c r="P165" s="51"/>
+      <c r="Q165" s="51"/>
+      <c r="R165" s="51"/>
+      <c r="S165" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="T165" s="51"/>
+      <c r="U165" s="51"/>
+      <c r="V165" s="51"/>
+      <c r="W165" s="51"/>
+      <c r="X165" s="51"/>
       <c r="Y165" s="21" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z165" s="48"/>
-      <c r="AA165" s="48"/>
-      <c r="AB165" s="48"/>
-      <c r="AC165" s="48"/>
-      <c r="AD165" s="48"/>
-      <c r="AE165" s="48"/>
-      <c r="AF165" s="52" t="n">
+        <v>511</v>
+      </c>
+      <c r="Z165" s="51"/>
+      <c r="AA165" s="51"/>
+      <c r="AB165" s="51"/>
+      <c r="AC165" s="51"/>
+      <c r="AD165" s="51"/>
+      <c r="AE165" s="51"/>
+      <c r="AF165" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AG165" s="48"/>
-      <c r="AH165" s="48"/>
-      <c r="AI165" s="48"/>
-      <c r="AJ165" s="48"/>
-      <c r="AK165" s="48"/>
-      <c r="AL165" s="48"/>
-      <c r="AM165" s="48"/>
+      <c r="AG165" s="51"/>
+      <c r="AH165" s="51"/>
+      <c r="AI165" s="51"/>
+      <c r="AJ165" s="51"/>
+      <c r="AK165" s="51"/>
+      <c r="AL165" s="51"/>
+      <c r="AM165" s="51"/>
       <c r="AN165" s="12" t="n">
         <v>163</v>
       </c>
-      <c r="AO165" s="48" t="n">
+      <c r="AO165" s="51" t="n">
         <v>88</v>
       </c>
-      <c r="AP165" s="48"/>
-      <c r="AQ165" s="48"/>
+      <c r="AP165" s="51"/>
+      <c r="AQ165" s="51"/>
     </row>
     <row r="166" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="37" t="n">
@@ -16375,71 +16395,71 @@
         <v>44</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="E166" s="46" t="s">
-        <v>502</v>
-      </c>
-      <c r="F166" s="46" t="s">
-        <v>503</v>
-      </c>
-      <c r="G166" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="E166" s="49" t="s">
         <v>504</v>
       </c>
-      <c r="H166" s="48" t="s">
+      <c r="F166" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="G166" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="H166" s="51" t="s">
         <v>289</v>
       </c>
       <c r="I166" s="21" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J166" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="K166" s="48"/>
-      <c r="L166" s="48"/>
+        <v>494</v>
+      </c>
+      <c r="K166" s="51"/>
+      <c r="L166" s="51"/>
       <c r="M166" s="21"/>
       <c r="N166" s="21"/>
       <c r="O166" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="P166" s="48"/>
-      <c r="Q166" s="48"/>
-      <c r="R166" s="48"/>
-      <c r="S166" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="T166" s="48"/>
-      <c r="U166" s="48"/>
-      <c r="V166" s="48"/>
-      <c r="W166" s="48"/>
-      <c r="X166" s="48"/>
+        <v>508</v>
+      </c>
+      <c r="P166" s="51"/>
+      <c r="Q166" s="51"/>
+      <c r="R166" s="51"/>
+      <c r="S166" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="T166" s="51"/>
+      <c r="U166" s="51"/>
+      <c r="V166" s="51"/>
+      <c r="W166" s="51"/>
+      <c r="X166" s="51"/>
       <c r="Y166" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="Z166" s="48"/>
-      <c r="AA166" s="48"/>
-      <c r="AB166" s="48"/>
-      <c r="AC166" s="48"/>
-      <c r="AD166" s="48"/>
-      <c r="AE166" s="48"/>
-      <c r="AF166" s="52" t="n">
+        <v>512</v>
+      </c>
+      <c r="Z166" s="51"/>
+      <c r="AA166" s="51"/>
+      <c r="AB166" s="51"/>
+      <c r="AC166" s="51"/>
+      <c r="AD166" s="51"/>
+      <c r="AE166" s="51"/>
+      <c r="AF166" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AG166" s="48"/>
-      <c r="AH166" s="48"/>
-      <c r="AI166" s="48"/>
-      <c r="AJ166" s="48"/>
-      <c r="AK166" s="48"/>
-      <c r="AL166" s="48"/>
-      <c r="AM166" s="48"/>
+      <c r="AG166" s="51"/>
+      <c r="AH166" s="51"/>
+      <c r="AI166" s="51"/>
+      <c r="AJ166" s="51"/>
+      <c r="AK166" s="51"/>
+      <c r="AL166" s="51"/>
+      <c r="AM166" s="51"/>
       <c r="AN166" s="12" t="n">
         <v>164</v>
       </c>
-      <c r="AO166" s="48" t="n">
+      <c r="AO166" s="51" t="n">
         <v>96</v>
       </c>
-      <c r="AP166" s="48"/>
-      <c r="AQ166" s="48"/>
+      <c r="AP166" s="51"/>
+      <c r="AQ166" s="51"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16499,16 +16519,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="56" t="s">
         <v>355</v>
       </c>
     </row>
@@ -16536,17 +16556,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -16573,21 +16593,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G1" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16600,7 +16620,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>10</v>
@@ -16608,180 +16628,180 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>518</v>
+        <v>519</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>520</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="H7" s="54"/>
+        <v>521</v>
+      </c>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="H8" s="57"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="57"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="57" t="s">
         <v>520</v>
-      </c>
-      <c r="H8" s="54"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54" t="s">
-        <v>518</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="57" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="E15" s="54"/>
-      <c r="H15" s="54"/>
+        <v>525</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="H15" s="57"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="E16" s="57"/>
+      <c r="H16" s="57"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="54" t="s">
-        <v>518</v>
+      <c r="A18" s="57" t="s">
+        <v>520</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C18" s="54" t="s">
-        <v>518</v>
+      <c r="C18" s="57" t="s">
+        <v>520</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="57" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="54" t="s">
-        <v>526</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>527</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>526</v>
-      </c>
-      <c r="D20" s="55" t="s">
+      <c r="A20" s="57" t="s">
         <v>528</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>529</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>528</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="54" t="s">
-        <v>518</v>
-      </c>
-      <c r="H25" s="56" t="s">
-        <v>531</v>
-      </c>
-      <c r="J25" s="54"/>
+      <c r="G25" s="57" t="s">
+        <v>520</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="J25" s="57"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="57" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J26" s="54"/>
+      <c r="J26" s="57"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="54" t="s">
-        <v>518</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>531</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>518</v>
+      <c r="B28" s="57" t="s">
+        <v>520</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>520</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="57" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="57" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -16808,53 +16828,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="58" t="s">
-        <v>535</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>536</v>
-      </c>
-      <c r="I1" s="58" t="s">
+      <c r="G1" s="61" t="s">
+        <v>537</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>538</v>
+      </c>
+      <c r="I1" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="58" t="s">
-        <v>537</v>
-      </c>
-      <c r="L1" s="58" t="s">
+      <c r="K1" s="61" t="s">
+        <v>539</v>
+      </c>
+      <c r="L1" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="61" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="59" t="s">
-        <v>538</v>
+      <c r="B4" s="62" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU/Data/FT PoS 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="981" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Traditional Trade" sheetId="1" state="visible" r:id="rId2"/>
@@ -43,9 +43,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1082,13 +1083,13 @@
     <t xml:space="preserve">Energy Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">RGM Activations: SSD/Juice in Bread/Bakery Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGM Активации: SSD/Сок в зоне Хлеб/Выпечка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD/Juice in Bread/Bakery Zone</t>
+    <t xml:space="preserve">RGM Activations: SCHWEPPES in ALCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: SCHWEPPES в алкоголе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHWEPPES in ALCO</t>
   </si>
   <si>
     <t xml:space="preserve">Promo Displays</t>
@@ -1957,7 +1958,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1968,6 +1969,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2083,7 +2090,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2212,6 +2219,14 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2224,43 +2239,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2269,10 +2248,42 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2296,11 +2307,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2308,7 +2319,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2420,19 +2431,19 @@
   </sheetPr>
   <dimension ref="A1:AQ167"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N124" activeCellId="0" sqref="N124"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G111" activeCellId="0" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="42.3562753036437"/>
-    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="17.6761133603239"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11318,10 +11329,10 @@
         <v>304</v>
       </c>
       <c r="F105" s="12"/>
-      <c r="G105" s="9" t="s">
+      <c r="G105" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="H105" s="12" t="s">
+      <c r="H105" s="32" t="s">
         <v>318</v>
       </c>
       <c r="I105" s="9" t="s">
@@ -11334,7 +11345,7 @@
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
-      <c r="O105" s="12" t="s">
+      <c r="O105" s="33" t="s">
         <v>319</v>
       </c>
       <c r="P105" s="10"/>
@@ -11350,7 +11361,7 @@
       <c r="V105" s="9"/>
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
-      <c r="Y105" s="12" t="s">
+      <c r="Y105" s="33" t="s">
         <v>319</v>
       </c>
       <c r="Z105" s="9"/>
@@ -11397,10 +11408,10 @@
       <c r="D106" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E106" s="32" t="s">
+      <c r="E106" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="F106" s="32"/>
+      <c r="F106" s="34"/>
       <c r="G106" s="9" t="s">
         <v>320</v>
       </c>
@@ -11460,7 +11471,7 @@
       <c r="AO106" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="AP106" s="33" t="s">
+      <c r="AP106" s="35" t="s">
         <v>323</v>
       </c>
       <c r="AQ106" s="12"/>
@@ -11529,7 +11540,7 @@
       <c r="AE107" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AF107" s="34" t="n">
+      <c r="AF107" s="36" t="n">
         <v>0</v>
       </c>
       <c r="AG107" s="12"/>
@@ -11621,7 +11632,7 @@
       <c r="AN108" s="12" t="n">
         <v>107</v>
       </c>
-      <c r="AO108" s="35" t="s">
+      <c r="AO108" s="37" t="s">
         <v>335</v>
       </c>
       <c r="AP108" s="12"/>
@@ -11681,7 +11692,7 @@
         <v>339</v>
       </c>
       <c r="Y109" s="12"/>
-      <c r="Z109" s="36" t="s">
+      <c r="Z109" s="38" t="s">
         <v>340</v>
       </c>
       <c r="AA109" s="9"/>
@@ -11719,98 +11730,98 @@
       <c r="AQ109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="37" t="n">
+      <c r="A110" s="39" t="n">
         <v>109</v>
       </c>
-      <c r="B110" s="36" t="s">
+      <c r="B110" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C110" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D110" s="36" t="s">
+      <c r="D110" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E110" s="36" t="s">
+      <c r="E110" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="F110" s="36"/>
-      <c r="G110" s="37" t="s">
+      <c r="F110" s="38"/>
+      <c r="G110" s="39" t="s">
         <v>343</v>
       </c>
-      <c r="H110" s="37" t="s">
+      <c r="H110" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="I110" s="37" t="s">
+      <c r="I110" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="J110" s="37"/>
-      <c r="K110" s="37" t="n">
+      <c r="J110" s="39"/>
+      <c r="K110" s="39" t="n">
         <v>0.5</v>
       </c>
-      <c r="L110" s="37" t="n">
+      <c r="L110" s="39" t="n">
         <v>24</v>
       </c>
-      <c r="M110" s="37"/>
-      <c r="N110" s="36" t="s">
+      <c r="M110" s="39"/>
+      <c r="N110" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="O110" s="38" t="s">
+      <c r="O110" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="P110" s="38"/>
-      <c r="Q110" s="38"/>
-      <c r="R110" s="36"/>
-      <c r="S110" s="37" t="s">
+      <c r="P110" s="40"/>
+      <c r="Q110" s="40"/>
+      <c r="R110" s="38"/>
+      <c r="S110" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="T110" s="36"/>
-      <c r="U110" s="36"/>
-      <c r="V110" s="36"/>
-      <c r="W110" s="36"/>
-      <c r="X110" s="37" t="s">
+      <c r="T110" s="38"/>
+      <c r="U110" s="38"/>
+      <c r="V110" s="38"/>
+      <c r="W110" s="38"/>
+      <c r="X110" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="Y110" s="36" t="s">
+      <c r="Y110" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="Z110" s="36"/>
-      <c r="AA110" s="37"/>
-      <c r="AB110" s="36"/>
-      <c r="AC110" s="36"/>
-      <c r="AD110" s="37" t="s">
+      <c r="Z110" s="38"/>
+      <c r="AA110" s="39"/>
+      <c r="AB110" s="38"/>
+      <c r="AC110" s="38"/>
+      <c r="AD110" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AE110" s="37" t="s">
+      <c r="AE110" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AF110" s="39" t="n">
+      <c r="AF110" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="AG110" s="37"/>
-      <c r="AH110" s="37"/>
-      <c r="AI110" s="37" t="s">
+      <c r="AG110" s="39"/>
+      <c r="AH110" s="39"/>
+      <c r="AI110" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="AJ110" s="37" t="s">
+      <c r="AJ110" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="AK110" s="37"/>
-      <c r="AL110" s="37"/>
-      <c r="AM110" s="36" t="n">
+      <c r="AK110" s="39"/>
+      <c r="AL110" s="39"/>
+      <c r="AM110" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="AN110" s="36" t="n">
+      <c r="AN110" s="38" t="n">
         <v>165</v>
       </c>
-      <c r="AO110" s="36"/>
-      <c r="AP110" s="36" t="s">
+      <c r="AO110" s="38"/>
+      <c r="AP110" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="AQ110" s="36"/>
+      <c r="AQ110" s="38"/>
     </row>
     <row r="111" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="37" t="n">
+      <c r="A111" s="39" t="n">
         <v>110</v>
       </c>
       <c r="B111" s="12" t="s">
@@ -11893,7 +11904,7 @@
       <c r="AQ111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="37" t="n">
+      <c r="A112" s="39" t="n">
         <v>111</v>
       </c>
       <c r="B112" s="12" t="s">
@@ -11925,7 +11936,7 @@
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
       <c r="N112" s="12"/>
-      <c r="O112" s="40" t="s">
+      <c r="O112" s="42" t="s">
         <v>352</v>
       </c>
       <c r="P112" s="27"/>
@@ -11936,15 +11947,15 @@
       </c>
       <c r="T112" s="12"/>
       <c r="U112" s="12"/>
-      <c r="V112" s="40"/>
+      <c r="V112" s="42"/>
       <c r="W112" s="12"/>
       <c r="X112" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="Y112" s="40" t="s">
+      <c r="Y112" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="Z112" s="40"/>
+      <c r="Z112" s="42"/>
       <c r="AA112" s="9"/>
       <c r="AB112" s="12"/>
       <c r="AC112" s="12"/>
@@ -11974,13 +11985,13 @@
         <v>110</v>
       </c>
       <c r="AO112" s="12"/>
-      <c r="AP112" s="33" t="s">
+      <c r="AP112" s="35" t="s">
         <v>356</v>
       </c>
       <c r="AQ112" s="12"/>
     </row>
     <row r="113" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="37" t="n">
+      <c r="A113" s="39" t="n">
         <v>112</v>
       </c>
       <c r="B113" s="12" t="s">
@@ -12061,13 +12072,13 @@
         <v>111</v>
       </c>
       <c r="AO113" s="12"/>
-      <c r="AP113" s="33" t="s">
+      <c r="AP113" s="35" t="s">
         <v>356</v>
       </c>
       <c r="AQ113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="37" t="n">
+      <c r="A114" s="39" t="n">
         <v>113</v>
       </c>
       <c r="B114" s="12" t="s">
@@ -12089,7 +12100,7 @@
       <c r="H114" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="I114" s="41" t="s">
+      <c r="I114" s="43" t="s">
         <v>363</v>
       </c>
       <c r="J114" s="14"/>
@@ -12097,7 +12108,7 @@
       <c r="L114" s="9"/>
       <c r="M114" s="9"/>
       <c r="N114" s="12"/>
-      <c r="O114" s="42"/>
+      <c r="O114" s="44"/>
       <c r="P114" s="27"/>
       <c r="Q114" s="27"/>
       <c r="R114" s="9" t="s">
@@ -12119,22 +12130,22 @@
       <c r="AD114" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AE114" s="41" t="s">
+      <c r="AE114" s="43" t="s">
         <v>364</v>
       </c>
       <c r="AF114" s="17" t="n">
         <v>0.025</v>
       </c>
-      <c r="AG114" s="37" t="n">
+      <c r="AG114" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="AH114" s="37" t="n">
+      <c r="AH114" s="39" t="n">
         <v>1</v>
       </c>
       <c r="AI114" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="AJ114" s="37" t="s">
+      <c r="AJ114" s="39" t="s">
         <v>365</v>
       </c>
       <c r="AK114" s="9"/>
@@ -12148,13 +12159,13 @@
       <c r="AO114" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="AP114" s="33" t="s">
+      <c r="AP114" s="35" t="s">
         <v>356</v>
       </c>
       <c r="AQ114" s="12"/>
     </row>
     <row r="115" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="37" t="n">
+      <c r="A115" s="39" t="n">
         <v>114</v>
       </c>
       <c r="B115" s="12" t="s">
@@ -12186,7 +12197,7 @@
       <c r="L115" s="9"/>
       <c r="M115" s="9"/>
       <c r="N115" s="12"/>
-      <c r="O115" s="42"/>
+      <c r="O115" s="44"/>
       <c r="P115" s="27"/>
       <c r="Q115" s="27"/>
       <c r="R115" s="9" t="s">
@@ -12198,7 +12209,7 @@
       <c r="V115" s="12"/>
       <c r="W115" s="12"/>
       <c r="X115" s="9"/>
-      <c r="Y115" s="37" t="s">
+      <c r="Y115" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z115" s="12"/>
@@ -12211,7 +12222,7 @@
       <c r="AE115" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AF115" s="43" t="n">
+      <c r="AF115" s="45" t="n">
         <v>1</v>
       </c>
       <c r="AG115" s="9" t="n">
@@ -12220,10 +12231,10 @@
       <c r="AH115" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AI115" s="37" t="s">
+      <c r="AI115" s="39" t="s">
         <v>370</v>
       </c>
-      <c r="AJ115" s="37"/>
+      <c r="AJ115" s="39"/>
       <c r="AK115" s="9"/>
       <c r="AL115" s="9"/>
       <c r="AM115" s="12" t="n">
@@ -12235,13 +12246,13 @@
       <c r="AO115" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="AP115" s="33" t="s">
+      <c r="AP115" s="35" t="s">
         <v>361</v>
       </c>
       <c r="AQ115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="37" t="n">
+      <c r="A116" s="39" t="n">
         <v>115</v>
       </c>
       <c r="B116" s="12" t="s">
@@ -12291,7 +12302,7 @@
       <c r="V116" s="12"/>
       <c r="W116" s="12"/>
       <c r="X116" s="9"/>
-      <c r="Y116" s="37" t="s">
+      <c r="Y116" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z116" s="12"/>
@@ -12310,7 +12321,7 @@
       <c r="AG116" s="9"/>
       <c r="AH116" s="9"/>
       <c r="AI116" s="9"/>
-      <c r="AJ116" s="37"/>
+      <c r="AJ116" s="39"/>
       <c r="AK116" s="9"/>
       <c r="AL116" s="9"/>
       <c r="AM116" s="12" t="n">
@@ -12320,13 +12331,13 @@
         <v>114</v>
       </c>
       <c r="AO116" s="12"/>
-      <c r="AP116" s="33" t="s">
+      <c r="AP116" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AQ116" s="12"/>
     </row>
     <row r="117" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="37" t="n">
+      <c r="A117" s="39" t="n">
         <v>116</v>
       </c>
       <c r="B117" s="12" t="s">
@@ -12342,10 +12353,10 @@
         <v>304</v>
       </c>
       <c r="F117" s="12"/>
-      <c r="G117" s="44" t="s">
+      <c r="G117" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="H117" s="44" t="s">
+      <c r="H117" s="46" t="s">
         <v>375</v>
       </c>
       <c r="I117" s="14" t="s">
@@ -12357,10 +12368,10 @@
       </c>
       <c r="L117" s="9"/>
       <c r="M117" s="9"/>
-      <c r="N117" s="45" t="s">
+      <c r="N117" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="O117" s="46" t="s">
+      <c r="O117" s="47" t="s">
         <v>377</v>
       </c>
       <c r="P117" s="27"/>
@@ -12376,7 +12387,7 @@
       <c r="V117" s="12"/>
       <c r="W117" s="12"/>
       <c r="X117" s="9"/>
-      <c r="Y117" s="37" t="s">
+      <c r="Y117" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z117" s="12"/>
@@ -12395,7 +12406,7 @@
       <c r="AG117" s="9"/>
       <c r="AH117" s="9"/>
       <c r="AI117" s="9"/>
-      <c r="AJ117" s="37"/>
+      <c r="AJ117" s="39"/>
       <c r="AK117" s="9"/>
       <c r="AL117" s="9"/>
       <c r="AM117" s="12" t="n">
@@ -12405,13 +12416,13 @@
         <v>115</v>
       </c>
       <c r="AO117" s="12"/>
-      <c r="AP117" s="33" t="s">
+      <c r="AP117" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AQ117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="37" t="n">
+      <c r="A118" s="39" t="n">
         <v>117</v>
       </c>
       <c r="B118" s="12" t="s">
@@ -12461,7 +12472,7 @@
       <c r="V118" s="12"/>
       <c r="W118" s="12"/>
       <c r="X118" s="9"/>
-      <c r="Y118" s="37" t="s">
+      <c r="Y118" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z118" s="12"/>
@@ -12480,7 +12491,7 @@
       <c r="AG118" s="9"/>
       <c r="AH118" s="9"/>
       <c r="AI118" s="9"/>
-      <c r="AJ118" s="37"/>
+      <c r="AJ118" s="39"/>
       <c r="AK118" s="9"/>
       <c r="AL118" s="9"/>
       <c r="AM118" s="12" t="n">
@@ -12490,13 +12501,13 @@
         <v>116</v>
       </c>
       <c r="AO118" s="12"/>
-      <c r="AP118" s="33" t="s">
+      <c r="AP118" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AQ118" s="12"/>
     </row>
     <row r="119" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="37" t="n">
+      <c r="A119" s="39" t="n">
         <v>118</v>
       </c>
       <c r="B119" s="12" t="s">
@@ -12546,7 +12557,7 @@
       <c r="V119" s="12"/>
       <c r="W119" s="12"/>
       <c r="X119" s="9"/>
-      <c r="Y119" s="37" t="s">
+      <c r="Y119" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z119" s="12"/>
@@ -12565,7 +12576,7 @@
       <c r="AG119" s="9"/>
       <c r="AH119" s="9"/>
       <c r="AI119" s="9"/>
-      <c r="AJ119" s="37"/>
+      <c r="AJ119" s="39"/>
       <c r="AK119" s="9"/>
       <c r="AL119" s="9"/>
       <c r="AM119" s="12" t="n">
@@ -12575,13 +12586,13 @@
         <v>117</v>
       </c>
       <c r="AO119" s="12"/>
-      <c r="AP119" s="33" t="s">
+      <c r="AP119" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AQ119" s="12"/>
     </row>
     <row r="120" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="37" t="n">
+      <c r="A120" s="39" t="n">
         <v>119</v>
       </c>
       <c r="B120" s="12" t="s">
@@ -12597,10 +12608,10 @@
         <v>304</v>
       </c>
       <c r="F120" s="12"/>
-      <c r="G120" s="44" t="s">
+      <c r="G120" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="H120" s="44" t="s">
+      <c r="H120" s="46" t="s">
         <v>383</v>
       </c>
       <c r="I120" s="14" t="s">
@@ -12612,10 +12623,10 @@
       </c>
       <c r="L120" s="9"/>
       <c r="M120" s="9"/>
-      <c r="N120" s="45" t="s">
+      <c r="N120" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="O120" s="47" t="n">
+      <c r="O120" s="48" t="n">
         <v>5449000214744</v>
       </c>
       <c r="P120" s="27"/>
@@ -12631,7 +12642,7 @@
       <c r="V120" s="12"/>
       <c r="W120" s="12"/>
       <c r="X120" s="9"/>
-      <c r="Y120" s="37" t="s">
+      <c r="Y120" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z120" s="12"/>
@@ -12650,7 +12661,7 @@
       <c r="AG120" s="9"/>
       <c r="AH120" s="9"/>
       <c r="AI120" s="9"/>
-      <c r="AJ120" s="37"/>
+      <c r="AJ120" s="39"/>
       <c r="AK120" s="9"/>
       <c r="AL120" s="9"/>
       <c r="AM120" s="12" t="n">
@@ -12660,13 +12671,13 @@
         <v>118</v>
       </c>
       <c r="AO120" s="12"/>
-      <c r="AP120" s="33" t="s">
+      <c r="AP120" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AQ120" s="12"/>
     </row>
     <row r="121" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="37" t="n">
+      <c r="A121" s="39" t="n">
         <v>120</v>
       </c>
       <c r="B121" s="12" t="s">
@@ -12716,7 +12727,7 @@
       <c r="V121" s="12"/>
       <c r="W121" s="12"/>
       <c r="X121" s="9"/>
-      <c r="Y121" s="37" t="s">
+      <c r="Y121" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z121" s="12"/>
@@ -12735,7 +12746,7 @@
       <c r="AG121" s="9"/>
       <c r="AH121" s="9"/>
       <c r="AI121" s="9"/>
-      <c r="AJ121" s="37"/>
+      <c r="AJ121" s="39"/>
       <c r="AK121" s="9"/>
       <c r="AL121" s="9"/>
       <c r="AM121" s="12" t="n">
@@ -12745,13 +12756,13 @@
         <v>119</v>
       </c>
       <c r="AO121" s="12"/>
-      <c r="AP121" s="33" t="s">
+      <c r="AP121" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AQ121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="37" t="n">
+      <c r="A122" s="39" t="n">
         <v>121</v>
       </c>
       <c r="B122" s="12" t="s">
@@ -12801,7 +12812,7 @@
       <c r="V122" s="12"/>
       <c r="W122" s="12"/>
       <c r="X122" s="9"/>
-      <c r="Y122" s="37" t="s">
+      <c r="Y122" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z122" s="12"/>
@@ -12820,7 +12831,7 @@
       <c r="AG122" s="9"/>
       <c r="AH122" s="9"/>
       <c r="AI122" s="9"/>
-      <c r="AJ122" s="37"/>
+      <c r="AJ122" s="39"/>
       <c r="AK122" s="9"/>
       <c r="AL122" s="9"/>
       <c r="AM122" s="12" t="n">
@@ -12830,13 +12841,13 @@
         <v>120</v>
       </c>
       <c r="AO122" s="12"/>
-      <c r="AP122" s="33" t="s">
+      <c r="AP122" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AQ122" s="12"/>
     </row>
     <row r="123" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="37" t="n">
+      <c r="A123" s="39" t="n">
         <v>122</v>
       </c>
       <c r="B123" s="12" t="s">
@@ -12886,7 +12897,7 @@
       <c r="V123" s="12"/>
       <c r="W123" s="12"/>
       <c r="X123" s="9"/>
-      <c r="Y123" s="37" t="s">
+      <c r="Y123" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z123" s="12"/>
@@ -12905,7 +12916,7 @@
       <c r="AG123" s="9"/>
       <c r="AH123" s="9"/>
       <c r="AI123" s="9"/>
-      <c r="AJ123" s="37"/>
+      <c r="AJ123" s="39"/>
       <c r="AK123" s="9"/>
       <c r="AL123" s="9"/>
       <c r="AM123" s="12" t="n">
@@ -12915,13 +12926,13 @@
         <v>121</v>
       </c>
       <c r="AO123" s="12"/>
-      <c r="AP123" s="33" t="s">
+      <c r="AP123" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AQ123" s="12"/>
     </row>
     <row r="124" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="37" t="n">
+      <c r="A124" s="39" t="n">
         <v>123</v>
       </c>
       <c r="B124" s="12" t="s">
@@ -12971,7 +12982,7 @@
       <c r="V124" s="12"/>
       <c r="W124" s="12"/>
       <c r="X124" s="9"/>
-      <c r="Y124" s="37" t="s">
+      <c r="Y124" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z124" s="12"/>
@@ -12990,7 +13001,7 @@
       <c r="AG124" s="9"/>
       <c r="AH124" s="9"/>
       <c r="AI124" s="9"/>
-      <c r="AJ124" s="37"/>
+      <c r="AJ124" s="39"/>
       <c r="AK124" s="9"/>
       <c r="AL124" s="9"/>
       <c r="AM124" s="12" t="n">
@@ -13000,13 +13011,13 @@
         <v>122</v>
       </c>
       <c r="AO124" s="12"/>
-      <c r="AP124" s="33" t="s">
+      <c r="AP124" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AQ124" s="12"/>
     </row>
     <row r="125" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="37" t="n">
+      <c r="A125" s="39" t="n">
         <v>124</v>
       </c>
       <c r="B125" s="12" t="s">
@@ -13056,7 +13067,7 @@
       <c r="V125" s="12"/>
       <c r="W125" s="12"/>
       <c r="X125" s="9"/>
-      <c r="Y125" s="37" t="s">
+      <c r="Y125" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z125" s="12"/>
@@ -13075,7 +13086,7 @@
       <c r="AG125" s="9"/>
       <c r="AH125" s="9"/>
       <c r="AI125" s="9"/>
-      <c r="AJ125" s="37"/>
+      <c r="AJ125" s="39"/>
       <c r="AK125" s="9"/>
       <c r="AL125" s="9"/>
       <c r="AM125" s="12" t="n">
@@ -13085,13 +13096,13 @@
         <v>123</v>
       </c>
       <c r="AO125" s="12"/>
-      <c r="AP125" s="33" t="s">
+      <c r="AP125" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AQ125" s="12"/>
     </row>
     <row r="126" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="37" t="n">
+      <c r="A126" s="39" t="n">
         <v>125</v>
       </c>
       <c r="B126" s="12" t="s">
@@ -13141,7 +13152,7 @@
       <c r="V126" s="12"/>
       <c r="W126" s="12"/>
       <c r="X126" s="9"/>
-      <c r="Y126" s="37" t="s">
+      <c r="Y126" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z126" s="12"/>
@@ -13160,7 +13171,7 @@
       <c r="AG126" s="9"/>
       <c r="AH126" s="9"/>
       <c r="AI126" s="9"/>
-      <c r="AJ126" s="37"/>
+      <c r="AJ126" s="39"/>
       <c r="AK126" s="9"/>
       <c r="AL126" s="9"/>
       <c r="AM126" s="12" t="n">
@@ -13170,13 +13181,13 @@
         <v>124</v>
       </c>
       <c r="AO126" s="12"/>
-      <c r="AP126" s="33" t="s">
+      <c r="AP126" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AQ126" s="12"/>
     </row>
     <row r="127" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="37" t="n">
+      <c r="A127" s="39" t="n">
         <v>126</v>
       </c>
       <c r="B127" s="12" t="s">
@@ -13210,7 +13221,7 @@
       <c r="N127" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="O127" s="48" t="s">
+      <c r="O127" s="49" t="s">
         <v>399</v>
       </c>
       <c r="P127" s="27"/>
@@ -13226,7 +13237,7 @@
       <c r="V127" s="12"/>
       <c r="W127" s="12"/>
       <c r="X127" s="9"/>
-      <c r="Y127" s="37" t="s">
+      <c r="Y127" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z127" s="12"/>
@@ -13245,7 +13256,7 @@
       <c r="AG127" s="9"/>
       <c r="AH127" s="9"/>
       <c r="AI127" s="9"/>
-      <c r="AJ127" s="37"/>
+      <c r="AJ127" s="39"/>
       <c r="AK127" s="9"/>
       <c r="AL127" s="9"/>
       <c r="AM127" s="12" t="n">
@@ -13255,13 +13266,13 @@
         <v>125</v>
       </c>
       <c r="AO127" s="12"/>
-      <c r="AP127" s="33" t="s">
+      <c r="AP127" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AQ127" s="12"/>
     </row>
     <row r="128" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="37" t="n">
+      <c r="A128" s="39" t="n">
         <v>127</v>
       </c>
       <c r="B128" s="12" t="s">
@@ -13311,7 +13322,7 @@
       <c r="V128" s="12"/>
       <c r="W128" s="12"/>
       <c r="X128" s="9"/>
-      <c r="Y128" s="37" t="s">
+      <c r="Y128" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z128" s="12"/>
@@ -13330,7 +13341,7 @@
       <c r="AG128" s="9"/>
       <c r="AH128" s="9"/>
       <c r="AI128" s="9"/>
-      <c r="AJ128" s="37"/>
+      <c r="AJ128" s="39"/>
       <c r="AK128" s="9"/>
       <c r="AL128" s="9"/>
       <c r="AM128" s="12" t="n">
@@ -13340,13 +13351,13 @@
         <v>126</v>
       </c>
       <c r="AO128" s="12"/>
-      <c r="AP128" s="33" t="s">
+      <c r="AP128" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AQ128" s="12"/>
     </row>
     <row r="129" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="37" t="n">
+      <c r="A129" s="39" t="n">
         <v>128</v>
       </c>
       <c r="B129" s="12" t="s">
@@ -13396,7 +13407,7 @@
       <c r="V129" s="12"/>
       <c r="W129" s="12"/>
       <c r="X129" s="9"/>
-      <c r="Y129" s="37" t="s">
+      <c r="Y129" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z129" s="12"/>
@@ -13415,7 +13426,7 @@
       <c r="AG129" s="9"/>
       <c r="AH129" s="9"/>
       <c r="AI129" s="9"/>
-      <c r="AJ129" s="37"/>
+      <c r="AJ129" s="39"/>
       <c r="AK129" s="9"/>
       <c r="AL129" s="9"/>
       <c r="AM129" s="12" t="n">
@@ -13425,13 +13436,13 @@
         <v>127</v>
       </c>
       <c r="AO129" s="12"/>
-      <c r="AP129" s="33" t="s">
+      <c r="AP129" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AQ129" s="12"/>
     </row>
     <row r="130" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="37" t="n">
+      <c r="A130" s="39" t="n">
         <v>129</v>
       </c>
       <c r="B130" s="12" t="s">
@@ -13481,7 +13492,7 @@
       <c r="V130" s="12"/>
       <c r="W130" s="12"/>
       <c r="X130" s="9"/>
-      <c r="Y130" s="37" t="s">
+      <c r="Y130" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z130" s="12"/>
@@ -13500,7 +13511,7 @@
       <c r="AG130" s="9"/>
       <c r="AH130" s="9"/>
       <c r="AI130" s="9"/>
-      <c r="AJ130" s="37"/>
+      <c r="AJ130" s="39"/>
       <c r="AK130" s="9"/>
       <c r="AL130" s="9"/>
       <c r="AM130" s="12" t="n">
@@ -13510,13 +13521,13 @@
         <v>128</v>
       </c>
       <c r="AO130" s="12"/>
-      <c r="AP130" s="33" t="s">
+      <c r="AP130" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AQ130" s="12"/>
     </row>
     <row r="131" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="37" t="n">
+      <c r="A131" s="39" t="n">
         <v>130</v>
       </c>
       <c r="B131" s="12" t="s">
@@ -13566,7 +13577,7 @@
       <c r="V131" s="12"/>
       <c r="W131" s="12"/>
       <c r="X131" s="9"/>
-      <c r="Y131" s="37" t="s">
+      <c r="Y131" s="39" t="s">
         <v>369</v>
       </c>
       <c r="Z131" s="12"/>
@@ -13585,7 +13596,7 @@
       <c r="AG131" s="9"/>
       <c r="AH131" s="9"/>
       <c r="AI131" s="9"/>
-      <c r="AJ131" s="37"/>
+      <c r="AJ131" s="39"/>
       <c r="AK131" s="9"/>
       <c r="AL131" s="9"/>
       <c r="AM131" s="12" t="n">
@@ -13595,13 +13606,13 @@
         <v>129</v>
       </c>
       <c r="AO131" s="12"/>
-      <c r="AP131" s="33" t="s">
+      <c r="AP131" s="35" t="s">
         <v>367</v>
       </c>
       <c r="AQ131" s="12"/>
     </row>
     <row r="132" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="37" t="n">
+      <c r="A132" s="39" t="n">
         <v>131</v>
       </c>
       <c r="B132" s="12" t="s">
@@ -13633,7 +13644,7 @@
       <c r="L132" s="9"/>
       <c r="M132" s="9"/>
       <c r="N132" s="12"/>
-      <c r="O132" s="42"/>
+      <c r="O132" s="44"/>
       <c r="P132" s="27"/>
       <c r="Q132" s="27"/>
       <c r="R132" s="9" t="s">
@@ -13645,7 +13656,7 @@
       <c r="V132" s="12"/>
       <c r="W132" s="12"/>
       <c r="X132" s="9"/>
-      <c r="Y132" s="37" t="s">
+      <c r="Y132" s="39" t="s">
         <v>412</v>
       </c>
       <c r="Z132" s="12"/>
@@ -13658,7 +13669,7 @@
       <c r="AE132" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AF132" s="43" t="n">
+      <c r="AF132" s="45" t="n">
         <v>0.5</v>
       </c>
       <c r="AG132" s="9" t="n">
@@ -13667,10 +13678,10 @@
       <c r="AH132" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AI132" s="37" t="s">
+      <c r="AI132" s="39" t="s">
         <v>370</v>
       </c>
-      <c r="AJ132" s="37"/>
+      <c r="AJ132" s="39"/>
       <c r="AK132" s="9"/>
       <c r="AL132" s="9"/>
       <c r="AM132" s="12" t="n">
@@ -13682,13 +13693,13 @@
       <c r="AO132" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="AP132" s="33" t="s">
+      <c r="AP132" s="35" t="s">
         <v>361</v>
       </c>
       <c r="AQ132" s="12"/>
     </row>
     <row r="133" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="37" t="n">
+      <c r="A133" s="39" t="n">
         <v>132</v>
       </c>
       <c r="B133" s="12" t="s">
@@ -13738,7 +13749,7 @@
       <c r="V133" s="12"/>
       <c r="W133" s="12"/>
       <c r="X133" s="9"/>
-      <c r="Y133" s="37" t="s">
+      <c r="Y133" s="39" t="s">
         <v>412</v>
       </c>
       <c r="Z133" s="12"/>
@@ -13757,7 +13768,7 @@
       <c r="AG133" s="9"/>
       <c r="AH133" s="9"/>
       <c r="AI133" s="9"/>
-      <c r="AJ133" s="37"/>
+      <c r="AJ133" s="39"/>
       <c r="AK133" s="9"/>
       <c r="AL133" s="9"/>
       <c r="AM133" s="12" t="n">
@@ -13767,13 +13778,13 @@
         <v>131</v>
       </c>
       <c r="AO133" s="12"/>
-      <c r="AP133" s="33" t="s">
+      <c r="AP133" s="35" t="s">
         <v>410</v>
       </c>
       <c r="AQ133" s="12"/>
     </row>
     <row r="134" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="37" t="n">
+      <c r="A134" s="39" t="n">
         <v>133</v>
       </c>
       <c r="B134" s="12" t="s">
@@ -13823,7 +13834,7 @@
       <c r="V134" s="12"/>
       <c r="W134" s="12"/>
       <c r="X134" s="9"/>
-      <c r="Y134" s="37" t="s">
+      <c r="Y134" s="39" t="s">
         <v>412</v>
       </c>
       <c r="Z134" s="12"/>
@@ -13842,7 +13853,7 @@
       <c r="AG134" s="9"/>
       <c r="AH134" s="9"/>
       <c r="AI134" s="9"/>
-      <c r="AJ134" s="37"/>
+      <c r="AJ134" s="39"/>
       <c r="AK134" s="9"/>
       <c r="AL134" s="9"/>
       <c r="AM134" s="12" t="n">
@@ -13852,13 +13863,13 @@
         <v>132</v>
       </c>
       <c r="AO134" s="12"/>
-      <c r="AP134" s="33" t="s">
+      <c r="AP134" s="35" t="s">
         <v>410</v>
       </c>
       <c r="AQ134" s="12"/>
     </row>
     <row r="135" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="37" t="n">
+      <c r="A135" s="39" t="n">
         <v>134</v>
       </c>
       <c r="B135" s="12" t="s">
@@ -13908,7 +13919,7 @@
       <c r="V135" s="12"/>
       <c r="W135" s="12"/>
       <c r="X135" s="9"/>
-      <c r="Y135" s="37" t="s">
+      <c r="Y135" s="39" t="s">
         <v>412</v>
       </c>
       <c r="Z135" s="12"/>
@@ -13927,7 +13938,7 @@
       <c r="AG135" s="9"/>
       <c r="AH135" s="9"/>
       <c r="AI135" s="9"/>
-      <c r="AJ135" s="37"/>
+      <c r="AJ135" s="39"/>
       <c r="AK135" s="9"/>
       <c r="AL135" s="9"/>
       <c r="AM135" s="12" t="n">
@@ -13937,13 +13948,13 @@
         <v>133</v>
       </c>
       <c r="AO135" s="12"/>
-      <c r="AP135" s="33" t="s">
+      <c r="AP135" s="35" t="s">
         <v>410</v>
       </c>
       <c r="AQ135" s="12"/>
     </row>
     <row r="136" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="37" t="n">
+      <c r="A136" s="39" t="n">
         <v>135</v>
       </c>
       <c r="B136" s="12" t="s">
@@ -13993,7 +14004,7 @@
       <c r="V136" s="12"/>
       <c r="W136" s="12"/>
       <c r="X136" s="9"/>
-      <c r="Y136" s="37" t="s">
+      <c r="Y136" s="39" t="s">
         <v>412</v>
       </c>
       <c r="Z136" s="12"/>
@@ -14012,7 +14023,7 @@
       <c r="AG136" s="9"/>
       <c r="AH136" s="9"/>
       <c r="AI136" s="9"/>
-      <c r="AJ136" s="37"/>
+      <c r="AJ136" s="39"/>
       <c r="AK136" s="9"/>
       <c r="AL136" s="9"/>
       <c r="AM136" s="12" t="n">
@@ -14022,13 +14033,13 @@
         <v>134</v>
       </c>
       <c r="AO136" s="12"/>
-      <c r="AP136" s="33" t="s">
+      <c r="AP136" s="35" t="s">
         <v>410</v>
       </c>
       <c r="AQ136" s="12"/>
     </row>
     <row r="137" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="37" t="n">
+      <c r="A137" s="39" t="n">
         <v>136</v>
       </c>
       <c r="B137" s="12" t="s">
@@ -14078,7 +14089,7 @@
       <c r="V137" s="12"/>
       <c r="W137" s="12"/>
       <c r="X137" s="9"/>
-      <c r="Y137" s="37" t="s">
+      <c r="Y137" s="39" t="s">
         <v>412</v>
       </c>
       <c r="Z137" s="12"/>
@@ -14097,7 +14108,7 @@
       <c r="AG137" s="9"/>
       <c r="AH137" s="9"/>
       <c r="AI137" s="9"/>
-      <c r="AJ137" s="37"/>
+      <c r="AJ137" s="39"/>
       <c r="AK137" s="9"/>
       <c r="AL137" s="9"/>
       <c r="AM137" s="12" t="n">
@@ -14107,13 +14118,13 @@
         <v>135</v>
       </c>
       <c r="AO137" s="12"/>
-      <c r="AP137" s="33" t="s">
+      <c r="AP137" s="35" t="s">
         <v>410</v>
       </c>
       <c r="AQ137" s="12"/>
     </row>
     <row r="138" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="37" t="n">
+      <c r="A138" s="39" t="n">
         <v>137</v>
       </c>
       <c r="B138" s="12" t="s">
@@ -14163,7 +14174,7 @@
       <c r="V138" s="12"/>
       <c r="W138" s="12"/>
       <c r="X138" s="9"/>
-      <c r="Y138" s="37" t="s">
+      <c r="Y138" s="39" t="s">
         <v>412</v>
       </c>
       <c r="Z138" s="12"/>
@@ -14182,7 +14193,7 @@
       <c r="AG138" s="9"/>
       <c r="AH138" s="9"/>
       <c r="AI138" s="9"/>
-      <c r="AJ138" s="37"/>
+      <c r="AJ138" s="39"/>
       <c r="AK138" s="9"/>
       <c r="AL138" s="9"/>
       <c r="AM138" s="12" t="n">
@@ -14192,13 +14203,13 @@
         <v>136</v>
       </c>
       <c r="AO138" s="12"/>
-      <c r="AP138" s="33" t="s">
+      <c r="AP138" s="35" t="s">
         <v>410</v>
       </c>
       <c r="AQ138" s="12"/>
     </row>
     <row r="139" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="37" t="n">
+      <c r="A139" s="39" t="n">
         <v>138</v>
       </c>
       <c r="B139" s="12" t="s">
@@ -14248,7 +14259,7 @@
       <c r="V139" s="12"/>
       <c r="W139" s="12"/>
       <c r="X139" s="9"/>
-      <c r="Y139" s="37" t="s">
+      <c r="Y139" s="39" t="s">
         <v>412</v>
       </c>
       <c r="Z139" s="12"/>
@@ -14267,7 +14278,7 @@
       <c r="AG139" s="9"/>
       <c r="AH139" s="9"/>
       <c r="AI139" s="9"/>
-      <c r="AJ139" s="37"/>
+      <c r="AJ139" s="39"/>
       <c r="AK139" s="9"/>
       <c r="AL139" s="9"/>
       <c r="AM139" s="12" t="n">
@@ -14277,13 +14288,13 @@
         <v>137</v>
       </c>
       <c r="AO139" s="12"/>
-      <c r="AP139" s="33" t="s">
+      <c r="AP139" s="35" t="s">
         <v>410</v>
       </c>
       <c r="AQ139" s="12"/>
     </row>
     <row r="140" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="37" t="n">
+      <c r="A140" s="39" t="n">
         <v>139</v>
       </c>
       <c r="B140" s="12" t="s">
@@ -14333,7 +14344,7 @@
       <c r="V140" s="12"/>
       <c r="W140" s="12"/>
       <c r="X140" s="9"/>
-      <c r="Y140" s="37" t="s">
+      <c r="Y140" s="39" t="s">
         <v>412</v>
       </c>
       <c r="Z140" s="12"/>
@@ -14352,7 +14363,7 @@
       <c r="AG140" s="9"/>
       <c r="AH140" s="9"/>
       <c r="AI140" s="9"/>
-      <c r="AJ140" s="37"/>
+      <c r="AJ140" s="39"/>
       <c r="AK140" s="9"/>
       <c r="AL140" s="9"/>
       <c r="AM140" s="12" t="n">
@@ -14362,13 +14373,13 @@
         <v>138</v>
       </c>
       <c r="AO140" s="12"/>
-      <c r="AP140" s="33" t="s">
+      <c r="AP140" s="35" t="s">
         <v>410</v>
       </c>
       <c r="AQ140" s="12"/>
     </row>
     <row r="141" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="37" t="n">
+      <c r="A141" s="39" t="n">
         <v>140</v>
       </c>
       <c r="B141" s="12" t="s">
@@ -14418,7 +14429,7 @@
       <c r="V141" s="12"/>
       <c r="W141" s="12"/>
       <c r="X141" s="9"/>
-      <c r="Y141" s="37" t="s">
+      <c r="Y141" s="39" t="s">
         <v>412</v>
       </c>
       <c r="Z141" s="12"/>
@@ -14437,7 +14448,7 @@
       <c r="AG141" s="9"/>
       <c r="AH141" s="9"/>
       <c r="AI141" s="9"/>
-      <c r="AJ141" s="37"/>
+      <c r="AJ141" s="39"/>
       <c r="AK141" s="9"/>
       <c r="AL141" s="9"/>
       <c r="AM141" s="12" t="n">
@@ -14447,13 +14458,13 @@
         <v>139</v>
       </c>
       <c r="AO141" s="12"/>
-      <c r="AP141" s="33" t="s">
+      <c r="AP141" s="35" t="s">
         <v>410</v>
       </c>
       <c r="AQ141" s="12"/>
     </row>
     <row r="142" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="37" t="n">
+      <c r="A142" s="39" t="n">
         <v>141</v>
       </c>
       <c r="B142" s="12" t="s">
@@ -14503,7 +14514,7 @@
       <c r="V142" s="12"/>
       <c r="W142" s="12"/>
       <c r="X142" s="9"/>
-      <c r="Y142" s="37" t="s">
+      <c r="Y142" s="39" t="s">
         <v>412</v>
       </c>
       <c r="Z142" s="12"/>
@@ -14522,7 +14533,7 @@
       <c r="AG142" s="9"/>
       <c r="AH142" s="9"/>
       <c r="AI142" s="9"/>
-      <c r="AJ142" s="37"/>
+      <c r="AJ142" s="39"/>
       <c r="AK142" s="9"/>
       <c r="AL142" s="9"/>
       <c r="AM142" s="12" t="n">
@@ -14532,13 +14543,13 @@
         <v>140</v>
       </c>
       <c r="AO142" s="12"/>
-      <c r="AP142" s="33" t="s">
+      <c r="AP142" s="35" t="s">
         <v>410</v>
       </c>
       <c r="AQ142" s="12"/>
     </row>
     <row r="143" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="37" t="n">
+      <c r="A143" s="39" t="n">
         <v>142</v>
       </c>
       <c r="B143" s="12" t="s">
@@ -14588,7 +14599,7 @@
       <c r="V143" s="12"/>
       <c r="W143" s="12"/>
       <c r="X143" s="9"/>
-      <c r="Y143" s="37" t="s">
+      <c r="Y143" s="39" t="s">
         <v>412</v>
       </c>
       <c r="Z143" s="12"/>
@@ -14607,7 +14618,7 @@
       <c r="AG143" s="9"/>
       <c r="AH143" s="9"/>
       <c r="AI143" s="9"/>
-      <c r="AJ143" s="37"/>
+      <c r="AJ143" s="39"/>
       <c r="AK143" s="9"/>
       <c r="AL143" s="9"/>
       <c r="AM143" s="12" t="n">
@@ -14617,13 +14628,13 @@
         <v>141</v>
       </c>
       <c r="AO143" s="12"/>
-      <c r="AP143" s="33" t="s">
+      <c r="AP143" s="35" t="s">
         <v>410</v>
       </c>
       <c r="AQ143" s="12"/>
     </row>
     <row r="144" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="37" t="n">
+      <c r="A144" s="39" t="n">
         <v>143</v>
       </c>
       <c r="B144" s="12" t="s">
@@ -14655,7 +14666,7 @@
       <c r="L144" s="9"/>
       <c r="M144" s="9"/>
       <c r="N144" s="12"/>
-      <c r="O144" s="42"/>
+      <c r="O144" s="44"/>
       <c r="P144" s="27"/>
       <c r="Q144" s="27"/>
       <c r="R144" s="9" t="s">
@@ -14667,7 +14678,7 @@
       <c r="V144" s="12"/>
       <c r="W144" s="12"/>
       <c r="X144" s="9"/>
-      <c r="Y144" s="37" t="s">
+      <c r="Y144" s="39" t="s">
         <v>438</v>
       </c>
       <c r="Z144" s="12"/>
@@ -14680,7 +14691,7 @@
       <c r="AE144" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AF144" s="43" t="n">
+      <c r="AF144" s="45" t="n">
         <v>0.5</v>
       </c>
       <c r="AG144" s="9" t="n">
@@ -14689,10 +14700,10 @@
       <c r="AH144" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="AI144" s="37" t="s">
+      <c r="AI144" s="39" t="s">
         <v>370</v>
       </c>
-      <c r="AJ144" s="37"/>
+      <c r="AJ144" s="39"/>
       <c r="AK144" s="9"/>
       <c r="AL144" s="9"/>
       <c r="AM144" s="12" t="n">
@@ -14704,13 +14715,13 @@
       <c r="AO144" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="AP144" s="33" t="s">
+      <c r="AP144" s="35" t="s">
         <v>361</v>
       </c>
       <c r="AQ144" s="12"/>
     </row>
     <row r="145" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="37" t="n">
+      <c r="A145" s="39" t="n">
         <v>144</v>
       </c>
       <c r="B145" s="12" t="s">
@@ -14760,7 +14771,7 @@
       <c r="V145" s="12"/>
       <c r="W145" s="12"/>
       <c r="X145" s="9"/>
-      <c r="Y145" s="37" t="s">
+      <c r="Y145" s="39" t="s">
         <v>438</v>
       </c>
       <c r="Z145" s="12"/>
@@ -14779,7 +14790,7 @@
       <c r="AG145" s="9"/>
       <c r="AH145" s="9"/>
       <c r="AI145" s="9"/>
-      <c r="AJ145" s="37"/>
+      <c r="AJ145" s="39"/>
       <c r="AK145" s="9"/>
       <c r="AL145" s="9"/>
       <c r="AM145" s="12" t="n">
@@ -14789,13 +14800,13 @@
         <v>143</v>
       </c>
       <c r="AO145" s="12"/>
-      <c r="AP145" s="33" t="s">
+      <c r="AP145" s="35" t="s">
         <v>436</v>
       </c>
       <c r="AQ145" s="12"/>
     </row>
     <row r="146" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="37" t="n">
+      <c r="A146" s="39" t="n">
         <v>145</v>
       </c>
       <c r="B146" s="12" t="s">
@@ -14845,7 +14856,7 @@
       <c r="V146" s="12"/>
       <c r="W146" s="12"/>
       <c r="X146" s="9"/>
-      <c r="Y146" s="37" t="s">
+      <c r="Y146" s="39" t="s">
         <v>438</v>
       </c>
       <c r="Z146" s="12"/>
@@ -14864,7 +14875,7 @@
       <c r="AG146" s="9"/>
       <c r="AH146" s="9"/>
       <c r="AI146" s="9"/>
-      <c r="AJ146" s="37"/>
+      <c r="AJ146" s="39"/>
       <c r="AK146" s="9"/>
       <c r="AL146" s="9"/>
       <c r="AM146" s="12" t="n">
@@ -14874,13 +14885,13 @@
         <v>144</v>
       </c>
       <c r="AO146" s="12"/>
-      <c r="AP146" s="33" t="s">
+      <c r="AP146" s="35" t="s">
         <v>436</v>
       </c>
       <c r="AQ146" s="12"/>
     </row>
     <row r="147" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="37" t="n">
+      <c r="A147" s="39" t="n">
         <v>146</v>
       </c>
       <c r="B147" s="12" t="s">
@@ -14930,7 +14941,7 @@
       <c r="V147" s="12"/>
       <c r="W147" s="12"/>
       <c r="X147" s="9"/>
-      <c r="Y147" s="37" t="s">
+      <c r="Y147" s="39" t="s">
         <v>438</v>
       </c>
       <c r="Z147" s="12"/>
@@ -14949,7 +14960,7 @@
       <c r="AG147" s="9"/>
       <c r="AH147" s="9"/>
       <c r="AI147" s="9"/>
-      <c r="AJ147" s="37"/>
+      <c r="AJ147" s="39"/>
       <c r="AK147" s="9"/>
       <c r="AL147" s="9"/>
       <c r="AM147" s="12" t="n">
@@ -14959,13 +14970,13 @@
         <v>145</v>
       </c>
       <c r="AO147" s="12"/>
-      <c r="AP147" s="33" t="s">
+      <c r="AP147" s="35" t="s">
         <v>436</v>
       </c>
       <c r="AQ147" s="12"/>
     </row>
     <row r="148" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="37" t="n">
+      <c r="A148" s="39" t="n">
         <v>147</v>
       </c>
       <c r="B148" s="12" t="s">
@@ -15015,7 +15026,7 @@
       <c r="V148" s="12"/>
       <c r="W148" s="12"/>
       <c r="X148" s="9"/>
-      <c r="Y148" s="37" t="s">
+      <c r="Y148" s="39" t="s">
         <v>438</v>
       </c>
       <c r="Z148" s="12"/>
@@ -15034,7 +15045,7 @@
       <c r="AG148" s="9"/>
       <c r="AH148" s="9"/>
       <c r="AI148" s="9"/>
-      <c r="AJ148" s="37"/>
+      <c r="AJ148" s="39"/>
       <c r="AK148" s="9"/>
       <c r="AL148" s="9"/>
       <c r="AM148" s="12" t="n">
@@ -15044,13 +15055,13 @@
         <v>146</v>
       </c>
       <c r="AO148" s="12"/>
-      <c r="AP148" s="33" t="s">
+      <c r="AP148" s="35" t="s">
         <v>436</v>
       </c>
       <c r="AQ148" s="12"/>
     </row>
     <row r="149" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="37" t="n">
+      <c r="A149" s="39" t="n">
         <v>148</v>
       </c>
       <c r="B149" s="12" t="s">
@@ -15100,7 +15111,7 @@
       <c r="V149" s="12"/>
       <c r="W149" s="12"/>
       <c r="X149" s="9"/>
-      <c r="Y149" s="37" t="s">
+      <c r="Y149" s="39" t="s">
         <v>438</v>
       </c>
       <c r="Z149" s="12"/>
@@ -15119,7 +15130,7 @@
       <c r="AG149" s="9"/>
       <c r="AH149" s="9"/>
       <c r="AI149" s="9"/>
-      <c r="AJ149" s="37"/>
+      <c r="AJ149" s="39"/>
       <c r="AK149" s="9"/>
       <c r="AL149" s="9"/>
       <c r="AM149" s="12" t="n">
@@ -15129,13 +15140,13 @@
         <v>147</v>
       </c>
       <c r="AO149" s="12"/>
-      <c r="AP149" s="33" t="s">
+      <c r="AP149" s="35" t="s">
         <v>436</v>
       </c>
       <c r="AQ149" s="12"/>
     </row>
     <row r="150" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="37" t="n">
+      <c r="A150" s="39" t="n">
         <v>149</v>
       </c>
       <c r="B150" s="12" t="s">
@@ -15185,7 +15196,7 @@
       <c r="V150" s="12"/>
       <c r="W150" s="12"/>
       <c r="X150" s="9"/>
-      <c r="Y150" s="37" t="s">
+      <c r="Y150" s="39" t="s">
         <v>438</v>
       </c>
       <c r="Z150" s="12"/>
@@ -15204,7 +15215,7 @@
       <c r="AG150" s="9"/>
       <c r="AH150" s="9"/>
       <c r="AI150" s="9"/>
-      <c r="AJ150" s="37"/>
+      <c r="AJ150" s="39"/>
       <c r="AK150" s="9"/>
       <c r="AL150" s="9"/>
       <c r="AM150" s="12" t="n">
@@ -15214,13 +15225,13 @@
         <v>148</v>
       </c>
       <c r="AO150" s="12"/>
-      <c r="AP150" s="33" t="s">
+      <c r="AP150" s="35" t="s">
         <v>436</v>
       </c>
       <c r="AQ150" s="12"/>
     </row>
     <row r="151" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="37" t="n">
+      <c r="A151" s="39" t="n">
         <v>150</v>
       </c>
       <c r="B151" s="12" t="s">
@@ -15270,7 +15281,7 @@
       <c r="V151" s="12"/>
       <c r="W151" s="12"/>
       <c r="X151" s="9"/>
-      <c r="Y151" s="37" t="s">
+      <c r="Y151" s="39" t="s">
         <v>438</v>
       </c>
       <c r="Z151" s="12"/>
@@ -15289,7 +15300,7 @@
       <c r="AG151" s="9"/>
       <c r="AH151" s="9"/>
       <c r="AI151" s="9"/>
-      <c r="AJ151" s="37"/>
+      <c r="AJ151" s="39"/>
       <c r="AK151" s="9"/>
       <c r="AL151" s="9"/>
       <c r="AM151" s="12" t="n">
@@ -15299,13 +15310,13 @@
         <v>149</v>
       </c>
       <c r="AO151" s="12"/>
-      <c r="AP151" s="33" t="s">
+      <c r="AP151" s="35" t="s">
         <v>436</v>
       </c>
       <c r="AQ151" s="12"/>
     </row>
     <row r="152" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="37" t="n">
+      <c r="A152" s="39" t="n">
         <v>151</v>
       </c>
       <c r="B152" s="12" t="s">
@@ -15355,7 +15366,7 @@
       <c r="V152" s="12"/>
       <c r="W152" s="12"/>
       <c r="X152" s="9"/>
-      <c r="Y152" s="37" t="s">
+      <c r="Y152" s="39" t="s">
         <v>438</v>
       </c>
       <c r="Z152" s="12"/>
@@ -15374,7 +15385,7 @@
       <c r="AG152" s="9"/>
       <c r="AH152" s="9"/>
       <c r="AI152" s="9"/>
-      <c r="AJ152" s="37"/>
+      <c r="AJ152" s="39"/>
       <c r="AK152" s="9"/>
       <c r="AL152" s="9"/>
       <c r="AM152" s="12" t="n">
@@ -15384,13 +15395,13 @@
         <v>150</v>
       </c>
       <c r="AO152" s="12"/>
-      <c r="AP152" s="33" t="s">
+      <c r="AP152" s="35" t="s">
         <v>436</v>
       </c>
       <c r="AQ152" s="12"/>
     </row>
     <row r="153" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="37" t="n">
+      <c r="A153" s="39" t="n">
         <v>152</v>
       </c>
       <c r="B153" s="12" t="s">
@@ -15440,7 +15451,7 @@
       <c r="V153" s="12"/>
       <c r="W153" s="12"/>
       <c r="X153" s="9"/>
-      <c r="Y153" s="37" t="s">
+      <c r="Y153" s="39" t="s">
         <v>438</v>
       </c>
       <c r="Z153" s="12"/>
@@ -15459,7 +15470,7 @@
       <c r="AG153" s="9"/>
       <c r="AH153" s="9"/>
       <c r="AI153" s="9"/>
-      <c r="AJ153" s="37"/>
+      <c r="AJ153" s="39"/>
       <c r="AK153" s="9"/>
       <c r="AL153" s="9"/>
       <c r="AM153" s="12" t="n">
@@ -15469,13 +15480,13 @@
         <v>151</v>
       </c>
       <c r="AO153" s="12"/>
-      <c r="AP153" s="33" t="s">
+      <c r="AP153" s="35" t="s">
         <v>436</v>
       </c>
       <c r="AQ153" s="12"/>
     </row>
     <row r="154" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="37" t="n">
+      <c r="A154" s="39" t="n">
         <v>153</v>
       </c>
       <c r="B154" s="12" t="s">
@@ -15525,7 +15536,7 @@
       <c r="V154" s="12"/>
       <c r="W154" s="12"/>
       <c r="X154" s="9"/>
-      <c r="Y154" s="37" t="s">
+      <c r="Y154" s="39" t="s">
         <v>438</v>
       </c>
       <c r="Z154" s="12"/>
@@ -15544,7 +15555,7 @@
       <c r="AG154" s="9"/>
       <c r="AH154" s="9"/>
       <c r="AI154" s="9"/>
-      <c r="AJ154" s="37"/>
+      <c r="AJ154" s="39"/>
       <c r="AK154" s="9"/>
       <c r="AL154" s="9"/>
       <c r="AM154" s="12" t="n">
@@ -15554,13 +15565,13 @@
         <v>152</v>
       </c>
       <c r="AO154" s="12"/>
-      <c r="AP154" s="33" t="s">
+      <c r="AP154" s="35" t="s">
         <v>436</v>
       </c>
       <c r="AQ154" s="12"/>
     </row>
     <row r="155" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="37" t="n">
+      <c r="A155" s="39" t="n">
         <v>154</v>
       </c>
       <c r="B155" s="12" t="s">
@@ -15637,13 +15648,13 @@
         <v>153</v>
       </c>
       <c r="AO155" s="12"/>
-      <c r="AP155" s="33" t="s">
+      <c r="AP155" s="35" t="s">
         <v>356</v>
       </c>
       <c r="AQ155" s="12"/>
     </row>
     <row r="156" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="37" t="n">
+      <c r="A156" s="39" t="n">
         <v>155</v>
       </c>
       <c r="B156" s="12" t="s">
@@ -15655,68 +15666,68 @@
       <c r="D156" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="E156" s="49" t="s">
+      <c r="E156" s="50" t="s">
         <v>469</v>
       </c>
-      <c r="F156" s="49" t="s">
+      <c r="F156" s="50" t="s">
         <v>470</v>
       </c>
-      <c r="G156" s="33" t="s">
+      <c r="G156" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="H156" s="50" t="s">
+      <c r="H156" s="51" t="s">
         <v>471</v>
       </c>
-      <c r="I156" s="51" t="s">
+      <c r="I156" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="J156" s="51" t="s">
+      <c r="J156" s="52" t="s">
         <v>473</v>
       </c>
-      <c r="K156" s="51"/>
-      <c r="L156" s="51"/>
+      <c r="K156" s="52"/>
+      <c r="L156" s="52"/>
       <c r="M156" s="21"/>
       <c r="N156" s="21"/>
-      <c r="O156" s="51"/>
-      <c r="P156" s="51"/>
-      <c r="Q156" s="51"/>
-      <c r="R156" s="51"/>
-      <c r="S156" s="51" t="s">
+      <c r="O156" s="52"/>
+      <c r="P156" s="52"/>
+      <c r="Q156" s="52"/>
+      <c r="R156" s="52"/>
+      <c r="S156" s="52" t="s">
         <v>474</v>
       </c>
-      <c r="T156" s="51"/>
-      <c r="U156" s="51"/>
-      <c r="V156" s="51"/>
-      <c r="W156" s="51"/>
-      <c r="X156" s="51"/>
-      <c r="Y156" s="51"/>
-      <c r="Z156" s="51"/>
-      <c r="AA156" s="51"/>
-      <c r="AB156" s="51"/>
-      <c r="AC156" s="51"/>
-      <c r="AD156" s="51"/>
-      <c r="AE156" s="51"/>
-      <c r="AF156" s="52" t="n">
+      <c r="T156" s="52"/>
+      <c r="U156" s="52"/>
+      <c r="V156" s="52"/>
+      <c r="W156" s="52"/>
+      <c r="X156" s="52"/>
+      <c r="Y156" s="52"/>
+      <c r="Z156" s="52"/>
+      <c r="AA156" s="52"/>
+      <c r="AB156" s="52"/>
+      <c r="AC156" s="52"/>
+      <c r="AD156" s="52"/>
+      <c r="AE156" s="52"/>
+      <c r="AF156" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="AG156" s="51"/>
-      <c r="AH156" s="51"/>
-      <c r="AI156" s="51"/>
-      <c r="AJ156" s="51"/>
-      <c r="AK156" s="51"/>
-      <c r="AL156" s="51"/>
-      <c r="AM156" s="51"/>
+      <c r="AG156" s="52"/>
+      <c r="AH156" s="52"/>
+      <c r="AI156" s="52"/>
+      <c r="AJ156" s="52"/>
+      <c r="AK156" s="52"/>
+      <c r="AL156" s="52"/>
+      <c r="AM156" s="52"/>
       <c r="AN156" s="12" t="n">
         <v>154</v>
       </c>
-      <c r="AO156" s="51" t="n">
+      <c r="AO156" s="52" t="n">
         <v>101</v>
       </c>
-      <c r="AP156" s="51"/>
-      <c r="AQ156" s="51"/>
+      <c r="AP156" s="52"/>
+      <c r="AQ156" s="52"/>
     </row>
     <row r="157" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="37" t="n">
+      <c r="A157" s="39" t="n">
         <v>156</v>
       </c>
       <c r="B157" s="12" t="s">
@@ -15728,66 +15739,66 @@
       <c r="D157" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="E157" s="49" t="s">
+      <c r="E157" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="F157" s="49" t="s">
+      <c r="F157" s="50" t="s">
         <v>476</v>
       </c>
-      <c r="G157" s="49" t="s">
+      <c r="G157" s="50" t="s">
         <v>356</v>
       </c>
-      <c r="H157" s="50"/>
-      <c r="I157" s="51" t="s">
+      <c r="H157" s="51"/>
+      <c r="I157" s="52" t="s">
         <v>477</v>
       </c>
-      <c r="J157" s="51" t="s">
+      <c r="J157" s="52" t="s">
         <v>478</v>
       </c>
-      <c r="K157" s="51"/>
-      <c r="L157" s="51"/>
+      <c r="K157" s="52"/>
+      <c r="L157" s="52"/>
       <c r="M157" s="21"/>
       <c r="N157" s="21"/>
-      <c r="O157" s="51"/>
-      <c r="P157" s="51"/>
-      <c r="Q157" s="51"/>
-      <c r="R157" s="51"/>
-      <c r="S157" s="51" t="s">
+      <c r="O157" s="52"/>
+      <c r="P157" s="52"/>
+      <c r="Q157" s="52"/>
+      <c r="R157" s="52"/>
+      <c r="S157" s="52" t="s">
         <v>474</v>
       </c>
-      <c r="T157" s="51"/>
-      <c r="U157" s="51"/>
-      <c r="V157" s="51"/>
-      <c r="W157" s="51"/>
-      <c r="X157" s="51"/>
-      <c r="Y157" s="51"/>
-      <c r="Z157" s="51"/>
-      <c r="AA157" s="51"/>
-      <c r="AB157" s="51"/>
-      <c r="AC157" s="51"/>
-      <c r="AD157" s="51"/>
-      <c r="AE157" s="51"/>
-      <c r="AF157" s="52" t="n">
+      <c r="T157" s="52"/>
+      <c r="U157" s="52"/>
+      <c r="V157" s="52"/>
+      <c r="W157" s="52"/>
+      <c r="X157" s="52"/>
+      <c r="Y157" s="52"/>
+      <c r="Z157" s="52"/>
+      <c r="AA157" s="52"/>
+      <c r="AB157" s="52"/>
+      <c r="AC157" s="52"/>
+      <c r="AD157" s="52"/>
+      <c r="AE157" s="52"/>
+      <c r="AF157" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="AG157" s="51"/>
-      <c r="AH157" s="51"/>
-      <c r="AI157" s="51"/>
-      <c r="AJ157" s="51"/>
-      <c r="AK157" s="51"/>
-      <c r="AL157" s="51"/>
-      <c r="AM157" s="51"/>
+      <c r="AG157" s="52"/>
+      <c r="AH157" s="52"/>
+      <c r="AI157" s="52"/>
+      <c r="AJ157" s="52"/>
+      <c r="AK157" s="52"/>
+      <c r="AL157" s="52"/>
+      <c r="AM157" s="52"/>
       <c r="AN157" s="12" t="n">
         <v>155</v>
       </c>
       <c r="AO157" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="AP157" s="51"/>
-      <c r="AQ157" s="51"/>
+      <c r="AP157" s="52"/>
+      <c r="AQ157" s="52"/>
     </row>
     <row r="158" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="37" t="n">
+      <c r="A158" s="39" t="n">
         <v>157</v>
       </c>
       <c r="B158" s="12" t="s">
@@ -15799,68 +15810,68 @@
       <c r="D158" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="E158" s="49" t="s">
+      <c r="E158" s="50" t="s">
         <v>480</v>
       </c>
-      <c r="F158" s="49" t="s">
+      <c r="F158" s="50" t="s">
         <v>481</v>
       </c>
-      <c r="G158" s="49" t="s">
+      <c r="G158" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="H158" s="50" t="s">
+      <c r="H158" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="I158" s="51" t="s">
+      <c r="I158" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="J158" s="51" t="s">
+      <c r="J158" s="52" t="s">
         <v>478</v>
       </c>
-      <c r="K158" s="51"/>
-      <c r="L158" s="51"/>
+      <c r="K158" s="52"/>
+      <c r="L158" s="52"/>
       <c r="M158" s="21"/>
       <c r="N158" s="21"/>
-      <c r="O158" s="51"/>
-      <c r="P158" s="51"/>
-      <c r="Q158" s="51"/>
-      <c r="R158" s="51"/>
-      <c r="S158" s="51" t="s">
+      <c r="O158" s="52"/>
+      <c r="P158" s="52"/>
+      <c r="Q158" s="52"/>
+      <c r="R158" s="52"/>
+      <c r="S158" s="52" t="s">
         <v>474</v>
       </c>
-      <c r="T158" s="51"/>
-      <c r="U158" s="51"/>
-      <c r="V158" s="51"/>
-      <c r="W158" s="51"/>
-      <c r="X158" s="51"/>
-      <c r="Y158" s="51"/>
-      <c r="Z158" s="51"/>
-      <c r="AA158" s="51"/>
-      <c r="AB158" s="51"/>
-      <c r="AC158" s="51"/>
-      <c r="AD158" s="51"/>
-      <c r="AE158" s="51"/>
-      <c r="AF158" s="52" t="n">
+      <c r="T158" s="52"/>
+      <c r="U158" s="52"/>
+      <c r="V158" s="52"/>
+      <c r="W158" s="52"/>
+      <c r="X158" s="52"/>
+      <c r="Y158" s="52"/>
+      <c r="Z158" s="52"/>
+      <c r="AA158" s="52"/>
+      <c r="AB158" s="52"/>
+      <c r="AC158" s="52"/>
+      <c r="AD158" s="52"/>
+      <c r="AE158" s="52"/>
+      <c r="AF158" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="AG158" s="51"/>
-      <c r="AH158" s="51"/>
-      <c r="AI158" s="51"/>
-      <c r="AJ158" s="51"/>
-      <c r="AK158" s="51"/>
-      <c r="AL158" s="51"/>
-      <c r="AM158" s="51"/>
+      <c r="AG158" s="52"/>
+      <c r="AH158" s="52"/>
+      <c r="AI158" s="52"/>
+      <c r="AJ158" s="52"/>
+      <c r="AK158" s="52"/>
+      <c r="AL158" s="52"/>
+      <c r="AM158" s="52"/>
       <c r="AN158" s="12" t="n">
         <v>156</v>
       </c>
-      <c r="AO158" s="51" t="n">
+      <c r="AO158" s="52" t="n">
         <v>105</v>
       </c>
-      <c r="AP158" s="51"/>
-      <c r="AQ158" s="51"/>
+      <c r="AP158" s="52"/>
+      <c r="AQ158" s="52"/>
     </row>
     <row r="159" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="37" t="n">
+      <c r="A159" s="39" t="n">
         <v>158</v>
       </c>
       <c r="B159" s="12" t="s">
@@ -15872,70 +15883,70 @@
       <c r="D159" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="E159" s="49" t="s">
+      <c r="E159" s="50" t="s">
         <v>483</v>
       </c>
-      <c r="F159" s="49" t="s">
+      <c r="F159" s="50" t="s">
         <v>484</v>
       </c>
-      <c r="G159" s="49" t="s">
+      <c r="G159" s="50" t="s">
         <v>485</v>
       </c>
-      <c r="H159" s="51"/>
+      <c r="H159" s="52"/>
       <c r="I159" s="21" t="s">
         <v>486</v>
       </c>
       <c r="J159" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="K159" s="51"/>
-      <c r="L159" s="51"/>
+      <c r="K159" s="52"/>
+      <c r="L159" s="52"/>
       <c r="M159" s="21"/>
       <c r="N159" s="21"/>
-      <c r="O159" s="51" t="s">
+      <c r="O159" s="52" t="s">
         <v>487</v>
       </c>
-      <c r="P159" s="51"/>
-      <c r="Q159" s="51"/>
-      <c r="R159" s="51"/>
-      <c r="S159" s="51" t="s">
+      <c r="P159" s="52"/>
+      <c r="Q159" s="52"/>
+      <c r="R159" s="52"/>
+      <c r="S159" s="52" t="s">
         <v>488</v>
       </c>
-      <c r="T159" s="51"/>
-      <c r="U159" s="51"/>
-      <c r="V159" s="51"/>
-      <c r="W159" s="51"/>
-      <c r="X159" s="53" t="s">
+      <c r="T159" s="52"/>
+      <c r="U159" s="52"/>
+      <c r="V159" s="52"/>
+      <c r="W159" s="52"/>
+      <c r="X159" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="Y159" s="54" t="s">
+      <c r="Y159" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="Z159" s="51"/>
-      <c r="AA159" s="51"/>
-      <c r="AB159" s="51"/>
-      <c r="AC159" s="51"/>
-      <c r="AD159" s="51"/>
-      <c r="AE159" s="51"/>
-      <c r="AF159" s="55" t="n">
+      <c r="Z159" s="52"/>
+      <c r="AA159" s="52"/>
+      <c r="AB159" s="52"/>
+      <c r="AC159" s="52"/>
+      <c r="AD159" s="52"/>
+      <c r="AE159" s="52"/>
+      <c r="AF159" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="AG159" s="51"/>
-      <c r="AH159" s="51"/>
-      <c r="AI159" s="51"/>
-      <c r="AJ159" s="51"/>
-      <c r="AK159" s="51"/>
-      <c r="AL159" s="51"/>
-      <c r="AM159" s="51"/>
+      <c r="AG159" s="52"/>
+      <c r="AH159" s="52"/>
+      <c r="AI159" s="52"/>
+      <c r="AJ159" s="52"/>
+      <c r="AK159" s="52"/>
+      <c r="AL159" s="52"/>
+      <c r="AM159" s="52"/>
       <c r="AN159" s="12" t="n">
         <v>157</v>
       </c>
-      <c r="AO159" s="51"/>
-      <c r="AP159" s="51"/>
-      <c r="AQ159" s="51"/>
+      <c r="AO159" s="52"/>
+      <c r="AP159" s="52"/>
+      <c r="AQ159" s="52"/>
     </row>
     <row r="160" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="37" t="n">
+      <c r="A160" s="39" t="n">
         <v>159</v>
       </c>
       <c r="B160" s="12" t="s">
@@ -15947,68 +15958,68 @@
       <c r="D160" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="E160" s="49" t="s">
+      <c r="E160" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="F160" s="49" t="s">
+      <c r="F160" s="50" t="s">
         <v>491</v>
       </c>
-      <c r="G160" s="49" t="s">
+      <c r="G160" s="50" t="s">
         <v>492</v>
       </c>
-      <c r="H160" s="51"/>
+      <c r="H160" s="52"/>
       <c r="I160" s="21" t="s">
         <v>493</v>
       </c>
       <c r="J160" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="K160" s="51"/>
-      <c r="L160" s="51"/>
+      <c r="K160" s="52"/>
+      <c r="L160" s="52"/>
       <c r="M160" s="21"/>
       <c r="N160" s="21"/>
-      <c r="O160" s="51" t="s">
+      <c r="O160" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="P160" s="51"/>
-      <c r="Q160" s="51"/>
-      <c r="R160" s="51"/>
-      <c r="S160" s="51" t="s">
+      <c r="P160" s="52"/>
+      <c r="Q160" s="52"/>
+      <c r="R160" s="52"/>
+      <c r="S160" s="52" t="s">
         <v>488</v>
       </c>
-      <c r="T160" s="51"/>
-      <c r="U160" s="51"/>
-      <c r="V160" s="51"/>
-      <c r="W160" s="51"/>
-      <c r="X160" s="51"/>
+      <c r="T160" s="52"/>
+      <c r="U160" s="52"/>
+      <c r="V160" s="52"/>
+      <c r="W160" s="52"/>
+      <c r="X160" s="52"/>
       <c r="Y160" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="Z160" s="51"/>
-      <c r="AA160" s="51"/>
-      <c r="AB160" s="51"/>
-      <c r="AC160" s="51"/>
-      <c r="AD160" s="51"/>
-      <c r="AE160" s="51"/>
-      <c r="AF160" s="55" t="n">
+      <c r="Z160" s="52"/>
+      <c r="AA160" s="52"/>
+      <c r="AB160" s="52"/>
+      <c r="AC160" s="52"/>
+      <c r="AD160" s="52"/>
+      <c r="AE160" s="52"/>
+      <c r="AF160" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="AG160" s="51"/>
-      <c r="AH160" s="51"/>
-      <c r="AI160" s="51"/>
-      <c r="AJ160" s="51"/>
-      <c r="AK160" s="51"/>
-      <c r="AL160" s="51"/>
-      <c r="AM160" s="51"/>
+      <c r="AG160" s="52"/>
+      <c r="AH160" s="52"/>
+      <c r="AI160" s="52"/>
+      <c r="AJ160" s="52"/>
+      <c r="AK160" s="52"/>
+      <c r="AL160" s="52"/>
+      <c r="AM160" s="52"/>
       <c r="AN160" s="12" t="n">
         <v>158</v>
       </c>
-      <c r="AO160" s="51"/>
-      <c r="AP160" s="51"/>
-      <c r="AQ160" s="51"/>
+      <c r="AO160" s="52"/>
+      <c r="AP160" s="52"/>
+      <c r="AQ160" s="52"/>
     </row>
     <row r="161" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="37" t="n">
+      <c r="A161" s="39" t="n">
         <v>160</v>
       </c>
       <c r="B161" s="12" t="s">
@@ -16020,68 +16031,68 @@
       <c r="D161" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="E161" s="49" t="s">
+      <c r="E161" s="50" t="s">
         <v>496</v>
       </c>
-      <c r="F161" s="49" t="s">
+      <c r="F161" s="50" t="s">
         <v>497</v>
       </c>
-      <c r="G161" s="49" t="s">
+      <c r="G161" s="50" t="s">
         <v>498</v>
       </c>
-      <c r="H161" s="51"/>
+      <c r="H161" s="52"/>
       <c r="I161" s="21" t="s">
         <v>493</v>
       </c>
       <c r="J161" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="K161" s="51"/>
-      <c r="L161" s="51"/>
+      <c r="K161" s="52"/>
+      <c r="L161" s="52"/>
       <c r="M161" s="21"/>
       <c r="N161" s="21"/>
-      <c r="O161" s="51" t="s">
+      <c r="O161" s="52" t="s">
         <v>499</v>
       </c>
-      <c r="P161" s="51"/>
-      <c r="Q161" s="51"/>
-      <c r="R161" s="51"/>
-      <c r="S161" s="51" t="s">
+      <c r="P161" s="52"/>
+      <c r="Q161" s="52"/>
+      <c r="R161" s="52"/>
+      <c r="S161" s="52" t="s">
         <v>488</v>
       </c>
-      <c r="T161" s="51"/>
-      <c r="U161" s="51"/>
-      <c r="V161" s="51"/>
-      <c r="W161" s="51"/>
-      <c r="X161" s="51"/>
+      <c r="T161" s="52"/>
+      <c r="U161" s="52"/>
+      <c r="V161" s="52"/>
+      <c r="W161" s="52"/>
+      <c r="X161" s="52"/>
       <c r="Y161" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="Z161" s="51"/>
-      <c r="AA161" s="51"/>
-      <c r="AB161" s="51"/>
-      <c r="AC161" s="51"/>
-      <c r="AD161" s="51"/>
-      <c r="AE161" s="51"/>
-      <c r="AF161" s="55" t="n">
+      <c r="Z161" s="52"/>
+      <c r="AA161" s="52"/>
+      <c r="AB161" s="52"/>
+      <c r="AC161" s="52"/>
+      <c r="AD161" s="52"/>
+      <c r="AE161" s="52"/>
+      <c r="AF161" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="AG161" s="51"/>
-      <c r="AH161" s="51"/>
-      <c r="AI161" s="51"/>
-      <c r="AJ161" s="51"/>
-      <c r="AK161" s="51"/>
-      <c r="AL161" s="51"/>
-      <c r="AM161" s="51"/>
+      <c r="AG161" s="52"/>
+      <c r="AH161" s="52"/>
+      <c r="AI161" s="52"/>
+      <c r="AJ161" s="52"/>
+      <c r="AK161" s="52"/>
+      <c r="AL161" s="52"/>
+      <c r="AM161" s="52"/>
       <c r="AN161" s="12" t="n">
         <v>159</v>
       </c>
-      <c r="AO161" s="51"/>
-      <c r="AP161" s="51"/>
-      <c r="AQ161" s="51"/>
+      <c r="AO161" s="52"/>
+      <c r="AP161" s="52"/>
+      <c r="AQ161" s="52"/>
     </row>
     <row r="162" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="37" t="n">
+      <c r="A162" s="39" t="n">
         <v>161</v>
       </c>
       <c r="B162" s="12" t="s">
@@ -16093,68 +16104,68 @@
       <c r="D162" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="E162" s="49" t="s">
+      <c r="E162" s="50" t="s">
         <v>500</v>
       </c>
-      <c r="F162" s="49" t="s">
+      <c r="F162" s="50" t="s">
         <v>501</v>
       </c>
-      <c r="G162" s="49" t="s">
+      <c r="G162" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="H162" s="51"/>
+      <c r="H162" s="52"/>
       <c r="I162" s="21" t="s">
         <v>493</v>
       </c>
       <c r="J162" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="K162" s="51"/>
-      <c r="L162" s="51"/>
+      <c r="K162" s="52"/>
+      <c r="L162" s="52"/>
       <c r="M162" s="21"/>
       <c r="N162" s="21"/>
-      <c r="O162" s="51" t="s">
+      <c r="O162" s="52" t="s">
         <v>503</v>
       </c>
-      <c r="P162" s="51"/>
-      <c r="Q162" s="51"/>
-      <c r="R162" s="51"/>
-      <c r="S162" s="51" t="s">
+      <c r="P162" s="52"/>
+      <c r="Q162" s="52"/>
+      <c r="R162" s="52"/>
+      <c r="S162" s="52" t="s">
         <v>488</v>
       </c>
-      <c r="T162" s="51"/>
-      <c r="U162" s="51"/>
-      <c r="V162" s="51"/>
-      <c r="W162" s="51"/>
-      <c r="X162" s="51"/>
+      <c r="T162" s="52"/>
+      <c r="U162" s="52"/>
+      <c r="V162" s="52"/>
+      <c r="W162" s="52"/>
+      <c r="X162" s="52"/>
       <c r="Y162" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="Z162" s="51"/>
-      <c r="AA162" s="51"/>
-      <c r="AB162" s="51"/>
-      <c r="AC162" s="51"/>
-      <c r="AD162" s="51"/>
-      <c r="AE162" s="51"/>
-      <c r="AF162" s="55" t="n">
+      <c r="Z162" s="52"/>
+      <c r="AA162" s="52"/>
+      <c r="AB162" s="52"/>
+      <c r="AC162" s="52"/>
+      <c r="AD162" s="52"/>
+      <c r="AE162" s="52"/>
+      <c r="AF162" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="AG162" s="51"/>
-      <c r="AH162" s="51"/>
-      <c r="AI162" s="51"/>
-      <c r="AJ162" s="51"/>
-      <c r="AK162" s="51"/>
+      <c r="AG162" s="52"/>
+      <c r="AH162" s="52"/>
+      <c r="AI162" s="52"/>
+      <c r="AJ162" s="52"/>
+      <c r="AK162" s="52"/>
       <c r="AL162" s="12"/>
-      <c r="AM162" s="51"/>
+      <c r="AM162" s="52"/>
       <c r="AN162" s="12" t="n">
         <v>160</v>
       </c>
-      <c r="AO162" s="51"/>
-      <c r="AP162" s="51"/>
-      <c r="AQ162" s="51"/>
+      <c r="AO162" s="52"/>
+      <c r="AP162" s="52"/>
+      <c r="AQ162" s="52"/>
     </row>
     <row r="163" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="37" t="n">
+      <c r="A163" s="39" t="n">
         <v>162</v>
       </c>
       <c r="B163" s="12" t="s">
@@ -16166,16 +16177,16 @@
       <c r="D163" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="E163" s="49" t="s">
+      <c r="E163" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="F163" s="49" t="s">
+      <c r="F163" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="G163" s="49" t="s">
+      <c r="G163" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="H163" s="51" t="s">
+      <c r="H163" s="52" t="s">
         <v>246</v>
       </c>
       <c r="I163" s="21" t="s">
@@ -16184,54 +16195,54 @@
       <c r="J163" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="K163" s="51"/>
-      <c r="L163" s="51"/>
+      <c r="K163" s="52"/>
+      <c r="L163" s="52"/>
       <c r="M163" s="21"/>
       <c r="N163" s="21"/>
       <c r="O163" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="P163" s="51"/>
-      <c r="Q163" s="51"/>
-      <c r="R163" s="51"/>
-      <c r="S163" s="51" t="s">
+      <c r="P163" s="52"/>
+      <c r="Q163" s="52"/>
+      <c r="R163" s="52"/>
+      <c r="S163" s="52" t="s">
         <v>488</v>
       </c>
-      <c r="T163" s="51"/>
-      <c r="U163" s="51"/>
-      <c r="V163" s="51"/>
-      <c r="W163" s="51"/>
-      <c r="X163" s="51"/>
+      <c r="T163" s="52"/>
+      <c r="U163" s="52"/>
+      <c r="V163" s="52"/>
+      <c r="W163" s="52"/>
+      <c r="X163" s="52"/>
       <c r="Y163" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="Z163" s="51"/>
-      <c r="AA163" s="51"/>
-      <c r="AB163" s="51"/>
-      <c r="AC163" s="51"/>
-      <c r="AD163" s="51"/>
-      <c r="AE163" s="51"/>
-      <c r="AF163" s="55" t="n">
+      <c r="Z163" s="52"/>
+      <c r="AA163" s="52"/>
+      <c r="AB163" s="52"/>
+      <c r="AC163" s="52"/>
+      <c r="AD163" s="52"/>
+      <c r="AE163" s="52"/>
+      <c r="AF163" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="AG163" s="51"/>
-      <c r="AH163" s="51"/>
-      <c r="AI163" s="51"/>
-      <c r="AJ163" s="51"/>
-      <c r="AK163" s="51"/>
-      <c r="AL163" s="51"/>
-      <c r="AM163" s="51"/>
+      <c r="AG163" s="52"/>
+      <c r="AH163" s="52"/>
+      <c r="AI163" s="52"/>
+      <c r="AJ163" s="52"/>
+      <c r="AK163" s="52"/>
+      <c r="AL163" s="52"/>
+      <c r="AM163" s="52"/>
       <c r="AN163" s="12" t="n">
         <v>161</v>
       </c>
-      <c r="AO163" s="51" t="n">
+      <c r="AO163" s="52" t="n">
         <v>83</v>
       </c>
-      <c r="AP163" s="51"/>
-      <c r="AQ163" s="51"/>
+      <c r="AP163" s="52"/>
+      <c r="AQ163" s="52"/>
     </row>
     <row r="164" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="37" t="n">
+      <c r="A164" s="39" t="n">
         <v>163</v>
       </c>
       <c r="B164" s="12" t="s">
@@ -16243,16 +16254,16 @@
       <c r="D164" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="E164" s="49" t="s">
+      <c r="E164" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="F164" s="49" t="s">
+      <c r="F164" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="G164" s="49" t="s">
+      <c r="G164" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="H164" s="51" t="s">
+      <c r="H164" s="52" t="s">
         <v>274</v>
       </c>
       <c r="I164" s="21" t="s">
@@ -16261,54 +16272,54 @@
       <c r="J164" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="K164" s="51"/>
-      <c r="L164" s="51"/>
+      <c r="K164" s="52"/>
+      <c r="L164" s="52"/>
       <c r="M164" s="21"/>
       <c r="N164" s="21"/>
       <c r="O164" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="P164" s="51"/>
-      <c r="Q164" s="51"/>
-      <c r="R164" s="51"/>
-      <c r="S164" s="51" t="s">
+      <c r="P164" s="52"/>
+      <c r="Q164" s="52"/>
+      <c r="R164" s="52"/>
+      <c r="S164" s="52" t="s">
         <v>488</v>
       </c>
-      <c r="T164" s="51"/>
-      <c r="U164" s="51"/>
-      <c r="V164" s="51"/>
-      <c r="W164" s="51"/>
-      <c r="X164" s="51"/>
+      <c r="T164" s="52"/>
+      <c r="U164" s="52"/>
+      <c r="V164" s="52"/>
+      <c r="W164" s="52"/>
+      <c r="X164" s="52"/>
       <c r="Y164" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="Z164" s="51"/>
-      <c r="AA164" s="51"/>
-      <c r="AB164" s="51"/>
-      <c r="AC164" s="51"/>
-      <c r="AD164" s="51"/>
-      <c r="AE164" s="51"/>
-      <c r="AF164" s="55" t="n">
+      <c r="Z164" s="52"/>
+      <c r="AA164" s="52"/>
+      <c r="AB164" s="52"/>
+      <c r="AC164" s="52"/>
+      <c r="AD164" s="52"/>
+      <c r="AE164" s="52"/>
+      <c r="AF164" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="AG164" s="51"/>
-      <c r="AH164" s="51"/>
-      <c r="AI164" s="51"/>
-      <c r="AJ164" s="51"/>
-      <c r="AK164" s="51"/>
-      <c r="AL164" s="51"/>
-      <c r="AM164" s="51"/>
+      <c r="AG164" s="52"/>
+      <c r="AH164" s="52"/>
+      <c r="AI164" s="52"/>
+      <c r="AJ164" s="52"/>
+      <c r="AK164" s="52"/>
+      <c r="AL164" s="52"/>
+      <c r="AM164" s="52"/>
       <c r="AN164" s="12" t="n">
         <v>162</v>
       </c>
-      <c r="AO164" s="51" t="n">
+      <c r="AO164" s="52" t="n">
         <v>91</v>
       </c>
-      <c r="AP164" s="51"/>
-      <c r="AQ164" s="51"/>
+      <c r="AP164" s="52"/>
+      <c r="AQ164" s="52"/>
     </row>
     <row r="165" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="37" t="n">
+      <c r="A165" s="39" t="n">
         <v>164</v>
       </c>
       <c r="B165" s="12" t="s">
@@ -16320,16 +16331,16 @@
       <c r="D165" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="E165" s="49" t="s">
+      <c r="E165" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="F165" s="49" t="s">
+      <c r="F165" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="G165" s="49" t="s">
+      <c r="G165" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="H165" s="51" t="s">
+      <c r="H165" s="52" t="s">
         <v>265</v>
       </c>
       <c r="I165" s="21" t="s">
@@ -16338,54 +16349,54 @@
       <c r="J165" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="K165" s="51"/>
-      <c r="L165" s="51"/>
+      <c r="K165" s="52"/>
+      <c r="L165" s="52"/>
       <c r="M165" s="21"/>
       <c r="N165" s="21"/>
       <c r="O165" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="P165" s="51"/>
-      <c r="Q165" s="51"/>
-      <c r="R165" s="51"/>
-      <c r="S165" s="51" t="s">
+      <c r="P165" s="52"/>
+      <c r="Q165" s="52"/>
+      <c r="R165" s="52"/>
+      <c r="S165" s="52" t="s">
         <v>488</v>
       </c>
-      <c r="T165" s="51"/>
-      <c r="U165" s="51"/>
-      <c r="V165" s="51"/>
-      <c r="W165" s="51"/>
-      <c r="X165" s="51"/>
+      <c r="T165" s="52"/>
+      <c r="U165" s="52"/>
+      <c r="V165" s="52"/>
+      <c r="W165" s="52"/>
+      <c r="X165" s="52"/>
       <c r="Y165" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="Z165" s="51"/>
-      <c r="AA165" s="51"/>
-      <c r="AB165" s="51"/>
-      <c r="AC165" s="51"/>
-      <c r="AD165" s="51"/>
-      <c r="AE165" s="51"/>
-      <c r="AF165" s="55" t="n">
+      <c r="Z165" s="52"/>
+      <c r="AA165" s="52"/>
+      <c r="AB165" s="52"/>
+      <c r="AC165" s="52"/>
+      <c r="AD165" s="52"/>
+      <c r="AE165" s="52"/>
+      <c r="AF165" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="AG165" s="51"/>
-      <c r="AH165" s="51"/>
-      <c r="AI165" s="51"/>
-      <c r="AJ165" s="51"/>
-      <c r="AK165" s="51"/>
-      <c r="AL165" s="51"/>
-      <c r="AM165" s="51"/>
+      <c r="AG165" s="52"/>
+      <c r="AH165" s="52"/>
+      <c r="AI165" s="52"/>
+      <c r="AJ165" s="52"/>
+      <c r="AK165" s="52"/>
+      <c r="AL165" s="52"/>
+      <c r="AM165" s="52"/>
       <c r="AN165" s="12" t="n">
         <v>163</v>
       </c>
-      <c r="AO165" s="51" t="n">
+      <c r="AO165" s="52" t="n">
         <v>88</v>
       </c>
-      <c r="AP165" s="51"/>
-      <c r="AQ165" s="51"/>
+      <c r="AP165" s="52"/>
+      <c r="AQ165" s="52"/>
     </row>
     <row r="166" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="37" t="n">
+      <c r="A166" s="39" t="n">
         <v>165</v>
       </c>
       <c r="B166" s="12" t="s">
@@ -16397,16 +16408,16 @@
       <c r="D166" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="E166" s="49" t="s">
+      <c r="E166" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="F166" s="49" t="s">
+      <c r="F166" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="G166" s="49" t="s">
+      <c r="G166" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="H166" s="51" t="s">
+      <c r="H166" s="52" t="s">
         <v>289</v>
       </c>
       <c r="I166" s="21" t="s">
@@ -16415,51 +16426,51 @@
       <c r="J166" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="K166" s="51"/>
-      <c r="L166" s="51"/>
+      <c r="K166" s="52"/>
+      <c r="L166" s="52"/>
       <c r="M166" s="21"/>
       <c r="N166" s="21"/>
       <c r="O166" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="P166" s="51"/>
-      <c r="Q166" s="51"/>
-      <c r="R166" s="51"/>
-      <c r="S166" s="51" t="s">
+      <c r="P166" s="52"/>
+      <c r="Q166" s="52"/>
+      <c r="R166" s="52"/>
+      <c r="S166" s="52" t="s">
         <v>488</v>
       </c>
-      <c r="T166" s="51"/>
-      <c r="U166" s="51"/>
-      <c r="V166" s="51"/>
-      <c r="W166" s="51"/>
-      <c r="X166" s="51"/>
+      <c r="T166" s="52"/>
+      <c r="U166" s="52"/>
+      <c r="V166" s="52"/>
+      <c r="W166" s="52"/>
+      <c r="X166" s="52"/>
       <c r="Y166" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="Z166" s="51"/>
-      <c r="AA166" s="51"/>
-      <c r="AB166" s="51"/>
-      <c r="AC166" s="51"/>
-      <c r="AD166" s="51"/>
-      <c r="AE166" s="51"/>
-      <c r="AF166" s="55" t="n">
+      <c r="Z166" s="52"/>
+      <c r="AA166" s="52"/>
+      <c r="AB166" s="52"/>
+      <c r="AC166" s="52"/>
+      <c r="AD166" s="52"/>
+      <c r="AE166" s="52"/>
+      <c r="AF166" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="AG166" s="51"/>
-      <c r="AH166" s="51"/>
-      <c r="AI166" s="51"/>
-      <c r="AJ166" s="51"/>
-      <c r="AK166" s="51"/>
-      <c r="AL166" s="51"/>
-      <c r="AM166" s="51"/>
+      <c r="AG166" s="52"/>
+      <c r="AH166" s="52"/>
+      <c r="AI166" s="52"/>
+      <c r="AJ166" s="52"/>
+      <c r="AK166" s="52"/>
+      <c r="AL166" s="52"/>
+      <c r="AM166" s="52"/>
       <c r="AN166" s="12" t="n">
         <v>164</v>
       </c>
-      <c r="AO166" s="51" t="n">
+      <c r="AO166" s="52" t="n">
         <v>96</v>
       </c>
-      <c r="AP166" s="51"/>
-      <c r="AQ166" s="51"/>
+      <c r="AP166" s="52"/>
+      <c r="AQ166" s="52"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16519,16 +16530,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>355</v>
       </c>
     </row>
@@ -16556,7 +16567,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16593,7 +16604,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16630,7 +16641,7 @@
       <c r="A7" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="58" t="s">
         <v>520</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -16639,10 +16650,10 @@
       <c r="F7" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="H7" s="57"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="58" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
@@ -16651,13 +16662,13 @@
       <c r="F8" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="H8" s="57"/>
+      <c r="H8" s="58"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="57"/>
+      <c r="A10" s="58"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="58" t="s">
         <v>520</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -16668,7 +16679,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="58" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -16682,21 +16693,21 @@
       <c r="A15" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="E15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="H16" s="58"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="58" t="s">
         <v>520</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="58" t="s">
         <v>520</v>
       </c>
       <c r="D18" s="0" t="n">
@@ -16707,13 +16718,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="58" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="58" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -16724,16 +16735,16 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="58" t="s">
         <v>528</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="59" t="s">
         <v>529</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="58" t="s">
         <v>528</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="59" t="s">
         <v>530</v>
       </c>
     </row>
@@ -16748,31 +16759,31 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="60" t="s">
         <v>533</v>
       </c>
-      <c r="J25" s="57"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="58" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J26" s="57"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="60" t="s">
         <v>533</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="58" t="s">
         <v>520</v>
       </c>
       <c r="E28" s="0" t="n">
@@ -16783,13 +16794,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="58" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="58" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="0" t="n">
@@ -16828,52 +16839,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>537</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="62" t="s">
         <v>538</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="62" t="s">
         <v>539</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="62" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>540</v>
       </c>
     </row>

--- a/Projects/CCRU/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU/Data/FT PoS 2018.xlsx
@@ -44,9 +44,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="540">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1065,7 +1066,7 @@
     <t xml:space="preserve">RGM Активации: SSD/Juice Entry pack в прикассовой зоне</t>
   </si>
   <si>
-    <t xml:space="preserve">number of scenes</t>
+    <t xml:space="preserve">Scenes with no tagging</t>
   </si>
   <si>
     <t xml:space="preserve">SSD/Juice Entry pack in Cash Zone</t>
@@ -1186,9 +1187,6 @@
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes with no tagging</t>
   </si>
   <si>
     <t xml:space="preserve">Panoramic photo of Cooler</t>
@@ -2434,16 +2432,16 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G111" activeCellId="0" sqref="G111"/>
+      <selection pane="bottomLeft" activeCell="I106" activeCellId="0" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="17.7813765182186"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11927,7 +11925,7 @@
         <v>350</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="J112" s="0"/>
       <c r="K112" s="14" t="n">
@@ -11937,23 +11935,23 @@
       <c r="M112" s="9"/>
       <c r="N112" s="12"/>
       <c r="O112" s="42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P112" s="27"/>
       <c r="Q112" s="27"/>
       <c r="R112" s="12"/>
       <c r="S112" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T112" s="12"/>
       <c r="U112" s="12"/>
       <c r="V112" s="42"/>
       <c r="W112" s="12"/>
       <c r="X112" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Y112" s="42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z112" s="42"/>
       <c r="AA112" s="9"/>
@@ -11974,7 +11972,7 @@
         <v>336</v>
       </c>
       <c r="AJ112" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AK112" s="9"/>
       <c r="AL112" s="9"/>
@@ -11986,7 +11984,7 @@
       </c>
       <c r="AO112" s="12"/>
       <c r="AP112" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AQ112" s="12"/>
     </row>
@@ -12008,13 +12006,13 @@
       </c>
       <c r="F113" s="12"/>
       <c r="G113" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="H113" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="H113" s="9" t="s">
+      <c r="I113" s="14" t="s">
         <v>358</v>
-      </c>
-      <c r="I113" s="14" t="s">
-        <v>359</v>
       </c>
       <c r="J113" s="14"/>
       <c r="K113" s="9"/>
@@ -12061,7 +12059,7 @@
         <v>336</v>
       </c>
       <c r="AJ113" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AK113" s="9"/>
       <c r="AL113" s="9"/>
@@ -12073,7 +12071,7 @@
       </c>
       <c r="AO113" s="12"/>
       <c r="AP113" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AQ113" s="12"/>
     </row>
@@ -12095,13 +12093,13 @@
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="H114" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="H114" s="9" t="s">
+      <c r="I114" s="43" t="s">
         <v>362</v>
-      </c>
-      <c r="I114" s="43" t="s">
-        <v>363</v>
       </c>
       <c r="J114" s="14"/>
       <c r="K114" s="9"/>
@@ -12131,7 +12129,7 @@
         <v>50</v>
       </c>
       <c r="AE114" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF114" s="17" t="n">
         <v>0.025</v>
@@ -12146,7 +12144,7 @@
         <v>336</v>
       </c>
       <c r="AJ114" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AK114" s="9"/>
       <c r="AL114" s="9"/>
@@ -12157,10 +12155,10 @@
         <v>112</v>
       </c>
       <c r="AO114" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AP114" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AQ114" s="12"/>
     </row>
@@ -12182,10 +12180,10 @@
       </c>
       <c r="F115" s="12"/>
       <c r="G115" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="H115" s="9" t="s">
         <v>367</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>368</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>256</v>
@@ -12210,7 +12208,7 @@
       <c r="W115" s="12"/>
       <c r="X115" s="9"/>
       <c r="Y115" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z115" s="12"/>
       <c r="AA115" s="9"/>
@@ -12220,7 +12218,7 @@
         <v>50</v>
       </c>
       <c r="AE115" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF115" s="45" t="n">
         <v>1</v>
@@ -12232,7 +12230,7 @@
         <v>1</v>
       </c>
       <c r="AI115" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AJ115" s="39"/>
       <c r="AK115" s="9"/>
@@ -12244,10 +12242,10 @@
         <v>113</v>
       </c>
       <c r="AO115" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AP115" s="35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AQ115" s="12"/>
     </row>
@@ -12269,10 +12267,10 @@
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="H116" s="9" t="s">
         <v>372</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>373</v>
       </c>
       <c r="I116" s="14" t="s">
         <v>54</v>
@@ -12303,7 +12301,7 @@
       <c r="W116" s="12"/>
       <c r="X116" s="9"/>
       <c r="Y116" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z116" s="12"/>
       <c r="AA116" s="9"/>
@@ -12332,7 +12330,7 @@
       </c>
       <c r="AO116" s="12"/>
       <c r="AP116" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ116" s="12"/>
     </row>
@@ -12354,10 +12352,10 @@
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="H117" s="46" t="s">
         <v>374</v>
-      </c>
-      <c r="H117" s="46" t="s">
-        <v>375</v>
       </c>
       <c r="I117" s="14" t="s">
         <v>54</v>
@@ -12369,10 +12367,10 @@
       <c r="L117" s="9"/>
       <c r="M117" s="9"/>
       <c r="N117" s="47" t="s">
+        <v>375</v>
+      </c>
+      <c r="O117" s="47" t="s">
         <v>376</v>
-      </c>
-      <c r="O117" s="47" t="s">
-        <v>377</v>
       </c>
       <c r="P117" s="27"/>
       <c r="Q117" s="27"/>
@@ -12388,7 +12386,7 @@
       <c r="W117" s="12"/>
       <c r="X117" s="9"/>
       <c r="Y117" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z117" s="12"/>
       <c r="AA117" s="9"/>
@@ -12417,7 +12415,7 @@
       </c>
       <c r="AO117" s="12"/>
       <c r="AP117" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ117" s="12"/>
     </row>
@@ -12439,10 +12437,10 @@
       </c>
       <c r="F118" s="12"/>
       <c r="G118" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="H118" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>379</v>
       </c>
       <c r="I118" s="14" t="s">
         <v>54</v>
@@ -12473,7 +12471,7 @@
       <c r="W118" s="12"/>
       <c r="X118" s="9"/>
       <c r="Y118" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z118" s="12"/>
       <c r="AA118" s="9"/>
@@ -12502,7 +12500,7 @@
       </c>
       <c r="AO118" s="12"/>
       <c r="AP118" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ118" s="12"/>
     </row>
@@ -12524,10 +12522,10 @@
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="H119" s="9" t="s">
         <v>380</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>381</v>
       </c>
       <c r="I119" s="14" t="s">
         <v>54</v>
@@ -12558,7 +12556,7 @@
       <c r="W119" s="12"/>
       <c r="X119" s="9"/>
       <c r="Y119" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z119" s="12"/>
       <c r="AA119" s="9"/>
@@ -12587,7 +12585,7 @@
       </c>
       <c r="AO119" s="12"/>
       <c r="AP119" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ119" s="12"/>
     </row>
@@ -12609,10 +12607,10 @@
       </c>
       <c r="F120" s="12"/>
       <c r="G120" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="H120" s="46" t="s">
         <v>382</v>
-      </c>
-      <c r="H120" s="46" t="s">
-        <v>383</v>
       </c>
       <c r="I120" s="14" t="s">
         <v>54</v>
@@ -12643,7 +12641,7 @@
       <c r="W120" s="12"/>
       <c r="X120" s="9"/>
       <c r="Y120" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z120" s="12"/>
       <c r="AA120" s="9"/>
@@ -12672,7 +12670,7 @@
       </c>
       <c r="AO120" s="12"/>
       <c r="AP120" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ120" s="12"/>
     </row>
@@ -12694,10 +12692,10 @@
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="H121" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="I121" s="14" t="s">
         <v>54</v>
@@ -12728,7 +12726,7 @@
       <c r="W121" s="12"/>
       <c r="X121" s="9"/>
       <c r="Y121" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z121" s="12"/>
       <c r="AA121" s="9"/>
@@ -12757,7 +12755,7 @@
       </c>
       <c r="AO121" s="12"/>
       <c r="AP121" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ121" s="12"/>
     </row>
@@ -12779,10 +12777,10 @@
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="H122" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="I122" s="14" t="s">
         <v>54</v>
@@ -12813,7 +12811,7 @@
       <c r="W122" s="12"/>
       <c r="X122" s="9"/>
       <c r="Y122" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z122" s="12"/>
       <c r="AA122" s="9"/>
@@ -12842,7 +12840,7 @@
       </c>
       <c r="AO122" s="12"/>
       <c r="AP122" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ122" s="12"/>
     </row>
@@ -12864,10 +12862,10 @@
       </c>
       <c r="F123" s="12"/>
       <c r="G123" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="H123" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="H123" s="9" t="s">
-        <v>389</v>
       </c>
       <c r="I123" s="14" t="s">
         <v>54</v>
@@ -12898,7 +12896,7 @@
       <c r="W123" s="12"/>
       <c r="X123" s="9"/>
       <c r="Y123" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z123" s="12"/>
       <c r="AA123" s="9"/>
@@ -12927,7 +12925,7 @@
       </c>
       <c r="AO123" s="12"/>
       <c r="AP123" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ123" s="12"/>
     </row>
@@ -12949,10 +12947,10 @@
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="H124" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>391</v>
       </c>
       <c r="I124" s="14" t="s">
         <v>54</v>
@@ -12983,7 +12981,7 @@
       <c r="W124" s="12"/>
       <c r="X124" s="9"/>
       <c r="Y124" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z124" s="12"/>
       <c r="AA124" s="9"/>
@@ -13012,7 +13010,7 @@
       </c>
       <c r="AO124" s="12"/>
       <c r="AP124" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ124" s="12"/>
     </row>
@@ -13034,10 +13032,10 @@
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="H125" s="9" t="s">
         <v>392</v>
-      </c>
-      <c r="H125" s="9" t="s">
-        <v>393</v>
       </c>
       <c r="I125" s="14" t="s">
         <v>54</v>
@@ -13068,7 +13066,7 @@
       <c r="W125" s="12"/>
       <c r="X125" s="9"/>
       <c r="Y125" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z125" s="12"/>
       <c r="AA125" s="9"/>
@@ -13097,7 +13095,7 @@
       </c>
       <c r="AO125" s="12"/>
       <c r="AP125" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ125" s="12"/>
     </row>
@@ -13119,10 +13117,10 @@
       </c>
       <c r="F126" s="12"/>
       <c r="G126" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="H126" s="9" t="s">
         <v>394</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>395</v>
       </c>
       <c r="I126" s="14" t="s">
         <v>54</v>
@@ -13153,7 +13151,7 @@
       <c r="W126" s="12"/>
       <c r="X126" s="9"/>
       <c r="Y126" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z126" s="12"/>
       <c r="AA126" s="9"/>
@@ -13182,7 +13180,7 @@
       </c>
       <c r="AO126" s="12"/>
       <c r="AP126" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ126" s="12"/>
     </row>
@@ -13204,10 +13202,10 @@
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H127" s="9" t="s">
         <v>396</v>
-      </c>
-      <c r="H127" s="9" t="s">
-        <v>397</v>
       </c>
       <c r="I127" s="14" t="s">
         <v>54</v>
@@ -13219,10 +13217,10 @@
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
       <c r="N127" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="O127" s="49" t="s">
         <v>398</v>
-      </c>
-      <c r="O127" s="49" t="s">
-        <v>399</v>
       </c>
       <c r="P127" s="27"/>
       <c r="Q127" s="27"/>
@@ -13238,7 +13236,7 @@
       <c r="W127" s="12"/>
       <c r="X127" s="9"/>
       <c r="Y127" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z127" s="12"/>
       <c r="AA127" s="9"/>
@@ -13267,7 +13265,7 @@
       </c>
       <c r="AO127" s="12"/>
       <c r="AP127" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ127" s="12"/>
     </row>
@@ -13289,10 +13287,10 @@
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="H128" s="9" t="s">
         <v>400</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>401</v>
       </c>
       <c r="I128" s="14" t="s">
         <v>54</v>
@@ -13304,10 +13302,10 @@
       <c r="L128" s="9"/>
       <c r="M128" s="9"/>
       <c r="N128" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="O128" s="27" t="s">
         <v>402</v>
-      </c>
-      <c r="O128" s="27" t="s">
-        <v>403</v>
       </c>
       <c r="P128" s="27"/>
       <c r="Q128" s="27"/>
@@ -13323,7 +13321,7 @@
       <c r="W128" s="12"/>
       <c r="X128" s="9"/>
       <c r="Y128" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z128" s="12"/>
       <c r="AA128" s="9"/>
@@ -13352,7 +13350,7 @@
       </c>
       <c r="AO128" s="12"/>
       <c r="AP128" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ128" s="12"/>
     </row>
@@ -13374,10 +13372,10 @@
       </c>
       <c r="F129" s="12"/>
       <c r="G129" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="H129" s="9" t="s">
         <v>404</v>
-      </c>
-      <c r="H129" s="9" t="s">
-        <v>405</v>
       </c>
       <c r="I129" s="14" t="s">
         <v>54</v>
@@ -13408,7 +13406,7 @@
       <c r="W129" s="12"/>
       <c r="X129" s="9"/>
       <c r="Y129" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z129" s="12"/>
       <c r="AA129" s="9"/>
@@ -13437,7 +13435,7 @@
       </c>
       <c r="AO129" s="12"/>
       <c r="AP129" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ129" s="12"/>
     </row>
@@ -13459,10 +13457,10 @@
       </c>
       <c r="F130" s="12"/>
       <c r="G130" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="H130" s="9" t="s">
         <v>406</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>407</v>
       </c>
       <c r="I130" s="14" t="s">
         <v>54</v>
@@ -13493,7 +13491,7 @@
       <c r="W130" s="12"/>
       <c r="X130" s="9"/>
       <c r="Y130" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z130" s="12"/>
       <c r="AA130" s="9"/>
@@ -13522,7 +13520,7 @@
       </c>
       <c r="AO130" s="12"/>
       <c r="AP130" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ130" s="12"/>
     </row>
@@ -13544,10 +13542,10 @@
       </c>
       <c r="F131" s="12"/>
       <c r="G131" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="H131" s="9" t="s">
         <v>408</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>409</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>54</v>
@@ -13578,7 +13576,7 @@
       <c r="W131" s="12"/>
       <c r="X131" s="9"/>
       <c r="Y131" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z131" s="12"/>
       <c r="AA131" s="9"/>
@@ -13607,7 +13605,7 @@
       </c>
       <c r="AO131" s="12"/>
       <c r="AP131" s="35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AQ131" s="12"/>
     </row>
@@ -13629,10 +13627,10 @@
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="H132" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>411</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>256</v>
@@ -13657,7 +13655,7 @@
       <c r="W132" s="12"/>
       <c r="X132" s="9"/>
       <c r="Y132" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z132" s="12"/>
       <c r="AA132" s="9"/>
@@ -13667,7 +13665,7 @@
         <v>50</v>
       </c>
       <c r="AE132" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF132" s="45" t="n">
         <v>0.5</v>
@@ -13679,7 +13677,7 @@
         <v>1</v>
       </c>
       <c r="AI132" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AJ132" s="39"/>
       <c r="AK132" s="9"/>
@@ -13691,10 +13689,10 @@
         <v>130</v>
       </c>
       <c r="AO132" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AP132" s="35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AQ132" s="12"/>
     </row>
@@ -13716,10 +13714,10 @@
       </c>
       <c r="F133" s="12"/>
       <c r="G133" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="H133" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="H133" s="9" t="s">
-        <v>415</v>
       </c>
       <c r="I133" s="14" t="s">
         <v>54</v>
@@ -13750,7 +13748,7 @@
       <c r="W133" s="12"/>
       <c r="X133" s="9"/>
       <c r="Y133" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z133" s="12"/>
       <c r="AA133" s="9"/>
@@ -13779,7 +13777,7 @@
       </c>
       <c r="AO133" s="12"/>
       <c r="AP133" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AQ133" s="12"/>
     </row>
@@ -13801,10 +13799,10 @@
       </c>
       <c r="F134" s="12"/>
       <c r="G134" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="H134" s="9" t="s">
         <v>416</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>417</v>
       </c>
       <c r="I134" s="14" t="s">
         <v>54</v>
@@ -13835,7 +13833,7 @@
       <c r="W134" s="12"/>
       <c r="X134" s="9"/>
       <c r="Y134" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z134" s="12"/>
       <c r="AA134" s="9"/>
@@ -13864,7 +13862,7 @@
       </c>
       <c r="AO134" s="12"/>
       <c r="AP134" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AQ134" s="12"/>
     </row>
@@ -13886,10 +13884,10 @@
       </c>
       <c r="F135" s="12"/>
       <c r="G135" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="H135" s="9" t="s">
         <v>418</v>
-      </c>
-      <c r="H135" s="9" t="s">
-        <v>419</v>
       </c>
       <c r="I135" s="14" t="s">
         <v>54</v>
@@ -13920,7 +13918,7 @@
       <c r="W135" s="12"/>
       <c r="X135" s="9"/>
       <c r="Y135" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z135" s="12"/>
       <c r="AA135" s="9"/>
@@ -13949,7 +13947,7 @@
       </c>
       <c r="AO135" s="12"/>
       <c r="AP135" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AQ135" s="12"/>
     </row>
@@ -13971,10 +13969,10 @@
       </c>
       <c r="F136" s="12"/>
       <c r="G136" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="H136" s="9" t="s">
         <v>420</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>421</v>
       </c>
       <c r="I136" s="14" t="s">
         <v>54</v>
@@ -14005,7 +14003,7 @@
       <c r="W136" s="12"/>
       <c r="X136" s="9"/>
       <c r="Y136" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z136" s="12"/>
       <c r="AA136" s="9"/>
@@ -14034,7 +14032,7 @@
       </c>
       <c r="AO136" s="12"/>
       <c r="AP136" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AQ136" s="12"/>
     </row>
@@ -14056,10 +14054,10 @@
       </c>
       <c r="F137" s="12"/>
       <c r="G137" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="H137" s="9" t="s">
         <v>422</v>
-      </c>
-      <c r="H137" s="9" t="s">
-        <v>423</v>
       </c>
       <c r="I137" s="14" t="s">
         <v>54</v>
@@ -14090,7 +14088,7 @@
       <c r="W137" s="12"/>
       <c r="X137" s="9"/>
       <c r="Y137" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z137" s="12"/>
       <c r="AA137" s="9"/>
@@ -14119,7 +14117,7 @@
       </c>
       <c r="AO137" s="12"/>
       <c r="AP137" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AQ137" s="12"/>
     </row>
@@ -14141,10 +14139,10 @@
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="H138" s="9" t="s">
         <v>424</v>
-      </c>
-      <c r="H138" s="9" t="s">
-        <v>425</v>
       </c>
       <c r="I138" s="14" t="s">
         <v>54</v>
@@ -14175,7 +14173,7 @@
       <c r="W138" s="12"/>
       <c r="X138" s="9"/>
       <c r="Y138" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z138" s="12"/>
       <c r="AA138" s="9"/>
@@ -14204,7 +14202,7 @@
       </c>
       <c r="AO138" s="12"/>
       <c r="AP138" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AQ138" s="12"/>
     </row>
@@ -14226,10 +14224,10 @@
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="H139" s="9" t="s">
         <v>426</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>427</v>
       </c>
       <c r="I139" s="14" t="s">
         <v>54</v>
@@ -14260,7 +14258,7 @@
       <c r="W139" s="12"/>
       <c r="X139" s="9"/>
       <c r="Y139" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z139" s="12"/>
       <c r="AA139" s="9"/>
@@ -14289,7 +14287,7 @@
       </c>
       <c r="AO139" s="12"/>
       <c r="AP139" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AQ139" s="12"/>
     </row>
@@ -14311,10 +14309,10 @@
       </c>
       <c r="F140" s="12"/>
       <c r="G140" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="H140" s="9" t="s">
         <v>428</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>429</v>
       </c>
       <c r="I140" s="14" t="s">
         <v>54</v>
@@ -14345,7 +14343,7 @@
       <c r="W140" s="12"/>
       <c r="X140" s="9"/>
       <c r="Y140" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z140" s="12"/>
       <c r="AA140" s="9"/>
@@ -14374,7 +14372,7 @@
       </c>
       <c r="AO140" s="12"/>
       <c r="AP140" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AQ140" s="12"/>
     </row>
@@ -14396,10 +14394,10 @@
       </c>
       <c r="F141" s="12"/>
       <c r="G141" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="H141" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="H141" s="9" t="s">
-        <v>431</v>
       </c>
       <c r="I141" s="14" t="s">
         <v>54</v>
@@ -14430,7 +14428,7 @@
       <c r="W141" s="12"/>
       <c r="X141" s="9"/>
       <c r="Y141" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z141" s="12"/>
       <c r="AA141" s="9"/>
@@ -14459,7 +14457,7 @@
       </c>
       <c r="AO141" s="12"/>
       <c r="AP141" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AQ141" s="12"/>
     </row>
@@ -14481,10 +14479,10 @@
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="H142" s="9" t="s">
         <v>432</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>433</v>
       </c>
       <c r="I142" s="14" t="s">
         <v>54</v>
@@ -14515,7 +14513,7 @@
       <c r="W142" s="12"/>
       <c r="X142" s="9"/>
       <c r="Y142" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z142" s="12"/>
       <c r="AA142" s="9"/>
@@ -14544,7 +14542,7 @@
       </c>
       <c r="AO142" s="12"/>
       <c r="AP142" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AQ142" s="12"/>
     </row>
@@ -14566,10 +14564,10 @@
       </c>
       <c r="F143" s="12"/>
       <c r="G143" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="H143" s="9" t="s">
         <v>434</v>
-      </c>
-      <c r="H143" s="9" t="s">
-        <v>435</v>
       </c>
       <c r="I143" s="14" t="s">
         <v>54</v>
@@ -14600,7 +14598,7 @@
       <c r="W143" s="12"/>
       <c r="X143" s="9"/>
       <c r="Y143" s="39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z143" s="12"/>
       <c r="AA143" s="9"/>
@@ -14629,7 +14627,7 @@
       </c>
       <c r="AO143" s="12"/>
       <c r="AP143" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AQ143" s="12"/>
     </row>
@@ -14651,10 +14649,10 @@
       </c>
       <c r="F144" s="12"/>
       <c r="G144" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="H144" s="9" t="s">
         <v>436</v>
-      </c>
-      <c r="H144" s="9" t="s">
-        <v>437</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>256</v>
@@ -14679,7 +14677,7 @@
       <c r="W144" s="12"/>
       <c r="X144" s="9"/>
       <c r="Y144" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z144" s="12"/>
       <c r="AA144" s="9"/>
@@ -14689,7 +14687,7 @@
         <v>50</v>
       </c>
       <c r="AE144" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF144" s="45" t="n">
         <v>0.5</v>
@@ -14701,7 +14699,7 @@
         <v>1</v>
       </c>
       <c r="AI144" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AJ144" s="39"/>
       <c r="AK144" s="9"/>
@@ -14713,10 +14711,10 @@
         <v>142</v>
       </c>
       <c r="AO144" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AP144" s="35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AQ144" s="12"/>
     </row>
@@ -14738,10 +14736,10 @@
       </c>
       <c r="F145" s="12"/>
       <c r="G145" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="H145" s="9" t="s">
         <v>440</v>
-      </c>
-      <c r="H145" s="9" t="s">
-        <v>441</v>
       </c>
       <c r="I145" s="14" t="s">
         <v>54</v>
@@ -14772,7 +14770,7 @@
       <c r="W145" s="12"/>
       <c r="X145" s="9"/>
       <c r="Y145" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z145" s="12"/>
       <c r="AA145" s="9"/>
@@ -14801,7 +14799,7 @@
       </c>
       <c r="AO145" s="12"/>
       <c r="AP145" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AQ145" s="12"/>
     </row>
@@ -14823,10 +14821,10 @@
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="H146" s="9" t="s">
         <v>442</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>443</v>
       </c>
       <c r="I146" s="14" t="s">
         <v>54</v>
@@ -14857,7 +14855,7 @@
       <c r="W146" s="12"/>
       <c r="X146" s="9"/>
       <c r="Y146" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z146" s="12"/>
       <c r="AA146" s="9"/>
@@ -14886,7 +14884,7 @@
       </c>
       <c r="AO146" s="12"/>
       <c r="AP146" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AQ146" s="12"/>
     </row>
@@ -14908,10 +14906,10 @@
       </c>
       <c r="F147" s="12"/>
       <c r="G147" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="H147" s="9" t="s">
         <v>444</v>
-      </c>
-      <c r="H147" s="9" t="s">
-        <v>445</v>
       </c>
       <c r="I147" s="14" t="s">
         <v>54</v>
@@ -14942,7 +14940,7 @@
       <c r="W147" s="12"/>
       <c r="X147" s="9"/>
       <c r="Y147" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z147" s="12"/>
       <c r="AA147" s="9"/>
@@ -14971,7 +14969,7 @@
       </c>
       <c r="AO147" s="12"/>
       <c r="AP147" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AQ147" s="12"/>
     </row>
@@ -14993,10 +14991,10 @@
       </c>
       <c r="F148" s="12"/>
       <c r="G148" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="H148" s="9" t="s">
         <v>446</v>
-      </c>
-      <c r="H148" s="9" t="s">
-        <v>447</v>
       </c>
       <c r="I148" s="14" t="s">
         <v>54</v>
@@ -15027,7 +15025,7 @@
       <c r="W148" s="12"/>
       <c r="X148" s="9"/>
       <c r="Y148" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z148" s="12"/>
       <c r="AA148" s="9"/>
@@ -15056,7 +15054,7 @@
       </c>
       <c r="AO148" s="12"/>
       <c r="AP148" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AQ148" s="12"/>
     </row>
@@ -15078,10 +15076,10 @@
       </c>
       <c r="F149" s="12"/>
       <c r="G149" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="H149" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="H149" s="9" t="s">
-        <v>449</v>
       </c>
       <c r="I149" s="14" t="s">
         <v>54</v>
@@ -15112,7 +15110,7 @@
       <c r="W149" s="12"/>
       <c r="X149" s="9"/>
       <c r="Y149" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z149" s="12"/>
       <c r="AA149" s="9"/>
@@ -15141,7 +15139,7 @@
       </c>
       <c r="AO149" s="12"/>
       <c r="AP149" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AQ149" s="12"/>
     </row>
@@ -15163,10 +15161,10 @@
       </c>
       <c r="F150" s="12"/>
       <c r="G150" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="H150" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>451</v>
       </c>
       <c r="I150" s="14" t="s">
         <v>54</v>
@@ -15178,10 +15176,10 @@
       <c r="L150" s="9"/>
       <c r="M150" s="9"/>
       <c r="N150" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O150" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P150" s="27"/>
       <c r="Q150" s="27"/>
@@ -15197,7 +15195,7 @@
       <c r="W150" s="12"/>
       <c r="X150" s="9"/>
       <c r="Y150" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z150" s="12"/>
       <c r="AA150" s="9"/>
@@ -15226,7 +15224,7 @@
       </c>
       <c r="AO150" s="12"/>
       <c r="AP150" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AQ150" s="12"/>
     </row>
@@ -15248,10 +15246,10 @@
       </c>
       <c r="F151" s="12"/>
       <c r="G151" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="H151" s="9" t="s">
         <v>453</v>
-      </c>
-      <c r="H151" s="9" t="s">
-        <v>454</v>
       </c>
       <c r="I151" s="14" t="s">
         <v>54</v>
@@ -15263,10 +15261,10 @@
       <c r="L151" s="9"/>
       <c r="M151" s="9"/>
       <c r="N151" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="O151" s="10" t="s">
         <v>402</v>
-      </c>
-      <c r="O151" s="10" t="s">
-        <v>403</v>
       </c>
       <c r="P151" s="27"/>
       <c r="Q151" s="27"/>
@@ -15282,7 +15280,7 @@
       <c r="W151" s="12"/>
       <c r="X151" s="9"/>
       <c r="Y151" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z151" s="12"/>
       <c r="AA151" s="9"/>
@@ -15311,7 +15309,7 @@
       </c>
       <c r="AO151" s="12"/>
       <c r="AP151" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AQ151" s="12"/>
     </row>
@@ -15333,10 +15331,10 @@
       </c>
       <c r="F152" s="12"/>
       <c r="G152" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="H152" s="9" t="s">
         <v>455</v>
-      </c>
-      <c r="H152" s="9" t="s">
-        <v>456</v>
       </c>
       <c r="I152" s="14" t="s">
         <v>54</v>
@@ -15348,10 +15346,10 @@
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
       <c r="N152" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="O152" s="10" t="s">
         <v>457</v>
-      </c>
-      <c r="O152" s="10" t="s">
-        <v>458</v>
       </c>
       <c r="P152" s="27"/>
       <c r="Q152" s="27"/>
@@ -15367,7 +15365,7 @@
       <c r="W152" s="12"/>
       <c r="X152" s="9"/>
       <c r="Y152" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z152" s="12"/>
       <c r="AA152" s="9"/>
@@ -15396,7 +15394,7 @@
       </c>
       <c r="AO152" s="12"/>
       <c r="AP152" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AQ152" s="12"/>
     </row>
@@ -15418,10 +15416,10 @@
       </c>
       <c r="F153" s="12"/>
       <c r="G153" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="H153" s="9" t="s">
         <v>459</v>
-      </c>
-      <c r="H153" s="9" t="s">
-        <v>460</v>
       </c>
       <c r="I153" s="14" t="s">
         <v>54</v>
@@ -15452,7 +15450,7 @@
       <c r="W153" s="12"/>
       <c r="X153" s="9"/>
       <c r="Y153" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z153" s="12"/>
       <c r="AA153" s="9"/>
@@ -15481,7 +15479,7 @@
       </c>
       <c r="AO153" s="12"/>
       <c r="AP153" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AQ153" s="12"/>
     </row>
@@ -15503,10 +15501,10 @@
       </c>
       <c r="F154" s="12"/>
       <c r="G154" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="H154" s="9" t="s">
         <v>461</v>
-      </c>
-      <c r="H154" s="9" t="s">
-        <v>462</v>
       </c>
       <c r="I154" s="14" t="s">
         <v>54</v>
@@ -15518,10 +15516,10 @@
       <c r="L154" s="9"/>
       <c r="M154" s="9"/>
       <c r="N154" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O154" s="10" t="s">
         <v>463</v>
-      </c>
-      <c r="O154" s="10" t="s">
-        <v>464</v>
       </c>
       <c r="P154" s="27"/>
       <c r="Q154" s="27"/>
@@ -15537,7 +15535,7 @@
       <c r="W154" s="12"/>
       <c r="X154" s="9"/>
       <c r="Y154" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z154" s="12"/>
       <c r="AA154" s="9"/>
@@ -15566,7 +15564,7 @@
       </c>
       <c r="AO154" s="12"/>
       <c r="AP154" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AQ154" s="12"/>
     </row>
@@ -15588,13 +15586,13 @@
       </c>
       <c r="F155" s="12"/>
       <c r="G155" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="H155" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="H155" s="12" t="s">
+      <c r="I155" s="14" t="s">
         <v>466</v>
-      </c>
-      <c r="I155" s="14" t="s">
-        <v>467</v>
       </c>
       <c r="J155" s="14"/>
       <c r="K155" s="9"/>
@@ -15637,7 +15635,7 @@
         <v>336</v>
       </c>
       <c r="AJ155" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AK155" s="9"/>
       <c r="AL155" s="9"/>
@@ -15649,7 +15647,7 @@
       </c>
       <c r="AO155" s="12"/>
       <c r="AP155" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AQ155" s="12"/>
     </row>
@@ -15664,25 +15662,25 @@
         <v>44</v>
       </c>
       <c r="D156" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="E156" s="50" t="s">
         <v>468</v>
       </c>
-      <c r="E156" s="50" t="s">
+      <c r="F156" s="50" t="s">
         <v>469</v>
-      </c>
-      <c r="F156" s="50" t="s">
-        <v>470</v>
       </c>
       <c r="G156" s="35" t="s">
         <v>308</v>
       </c>
       <c r="H156" s="51" t="s">
+        <v>470</v>
+      </c>
+      <c r="I156" s="52" t="s">
         <v>471</v>
       </c>
-      <c r="I156" s="52" t="s">
+      <c r="J156" s="52" t="s">
         <v>472</v>
-      </c>
-      <c r="J156" s="52" t="s">
-        <v>473</v>
       </c>
       <c r="K156" s="52"/>
       <c r="L156" s="52"/>
@@ -15693,7 +15691,7 @@
       <c r="Q156" s="52"/>
       <c r="R156" s="52"/>
       <c r="S156" s="52" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="T156" s="52"/>
       <c r="U156" s="52"/>
@@ -15737,23 +15735,23 @@
         <v>44</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E157" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="F157" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="F157" s="50" t="s">
-        <v>476</v>
-      </c>
       <c r="G157" s="50" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H157" s="51"/>
       <c r="I157" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="J157" s="52" t="s">
         <v>477</v>
-      </c>
-      <c r="J157" s="52" t="s">
-        <v>478</v>
       </c>
       <c r="K157" s="52"/>
       <c r="L157" s="52"/>
@@ -15764,7 +15762,7 @@
       <c r="Q157" s="52"/>
       <c r="R157" s="52"/>
       <c r="S157" s="52" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="T157" s="52"/>
       <c r="U157" s="52"/>
@@ -15792,7 +15790,7 @@
         <v>155</v>
       </c>
       <c r="AO157" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AP157" s="52"/>
       <c r="AQ157" s="52"/>
@@ -15808,25 +15806,25 @@
         <v>44</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E158" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="F158" s="50" t="s">
         <v>480</v>
-      </c>
-      <c r="F158" s="50" t="s">
-        <v>481</v>
       </c>
       <c r="G158" s="50" t="s">
         <v>323</v>
       </c>
       <c r="H158" s="51" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I158" s="52" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J158" s="52" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K158" s="52"/>
       <c r="L158" s="52"/>
@@ -15837,7 +15835,7 @@
       <c r="Q158" s="52"/>
       <c r="R158" s="52"/>
       <c r="S158" s="52" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="T158" s="52"/>
       <c r="U158" s="52"/>
@@ -15881,36 +15879,36 @@
         <v>44</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E159" s="50" t="s">
+        <v>482</v>
+      </c>
+      <c r="F159" s="50" t="s">
         <v>483</v>
       </c>
-      <c r="F159" s="50" t="s">
+      <c r="G159" s="50" t="s">
         <v>484</v>
-      </c>
-      <c r="G159" s="50" t="s">
-        <v>485</v>
       </c>
       <c r="H159" s="52"/>
       <c r="I159" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J159" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K159" s="52"/>
       <c r="L159" s="52"/>
       <c r="M159" s="21"/>
       <c r="N159" s="21"/>
       <c r="O159" s="52" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P159" s="52"/>
       <c r="Q159" s="52"/>
       <c r="R159" s="52"/>
       <c r="S159" s="52" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T159" s="52"/>
       <c r="U159" s="52"/>
@@ -15920,7 +15918,7 @@
         <v>339</v>
       </c>
       <c r="Y159" s="55" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Z159" s="52"/>
       <c r="AA159" s="52"/>
@@ -15956,23 +15954,23 @@
         <v>44</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E160" s="50" t="s">
+        <v>489</v>
+      </c>
+      <c r="F160" s="50" t="s">
         <v>490</v>
       </c>
-      <c r="F160" s="50" t="s">
+      <c r="G160" s="50" t="s">
         <v>491</v>
-      </c>
-      <c r="G160" s="50" t="s">
-        <v>492</v>
       </c>
       <c r="H160" s="52"/>
       <c r="I160" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="J160" s="21" t="s">
         <v>493</v>
-      </c>
-      <c r="J160" s="21" t="s">
-        <v>494</v>
       </c>
       <c r="K160" s="52"/>
       <c r="L160" s="52"/>
@@ -15985,7 +15983,7 @@
       <c r="Q160" s="52"/>
       <c r="R160" s="52"/>
       <c r="S160" s="52" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T160" s="52"/>
       <c r="U160" s="52"/>
@@ -15993,7 +15991,7 @@
       <c r="W160" s="52"/>
       <c r="X160" s="52"/>
       <c r="Y160" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Z160" s="52"/>
       <c r="AA160" s="52"/>
@@ -16029,36 +16027,36 @@
         <v>44</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E161" s="50" t="s">
+        <v>495</v>
+      </c>
+      <c r="F161" s="50" t="s">
         <v>496</v>
       </c>
-      <c r="F161" s="50" t="s">
+      <c r="G161" s="50" t="s">
         <v>497</v>
-      </c>
-      <c r="G161" s="50" t="s">
-        <v>498</v>
       </c>
       <c r="H161" s="52"/>
       <c r="I161" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="J161" s="21" t="s">
         <v>493</v>
-      </c>
-      <c r="J161" s="21" t="s">
-        <v>494</v>
       </c>
       <c r="K161" s="52"/>
       <c r="L161" s="52"/>
       <c r="M161" s="21"/>
       <c r="N161" s="21"/>
       <c r="O161" s="52" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P161" s="52"/>
       <c r="Q161" s="52"/>
       <c r="R161" s="52"/>
       <c r="S161" s="52" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T161" s="52"/>
       <c r="U161" s="52"/>
@@ -16066,7 +16064,7 @@
       <c r="W161" s="52"/>
       <c r="X161" s="52"/>
       <c r="Y161" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Z161" s="52"/>
       <c r="AA161" s="52"/>
@@ -16102,36 +16100,36 @@
         <v>44</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E162" s="50" t="s">
+        <v>499</v>
+      </c>
+      <c r="F162" s="50" t="s">
         <v>500</v>
       </c>
-      <c r="F162" s="50" t="s">
+      <c r="G162" s="50" t="s">
         <v>501</v>
-      </c>
-      <c r="G162" s="50" t="s">
-        <v>502</v>
       </c>
       <c r="H162" s="52"/>
       <c r="I162" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="J162" s="21" t="s">
         <v>493</v>
-      </c>
-      <c r="J162" s="21" t="s">
-        <v>494</v>
       </c>
       <c r="K162" s="52"/>
       <c r="L162" s="52"/>
       <c r="M162" s="21"/>
       <c r="N162" s="21"/>
       <c r="O162" s="52" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P162" s="52"/>
       <c r="Q162" s="52"/>
       <c r="R162" s="52"/>
       <c r="S162" s="52" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T162" s="52"/>
       <c r="U162" s="52"/>
@@ -16139,7 +16137,7 @@
       <c r="W162" s="52"/>
       <c r="X162" s="52"/>
       <c r="Y162" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Z162" s="52"/>
       <c r="AA162" s="52"/>
@@ -16175,38 +16173,38 @@
         <v>44</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E163" s="50" t="s">
+        <v>503</v>
+      </c>
+      <c r="F163" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="F163" s="50" t="s">
+      <c r="G163" s="50" t="s">
         <v>505</v>
-      </c>
-      <c r="G163" s="50" t="s">
-        <v>506</v>
       </c>
       <c r="H163" s="52" t="s">
         <v>246</v>
       </c>
       <c r="I163" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J163" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K163" s="52"/>
       <c r="L163" s="52"/>
       <c r="M163" s="21"/>
       <c r="N163" s="21"/>
       <c r="O163" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P163" s="52"/>
       <c r="Q163" s="52"/>
       <c r="R163" s="52"/>
       <c r="S163" s="52" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T163" s="52"/>
       <c r="U163" s="52"/>
@@ -16214,7 +16212,7 @@
       <c r="W163" s="52"/>
       <c r="X163" s="52"/>
       <c r="Y163" s="21" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Z163" s="52"/>
       <c r="AA163" s="52"/>
@@ -16252,38 +16250,38 @@
         <v>44</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E164" s="50" t="s">
+        <v>503</v>
+      </c>
+      <c r="F164" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="F164" s="50" t="s">
+      <c r="G164" s="50" t="s">
         <v>505</v>
-      </c>
-      <c r="G164" s="50" t="s">
-        <v>506</v>
       </c>
       <c r="H164" s="52" t="s">
         <v>274</v>
       </c>
       <c r="I164" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J164" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K164" s="52"/>
       <c r="L164" s="52"/>
       <c r="M164" s="21"/>
       <c r="N164" s="21"/>
       <c r="O164" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P164" s="52"/>
       <c r="Q164" s="52"/>
       <c r="R164" s="52"/>
       <c r="S164" s="52" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T164" s="52"/>
       <c r="U164" s="52"/>
@@ -16291,7 +16289,7 @@
       <c r="W164" s="52"/>
       <c r="X164" s="52"/>
       <c r="Y164" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Z164" s="52"/>
       <c r="AA164" s="52"/>
@@ -16329,38 +16327,38 @@
         <v>44</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E165" s="50" t="s">
+        <v>503</v>
+      </c>
+      <c r="F165" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="F165" s="50" t="s">
+      <c r="G165" s="50" t="s">
         <v>505</v>
-      </c>
-      <c r="G165" s="50" t="s">
-        <v>506</v>
       </c>
       <c r="H165" s="52" t="s">
         <v>265</v>
       </c>
       <c r="I165" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J165" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K165" s="52"/>
       <c r="L165" s="52"/>
       <c r="M165" s="21"/>
       <c r="N165" s="21"/>
       <c r="O165" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P165" s="52"/>
       <c r="Q165" s="52"/>
       <c r="R165" s="52"/>
       <c r="S165" s="52" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T165" s="52"/>
       <c r="U165" s="52"/>
@@ -16368,7 +16366,7 @@
       <c r="W165" s="52"/>
       <c r="X165" s="52"/>
       <c r="Y165" s="21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Z165" s="52"/>
       <c r="AA165" s="52"/>
@@ -16406,38 +16404,38 @@
         <v>44</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E166" s="50" t="s">
+        <v>503</v>
+      </c>
+      <c r="F166" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="F166" s="50" t="s">
+      <c r="G166" s="50" t="s">
         <v>505</v>
-      </c>
-      <c r="G166" s="50" t="s">
-        <v>506</v>
       </c>
       <c r="H166" s="52" t="s">
         <v>289</v>
       </c>
       <c r="I166" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J166" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K166" s="52"/>
       <c r="L166" s="52"/>
       <c r="M166" s="21"/>
       <c r="N166" s="21"/>
       <c r="O166" s="21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P166" s="52"/>
       <c r="Q166" s="52"/>
       <c r="R166" s="52"/>
       <c r="S166" s="52" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T166" s="52"/>
       <c r="U166" s="52"/>
@@ -16445,7 +16443,7 @@
       <c r="W166" s="52"/>
       <c r="X166" s="52"/>
       <c r="Y166" s="21" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Z166" s="52"/>
       <c r="AA166" s="52"/>
@@ -16535,12 +16533,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -16572,12 +16570,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -16609,16 +16607,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>515</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>516</v>
       </c>
       <c r="G1" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16631,7 +16629,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="0" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>10</v>
@@ -16639,16 +16637,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C7" s="58" t="s">
         <v>519</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>520</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H7" s="58"/>
     </row>
@@ -16660,7 +16658,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H8" s="58"/>
     </row>
@@ -16669,13 +16667,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16686,12 +16684,12 @@
         <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E15" s="58"/>
       <c r="H15" s="58"/>
@@ -16702,19 +16700,19 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16731,39 +16729,39 @@
         <v>10</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="58" t="s">
+        <v>527</v>
+      </c>
+      <c r="B20" s="59" t="s">
         <v>528</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="C20" s="58" t="s">
+        <v>527</v>
+      </c>
+      <c r="D20" s="59" t="s">
         <v>529</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>528</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="0" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G25" s="58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H25" s="60" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J25" s="58"/>
     </row>
@@ -16778,19 +16776,19 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16807,12 +16805,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -16862,10 +16860,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="62" t="s">
+        <v>536</v>
+      </c>
+      <c r="H1" s="62" t="s">
         <v>537</v>
-      </c>
-      <c r="H1" s="62" t="s">
-        <v>538</v>
       </c>
       <c r="I1" s="62" t="s">
         <v>35</v>
@@ -16874,7 +16872,7 @@
         <v>31</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L1" s="62" t="s">
         <v>36</v>
@@ -16885,7 +16883,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="63" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU/Data/FT PoS 2018.xlsx
@@ -45,9 +45,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="542">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -453,6 +454,9 @@
     <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000189301, 5449000235947</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
   </si>
   <si>
@@ -463,6 +467,9 @@
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000045720, 5449000236777</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Lemon - 1L</t>
@@ -1359,7 +1366,7 @@
     <t xml:space="preserve">ANY Fuze Black 0.5L</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124</t>
+    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124, 5449000259455, 5449000235947, 5449000235770</t>
   </si>
   <si>
     <t xml:space="preserve">Mixed Door: Monster Green - 0.5L</t>
@@ -1872,7 +1879,7 @@
     <numFmt numFmtId="168" formatCode="D\-MMM"/>
     <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1931,13 +1938,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -2169,16 +2169,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2188,10 +2192,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -2285,8 +2285,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2321,7 +2321,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2333,15 +2333,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2366,7 +2366,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -2429,19 +2429,19 @@
   </sheetPr>
   <dimension ref="A1:AQ167"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I106" activeCellId="0" sqref="I106"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="61" zoomScaleNormal="61" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="O153" activeCellId="0" sqref="O153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="31" min="9" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="1" width="17.8906882591093"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5153,11 +5153,11 @@
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
-      <c r="N32" s="15" t="s">
+      <c r="N32" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="O32" s="10" t="n">
-        <v>5449000189301</v>
+      <c r="O32" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
@@ -5226,10 +5226,10 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>54</v>
@@ -5241,7 +5241,7 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O33" s="10" t="n">
         <v>5449000233615</v>
@@ -5313,10 +5313,10 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>54</v>
@@ -5327,11 +5327,11 @@
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="O34" s="10" t="n">
-        <v>5449000045720</v>
+      <c r="N34" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>127</v>
       </c>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
@@ -5400,10 +5400,10 @@
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>54</v>
@@ -5415,7 +5415,7 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O35" s="10" t="n">
         <v>5449000189318</v>
@@ -5487,10 +5487,10 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>49</v>
@@ -5535,7 +5535,7 @@
         <v>35</v>
       </c>
       <c r="AO36" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AP36" s="12"/>
       <c r="AQ36" s="12"/>
@@ -5558,10 +5558,10 @@
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>54</v>
@@ -5573,7 +5573,7 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O37" s="10" t="n">
         <v>4607042434877</v>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="AO37" s="12"/>
       <c r="AP37" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ37" s="12"/>
     </row>
@@ -5645,10 +5645,10 @@
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>54</v>
@@ -5660,7 +5660,7 @@
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O38" s="10" t="n">
         <v>4607042434891</v>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="AO38" s="12"/>
       <c r="AP38" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ38" s="12"/>
     </row>
@@ -5732,10 +5732,10 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>54</v>
@@ -5747,7 +5747,7 @@
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O39" s="10" t="n">
         <v>4607042438738</v>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="AO39" s="12"/>
       <c r="AP39" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ39" s="12"/>
     </row>
@@ -5819,10 +5819,10 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>54</v>
@@ -5834,7 +5834,7 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O40" s="10" t="n">
         <v>4607042438950</v>
@@ -5884,7 +5884,7 @@
       </c>
       <c r="AO40" s="12"/>
       <c r="AP40" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ40" s="12"/>
     </row>
@@ -5906,10 +5906,10 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>54</v>
@@ -5921,7 +5921,7 @@
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O41" s="10" t="n">
         <v>4607042434884</v>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="AO41" s="12"/>
       <c r="AP41" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ41" s="12"/>
     </row>
@@ -5993,10 +5993,10 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>54</v>
@@ -6008,7 +6008,7 @@
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O42" s="10" t="n">
         <v>4607174577787</v>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="AO42" s="12"/>
       <c r="AP42" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ42" s="12"/>
     </row>
@@ -6080,10 +6080,10 @@
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>54</v>
@@ -6095,7 +6095,7 @@
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O43" s="10" t="n">
         <v>4607042430619</v>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="AO43" s="12"/>
       <c r="AP43" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ43" s="12"/>
     </row>
@@ -6167,10 +6167,10 @@
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>54</v>
@@ -6182,7 +6182,7 @@
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O44" s="10" t="n">
         <v>4607042430565</v>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="AO44" s="12"/>
       <c r="AP44" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ44" s="12"/>
     </row>
@@ -6254,10 +6254,10 @@
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>54</v>
@@ -6269,7 +6269,7 @@
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O45" s="10" t="n">
         <v>4607174577794</v>
@@ -6319,7 +6319,7 @@
       </c>
       <c r="AO45" s="12"/>
       <c r="AP45" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ45" s="12"/>
     </row>
@@ -6341,10 +6341,10 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>54</v>
@@ -6356,7 +6356,7 @@
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O46" s="10" t="n">
         <v>4607174577145</v>
@@ -6406,7 +6406,7 @@
       </c>
       <c r="AO46" s="12"/>
       <c r="AP46" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ46" s="12"/>
     </row>
@@ -6428,10 +6428,10 @@
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>54</v>
@@ -6443,7 +6443,7 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O47" s="10" t="n">
         <v>4607042431388</v>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="AO47" s="12"/>
       <c r="AP47" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ47" s="12"/>
     </row>
@@ -6515,10 +6515,10 @@
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>54</v>
@@ -6530,7 +6530,7 @@
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O48" s="10" t="n">
         <v>4607042431333</v>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="AO48" s="12"/>
       <c r="AP48" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ48" s="12"/>
     </row>
@@ -6602,10 +6602,10 @@
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>54</v>
@@ -6617,7 +6617,7 @@
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O49" s="10" t="n">
         <v>4607174579729</v>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="AO49" s="13"/>
       <c r="AP49" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ49" s="14"/>
     </row>
@@ -6689,10 +6689,10 @@
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>54</v>
@@ -6704,7 +6704,7 @@
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O50" s="10" t="n">
         <v>4607174579309</v>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="AO50" s="12"/>
       <c r="AP50" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ50" s="14"/>
     </row>
@@ -6776,10 +6776,10 @@
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>54</v>
@@ -6791,7 +6791,7 @@
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O51" s="10" t="n">
         <v>4607174579286</v>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="AO51" s="12"/>
       <c r="AP51" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AQ51" s="12"/>
     </row>
@@ -6856,17 +6856,17 @@
         <v>44</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>49</v>
@@ -6911,7 +6911,7 @@
         <v>51</v>
       </c>
       <c r="AO52" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AP52" s="12"/>
       <c r="AQ52" s="12"/>
@@ -6927,31 +6927,31 @@
         <v>44</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F53" s="9"/>
-      <c r="G53" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="I53" s="21" t="s">
+      <c r="G53" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I53" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21" t="n">
+      <c r="J53" s="23"/>
+      <c r="K53" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="O53" s="22" t="n">
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="O53" s="9" t="n">
         <v>5449000214744</v>
       </c>
       <c r="P53" s="10"/>
@@ -6998,8 +6998,8 @@
         <v>52</v>
       </c>
       <c r="AO53" s="12"/>
-      <c r="AP53" s="23" t="s">
-        <v>163</v>
+      <c r="AP53" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="AQ53" s="12"/>
     </row>
@@ -7014,17 +7014,17 @@
         <v>44</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F54" s="9"/>
-      <c r="G54" s="24" t="s">
-        <v>168</v>
+      <c r="G54" s="25" t="s">
+        <v>170</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>54</v>
@@ -7035,10 +7035,10 @@
       </c>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
-      <c r="N54" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="O54" s="25" t="n">
+      <c r="N54" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="O54" s="9" t="n">
         <v>5449000241467</v>
       </c>
       <c r="P54" s="9"/>
@@ -7085,8 +7085,8 @@
         <v>53</v>
       </c>
       <c r="AO54" s="12"/>
-      <c r="AP54" s="23" t="s">
-        <v>163</v>
+      <c r="AP54" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="AQ54" s="12"/>
     </row>
@@ -7101,17 +7101,17 @@
         <v>44</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>54</v>
@@ -7123,10 +7123,10 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="O55" s="18" t="n">
-        <v>5449000134912</v>
+        <v>172</v>
+      </c>
+      <c r="O55" s="10" t="n">
+        <v>4607042431692</v>
       </c>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
@@ -7172,8 +7172,8 @@
         <v>54</v>
       </c>
       <c r="AO55" s="12"/>
-      <c r="AP55" s="23" t="s">
-        <v>163</v>
+      <c r="AP55" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="AQ55" s="12"/>
     </row>
@@ -7188,17 +7188,17 @@
         <v>44</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>54</v>
@@ -7210,7 +7210,7 @@
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O56" s="10" t="n">
         <v>5449000172228</v>
@@ -7259,8 +7259,8 @@
         <v>55</v>
       </c>
       <c r="AO56" s="12"/>
-      <c r="AP56" s="23" t="s">
-        <v>163</v>
+      <c r="AP56" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="AQ56" s="12"/>
     </row>
@@ -7275,17 +7275,17 @@
         <v>44</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>54</v>
@@ -7297,9 +7297,9 @@
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="O57" s="18" t="n">
+        <v>176</v>
+      </c>
+      <c r="O57" s="10" t="n">
         <v>5060517884710</v>
       </c>
       <c r="P57" s="9"/>
@@ -7346,8 +7346,8 @@
         <v>56</v>
       </c>
       <c r="AO57" s="12"/>
-      <c r="AP57" s="23" t="s">
-        <v>163</v>
+      <c r="AP57" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="AQ57" s="12"/>
     </row>
@@ -7362,17 +7362,17 @@
         <v>44</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>54</v>
@@ -7384,7 +7384,7 @@
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O58" s="10" t="n">
         <v>5449000214263</v>
@@ -7433,8 +7433,8 @@
         <v>57</v>
       </c>
       <c r="AO58" s="12"/>
-      <c r="AP58" s="23" t="s">
-        <v>163</v>
+      <c r="AP58" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="AQ58" s="12"/>
     </row>
@@ -7449,17 +7449,17 @@
         <v>44</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>54</v>
@@ -7471,7 +7471,7 @@
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O59" s="10" t="n">
         <v>4650075420980</v>
@@ -7520,8 +7520,8 @@
         <v>58</v>
       </c>
       <c r="AO59" s="12"/>
-      <c r="AP59" s="23" t="s">
-        <v>163</v>
+      <c r="AP59" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="AQ59" s="12"/>
     </row>
@@ -7536,17 +7536,17 @@
         <v>44</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>54</v>
@@ -7558,7 +7558,7 @@
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O60" s="10" t="n">
         <v>4650075420287</v>
@@ -7607,8 +7607,8 @@
         <v>59</v>
       </c>
       <c r="AO60" s="12"/>
-      <c r="AP60" s="23" t="s">
-        <v>163</v>
+      <c r="AP60" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="AQ60" s="12"/>
     </row>
@@ -7623,17 +7623,17 @@
         <v>44</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>54</v>
@@ -7645,7 +7645,7 @@
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O61" s="10" t="n">
         <v>4650075421147</v>
@@ -7694,8 +7694,8 @@
         <v>60</v>
       </c>
       <c r="AO61" s="13"/>
-      <c r="AP61" s="23" t="s">
-        <v>163</v>
+      <c r="AP61" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="AQ61" s="14"/>
     </row>
@@ -7710,17 +7710,17 @@
         <v>44</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>54</v>
@@ -7732,7 +7732,7 @@
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O62" s="10" t="n">
         <v>4650075421970</v>
@@ -7781,8 +7781,8 @@
         <v>61</v>
       </c>
       <c r="AO62" s="12"/>
-      <c r="AP62" s="23" t="s">
-        <v>163</v>
+      <c r="AP62" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="AQ62" s="12"/>
     </row>
@@ -7797,17 +7797,17 @@
         <v>44</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>54</v>
@@ -7819,7 +7819,7 @@
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O63" s="10" t="n">
         <v>4650075421956</v>
@@ -7868,8 +7868,8 @@
         <v>62</v>
       </c>
       <c r="AO63" s="12"/>
-      <c r="AP63" s="23" t="s">
-        <v>163</v>
+      <c r="AP63" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="AQ63" s="12"/>
     </row>
@@ -7884,17 +7884,17 @@
         <v>44</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>49</v>
@@ -7939,7 +7939,7 @@
         <v>63</v>
       </c>
       <c r="AO64" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AP64" s="12"/>
       <c r="AQ64" s="12"/>
@@ -7955,17 +7955,17 @@
         <v>44</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>54</v>
@@ -7977,7 +7977,7 @@
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O65" s="10" t="n">
         <v>5449000131805</v>
@@ -8026,8 +8026,8 @@
         <v>64</v>
       </c>
       <c r="AO65" s="12"/>
-      <c r="AP65" s="23" t="s">
-        <v>189</v>
+      <c r="AP65" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="AQ65" s="12"/>
     </row>
@@ -8042,17 +8042,17 @@
         <v>44</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>54</v>
@@ -8064,7 +8064,7 @@
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O66" s="10" t="n">
         <v>5449000044839</v>
@@ -8113,8 +8113,8 @@
         <v>65</v>
       </c>
       <c r="AO66" s="12"/>
-      <c r="AP66" s="23" t="s">
-        <v>189</v>
+      <c r="AP66" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="AQ66" s="12"/>
     </row>
@@ -8129,17 +8129,17 @@
         <v>44</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>54</v>
@@ -8151,7 +8151,7 @@
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O67" s="10" t="n">
         <v>54490130</v>
@@ -8200,8 +8200,8 @@
         <v>66</v>
       </c>
       <c r="AO67" s="12"/>
-      <c r="AP67" s="23" t="s">
-        <v>189</v>
+      <c r="AP67" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="AQ67" s="12"/>
     </row>
@@ -8216,17 +8216,17 @@
         <v>44</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>54</v>
@@ -8238,7 +8238,7 @@
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O68" s="10" t="n">
         <v>5449000044808</v>
@@ -8287,8 +8287,8 @@
         <v>67</v>
       </c>
       <c r="AO68" s="12"/>
-      <c r="AP68" s="23" t="s">
-        <v>189</v>
+      <c r="AP68" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="AQ68" s="12"/>
     </row>
@@ -8303,17 +8303,17 @@
         <v>44</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>54</v>
@@ -8325,7 +8325,7 @@
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
       <c r="N69" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O69" s="10" t="n">
         <v>5449000026583</v>
@@ -8374,8 +8374,8 @@
         <v>68</v>
       </c>
       <c r="AO69" s="12"/>
-      <c r="AP69" s="23" t="s">
-        <v>189</v>
+      <c r="AP69" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="AQ69" s="12"/>
     </row>
@@ -8390,17 +8390,17 @@
         <v>44</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>54</v>
@@ -8412,7 +8412,7 @@
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
       <c r="N70" s="15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O70" s="10" t="n">
         <v>5449000148056</v>
@@ -8461,8 +8461,8 @@
         <v>69</v>
       </c>
       <c r="AO70" s="12"/>
-      <c r="AP70" s="23" t="s">
-        <v>189</v>
+      <c r="AP70" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="AQ70" s="12"/>
     </row>
@@ -8477,17 +8477,17 @@
         <v>44</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>54</v>
@@ -8499,7 +8499,7 @@
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O71" s="10" t="n">
         <v>5449000233509</v>
@@ -8548,8 +8548,8 @@
         <v>70</v>
       </c>
       <c r="AO71" s="12"/>
-      <c r="AP71" s="23" t="s">
-        <v>189</v>
+      <c r="AP71" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="AQ71" s="12"/>
     </row>
@@ -8564,17 +8564,17 @@
         <v>44</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>54</v>
@@ -8586,7 +8586,7 @@
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O72" s="10" t="n">
         <v>4607174579736</v>
@@ -8635,8 +8635,8 @@
         <v>71</v>
       </c>
       <c r="AO72" s="12"/>
-      <c r="AP72" s="23" t="s">
-        <v>189</v>
+      <c r="AP72" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="AQ72" s="12"/>
     </row>
@@ -8651,17 +8651,17 @@
         <v>44</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>54</v>
@@ -8673,7 +8673,7 @@
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O73" s="10" t="n">
         <v>4607042438967</v>
@@ -8722,8 +8722,8 @@
         <v>72</v>
       </c>
       <c r="AO73" s="12"/>
-      <c r="AP73" s="23" t="s">
-        <v>189</v>
+      <c r="AP73" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="AQ73" s="12"/>
     </row>
@@ -8738,17 +8738,17 @@
         <v>44</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>54</v>
@@ -8760,7 +8760,7 @@
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O74" s="10" t="n">
         <v>4607042439216</v>
@@ -8809,8 +8809,8 @@
         <v>73</v>
       </c>
       <c r="AO74" s="12"/>
-      <c r="AP74" s="23" t="s">
-        <v>189</v>
+      <c r="AP74" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="AQ74" s="12"/>
     </row>
@@ -8825,17 +8825,17 @@
         <v>44</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="14" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>54</v>
@@ -8847,7 +8847,7 @@
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="14" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O75" s="10" t="n">
         <v>4607042439223</v>
@@ -8896,8 +8896,8 @@
         <v>74</v>
       </c>
       <c r="AO75" s="12"/>
-      <c r="AP75" s="23" t="s">
-        <v>189</v>
+      <c r="AP75" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="AQ75" s="12"/>
     </row>
@@ -8912,17 +8912,17 @@
         <v>44</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>54</v>
@@ -8934,7 +8934,7 @@
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O76" s="10" t="n">
         <v>4607042439155</v>
@@ -8983,8 +8983,8 @@
         <v>75</v>
       </c>
       <c r="AO76" s="12"/>
-      <c r="AP76" s="23" t="s">
-        <v>189</v>
+      <c r="AP76" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="AQ76" s="12"/>
     </row>
@@ -8999,17 +8999,17 @@
         <v>44</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>54</v>
@@ -9021,7 +9021,7 @@
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="14" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O77" s="10" t="n">
         <v>4607174574908</v>
@@ -9070,8 +9070,8 @@
         <v>76</v>
       </c>
       <c r="AO77" s="12"/>
-      <c r="AP77" s="23" t="s">
-        <v>189</v>
+      <c r="AP77" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="AQ77" s="12"/>
     </row>
@@ -9086,17 +9086,17 @@
         <v>44</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>54</v>
@@ -9108,7 +9108,7 @@
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O78" s="10" t="n">
         <v>4607174577947</v>
@@ -9157,8 +9157,8 @@
         <v>77</v>
       </c>
       <c r="AO78" s="12"/>
-      <c r="AP78" s="23" t="s">
-        <v>189</v>
+      <c r="AP78" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="AQ78" s="12"/>
     </row>
@@ -9176,17 +9176,17 @@
         <v>45</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="26" t="n">
@@ -9195,23 +9195,23 @@
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
       <c r="N79" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O79" s="27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P79" s="27"/>
       <c r="Q79" s="27"/>
       <c r="R79" s="12"/>
       <c r="S79" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="T79" s="12"/>
       <c r="U79" s="12"/>
       <c r="V79" s="12"/>
       <c r="W79" s="12"/>
       <c r="X79" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Y79" s="12"/>
       <c r="Z79" s="12"/>
@@ -9222,7 +9222,7 @@
         <v>50</v>
       </c>
       <c r="AE79" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF79" s="17" t="n">
         <v>0.04</v>
@@ -9257,17 +9257,17 @@
         <v>45</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="26" t="n">
@@ -9276,23 +9276,23 @@
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O80" s="27" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P80" s="27"/>
       <c r="Q80" s="27"/>
       <c r="R80" s="12"/>
       <c r="S80" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="T80" s="12"/>
       <c r="U80" s="12"/>
       <c r="V80" s="12"/>
       <c r="W80" s="12"/>
       <c r="X80" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Y80" s="12"/>
       <c r="Z80" s="12"/>
@@ -9303,7 +9303,7 @@
         <v>50</v>
       </c>
       <c r="AE80" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF80" s="17" t="n">
         <v>0.025</v>
@@ -9338,17 +9338,17 @@
         <v>45</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="26" t="n">
@@ -9357,23 +9357,23 @@
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
       <c r="N81" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O81" s="27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P81" s="27"/>
       <c r="Q81" s="27"/>
       <c r="R81" s="12"/>
       <c r="S81" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="T81" s="12"/>
       <c r="U81" s="12"/>
       <c r="V81" s="12"/>
       <c r="W81" s="12"/>
       <c r="X81" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Y81" s="12"/>
       <c r="Z81" s="12"/>
@@ -9384,7 +9384,7 @@
         <v>50</v>
       </c>
       <c r="AE81" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF81" s="17" t="n">
         <v>0.04</v>
@@ -9419,17 +9419,17 @@
         <v>45</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="26" t="n">
@@ -9438,23 +9438,23 @@
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
       <c r="N82" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O82" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
-      <c r="R82" s="23"/>
+      <c r="R82" s="24"/>
       <c r="S82" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="T82" s="12"/>
       <c r="U82" s="12"/>
       <c r="V82" s="12"/>
       <c r="W82" s="12"/>
       <c r="X82" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Y82" s="12"/>
       <c r="Z82" s="12"/>
@@ -9465,7 +9465,7 @@
         <v>50</v>
       </c>
       <c r="AE82" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF82" s="17" t="n">
         <v>0.025</v>
@@ -9500,17 +9500,17 @@
         <v>45</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="26" t="n">
@@ -9519,23 +9519,23 @@
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O83" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
       <c r="R83" s="12"/>
       <c r="S83" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="T83" s="12"/>
       <c r="U83" s="12"/>
       <c r="V83" s="12"/>
       <c r="W83" s="12"/>
       <c r="X83" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Y83" s="12"/>
       <c r="Z83" s="12"/>
@@ -9546,7 +9546,7 @@
         <v>50</v>
       </c>
       <c r="AE83" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF83" s="17" t="n">
         <v>0.02</v>
@@ -9581,17 +9581,17 @@
         <v>45</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J84" s="9"/>
       <c r="K84" s="9" t="n">
@@ -9604,7 +9604,7 @@
       <c r="P84" s="27"/>
       <c r="Q84" s="27"/>
       <c r="R84" s="12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S84" s="12"/>
       <c r="T84" s="12"/>
@@ -9612,7 +9612,7 @@
       <c r="V84" s="9"/>
       <c r="W84" s="12"/>
       <c r="X84" s="12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Y84" s="12"/>
       <c r="Z84" s="12"/>
@@ -9641,7 +9641,7 @@
         <v>83</v>
       </c>
       <c r="AO84" s="13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AP84" s="12"/>
       <c r="AQ84" s="12"/>
@@ -9660,14 +9660,14 @@
         <v>45</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F85" s="12"/>
       <c r="G85" s="12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I85" s="9" t="s">
         <v>54</v>
@@ -9679,10 +9679,10 @@
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O85" s="27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P85" s="27"/>
       <c r="Q85" s="27"/>
@@ -9690,14 +9690,14 @@
         <v>55</v>
       </c>
       <c r="S85" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="T85" s="12"/>
       <c r="U85" s="12"/>
       <c r="V85" s="9"/>
       <c r="W85" s="12"/>
       <c r="X85" s="12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Y85" s="12"/>
       <c r="Z85" s="12"/>
@@ -9727,7 +9727,7 @@
       </c>
       <c r="AO85" s="12"/>
       <c r="AP85" s="12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AQ85" s="12"/>
     </row>
@@ -9745,17 +9745,17 @@
         <v>45</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="9" t="n">
@@ -9776,7 +9776,7 @@
       <c r="V86" s="9"/>
       <c r="W86" s="12"/>
       <c r="X86" s="12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Y86" s="12"/>
       <c r="Z86" s="12"/>
@@ -9805,10 +9805,10 @@
         <v>85</v>
       </c>
       <c r="AO86" s="13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AP86" s="12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AQ86" s="12"/>
     </row>
@@ -9826,17 +9826,17 @@
         <v>45</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
@@ -9849,7 +9849,7 @@
         <v>5449000054227</v>
       </c>
       <c r="P87" s="16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q87" s="16"/>
       <c r="R87" s="12" t="s">
@@ -9863,7 +9863,7 @@
       <c r="V87" s="9"/>
       <c r="W87" s="12"/>
       <c r="X87" s="12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Y87" s="12"/>
       <c r="Z87" s="12"/>
@@ -9883,7 +9883,7 @@
       <c r="AH87" s="9"/>
       <c r="AI87" s="9"/>
       <c r="AJ87" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AK87" s="9"/>
       <c r="AL87" s="9"/>
@@ -9895,7 +9895,7 @@
       </c>
       <c r="AO87" s="12"/>
       <c r="AP87" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AQ87" s="12"/>
     </row>
@@ -9913,17 +9913,17 @@
         <v>45</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F88" s="12"/>
       <c r="G88" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I88" s="9" t="s">
         <v>262</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
@@ -9936,7 +9936,7 @@
         <v>5449000000439</v>
       </c>
       <c r="P88" s="16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q88" s="16"/>
       <c r="R88" s="12" t="s">
@@ -9950,7 +9950,7 @@
       <c r="V88" s="9"/>
       <c r="W88" s="12"/>
       <c r="X88" s="12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Y88" s="12"/>
       <c r="Z88" s="12"/>
@@ -9970,7 +9970,7 @@
       <c r="AH88" s="9"/>
       <c r="AI88" s="9"/>
       <c r="AJ88" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AK88" s="9"/>
       <c r="AL88" s="9"/>
@@ -9982,7 +9982,7 @@
       </c>
       <c r="AO88" s="12"/>
       <c r="AP88" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AQ88" s="12"/>
     </row>
@@ -10000,17 +10000,17 @@
         <v>45</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F89" s="12"/>
       <c r="G89" s="12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J89" s="9"/>
       <c r="K89" s="9" t="n">
@@ -10023,7 +10023,7 @@
       <c r="P89" s="27"/>
       <c r="Q89" s="27"/>
       <c r="R89" s="12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S89" s="12"/>
       <c r="T89" s="12"/>
@@ -10031,7 +10031,7 @@
       <c r="V89" s="30"/>
       <c r="W89" s="12"/>
       <c r="X89" s="12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Y89" s="12"/>
       <c r="Z89" s="12"/>
@@ -10060,7 +10060,7 @@
         <v>88</v>
       </c>
       <c r="AO89" s="13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AP89" s="12"/>
       <c r="AQ89" s="12"/>
@@ -10079,14 +10079,14 @@
         <v>45</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F90" s="12"/>
       <c r="G90" s="12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I90" s="9" t="s">
         <v>54</v>
@@ -10098,10 +10098,10 @@
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
       <c r="N90" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O90" s="27" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P90" s="27"/>
       <c r="Q90" s="27"/>
@@ -10109,14 +10109,14 @@
         <v>55</v>
       </c>
       <c r="S90" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="T90" s="12"/>
       <c r="U90" s="12"/>
       <c r="V90" s="30"/>
       <c r="W90" s="12"/>
       <c r="X90" s="12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Y90" s="12"/>
       <c r="Z90" s="12"/>
@@ -10146,7 +10146,7 @@
       </c>
       <c r="AO90" s="12"/>
       <c r="AP90" s="12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AQ90" s="12"/>
     </row>
@@ -10164,17 +10164,17 @@
         <v>45</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
@@ -10199,7 +10199,7 @@
       <c r="V91" s="9"/>
       <c r="W91" s="12"/>
       <c r="X91" s="12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Y91" s="12"/>
       <c r="Z91" s="12"/>
@@ -10219,7 +10219,7 @@
       <c r="AH91" s="9"/>
       <c r="AI91" s="9"/>
       <c r="AJ91" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AK91" s="9"/>
       <c r="AL91" s="9"/>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="AO91" s="12"/>
       <c r="AP91" s="12" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AQ91" s="12"/>
     </row>
@@ -10249,17 +10249,17 @@
         <v>45</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J92" s="9"/>
       <c r="K92" s="9" t="n">
@@ -10272,7 +10272,7 @@
       <c r="P92" s="27"/>
       <c r="Q92" s="27"/>
       <c r="R92" s="12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S92" s="12"/>
       <c r="T92" s="12"/>
@@ -10280,7 +10280,7 @@
       <c r="V92" s="30"/>
       <c r="W92" s="12"/>
       <c r="X92" s="12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Y92" s="12"/>
       <c r="Z92" s="12"/>
@@ -10309,7 +10309,7 @@
         <v>91</v>
       </c>
       <c r="AO92" s="13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AP92" s="12"/>
       <c r="AQ92" s="12"/>
@@ -10328,14 +10328,14 @@
         <v>45</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F93" s="12"/>
       <c r="G93" s="12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>54</v>
@@ -10347,10 +10347,10 @@
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O93" s="27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P93" s="27"/>
       <c r="Q93" s="27"/>
@@ -10358,14 +10358,14 @@
         <v>55</v>
       </c>
       <c r="S93" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="T93" s="12"/>
       <c r="U93" s="12"/>
       <c r="V93" s="30"/>
       <c r="W93" s="12"/>
       <c r="X93" s="12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Y93" s="12"/>
       <c r="Z93" s="12"/>
@@ -10395,7 +10395,7 @@
       </c>
       <c r="AO93" s="12"/>
       <c r="AP93" s="12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AQ93" s="12"/>
     </row>
@@ -10413,17 +10413,17 @@
         <v>45</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J94" s="9"/>
       <c r="K94" s="9" t="n">
@@ -10444,7 +10444,7 @@
       <c r="V94" s="30"/>
       <c r="W94" s="12"/>
       <c r="X94" s="12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Y94" s="12"/>
       <c r="Z94" s="12"/>
@@ -10473,10 +10473,10 @@
         <v>93</v>
       </c>
       <c r="AO94" s="13" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AP94" s="12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AQ94" s="12"/>
     </row>
@@ -10494,24 +10494,24 @@
         <v>45</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F95" s="12"/>
       <c r="G95" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
-      <c r="N95" s="23" t="s">
-        <v>131</v>
+      <c r="N95" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="O95" s="16" t="n">
         <v>4607042434877</v>
@@ -10529,7 +10529,7 @@
       <c r="V95" s="30"/>
       <c r="W95" s="12"/>
       <c r="X95" s="12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Y95" s="12"/>
       <c r="Z95" s="12"/>
@@ -10549,7 +10549,7 @@
       <c r="AH95" s="9"/>
       <c r="AI95" s="9"/>
       <c r="AJ95" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AK95" s="9"/>
       <c r="AL95" s="9"/>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="AO95" s="12"/>
       <c r="AP95" s="12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AQ95" s="12"/>
     </row>
@@ -10579,24 +10579,24 @@
         <v>45</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F96" s="12"/>
       <c r="G96" s="9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
-      <c r="N96" s="23" t="s">
-        <v>133</v>
+      <c r="N96" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="O96" s="16" t="n">
         <v>4607042434891</v>
@@ -10614,7 +10614,7 @@
       <c r="V96" s="30"/>
       <c r="W96" s="12"/>
       <c r="X96" s="12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Y96" s="12"/>
       <c r="Z96" s="12"/>
@@ -10634,7 +10634,7 @@
       <c r="AH96" s="9"/>
       <c r="AI96" s="9"/>
       <c r="AJ96" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AK96" s="9"/>
       <c r="AL96" s="9"/>
@@ -10646,7 +10646,7 @@
       </c>
       <c r="AO96" s="12"/>
       <c r="AP96" s="12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AQ96" s="12"/>
     </row>
@@ -10664,17 +10664,17 @@
         <v>45</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="9" t="n">
@@ -10687,7 +10687,7 @@
       <c r="P97" s="27"/>
       <c r="Q97" s="27"/>
       <c r="R97" s="12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S97" s="12"/>
       <c r="T97" s="12"/>
@@ -10695,7 +10695,7 @@
       <c r="V97" s="30"/>
       <c r="W97" s="12"/>
       <c r="X97" s="12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y97" s="12"/>
       <c r="Z97" s="12"/>
@@ -10724,7 +10724,7 @@
         <v>96</v>
       </c>
       <c r="AO97" s="13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AP97" s="12"/>
       <c r="AQ97" s="12"/>
@@ -10743,14 +10743,14 @@
         <v>45</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I98" s="9" t="s">
         <v>54</v>
@@ -10762,10 +10762,10 @@
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
       <c r="N98" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O98" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P98" s="10"/>
       <c r="Q98" s="27"/>
@@ -10773,14 +10773,14 @@
         <v>55</v>
       </c>
       <c r="S98" s="12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="T98" s="12"/>
       <c r="U98" s="12"/>
       <c r="V98" s="30"/>
       <c r="W98" s="12"/>
       <c r="X98" s="12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y98" s="12"/>
       <c r="Z98" s="12"/>
@@ -10810,7 +10810,7 @@
       </c>
       <c r="AO98" s="12"/>
       <c r="AP98" s="12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AQ98" s="12"/>
     </row>
@@ -10828,17 +10828,17 @@
         <v>45</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J99" s="9"/>
       <c r="K99" s="9" t="n">
@@ -10859,7 +10859,7 @@
       <c r="V99" s="30"/>
       <c r="W99" s="12"/>
       <c r="X99" s="12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y99" s="12"/>
       <c r="Z99" s="12"/>
@@ -10888,10 +10888,10 @@
         <v>98</v>
       </c>
       <c r="AO99" s="13" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AP99" s="12" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AQ99" s="12"/>
     </row>
@@ -10909,24 +10909,24 @@
         <v>45</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F100" s="12"/>
       <c r="G100" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
       <c r="N100" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O100" s="27" t="n">
         <v>5449000233509</v>
@@ -10944,7 +10944,7 @@
       <c r="V100" s="30"/>
       <c r="W100" s="12"/>
       <c r="X100" s="12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y100" s="12"/>
       <c r="Z100" s="12"/>
@@ -10964,7 +10964,7 @@
       <c r="AH100" s="9"/>
       <c r="AI100" s="9"/>
       <c r="AJ100" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AK100" s="9"/>
       <c r="AL100" s="9"/>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="AO100" s="12"/>
       <c r="AP100" s="12" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AQ100" s="12"/>
     </row>
@@ -10994,24 +10994,24 @@
         <v>45</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F101" s="12"/>
       <c r="G101" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
       <c r="N101" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O101" s="27" t="n">
         <v>5449000189318</v>
@@ -11029,7 +11029,7 @@
       <c r="V101" s="30"/>
       <c r="W101" s="12"/>
       <c r="X101" s="12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Y101" s="12"/>
       <c r="Z101" s="12"/>
@@ -11049,7 +11049,7 @@
       <c r="AH101" s="9"/>
       <c r="AI101" s="9"/>
       <c r="AJ101" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AK101" s="9"/>
       <c r="AL101" s="9"/>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="AO101" s="12"/>
       <c r="AP101" s="12" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AQ101" s="12"/>
     </row>
@@ -11076,20 +11076,20 @@
         <v>44</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F102" s="12"/>
       <c r="G102" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J102" s="9"/>
       <c r="K102" s="9" t="n">
@@ -11119,7 +11119,7 @@
         <v>50</v>
       </c>
       <c r="AE102" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF102" s="17" t="n">
         <v>0.03</v>
@@ -11137,10 +11137,10 @@
         <v>101</v>
       </c>
       <c r="AO102" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AP102" s="31" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AQ102" s="12"/>
     </row>
@@ -11155,20 +11155,20 @@
         <v>44</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F103" s="12"/>
       <c r="G103" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J103" s="9"/>
       <c r="K103" s="9" t="n">
@@ -11178,7 +11178,7 @@
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
       <c r="O103" s="9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P103" s="10"/>
       <c r="Q103" s="10"/>
@@ -11186,7 +11186,7 @@
         <v>55</v>
       </c>
       <c r="S103" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
@@ -11194,7 +11194,7 @@
       <c r="W103" s="9"/>
       <c r="X103" s="9"/>
       <c r="Y103" s="9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Z103" s="9"/>
       <c r="AA103" s="9"/>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="AO103" s="9"/>
       <c r="AP103" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AQ103" s="12"/>
     </row>
@@ -11238,20 +11238,20 @@
         <v>44</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F104" s="12"/>
       <c r="G104" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9" t="n">
@@ -11261,7 +11261,7 @@
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
       <c r="O104" s="12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P104" s="10"/>
       <c r="Q104" s="10"/>
@@ -11269,7 +11269,7 @@
         <v>55</v>
       </c>
       <c r="S104" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="T104" s="12"/>
       <c r="U104" s="9"/>
@@ -11277,7 +11277,7 @@
       <c r="W104" s="9"/>
       <c r="X104" s="9"/>
       <c r="Y104" s="12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Z104" s="9"/>
       <c r="AA104" s="9"/>
@@ -11306,7 +11306,7 @@
       </c>
       <c r="AO104" s="9"/>
       <c r="AP104" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AQ104" s="12"/>
     </row>
@@ -11321,20 +11321,20 @@
         <v>44</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F105" s="12"/>
       <c r="G105" s="32" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H105" s="32" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J105" s="9"/>
       <c r="K105" s="9" t="n">
@@ -11344,7 +11344,7 @@
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
       <c r="O105" s="33" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P105" s="10"/>
       <c r="Q105" s="10"/>
@@ -11352,7 +11352,7 @@
         <v>55</v>
       </c>
       <c r="S105" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="T105" s="12"/>
       <c r="U105" s="9"/>
@@ -11360,7 +11360,7 @@
       <c r="W105" s="9"/>
       <c r="X105" s="9"/>
       <c r="Y105" s="33" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
@@ -11389,7 +11389,7 @@
       </c>
       <c r="AO105" s="9"/>
       <c r="AP105" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AQ105" s="12"/>
     </row>
@@ -11404,20 +11404,20 @@
         <v>44</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J106" s="9"/>
       <c r="K106" s="9" t="n">
@@ -11438,7 +11438,7 @@
       <c r="V106" s="9"/>
       <c r="W106" s="9"/>
       <c r="X106" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Y106" s="9"/>
       <c r="Z106" s="9"/>
@@ -11467,10 +11467,10 @@
         <v>105</v>
       </c>
       <c r="AO106" s="13" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AP106" s="35" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AQ106" s="12"/>
     </row>
@@ -11485,17 +11485,17 @@
         <v>44</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I107" s="9" t="s">
         <v>54</v>
@@ -11507,10 +11507,10 @@
       <c r="L107" s="12"/>
       <c r="M107" s="12"/>
       <c r="N107" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O107" s="12" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P107" s="12"/>
       <c r="Q107" s="12"/>
@@ -11518,14 +11518,14 @@
         <v>55</v>
       </c>
       <c r="S107" s="12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="T107" s="12"/>
       <c r="U107" s="12"/>
       <c r="V107" s="12"/>
       <c r="W107" s="12"/>
       <c r="X107" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Y107" s="12"/>
       <c r="Z107" s="12"/>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="AO107" s="12"/>
       <c r="AP107" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AQ107" s="12"/>
     </row>
@@ -11573,17 +11573,17 @@
         <v>45</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J108" s="9"/>
       <c r="K108" s="0"/>
@@ -11594,7 +11594,7 @@
       <c r="P108" s="27"/>
       <c r="Q108" s="27"/>
       <c r="R108" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="S108" s="12"/>
       <c r="T108" s="12"/>
@@ -11611,7 +11611,7 @@
         <v>50</v>
       </c>
       <c r="AE108" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF108" s="17" t="n">
         <v>0.1</v>
@@ -11620,7 +11620,7 @@
       <c r="AH108" s="9"/>
       <c r="AI108" s="9"/>
       <c r="AJ108" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AK108" s="9"/>
       <c r="AL108" s="9"/>
@@ -11631,7 +11631,7 @@
         <v>107</v>
       </c>
       <c r="AO108" s="37" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AP108" s="12"/>
       <c r="AQ108" s="12"/>
@@ -11650,17 +11650,17 @@
         <v>45</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F109" s="12"/>
       <c r="G109" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J109" s="9"/>
       <c r="K109" s="9" t="n">
@@ -11671,27 +11671,27 @@
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O109" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P109" s="10"/>
       <c r="Q109" s="10"/>
       <c r="R109" s="12"/>
       <c r="S109" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="T109" s="12"/>
       <c r="U109" s="12"/>
       <c r="V109" s="12"/>
       <c r="W109" s="12"/>
       <c r="X109" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Y109" s="12"/>
       <c r="Z109" s="38" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AA109" s="9"/>
       <c r="AB109" s="12"/>
@@ -11708,10 +11708,10 @@
       <c r="AG109" s="9"/>
       <c r="AH109" s="9"/>
       <c r="AI109" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AJ109" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AK109" s="9"/>
       <c r="AL109" s="9"/>
@@ -11723,7 +11723,7 @@
       </c>
       <c r="AO109" s="12"/>
       <c r="AP109" s="12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AQ109" s="12"/>
     </row>
@@ -11741,17 +11741,17 @@
         <v>45</v>
       </c>
       <c r="E110" s="38" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="39" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H110" s="39" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I110" s="39" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J110" s="39"/>
       <c r="K110" s="39" t="n">
@@ -11762,26 +11762,26 @@
       </c>
       <c r="M110" s="39"/>
       <c r="N110" s="38" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O110" s="40" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P110" s="40"/>
       <c r="Q110" s="40"/>
       <c r="R110" s="38"/>
       <c r="S110" s="39" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="T110" s="38"/>
       <c r="U110" s="38"/>
       <c r="V110" s="38"/>
       <c r="W110" s="38"/>
       <c r="X110" s="39" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Y110" s="38" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Z110" s="38"/>
       <c r="AA110" s="39"/>
@@ -11799,10 +11799,10 @@
       <c r="AG110" s="39"/>
       <c r="AH110" s="39"/>
       <c r="AI110" s="39" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AJ110" s="39" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AK110" s="39"/>
       <c r="AL110" s="39"/>
@@ -11814,7 +11814,7 @@
       </c>
       <c r="AO110" s="38"/>
       <c r="AP110" s="38" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AQ110" s="38"/>
     </row>
@@ -11832,17 +11832,17 @@
         <v>45</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F111" s="12"/>
       <c r="G111" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J111" s="9"/>
       <c r="K111" s="9" t="n">
@@ -11851,23 +11851,23 @@
       <c r="L111" s="9"/>
       <c r="M111" s="9"/>
       <c r="N111" s="12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O111" s="27" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P111" s="27"/>
       <c r="Q111" s="27"/>
       <c r="R111" s="12"/>
       <c r="S111" s="12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="T111" s="12"/>
       <c r="U111" s="12"/>
       <c r="V111" s="12"/>
       <c r="W111" s="12"/>
       <c r="X111" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Y111" s="12"/>
       <c r="Z111" s="12"/>
@@ -11897,7 +11897,7 @@
       </c>
       <c r="AO111" s="12"/>
       <c r="AP111" s="12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AQ111" s="12"/>
     </row>
@@ -11915,17 +11915,17 @@
         <v>45</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F112" s="12"/>
       <c r="G112" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J112" s="0"/>
       <c r="K112" s="14" t="n">
@@ -11935,23 +11935,23 @@
       <c r="M112" s="9"/>
       <c r="N112" s="12"/>
       <c r="O112" s="42" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P112" s="27"/>
       <c r="Q112" s="27"/>
       <c r="R112" s="12"/>
       <c r="S112" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="T112" s="12"/>
       <c r="U112" s="12"/>
       <c r="V112" s="42"/>
       <c r="W112" s="12"/>
       <c r="X112" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y112" s="42" t="s">
         <v>353</v>
-      </c>
-      <c r="Y112" s="42" t="s">
-        <v>351</v>
       </c>
       <c r="Z112" s="42"/>
       <c r="AA112" s="9"/>
@@ -11969,10 +11969,10 @@
       <c r="AG112" s="9"/>
       <c r="AH112" s="9"/>
       <c r="AI112" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AJ112" s="9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AK112" s="9"/>
       <c r="AL112" s="9"/>
@@ -11984,7 +11984,7 @@
       </c>
       <c r="AO112" s="12"/>
       <c r="AP112" s="35" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AQ112" s="12"/>
     </row>
@@ -12002,17 +12002,17 @@
         <v>45</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F113" s="12"/>
       <c r="G113" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="J113" s="14"/>
       <c r="K113" s="9"/>
@@ -12023,10 +12023,10 @@
         <v>27</v>
       </c>
       <c r="N113" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O113" s="27" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P113" s="27"/>
       <c r="Q113" s="27"/>
@@ -12037,7 +12037,7 @@
       <c r="V113" s="12"/>
       <c r="W113" s="12"/>
       <c r="X113" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Y113" s="12"/>
       <c r="Z113" s="12"/>
@@ -12048,7 +12048,7 @@
         <v>50</v>
       </c>
       <c r="AE113" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF113" s="17" t="n">
         <v>0.025</v>
@@ -12056,10 +12056,10 @@
       <c r="AG113" s="9"/>
       <c r="AH113" s="9"/>
       <c r="AI113" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AJ113" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AK113" s="9"/>
       <c r="AL113" s="9"/>
@@ -12071,7 +12071,7 @@
       </c>
       <c r="AO113" s="12"/>
       <c r="AP113" s="35" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AQ113" s="12"/>
     </row>
@@ -12089,17 +12089,17 @@
         <v>45</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I114" s="43" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J114" s="14"/>
       <c r="K114" s="9"/>
@@ -12110,7 +12110,7 @@
       <c r="P114" s="27"/>
       <c r="Q114" s="27"/>
       <c r="R114" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S114" s="12"/>
       <c r="T114" s="12"/>
@@ -12118,7 +12118,7 @@
       <c r="V114" s="12"/>
       <c r="W114" s="12"/>
       <c r="X114" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Y114" s="12"/>
       <c r="Z114" s="12"/>
@@ -12129,7 +12129,7 @@
         <v>50</v>
       </c>
       <c r="AE114" s="43" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF114" s="17" t="n">
         <v>0.025</v>
@@ -12141,10 +12141,10 @@
         <v>1</v>
       </c>
       <c r="AI114" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AJ114" s="39" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AK114" s="9"/>
       <c r="AL114" s="9"/>
@@ -12155,10 +12155,10 @@
         <v>112</v>
       </c>
       <c r="AO114" s="9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AP114" s="35" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AQ114" s="12"/>
     </row>
@@ -12176,17 +12176,17 @@
         <v>45</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F115" s="12"/>
       <c r="G115" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J115" s="0"/>
       <c r="K115" s="9" t="n">
@@ -12199,7 +12199,7 @@
       <c r="P115" s="27"/>
       <c r="Q115" s="27"/>
       <c r="R115" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S115" s="12"/>
       <c r="T115" s="12"/>
@@ -12208,7 +12208,7 @@
       <c r="W115" s="12"/>
       <c r="X115" s="9"/>
       <c r="Y115" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z115" s="12"/>
       <c r="AA115" s="9"/>
@@ -12218,7 +12218,7 @@
         <v>50</v>
       </c>
       <c r="AE115" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF115" s="45" t="n">
         <v>1</v>
@@ -12230,7 +12230,7 @@
         <v>1</v>
       </c>
       <c r="AI115" s="39" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AJ115" s="39"/>
       <c r="AK115" s="9"/>
@@ -12242,10 +12242,10 @@
         <v>113</v>
       </c>
       <c r="AO115" s="13" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AP115" s="35" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AQ115" s="12"/>
     </row>
@@ -12263,14 +12263,14 @@
         <v>45</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I116" s="14" t="s">
         <v>54</v>
@@ -12301,7 +12301,7 @@
       <c r="W116" s="12"/>
       <c r="X116" s="9"/>
       <c r="Y116" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z116" s="12"/>
       <c r="AA116" s="9"/>
@@ -12330,7 +12330,7 @@
       </c>
       <c r="AO116" s="12"/>
       <c r="AP116" s="35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ116" s="12"/>
     </row>
@@ -12348,14 +12348,14 @@
         <v>45</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="46" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H117" s="46" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I117" s="14" t="s">
         <v>54</v>
@@ -12367,10 +12367,10 @@
       <c r="L117" s="9"/>
       <c r="M117" s="9"/>
       <c r="N117" s="47" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O117" s="47" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P117" s="27"/>
       <c r="Q117" s="27"/>
@@ -12386,7 +12386,7 @@
       <c r="W117" s="12"/>
       <c r="X117" s="9"/>
       <c r="Y117" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z117" s="12"/>
       <c r="AA117" s="9"/>
@@ -12415,7 +12415,7 @@
       </c>
       <c r="AO117" s="12"/>
       <c r="AP117" s="35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ117" s="12"/>
     </row>
@@ -12433,14 +12433,14 @@
         <v>45</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F118" s="12"/>
       <c r="G118" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I118" s="14" t="s">
         <v>54</v>
@@ -12471,7 +12471,7 @@
       <c r="W118" s="12"/>
       <c r="X118" s="9"/>
       <c r="Y118" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z118" s="12"/>
       <c r="AA118" s="9"/>
@@ -12500,7 +12500,7 @@
       </c>
       <c r="AO118" s="12"/>
       <c r="AP118" s="35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ118" s="12"/>
     </row>
@@ -12518,14 +12518,14 @@
         <v>45</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I119" s="14" t="s">
         <v>54</v>
@@ -12556,7 +12556,7 @@
       <c r="W119" s="12"/>
       <c r="X119" s="9"/>
       <c r="Y119" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z119" s="12"/>
       <c r="AA119" s="9"/>
@@ -12585,7 +12585,7 @@
       </c>
       <c r="AO119" s="12"/>
       <c r="AP119" s="35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ119" s="12"/>
     </row>
@@ -12603,14 +12603,14 @@
         <v>45</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F120" s="12"/>
       <c r="G120" s="46" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H120" s="46" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I120" s="14" t="s">
         <v>54</v>
@@ -12622,7 +12622,7 @@
       <c r="L120" s="9"/>
       <c r="M120" s="9"/>
       <c r="N120" s="47" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O120" s="48" t="n">
         <v>5449000214744</v>
@@ -12641,7 +12641,7 @@
       <c r="W120" s="12"/>
       <c r="X120" s="9"/>
       <c r="Y120" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z120" s="12"/>
       <c r="AA120" s="9"/>
@@ -12670,7 +12670,7 @@
       </c>
       <c r="AO120" s="12"/>
       <c r="AP120" s="35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ120" s="12"/>
     </row>
@@ -12688,14 +12688,14 @@
         <v>45</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I121" s="14" t="s">
         <v>54</v>
@@ -12726,7 +12726,7 @@
       <c r="W121" s="12"/>
       <c r="X121" s="9"/>
       <c r="Y121" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z121" s="12"/>
       <c r="AA121" s="9"/>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="AO121" s="12"/>
       <c r="AP121" s="35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ121" s="12"/>
     </row>
@@ -12773,14 +12773,14 @@
         <v>45</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I122" s="14" t="s">
         <v>54</v>
@@ -12811,7 +12811,7 @@
       <c r="W122" s="12"/>
       <c r="X122" s="9"/>
       <c r="Y122" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z122" s="12"/>
       <c r="AA122" s="9"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="AO122" s="12"/>
       <c r="AP122" s="35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ122" s="12"/>
     </row>
@@ -12858,14 +12858,14 @@
         <v>45</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F123" s="12"/>
       <c r="G123" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I123" s="14" t="s">
         <v>54</v>
@@ -12896,7 +12896,7 @@
       <c r="W123" s="12"/>
       <c r="X123" s="9"/>
       <c r="Y123" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z123" s="12"/>
       <c r="AA123" s="9"/>
@@ -12925,7 +12925,7 @@
       </c>
       <c r="AO123" s="12"/>
       <c r="AP123" s="35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ123" s="12"/>
     </row>
@@ -12943,14 +12943,14 @@
         <v>45</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="I124" s="14" t="s">
         <v>54</v>
@@ -12981,7 +12981,7 @@
       <c r="W124" s="12"/>
       <c r="X124" s="9"/>
       <c r="Y124" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z124" s="12"/>
       <c r="AA124" s="9"/>
@@ -13010,7 +13010,7 @@
       </c>
       <c r="AO124" s="12"/>
       <c r="AP124" s="35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ124" s="12"/>
     </row>
@@ -13028,14 +13028,14 @@
         <v>45</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I125" s="14" t="s">
         <v>54</v>
@@ -13066,7 +13066,7 @@
       <c r="W125" s="12"/>
       <c r="X125" s="9"/>
       <c r="Y125" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z125" s="12"/>
       <c r="AA125" s="9"/>
@@ -13095,7 +13095,7 @@
       </c>
       <c r="AO125" s="12"/>
       <c r="AP125" s="35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ125" s="12"/>
     </row>
@@ -13113,14 +13113,14 @@
         <v>45</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F126" s="12"/>
       <c r="G126" s="9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I126" s="14" t="s">
         <v>54</v>
@@ -13151,7 +13151,7 @@
       <c r="W126" s="12"/>
       <c r="X126" s="9"/>
       <c r="Y126" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z126" s="12"/>
       <c r="AA126" s="9"/>
@@ -13180,7 +13180,7 @@
       </c>
       <c r="AO126" s="12"/>
       <c r="AP126" s="35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ126" s="12"/>
     </row>
@@ -13198,14 +13198,14 @@
         <v>45</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I127" s="14" t="s">
         <v>54</v>
@@ -13217,10 +13217,10 @@
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
       <c r="N127" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="O127" s="49" t="s">
-        <v>398</v>
+        <v>399</v>
+      </c>
+      <c r="O127" s="27" t="s">
+        <v>400</v>
       </c>
       <c r="P127" s="27"/>
       <c r="Q127" s="27"/>
@@ -13236,7 +13236,7 @@
       <c r="W127" s="12"/>
       <c r="X127" s="9"/>
       <c r="Y127" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z127" s="12"/>
       <c r="AA127" s="9"/>
@@ -13265,7 +13265,7 @@
       </c>
       <c r="AO127" s="12"/>
       <c r="AP127" s="35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ127" s="12"/>
     </row>
@@ -13283,14 +13283,14 @@
         <v>45</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I128" s="14" t="s">
         <v>54</v>
@@ -13302,10 +13302,10 @@
       <c r="L128" s="9"/>
       <c r="M128" s="9"/>
       <c r="N128" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O128" s="27" t="s">
-        <v>402</v>
+        <v>403</v>
+      </c>
+      <c r="O128" s="49" t="s">
+        <v>404</v>
       </c>
       <c r="P128" s="27"/>
       <c r="Q128" s="27"/>
@@ -13321,7 +13321,7 @@
       <c r="W128" s="12"/>
       <c r="X128" s="9"/>
       <c r="Y128" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z128" s="12"/>
       <c r="AA128" s="9"/>
@@ -13350,7 +13350,7 @@
       </c>
       <c r="AO128" s="12"/>
       <c r="AP128" s="35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ128" s="12"/>
     </row>
@@ -13368,14 +13368,14 @@
         <v>45</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F129" s="12"/>
       <c r="G129" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I129" s="14" t="s">
         <v>54</v>
@@ -13406,7 +13406,7 @@
       <c r="W129" s="12"/>
       <c r="X129" s="9"/>
       <c r="Y129" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z129" s="12"/>
       <c r="AA129" s="9"/>
@@ -13435,7 +13435,7 @@
       </c>
       <c r="AO129" s="12"/>
       <c r="AP129" s="35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ129" s="12"/>
     </row>
@@ -13453,14 +13453,14 @@
         <v>45</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F130" s="12"/>
       <c r="G130" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="I130" s="14" t="s">
         <v>54</v>
@@ -13491,7 +13491,7 @@
       <c r="W130" s="12"/>
       <c r="X130" s="9"/>
       <c r="Y130" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z130" s="12"/>
       <c r="AA130" s="9"/>
@@ -13520,7 +13520,7 @@
       </c>
       <c r="AO130" s="12"/>
       <c r="AP130" s="35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ130" s="12"/>
     </row>
@@ -13538,14 +13538,14 @@
         <v>45</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F131" s="12"/>
       <c r="G131" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>54</v>
@@ -13576,7 +13576,7 @@
       <c r="W131" s="12"/>
       <c r="X131" s="9"/>
       <c r="Y131" s="39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z131" s="12"/>
       <c r="AA131" s="9"/>
@@ -13605,7 +13605,7 @@
       </c>
       <c r="AO131" s="12"/>
       <c r="AP131" s="35" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AQ131" s="12"/>
     </row>
@@ -13623,17 +13623,17 @@
         <v>45</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="9" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J132" s="0"/>
       <c r="K132" s="9" t="n">
@@ -13646,7 +13646,7 @@
       <c r="P132" s="27"/>
       <c r="Q132" s="27"/>
       <c r="R132" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S132" s="12"/>
       <c r="T132" s="12"/>
@@ -13655,7 +13655,7 @@
       <c r="W132" s="12"/>
       <c r="X132" s="9"/>
       <c r="Y132" s="39" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Z132" s="12"/>
       <c r="AA132" s="9"/>
@@ -13665,7 +13665,7 @@
         <v>50</v>
       </c>
       <c r="AE132" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF132" s="45" t="n">
         <v>0.5</v>
@@ -13677,7 +13677,7 @@
         <v>1</v>
       </c>
       <c r="AI132" s="39" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AJ132" s="39"/>
       <c r="AK132" s="9"/>
@@ -13689,10 +13689,10 @@
         <v>130</v>
       </c>
       <c r="AO132" s="13" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AP132" s="35" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AQ132" s="12"/>
     </row>
@@ -13710,14 +13710,14 @@
         <v>45</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F133" s="12"/>
       <c r="G133" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I133" s="14" t="s">
         <v>54</v>
@@ -13748,7 +13748,7 @@
       <c r="W133" s="12"/>
       <c r="X133" s="9"/>
       <c r="Y133" s="39" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Z133" s="12"/>
       <c r="AA133" s="9"/>
@@ -13777,7 +13777,7 @@
       </c>
       <c r="AO133" s="12"/>
       <c r="AP133" s="35" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AQ133" s="12"/>
     </row>
@@ -13795,14 +13795,14 @@
         <v>45</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F134" s="12"/>
       <c r="G134" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I134" s="14" t="s">
         <v>54</v>
@@ -13833,7 +13833,7 @@
       <c r="W134" s="12"/>
       <c r="X134" s="9"/>
       <c r="Y134" s="39" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Z134" s="12"/>
       <c r="AA134" s="9"/>
@@ -13862,7 +13862,7 @@
       </c>
       <c r="AO134" s="12"/>
       <c r="AP134" s="35" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AQ134" s="12"/>
     </row>
@@ -13880,14 +13880,14 @@
         <v>45</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F135" s="12"/>
       <c r="G135" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I135" s="14" t="s">
         <v>54</v>
@@ -13918,7 +13918,7 @@
       <c r="W135" s="12"/>
       <c r="X135" s="9"/>
       <c r="Y135" s="39" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Z135" s="12"/>
       <c r="AA135" s="9"/>
@@ -13947,7 +13947,7 @@
       </c>
       <c r="AO135" s="12"/>
       <c r="AP135" s="35" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AQ135" s="12"/>
     </row>
@@ -13965,14 +13965,14 @@
         <v>45</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F136" s="12"/>
       <c r="G136" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I136" s="14" t="s">
         <v>54</v>
@@ -14003,7 +14003,7 @@
       <c r="W136" s="12"/>
       <c r="X136" s="9"/>
       <c r="Y136" s="39" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Z136" s="12"/>
       <c r="AA136" s="9"/>
@@ -14032,7 +14032,7 @@
       </c>
       <c r="AO136" s="12"/>
       <c r="AP136" s="35" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AQ136" s="12"/>
     </row>
@@ -14050,14 +14050,14 @@
         <v>45</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F137" s="12"/>
       <c r="G137" s="9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I137" s="14" t="s">
         <v>54</v>
@@ -14088,7 +14088,7 @@
       <c r="W137" s="12"/>
       <c r="X137" s="9"/>
       <c r="Y137" s="39" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Z137" s="12"/>
       <c r="AA137" s="9"/>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="AO137" s="12"/>
       <c r="AP137" s="35" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AQ137" s="12"/>
     </row>
@@ -14135,14 +14135,14 @@
         <v>45</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="I138" s="14" t="s">
         <v>54</v>
@@ -14173,7 +14173,7 @@
       <c r="W138" s="12"/>
       <c r="X138" s="9"/>
       <c r="Y138" s="39" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Z138" s="12"/>
       <c r="AA138" s="9"/>
@@ -14202,7 +14202,7 @@
       </c>
       <c r="AO138" s="12"/>
       <c r="AP138" s="35" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AQ138" s="12"/>
     </row>
@@ -14220,14 +14220,14 @@
         <v>45</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I139" s="14" t="s">
         <v>54</v>
@@ -14258,7 +14258,7 @@
       <c r="W139" s="12"/>
       <c r="X139" s="9"/>
       <c r="Y139" s="39" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Z139" s="12"/>
       <c r="AA139" s="9"/>
@@ -14287,7 +14287,7 @@
       </c>
       <c r="AO139" s="12"/>
       <c r="AP139" s="35" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AQ139" s="12"/>
     </row>
@@ -14305,14 +14305,14 @@
         <v>45</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F140" s="12"/>
       <c r="G140" s="9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I140" s="14" t="s">
         <v>54</v>
@@ -14343,7 +14343,7 @@
       <c r="W140" s="12"/>
       <c r="X140" s="9"/>
       <c r="Y140" s="39" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Z140" s="12"/>
       <c r="AA140" s="9"/>
@@ -14372,7 +14372,7 @@
       </c>
       <c r="AO140" s="12"/>
       <c r="AP140" s="35" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AQ140" s="12"/>
     </row>
@@ -14390,14 +14390,14 @@
         <v>45</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F141" s="12"/>
       <c r="G141" s="9" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I141" s="14" t="s">
         <v>54</v>
@@ -14428,7 +14428,7 @@
       <c r="W141" s="12"/>
       <c r="X141" s="9"/>
       <c r="Y141" s="39" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Z141" s="12"/>
       <c r="AA141" s="9"/>
@@ -14457,7 +14457,7 @@
       </c>
       <c r="AO141" s="12"/>
       <c r="AP141" s="35" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AQ141" s="12"/>
     </row>
@@ -14475,14 +14475,14 @@
         <v>45</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="I142" s="14" t="s">
         <v>54</v>
@@ -14513,7 +14513,7 @@
       <c r="W142" s="12"/>
       <c r="X142" s="9"/>
       <c r="Y142" s="39" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Z142" s="12"/>
       <c r="AA142" s="9"/>
@@ -14542,7 +14542,7 @@
       </c>
       <c r="AO142" s="12"/>
       <c r="AP142" s="35" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AQ142" s="12"/>
     </row>
@@ -14560,14 +14560,14 @@
         <v>45</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F143" s="12"/>
       <c r="G143" s="9" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I143" s="14" t="s">
         <v>54</v>
@@ -14598,7 +14598,7 @@
       <c r="W143" s="12"/>
       <c r="X143" s="9"/>
       <c r="Y143" s="39" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Z143" s="12"/>
       <c r="AA143" s="9"/>
@@ -14627,7 +14627,7 @@
       </c>
       <c r="AO143" s="12"/>
       <c r="AP143" s="35" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AQ143" s="12"/>
     </row>
@@ -14645,17 +14645,17 @@
         <v>45</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F144" s="12"/>
       <c r="G144" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J144" s="0"/>
       <c r="K144" s="9" t="n">
@@ -14668,7 +14668,7 @@
       <c r="P144" s="27"/>
       <c r="Q144" s="27"/>
       <c r="R144" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S144" s="12"/>
       <c r="T144" s="12"/>
@@ -14677,7 +14677,7 @@
       <c r="W144" s="12"/>
       <c r="X144" s="9"/>
       <c r="Y144" s="39" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z144" s="12"/>
       <c r="AA144" s="9"/>
@@ -14687,7 +14687,7 @@
         <v>50</v>
       </c>
       <c r="AE144" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF144" s="45" t="n">
         <v>0.5</v>
@@ -14699,7 +14699,7 @@
         <v>1</v>
       </c>
       <c r="AI144" s="39" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AJ144" s="39"/>
       <c r="AK144" s="9"/>
@@ -14711,10 +14711,10 @@
         <v>142</v>
       </c>
       <c r="AO144" s="13" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AP144" s="35" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AQ144" s="12"/>
     </row>
@@ -14732,14 +14732,14 @@
         <v>45</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F145" s="12"/>
       <c r="G145" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I145" s="14" t="s">
         <v>54</v>
@@ -14770,7 +14770,7 @@
       <c r="W145" s="12"/>
       <c r="X145" s="9"/>
       <c r="Y145" s="39" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z145" s="12"/>
       <c r="AA145" s="9"/>
@@ -14799,7 +14799,7 @@
       </c>
       <c r="AO145" s="12"/>
       <c r="AP145" s="35" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AQ145" s="12"/>
     </row>
@@ -14817,14 +14817,14 @@
         <v>45</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I146" s="14" t="s">
         <v>54</v>
@@ -14855,7 +14855,7 @@
       <c r="W146" s="12"/>
       <c r="X146" s="9"/>
       <c r="Y146" s="39" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z146" s="12"/>
       <c r="AA146" s="9"/>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="AO146" s="12"/>
       <c r="AP146" s="35" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AQ146" s="12"/>
     </row>
@@ -14902,14 +14902,14 @@
         <v>45</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F147" s="12"/>
       <c r="G147" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I147" s="14" t="s">
         <v>54</v>
@@ -14940,7 +14940,7 @@
       <c r="W147" s="12"/>
       <c r="X147" s="9"/>
       <c r="Y147" s="39" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z147" s="12"/>
       <c r="AA147" s="9"/>
@@ -14969,7 +14969,7 @@
       </c>
       <c r="AO147" s="12"/>
       <c r="AP147" s="35" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AQ147" s="12"/>
     </row>
@@ -14987,14 +14987,14 @@
         <v>45</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F148" s="12"/>
       <c r="G148" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="I148" s="14" t="s">
         <v>54</v>
@@ -15025,7 +15025,7 @@
       <c r="W148" s="12"/>
       <c r="X148" s="9"/>
       <c r="Y148" s="39" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z148" s="12"/>
       <c r="AA148" s="9"/>
@@ -15054,7 +15054,7 @@
       </c>
       <c r="AO148" s="12"/>
       <c r="AP148" s="35" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AQ148" s="12"/>
     </row>
@@ -15072,14 +15072,14 @@
         <v>45</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F149" s="12"/>
       <c r="G149" s="9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I149" s="14" t="s">
         <v>54</v>
@@ -15110,7 +15110,7 @@
       <c r="W149" s="12"/>
       <c r="X149" s="9"/>
       <c r="Y149" s="39" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z149" s="12"/>
       <c r="AA149" s="9"/>
@@ -15139,7 +15139,7 @@
       </c>
       <c r="AO149" s="12"/>
       <c r="AP149" s="35" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AQ149" s="12"/>
     </row>
@@ -15157,14 +15157,14 @@
         <v>45</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F150" s="12"/>
       <c r="G150" s="9" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I150" s="14" t="s">
         <v>54</v>
@@ -15176,10 +15176,10 @@
       <c r="L150" s="9"/>
       <c r="M150" s="9"/>
       <c r="N150" s="12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O150" s="10" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P150" s="27"/>
       <c r="Q150" s="27"/>
@@ -15195,7 +15195,7 @@
       <c r="W150" s="12"/>
       <c r="X150" s="9"/>
       <c r="Y150" s="39" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z150" s="12"/>
       <c r="AA150" s="9"/>
@@ -15224,7 +15224,7 @@
       </c>
       <c r="AO150" s="12"/>
       <c r="AP150" s="35" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AQ150" s="12"/>
     </row>
@@ -15242,14 +15242,14 @@
         <v>45</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F151" s="12"/>
       <c r="G151" s="9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="I151" s="14" t="s">
         <v>54</v>
@@ -15261,10 +15261,10 @@
       <c r="L151" s="9"/>
       <c r="M151" s="9"/>
       <c r="N151" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="O151" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
+      </c>
+      <c r="O151" s="49" t="s">
+        <v>404</v>
       </c>
       <c r="P151" s="27"/>
       <c r="Q151" s="27"/>
@@ -15280,7 +15280,7 @@
       <c r="W151" s="12"/>
       <c r="X151" s="9"/>
       <c r="Y151" s="39" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z151" s="12"/>
       <c r="AA151" s="9"/>
@@ -15309,7 +15309,7 @@
       </c>
       <c r="AO151" s="12"/>
       <c r="AP151" s="35" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AQ151" s="12"/>
     </row>
@@ -15327,14 +15327,14 @@
         <v>45</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F152" s="12"/>
       <c r="G152" s="9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I152" s="14" t="s">
         <v>54</v>
@@ -15346,10 +15346,10 @@
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
       <c r="N152" s="12" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="O152" s="10" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P152" s="27"/>
       <c r="Q152" s="27"/>
@@ -15365,7 +15365,7 @@
       <c r="W152" s="12"/>
       <c r="X152" s="9"/>
       <c r="Y152" s="39" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z152" s="12"/>
       <c r="AA152" s="9"/>
@@ -15394,7 +15394,7 @@
       </c>
       <c r="AO152" s="12"/>
       <c r="AP152" s="35" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AQ152" s="12"/>
     </row>
@@ -15412,14 +15412,14 @@
         <v>45</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F153" s="12"/>
       <c r="G153" s="9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I153" s="14" t="s">
         <v>54</v>
@@ -15450,7 +15450,7 @@
       <c r="W153" s="12"/>
       <c r="X153" s="9"/>
       <c r="Y153" s="39" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z153" s="12"/>
       <c r="AA153" s="9"/>
@@ -15479,7 +15479,7 @@
       </c>
       <c r="AO153" s="12"/>
       <c r="AP153" s="35" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AQ153" s="12"/>
     </row>
@@ -15497,14 +15497,14 @@
         <v>45</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F154" s="12"/>
       <c r="G154" s="9" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I154" s="14" t="s">
         <v>54</v>
@@ -15516,10 +15516,10 @@
       <c r="L154" s="9"/>
       <c r="M154" s="9"/>
       <c r="N154" s="12" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O154" s="10" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P154" s="27"/>
       <c r="Q154" s="27"/>
@@ -15535,7 +15535,7 @@
       <c r="W154" s="12"/>
       <c r="X154" s="9"/>
       <c r="Y154" s="39" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z154" s="12"/>
       <c r="AA154" s="9"/>
@@ -15564,7 +15564,7 @@
       </c>
       <c r="AO154" s="12"/>
       <c r="AP154" s="35" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AQ154" s="12"/>
     </row>
@@ -15582,17 +15582,17 @@
         <v>45</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F155" s="12"/>
       <c r="G155" s="9" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="I155" s="14" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J155" s="14"/>
       <c r="K155" s="9"/>
@@ -15600,20 +15600,20 @@
       <c r="M155" s="9"/>
       <c r="N155" s="9"/>
       <c r="O155" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P155" s="10"/>
       <c r="Q155" s="10"/>
       <c r="R155" s="12"/>
       <c r="S155" s="12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="T155" s="9"/>
       <c r="U155" s="9"/>
       <c r="V155" s="12"/>
       <c r="W155" s="12"/>
       <c r="X155" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Y155" s="9"/>
       <c r="Z155" s="12"/>
@@ -15624,7 +15624,7 @@
         <v>50</v>
       </c>
       <c r="AE155" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF155" s="17" t="n">
         <v>0.025</v>
@@ -15632,10 +15632,10 @@
       <c r="AG155" s="9"/>
       <c r="AH155" s="9"/>
       <c r="AI155" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AJ155" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AK155" s="9"/>
       <c r="AL155" s="9"/>
@@ -15647,7 +15647,7 @@
       </c>
       <c r="AO155" s="12"/>
       <c r="AP155" s="35" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AQ155" s="12"/>
     </row>
@@ -15661,37 +15661,37 @@
       <c r="C156" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D156" s="23" t="s">
-        <v>467</v>
+      <c r="D156" s="24" t="s">
+        <v>469</v>
       </c>
       <c r="E156" s="50" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F156" s="50" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G156" s="35" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H156" s="51" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="I156" s="52" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J156" s="52" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K156" s="52"/>
       <c r="L156" s="52"/>
-      <c r="M156" s="21"/>
-      <c r="N156" s="21"/>
+      <c r="M156" s="23"/>
+      <c r="N156" s="23"/>
       <c r="O156" s="52"/>
       <c r="P156" s="52"/>
       <c r="Q156" s="52"/>
       <c r="R156" s="52"/>
       <c r="S156" s="52" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="T156" s="52"/>
       <c r="U156" s="52"/>
@@ -15734,35 +15734,35 @@
       <c r="C157" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D157" s="23" t="s">
-        <v>467</v>
+      <c r="D157" s="24" t="s">
+        <v>469</v>
       </c>
       <c r="E157" s="50" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F157" s="50" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G157" s="50" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H157" s="51"/>
       <c r="I157" s="52" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J157" s="52" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K157" s="52"/>
       <c r="L157" s="52"/>
-      <c r="M157" s="21"/>
-      <c r="N157" s="21"/>
+      <c r="M157" s="23"/>
+      <c r="N157" s="23"/>
       <c r="O157" s="52"/>
       <c r="P157" s="52"/>
       <c r="Q157" s="52"/>
       <c r="R157" s="52"/>
       <c r="S157" s="52" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="T157" s="52"/>
       <c r="U157" s="52"/>
@@ -15789,8 +15789,8 @@
       <c r="AN157" s="12" t="n">
         <v>155</v>
       </c>
-      <c r="AO157" s="21" t="s">
-        <v>478</v>
+      <c r="AO157" s="23" t="s">
+        <v>480</v>
       </c>
       <c r="AP157" s="52"/>
       <c r="AQ157" s="52"/>
@@ -15805,37 +15805,37 @@
       <c r="C158" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D158" s="23" t="s">
-        <v>467</v>
+      <c r="D158" s="24" t="s">
+        <v>469</v>
       </c>
       <c r="E158" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="F158" s="50" t="s">
+        <v>482</v>
+      </c>
+      <c r="G158" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="H158" s="51" t="s">
+        <v>483</v>
+      </c>
+      <c r="I158" s="52" t="s">
+        <v>473</v>
+      </c>
+      <c r="J158" s="52" t="s">
         <v>479</v>
-      </c>
-      <c r="F158" s="50" t="s">
-        <v>480</v>
-      </c>
-      <c r="G158" s="50" t="s">
-        <v>323</v>
-      </c>
-      <c r="H158" s="51" t="s">
-        <v>481</v>
-      </c>
-      <c r="I158" s="52" t="s">
-        <v>471</v>
-      </c>
-      <c r="J158" s="52" t="s">
-        <v>477</v>
       </c>
       <c r="K158" s="52"/>
       <c r="L158" s="52"/>
-      <c r="M158" s="21"/>
-      <c r="N158" s="21"/>
+      <c r="M158" s="23"/>
+      <c r="N158" s="23"/>
       <c r="O158" s="52"/>
       <c r="P158" s="52"/>
       <c r="Q158" s="52"/>
       <c r="R158" s="52"/>
       <c r="S158" s="52" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="T158" s="52"/>
       <c r="U158" s="52"/>
@@ -15878,47 +15878,47 @@
       <c r="C159" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D159" s="23" t="s">
-        <v>467</v>
+      <c r="D159" s="24" t="s">
+        <v>469</v>
       </c>
       <c r="E159" s="50" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F159" s="50" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G159" s="50" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H159" s="52"/>
-      <c r="I159" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="J159" s="21" t="s">
-        <v>477</v>
+      <c r="I159" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="J159" s="23" t="s">
+        <v>479</v>
       </c>
       <c r="K159" s="52"/>
       <c r="L159" s="52"/>
-      <c r="M159" s="21"/>
-      <c r="N159" s="21"/>
+      <c r="M159" s="23"/>
+      <c r="N159" s="23"/>
       <c r="O159" s="52" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P159" s="52"/>
       <c r="Q159" s="52"/>
       <c r="R159" s="52"/>
       <c r="S159" s="52" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T159" s="52"/>
       <c r="U159" s="52"/>
       <c r="V159" s="52"/>
       <c r="W159" s="52"/>
       <c r="X159" s="54" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Y159" s="55" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Z159" s="52"/>
       <c r="AA159" s="52"/>
@@ -15953,29 +15953,29 @@
       <c r="C160" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D160" s="23" t="s">
-        <v>467</v>
+      <c r="D160" s="24" t="s">
+        <v>469</v>
       </c>
       <c r="E160" s="50" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F160" s="50" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G160" s="50" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H160" s="52"/>
-      <c r="I160" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="J160" s="21" t="s">
-        <v>493</v>
+      <c r="I160" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="J160" s="23" t="s">
+        <v>495</v>
       </c>
       <c r="K160" s="52"/>
       <c r="L160" s="52"/>
-      <c r="M160" s="21"/>
-      <c r="N160" s="21"/>
+      <c r="M160" s="23"/>
+      <c r="N160" s="23"/>
       <c r="O160" s="52" t="s">
         <v>50</v>
       </c>
@@ -15983,15 +15983,15 @@
       <c r="Q160" s="52"/>
       <c r="R160" s="52"/>
       <c r="S160" s="52" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T160" s="52"/>
       <c r="U160" s="52"/>
       <c r="V160" s="52"/>
       <c r="W160" s="52"/>
       <c r="X160" s="52"/>
-      <c r="Y160" s="21" t="s">
-        <v>494</v>
+      <c r="Y160" s="23" t="s">
+        <v>496</v>
       </c>
       <c r="Z160" s="52"/>
       <c r="AA160" s="52"/>
@@ -16026,45 +16026,45 @@
       <c r="C161" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D161" s="23" t="s">
-        <v>467</v>
+      <c r="D161" s="24" t="s">
+        <v>469</v>
       </c>
       <c r="E161" s="50" t="s">
+        <v>497</v>
+      </c>
+      <c r="F161" s="50" t="s">
+        <v>498</v>
+      </c>
+      <c r="G161" s="50" t="s">
+        <v>499</v>
+      </c>
+      <c r="H161" s="52"/>
+      <c r="I161" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="J161" s="23" t="s">
         <v>495</v>
-      </c>
-      <c r="F161" s="50" t="s">
-        <v>496</v>
-      </c>
-      <c r="G161" s="50" t="s">
-        <v>497</v>
-      </c>
-      <c r="H161" s="52"/>
-      <c r="I161" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="J161" s="21" t="s">
-        <v>493</v>
       </c>
       <c r="K161" s="52"/>
       <c r="L161" s="52"/>
-      <c r="M161" s="21"/>
-      <c r="N161" s="21"/>
+      <c r="M161" s="23"/>
+      <c r="N161" s="23"/>
       <c r="O161" s="52" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P161" s="52"/>
       <c r="Q161" s="52"/>
       <c r="R161" s="52"/>
       <c r="S161" s="52" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T161" s="52"/>
       <c r="U161" s="52"/>
       <c r="V161" s="52"/>
       <c r="W161" s="52"/>
       <c r="X161" s="52"/>
-      <c r="Y161" s="21" t="s">
-        <v>494</v>
+      <c r="Y161" s="23" t="s">
+        <v>496</v>
       </c>
       <c r="Z161" s="52"/>
       <c r="AA161" s="52"/>
@@ -16099,45 +16099,45 @@
       <c r="C162" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D162" s="23" t="s">
-        <v>467</v>
+      <c r="D162" s="24" t="s">
+        <v>469</v>
       </c>
       <c r="E162" s="50" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F162" s="50" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G162" s="50" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H162" s="52"/>
-      <c r="I162" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="J162" s="21" t="s">
-        <v>493</v>
+      <c r="I162" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="J162" s="23" t="s">
+        <v>495</v>
       </c>
       <c r="K162" s="52"/>
       <c r="L162" s="52"/>
-      <c r="M162" s="21"/>
-      <c r="N162" s="21"/>
+      <c r="M162" s="23"/>
+      <c r="N162" s="23"/>
       <c r="O162" s="52" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P162" s="52"/>
       <c r="Q162" s="52"/>
       <c r="R162" s="52"/>
       <c r="S162" s="52" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T162" s="52"/>
       <c r="U162" s="52"/>
       <c r="V162" s="52"/>
       <c r="W162" s="52"/>
       <c r="X162" s="52"/>
-      <c r="Y162" s="21" t="s">
-        <v>494</v>
+      <c r="Y162" s="23" t="s">
+        <v>496</v>
       </c>
       <c r="Z162" s="52"/>
       <c r="AA162" s="52"/>
@@ -16172,47 +16172,47 @@
       <c r="C163" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D163" s="23" t="s">
-        <v>467</v>
+      <c r="D163" s="24" t="s">
+        <v>469</v>
       </c>
       <c r="E163" s="50" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F163" s="50" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G163" s="50" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H163" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="I163" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="J163" s="21" t="s">
-        <v>493</v>
+        <v>248</v>
+      </c>
+      <c r="I163" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="J163" s="23" t="s">
+        <v>495</v>
       </c>
       <c r="K163" s="52"/>
       <c r="L163" s="52"/>
-      <c r="M163" s="21"/>
-      <c r="N163" s="21"/>
-      <c r="O163" s="21" t="s">
-        <v>507</v>
+      <c r="M163" s="23"/>
+      <c r="N163" s="23"/>
+      <c r="O163" s="23" t="s">
+        <v>509</v>
       </c>
       <c r="P163" s="52"/>
       <c r="Q163" s="52"/>
       <c r="R163" s="52"/>
       <c r="S163" s="52" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T163" s="52"/>
       <c r="U163" s="52"/>
       <c r="V163" s="52"/>
       <c r="W163" s="52"/>
       <c r="X163" s="52"/>
-      <c r="Y163" s="21" t="s">
-        <v>508</v>
+      <c r="Y163" s="23" t="s">
+        <v>510</v>
       </c>
       <c r="Z163" s="52"/>
       <c r="AA163" s="52"/>
@@ -16249,47 +16249,47 @@
       <c r="C164" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D164" s="23" t="s">
-        <v>467</v>
+      <c r="D164" s="24" t="s">
+        <v>469</v>
       </c>
       <c r="E164" s="50" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F164" s="50" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G164" s="50" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H164" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="I164" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="J164" s="21" t="s">
-        <v>493</v>
+        <v>276</v>
+      </c>
+      <c r="I164" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="J164" s="23" t="s">
+        <v>495</v>
       </c>
       <c r="K164" s="52"/>
       <c r="L164" s="52"/>
-      <c r="M164" s="21"/>
-      <c r="N164" s="21"/>
-      <c r="O164" s="21" t="s">
-        <v>507</v>
+      <c r="M164" s="23"/>
+      <c r="N164" s="23"/>
+      <c r="O164" s="23" t="s">
+        <v>509</v>
       </c>
       <c r="P164" s="52"/>
       <c r="Q164" s="52"/>
       <c r="R164" s="52"/>
       <c r="S164" s="52" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T164" s="52"/>
       <c r="U164" s="52"/>
       <c r="V164" s="52"/>
       <c r="W164" s="52"/>
       <c r="X164" s="52"/>
-      <c r="Y164" s="21" t="s">
-        <v>509</v>
+      <c r="Y164" s="23" t="s">
+        <v>511</v>
       </c>
       <c r="Z164" s="52"/>
       <c r="AA164" s="52"/>
@@ -16326,47 +16326,47 @@
       <c r="C165" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D165" s="23" t="s">
-        <v>467</v>
+      <c r="D165" s="24" t="s">
+        <v>469</v>
       </c>
       <c r="E165" s="50" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F165" s="50" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G165" s="50" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H165" s="52" t="s">
-        <v>265</v>
-      </c>
-      <c r="I165" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="J165" s="21" t="s">
-        <v>493</v>
+        <v>267</v>
+      </c>
+      <c r="I165" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="J165" s="23" t="s">
+        <v>495</v>
       </c>
       <c r="K165" s="52"/>
       <c r="L165" s="52"/>
-      <c r="M165" s="21"/>
-      <c r="N165" s="21"/>
-      <c r="O165" s="21" t="s">
-        <v>507</v>
+      <c r="M165" s="23"/>
+      <c r="N165" s="23"/>
+      <c r="O165" s="23" t="s">
+        <v>509</v>
       </c>
       <c r="P165" s="52"/>
       <c r="Q165" s="52"/>
       <c r="R165" s="52"/>
       <c r="S165" s="52" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T165" s="52"/>
       <c r="U165" s="52"/>
       <c r="V165" s="52"/>
       <c r="W165" s="52"/>
       <c r="X165" s="52"/>
-      <c r="Y165" s="21" t="s">
-        <v>510</v>
+      <c r="Y165" s="23" t="s">
+        <v>512</v>
       </c>
       <c r="Z165" s="52"/>
       <c r="AA165" s="52"/>
@@ -16403,47 +16403,47 @@
       <c r="C166" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D166" s="23" t="s">
-        <v>467</v>
+      <c r="D166" s="24" t="s">
+        <v>469</v>
       </c>
       <c r="E166" s="50" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F166" s="50" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G166" s="50" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H166" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="I166" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="J166" s="21" t="s">
-        <v>493</v>
+        <v>291</v>
+      </c>
+      <c r="I166" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="J166" s="23" t="s">
+        <v>495</v>
       </c>
       <c r="K166" s="52"/>
       <c r="L166" s="52"/>
-      <c r="M166" s="21"/>
-      <c r="N166" s="21"/>
-      <c r="O166" s="21" t="s">
-        <v>507</v>
+      <c r="M166" s="23"/>
+      <c r="N166" s="23"/>
+      <c r="O166" s="23" t="s">
+        <v>509</v>
       </c>
       <c r="P166" s="52"/>
       <c r="Q166" s="52"/>
       <c r="R166" s="52"/>
       <c r="S166" s="52" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T166" s="52"/>
       <c r="U166" s="52"/>
       <c r="V166" s="52"/>
       <c r="W166" s="52"/>
       <c r="X166" s="52"/>
-      <c r="Y166" s="21" t="s">
-        <v>511</v>
+      <c r="Y166" s="23" t="s">
+        <v>513</v>
       </c>
       <c r="Z166" s="52"/>
       <c r="AA166" s="52"/>
@@ -16522,7 +16522,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="61" zoomScaleNormal="61" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -16533,12 +16533,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="57" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="57" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -16559,7 +16559,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="61" zoomScaleNormal="61" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -16570,12 +16570,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -16596,7 +16596,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="61" zoomScaleNormal="61" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -16607,21 +16607,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G1" s="0" t="n">
         <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F2" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>11</v>
@@ -16629,7 +16629,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>10</v>
@@ -16637,16 +16637,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H7" s="58"/>
     </row>
@@ -16658,7 +16658,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H8" s="58"/>
     </row>
@@ -16667,13 +16667,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="58" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16684,12 +16684,12 @@
         <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E15" s="58"/>
       <c r="H15" s="58"/>
@@ -16700,19 +16700,19 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="58" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16729,39 +16729,39 @@
         <v>10</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="58" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G25" s="58" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H25" s="60" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J25" s="58"/>
     </row>
@@ -16776,19 +16776,19 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="58" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16805,12 +16805,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -16831,7 +16831,7 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="61" zoomScaleNormal="61" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -16860,10 +16860,10 @@
         <v>13</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H1" s="62" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I1" s="62" t="s">
         <v>35</v>
@@ -16872,7 +16872,7 @@
         <v>31</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L1" s="62" t="s">
         <v>36</v>
@@ -16883,7 +16883,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="63" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU/Data/FT PoS 2018.xlsx
@@ -31,7 +31,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
@@ -46,9 +46,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="558">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1888,12 +1889,6 @@
 Fuzetea Freezer BIG
 Fuzetea Cooler-Side Rack
 Fuzetea "Грабли" Rack </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC, CAMPARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPARI</t>
   </si>
   <si>
     <t xml:space="preserve">Changes</t>
@@ -2098,7 +2093,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2192,10 +2187,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2293,56 +2284,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:312"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z167" activeCellId="0" sqref="Z167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="117.400809716599"/>
-    <col collapsed="false" hidden="false" max="1006" min="44" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="1025" min="1007" style="3" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="29.2429149797571"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="118.473684210526"/>
+    <col collapsed="false" hidden="false" max="1006" min="44" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="1007" style="3" width="18.2105263157895"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17289,450 +17279,264 @@
       <c r="AP166" s="9"/>
       <c r="AQ166" s="9"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH167" s="12"/>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH168" s="12"/>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH169" s="12"/>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH170" s="12"/>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH171" s="12"/>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH172" s="12"/>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH173" s="12"/>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH174" s="12"/>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH175" s="12"/>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH176" s="12"/>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH177" s="12"/>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH178" s="12"/>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH179" s="12"/>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH180" s="12"/>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH181" s="12"/>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH182" s="12"/>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH183" s="12"/>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH184" s="12"/>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH185" s="12"/>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH186" s="12"/>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH187" s="12"/>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH188" s="12"/>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH189" s="12"/>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH190" s="12"/>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH191" s="12"/>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH192" s="12"/>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH193" s="12"/>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH194" s="12"/>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH195" s="12"/>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH196" s="12"/>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH197" s="12"/>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH198" s="12"/>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH199" s="12"/>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH200" s="12"/>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH201" s="12"/>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH202" s="12"/>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH203" s="12"/>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH204" s="12"/>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH205" s="12"/>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH206" s="12"/>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH207" s="12"/>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH208" s="12"/>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH209" s="12"/>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH210" s="12"/>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH211" s="12"/>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH212" s="12"/>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH213" s="12"/>
-    </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH214" s="12"/>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH215" s="12"/>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH216" s="12"/>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH217" s="12"/>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH218" s="12"/>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH219" s="12"/>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH220" s="12"/>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH221" s="12"/>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH222" s="12"/>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH223" s="12"/>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH224" s="12"/>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH225" s="12"/>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH226" s="12"/>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH227" s="12" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH228" s="12"/>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH229" s="12"/>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH230" s="12"/>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH231" s="12"/>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH232" s="12"/>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH233" s="12"/>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH234" s="12"/>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH235" s="12"/>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH236" s="12"/>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH237" s="12"/>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH238" s="12"/>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH239" s="12"/>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH240" s="12"/>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH241" s="12"/>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH242" s="12"/>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH243" s="12"/>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH244" s="12"/>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH245" s="12"/>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH246" s="12"/>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH247" s="12"/>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH248" s="12"/>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH249" s="12"/>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH250" s="12"/>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH251" s="12"/>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH252" s="12"/>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH253" s="12"/>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH254" s="12"/>
-    </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH255" s="12"/>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH256" s="12"/>
-    </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH257" s="12"/>
-    </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH258" s="12"/>
-    </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH259" s="12"/>
-    </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH260" s="12" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH261" s="12"/>
-    </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH262" s="12"/>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH263" s="12"/>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH264" s="12"/>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH265" s="12"/>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH266" s="12"/>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH267" s="12"/>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH268" s="12"/>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH269" s="12"/>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH270" s="12"/>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH271" s="12"/>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH272" s="12"/>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH273" s="12"/>
-    </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH274" s="12"/>
-    </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH275" s="12"/>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH276" s="12"/>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH277" s="12"/>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH278" s="12"/>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH279" s="12"/>
-    </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH280" s="12"/>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH281" s="12"/>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH282" s="12"/>
-    </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH283" s="12"/>
-    </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH284" s="12"/>
-    </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH285" s="12"/>
-    </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH286" s="12"/>
-    </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH287" s="24" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH288" s="12"/>
-    </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH289" s="12"/>
-    </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH290" s="12"/>
-    </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH291" s="12"/>
-    </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH292" s="12"/>
-    </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH293" s="12"/>
-    </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH294" s="12"/>
-    </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH295" s="9"/>
-    </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH296" s="9"/>
-    </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH297" s="9"/>
-    </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH298" s="9"/>
-    </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH299" s="9"/>
-    </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH300" s="9"/>
-    </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH301" s="9"/>
-    </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH302" s="9"/>
-    </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH303" s="9"/>
-    </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH304" s="9"/>
-    </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH305" s="9"/>
-    </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH306" s="9"/>
-    </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH307" s="9"/>
-    </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH308" s="9"/>
-    </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH309" s="9"/>
-    </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH310" s="9"/>
-    </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH311" s="9"/>
-    </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AH312" s="9"/>
-    </row>
+    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:AQ166"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17764,12 +17568,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -17800,49 +17604,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>554</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>555</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>556</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>557</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="27" t="s">
-        <v>559</v>
+      <c r="B4" s="26" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/FT PoS 2018.xlsx
+++ b/Projects/CCRU/Data/FT PoS 2018.xlsx
@@ -32,7 +32,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Traditional Trade'!$A$1:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
@@ -47,9 +47,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Traditional Trade'!$A$2:$AQ$162</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="560">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -494,6 +495,9 @@
     <t xml:space="preserve">Фьюз Лимон - 1л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000189318, 5449000236241</t>
+  </si>
+  <si>
     <t xml:space="preserve">Juice Availability</t>
   </si>
   <si>
@@ -772,6 +776,9 @@
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000233509, 5449000259462</t>
   </si>
   <si>
     <t xml:space="preserve">Pulpy - Tropical - 0.9L</t>
@@ -1640,7 +1647,7 @@
     <t xml:space="preserve">NCB Дверь: Фьюз Черный - 1л любой</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000189318, 5449000193070, 5449000233509</t>
+    <t xml:space="preserve">5449000189318, 5449000193070, 5449000233509, 5449000236241, 5449000259462</t>
   </si>
   <si>
     <t xml:space="preserve">ANY Fuze Black 1L</t>
@@ -1919,14 +1926,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="0%"/>
-    <numFmt numFmtId="168" formatCode="D\-MMM"/>
+    <numFmt numFmtId="168" formatCode="@"/>
+    <numFmt numFmtId="169" formatCode="D\-MMM"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1971,6 +1979,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1985,12 +2000,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2063,7 +2084,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2089,11 +2110,14 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2158,6 +2182,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -2174,11 +2202,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2190,6 +2218,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2198,19 +2230,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2223,7 +2256,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -2248,7 +2281,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFC6EFCE"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -2287,52 +2320,52 @@
   <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z167" activeCellId="0" sqref="Z167"/>
+      <selection pane="topLeft" activeCell="AB150" activeCellId="0" sqref="AB150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.71255060728745"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="44.7773279352227"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="29" min="27" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="29.2429149797571"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="118.473684210526"/>
-    <col collapsed="false" hidden="false" max="1006" min="44" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="1007" style="3" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="29.4574898785425"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="119.546558704453"/>
+    <col collapsed="false" hidden="false" max="1006" min="44" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1025" min="1007" style="3" width="18.3157894736842"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="42.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5557,8 +5590,8 @@
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
-      <c r="AB35" s="13" t="n">
-        <v>5449000189318</v>
+      <c r="AB35" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="AC35" s="13" t="s">
         <v>133</v>
@@ -5608,23 +5641,23 @@
         <v>48</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K36" s="9" t="n">
         <v>35</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P36" s="11"/>
       <c r="Q36" s="9" t="s">
@@ -5685,10 +5718,10 @@
         <v>48</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K37" s="9" t="n">
         <v>36</v>
@@ -5698,10 +5731,10 @@
         <v>35</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P37" s="14" t="n">
         <v>0.0115034</v>
@@ -5731,7 +5764,7 @@
         <v>4607042434877</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AD37" s="9"/>
       <c r="AE37" s="9"/>
@@ -5778,10 +5811,10 @@
         <v>48</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K38" s="9" t="n">
         <v>37</v>
@@ -5791,10 +5824,10 @@
         <v>35</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P38" s="14" t="n">
         <v>0.0115034</v>
@@ -5824,7 +5857,7 @@
         <v>4607042434891</v>
       </c>
       <c r="AC38" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD38" s="9"/>
       <c r="AE38" s="9"/>
@@ -5871,10 +5904,10 @@
         <v>48</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K39" s="9" t="n">
         <v>38</v>
@@ -5884,10 +5917,10 @@
         <v>35</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P39" s="14" t="n">
         <v>0.0115034</v>
@@ -5917,7 +5950,7 @@
         <v>4607042438738</v>
       </c>
       <c r="AC39" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AD39" s="9"/>
       <c r="AE39" s="9"/>
@@ -5964,10 +5997,10 @@
         <v>48</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K40" s="9" t="n">
         <v>39</v>
@@ -5977,10 +6010,10 @@
         <v>35</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P40" s="14" t="n">
         <v>0.0115034</v>
@@ -6010,7 +6043,7 @@
         <v>4607042438950</v>
       </c>
       <c r="AC40" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AD40" s="9"/>
       <c r="AE40" s="9"/>
@@ -6057,10 +6090,10 @@
         <v>48</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K41" s="9" t="n">
         <v>40</v>
@@ -6070,10 +6103,10 @@
         <v>35</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P41" s="14" t="n">
         <v>0.0115034</v>
@@ -6103,7 +6136,7 @@
         <v>4607042434884</v>
       </c>
       <c r="AC41" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD41" s="9"/>
       <c r="AE41" s="9"/>
@@ -6150,10 +6183,10 @@
         <v>48</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K42" s="9" t="n">
         <v>41</v>
@@ -6163,10 +6196,10 @@
         <v>35</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O42" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P42" s="14" t="n">
         <v>0.0115034</v>
@@ -6196,7 +6229,7 @@
         <v>4607174577787</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD42" s="9"/>
       <c r="AE42" s="9"/>
@@ -6243,10 +6276,10 @@
         <v>48</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K43" s="9" t="n">
         <v>42</v>
@@ -6256,10 +6289,10 @@
         <v>35</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P43" s="14" t="n">
         <v>0.0115034</v>
@@ -6289,7 +6322,7 @@
         <v>4607042430619</v>
       </c>
       <c r="AC43" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AD43" s="9"/>
       <c r="AE43" s="9"/>
@@ -6336,10 +6369,10 @@
         <v>48</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K44" s="9" t="n">
         <v>43</v>
@@ -6349,10 +6382,10 @@
         <v>35</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P44" s="14" t="n">
         <v>0.0115034</v>
@@ -6382,7 +6415,7 @@
         <v>4607042430565</v>
       </c>
       <c r="AC44" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AD44" s="9"/>
       <c r="AE44" s="9"/>
@@ -6429,10 +6462,10 @@
         <v>48</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K45" s="9" t="n">
         <v>44</v>
@@ -6442,10 +6475,10 @@
         <v>35</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O45" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P45" s="14" t="n">
         <v>0.0089044</v>
@@ -6475,7 +6508,7 @@
         <v>4607174577794</v>
       </c>
       <c r="AC45" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD45" s="9"/>
       <c r="AE45" s="9"/>
@@ -6522,10 +6555,10 @@
         <v>48</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K46" s="9" t="n">
         <v>45</v>
@@ -6535,10 +6568,10 @@
         <v>35</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O46" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P46" s="14" t="n">
         <v>0.0089044</v>
@@ -6568,7 +6601,7 @@
         <v>4607174577145</v>
       </c>
       <c r="AC46" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AD46" s="9"/>
       <c r="AE46" s="9"/>
@@ -6615,10 +6648,10 @@
         <v>48</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K47" s="9" t="n">
         <v>46</v>
@@ -6628,10 +6661,10 @@
         <v>35</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O47" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P47" s="14" t="n">
         <v>0.0089044</v>
@@ -6661,7 +6694,7 @@
         <v>4607042431388</v>
       </c>
       <c r="AC47" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD47" s="9"/>
       <c r="AE47" s="9"/>
@@ -6708,10 +6741,10 @@
         <v>48</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K48" s="9" t="n">
         <v>47</v>
@@ -6721,10 +6754,10 @@
         <v>35</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P48" s="14" t="n">
         <v>0.0089044</v>
@@ -6754,7 +6787,7 @@
         <v>4607042431333</v>
       </c>
       <c r="AC48" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AD48" s="9"/>
       <c r="AE48" s="9"/>
@@ -6801,10 +6834,10 @@
         <v>48</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K49" s="9" t="n">
         <v>48</v>
@@ -6814,10 +6847,10 @@
         <v>35</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O49" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P49" s="14" t="n">
         <v>0.0046334</v>
@@ -6847,7 +6880,7 @@
         <v>4607174579729</v>
       </c>
       <c r="AC49" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD49" s="9"/>
       <c r="AE49" s="9"/>
@@ -6894,10 +6927,10 @@
         <v>48</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K50" s="9" t="n">
         <v>49</v>
@@ -6907,10 +6940,10 @@
         <v>35</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O50" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P50" s="14" t="n">
         <v>0.0046334</v>
@@ -6940,7 +6973,7 @@
         <v>4607174579309</v>
       </c>
       <c r="AC50" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AD50" s="9"/>
       <c r="AE50" s="9"/>
@@ -6987,10 +7020,10 @@
         <v>48</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K51" s="9" t="n">
         <v>50</v>
@@ -7000,10 +7033,10 @@
         <v>35</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O51" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P51" s="14" t="n">
         <v>0.0046334</v>
@@ -7033,7 +7066,7 @@
         <v>4607174579286</v>
       </c>
       <c r="AC51" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD51" s="9"/>
       <c r="AE51" s="9"/>
@@ -7062,13 +7095,13 @@
         <v>43</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F52" s="9" t="n">
         <v>2</v>
@@ -7080,23 +7113,23 @@
         <v>48</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K52" s="9" t="n">
         <v>51</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P52" s="11"/>
       <c r="Q52" s="9" t="s">
@@ -7139,13 +7172,13 @@
         <v>43</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F53" s="9" t="n">
         <v>3</v>
@@ -7157,10 +7190,10 @@
         <v>48</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K53" s="9" t="n">
         <v>52</v>
@@ -7169,11 +7202,11 @@
       <c r="M53" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="N53" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="O53" s="16" t="s">
+      <c r="N53" s="17" t="s">
         <v>176</v>
+      </c>
+      <c r="O53" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="P53" s="14" t="n">
         <v>0.00455</v>
@@ -7199,11 +7232,11 @@
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
-      <c r="AB53" s="16" t="n">
+      <c r="AB53" s="17" t="n">
         <v>5449000214744</v>
       </c>
-      <c r="AC53" s="16" t="s">
-        <v>175</v>
+      <c r="AC53" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="AD53" s="9"/>
       <c r="AE53" s="9"/>
@@ -7232,13 +7265,13 @@
         <v>43</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F54" s="9" t="n">
         <v>3</v>
@@ -7250,10 +7283,10 @@
         <v>48</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K54" s="9" t="n">
         <v>53</v>
@@ -7262,11 +7295,11 @@
       <c r="M54" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="N54" s="17" t="s">
-        <v>177</v>
+      <c r="N54" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P54" s="14" t="n">
         <v>0.004545</v>
@@ -7292,11 +7325,11 @@
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
-      <c r="AB54" s="17" t="n">
+      <c r="AB54" s="18" t="n">
         <v>5449000241467</v>
       </c>
-      <c r="AC54" s="17" t="s">
-        <v>177</v>
+      <c r="AC54" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="AD54" s="9"/>
       <c r="AE54" s="9"/>
@@ -7325,13 +7358,13 @@
         <v>43</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F55" s="9" t="n">
         <v>3</v>
@@ -7343,10 +7376,10 @@
         <v>48</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K55" s="9" t="n">
         <v>54</v>
@@ -7356,10 +7389,10 @@
         <v>51</v>
       </c>
       <c r="N55" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O55" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P55" s="14" t="n">
         <v>0.004545</v>
@@ -7389,7 +7422,7 @@
         <v>4607042431692</v>
       </c>
       <c r="AC55" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AD55" s="9"/>
       <c r="AE55" s="9"/>
@@ -7418,13 +7451,13 @@
         <v>43</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F56" s="9" t="n">
         <v>3</v>
@@ -7436,10 +7469,10 @@
         <v>48</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K56" s="9" t="n">
         <v>55</v>
@@ -7449,10 +7482,10 @@
         <v>51</v>
       </c>
       <c r="N56" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O56" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P56" s="14" t="n">
         <v>0.004545</v>
@@ -7482,7 +7515,7 @@
         <v>5449000172228</v>
       </c>
       <c r="AC56" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD56" s="9"/>
       <c r="AE56" s="9"/>
@@ -7511,13 +7544,13 @@
         <v>43</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F57" s="9" t="n">
         <v>3</v>
@@ -7529,10 +7562,10 @@
         <v>48</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K57" s="9" t="n">
         <v>56</v>
@@ -7542,10 +7575,10 @@
         <v>51</v>
       </c>
       <c r="N57" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O57" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P57" s="14" t="n">
         <v>0.004545</v>
@@ -7575,7 +7608,7 @@
         <v>5060517884710</v>
       </c>
       <c r="AC57" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD57" s="9"/>
       <c r="AE57" s="9"/>
@@ -7604,13 +7637,13 @@
         <v>43</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F58" s="9" t="n">
         <v>3</v>
@@ -7622,10 +7655,10 @@
         <v>48</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K58" s="9" t="n">
         <v>57</v>
@@ -7635,10 +7668,10 @@
         <v>51</v>
       </c>
       <c r="N58" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P58" s="14" t="n">
         <v>0.004545</v>
@@ -7668,7 +7701,7 @@
         <v>5449000214263</v>
       </c>
       <c r="AC58" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD58" s="9"/>
       <c r="AE58" s="9"/>
@@ -7697,13 +7730,13 @@
         <v>43</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F59" s="9" t="n">
         <v>3</v>
@@ -7715,10 +7748,10 @@
         <v>48</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K59" s="9" t="n">
         <v>58</v>
@@ -7728,10 +7761,10 @@
         <v>51</v>
       </c>
       <c r="N59" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O59" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P59" s="14" t="n">
         <v>0.004545</v>
@@ -7761,7 +7794,7 @@
         <v>4650075420980</v>
       </c>
       <c r="AC59" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD59" s="9"/>
       <c r="AE59" s="9"/>
@@ -7790,13 +7823,13 @@
         <v>43</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F60" s="9" t="n">
         <v>3</v>
@@ -7808,10 +7841,10 @@
         <v>48</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K60" s="9" t="n">
         <v>59</v>
@@ -7821,10 +7854,10 @@
         <v>51</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P60" s="14" t="n">
         <v>0.004545</v>
@@ -7854,7 +7887,7 @@
         <v>4650075420287</v>
       </c>
       <c r="AC60" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD60" s="9"/>
       <c r="AE60" s="9"/>
@@ -7883,13 +7916,13 @@
         <v>43</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F61" s="9" t="n">
         <v>3</v>
@@ -7901,10 +7934,10 @@
         <v>48</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K61" s="9" t="n">
         <v>60</v>
@@ -7914,10 +7947,10 @@
         <v>51</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O61" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P61" s="14" t="n">
         <v>0.004545</v>
@@ -7947,7 +7980,7 @@
         <v>4650075421147</v>
       </c>
       <c r="AC61" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AD61" s="9"/>
       <c r="AE61" s="9"/>
@@ -7976,13 +8009,13 @@
         <v>43</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F62" s="9" t="n">
         <v>3</v>
@@ -7994,10 +8027,10 @@
         <v>48</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K62" s="9" t="n">
         <v>61</v>
@@ -8007,10 +8040,10 @@
         <v>51</v>
       </c>
       <c r="N62" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O62" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P62" s="14" t="n">
         <v>0.004545</v>
@@ -8040,7 +8073,7 @@
         <v>4650075421970</v>
       </c>
       <c r="AC62" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD62" s="9"/>
       <c r="AE62" s="9"/>
@@ -8069,13 +8102,13 @@
         <v>43</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F63" s="9" t="n">
         <v>3</v>
@@ -8087,10 +8120,10 @@
         <v>48</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K63" s="9" t="n">
         <v>62</v>
@@ -8100,10 +8133,10 @@
         <v>51</v>
       </c>
       <c r="N63" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O63" s="13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P63" s="14" t="n">
         <v>0.004545</v>
@@ -8133,7 +8166,7 @@
         <v>4650075421956</v>
       </c>
       <c r="AC63" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AD63" s="9"/>
       <c r="AE63" s="9"/>
@@ -8162,13 +8195,13 @@
         <v>43</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F64" s="9" t="n">
         <v>2</v>
@@ -8180,23 +8213,23 @@
         <v>48</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K64" s="9" t="n">
         <v>63</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P64" s="11"/>
       <c r="Q64" s="9" t="s">
@@ -8239,13 +8272,13 @@
         <v>43</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F65" s="9" t="n">
         <v>3</v>
@@ -8257,10 +8290,10 @@
         <v>48</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K65" s="9" t="n">
         <v>64</v>
@@ -8270,10 +8303,10 @@
         <v>63</v>
       </c>
       <c r="N65" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O65" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P65" s="14" t="n">
         <v>0.003575</v>
@@ -8303,7 +8336,7 @@
         <v>5449000131805</v>
       </c>
       <c r="AC65" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AD65" s="9"/>
       <c r="AE65" s="9"/>
@@ -8332,13 +8365,13 @@
         <v>43</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F66" s="9" t="n">
         <v>3</v>
@@ -8350,10 +8383,10 @@
         <v>48</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K66" s="9" t="n">
         <v>65</v>
@@ -8363,10 +8396,10 @@
         <v>63</v>
       </c>
       <c r="N66" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O66" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P66" s="14" t="n">
         <v>0.003575</v>
@@ -8396,7 +8429,7 @@
         <v>5449000044839</v>
       </c>
       <c r="AC66" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AD66" s="9"/>
       <c r="AE66" s="9"/>
@@ -8425,13 +8458,13 @@
         <v>43</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F67" s="9" t="n">
         <v>3</v>
@@ -8443,10 +8476,10 @@
         <v>48</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K67" s="9" t="n">
         <v>66</v>
@@ -8456,10 +8489,10 @@
         <v>63</v>
       </c>
       <c r="N67" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O67" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P67" s="14" t="n">
         <v>0.003575</v>
@@ -8489,7 +8522,7 @@
         <v>54490130</v>
       </c>
       <c r="AC67" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AD67" s="9"/>
       <c r="AE67" s="9"/>
@@ -8518,13 +8551,13 @@
         <v>43</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F68" s="9" t="n">
         <v>3</v>
@@ -8536,10 +8569,10 @@
         <v>48</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K68" s="9" t="n">
         <v>67</v>
@@ -8549,10 +8582,10 @@
         <v>63</v>
       </c>
       <c r="N68" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O68" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P68" s="14" t="n">
         <v>0.003575</v>
@@ -8582,7 +8615,7 @@
         <v>5449000044808</v>
       </c>
       <c r="AC68" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD68" s="9"/>
       <c r="AE68" s="9"/>
@@ -8611,13 +8644,13 @@
         <v>43</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F69" s="9" t="n">
         <v>3</v>
@@ -8629,10 +8662,10 @@
         <v>48</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K69" s="9" t="n">
         <v>68</v>
@@ -8642,10 +8675,10 @@
         <v>63</v>
       </c>
       <c r="N69" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O69" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P69" s="14" t="n">
         <v>0.00357</v>
@@ -8675,7 +8708,7 @@
         <v>5449000026583</v>
       </c>
       <c r="AC69" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AD69" s="9"/>
       <c r="AE69" s="9"/>
@@ -8704,13 +8737,13 @@
         <v>43</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F70" s="9" t="n">
         <v>3</v>
@@ -8722,10 +8755,10 @@
         <v>48</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K70" s="9" t="n">
         <v>69</v>
@@ -8735,10 +8768,10 @@
         <v>63</v>
       </c>
       <c r="N70" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O70" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P70" s="14" t="n">
         <v>0.00357</v>
@@ -8768,7 +8801,7 @@
         <v>5449000148056</v>
       </c>
       <c r="AC70" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD70" s="9"/>
       <c r="AE70" s="9"/>
@@ -8797,13 +8830,13 @@
         <v>43</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F71" s="9" t="n">
         <v>3</v>
@@ -8815,10 +8848,10 @@
         <v>48</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K71" s="9" t="n">
         <v>70</v>
@@ -8828,10 +8861,10 @@
         <v>63</v>
       </c>
       <c r="N71" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O71" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P71" s="14" t="n">
         <v>0.00357</v>
@@ -8857,11 +8890,11 @@
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
-      <c r="AB71" s="13" t="n">
-        <v>5449000233509</v>
+      <c r="AB71" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="AC71" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD71" s="9"/>
       <c r="AE71" s="9"/>
@@ -8890,13 +8923,13 @@
         <v>43</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F72" s="9" t="n">
         <v>3</v>
@@ -8908,10 +8941,10 @@
         <v>48</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K72" s="9" t="n">
         <v>71</v>
@@ -8921,10 +8954,10 @@
         <v>63</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O72" s="13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P72" s="14" t="n">
         <v>0.00357</v>
@@ -8954,7 +8987,7 @@
         <v>4607174579736</v>
       </c>
       <c r="AC72" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AD72" s="9"/>
       <c r="AE72" s="9"/>
@@ -8983,13 +9016,13 @@
         <v>43</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F73" s="9" t="n">
         <v>3</v>
@@ -9001,10 +9034,10 @@
         <v>48</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K73" s="9" t="n">
         <v>72</v>
@@ -9014,10 +9047,10 @@
         <v>63</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O73" s="13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P73" s="14" t="n">
         <v>0.00357</v>
@@ -9047,7 +9080,7 @@
         <v>4607042438967</v>
       </c>
       <c r="AC73" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AD73" s="9"/>
       <c r="AE73" s="9"/>
@@ -9076,13 +9109,13 @@
         <v>43</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F74" s="9" t="n">
         <v>3</v>
@@ -9094,10 +9127,10 @@
         <v>48</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K74" s="9" t="n">
         <v>73</v>
@@ -9107,10 +9140,10 @@
         <v>63</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P74" s="14" t="n">
         <v>0.00357</v>
@@ -9140,7 +9173,7 @@
         <v>4607042439216</v>
       </c>
       <c r="AC74" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AD74" s="9"/>
       <c r="AE74" s="9"/>
@@ -9169,13 +9202,13 @@
         <v>43</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F75" s="9" t="n">
         <v>3</v>
@@ -9187,10 +9220,10 @@
         <v>48</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K75" s="9" t="n">
         <v>74</v>
@@ -9200,10 +9233,10 @@
         <v>63</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O75" s="13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P75" s="14" t="n">
         <v>0.00357</v>
@@ -9233,7 +9266,7 @@
         <v>4607042439223</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AD75" s="9"/>
       <c r="AE75" s="9"/>
@@ -9262,13 +9295,13 @@
         <v>43</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F76" s="9" t="n">
         <v>3</v>
@@ -9280,10 +9313,10 @@
         <v>48</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K76" s="9" t="n">
         <v>75</v>
@@ -9293,10 +9326,10 @@
         <v>63</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O76" s="13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P76" s="14" t="n">
         <v>0.00357</v>
@@ -9326,7 +9359,7 @@
         <v>4607042439155</v>
       </c>
       <c r="AC76" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AD76" s="9"/>
       <c r="AE76" s="9"/>
@@ -9355,13 +9388,13 @@
         <v>43</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F77" s="9" t="n">
         <v>3</v>
@@ -9373,10 +9406,10 @@
         <v>48</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K77" s="9" t="n">
         <v>76</v>
@@ -9386,10 +9419,10 @@
         <v>63</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O77" s="13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P77" s="14" t="n">
         <v>0.00357</v>
@@ -9419,7 +9452,7 @@
         <v>4607174574908</v>
       </c>
       <c r="AC77" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AD77" s="9"/>
       <c r="AE77" s="9"/>
@@ -9448,13 +9481,13 @@
         <v>43</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F78" s="9" t="n">
         <v>3</v>
@@ -9466,10 +9499,10 @@
         <v>48</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K78" s="9" t="n">
         <v>77</v>
@@ -9479,10 +9512,10 @@
         <v>63</v>
       </c>
       <c r="N78" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O78" s="13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P78" s="14" t="n">
         <v>0.00357</v>
@@ -9512,7 +9545,7 @@
         <v>4607174577947</v>
       </c>
       <c r="AC78" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AD78" s="9"/>
       <c r="AE78" s="9"/>
@@ -9541,7 +9574,7 @@
         <v>43</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>45</v>
@@ -9553,55 +9586,55 @@
         <v>2</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K79" s="9" t="n">
         <v>78</v>
       </c>
       <c r="L79" s="9"/>
-      <c r="M79" s="18"/>
+      <c r="M79" s="19"/>
       <c r="N79" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P79" s="14" t="n">
         <v>0.04</v>
       </c>
       <c r="Q79" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
       <c r="T79" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="U79" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V79" s="9"/>
       <c r="W79" s="9"/>
-      <c r="X79" s="19" t="n">
+      <c r="X79" s="20" t="n">
         <v>0.5</v>
       </c>
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
       <c r="AB79" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AC79" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AD79" s="9"/>
       <c r="AE79" s="9"/>
@@ -9611,7 +9644,7 @@
       <c r="AI79" s="9"/>
       <c r="AJ79" s="9"/>
       <c r="AK79" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL79" s="9"/>
       <c r="AM79" s="9"/>
@@ -9628,7 +9661,7 @@
         <v>43</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>45</v>
@@ -9640,55 +9673,55 @@
         <v>2</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K80" s="9" t="n">
         <v>79</v>
       </c>
       <c r="L80" s="9"/>
-      <c r="M80" s="18"/>
+      <c r="M80" s="19"/>
       <c r="N80" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O80" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P80" s="14" t="n">
         <v>0.025</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
       <c r="T80" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="U80" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
-      <c r="X80" s="19" t="n">
+      <c r="X80" s="20" t="n">
         <v>0.15</v>
       </c>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
       <c r="AB80" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AC80" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AD80" s="9"/>
       <c r="AE80" s="9"/>
@@ -9698,7 +9731,7 @@
       <c r="AI80" s="9"/>
       <c r="AJ80" s="9"/>
       <c r="AK80" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL80" s="9"/>
       <c r="AM80" s="9"/>
@@ -9715,7 +9748,7 @@
         <v>43</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>45</v>
@@ -9727,55 +9760,55 @@
         <v>2</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K81" s="9" t="n">
         <v>80</v>
       </c>
       <c r="L81" s="9"/>
-      <c r="M81" s="18"/>
+      <c r="M81" s="19"/>
       <c r="N81" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O81" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P81" s="14" t="n">
         <v>0.04</v>
       </c>
       <c r="Q81" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
       <c r="T81" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="U81" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V81" s="9"/>
       <c r="W81" s="9"/>
-      <c r="X81" s="19" t="n">
+      <c r="X81" s="20" t="n">
         <v>0.4</v>
       </c>
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
       <c r="AA81" s="9"/>
       <c r="AB81" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AC81" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AD81" s="9"/>
       <c r="AE81" s="9"/>
@@ -9785,7 +9818,7 @@
       <c r="AI81" s="9"/>
       <c r="AJ81" s="9"/>
       <c r="AK81" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL81" s="9"/>
       <c r="AM81" s="9"/>
@@ -9802,7 +9835,7 @@
         <v>43</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>45</v>
@@ -9814,55 +9847,55 @@
         <v>2</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K82" s="9" t="n">
         <v>81</v>
       </c>
       <c r="L82" s="9"/>
-      <c r="M82" s="18"/>
+      <c r="M82" s="19"/>
       <c r="N82" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O82" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P82" s="14" t="n">
         <v>0.025</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="U82" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V82" s="9"/>
       <c r="W82" s="9"/>
-      <c r="X82" s="19" t="n">
+      <c r="X82" s="20" t="n">
         <v>0.45</v>
       </c>
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
       <c r="AB82" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AC82" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AD82" s="9"/>
       <c r="AE82" s="9"/>
@@ -9872,7 +9905,7 @@
       <c r="AI82" s="9"/>
       <c r="AJ82" s="9"/>
       <c r="AK82" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL82" s="9"/>
       <c r="AM82" s="9"/>
@@ -9889,7 +9922,7 @@
         <v>43</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>45</v>
@@ -9901,16 +9934,16 @@
         <v>2</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K83" s="9" t="n">
         <v>82</v>
@@ -9918,38 +9951,38 @@
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P83" s="14" t="n">
         <v>0.02</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
       <c r="T83" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="U83" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V83" s="9"/>
       <c r="W83" s="9"/>
-      <c r="X83" s="19" t="n">
+      <c r="X83" s="20" t="n">
         <v>0.35</v>
       </c>
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
       <c r="AB83" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AC83" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AD83" s="9"/>
       <c r="AE83" s="9"/>
@@ -9959,7 +9992,7 @@
       <c r="AI83" s="9"/>
       <c r="AJ83" s="9"/>
       <c r="AK83" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL83" s="9"/>
       <c r="AM83" s="9"/>
@@ -9976,7 +10009,7 @@
         <v>43</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>45</v>
@@ -9988,39 +10021,39 @@
         <v>2</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K84" s="9" t="n">
         <v>83</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P84" s="14" t="n">
         <v>0.024</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R84" s="9"/>
       <c r="S84" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T84" s="9"/>
       <c r="U84" s="9" t="s">
@@ -10044,7 +10077,7 @@
       <c r="AI84" s="9"/>
       <c r="AJ84" s="9"/>
       <c r="AK84" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AL84" s="9"/>
       <c r="AM84" s="9"/>
@@ -10061,7 +10094,7 @@
         <v>43</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>45</v>
@@ -10073,16 +10106,16 @@
         <v>3</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K85" s="9" t="n">
         <v>84</v>
@@ -10092,10 +10125,10 @@
         <v>83</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P85" s="14" t="n">
         <v>0</v>
@@ -10108,7 +10141,7 @@
         <v>57</v>
       </c>
       <c r="T85" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="U85" s="9" t="s">
         <v>59</v>
@@ -10122,10 +10155,10 @@
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
       <c r="AB85" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AC85" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AD85" s="9"/>
       <c r="AE85" s="9"/>
@@ -10135,7 +10168,7 @@
       <c r="AI85" s="9"/>
       <c r="AJ85" s="9"/>
       <c r="AK85" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AL85" s="9"/>
       <c r="AM85" s="9"/>
@@ -10152,7 +10185,7 @@
         <v>43</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>45</v>
@@ -10164,37 +10197,37 @@
         <v>3</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K86" s="9" t="n">
         <v>85</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M86" s="9" t="n">
         <v>83</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P86" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q86" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R86" s="9"/>
       <c r="S86" s="9" t="s">
@@ -10222,7 +10255,7 @@
       <c r="AI86" s="9"/>
       <c r="AJ86" s="9"/>
       <c r="AK86" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AL86" s="9"/>
       <c r="AM86" s="9"/>
@@ -10239,7 +10272,7 @@
         <v>43</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>45</v>
@@ -10251,16 +10284,16 @@
         <v>4</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K87" s="9" t="n">
         <v>86</v>
@@ -10270,16 +10303,16 @@
         <v>85</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P87" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q87" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="R87" s="9"/>
       <c r="S87" s="9" t="s">
@@ -10297,23 +10330,23 @@
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
-      <c r="AB87" s="20" t="n">
+      <c r="AB87" s="21" t="n">
         <v>5449000054227</v>
       </c>
-      <c r="AC87" s="20" t="s">
+      <c r="AC87" s="21" t="s">
         <v>54</v>
       </c>
       <c r="AD87" s="9"/>
       <c r="AE87" s="9"/>
       <c r="AF87" s="12"/>
       <c r="AG87" s="12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AH87" s="12"/>
       <c r="AI87" s="9"/>
       <c r="AJ87" s="9"/>
       <c r="AK87" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AL87" s="9"/>
       <c r="AM87" s="9"/>
@@ -10321,7 +10354,7 @@
       <c r="AO87" s="9"/>
       <c r="AP87" s="9"/>
       <c r="AQ87" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10332,7 +10365,7 @@
         <v>43</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>45</v>
@@ -10344,16 +10377,16 @@
         <v>4</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K88" s="9" t="n">
         <v>87</v>
@@ -10363,16 +10396,16 @@
         <v>85</v>
       </c>
       <c r="N88" s="9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O88" s="9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P88" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q88" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="R88" s="9"/>
       <c r="S88" s="9" t="s">
@@ -10390,23 +10423,23 @@
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
-      <c r="AB88" s="20" t="n">
+      <c r="AB88" s="21" t="n">
         <v>5449000000439</v>
       </c>
-      <c r="AC88" s="20" t="s">
+      <c r="AC88" s="21" t="s">
         <v>70</v>
       </c>
       <c r="AD88" s="9"/>
       <c r="AE88" s="9"/>
       <c r="AF88" s="12"/>
       <c r="AG88" s="12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AH88" s="12"/>
       <c r="AI88" s="9"/>
       <c r="AJ88" s="9"/>
       <c r="AK88" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AL88" s="9"/>
       <c r="AM88" s="9"/>
@@ -10414,7 +10447,7 @@
       <c r="AO88" s="9"/>
       <c r="AP88" s="9"/>
       <c r="AQ88" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10425,7 +10458,7 @@
         <v>43</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>45</v>
@@ -10437,39 +10470,39 @@
         <v>2</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K89" s="9" t="n">
         <v>88</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O89" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P89" s="14" t="n">
         <v>0.024</v>
       </c>
       <c r="Q89" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R89" s="9"/>
       <c r="S89" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T89" s="9"/>
       <c r="U89" s="9" t="s">
@@ -10490,10 +10523,10 @@
       <c r="AF89" s="12"/>
       <c r="AG89" s="12"/>
       <c r="AH89" s="12"/>
-      <c r="AI89" s="21"/>
+      <c r="AI89" s="22"/>
       <c r="AJ89" s="9"/>
       <c r="AK89" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AL89" s="9"/>
       <c r="AM89" s="9"/>
@@ -10510,7 +10543,7 @@
         <v>43</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>45</v>
@@ -10522,16 +10555,16 @@
         <v>3</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K90" s="9" t="n">
         <v>89</v>
@@ -10541,10 +10574,10 @@
         <v>88</v>
       </c>
       <c r="N90" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O90" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P90" s="14" t="n">
         <v>0</v>
@@ -10557,7 +10590,7 @@
         <v>57</v>
       </c>
       <c r="T90" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="U90" s="9" t="s">
         <v>59</v>
@@ -10571,20 +10604,20 @@
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AC90" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AD90" s="9"/>
       <c r="AE90" s="9"/>
       <c r="AF90" s="12"/>
       <c r="AG90" s="12"/>
       <c r="AH90" s="12"/>
-      <c r="AI90" s="21"/>
+      <c r="AI90" s="22"/>
       <c r="AJ90" s="9"/>
       <c r="AK90" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AL90" s="9"/>
       <c r="AM90" s="9"/>
@@ -10601,7 +10634,7 @@
         <v>43</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>45</v>
@@ -10613,16 +10646,16 @@
         <v>3</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K91" s="9" t="n">
         <v>90</v>
@@ -10632,16 +10665,16 @@
         <v>88</v>
       </c>
       <c r="N91" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O91" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P91" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q91" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="R91" s="9"/>
       <c r="S91" s="9" t="s">
@@ -10659,10 +10692,10 @@
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
-      <c r="AB91" s="20" t="n">
+      <c r="AB91" s="21" t="n">
         <v>5449000005489</v>
       </c>
-      <c r="AC91" s="20" t="s">
+      <c r="AC91" s="21" t="s">
         <v>107</v>
       </c>
       <c r="AD91" s="9"/>
@@ -10673,7 +10706,7 @@
       <c r="AI91" s="9"/>
       <c r="AJ91" s="9"/>
       <c r="AK91" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AL91" s="9"/>
       <c r="AM91" s="9"/>
@@ -10681,7 +10714,7 @@
       <c r="AO91" s="9"/>
       <c r="AP91" s="9"/>
       <c r="AQ91" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10692,7 +10725,7 @@
         <v>43</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>45</v>
@@ -10704,39 +10737,39 @@
         <v>2</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K92" s="9" t="n">
         <v>91</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O92" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P92" s="14" t="n">
         <v>0.024</v>
       </c>
       <c r="Q92" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R92" s="9"/>
       <c r="S92" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T92" s="9"/>
       <c r="U92" s="9" t="s">
@@ -10757,10 +10790,10 @@
       <c r="AF92" s="12"/>
       <c r="AG92" s="12"/>
       <c r="AH92" s="12"/>
-      <c r="AI92" s="21"/>
+      <c r="AI92" s="22"/>
       <c r="AJ92" s="9"/>
       <c r="AK92" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AL92" s="9"/>
       <c r="AM92" s="9"/>
@@ -10777,7 +10810,7 @@
         <v>43</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>45</v>
@@ -10789,16 +10822,16 @@
         <v>3</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K93" s="9" t="n">
         <v>92</v>
@@ -10808,10 +10841,10 @@
         <v>91</v>
       </c>
       <c r="N93" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O93" s="9" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P93" s="14" t="n">
         <v>0</v>
@@ -10824,7 +10857,7 @@
         <v>57</v>
       </c>
       <c r="T93" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="U93" s="9" t="s">
         <v>59</v>
@@ -10838,20 +10871,20 @@
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
       <c r="AB93" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AC93" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AD93" s="9"/>
       <c r="AE93" s="9"/>
       <c r="AF93" s="12"/>
       <c r="AG93" s="12"/>
       <c r="AH93" s="12"/>
-      <c r="AI93" s="21"/>
+      <c r="AI93" s="22"/>
       <c r="AJ93" s="9"/>
       <c r="AK93" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AL93" s="9"/>
       <c r="AM93" s="9"/>
@@ -10868,7 +10901,7 @@
         <v>43</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>45</v>
@@ -10880,37 +10913,37 @@
         <v>3</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K94" s="9" t="n">
         <v>93</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M94" s="9" t="n">
         <v>91</v>
       </c>
       <c r="N94" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O94" s="9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P94" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q94" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R94" s="9"/>
       <c r="S94" s="9" t="s">
@@ -10935,10 +10968,10 @@
       <c r="AF94" s="12"/>
       <c r="AG94" s="12"/>
       <c r="AH94" s="12"/>
-      <c r="AI94" s="21"/>
+      <c r="AI94" s="22"/>
       <c r="AJ94" s="9"/>
       <c r="AK94" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AL94" s="9"/>
       <c r="AM94" s="9"/>
@@ -10955,7 +10988,7 @@
         <v>43</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>45</v>
@@ -10967,16 +11000,16 @@
         <v>4</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K95" s="9" t="n">
         <v>94</v>
@@ -10986,16 +11019,16 @@
         <v>93</v>
       </c>
       <c r="N95" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O95" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P95" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q95" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="R95" s="9"/>
       <c r="S95" s="9" t="s">
@@ -11017,17 +11050,17 @@
         <v>4607042434877</v>
       </c>
       <c r="AC95" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AD95" s="9"/>
       <c r="AE95" s="9"/>
       <c r="AF95" s="12"/>
       <c r="AG95" s="12"/>
       <c r="AH95" s="12"/>
-      <c r="AI95" s="21"/>
+      <c r="AI95" s="22"/>
       <c r="AJ95" s="9"/>
       <c r="AK95" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AL95" s="9"/>
       <c r="AM95" s="9"/>
@@ -11035,7 +11068,7 @@
       <c r="AO95" s="9"/>
       <c r="AP95" s="9"/>
       <c r="AQ95" s="9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11046,7 +11079,7 @@
         <v>43</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>45</v>
@@ -11058,16 +11091,16 @@
         <v>4</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K96" s="9" t="n">
         <v>95</v>
@@ -11077,16 +11110,16 @@
         <v>93</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O96" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P96" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q96" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="R96" s="9"/>
       <c r="S96" s="9" t="s">
@@ -11108,17 +11141,17 @@
         <v>4607042434891</v>
       </c>
       <c r="AC96" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD96" s="9"/>
       <c r="AE96" s="9"/>
       <c r="AF96" s="12"/>
       <c r="AG96" s="12"/>
       <c r="AH96" s="12"/>
-      <c r="AI96" s="21"/>
+      <c r="AI96" s="22"/>
       <c r="AJ96" s="9"/>
       <c r="AK96" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AL96" s="9"/>
       <c r="AM96" s="9"/>
@@ -11126,7 +11159,7 @@
       <c r="AO96" s="9"/>
       <c r="AP96" s="9"/>
       <c r="AQ96" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11137,7 +11170,7 @@
         <v>43</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>45</v>
@@ -11149,39 +11182,39 @@
         <v>2</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K97" s="9" t="n">
         <v>96</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O97" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P97" s="14" t="n">
         <v>0.024</v>
       </c>
       <c r="Q97" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R97" s="9"/>
       <c r="S97" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T97" s="9"/>
       <c r="U97" s="9" t="s">
@@ -11202,10 +11235,10 @@
       <c r="AF97" s="12"/>
       <c r="AG97" s="12"/>
       <c r="AH97" s="12"/>
-      <c r="AI97" s="21"/>
+      <c r="AI97" s="22"/>
       <c r="AJ97" s="9"/>
       <c r="AK97" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AL97" s="9"/>
       <c r="AM97" s="9"/>
@@ -11222,7 +11255,7 @@
         <v>43</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>45</v>
@@ -11234,16 +11267,16 @@
         <v>3</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K98" s="9" t="n">
         <v>97</v>
@@ -11253,10 +11286,10 @@
         <v>96</v>
       </c>
       <c r="N98" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P98" s="14" t="n">
         <v>0</v>
@@ -11269,7 +11302,7 @@
         <v>57</v>
       </c>
       <c r="T98" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="U98" s="9" t="s">
         <v>59</v>
@@ -11283,20 +11316,20 @@
       <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
       <c r="AB98" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AC98" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AD98" s="9"/>
       <c r="AE98" s="9"/>
       <c r="AF98" s="12"/>
       <c r="AG98" s="12"/>
       <c r="AH98" s="12"/>
-      <c r="AI98" s="21"/>
+      <c r="AI98" s="22"/>
       <c r="AJ98" s="9"/>
       <c r="AK98" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AL98" s="9"/>
       <c r="AM98" s="9"/>
@@ -11313,7 +11346,7 @@
         <v>43</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>45</v>
@@ -11325,37 +11358,37 @@
         <v>3</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K99" s="9" t="n">
         <v>98</v>
       </c>
       <c r="L99" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M99" s="9" t="n">
         <v>96</v>
       </c>
       <c r="N99" s="9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O99" s="9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P99" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q99" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R99" s="9"/>
       <c r="S99" s="9" t="s">
@@ -11380,10 +11413,10 @@
       <c r="AF99" s="12"/>
       <c r="AG99" s="12"/>
       <c r="AH99" s="12"/>
-      <c r="AI99" s="21"/>
+      <c r="AI99" s="22"/>
       <c r="AJ99" s="9"/>
       <c r="AK99" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AL99" s="9"/>
       <c r="AM99" s="9"/>
@@ -11400,7 +11433,7 @@
         <v>43</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>45</v>
@@ -11412,16 +11445,16 @@
         <v>4</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K100" s="9" t="n">
         <v>99</v>
@@ -11431,16 +11464,16 @@
         <v>98</v>
       </c>
       <c r="N100" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O100" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P100" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q100" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="R100" s="9"/>
       <c r="S100" s="9" t="s">
@@ -11458,21 +11491,21 @@
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
-      <c r="AB100" s="9" t="n">
-        <v>5449000233509</v>
+      <c r="AB100" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="AC100" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD100" s="9"/>
       <c r="AE100" s="9"/>
       <c r="AF100" s="12"/>
       <c r="AG100" s="12"/>
       <c r="AH100" s="12"/>
-      <c r="AI100" s="21"/>
+      <c r="AI100" s="22"/>
       <c r="AJ100" s="9"/>
       <c r="AK100" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AL100" s="9"/>
       <c r="AM100" s="9"/>
@@ -11480,7 +11513,7 @@
       <c r="AO100" s="9"/>
       <c r="AP100" s="9"/>
       <c r="AQ100" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11491,7 +11524,7 @@
         <v>43</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>45</v>
@@ -11503,16 +11536,16 @@
         <v>4</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K101" s="9" t="n">
         <v>100</v>
@@ -11522,16 +11555,16 @@
         <v>98</v>
       </c>
       <c r="N101" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O101" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P101" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q101" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="R101" s="9"/>
       <c r="S101" s="9" t="s">
@@ -11549,8 +11582,8 @@
       <c r="Y101" s="9"/>
       <c r="Z101" s="9"/>
       <c r="AA101" s="9"/>
-      <c r="AB101" s="9" t="n">
-        <v>5449000189318</v>
+      <c r="AB101" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="AC101" s="9" t="s">
         <v>133</v>
@@ -11560,10 +11593,10 @@
       <c r="AF101" s="12"/>
       <c r="AG101" s="12"/>
       <c r="AH101" s="12"/>
-      <c r="AI101" s="21"/>
+      <c r="AI101" s="22"/>
       <c r="AJ101" s="9"/>
       <c r="AK101" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AL101" s="9"/>
       <c r="AM101" s="9"/>
@@ -11571,7 +11604,7 @@
       <c r="AO101" s="9"/>
       <c r="AP101" s="9"/>
       <c r="AQ101" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11582,47 +11615,47 @@
         <v>43</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F102" s="9" t="n">
         <v>2</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K102" s="9" t="n">
         <v>101</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="M102" s="22"/>
+        <v>338</v>
+      </c>
+      <c r="M102" s="23"/>
       <c r="N102" s="9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O102" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P102" s="14" t="n">
         <v>0.03</v>
       </c>
       <c r="Q102" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R102" s="9"/>
       <c r="S102" s="9" t="s">
@@ -11630,7 +11663,7 @@
       </c>
       <c r="T102" s="9"/>
       <c r="U102" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V102" s="9"/>
       <c r="W102" s="9"/>
@@ -11665,28 +11698,28 @@
         <v>43</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F103" s="9" t="n">
         <v>3</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K103" s="9" t="n">
         <v>102</v>
@@ -11696,23 +11729,23 @@
         <v>101</v>
       </c>
       <c r="N103" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O103" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P103" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q103" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="R103" s="9"/>
       <c r="S103" s="9" t="s">
         <v>57</v>
       </c>
       <c r="T103" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="U103" s="9" t="s">
         <v>59</v>
@@ -11726,7 +11759,7 @@
       <c r="Z103" s="9"/>
       <c r="AA103" s="9"/>
       <c r="AB103" s="9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AC103" s="9"/>
       <c r="AD103" s="9"/>
@@ -11738,7 +11771,7 @@
       <c r="AJ103" s="9"/>
       <c r="AK103" s="9"/>
       <c r="AL103" s="9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AM103" s="9"/>
       <c r="AN103" s="9"/>
@@ -11754,28 +11787,28 @@
         <v>43</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F104" s="9" t="n">
         <v>3</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K104" s="9" t="n">
         <v>103</v>
@@ -11785,23 +11818,23 @@
         <v>101</v>
       </c>
       <c r="N104" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="O104" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P104" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q104" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="R104" s="9"/>
       <c r="S104" s="9" t="s">
         <v>57</v>
       </c>
       <c r="T104" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="U104" s="9" t="s">
         <v>59</v>
@@ -11815,7 +11848,7 @@
       <c r="Z104" s="9"/>
       <c r="AA104" s="9"/>
       <c r="AB104" s="9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AC104" s="9"/>
       <c r="AD104" s="9"/>
@@ -11827,7 +11860,7 @@
       <c r="AJ104" s="9"/>
       <c r="AK104" s="9"/>
       <c r="AL104" s="9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AM104" s="9"/>
       <c r="AN104" s="9"/>
@@ -11843,28 +11876,28 @@
         <v>43</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F105" s="9" t="n">
         <v>3</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K105" s="9" t="n">
         <v>104</v>
@@ -11874,23 +11907,23 @@
         <v>101</v>
       </c>
       <c r="N105" s="9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O105" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P105" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q105" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="R105" s="9"/>
       <c r="S105" s="9" t="s">
         <v>57</v>
       </c>
       <c r="T105" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="U105" s="9" t="s">
         <v>59</v>
@@ -11904,7 +11937,7 @@
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
       <c r="AB105" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AC105" s="9"/>
       <c r="AD105" s="9"/>
@@ -11916,7 +11949,7 @@
       <c r="AJ105" s="9"/>
       <c r="AK105" s="9"/>
       <c r="AL105" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AM105" s="9"/>
       <c r="AN105" s="9"/>
@@ -11931,29 +11964,29 @@
       <c r="B106" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C106" s="23" t="s">
-        <v>331</v>
+      <c r="C106" s="24" t="s">
+        <v>333</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F106" s="9" t="n">
         <v>2</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K106" s="9" t="n">
         <v>105</v>
@@ -11961,18 +11994,18 @@
       <c r="L106" s="9" t="n">
         <v>106</v>
       </c>
-      <c r="M106" s="23"/>
+      <c r="M106" s="24"/>
       <c r="N106" s="9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="O106" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P106" s="14" t="n">
         <v>0.024</v>
       </c>
       <c r="Q106" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R106" s="9"/>
       <c r="S106" s="9" t="s">
@@ -12000,7 +12033,7 @@
       <c r="AI106" s="9"/>
       <c r="AJ106" s="9"/>
       <c r="AK106" s="9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AL106" s="9"/>
       <c r="AM106" s="9"/>
@@ -12017,28 +12050,28 @@
         <v>43</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F107" s="9" t="n">
         <v>3</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K107" s="9" t="n">
         <v>106</v>
@@ -12048,10 +12081,10 @@
         <v>105</v>
       </c>
       <c r="N107" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="O107" s="9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P107" s="11" t="n">
         <v>0</v>
@@ -12064,7 +12097,7 @@
         <v>57</v>
       </c>
       <c r="T107" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="U107" s="9" t="s">
         <v>59</v>
@@ -12078,10 +12111,10 @@
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AC107" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AD107" s="9"/>
       <c r="AE107" s="9"/>
@@ -12091,7 +12124,7 @@
       <c r="AI107" s="9"/>
       <c r="AJ107" s="9"/>
       <c r="AK107" s="9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AL107" s="9"/>
       <c r="AM107" s="9"/>
@@ -12108,7 +12141,7 @@
         <v>43</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>45</v>
@@ -12120,43 +12153,43 @@
         <v>2</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K108" s="9" t="n">
         <v>107</v>
       </c>
       <c r="L108" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O108" s="9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P108" s="14" t="n">
         <v>0.1</v>
       </c>
       <c r="Q108" s="9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="R108" s="9"/>
       <c r="S108" s="9" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="T108" s="9"/>
       <c r="U108" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
@@ -12180,7 +12213,7 @@
       <c r="AO108" s="9"/>
       <c r="AP108" s="9"/>
       <c r="AQ108" s="9" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12191,7 +12224,7 @@
         <v>43</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>45</v>
@@ -12203,16 +12236,16 @@
         <v>3</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K109" s="9" t="n">
         <v>108</v>
@@ -12222,21 +12255,21 @@
         <v>107</v>
       </c>
       <c r="N109" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O109" s="9" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P109" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q109" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="R109" s="9"/>
       <c r="S109" s="9"/>
       <c r="T109" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="U109" s="9" t="s">
         <v>59</v>
@@ -12251,13 +12284,13 @@
       </c>
       <c r="Z109" s="9"/>
       <c r="AA109" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AB109" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AC109" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AD109" s="9"/>
       <c r="AE109" s="9"/>
@@ -12267,17 +12300,17 @@
       <c r="AI109" s="9"/>
       <c r="AJ109" s="9"/>
       <c r="AK109" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AL109" s="9"/>
       <c r="AM109" s="9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AN109" s="9"/>
       <c r="AO109" s="9"/>
       <c r="AP109" s="9"/>
       <c r="AQ109" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12288,7 +12321,7 @@
         <v>43</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>45</v>
@@ -12300,16 +12333,16 @@
         <v>3</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K110" s="9" t="n">
         <v>165</v>
@@ -12319,21 +12352,21 @@
         <v>107</v>
       </c>
       <c r="N110" s="9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O110" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P110" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q110" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="R110" s="9"/>
       <c r="S110" s="9"/>
       <c r="T110" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="U110" s="9" t="s">
         <v>59</v>
@@ -12348,13 +12381,13 @@
       </c>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AB110" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AC110" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AD110" s="9"/>
       <c r="AE110" s="9"/>
@@ -12364,17 +12397,17 @@
       <c r="AI110" s="9"/>
       <c r="AJ110" s="9"/>
       <c r="AK110" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AL110" s="9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AM110" s="9"/>
       <c r="AN110" s="9"/>
       <c r="AO110" s="9"/>
       <c r="AP110" s="9"/>
       <c r="AQ110" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12385,7 +12418,7 @@
         <v>43</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>45</v>
@@ -12397,16 +12430,16 @@
         <v>3</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K111" s="9" t="n">
         <v>109</v>
@@ -12416,21 +12449,21 @@
         <v>107</v>
       </c>
       <c r="N111" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O111" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P111" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q111" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="R111" s="9"/>
       <c r="S111" s="9"/>
       <c r="T111" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="U111" s="9" t="s">
         <v>59</v>
@@ -12444,10 +12477,10 @@
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AC111" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AD111" s="9"/>
       <c r="AE111" s="9"/>
@@ -12457,7 +12490,7 @@
       <c r="AI111" s="9"/>
       <c r="AJ111" s="9"/>
       <c r="AK111" s="9" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AL111" s="9"/>
       <c r="AM111" s="9"/>
@@ -12474,7 +12507,7 @@
         <v>43</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>45</v>
@@ -12486,38 +12519,38 @@
         <v>2</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K112" s="9" t="n">
         <v>110</v>
       </c>
       <c r="L112" s="9"/>
-      <c r="M112" s="23"/>
+      <c r="M112" s="24"/>
       <c r="N112" s="9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O112" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P112" s="14" t="n">
         <v>0.025</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="R112" s="3"/>
       <c r="S112" s="9"/>
       <c r="T112" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="U112" s="9" t="s">
         <v>59</v>
@@ -12530,10 +12563,10 @@
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AB112" s="9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AC112" s="9"/>
       <c r="AD112" s="9"/>
@@ -12544,17 +12577,17 @@
       <c r="AI112" s="0"/>
       <c r="AJ112" s="9"/>
       <c r="AK112" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL112" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AM112" s="0"/>
       <c r="AN112" s="9"/>
       <c r="AO112" s="9"/>
       <c r="AP112" s="9"/>
       <c r="AQ112" s="9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12565,7 +12598,7 @@
         <v>43</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>45</v>
@@ -12577,39 +12610,39 @@
         <v>2</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K113" s="9" t="n">
         <v>111</v>
       </c>
       <c r="L113" s="9"/>
-      <c r="M113" s="23"/>
+      <c r="M113" s="24"/>
       <c r="N113" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="O113" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P113" s="14" t="n">
         <v>0.025</v>
       </c>
       <c r="Q113" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="R113" s="9"/>
       <c r="S113" s="9"/>
       <c r="T113" s="9"/>
       <c r="U113" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V113" s="9"/>
       <c r="W113" s="9"/>
@@ -12621,13 +12654,13 @@
         <v>27</v>
       </c>
       <c r="AA113" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AB113" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AC113" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AD113" s="9"/>
       <c r="AE113" s="9"/>
@@ -12637,7 +12670,7 @@
       <c r="AI113" s="9"/>
       <c r="AJ113" s="9"/>
       <c r="AK113" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AL113" s="9"/>
       <c r="AM113" s="9"/>
@@ -12645,7 +12678,7 @@
       <c r="AO113" s="9"/>
       <c r="AP113" s="9"/>
       <c r="AQ113" s="9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12656,7 +12689,7 @@
         <v>43</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>45</v>
@@ -12668,43 +12701,43 @@
         <v>2</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I114" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K114" s="9" t="n">
         <v>112</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="M114" s="23"/>
+        <v>395</v>
+      </c>
+      <c r="M114" s="24"/>
       <c r="N114" s="9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O114" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P114" s="14" t="n">
         <v>0.025</v>
       </c>
       <c r="Q114" s="9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="R114" s="9"/>
       <c r="S114" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T114" s="9"/>
       <c r="U114" s="9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="V114" s="9" t="n">
         <v>0</v>
@@ -12716,7 +12749,7 @@
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
@@ -12728,7 +12761,7 @@
       <c r="AI114" s="9"/>
       <c r="AJ114" s="9"/>
       <c r="AK114" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AL114" s="9"/>
       <c r="AM114" s="9"/>
@@ -12736,7 +12769,7 @@
       <c r="AO114" s="9"/>
       <c r="AP114" s="9"/>
       <c r="AQ114" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12747,7 +12780,7 @@
         <v>43</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>45</v>
@@ -12759,45 +12792,45 @@
         <v>3</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K115" s="9" t="n">
         <v>113</v>
       </c>
       <c r="L115" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M115" s="9" t="n">
         <v>112</v>
       </c>
       <c r="N115" s="9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="O115" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P115" s="11" t="n">
         <v>1</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R115" s="3"/>
       <c r="S115" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T115" s="9"/>
       <c r="U115" s="9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="V115" s="9" t="n">
         <v>0.8</v>
@@ -12811,7 +12844,7 @@
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
@@ -12824,7 +12857,7 @@
       <c r="AJ115" s="9"/>
       <c r="AK115" s="9"/>
       <c r="AL115" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM115" s="9"/>
       <c r="AN115" s="9"/>
@@ -12840,7 +12873,7 @@
         <v>43</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>45</v>
@@ -12852,16 +12885,16 @@
         <v>4</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K116" s="9" t="n">
         <v>114</v>
@@ -12871,10 +12904,10 @@
         <v>113</v>
       </c>
       <c r="N116" s="9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O116" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P116" s="14" t="n">
         <v>0</v>
@@ -12915,7 +12948,7 @@
       <c r="AJ116" s="9"/>
       <c r="AK116" s="9"/>
       <c r="AL116" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM116" s="9"/>
       <c r="AN116" s="9"/>
@@ -12931,7 +12964,7 @@
         <v>43</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>45</v>
@@ -12943,16 +12976,16 @@
         <v>4</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K117" s="9" t="n">
         <v>115</v>
@@ -12962,10 +12995,10 @@
         <v>113</v>
       </c>
       <c r="N117" s="9" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="O117" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P117" s="14" t="n">
         <v>0</v>
@@ -12992,10 +13025,10 @@
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AC117" s="9" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AD117" s="9"/>
       <c r="AE117" s="9"/>
@@ -13006,7 +13039,7 @@
       <c r="AJ117" s="9"/>
       <c r="AK117" s="9"/>
       <c r="AL117" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM117" s="9"/>
       <c r="AN117" s="9"/>
@@ -13022,7 +13055,7 @@
         <v>43</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>45</v>
@@ -13034,16 +13067,16 @@
         <v>4</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I118" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K118" s="9" t="n">
         <v>116</v>
@@ -13053,10 +13086,10 @@
         <v>113</v>
       </c>
       <c r="N118" s="9" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O118" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P118" s="14" t="n">
         <v>0</v>
@@ -13097,7 +13130,7 @@
       <c r="AJ118" s="9"/>
       <c r="AK118" s="9"/>
       <c r="AL118" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM118" s="9"/>
       <c r="AN118" s="9"/>
@@ -13113,7 +13146,7 @@
         <v>43</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>45</v>
@@ -13125,16 +13158,16 @@
         <v>4</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K119" s="9" t="n">
         <v>117</v>
@@ -13144,10 +13177,10 @@
         <v>113</v>
       </c>
       <c r="N119" s="9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O119" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P119" s="14" t="n">
         <v>0</v>
@@ -13188,7 +13221,7 @@
       <c r="AJ119" s="9"/>
       <c r="AK119" s="9"/>
       <c r="AL119" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM119" s="9"/>
       <c r="AN119" s="9"/>
@@ -13204,7 +13237,7 @@
         <v>43</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>45</v>
@@ -13216,16 +13249,16 @@
         <v>4</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K120" s="9" t="n">
         <v>118</v>
@@ -13235,10 +13268,10 @@
         <v>113</v>
       </c>
       <c r="N120" s="9" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O120" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P120" s="14" t="n">
         <v>0</v>
@@ -13268,7 +13301,7 @@
         <v>5449000214744</v>
       </c>
       <c r="AC120" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD120" s="9"/>
       <c r="AE120" s="9"/>
@@ -13279,7 +13312,7 @@
       <c r="AJ120" s="9"/>
       <c r="AK120" s="9"/>
       <c r="AL120" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM120" s="9"/>
       <c r="AN120" s="9"/>
@@ -13295,7 +13328,7 @@
         <v>43</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>45</v>
@@ -13307,16 +13340,16 @@
         <v>4</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K121" s="9" t="n">
         <v>119</v>
@@ -13326,10 +13359,10 @@
         <v>113</v>
       </c>
       <c r="N121" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O121" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="P121" s="14" t="n">
         <v>0</v>
@@ -13370,7 +13403,7 @@
       <c r="AJ121" s="9"/>
       <c r="AK121" s="9"/>
       <c r="AL121" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM121" s="9"/>
       <c r="AN121" s="9"/>
@@ -13386,7 +13419,7 @@
         <v>43</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>45</v>
@@ -13398,16 +13431,16 @@
         <v>4</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K122" s="9" t="n">
         <v>120</v>
@@ -13417,10 +13450,10 @@
         <v>113</v>
       </c>
       <c r="N122" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O122" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P122" s="14" t="n">
         <v>0</v>
@@ -13461,7 +13494,7 @@
       <c r="AJ122" s="9"/>
       <c r="AK122" s="9"/>
       <c r="AL122" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM122" s="9"/>
       <c r="AN122" s="9"/>
@@ -13477,7 +13510,7 @@
         <v>43</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>45</v>
@@ -13489,16 +13522,16 @@
         <v>4</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K123" s="9" t="n">
         <v>121</v>
@@ -13508,10 +13541,10 @@
         <v>113</v>
       </c>
       <c r="N123" s="9" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O123" s="9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P123" s="14" t="n">
         <v>0</v>
@@ -13552,7 +13585,7 @@
       <c r="AJ123" s="9"/>
       <c r="AK123" s="9"/>
       <c r="AL123" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM123" s="9"/>
       <c r="AN123" s="9"/>
@@ -13568,7 +13601,7 @@
         <v>43</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>45</v>
@@ -13580,16 +13613,16 @@
         <v>4</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K124" s="9" t="n">
         <v>122</v>
@@ -13599,10 +13632,10 @@
         <v>113</v>
       </c>
       <c r="N124" s="9" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O124" s="9" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P124" s="14" t="n">
         <v>0</v>
@@ -13643,7 +13676,7 @@
       <c r="AJ124" s="9"/>
       <c r="AK124" s="9"/>
       <c r="AL124" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM124" s="9"/>
       <c r="AN124" s="9"/>
@@ -13659,7 +13692,7 @@
         <v>43</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>45</v>
@@ -13671,16 +13704,16 @@
         <v>4</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K125" s="9" t="n">
         <v>123</v>
@@ -13690,10 +13723,10 @@
         <v>113</v>
       </c>
       <c r="N125" s="9" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O125" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P125" s="14" t="n">
         <v>0</v>
@@ -13734,7 +13767,7 @@
       <c r="AJ125" s="9"/>
       <c r="AK125" s="9"/>
       <c r="AL125" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM125" s="9"/>
       <c r="AN125" s="9"/>
@@ -13750,7 +13783,7 @@
         <v>43</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>45</v>
@@ -13762,16 +13795,16 @@
         <v>4</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K126" s="9" t="n">
         <v>124</v>
@@ -13781,10 +13814,10 @@
         <v>113</v>
       </c>
       <c r="N126" s="9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="O126" s="9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P126" s="14" t="n">
         <v>0</v>
@@ -13825,7 +13858,7 @@
       <c r="AJ126" s="9"/>
       <c r="AK126" s="9"/>
       <c r="AL126" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM126" s="9"/>
       <c r="AN126" s="9"/>
@@ -13841,7 +13874,7 @@
         <v>43</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D127" s="9" t="s">
         <v>45</v>
@@ -13853,16 +13886,16 @@
         <v>4</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K127" s="9" t="n">
         <v>125</v>
@@ -13872,10 +13905,10 @@
         <v>113</v>
       </c>
       <c r="N127" s="9" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="O127" s="9" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P127" s="14" t="n">
         <v>0</v>
@@ -13902,10 +13935,10 @@
       <c r="Z127" s="9"/>
       <c r="AA127" s="9"/>
       <c r="AB127" s="9" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AC127" s="9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AD127" s="9"/>
       <c r="AE127" s="9"/>
@@ -13916,7 +13949,7 @@
       <c r="AJ127" s="9"/>
       <c r="AK127" s="9"/>
       <c r="AL127" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM127" s="9"/>
       <c r="AN127" s="9"/>
@@ -13932,7 +13965,7 @@
         <v>43</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D128" s="9" t="s">
         <v>45</v>
@@ -13944,16 +13977,16 @@
         <v>4</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K128" s="9" t="n">
         <v>126</v>
@@ -13963,10 +13996,10 @@
         <v>113</v>
       </c>
       <c r="N128" s="9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="O128" s="9" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P128" s="14" t="n">
         <v>0</v>
@@ -13993,10 +14026,10 @@
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
       <c r="AB128" s="9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AC128" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AD128" s="9"/>
       <c r="AE128" s="9"/>
@@ -14007,7 +14040,7 @@
       <c r="AJ128" s="9"/>
       <c r="AK128" s="9"/>
       <c r="AL128" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM128" s="9"/>
       <c r="AN128" s="9"/>
@@ -14023,7 +14056,7 @@
         <v>43</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>45</v>
@@ -14035,16 +14068,16 @@
         <v>4</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I129" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K129" s="9" t="n">
         <v>127</v>
@@ -14054,10 +14087,10 @@
         <v>113</v>
       </c>
       <c r="N129" s="9" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O129" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P129" s="14" t="n">
         <v>0</v>
@@ -14098,7 +14131,7 @@
       <c r="AJ129" s="9"/>
       <c r="AK129" s="9"/>
       <c r="AL129" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM129" s="9"/>
       <c r="AN129" s="9"/>
@@ -14114,7 +14147,7 @@
         <v>43</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D130" s="9" t="s">
         <v>45</v>
@@ -14126,16 +14159,16 @@
         <v>4</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K130" s="9" t="n">
         <v>128</v>
@@ -14145,10 +14178,10 @@
         <v>113</v>
       </c>
       <c r="N130" s="9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O130" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P130" s="14" t="n">
         <v>0</v>
@@ -14189,7 +14222,7 @@
       <c r="AJ130" s="9"/>
       <c r="AK130" s="9"/>
       <c r="AL130" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM130" s="9"/>
       <c r="AN130" s="9"/>
@@ -14205,7 +14238,7 @@
         <v>43</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>45</v>
@@ -14217,16 +14250,16 @@
         <v>4</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I131" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K131" s="9" t="n">
         <v>129</v>
@@ -14236,10 +14269,10 @@
         <v>113</v>
       </c>
       <c r="N131" s="9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="O131" s="9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P131" s="14" t="n">
         <v>0</v>
@@ -14280,7 +14313,7 @@
       <c r="AJ131" s="9"/>
       <c r="AK131" s="9"/>
       <c r="AL131" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM131" s="9"/>
       <c r="AN131" s="9"/>
@@ -14296,7 +14329,7 @@
         <v>43</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>45</v>
@@ -14308,45 +14341,45 @@
         <v>3</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I132" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K132" s="9" t="n">
         <v>130</v>
       </c>
       <c r="L132" s="10" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M132" s="9" t="n">
         <v>112</v>
       </c>
       <c r="N132" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O132" s="9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P132" s="11" t="n">
         <v>0.5</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R132" s="3"/>
       <c r="S132" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T132" s="9"/>
       <c r="U132" s="9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="V132" s="9" t="n">
         <v>0.8</v>
@@ -14360,7 +14393,7 @@
       <c r="Y132" s="9"/>
       <c r="Z132" s="9"/>
       <c r="AA132" s="9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AB132" s="9"/>
       <c r="AC132" s="9"/>
@@ -14373,7 +14406,7 @@
       <c r="AJ132" s="9"/>
       <c r="AK132" s="9"/>
       <c r="AL132" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM132" s="9"/>
       <c r="AN132" s="9"/>
@@ -14389,7 +14422,7 @@
         <v>43</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>45</v>
@@ -14401,16 +14434,16 @@
         <v>4</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I133" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K133" s="9" t="n">
         <v>131</v>
@@ -14420,10 +14453,10 @@
         <v>130</v>
       </c>
       <c r="N133" s="9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O133" s="9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P133" s="14" t="n">
         <v>0</v>
@@ -14464,7 +14497,7 @@
       <c r="AJ133" s="9"/>
       <c r="AK133" s="9"/>
       <c r="AL133" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM133" s="9"/>
       <c r="AN133" s="9"/>
@@ -14480,7 +14513,7 @@
         <v>43</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D134" s="9" t="s">
         <v>45</v>
@@ -14492,16 +14525,16 @@
         <v>4</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K134" s="9" t="n">
         <v>132</v>
@@ -14511,10 +14544,10 @@
         <v>130</v>
       </c>
       <c r="N134" s="9" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="O134" s="9" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P134" s="14" t="n">
         <v>0</v>
@@ -14555,7 +14588,7 @@
       <c r="AJ134" s="9"/>
       <c r="AK134" s="9"/>
       <c r="AL134" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM134" s="9"/>
       <c r="AN134" s="9"/>
@@ -14571,7 +14604,7 @@
         <v>43</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>45</v>
@@ -14583,16 +14616,16 @@
         <v>4</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K135" s="9" t="n">
         <v>133</v>
@@ -14602,10 +14635,10 @@
         <v>130</v>
       </c>
       <c r="N135" s="9" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O135" s="9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P135" s="14" t="n">
         <v>0</v>
@@ -14646,7 +14679,7 @@
       <c r="AJ135" s="9"/>
       <c r="AK135" s="9"/>
       <c r="AL135" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM135" s="9"/>
       <c r="AN135" s="9"/>
@@ -14662,7 +14695,7 @@
         <v>43</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>45</v>
@@ -14674,16 +14707,16 @@
         <v>4</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K136" s="9" t="n">
         <v>134</v>
@@ -14693,10 +14726,10 @@
         <v>130</v>
       </c>
       <c r="N136" s="9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="O136" s="9" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="P136" s="14" t="n">
         <v>0</v>
@@ -14737,7 +14770,7 @@
       <c r="AJ136" s="9"/>
       <c r="AK136" s="9"/>
       <c r="AL136" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM136" s="9"/>
       <c r="AN136" s="9"/>
@@ -14753,7 +14786,7 @@
         <v>43</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>45</v>
@@ -14765,16 +14798,16 @@
         <v>4</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K137" s="9" t="n">
         <v>135</v>
@@ -14784,10 +14817,10 @@
         <v>130</v>
       </c>
       <c r="N137" s="9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="O137" s="9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P137" s="14" t="n">
         <v>0</v>
@@ -14828,7 +14861,7 @@
       <c r="AJ137" s="9"/>
       <c r="AK137" s="9"/>
       <c r="AL137" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM137" s="9"/>
       <c r="AN137" s="9"/>
@@ -14844,7 +14877,7 @@
         <v>43</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>45</v>
@@ -14856,16 +14889,16 @@
         <v>4</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K138" s="9" t="n">
         <v>136</v>
@@ -14875,10 +14908,10 @@
         <v>130</v>
       </c>
       <c r="N138" s="9" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="O138" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P138" s="14" t="n">
         <v>0</v>
@@ -14919,7 +14952,7 @@
       <c r="AJ138" s="9"/>
       <c r="AK138" s="9"/>
       <c r="AL138" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM138" s="9"/>
       <c r="AN138" s="9"/>
@@ -14935,7 +14968,7 @@
         <v>43</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D139" s="9" t="s">
         <v>45</v>
@@ -14947,16 +14980,16 @@
         <v>4</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K139" s="9" t="n">
         <v>137</v>
@@ -14966,10 +14999,10 @@
         <v>130</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="O139" s="9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P139" s="14" t="n">
         <v>0</v>
@@ -15010,7 +15043,7 @@
       <c r="AJ139" s="9"/>
       <c r="AK139" s="9"/>
       <c r="AL139" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM139" s="9"/>
       <c r="AN139" s="9"/>
@@ -15026,7 +15059,7 @@
         <v>43</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D140" s="9" t="s">
         <v>45</v>
@@ -15038,16 +15071,16 @@
         <v>4</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I140" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K140" s="9" t="n">
         <v>138</v>
@@ -15057,10 +15090,10 @@
         <v>130</v>
       </c>
       <c r="N140" s="9" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O140" s="9" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P140" s="14" t="n">
         <v>0</v>
@@ -15101,7 +15134,7 @@
       <c r="AJ140" s="9"/>
       <c r="AK140" s="9"/>
       <c r="AL140" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM140" s="9"/>
       <c r="AN140" s="9"/>
@@ -15117,7 +15150,7 @@
         <v>43</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D141" s="9" t="s">
         <v>45</v>
@@ -15129,16 +15162,16 @@
         <v>4</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K141" s="9" t="n">
         <v>139</v>
@@ -15148,10 +15181,10 @@
         <v>130</v>
       </c>
       <c r="N141" s="9" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="O141" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P141" s="14" t="n">
         <v>0</v>
@@ -15192,7 +15225,7 @@
       <c r="AJ141" s="9"/>
       <c r="AK141" s="9"/>
       <c r="AL141" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM141" s="9"/>
       <c r="AN141" s="9"/>
@@ -15208,7 +15241,7 @@
         <v>43</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>45</v>
@@ -15220,16 +15253,16 @@
         <v>4</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K142" s="9" t="n">
         <v>140</v>
@@ -15239,10 +15272,10 @@
         <v>130</v>
       </c>
       <c r="N142" s="9" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="O142" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P142" s="14" t="n">
         <v>0</v>
@@ -15283,7 +15316,7 @@
       <c r="AJ142" s="9"/>
       <c r="AK142" s="9"/>
       <c r="AL142" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM142" s="9"/>
       <c r="AN142" s="9"/>
@@ -15299,7 +15332,7 @@
         <v>43</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>45</v>
@@ -15311,16 +15344,16 @@
         <v>4</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K143" s="9" t="n">
         <v>141</v>
@@ -15330,10 +15363,10 @@
         <v>130</v>
       </c>
       <c r="N143" s="9" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O143" s="9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P143" s="14" t="n">
         <v>0</v>
@@ -15374,7 +15407,7 @@
       <c r="AJ143" s="9"/>
       <c r="AK143" s="9"/>
       <c r="AL143" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM143" s="9"/>
       <c r="AN143" s="9"/>
@@ -15390,7 +15423,7 @@
         <v>43</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>45</v>
@@ -15402,45 +15435,45 @@
         <v>3</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K144" s="9" t="n">
         <v>142</v>
       </c>
       <c r="L144" s="10" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M144" s="9" t="n">
         <v>112</v>
       </c>
       <c r="N144" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O144" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="P144" s="11" t="n">
         <v>0.5</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="R144" s="3"/>
       <c r="S144" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T144" s="9"/>
       <c r="U144" s="9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="V144" s="9" t="n">
         <v>0.8</v>
@@ -15454,7 +15487,7 @@
       <c r="Y144" s="9"/>
       <c r="Z144" s="9"/>
       <c r="AA144" s="9" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AB144" s="9"/>
       <c r="AC144" s="9"/>
@@ -15467,7 +15500,7 @@
       <c r="AJ144" s="9"/>
       <c r="AK144" s="9"/>
       <c r="AL144" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AM144" s="9"/>
       <c r="AN144" s="9"/>
@@ -15483,7 +15516,7 @@
         <v>43</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>45</v>
@@ -15495,16 +15528,16 @@
         <v>4</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K145" s="9" t="n">
         <v>143</v>
@@ -15514,10 +15547,10 @@
         <v>142</v>
       </c>
       <c r="N145" s="9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="O145" s="9" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P145" s="14" t="n">
         <v>0</v>
@@ -15558,7 +15591,7 @@
       <c r="AJ145" s="9"/>
       <c r="AK145" s="9"/>
       <c r="AL145" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AM145" s="9"/>
       <c r="AN145" s="9"/>
@@ -15574,7 +15607,7 @@
         <v>43</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>45</v>
@@ -15586,16 +15619,16 @@
         <v>4</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K146" s="9" t="n">
         <v>144</v>
@@ -15605,10 +15638,10 @@
         <v>142</v>
       </c>
       <c r="N146" s="9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O146" s="9" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="P146" s="14" t="n">
         <v>0</v>
@@ -15649,7 +15682,7 @@
       <c r="AJ146" s="9"/>
       <c r="AK146" s="9"/>
       <c r="AL146" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AM146" s="9"/>
       <c r="AN146" s="9"/>
@@ -15665,7 +15698,7 @@
         <v>43</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>45</v>
@@ -15677,16 +15710,16 @@
         <v>4</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I147" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K147" s="9" t="n">
         <v>145</v>
@@ -15696,10 +15729,10 @@
         <v>142</v>
       </c>
       <c r="N147" s="9" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O147" s="9" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P147" s="14" t="n">
         <v>0</v>
@@ -15740,7 +15773,7 @@
       <c r="AJ147" s="9"/>
       <c r="AK147" s="9"/>
       <c r="AL147" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AM147" s="9"/>
       <c r="AN147" s="9"/>
@@ -15756,7 +15789,7 @@
         <v>43</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>45</v>
@@ -15768,16 +15801,16 @@
         <v>4</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K148" s="9" t="n">
         <v>146</v>
@@ -15787,10 +15820,10 @@
         <v>142</v>
       </c>
       <c r="N148" s="9" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O148" s="9" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P148" s="14" t="n">
         <v>0</v>
@@ -15831,7 +15864,7 @@
       <c r="AJ148" s="9"/>
       <c r="AK148" s="9"/>
       <c r="AL148" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AM148" s="9"/>
       <c r="AN148" s="9"/>
@@ -15847,7 +15880,7 @@
         <v>43</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>45</v>
@@ -15859,16 +15892,16 @@
         <v>4</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K149" s="9" t="n">
         <v>147</v>
@@ -15878,10 +15911,10 @@
         <v>142</v>
       </c>
       <c r="N149" s="9" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O149" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P149" s="14" t="n">
         <v>0</v>
@@ -15922,7 +15955,7 @@
       <c r="AJ149" s="9"/>
       <c r="AK149" s="9"/>
       <c r="AL149" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AM149" s="9"/>
       <c r="AN149" s="9"/>
@@ -15938,7 +15971,7 @@
         <v>43</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>45</v>
@@ -15950,16 +15983,16 @@
         <v>4</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K150" s="9" t="n">
         <v>148</v>
@@ -15969,10 +16002,10 @@
         <v>142</v>
       </c>
       <c r="N150" s="9" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="O150" s="9" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P150" s="14" t="n">
         <v>0</v>
@@ -15999,10 +16032,10 @@
       <c r="Z150" s="9"/>
       <c r="AA150" s="9"/>
       <c r="AB150" s="9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AC150" s="9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AD150" s="9"/>
       <c r="AE150" s="9"/>
@@ -16013,7 +16046,7 @@
       <c r="AJ150" s="9"/>
       <c r="AK150" s="9"/>
       <c r="AL150" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AM150" s="9"/>
       <c r="AN150" s="9"/>
@@ -16029,7 +16062,7 @@
         <v>43</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>45</v>
@@ -16041,16 +16074,16 @@
         <v>4</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K151" s="9" t="n">
         <v>149</v>
@@ -16060,10 +16093,10 @@
         <v>142</v>
       </c>
       <c r="N151" s="9" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="O151" s="9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P151" s="14" t="n">
         <v>0</v>
@@ -16090,10 +16123,10 @@
       <c r="Z151" s="9"/>
       <c r="AA151" s="9"/>
       <c r="AB151" s="9" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AC151" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AD151" s="9"/>
       <c r="AE151" s="9"/>
@@ -16104,7 +16137,7 @@
       <c r="AJ151" s="9"/>
       <c r="AK151" s="9"/>
       <c r="AL151" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AM151" s="9"/>
       <c r="AN151" s="9"/>
@@ -16120,7 +16153,7 @@
         <v>43</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>45</v>
@@ -16132,16 +16165,16 @@
         <v>4</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K152" s="9" t="n">
         <v>150</v>
@@ -16151,10 +16184,10 @@
         <v>142</v>
       </c>
       <c r="N152" s="9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="O152" s="9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P152" s="14" t="n">
         <v>0</v>
@@ -16180,11 +16213,11 @@
       <c r="Y152" s="9"/>
       <c r="Z152" s="9"/>
       <c r="AA152" s="9"/>
-      <c r="AB152" s="9" t="s">
-        <v>489</v>
+      <c r="AB152" s="25" t="s">
+        <v>491</v>
       </c>
       <c r="AC152" s="9" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AD152" s="9"/>
       <c r="AE152" s="9"/>
@@ -16195,7 +16228,7 @@
       <c r="AJ152" s="9"/>
       <c r="AK152" s="9"/>
       <c r="AL152" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AM152" s="9"/>
       <c r="AN152" s="9"/>
@@ -16211,7 +16244,7 @@
         <v>43</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>45</v>
@@ -16223,16 +16256,16 @@
         <v>4</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J153" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K153" s="9" t="n">
         <v>151</v>
@@ -16242,10 +16275,10 @@
         <v>142</v>
       </c>
       <c r="N153" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="O153" s="9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="P153" s="14" t="n">
         <v>0</v>
@@ -16286,7 +16319,7 @@
       <c r="AJ153" s="9"/>
       <c r="AK153" s="9"/>
       <c r="AL153" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AM153" s="9"/>
       <c r="AN153" s="9"/>
@@ -16302,7 +16335,7 @@
         <v>43</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>45</v>
@@ -16314,16 +16347,16 @@
         <v>4</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I154" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J154" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K154" s="9" t="n">
         <v>152</v>
@@ -16333,10 +16366,10 @@
         <v>142</v>
       </c>
       <c r="N154" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O154" s="9" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P154" s="14" t="n">
         <v>0</v>
@@ -16363,10 +16396,10 @@
       <c r="Z154" s="9"/>
       <c r="AA154" s="9"/>
       <c r="AB154" s="9" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AC154" s="9" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AD154" s="9"/>
       <c r="AE154" s="9"/>
@@ -16377,7 +16410,7 @@
       <c r="AJ154" s="9"/>
       <c r="AK154" s="9"/>
       <c r="AL154" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AM154" s="9"/>
       <c r="AN154" s="9"/>
@@ -16393,7 +16426,7 @@
         <v>43</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>45</v>
@@ -16405,41 +16438,41 @@
         <v>2</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J155" s="9" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K155" s="9" t="n">
         <v>153</v>
       </c>
       <c r="L155" s="9"/>
-      <c r="M155" s="23"/>
+      <c r="M155" s="24"/>
       <c r="N155" s="9" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O155" s="9" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P155" s="14" t="n">
         <v>0.025</v>
       </c>
       <c r="Q155" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="R155" s="9"/>
       <c r="S155" s="9"/>
       <c r="T155" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="U155" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="V155" s="9"/>
       <c r="W155" s="9"/>
@@ -16447,10 +16480,10 @@
       <c r="Y155" s="9"/>
       <c r="Z155" s="9"/>
       <c r="AA155" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AB155" s="9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AC155" s="9"/>
       <c r="AD155" s="9"/>
@@ -16461,7 +16494,7 @@
       <c r="AI155" s="9"/>
       <c r="AJ155" s="9"/>
       <c r="AK155" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AL155" s="9"/>
       <c r="AM155" s="9"/>
@@ -16469,7 +16502,7 @@
       <c r="AO155" s="9"/>
       <c r="AP155" s="9"/>
       <c r="AQ155" s="9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="30.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16479,14 +16512,14 @@
       <c r="B156" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C156" s="23" t="s">
-        <v>500</v>
+      <c r="C156" s="24" t="s">
+        <v>502</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
@@ -16500,24 +16533,24 @@
         <v>101</v>
       </c>
       <c r="M156" s="9"/>
-      <c r="N156" s="23" t="s">
-        <v>502</v>
+      <c r="N156" s="24" t="s">
+        <v>504</v>
       </c>
       <c r="O156" s="13" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="P156" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q156" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="R156" s="9" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="S156" s="9"/>
       <c r="T156" s="9" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="U156" s="9"/>
       <c r="V156" s="9"/>
@@ -16550,14 +16583,14 @@
       <c r="B157" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C157" s="23" t="s">
-        <v>507</v>
+      <c r="C157" s="24" t="s">
+        <v>509</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
@@ -16568,27 +16601,27 @@
         <v>155</v>
       </c>
       <c r="L157" s="10" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M157" s="9"/>
-      <c r="N157" s="23" t="s">
-        <v>509</v>
+      <c r="N157" s="24" t="s">
+        <v>511</v>
       </c>
       <c r="O157" s="13" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="P157" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q157" s="9" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="R157" s="9" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="S157" s="9"/>
       <c r="T157" s="9" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="U157" s="9"/>
       <c r="V157" s="9"/>
@@ -16621,14 +16654,14 @@
       <c r="B158" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C158" s="23" t="s">
-        <v>513</v>
+      <c r="C158" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
@@ -16642,24 +16675,24 @@
         <v>105</v>
       </c>
       <c r="M158" s="9"/>
-      <c r="N158" s="23" t="s">
-        <v>514</v>
+      <c r="N158" s="24" t="s">
+        <v>516</v>
       </c>
       <c r="O158" s="13" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="P158" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q158" s="9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="R158" s="9" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="S158" s="9"/>
       <c r="T158" s="9" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="U158" s="9"/>
       <c r="V158" s="9"/>
@@ -16692,14 +16725,14 @@
       <c r="B159" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C159" s="23" t="s">
-        <v>516</v>
+      <c r="C159" s="24" t="s">
+        <v>518</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
@@ -16711,24 +16744,24 @@
       </c>
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
-      <c r="N159" s="23" t="s">
-        <v>517</v>
+      <c r="N159" s="24" t="s">
+        <v>519</v>
       </c>
       <c r="O159" s="9" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="P159" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q159" s="9" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="R159" s="9" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="S159" s="9"/>
       <c r="T159" s="9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="U159" s="9"/>
       <c r="V159" s="9"/>
@@ -16738,7 +16771,7 @@
       <c r="Z159" s="9"/>
       <c r="AA159" s="9"/>
       <c r="AB159" s="9" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AC159" s="9"/>
       <c r="AD159" s="9"/>
@@ -16749,10 +16782,10 @@
       <c r="AI159" s="9"/>
       <c r="AJ159" s="9"/>
       <c r="AK159" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AL159" s="10" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AM159" s="9"/>
       <c r="AN159" s="9"/>
@@ -16767,14 +16800,14 @@
       <c r="B160" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C160" s="23" t="s">
-        <v>523</v>
+      <c r="C160" s="24" t="s">
+        <v>525</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
@@ -16786,24 +16819,24 @@
       </c>
       <c r="L160" s="9"/>
       <c r="M160" s="9"/>
-      <c r="N160" s="23" t="s">
-        <v>524</v>
+      <c r="N160" s="24" t="s">
+        <v>526</v>
       </c>
       <c r="O160" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="P160" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q160" s="9" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="R160" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="S160" s="9"/>
       <c r="T160" s="9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="U160" s="9"/>
       <c r="V160" s="9"/>
@@ -16813,7 +16846,7 @@
       <c r="Z160" s="9"/>
       <c r="AA160" s="9"/>
       <c r="AB160" s="9" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AC160" s="9"/>
       <c r="AD160" s="9"/>
@@ -16825,7 +16858,7 @@
       <c r="AJ160" s="9"/>
       <c r="AK160" s="9"/>
       <c r="AL160" s="10" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AM160" s="9"/>
       <c r="AN160" s="9"/>
@@ -16840,14 +16873,14 @@
       <c r="B161" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C161" s="23" t="s">
-        <v>530</v>
+      <c r="C161" s="24" t="s">
+        <v>532</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
@@ -16859,24 +16892,24 @@
       </c>
       <c r="L161" s="9"/>
       <c r="M161" s="9"/>
-      <c r="N161" s="23" t="s">
-        <v>531</v>
+      <c r="N161" s="24" t="s">
+        <v>533</v>
       </c>
       <c r="O161" s="9" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="P161" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q161" s="9" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="R161" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="S161" s="9"/>
       <c r="T161" s="9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="U161" s="9"/>
       <c r="V161" s="9"/>
@@ -16886,7 +16919,7 @@
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
       <c r="AB161" s="9" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AC161" s="9"/>
       <c r="AD161" s="9"/>
@@ -16898,7 +16931,7 @@
       <c r="AJ161" s="9"/>
       <c r="AK161" s="9"/>
       <c r="AL161" s="10" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AM161" s="9"/>
       <c r="AN161" s="9"/>
@@ -16913,14 +16946,14 @@
       <c r="B162" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C162" s="23" t="s">
-        <v>534</v>
+      <c r="C162" s="24" t="s">
+        <v>536</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -16932,24 +16965,24 @@
       </c>
       <c r="L162" s="9"/>
       <c r="M162" s="9"/>
-      <c r="N162" s="23" t="s">
-        <v>535</v>
+      <c r="N162" s="24" t="s">
+        <v>537</v>
       </c>
       <c r="O162" s="9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="P162" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q162" s="9" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="R162" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="S162" s="9"/>
       <c r="T162" s="9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="U162" s="9"/>
       <c r="V162" s="9"/>
@@ -16959,7 +16992,7 @@
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
       <c r="AB162" s="9" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AC162" s="9"/>
       <c r="AD162" s="9"/>
@@ -16971,7 +17004,7 @@
       <c r="AJ162" s="9"/>
       <c r="AK162" s="9"/>
       <c r="AL162" s="10" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AM162" s="9"/>
       <c r="AN162" s="9"/>
@@ -16986,14 +17019,14 @@
       <c r="B163" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C163" s="23" t="s">
-        <v>538</v>
+      <c r="C163" s="24" t="s">
+        <v>540</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
@@ -17007,24 +17040,24 @@
         <v>83</v>
       </c>
       <c r="M163" s="9"/>
-      <c r="N163" s="23" t="s">
-        <v>539</v>
+      <c r="N163" s="24" t="s">
+        <v>541</v>
       </c>
       <c r="O163" s="9" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="P163" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q163" s="9" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="R163" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="S163" s="9"/>
       <c r="T163" s="9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="U163" s="9"/>
       <c r="V163" s="9"/>
@@ -17034,7 +17067,7 @@
       <c r="Z163" s="9"/>
       <c r="AA163" s="9"/>
       <c r="AB163" s="10" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AC163" s="9"/>
       <c r="AD163" s="9"/>
@@ -17046,7 +17079,7 @@
       <c r="AJ163" s="9"/>
       <c r="AK163" s="9"/>
       <c r="AL163" s="10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AM163" s="9"/>
       <c r="AN163" s="9"/>
@@ -17061,14 +17094,14 @@
       <c r="B164" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C164" s="23" t="s">
-        <v>538</v>
+      <c r="C164" s="24" t="s">
+        <v>540</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
@@ -17082,24 +17115,24 @@
         <v>91</v>
       </c>
       <c r="M164" s="9"/>
-      <c r="N164" s="23" t="s">
-        <v>539</v>
+      <c r="N164" s="24" t="s">
+        <v>541</v>
       </c>
       <c r="O164" s="9" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="P164" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q164" s="9" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="R164" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="S164" s="9"/>
       <c r="T164" s="9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="U164" s="9"/>
       <c r="V164" s="9"/>
@@ -17109,7 +17142,7 @@
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
       <c r="AB164" s="10" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AC164" s="9"/>
       <c r="AD164" s="9"/>
@@ -17121,7 +17154,7 @@
       <c r="AJ164" s="9"/>
       <c r="AK164" s="9"/>
       <c r="AL164" s="10" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AM164" s="9"/>
       <c r="AN164" s="9"/>
@@ -17136,14 +17169,14 @@
       <c r="B165" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C165" s="23" t="s">
-        <v>538</v>
+      <c r="C165" s="24" t="s">
+        <v>540</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
@@ -17157,24 +17190,24 @@
         <v>88</v>
       </c>
       <c r="M165" s="9"/>
-      <c r="N165" s="23" t="s">
-        <v>539</v>
+      <c r="N165" s="24" t="s">
+        <v>541</v>
       </c>
       <c r="O165" s="9" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="P165" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q165" s="9" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="R165" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="S165" s="9"/>
       <c r="T165" s="9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="U165" s="9"/>
       <c r="V165" s="9"/>
@@ -17184,7 +17217,7 @@
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
       <c r="AB165" s="10" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AC165" s="9"/>
       <c r="AD165" s="9"/>
@@ -17196,7 +17229,7 @@
       <c r="AJ165" s="9"/>
       <c r="AK165" s="9"/>
       <c r="AL165" s="10" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AM165" s="9"/>
       <c r="AN165" s="9"/>
@@ -17211,14 +17244,14 @@
       <c r="B166" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C166" s="23" t="s">
-        <v>538</v>
+      <c r="C166" s="24" t="s">
+        <v>540</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
@@ -17232,24 +17265,24 @@
         <v>96</v>
       </c>
       <c r="M166" s="9"/>
-      <c r="N166" s="23" t="s">
-        <v>539</v>
+      <c r="N166" s="24" t="s">
+        <v>541</v>
       </c>
       <c r="O166" s="9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="P166" s="11" t="n">
         <v>0</v>
       </c>
       <c r="Q166" s="9" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="R166" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="S166" s="9"/>
       <c r="T166" s="9" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="U166" s="9"/>
       <c r="V166" s="9"/>
@@ -17259,7 +17292,7 @@
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
       <c r="AB166" s="10" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AC166" s="9"/>
       <c r="AD166" s="9"/>
@@ -17271,7 +17304,7 @@
       <c r="AJ166" s="9"/>
       <c r="AK166" s="9"/>
       <c r="AL166" s="10" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AM166" s="9"/>
       <c r="AN166" s="9"/>
@@ -17568,12 +17601,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -17604,49 +17637,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>552</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="I1" s="25" t="s">
+      <c r="G1" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>554</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>555</v>
-      </c>
-      <c r="M1" s="25" t="s">
+      <c r="K1" s="27" t="s">
         <v>556</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="26" t="s">
-        <v>557</v>
+      <c r="B4" s="28" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
